--- a/_data/CDLEML_WP_Progress_EML-Process.xlsx
+++ b/_data/CDLEML_WP_Progress_EML-Process.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20372"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20373"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\01_Admin\09_Projektplanung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0B822F4-10F9-4381-8E56-0DBF9E502B09}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17A110F5-52B7-447C-A6F7-5074FD0622AA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EML_Tool_WP" sheetId="18" r:id="rId1"/>
@@ -18,11 +18,12 @@
     <sheet name="AG_Progress" sheetId="22" r:id="rId3"/>
     <sheet name="AG_Progress_Ext" sheetId="30" r:id="rId4"/>
     <sheet name="AG_Students" sheetId="27" r:id="rId5"/>
-    <sheet name="Compl_Thesis" sheetId="26" r:id="rId6"/>
-    <sheet name="Software" sheetId="29" r:id="rId7"/>
-    <sheet name="Upcoming_Thesis" sheetId="23" r:id="rId8"/>
-    <sheet name="Members" sheetId="25" r:id="rId9"/>
-    <sheet name="Settings" sheetId="24" r:id="rId10"/>
+    <sheet name="Active_Thesis" sheetId="31" r:id="rId6"/>
+    <sheet name="Compl_Thesis" sheetId="26" r:id="rId7"/>
+    <sheet name="Software" sheetId="29" r:id="rId8"/>
+    <sheet name="Upcoming_Thesis" sheetId="23" r:id="rId9"/>
+    <sheet name="Members" sheetId="25" r:id="rId10"/>
+    <sheet name="Settings" sheetId="24" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">AG_Progress!$A$1:$F$54</definedName>
@@ -30,7 +31,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">AG_Students!$A$1:$G$54</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'AG_Web_Activities '!$A$1:$D$54</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">EML_Tool_WP!$A$1:$BB$254</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Upcoming_Thesis!$A$1:$I$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Upcoming_Thesis!$A$1:$I$4</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">EML_Tool_WP!$A$1:$Q$222</definedName>
   </definedNames>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1715" uniqueCount="745">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1790" uniqueCount="765">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -302,9 +303,6 @@
   </si>
   <si>
     <t>d</t>
-  </si>
-  <si>
-    <t>NVIDIA Jetson Nano Hardware Optimierung Implementierung auf Nano</t>
   </si>
   <si>
     <t>SH</t>
@@ -1966,11 +1964,6 @@
     <t xml:space="preserve">[] Repo </t>
   </si>
   <si>
-    <t>*Bakarbeit fast fertig. 
-* Zusatzmessungen von ME offen
-* Batchsize 1-4 getestet</t>
-  </si>
-  <si>
     <t>[] Exposé schreiben</t>
   </si>
   <si>
@@ -2045,12 +2038,6 @@
   </si>
   <si>
     <t>We collect scripts and guides that help us in our everyday work to setup software and frameworks. This repository is also the source of an EML Toolbox that aims to easyily implement machine learning toolchains.</t>
-  </si>
-  <si>
-    <t>Im synchronen Modus nur. Im async geht das nicht. 
-Zusatzmessungen Jetson Nano
-- Batchsize 1-4, weil sie mit einem Netz mehrere Sensorinputs gleichzeitig anschauen, Synchronbilder
-- Powerminimierung bzw. Powerkontrolle, weil es bei Xavier öfters passiert ist, dass der 100W Netzteil überlastet wird und das Gerät thermisch eingeht. Stresstests wären hier interessant für die Geräte bzw. wie man so einen Zustand vermeiden kann.</t>
   </si>
   <si>
     <t>* Dieselbe Messungen wir bei Nano 
@@ -2193,10 +2180,6 @@
 [] Guides how to setup the environments
 [] Guides how to do inference with a pretrained model
 [] Validation networks for each framework</t>
-  </si>
-  <si>
-    <t>[] Evaluation of stick sync vs. async mode and other settings of NCS2 as part of thesis MW
-[x] Results included in ANNETTE D1.1.3</t>
   </si>
   <si>
     <t>[] Documented analysis how many needed kernels, share of FPGA used, consequences of consumes power, tradeoff between speedup and power
@@ -2292,10 +2275,6 @@
     <t>Datenset fertig und mit EfficientDet getestet</t>
   </si>
   <si>
-    <t>[] Documented evaluation of EfficientDet, SSD-MobileNet and Yolo on NVIDIA, Edge TPU and NCS2
-[] Pedestrian training dataset created from official sources</t>
-  </si>
-  <si>
     <t>[] Documentation of evaluation of performance and latency of segmentation network on NVIDIA 
 [] Trained network and data in repository
 [] Ragweed dataset on fileserver</t>
@@ -2585,9 +2564,6 @@
     <t># realistisch 30.11</t>
   </si>
   <si>
-    <t># wird fertig bis 25.5</t>
-  </si>
-  <si>
     <t># 25.5 fertig</t>
   </si>
   <si>
@@ -2685,12 +2661,6 @@
     <t xml:space="preserve">Power-Aware Pruning on Embedded Platforms with Reinforcement Learning </t>
   </si>
   <si>
-    <t xml:space="preserve">[] Software von SH anpassen und auf dem letzten Stand bringen
-[] Messungen sammeln bzw. Messungen von SH wieder durchführen
-[] Bericht mit notwendigen Messungen drinnen (Paper mit Zusatzmessungen)
-</t>
-  </si>
-  <si>
     <t>[] For each device, characterzation Batchsizes 1-4, variation of possible HW options e.g. GPU frequency, definition of settings for min. latency, min power and min energy
 # Bis september fertig stellen</t>
   </si>
@@ -2745,11 +2715,104 @@
     <t>* Pub: https://ieeexplore.ieee.org/abstract/document/9290876</t>
   </si>
   <si>
-    <t>[] (ME) For each device, characterzation Batchsizes 1-4, variation of possible HW options: GPU frequency, definition of settings for min. latency, min power and min energy
+    <t>[] (TUG) Documented evaluation of EfficientDet, SSD-MobileNet and Yolo on NVIDIA, Edge TPU and NCS2
+[] Optimal Network+Optimizer+Hardware as code
+[] Pedestrian training dataset created from official sources</t>
+  </si>
+  <si>
+    <t>NVIDIA Jetson Nano Optimierungsscripts erstellen</t>
+  </si>
+  <si>
+    <t>Layerstruktur. Im synchronen Modus nur. Im async geht das nicht. 
+Zusatzmessungen Jetson Nano
+- Batchsize 1-4, weil sie mit einem Netz mehrere Sensorinputs gleichzeitig anschauen, Synchronbilder
+- Powerminimierung bzw. Powerkontrolle, weil es bei Xavier öfters passiert ist, dass der 100W Netzteil überlastet wird und das Gerät thermisch eingeht. Stresstests wären hier interessant für die Geräte bzw. wie man so einen Zustand vermeiden kann.
+- Für die Messungen soll ein SSD-MobileNetV2 verwendet werden</t>
+  </si>
+  <si>
+    <t>[] Software von SH anpassen und auf dem letzten Stand bringen
+[] Jetson Nano an Matveys Setup bringen
+[] Messungen mit SSD-MobileNetV2 durchführen mit Matveys Setup
+[] Bericht mit notwendigen Messungen drinnen (Paper mit Zusatzmessungen)
+[] Anwendung der Messdaten in einem Estimator</t>
+  </si>
+  <si>
+    <t>[] (ME) For each device and SSD-MobileNetV2, characterzation Batchsizes 1-4, variation of possible HW options: GPU frequency, definition of settings for min. latency, min power and min energy
 [] Analysis of Jetson, TX2, Xavier
 [] (ME) Analysis of power peaks to prevent overheating
-[] (ME) HW configurator in EML Github to select mode
+[] (ME) HW configurator script in EML Github to select mode
 [x] Publikation</t>
+  </si>
+  <si>
+    <t>Wird bis 25.5 fertig</t>
+  </si>
+  <si>
+    <t>[] Evaluation of stick sync vs. async mode and other settings of NCS2 as part of thesis MW
+[] Execution and configuration scripts in Scripts-and-Guides repository
+[x] Results included in ANNETTE D1.1.3</t>
+  </si>
+  <si>
+    <t>[] Student für die Arbeit finden</t>
+  </si>
+  <si>
+    <t>[] Scripts in scripts-and-guides</t>
+  </si>
+  <si>
+    <t>[] Doku Matvey fertig</t>
+  </si>
+  <si>
+    <t>Ph.D</t>
+  </si>
+  <si>
+    <t>Check if exist</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Seminar</t>
+  </si>
+  <si>
+    <t>Autopruning mit Intel Distiller und Evaluation auf einem Jetson Xavier AGX</t>
+  </si>
+  <si>
+    <t>Evaluation of Quantization Aware Training Methods for INT8 and lower bit-widths for image classification, object detection and segmentation</t>
+  </si>
+  <si>
+    <t>Optimierung eines Deep Neural Network mit Hilfe von OpenVino für eine Fußgängererkennungsalgorithmus</t>
+  </si>
+  <si>
+    <t>Simultanous Detection and Segmentation of Different Objects</t>
+  </si>
+  <si>
+    <t>Optimizing DNNs for efficient dronebased ragweed detection</t>
+  </si>
+  <si>
+    <t>Tensorflow Lite Object Detection on an Android Smart Phone</t>
+  </si>
+  <si>
+    <t>Compressing MobileNet With Shunt Connections for NVIDIA Hardware</t>
+  </si>
+  <si>
+    <t>https://github.com/embedded-machine-learning/annette</t>
+  </si>
+  <si>
+    <t>Accurate Neural Network Execution Time Estimation</t>
+  </si>
+  <si>
+    <t>ANNETE</t>
+  </si>
+  <si>
+    <t>https://github.com/embedded-machine-learning/squeezenas_train</t>
+  </si>
+  <si>
+    <t>Re-Implementation of SqueezeNas</t>
+  </si>
+  <si>
+    <t>SqueezeNAS Repository with reimplementation for a custom semenatic segementation task</t>
+  </si>
+  <si>
+    <t>Dynamic post-training Quantization of Tiny-YoloV3</t>
   </si>
 </sst>
 </file>
@@ -4053,7 +4116,7 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="342">
+  <cellXfs count="343">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -5064,6 +5127,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="56" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Link" xfId="3" builtinId="8"/>
@@ -15443,10 +15509,10 @@
   <dimension ref="A1:BE254"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="AY4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C175" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="BA36" sqref="BA36"/>
+      <selection pane="bottomRight" activeCell="B195" sqref="B195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -15489,7 +15555,7 @@
   <sheetData>
     <row r="1" spans="1:54" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="338" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B1" s="339"/>
       <c r="C1" s="340">
@@ -15535,16 +15601,16 @@
       <c r="AK1" s="334"/>
       <c r="AL1" s="334"/>
       <c r="AM1" s="196" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AN1" s="196" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AO1" s="157" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AP1" s="158" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AQ1" s="76" t="s">
         <v>12</v>
@@ -15556,31 +15622,31 @@
         <v>14</v>
       </c>
       <c r="AT1" s="82" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AU1" s="90" t="s">
         <v>13</v>
       </c>
       <c r="AV1" s="90" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AW1" s="90" t="s">
+        <v>424</v>
+      </c>
+      <c r="AX1" s="90" t="s">
         <v>425</v>
       </c>
-      <c r="AX1" s="90" t="s">
+      <c r="AY1" s="90" t="s">
         <v>426</v>
       </c>
-      <c r="AY1" s="90" t="s">
-        <v>427</v>
-      </c>
       <c r="AZ1" s="90" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="BA1" s="90" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="BB1" s="90" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:54" x14ac:dyDescent="0.3">
@@ -16036,10 +16102,10 @@
         <v>0.54594594594594592</v>
       </c>
       <c r="AQ6" s="171" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AR6" s="116" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AS6" s="90"/>
       <c r="AT6" s="106"/>
@@ -16054,10 +16120,10 @@
     </row>
     <row r="7" spans="1:54" ht="28.8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A7" s="192" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B7" s="119" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C7" s="120"/>
       <c r="D7" s="121"/>
@@ -16107,41 +16173,41 @@
         <v>1</v>
       </c>
       <c r="AQ7" s="125" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AR7" s="126" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AS7" s="127" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AT7" s="127"/>
       <c r="AU7" s="128"/>
       <c r="AV7" s="128" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AW7" s="128" t="str">
         <f>"D"&amp;RIGHT(A7,5)</f>
         <v>D1.1.1</v>
       </c>
       <c r="AX7" s="128" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="AY7" s="128" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AZ7" s="128" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="BA7" s="128" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="BB7" s="190"/>
     </row>
     <row r="8" spans="1:54" ht="100.8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A8" s="192"/>
       <c r="B8" s="112" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C8" s="17"/>
       <c r="D8" s="16"/>
@@ -16195,14 +16261,14 @@
         <v>56</v>
       </c>
       <c r="AR8" s="85" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AS8" s="80" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AT8" s="80"/>
       <c r="AU8" s="89" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AV8" s="89"/>
       <c r="AW8" s="89"/>
@@ -16270,10 +16336,10 @@
     </row>
     <row r="10" spans="1:54" ht="72" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A10" s="192" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B10" s="119" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C10" s="120"/>
       <c r="D10" s="121"/>
@@ -16323,10 +16389,10 @@
         <v>0.81111111111111112</v>
       </c>
       <c r="AQ10" s="125" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AR10" s="126" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AS10" s="127" t="s">
         <v>47</v>
@@ -16336,23 +16402,23 @@
       </c>
       <c r="AU10" s="128"/>
       <c r="AV10" s="128" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AW10" s="128" t="str">
         <f>"D"&amp;RIGHT(A10,5)</f>
         <v>D1.1.2</v>
       </c>
       <c r="AX10" s="128" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="AY10" s="128" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AZ10" s="128" t="s">
-        <v>735</v>
+        <v>728</v>
       </c>
       <c r="BA10" s="128" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="BB10" s="190">
         <v>1</v>
@@ -16361,7 +16427,7 @@
     <row r="11" spans="1:54" ht="57.6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A11" s="192"/>
       <c r="B11" s="114" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C11" s="17"/>
       <c r="D11" s="16"/>
@@ -16423,14 +16489,14 @@
       </c>
       <c r="AQ11" s="92"/>
       <c r="AR11" s="80" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AS11" s="80" t="s">
         <v>47</v>
       </c>
       <c r="AT11" s="80"/>
       <c r="AU11" s="89" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="AV11" s="89"/>
       <c r="AW11" s="89"/>
@@ -16443,7 +16509,7 @@
     <row r="12" spans="1:54" ht="100.8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A12" s="192"/>
       <c r="B12" s="114" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C12" s="38"/>
       <c r="D12" s="37"/>
@@ -16505,21 +16571,21 @@
         <v>37</v>
       </c>
       <c r="AR12" s="80" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AS12" s="80" t="s">
         <v>47</v>
       </c>
       <c r="AT12" s="80"/>
       <c r="AU12" s="89" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="AV12" s="89"/>
       <c r="AW12" s="89"/>
       <c r="AX12" s="89"/>
       <c r="AY12" s="89"/>
       <c r="AZ12" s="89" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="BA12" s="89"/>
       <c r="BB12" s="186"/>
@@ -16527,7 +16593,7 @@
     <row r="13" spans="1:54" ht="100.8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A13" s="192"/>
       <c r="B13" s="114" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C13" s="38"/>
       <c r="D13" s="37"/>
@@ -16589,14 +16655,14 @@
         <v>37</v>
       </c>
       <c r="AR13" s="80" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AS13" s="80" t="s">
         <v>47</v>
       </c>
       <c r="AT13" s="80"/>
       <c r="AU13" s="89" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="AV13" s="89"/>
       <c r="AW13" s="89"/>
@@ -16608,10 +16674,10 @@
     </row>
     <row r="14" spans="1:54" ht="72" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A14" s="192" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B14" s="119" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C14" s="120"/>
       <c r="D14" s="121"/>
@@ -16661,10 +16727,10 @@
         <v>0.85454545454545461</v>
       </c>
       <c r="AQ14" s="125" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AR14" s="126" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AS14" s="127" t="s">
         <v>46</v>
@@ -16674,23 +16740,23 @@
       </c>
       <c r="AU14" s="128"/>
       <c r="AV14" s="128" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AW14" s="128" t="str">
         <f>"D"&amp;RIGHT(A14,5)</f>
         <v>D1.1.3</v>
       </c>
       <c r="AX14" s="128" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AY14" s="128" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AZ14" s="128" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="BA14" s="128" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="BB14" s="190">
         <v>1</v>
@@ -16699,7 +16765,7 @@
     <row r="15" spans="1:54" ht="36.6" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A15" s="192"/>
       <c r="B15" s="115" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C15" s="38"/>
       <c r="D15" s="37"/>
@@ -16759,7 +16825,7 @@
       <c r="AX15" s="89"/>
       <c r="AY15" s="89"/>
       <c r="AZ15" s="89" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="BA15" s="89"/>
       <c r="BB15" s="186"/>
@@ -16767,7 +16833,7 @@
     <row r="16" spans="1:54" ht="28.8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A16" s="192"/>
       <c r="B16" s="115" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C16" s="38"/>
       <c r="D16" s="37"/>
@@ -16823,14 +16889,14 @@
       </c>
       <c r="AQ16" s="92"/>
       <c r="AR16" s="80" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="AS16" s="80" t="s">
         <v>46</v>
       </c>
       <c r="AT16" s="80"/>
       <c r="AU16" s="89" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="AV16" s="89"/>
       <c r="AW16" s="89"/>
@@ -16843,7 +16909,7 @@
     <row r="17" spans="1:54" s="153" customFormat="1" ht="28.8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A17" s="143"/>
       <c r="B17" s="144" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C17" s="145"/>
       <c r="D17" s="146"/>
@@ -16889,7 +16955,7 @@
       <c r="AP17" s="150"/>
       <c r="AQ17" s="151"/>
       <c r="AR17" s="152" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AS17" s="152"/>
       <c r="AT17" s="152"/>
@@ -16905,7 +16971,7 @@
     <row r="18" spans="1:54" ht="100.8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A18" s="192"/>
       <c r="B18" s="115" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="16"/>
@@ -16960,17 +17026,17 @@
         <v>1</v>
       </c>
       <c r="AQ18" s="92" t="s">
+        <v>166</v>
+      </c>
+      <c r="AR18" s="80" t="s">
         <v>167</v>
-      </c>
-      <c r="AR18" s="80" t="s">
-        <v>168</v>
       </c>
       <c r="AS18" s="80" t="s">
         <v>46</v>
       </c>
       <c r="AT18" s="80"/>
       <c r="AU18" s="89" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="AV18" s="89"/>
       <c r="AW18" s="89"/>
@@ -16983,7 +17049,7 @@
     <row r="19" spans="1:54" ht="28.8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A19" s="192"/>
       <c r="B19" s="115" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C19" s="99"/>
       <c r="D19" s="108"/>
@@ -17037,14 +17103,14 @@
       </c>
       <c r="AQ19" s="92"/>
       <c r="AR19" s="80" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="AS19" s="80" t="s">
         <v>46</v>
       </c>
       <c r="AT19" s="80"/>
       <c r="AU19" s="89" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="AV19" s="89"/>
       <c r="AW19" s="89"/>
@@ -17112,10 +17178,10 @@
     </row>
     <row r="21" spans="1:54" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A21" s="192" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B21" s="119" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C21" s="120"/>
       <c r="D21" s="121"/>
@@ -17165,18 +17231,18 @@
         <v>0.2</v>
       </c>
       <c r="AQ21" s="125" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AR21" s="126" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AS21" s="127" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AT21" s="127"/>
       <c r="AU21" s="128"/>
       <c r="AV21" s="128" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AW21" s="128"/>
       <c r="AX21" s="128"/>
@@ -17188,7 +17254,7 @@
     <row r="22" spans="1:54" ht="100.8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A22" s="192"/>
       <c r="B22" s="115" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C22" s="24"/>
       <c r="D22" s="23"/>
@@ -17243,17 +17309,17 @@
         <v>0.2</v>
       </c>
       <c r="AQ22" s="92" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AR22" s="85" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AS22" s="80" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AT22" s="80"/>
       <c r="AU22" s="89" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AV22" s="89"/>
       <c r="AW22" s="89"/>
@@ -17321,10 +17387,10 @@
     </row>
     <row r="24" spans="1:54" ht="43.2" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A24" s="192" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B24" s="119" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C24" s="120"/>
       <c r="D24" s="121"/>
@@ -17366,7 +17432,7 @@
         <v>44146</v>
       </c>
       <c r="AN24" s="201">
-        <v>44347</v>
+        <v>44439</v>
       </c>
       <c r="AO24" s="160"/>
       <c r="AP24" s="124">
@@ -17374,42 +17440,42 @@
         <v>6.25E-2</v>
       </c>
       <c r="AQ24" s="125" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AR24" s="126"/>
       <c r="AS24" s="127" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AT24" s="127" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AU24" s="128"/>
       <c r="AV24" s="128" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AW24" s="128" t="s">
+        <v>489</v>
+      </c>
+      <c r="AX24" s="128" t="s">
+        <v>493</v>
+      </c>
+      <c r="AY24" s="128" t="s">
         <v>490</v>
       </c>
-      <c r="AX24" s="128" t="s">
-        <v>494</v>
-      </c>
-      <c r="AY24" s="128" t="s">
-        <v>491</v>
-      </c>
       <c r="AZ24" s="128" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="BA24" s="128" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="BB24" s="190">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:54" ht="100.8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:54" ht="100.8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A25" s="192"/>
       <c r="B25" s="115" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C25" s="24"/>
       <c r="D25" s="23"/>
@@ -17468,29 +17534,29 @@
         <v>0.1</v>
       </c>
       <c r="AQ25" s="92" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AR25" s="80"/>
       <c r="AS25" s="80" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AT25" s="80" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AU25" s="89" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="AV25" s="89"/>
       <c r="AW25" s="89"/>
       <c r="AX25" s="89"/>
       <c r="AY25" s="89"/>
       <c r="AZ25" s="89" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="BA25" s="89"/>
       <c r="BB25" s="186"/>
     </row>
-    <row r="26" spans="1:54" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:54" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A26" s="192"/>
       <c r="B26" s="115"/>
       <c r="C26" s="24"/>
@@ -17546,7 +17612,7 @@
       <c r="BA26" s="89"/>
       <c r="BB26" s="186"/>
     </row>
-    <row r="27" spans="1:54" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:54" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A27" s="192"/>
       <c r="B27" s="115"/>
       <c r="C27" s="24"/>
@@ -17602,7 +17668,7 @@
       <c r="BA27" s="89"/>
       <c r="BB27" s="186"/>
     </row>
-    <row r="28" spans="1:54" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:54" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A28" s="192"/>
       <c r="B28" s="115"/>
       <c r="C28" s="24"/>
@@ -17658,10 +17724,10 @@
       <c r="BA28" s="89"/>
       <c r="BB28" s="186"/>
     </row>
-    <row r="29" spans="1:54" ht="28.8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:54" ht="28.8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A29" s="192"/>
       <c r="B29" s="115" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C29" s="24"/>
       <c r="D29" s="23"/>
@@ -17708,10 +17774,10 @@
         <v>0</v>
       </c>
       <c r="AQ29" s="92" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AR29" s="80" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AS29" s="80" t="s">
         <v>46</v>
@@ -17726,7 +17792,7 @@
       <c r="BA29" s="89"/>
       <c r="BB29" s="186"/>
     </row>
-    <row r="30" spans="1:54" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:54" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A30" s="192"/>
       <c r="B30" s="115"/>
       <c r="C30" s="99"/>
@@ -17782,12 +17848,12 @@
       <c r="BA30" s="89"/>
       <c r="BB30" s="186"/>
     </row>
-    <row r="31" spans="1:54" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:54" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A31" s="192" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B31" s="119" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C31" s="120"/>
       <c r="D31" s="121"/>
@@ -17835,7 +17901,7 @@
         <v>0</v>
       </c>
       <c r="AQ31" s="125" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AR31" s="126"/>
       <c r="AS31" s="127" t="s">
@@ -17844,14 +17910,14 @@
       <c r="AT31" s="127"/>
       <c r="AU31" s="128"/>
       <c r="AV31" s="128" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AW31" s="128"/>
       <c r="AX31" s="128"/>
       <c r="AY31" s="128"/>
       <c r="AZ31" s="128"/>
       <c r="BA31" s="128" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="BB31" s="190">
         <v>3</v>
@@ -17860,7 +17926,7 @@
     <row r="32" spans="1:54" ht="129.6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A32" s="14"/>
       <c r="B32" s="115" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C32" s="24"/>
       <c r="D32" s="23"/>
@@ -17921,24 +17987,24 @@
         <v>0</v>
       </c>
       <c r="AQ32" s="92" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AR32" s="80" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AS32" s="80" t="s">
         <v>47</v>
       </c>
       <c r="AT32" s="80"/>
       <c r="AU32" s="89" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AV32" s="89"/>
       <c r="AW32" s="89"/>
       <c r="AX32" s="89"/>
       <c r="AY32" s="89"/>
       <c r="AZ32" s="89" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="BA32" s="89"/>
       <c r="BB32" s="186"/>
@@ -18142,10 +18208,10 @@
         <v>0.40689655172413797</v>
       </c>
       <c r="AQ35" s="171" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AR35" s="116" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AS35" s="90"/>
       <c r="AT35" s="90"/>
@@ -18158,12 +18224,12 @@
       <c r="BA35" s="219"/>
       <c r="BB35" s="191"/>
     </row>
-    <row r="36" spans="1:54" ht="99.6" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:54" ht="115.2" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A36" s="192" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B36" s="119" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="C36" s="120"/>
       <c r="D36" s="121"/>
@@ -18213,7 +18279,7 @@
         <v>0.41111111111111115</v>
       </c>
       <c r="AQ36" s="125" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AR36" s="126"/>
       <c r="AS36" s="127" t="s">
@@ -18222,32 +18288,32 @@
       <c r="AT36" s="127"/>
       <c r="AU36" s="128"/>
       <c r="AV36" s="128" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AW36" s="128" t="str">
         <f>"D"&amp;RIGHT(A36,5)</f>
         <v>D1.2.1</v>
       </c>
       <c r="AX36" s="128" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AY36" s="128" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AZ36" s="128" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="BA36" s="128" t="s">
-        <v>743</v>
+        <v>736</v>
       </c>
       <c r="BB36" s="190">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:54" ht="172.8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:54" ht="200.4" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A37" s="192"/>
       <c r="B37" s="15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C37" s="38"/>
       <c r="D37" s="37"/>
@@ -18279,11 +18345,21 @@
       <c r="Z37" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="AA37" s="40"/>
-      <c r="AB37" s="37"/>
-      <c r="AC37" s="39"/>
-      <c r="AD37" s="38"/>
-      <c r="AE37" s="311"/>
+      <c r="AA37" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB37" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC37" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD37" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE37" s="311" t="s">
+        <v>87</v>
+      </c>
       <c r="AF37" s="40"/>
       <c r="AG37" s="38"/>
       <c r="AH37" s="37"/>
@@ -18300,24 +18376,22 @@
         <v>0.8</v>
       </c>
       <c r="AQ37" s="61" t="s">
-        <v>570</v>
-      </c>
-      <c r="AR37" s="93" t="s">
-        <v>545</v>
-      </c>
+        <v>739</v>
+      </c>
+      <c r="AR37" s="93"/>
       <c r="AS37" s="80" t="s">
         <v>26</v>
       </c>
       <c r="AT37" s="80"/>
       <c r="AU37" s="91" t="s">
-        <v>732</v>
+        <v>740</v>
       </c>
       <c r="AV37" s="91"/>
       <c r="AW37" s="89"/>
       <c r="AX37" s="89"/>
       <c r="AY37" s="89"/>
       <c r="AZ37" s="89" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="BA37" s="89"/>
       <c r="BB37" s="186"/>
@@ -18325,7 +18399,7 @@
     <row r="38" spans="1:54" ht="43.2" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A38" s="192"/>
       <c r="B38" s="15" t="s">
-        <v>88</v>
+        <v>738</v>
       </c>
       <c r="C38" s="38"/>
       <c r="D38" s="37"/>
@@ -18355,11 +18429,21 @@
       <c r="Z38" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="AA38" s="40"/>
-      <c r="AB38" s="37"/>
-      <c r="AC38" s="39"/>
-      <c r="AD38" s="38"/>
-      <c r="AE38" s="311"/>
+      <c r="AA38" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB38" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC38" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD38" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE38" s="311" t="s">
+        <v>87</v>
+      </c>
       <c r="AF38" s="40"/>
       <c r="AG38" s="38"/>
       <c r="AH38" s="37"/>
@@ -18376,15 +18460,15 @@
         <v>0.5</v>
       </c>
       <c r="AQ38" s="61" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AR38" s="93"/>
       <c r="AS38" s="80" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="AT38" s="80"/>
       <c r="AU38" s="91" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="AV38" s="91"/>
       <c r="AW38" s="89"/>
@@ -18397,7 +18481,7 @@
     <row r="39" spans="1:54" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A39" s="192"/>
       <c r="B39" s="15" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C39" s="38"/>
       <c r="D39" s="37"/>
@@ -18429,9 +18513,15 @@
       <c r="AB39" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="AC39" s="39"/>
-      <c r="AD39" s="38"/>
-      <c r="AE39" s="311"/>
+      <c r="AC39" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD39" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE39" s="311" t="s">
+        <v>87</v>
+      </c>
       <c r="AF39" s="40"/>
       <c r="AG39" s="38"/>
       <c r="AH39" s="37"/>
@@ -18448,13 +18538,13 @@
         <v>0</v>
       </c>
       <c r="AQ39" s="61" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AR39" s="93" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AS39" s="80" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="AT39" s="80"/>
       <c r="AU39" s="91"/>
@@ -18469,7 +18559,7 @@
     <row r="40" spans="1:54" ht="57.6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A40" s="192"/>
       <c r="B40" s="15" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C40" s="38"/>
       <c r="D40" s="37"/>
@@ -18500,8 +18590,12 @@
       <c r="AC40" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="AD40" s="38"/>
-      <c r="AE40" s="311"/>
+      <c r="AD40" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE40" s="311" t="s">
+        <v>87</v>
+      </c>
       <c r="AF40" s="40"/>
       <c r="AG40" s="38"/>
       <c r="AH40" s="37"/>
@@ -18518,13 +18612,13 @@
         <v>0</v>
       </c>
       <c r="AQ40" s="61" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="AR40" s="93" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AS40" s="80" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="AT40" s="80"/>
       <c r="AU40" s="91"/>
@@ -18594,10 +18688,10 @@
     </row>
     <row r="42" spans="1:54" ht="115.2" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A42" s="192" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B42" s="119" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="C42" s="120"/>
       <c r="D42" s="121"/>
@@ -18647,7 +18741,7 @@
         <v>0.45999999999999996</v>
       </c>
       <c r="AQ42" s="125" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AR42" s="126"/>
       <c r="AS42" s="127" t="s">
@@ -18656,20 +18750,20 @@
       <c r="AT42" s="127"/>
       <c r="AU42" s="128"/>
       <c r="AV42" s="128" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AW42" s="128" t="str">
         <f>"D"&amp;RIGHT(A42,5)</f>
         <v>D1.2.2</v>
       </c>
       <c r="AX42" s="128" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="AY42" s="128" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AZ42" s="128" t="s">
-        <v>737</v>
+        <v>730</v>
       </c>
       <c r="BA42" s="128"/>
       <c r="BB42" s="190">
@@ -18679,7 +18773,7 @@
     <row r="43" spans="1:54" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A43" s="192"/>
       <c r="B43" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C43" s="38"/>
       <c r="D43" s="37"/>
@@ -18728,7 +18822,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ43" s="61" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AR43" s="93"/>
       <c r="AS43" s="80" t="s">
@@ -18741,7 +18835,7 @@
       <c r="AX43" s="89"/>
       <c r="AY43" s="89"/>
       <c r="AZ43" s="89" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="BA43" s="89"/>
       <c r="BB43" s="186"/>
@@ -18749,7 +18843,7 @@
     <row r="44" spans="1:54" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A44" s="192"/>
       <c r="B44" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C44" s="38"/>
       <c r="D44" s="37"/>
@@ -18812,10 +18906,10 @@
     </row>
     <row r="45" spans="1:54" ht="86.4" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A45" s="192" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B45" s="119" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="C45" s="120"/>
       <c r="D45" s="121"/>
@@ -18865,28 +18959,28 @@
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="AQ45" s="125" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AR45" s="126"/>
       <c r="AS45" s="127" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AT45" s="127"/>
       <c r="AU45" s="128"/>
       <c r="AV45" s="128" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AW45" s="128" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AX45" s="128" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="AY45" s="128" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AZ45" s="128" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="BA45" s="128"/>
       <c r="BB45" s="190">
@@ -18896,7 +18990,7 @@
     <row r="46" spans="1:54" ht="57.6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A46" s="192"/>
       <c r="B46" s="15" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="C46" s="38"/>
       <c r="D46" s="37"/>
@@ -18955,22 +19049,22 @@
         <v>0.2</v>
       </c>
       <c r="AQ46" s="61" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="AR46" s="93"/>
       <c r="AS46" s="80" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AT46" s="80"/>
       <c r="AU46" s="91" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="AV46" s="91"/>
       <c r="AW46" s="89"/>
       <c r="AX46" s="89"/>
       <c r="AY46" s="89"/>
       <c r="AZ46" s="89" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="BA46" s="89"/>
       <c r="BB46" s="186"/>
@@ -18978,7 +19072,7 @@
     <row r="47" spans="1:54" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A47" s="192"/>
       <c r="B47" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C47" s="38"/>
       <c r="D47" s="37"/>
@@ -19035,7 +19129,7 @@
       <c r="AQ47" s="61"/>
       <c r="AR47" s="93"/>
       <c r="AS47" s="80" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AT47" s="80"/>
       <c r="AU47" s="91"/>
@@ -19047,12 +19141,12 @@
       <c r="BA47" s="89"/>
       <c r="BB47" s="186"/>
     </row>
-    <row r="48" spans="1:54" ht="47.4" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:54" ht="72" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A48" s="192" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B48" s="119" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="C48" s="120"/>
       <c r="D48" s="121"/>
@@ -19102,7 +19196,7 @@
         <v>0.60000000000000009</v>
       </c>
       <c r="AQ48" s="125" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AR48" s="126"/>
       <c r="AS48" s="127" t="s">
@@ -19111,19 +19205,19 @@
       <c r="AT48" s="127"/>
       <c r="AU48" s="128"/>
       <c r="AV48" s="128" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AW48" s="128" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AX48" s="128" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="AY48" s="128" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AZ48" s="128" t="s">
-        <v>599</v>
+        <v>743</v>
       </c>
       <c r="BA48" s="128"/>
       <c r="BB48" s="190">
@@ -19133,7 +19227,7 @@
     <row r="49" spans="1:54" ht="28.8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A49" s="35"/>
       <c r="B49" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C49" s="38"/>
       <c r="D49" s="37"/>
@@ -19180,30 +19274,30 @@
         <v>0.1</v>
       </c>
       <c r="AQ49" s="61" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AR49" s="93" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AS49" s="85" t="s">
         <v>63</v>
       </c>
       <c r="AT49" s="85"/>
-      <c r="AU49" s="91"/>
+      <c r="AU49" s="91" t="s">
+        <v>744</v>
+      </c>
       <c r="AV49" s="91"/>
       <c r="AW49" s="89"/>
       <c r="AX49" s="89"/>
       <c r="AY49" s="89"/>
-      <c r="AZ49" s="89" t="s">
-        <v>704</v>
-      </c>
+      <c r="AZ49" s="89"/>
       <c r="BA49" s="89"/>
       <c r="BB49" s="186"/>
     </row>
     <row r="50" spans="1:54" ht="43.2" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A50" s="35"/>
       <c r="B50" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C50" s="99"/>
       <c r="D50" s="108"/>
@@ -19250,24 +19344,28 @@
         <v>1</v>
       </c>
       <c r="AQ50" s="61" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AR50" s="93"/>
       <c r="AS50" s="85"/>
       <c r="AT50" s="85"/>
-      <c r="AU50" s="91"/>
+      <c r="AU50" s="91" t="s">
+        <v>745</v>
+      </c>
       <c r="AV50" s="91"/>
       <c r="AW50" s="89"/>
       <c r="AX50" s="89"/>
       <c r="AY50" s="89"/>
-      <c r="AZ50" s="89"/>
+      <c r="AZ50" s="89" t="s">
+        <v>742</v>
+      </c>
       <c r="BA50" s="89"/>
       <c r="BB50" s="186"/>
     </row>
     <row r="51" spans="1:54" ht="86.4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A51" s="35"/>
       <c r="B51" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C51" s="38"/>
       <c r="D51" s="37"/>
@@ -19318,14 +19416,16 @@
         <v>1</v>
       </c>
       <c r="AQ51" s="61" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AR51" s="93"/>
       <c r="AS51" s="80" t="s">
         <v>50</v>
       </c>
       <c r="AT51" s="80"/>
-      <c r="AU51" s="91"/>
+      <c r="AU51" s="91" t="s">
+        <v>746</v>
+      </c>
       <c r="AV51" s="91"/>
       <c r="AW51" s="89"/>
       <c r="AX51" s="89"/>
@@ -19336,10 +19436,10 @@
     </row>
     <row r="52" spans="1:54" ht="72" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A52" s="192" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="B52" s="119" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="C52" s="120"/>
       <c r="D52" s="121"/>
@@ -19381,7 +19481,7 @@
         <v>44273</v>
       </c>
       <c r="AN52" s="201">
-        <v>44331</v>
+        <v>44346</v>
       </c>
       <c r="AO52" s="160"/>
       <c r="AP52" s="124">
@@ -19391,36 +19491,36 @@
       <c r="AQ52" s="125"/>
       <c r="AR52" s="126"/>
       <c r="AS52" s="127" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AT52" s="127" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AU52" s="128"/>
       <c r="AV52" s="128" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AW52" s="128" t="s">
+        <v>688</v>
+      </c>
+      <c r="AX52" s="128" t="s">
         <v>693</v>
       </c>
-      <c r="AX52" s="128" t="s">
-        <v>698</v>
-      </c>
       <c r="AY52" s="128" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="AZ52" s="128" t="s">
-        <v>734</v>
+        <v>727</v>
       </c>
       <c r="BA52" s="128"/>
       <c r="BB52" s="190">
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:54" ht="28.8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:54" ht="28.8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A53" s="35"/>
       <c r="B53" s="15" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="C53" s="38"/>
       <c r="D53" s="37"/>
@@ -19473,16 +19573,16 @@
         <v>0.05</v>
       </c>
       <c r="AQ53" s="61" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="AR53" s="93" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AS53" s="85" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AT53" s="85" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AU53" s="91"/>
       <c r="AV53" s="91"/>
@@ -19490,15 +19590,15 @@
       <c r="AX53" s="89"/>
       <c r="AY53" s="89"/>
       <c r="AZ53" s="89" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="BA53" s="89"/>
       <c r="BB53" s="186"/>
     </row>
-    <row r="54" spans="1:54" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:54" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A54" s="35"/>
       <c r="B54" s="15" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="C54" s="99"/>
       <c r="D54" s="108"/>
@@ -19532,12 +19632,8 @@
       <c r="AF54" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="AG54" s="99" t="s">
-        <v>15</v>
-      </c>
-      <c r="AH54" s="108" t="s">
-        <v>15</v>
-      </c>
+      <c r="AG54" s="99"/>
+      <c r="AH54" s="108"/>
       <c r="AI54" s="109"/>
       <c r="AJ54" s="99"/>
       <c r="AK54" s="109"/>
@@ -19563,7 +19659,7 @@
       <c r="BA54" s="89"/>
       <c r="BB54" s="186"/>
     </row>
-    <row r="55" spans="1:54" s="45" customFormat="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:54" s="45" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A55" s="27"/>
       <c r="B55" s="28"/>
       <c r="C55" s="179"/>
@@ -19688,7 +19784,7 @@
         <v>0.5570175438596493</v>
       </c>
       <c r="AQ56" s="173" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AR56" s="93"/>
       <c r="AS56" s="106"/>
@@ -19704,10 +19800,10 @@
     </row>
     <row r="57" spans="1:54" ht="57.6" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A57" s="192" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B57" s="119" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="C57" s="120"/>
       <c r="D57" s="121"/>
@@ -19753,7 +19849,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ57" s="125" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AR57" s="126"/>
       <c r="AS57" s="127" t="s">
@@ -19762,20 +19858,20 @@
       <c r="AT57" s="127"/>
       <c r="AU57" s="128"/>
       <c r="AV57" s="128" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AW57" s="128"/>
       <c r="AX57" s="128" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="AY57" s="128" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="AZ57" s="128" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="BA57" s="128" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="BB57" s="190">
         <v>2</v>
@@ -19784,7 +19880,7 @@
     <row r="58" spans="1:54" ht="100.8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A58" s="192"/>
       <c r="B58" s="113" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="C58" s="24"/>
       <c r="D58" s="23"/>
@@ -19850,21 +19946,21 @@
         <v>49</v>
       </c>
       <c r="AR58" s="85" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AS58" s="80" t="s">
         <v>63</v>
       </c>
       <c r="AT58" s="80"/>
       <c r="AU58" s="89" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="AV58" s="89"/>
       <c r="AW58" s="89"/>
       <c r="AX58" s="89"/>
       <c r="AY58" s="89"/>
       <c r="AZ58" s="89" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="BA58" s="89"/>
       <c r="BB58" s="186"/>
@@ -19872,7 +19968,7 @@
     <row r="59" spans="1:54" ht="57.6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A59" s="192"/>
       <c r="B59" s="113" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C59" s="17"/>
       <c r="D59" s="16"/>
@@ -19933,7 +20029,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ59" s="92" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AR59" s="80"/>
       <c r="AS59" s="80" t="s">
@@ -19941,7 +20037,7 @@
       </c>
       <c r="AT59" s="80"/>
       <c r="AU59" s="89" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AV59" s="89"/>
       <c r="AW59" s="89"/>
@@ -20009,10 +20105,10 @@
     </row>
     <row r="61" spans="1:54" ht="100.8" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A61" s="192" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B61" s="119" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="C61" s="120"/>
       <c r="D61" s="121"/>
@@ -20062,7 +20158,7 @@
         <v>0.79999999999999993</v>
       </c>
       <c r="AQ61" s="125" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AR61" s="126"/>
       <c r="AS61" s="127" t="s">
@@ -20071,20 +20167,20 @@
       <c r="AT61" s="127"/>
       <c r="AU61" s="128"/>
       <c r="AV61" s="128" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AW61" s="128" t="str">
         <f>"D"&amp;RIGHT(A61,5)</f>
         <v>D1.3.2</v>
       </c>
       <c r="AX61" s="128" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AY61" s="128" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AZ61" s="128" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="BA61" s="128"/>
       <c r="BB61" s="190">
@@ -20094,7 +20190,7 @@
     <row r="62" spans="1:54" ht="100.8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A62" s="192"/>
       <c r="B62" s="114" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C62" s="24"/>
       <c r="D62" s="23"/>
@@ -20145,10 +20241,10 @@
         <v>0.8</v>
       </c>
       <c r="AQ62" s="77" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AR62" s="94" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AS62" s="80" t="s">
         <v>26</v>
@@ -20160,7 +20256,7 @@
       <c r="AX62" s="89"/>
       <c r="AY62" s="89"/>
       <c r="AZ62" s="89" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="BA62" s="89"/>
       <c r="BB62" s="186"/>
@@ -20168,7 +20264,7 @@
     <row r="63" spans="1:54" ht="72" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A63" s="192"/>
       <c r="B63" s="114" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C63" s="17"/>
       <c r="D63" s="16"/>
@@ -20222,14 +20318,14 @@
         <v>34</v>
       </c>
       <c r="AR63" s="80" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="AS63" s="80" t="s">
         <v>26</v>
       </c>
       <c r="AT63" s="80"/>
       <c r="AU63" s="80" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AV63" s="80"/>
       <c r="AW63" s="89"/>
@@ -20242,7 +20338,7 @@
     <row r="64" spans="1:54" ht="43.2" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A64" s="192"/>
       <c r="B64" s="114" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C64" s="24"/>
       <c r="D64" s="23"/>
@@ -20294,7 +20390,7 @@
         <v>34</v>
       </c>
       <c r="AR64" s="94" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AS64" s="80" t="s">
         <v>26</v>
@@ -20312,7 +20408,7 @@
     <row r="65" spans="1:54" ht="43.2" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A65" s="192"/>
       <c r="B65" s="114" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C65" s="24"/>
       <c r="D65" s="23"/>
@@ -20364,7 +20460,7 @@
         <v>34</v>
       </c>
       <c r="AR65" s="94" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AS65" s="80" t="s">
         <v>26</v>
@@ -20382,7 +20478,7 @@
     <row r="66" spans="1:54" ht="57.6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A66" s="192"/>
       <c r="B66" s="114" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C66" s="17"/>
       <c r="D66" s="16"/>
@@ -20441,7 +20537,7 @@
       </c>
       <c r="AT66" s="80"/>
       <c r="AU66" s="97" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AV66" s="97"/>
       <c r="AW66" s="89"/>
@@ -20509,10 +20605,10 @@
     </row>
     <row r="68" spans="1:54" ht="86.4" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A68" s="192" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B68" s="119" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="C68" s="120"/>
       <c r="D68" s="121"/>
@@ -20562,7 +20658,7 @@
         <v>0.91249999999999998</v>
       </c>
       <c r="AQ68" s="125" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AR68" s="126"/>
       <c r="AS68" s="127" t="s">
@@ -20571,19 +20667,19 @@
       <c r="AT68" s="127"/>
       <c r="AU68" s="128"/>
       <c r="AV68" s="128" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AW68" s="128" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="AX68" s="128" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AY68" s="128" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AZ68" s="128" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="BA68" s="128"/>
       <c r="BB68" s="190">
@@ -20593,7 +20689,7 @@
     <row r="69" spans="1:54" ht="100.8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A69" s="192"/>
       <c r="B69" s="112" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C69" s="24"/>
       <c r="D69" s="23"/>
@@ -20646,10 +20742,10 @@
         <v>1</v>
       </c>
       <c r="AQ69" s="77" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AR69" s="94" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="AS69" s="80" t="s">
         <v>46</v>
@@ -20661,7 +20757,7 @@
       <c r="AX69" s="89"/>
       <c r="AY69" s="89"/>
       <c r="AZ69" s="89" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="BA69" s="89"/>
       <c r="BB69" s="186"/>
@@ -20669,7 +20765,7 @@
     <row r="70" spans="1:54" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A70" s="192"/>
       <c r="B70" s="112" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C70" s="24"/>
       <c r="D70" s="23"/>
@@ -20719,14 +20815,14 @@
       </c>
       <c r="AQ70" s="77"/>
       <c r="AR70" s="94" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AS70" s="80" t="s">
         <v>63</v>
       </c>
       <c r="AT70" s="80"/>
       <c r="AU70" s="89" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AV70" s="89"/>
       <c r="AW70" s="89"/>
@@ -20739,7 +20835,7 @@
     <row r="71" spans="1:54" ht="43.2" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A71" s="192"/>
       <c r="B71" s="112" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C71" s="17"/>
       <c r="D71" s="16"/>
@@ -20806,10 +20902,10 @@
     </row>
     <row r="72" spans="1:54" ht="100.8" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A72" s="192" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B72" s="119" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="C72" s="120"/>
       <c r="D72" s="121"/>
@@ -20859,10 +20955,10 @@
         <v>0.10000000000000002</v>
       </c>
       <c r="AQ72" s="125" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AR72" s="126" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AS72" s="127" t="s">
         <v>50</v>
@@ -20870,19 +20966,19 @@
       <c r="AT72" s="127"/>
       <c r="AU72" s="128"/>
       <c r="AV72" s="128" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AW72" s="128" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AX72" s="128" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AY72" s="128" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AZ72" s="128" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="BA72" s="128"/>
       <c r="BB72" s="190">
@@ -20892,7 +20988,7 @@
     <row r="73" spans="1:54" ht="72" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A73" s="192"/>
       <c r="B73" s="134" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C73" s="135"/>
       <c r="D73" s="136"/>
@@ -20940,19 +21036,19 @@
         <v>61</v>
       </c>
       <c r="AR73" s="142" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AS73" s="142"/>
       <c r="AT73" s="142"/>
       <c r="AU73" s="142" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AV73" s="142"/>
       <c r="AW73" s="89"/>
       <c r="AX73" s="89"/>
       <c r="AY73" s="89"/>
       <c r="AZ73" s="89" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="BA73" s="89"/>
       <c r="BB73" s="186"/>
@@ -20960,7 +21056,7 @@
     <row r="74" spans="1:54" ht="28.8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A74" s="192"/>
       <c r="B74" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C74" s="99"/>
       <c r="D74" s="108"/>
@@ -21013,7 +21109,7 @@
       </c>
       <c r="AT74" s="80"/>
       <c r="AU74" s="89" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="AV74" s="89"/>
       <c r="AW74" s="89"/>
@@ -21081,10 +21177,10 @@
     </row>
     <row r="76" spans="1:54" ht="72" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A76" s="192" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B76" s="119" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="C76" s="120"/>
       <c r="D76" s="121"/>
@@ -21134,30 +21230,30 @@
         <v>0.15</v>
       </c>
       <c r="AQ76" s="125" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AR76" s="126" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AS76" s="127" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AT76" s="127"/>
       <c r="AU76" s="128"/>
       <c r="AV76" s="128" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AW76" s="128" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AX76" s="128" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="AY76" s="128" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AZ76" s="128" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="BA76" s="128"/>
       <c r="BB76" s="190">
@@ -21217,7 +21313,7 @@
       <c r="AX77" s="89"/>
       <c r="AY77" s="89"/>
       <c r="AZ77" s="89" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="BA77" s="89"/>
       <c r="BB77" s="186"/>
@@ -21225,7 +21321,7 @@
     <row r="78" spans="1:54" ht="43.2" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A78" s="192"/>
       <c r="B78" s="15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C78" s="99"/>
       <c r="D78" s="108"/>
@@ -21278,7 +21374,7 @@
         <v>0.3</v>
       </c>
       <c r="AQ78" s="77" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AR78" s="80"/>
       <c r="AS78" s="80" t="s">
@@ -21286,7 +21382,7 @@
       </c>
       <c r="AT78" s="80"/>
       <c r="AU78" s="89" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="AV78" s="89"/>
       <c r="AW78" s="89"/>
@@ -21299,7 +21395,7 @@
     <row r="79" spans="1:54" ht="28.8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A79" s="192"/>
       <c r="B79" s="15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C79" s="99"/>
       <c r="D79" s="108"/>
@@ -21418,10 +21514,10 @@
     </row>
     <row r="81" spans="1:54" ht="128.4" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A81" s="192" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B81" s="119" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="C81" s="120"/>
       <c r="D81" s="121"/>
@@ -21471,7 +21567,7 @@
         <v>0.55227272727272725</v>
       </c>
       <c r="AQ81" s="125" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AR81" s="126"/>
       <c r="AS81" s="127" t="s">
@@ -21480,19 +21576,19 @@
       <c r="AT81" s="127"/>
       <c r="AU81" s="128"/>
       <c r="AV81" s="128" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AW81" s="128" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="AX81" s="128" t="s">
+        <v>473</v>
+      </c>
+      <c r="AY81" s="128" t="s">
         <v>474</v>
       </c>
-      <c r="AY81" s="128" t="s">
-        <v>475</v>
-      </c>
       <c r="AZ81" s="128" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="BA81" s="128"/>
       <c r="BB81" s="190">
@@ -21558,21 +21654,21 @@
         <v>52</v>
       </c>
       <c r="AR82" s="80" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="AS82" s="80" t="s">
         <v>50</v>
       </c>
       <c r="AT82" s="80"/>
       <c r="AU82" s="89" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="AV82" s="107"/>
       <c r="AW82" s="89"/>
       <c r="AX82" s="89"/>
       <c r="AY82" s="89"/>
       <c r="AZ82" s="89" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="BA82" s="89"/>
       <c r="BB82" s="186"/>
@@ -21580,7 +21676,7 @@
     <row r="83" spans="1:54" ht="43.2" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A83" s="192"/>
       <c r="B83" s="117" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C83" s="38"/>
       <c r="D83" s="37"/>
@@ -21629,17 +21725,17 @@
         <v>0.95</v>
       </c>
       <c r="AQ83" s="89" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AR83" s="80" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AS83" s="80" t="s">
         <v>50</v>
       </c>
       <c r="AT83" s="80"/>
       <c r="AU83" s="89" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AV83" s="89"/>
       <c r="AW83" s="89"/>
@@ -21652,7 +21748,7 @@
     <row r="84" spans="1:54" ht="44.4" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A84" s="192"/>
       <c r="B84" s="117" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C84" s="99"/>
       <c r="D84" s="108"/>
@@ -21702,21 +21798,21 @@
       </c>
       <c r="AQ84" s="77"/>
       <c r="AR84" s="80" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="AS84" s="80" t="s">
         <v>50</v>
       </c>
       <c r="AT84" s="80"/>
       <c r="AU84" s="89" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="AV84" s="89"/>
       <c r="AW84" s="89"/>
       <c r="AX84" s="89"/>
       <c r="AY84" s="89"/>
       <c r="AZ84" s="89" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="BA84" s="89"/>
       <c r="BB84" s="186"/>
@@ -21724,7 +21820,7 @@
     <row r="85" spans="1:54" ht="13.8" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A85" s="192"/>
       <c r="B85" s="117" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C85" s="99"/>
       <c r="D85" s="108"/>
@@ -21786,7 +21882,7 @@
     <row r="86" spans="1:54" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A86" s="192"/>
       <c r="B86" s="117" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C86" s="99"/>
       <c r="D86" s="108"/>
@@ -21852,7 +21948,7 @@
     <row r="87" spans="1:54" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A87" s="192"/>
       <c r="B87" s="117" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C87" s="99"/>
       <c r="D87" s="108"/>
@@ -21918,7 +22014,7 @@
     <row r="88" spans="1:54" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A88" s="192"/>
       <c r="B88" s="117" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C88" s="99"/>
       <c r="D88" s="108"/>
@@ -21970,10 +22066,10 @@
       </c>
       <c r="AQ88" s="77"/>
       <c r="AR88" s="80" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="AS88" s="80" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AT88" s="80"/>
       <c r="AU88" s="89"/>
@@ -21988,7 +22084,7 @@
     <row r="89" spans="1:54" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A89" s="192"/>
       <c r="B89" s="117" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C89" s="99"/>
       <c r="D89" s="108"/>
@@ -22039,11 +22135,11 @@
       <c r="AQ89" s="77"/>
       <c r="AR89" s="80"/>
       <c r="AS89" s="80" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AT89" s="80"/>
       <c r="AU89" s="89" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="AV89" s="89"/>
       <c r="AW89" s="89"/>
@@ -22111,10 +22207,10 @@
     </row>
     <row r="91" spans="1:54" ht="72" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A91" s="192" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B91" s="119" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="C91" s="120"/>
       <c r="D91" s="121"/>
@@ -22164,7 +22260,7 @@
         <v>0.3</v>
       </c>
       <c r="AQ91" s="125" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AR91" s="126"/>
       <c r="AS91" s="127" t="s">
@@ -22173,20 +22269,20 @@
       <c r="AT91" s="127"/>
       <c r="AU91" s="128"/>
       <c r="AV91" s="128" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AW91" s="128" t="str">
         <f>"D"&amp;RIGHT(A91,5)</f>
         <v>D1.3.7</v>
       </c>
       <c r="AX91" s="128" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AY91" s="128" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AZ91" s="128" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="BA91" s="128"/>
       <c r="BB91" s="190">
@@ -22258,7 +22354,7 @@
       <c r="AX92" s="89"/>
       <c r="AY92" s="89"/>
       <c r="AZ92" s="89" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="BA92" s="89"/>
       <c r="BB92" s="186"/>
@@ -22266,7 +22362,7 @@
     <row r="93" spans="1:54" ht="28.8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A93" s="14"/>
       <c r="B93" s="118" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C93" s="38"/>
       <c r="D93" s="37"/>
@@ -22315,7 +22411,7 @@
         <v>0.3</v>
       </c>
       <c r="AQ93" s="89" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AR93" s="80"/>
       <c r="AS93" s="80" t="s">
@@ -22525,7 +22621,7 @@
       </c>
       <c r="AQ96" s="173"/>
       <c r="AR96" s="93" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AS96" s="106"/>
       <c r="AT96" s="106"/>
@@ -22540,10 +22636,10 @@
     </row>
     <row r="97" spans="1:54" ht="60" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A97" s="192" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B97" s="119" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="C97" s="120"/>
       <c r="D97" s="121"/>
@@ -22593,30 +22689,30 @@
         <v>0.74</v>
       </c>
       <c r="AQ97" s="125" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AR97" s="126"/>
       <c r="AS97" s="127" t="s">
         <v>46</v>
       </c>
       <c r="AT97" s="127" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AU97" s="128"/>
       <c r="AV97" s="128" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AW97" s="128" t="s">
+        <v>464</v>
+      </c>
+      <c r="AX97" s="128" t="s">
         <v>465</v>
       </c>
-      <c r="AX97" s="128" t="s">
-        <v>466</v>
-      </c>
       <c r="AY97" s="128" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AZ97" s="128" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="BA97" s="128"/>
       <c r="BB97" s="190">
@@ -22626,7 +22722,7 @@
     <row r="98" spans="1:54" ht="100.8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A98" s="192"/>
       <c r="B98" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C98" s="17"/>
       <c r="D98" s="16"/>
@@ -22700,21 +22796,21 @@
       </c>
       <c r="AQ98" s="92"/>
       <c r="AR98" s="80" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="AS98" s="80" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AT98" s="80"/>
       <c r="AU98" s="89" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="AV98" s="89"/>
       <c r="AW98" s="89"/>
       <c r="AX98" s="89"/>
       <c r="AY98" s="89"/>
       <c r="AZ98" s="89" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="BA98" s="89"/>
       <c r="BB98" s="186"/>
@@ -22722,7 +22818,7 @@
     <row r="99" spans="1:54" ht="57.6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A99" s="192"/>
       <c r="B99" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C99" s="38"/>
       <c r="D99" s="37"/>
@@ -22787,11 +22883,11 @@
       </c>
       <c r="AR99" s="93"/>
       <c r="AS99" s="80" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AT99" s="80"/>
       <c r="AU99" s="91" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="AV99" s="91"/>
       <c r="AW99" s="89"/>
@@ -22803,10 +22899,10 @@
     </row>
     <row r="100" spans="1:54" ht="28.8" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A100" s="192" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B100" s="119" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="C100" s="120"/>
       <c r="D100" s="121"/>
@@ -22856,30 +22952,30 @@
         <v>0</v>
       </c>
       <c r="AQ100" s="125" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AR100" s="126"/>
       <c r="AS100" s="127" t="s">
         <v>63</v>
       </c>
       <c r="AT100" s="127" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AU100" s="128"/>
       <c r="AV100" s="128" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AW100" s="128" t="s">
+        <v>430</v>
+      </c>
+      <c r="AX100" s="128" t="s">
         <v>431</v>
       </c>
-      <c r="AX100" s="128" t="s">
+      <c r="AY100" s="128" t="s">
         <v>432</v>
       </c>
-      <c r="AY100" s="128" t="s">
-        <v>433</v>
-      </c>
       <c r="AZ100" s="128" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="BA100" s="128"/>
       <c r="BB100" s="190">
@@ -22889,7 +22985,7 @@
     <row r="101" spans="1:54" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A101" s="192"/>
       <c r="B101" s="15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C101" s="38"/>
       <c r="D101" s="37"/>
@@ -22938,7 +23034,7 @@
       <c r="AQ101" s="61"/>
       <c r="AR101" s="93"/>
       <c r="AS101" s="85" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AT101" s="85"/>
       <c r="AU101" s="91"/>
@@ -22947,17 +23043,17 @@
       <c r="AX101" s="89"/>
       <c r="AY101" s="89"/>
       <c r="AZ101" s="89" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="BA101" s="89"/>
       <c r="BB101" s="186"/>
     </row>
     <row r="102" spans="1:54" ht="28.8" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A102" s="192" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B102" s="119" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="C102" s="120"/>
       <c r="D102" s="121"/>
@@ -23007,30 +23103,30 @@
         <v>0</v>
       </c>
       <c r="AQ102" s="125" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AR102" s="126"/>
       <c r="AS102" s="127" t="s">
         <v>63</v>
       </c>
       <c r="AT102" s="127" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AU102" s="128"/>
       <c r="AV102" s="128" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AW102" s="128" t="s">
+        <v>433</v>
+      </c>
+      <c r="AX102" s="128" t="s">
         <v>434</v>
       </c>
-      <c r="AX102" s="128" t="s">
-        <v>435</v>
-      </c>
       <c r="AY102" s="128" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AZ102" s="128" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="BA102" s="128"/>
       <c r="BB102" s="190">
@@ -23040,7 +23136,7 @@
     <row r="103" spans="1:54" ht="28.8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A103" s="192"/>
       <c r="B103" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C103" s="38"/>
       <c r="D103" s="37"/>
@@ -23089,7 +23185,7 @@
       <c r="AQ103" s="61"/>
       <c r="AR103" s="93"/>
       <c r="AS103" s="80" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AT103" s="80"/>
       <c r="AU103" s="91"/>
@@ -23098,7 +23194,7 @@
       <c r="AX103" s="89"/>
       <c r="AY103" s="89"/>
       <c r="AZ103" s="89" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="BA103" s="89"/>
       <c r="BB103" s="186"/>
@@ -23273,10 +23369,10 @@
     </row>
     <row r="107" spans="1:54" ht="43.2" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A107" s="192" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B107" s="119" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C107" s="120"/>
       <c r="D107" s="121"/>
@@ -23326,31 +23422,31 @@
         <v>0.10000000000000002</v>
       </c>
       <c r="AQ107" s="125" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AR107" s="126"/>
       <c r="AS107" s="127" t="s">
         <v>46</v>
       </c>
       <c r="AT107" s="127" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AU107" s="128"/>
       <c r="AV107" s="128" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AW107" s="128" t="str">
         <f>"D"&amp;RIGHT(A107,5)</f>
         <v>D2.1.4</v>
       </c>
       <c r="AX107" s="128" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AY107" s="128" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AZ107" s="128" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="BA107" s="128"/>
       <c r="BB107" s="190">
@@ -23360,7 +23456,7 @@
     <row r="108" spans="1:54" ht="100.8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A108" s="35"/>
       <c r="B108" s="15" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="C108" s="99"/>
       <c r="D108" s="108"/>
@@ -23419,10 +23515,10 @@
         <v>0.1</v>
       </c>
       <c r="AQ108" s="61" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="AR108" s="93" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="AS108" s="80"/>
       <c r="AT108" s="80"/>
@@ -23432,7 +23528,7 @@
       <c r="AX108" s="89"/>
       <c r="AY108" s="89"/>
       <c r="AZ108" s="89" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="BA108" s="89"/>
       <c r="BB108" s="186"/>
@@ -23440,7 +23536,7 @@
     <row r="109" spans="1:54" ht="28.8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A109" s="35"/>
       <c r="B109" s="15" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C109" s="99"/>
       <c r="D109" s="108"/>
@@ -23499,7 +23595,7 @@
         <v>0</v>
       </c>
       <c r="AQ109" s="61" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AR109" s="93"/>
       <c r="AS109" s="80"/>
@@ -23516,7 +23612,7 @@
     <row r="110" spans="1:54" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A110" s="35"/>
       <c r="B110" s="15" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C110" s="99"/>
       <c r="D110" s="108"/>
@@ -23779,7 +23875,7 @@
       </c>
       <c r="AQ113" s="173"/>
       <c r="AR113" s="93" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AS113" s="106"/>
       <c r="AT113" s="106"/>
@@ -23794,10 +23890,10 @@
     </row>
     <row r="114" spans="1:54" ht="88.2" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A114" s="192" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B114" s="119" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="C114" s="120"/>
       <c r="D114" s="121"/>
@@ -23847,30 +23943,30 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="AQ114" s="125" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AR114" s="126"/>
       <c r="AS114" s="127" t="s">
         <v>47</v>
       </c>
       <c r="AT114" s="127" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AU114" s="128"/>
       <c r="AV114" s="128" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AW114" s="128" t="s">
+        <v>452</v>
+      </c>
+      <c r="AX114" s="128" t="s">
+        <v>468</v>
+      </c>
+      <c r="AY114" s="128" t="s">
         <v>453</v>
       </c>
-      <c r="AX114" s="128" t="s">
-        <v>469</v>
-      </c>
-      <c r="AY114" s="128" t="s">
-        <v>454</v>
-      </c>
       <c r="AZ114" s="128" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="BA114" s="128"/>
       <c r="BB114" s="190">
@@ -23950,21 +24046,21 @@
       </c>
       <c r="AQ115" s="92"/>
       <c r="AR115" s="85" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="AS115" s="80" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AT115" s="80"/>
       <c r="AU115" s="89" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="AV115" s="89"/>
       <c r="AW115" s="89"/>
       <c r="AX115" s="89"/>
       <c r="AY115" s="89"/>
       <c r="AZ115" s="89" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="BA115" s="89"/>
       <c r="BB115" s="186"/>
@@ -23972,7 +24068,7 @@
     <row r="116" spans="1:54" ht="57.6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A116" s="192"/>
       <c r="B116" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C116" s="38"/>
       <c r="D116" s="37"/>
@@ -24034,14 +24130,14 @@
         <v>36</v>
       </c>
       <c r="AR116" s="93" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AS116" s="80" t="s">
         <v>63</v>
       </c>
       <c r="AT116" s="80"/>
       <c r="AU116" s="91" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="AV116" s="91"/>
       <c r="AW116" s="89"/>
@@ -24053,10 +24149,10 @@
     </row>
     <row r="117" spans="1:54" ht="72" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A117" s="192" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B117" s="119" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="C117" s="120"/>
       <c r="D117" s="121"/>
@@ -24106,30 +24202,30 @@
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="AQ117" s="125" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AR117" s="126"/>
       <c r="AS117" s="127" t="s">
         <v>46</v>
       </c>
       <c r="AT117" s="127" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AU117" s="128"/>
       <c r="AV117" s="128" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AW117" s="128" t="s">
+        <v>435</v>
+      </c>
+      <c r="AX117" s="128" t="s">
         <v>436</v>
       </c>
-      <c r="AX117" s="128" t="s">
-        <v>437</v>
-      </c>
       <c r="AY117" s="128" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AZ117" s="128" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="BA117" s="128"/>
       <c r="BB117" s="190">
@@ -24139,7 +24235,7 @@
     <row r="118" spans="1:54" ht="115.2" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A118" s="35"/>
       <c r="B118" s="15" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C118" s="38"/>
       <c r="D118" s="37"/>
@@ -24188,22 +24284,22 @@
         <v>0.3</v>
       </c>
       <c r="AQ118" s="61" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AR118" s="93"/>
       <c r="AS118" s="85" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AT118" s="85"/>
       <c r="AU118" s="91" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="AV118" s="91"/>
       <c r="AW118" s="89"/>
       <c r="AX118" s="89"/>
       <c r="AY118" s="89"/>
       <c r="AZ118" s="89" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="BA118" s="89"/>
       <c r="BB118" s="186"/>
@@ -24211,7 +24307,7 @@
     <row r="119" spans="1:54" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A119" s="35"/>
       <c r="B119" s="15" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C119" s="38"/>
       <c r="D119" s="37"/>
@@ -24266,7 +24362,7 @@
       <c r="AQ119" s="61"/>
       <c r="AR119" s="93"/>
       <c r="AS119" s="85" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AT119" s="85"/>
       <c r="AU119" s="91"/>
@@ -24281,7 +24377,7 @@
     <row r="120" spans="1:54" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A120" s="35"/>
       <c r="B120" s="15" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C120" s="38"/>
       <c r="D120" s="37"/>
@@ -24334,11 +24430,11 @@
         <v>0</v>
       </c>
       <c r="AQ120" s="61" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AR120" s="93"/>
       <c r="AS120" s="85" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AT120" s="85"/>
       <c r="AU120" s="91"/>
@@ -24353,7 +24449,7 @@
     <row r="121" spans="1:54" ht="28.8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A121" s="35"/>
       <c r="B121" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C121" s="38"/>
       <c r="D121" s="37"/>
@@ -24406,11 +24502,11 @@
         <v>0</v>
       </c>
       <c r="AQ121" s="61" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AR121" s="93"/>
       <c r="AS121" s="85" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AT121" s="85"/>
       <c r="AU121" s="91"/>
@@ -24425,7 +24521,7 @@
     <row r="122" spans="1:54" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A122" s="35"/>
       <c r="B122" s="15" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C122" s="38"/>
       <c r="D122" s="37"/>
@@ -24480,7 +24576,7 @@
       <c r="AQ122" s="61"/>
       <c r="AR122" s="93"/>
       <c r="AS122" s="85" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AT122" s="85"/>
       <c r="AU122" s="91"/>
@@ -24495,7 +24591,7 @@
     <row r="123" spans="1:54" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A123" s="35"/>
       <c r="B123" s="15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C123" s="38"/>
       <c r="D123" s="37"/>
@@ -24550,7 +24646,7 @@
       <c r="AQ123" s="61"/>
       <c r="AR123" s="93"/>
       <c r="AS123" s="85" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AT123" s="85"/>
       <c r="AU123" s="91"/>
@@ -24565,7 +24661,7 @@
     <row r="124" spans="1:54" ht="28.8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A124" s="35"/>
       <c r="B124" s="15" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C124" s="38"/>
       <c r="D124" s="37"/>
@@ -24618,11 +24714,11 @@
         <v>0</v>
       </c>
       <c r="AQ124" s="61" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AR124" s="93"/>
       <c r="AS124" s="80" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AT124" s="80"/>
       <c r="AU124" s="91"/>
@@ -24637,7 +24733,7 @@
     <row r="125" spans="1:54" ht="28.8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A125" s="35"/>
       <c r="B125" s="15" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C125" s="99"/>
       <c r="D125" s="108"/>
@@ -24690,11 +24786,11 @@
         <v>0</v>
       </c>
       <c r="AQ125" s="61" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AR125" s="93"/>
       <c r="AS125" s="80" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AT125" s="80"/>
       <c r="AU125" s="91"/>
@@ -24844,7 +24940,7 @@
       </c>
       <c r="AQ127" s="173"/>
       <c r="AR127" s="93" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AS127" s="106"/>
       <c r="AT127" s="106"/>
@@ -25230,10 +25326,10 @@
     </row>
     <row r="134" spans="1:54" ht="117" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A134" s="192" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B134" s="119" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="C134" s="120"/>
       <c r="D134" s="121"/>
@@ -25283,7 +25379,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ134" s="125" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AR134" s="126"/>
       <c r="AS134" s="127" t="s">
@@ -25294,23 +25390,23 @@
       </c>
       <c r="AU134" s="128"/>
       <c r="AV134" s="128" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AW134" s="128" t="str">
         <f>"D"&amp;RIGHT(A134,5)</f>
         <v>D2.4.1</v>
       </c>
       <c r="AX134" s="128" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AY134" s="128" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AZ134" s="128" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="BA134" s="128" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="BB134" s="190">
         <v>1</v>
@@ -25319,7 +25415,7 @@
     <row r="135" spans="1:54" ht="129.6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A135" s="192"/>
       <c r="B135" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C135" s="17"/>
       <c r="D135" s="16"/>
@@ -25381,23 +25477,23 @@
       </c>
       <c r="AQ135" s="92"/>
       <c r="AR135" s="80" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AS135" s="80" t="s">
         <v>55</v>
       </c>
       <c r="AT135" s="80"/>
       <c r="AU135" s="80" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="AV135" s="80"/>
       <c r="AW135" s="80" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AX135" s="80"/>
       <c r="AY135" s="80"/>
       <c r="AZ135" s="80" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="BA135" s="80"/>
       <c r="BB135" s="80"/>
@@ -25405,7 +25501,7 @@
     <row r="136" spans="1:54" ht="57.6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A136" s="192"/>
       <c r="B136" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C136" s="24"/>
       <c r="D136" s="23"/>
@@ -25464,26 +25560,26 @@
       </c>
       <c r="AT136" s="80"/>
       <c r="AU136" s="80" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AV136" s="80"/>
       <c r="AW136" s="80" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AX136" s="80"/>
       <c r="AY136" s="80"/>
       <c r="AZ136" s="80" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="BA136" s="80"/>
       <c r="BB136" s="80"/>
     </row>
     <row r="137" spans="1:54" ht="76.2" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A137" s="192" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B137" s="119" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="C137" s="120"/>
       <c r="D137" s="121"/>
@@ -25533,7 +25629,7 @@
         <v>1</v>
       </c>
       <c r="AQ137" s="125" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AR137" s="126"/>
       <c r="AS137" s="127" t="s">
@@ -25542,30 +25638,30 @@
       <c r="AT137" s="127"/>
       <c r="AU137" s="128"/>
       <c r="AV137" s="128" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AW137" s="128" t="str">
         <f>"D"&amp;RIGHT(A137,5)</f>
         <v>D2.4.2</v>
       </c>
       <c r="AX137" s="128" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="AY137" s="128" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AZ137" s="128" t="s">
-        <v>739</v>
+        <v>732</v>
       </c>
       <c r="BA137" s="128" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="BB137" s="190"/>
     </row>
     <row r="138" spans="1:54" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A138" s="192"/>
       <c r="B138" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C138" s="24"/>
       <c r="D138" s="23"/>
@@ -25629,7 +25725,7 @@
     <row r="139" spans="1:54" ht="28.8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A139" s="192"/>
       <c r="B139" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C139" s="24"/>
       <c r="D139" s="23"/>
@@ -25684,7 +25780,7 @@
         <v>1</v>
       </c>
       <c r="AQ139" s="92" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AR139" s="80"/>
       <c r="AS139" s="80" t="s">
@@ -25692,7 +25788,7 @@
       </c>
       <c r="AT139" s="80"/>
       <c r="AU139" s="80" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="AV139" s="80"/>
       <c r="AW139" s="80"/>
@@ -25762,22 +25858,22 @@
         <v>1</v>
       </c>
       <c r="AQ140" s="77" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AR140" s="80" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="AS140" s="80" t="s">
         <v>26</v>
       </c>
       <c r="AT140" s="80"/>
       <c r="AU140" s="80" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="AV140" s="80"/>
       <c r="AW140" s="80"/>
       <c r="AX140" s="80" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AY140" s="80"/>
       <c r="AZ140" s="80"/>
@@ -25786,10 +25882,10 @@
     </row>
     <row r="141" spans="1:54" ht="43.2" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A141" s="192" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B141" s="119" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C141" s="120"/>
       <c r="D141" s="121"/>
@@ -25839,32 +25935,32 @@
         <v>0.27500000000000002</v>
       </c>
       <c r="AQ141" s="125" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AR141" s="126" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AS141" s="127" t="s">
         <v>63</v>
       </c>
       <c r="AT141" s="127" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AU141" s="128"/>
       <c r="AV141" s="128" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AW141" s="128" t="s">
+        <v>437</v>
+      </c>
+      <c r="AX141" s="128" t="s">
+        <v>606</v>
+      </c>
+      <c r="AY141" s="128" t="s">
         <v>438</v>
       </c>
-      <c r="AX141" s="128" t="s">
-        <v>610</v>
-      </c>
-      <c r="AY141" s="128" t="s">
-        <v>439</v>
-      </c>
       <c r="AZ141" s="128" t="s">
-        <v>740</v>
+        <v>733</v>
       </c>
       <c r="BA141" s="128"/>
       <c r="BB141" s="190">
@@ -25874,7 +25970,7 @@
     <row r="142" spans="1:54" ht="43.2" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A142" s="35"/>
       <c r="B142" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C142" s="99"/>
       <c r="D142" s="108"/>
@@ -25925,24 +26021,24 @@
         <v>1</v>
       </c>
       <c r="AQ142" s="61" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AR142" s="93" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AS142" s="80" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AT142" s="80"/>
       <c r="AU142" s="80" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AV142" s="80"/>
       <c r="AW142" s="80"/>
       <c r="AX142" s="80"/>
       <c r="AY142" s="80"/>
       <c r="AZ142" s="80" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="BA142" s="80"/>
       <c r="BB142" s="80"/>
@@ -25950,7 +26046,7 @@
     <row r="143" spans="1:54" ht="57.6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A143" s="35"/>
       <c r="B143" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C143" s="99"/>
       <c r="D143" s="108"/>
@@ -26001,17 +26097,17 @@
         <v>0.35</v>
       </c>
       <c r="AQ143" s="61" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AR143" s="93" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="AS143" s="80" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AT143" s="80"/>
       <c r="AU143" s="80" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="AV143" s="80"/>
       <c r="AW143" s="80"/>
@@ -26024,7 +26120,7 @@
     <row r="144" spans="1:54" ht="28.8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A144" s="35"/>
       <c r="B144" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C144" s="99"/>
       <c r="D144" s="108"/>
@@ -26075,11 +26171,11 @@
         <v>0.3</v>
       </c>
       <c r="AQ144" s="61" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AR144" s="93"/>
       <c r="AS144" s="80" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AT144" s="80"/>
       <c r="AU144" s="80"/>
@@ -26094,7 +26190,7 @@
     <row r="145" spans="1:54" ht="57.6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A145" s="35"/>
       <c r="B145" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C145" s="99"/>
       <c r="D145" s="108"/>
@@ -26143,11 +26239,11 @@
         <v>0</v>
       </c>
       <c r="AQ145" s="61" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AR145" s="93"/>
       <c r="AS145" s="80" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AT145" s="80"/>
       <c r="AU145" s="80"/>
@@ -26162,7 +26258,7 @@
     <row r="146" spans="1:54" ht="43.2" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A146" s="35"/>
       <c r="B146" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C146" s="99"/>
       <c r="D146" s="108"/>
@@ -26211,13 +26307,13 @@
         <v>0</v>
       </c>
       <c r="AQ146" s="61" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AR146" s="93" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AS146" s="80" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AT146" s="80"/>
       <c r="AU146" s="80"/>
@@ -26232,7 +26328,7 @@
     <row r="147" spans="1:54" ht="72" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A147" s="35"/>
       <c r="B147" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C147" s="99"/>
       <c r="D147" s="108"/>
@@ -26283,15 +26379,15 @@
         <v>0</v>
       </c>
       <c r="AQ147" s="91" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AR147" s="2"/>
       <c r="AS147" s="80" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AT147" s="80"/>
       <c r="AU147" s="80" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AV147" s="80"/>
       <c r="AW147" s="80"/>
@@ -26303,10 +26399,10 @@
     </row>
     <row r="148" spans="1:54" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A148" s="192" t="s">
+        <v>409</v>
+      </c>
+      <c r="B148" s="119" t="s">
         <v>410</v>
-      </c>
-      <c r="B148" s="119" t="s">
-        <v>411</v>
       </c>
       <c r="C148" s="120"/>
       <c r="D148" s="121"/>
@@ -26356,25 +26452,25 @@
         <v>0</v>
       </c>
       <c r="AQ148" s="125" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AR148" s="126"/>
       <c r="AS148" s="127" t="s">
         <v>47</v>
       </c>
       <c r="AT148" s="127" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AU148" s="128"/>
       <c r="AV148" s="128" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AW148" s="128" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="AX148" s="128"/>
       <c r="AY148" s="128" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="AZ148" s="128"/>
       <c r="BA148" s="128"/>
@@ -26385,7 +26481,7 @@
     <row r="149" spans="1:54" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A149" s="35"/>
       <c r="B149" s="15" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="C149" s="99"/>
       <c r="D149" s="108"/>
@@ -26457,7 +26553,7 @@
     <row r="150" spans="1:54" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A150" s="35"/>
       <c r="B150" s="15" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="C150" s="99"/>
       <c r="D150" s="108"/>
@@ -26818,7 +26914,7 @@
       </c>
       <c r="AQ155" s="173"/>
       <c r="AR155" s="93" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AS155" s="106"/>
       <c r="AT155" s="106"/>
@@ -26833,10 +26929,10 @@
     </row>
     <row r="156" spans="1:54" ht="43.2" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A156" s="192" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B156" s="119" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="C156" s="120"/>
       <c r="D156" s="121"/>
@@ -26886,7 +26982,7 @@
         <v>1</v>
       </c>
       <c r="AQ156" s="125" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AR156" s="126"/>
       <c r="AS156" s="127" t="s">
@@ -26895,22 +26991,22 @@
       <c r="AT156" s="127"/>
       <c r="AU156" s="128"/>
       <c r="AV156" s="128" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="AW156" s="128" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AX156" s="128" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AY156" s="128" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AZ156" s="128" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="BA156" s="128" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="BB156" s="190"/>
     </row>
@@ -26987,7 +27083,7 @@
     <row r="158" spans="1:54" ht="57.6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A158" s="192"/>
       <c r="B158" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C158" s="38"/>
       <c r="D158" s="37"/>
@@ -27039,14 +27135,14 @@
         <v>29</v>
       </c>
       <c r="AR158" s="80" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AS158" s="80" t="s">
         <v>55</v>
       </c>
       <c r="AT158" s="80"/>
       <c r="AU158" s="89" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AV158" s="89"/>
       <c r="AW158" s="89"/>
@@ -27179,7 +27275,7 @@
         <v>32</v>
       </c>
       <c r="AR160" s="80" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AS160" s="80" t="s">
         <v>55</v>
@@ -27191,17 +27287,17 @@
       <c r="AX160" s="89"/>
       <c r="AY160" s="89"/>
       <c r="AZ160" s="89" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="BA160" s="89"/>
       <c r="BB160" s="186"/>
     </row>
     <row r="161" spans="1:54" ht="100.8" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A161" s="192" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B161" s="119" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="C161" s="120"/>
       <c r="D161" s="121"/>
@@ -27251,7 +27347,7 @@
         <v>0.97142857142857142</v>
       </c>
       <c r="AQ161" s="125" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AR161" s="126"/>
       <c r="AS161" s="127" t="s">
@@ -27260,22 +27356,22 @@
       <c r="AT161" s="127"/>
       <c r="AU161" s="128"/>
       <c r="AV161" s="128" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AW161" s="128" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AX161" s="128" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AY161" s="128" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AZ161" s="128" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="BA161" s="128" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="BB161" s="190">
         <v>3</v>
@@ -27284,7 +27380,7 @@
     <row r="162" spans="1:54" ht="43.2" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A162" s="192"/>
       <c r="B162" s="15" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C162" s="24"/>
       <c r="D162" s="23"/>
@@ -27335,26 +27431,26 @@
         <v>1</v>
       </c>
       <c r="AQ162" s="77" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AR162" s="80" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AS162" s="80" t="s">
         <v>63</v>
       </c>
       <c r="AT162" s="80" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AU162" s="89" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="AV162" s="89"/>
       <c r="AW162" s="89"/>
       <c r="AX162" s="89"/>
       <c r="AY162" s="89"/>
       <c r="AZ162" s="89" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="BA162" s="89"/>
       <c r="BB162" s="186"/>
@@ -27362,7 +27458,7 @@
     <row r="163" spans="1:54" ht="57.6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A163" s="192"/>
       <c r="B163" s="15" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C163" s="24"/>
       <c r="D163" s="23"/>
@@ -27413,19 +27509,19 @@
         <v>0.9</v>
       </c>
       <c r="AQ163" s="77" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AR163" s="80" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="AS163" s="80" t="s">
         <v>63</v>
       </c>
       <c r="AT163" s="80" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AU163" s="89" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="AV163" s="89"/>
       <c r="AW163" s="89"/>
@@ -27493,17 +27589,17 @@
         <v>1</v>
       </c>
       <c r="AQ164" s="77" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AR164" s="80" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AS164" s="80" t="s">
         <v>55</v>
       </c>
       <c r="AT164" s="80"/>
       <c r="AU164" s="89" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="AV164" s="89"/>
       <c r="AW164" s="89"/>
@@ -27515,10 +27611,10 @@
     </row>
     <row r="165" spans="1:54" ht="28.8" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A165" s="192" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B165" s="119" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="C165" s="120"/>
       <c r="D165" s="121"/>
@@ -27564,7 +27660,7 @@
         <v>0</v>
       </c>
       <c r="AQ165" s="125" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AR165" s="126"/>
       <c r="AS165" s="127" t="s">
@@ -27573,7 +27669,7 @@
       <c r="AT165" s="127"/>
       <c r="AU165" s="128"/>
       <c r="AV165" s="128" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AW165" s="128"/>
       <c r="AX165" s="128"/>
@@ -27648,7 +27744,7 @@
       <c r="AY166" s="89"/>
       <c r="AZ166" s="89"/>
       <c r="BA166" s="89" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="BB166" s="186"/>
     </row>
@@ -27852,10 +27948,10 @@
     </row>
     <row r="170" spans="1:54" ht="28.8" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A170" s="192" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B170" s="174" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="C170" s="129"/>
       <c r="D170" s="130"/>
@@ -27905,7 +28001,7 @@
         <v>0.15</v>
       </c>
       <c r="AQ170" s="221" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AR170" s="133"/>
       <c r="AS170" s="127" t="s">
@@ -27914,7 +28010,7 @@
       <c r="AT170" s="127"/>
       <c r="AU170" s="128"/>
       <c r="AV170" s="128" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AW170" s="128"/>
       <c r="AX170" s="128"/>
@@ -27992,7 +28088,7 @@
       <c r="AX171" s="89"/>
       <c r="AY171" s="89"/>
       <c r="AZ171" s="89" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="BA171" s="89"/>
       <c r="BB171" s="186"/>
@@ -28000,7 +28096,7 @@
     <row r="172" spans="1:54" ht="86.4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A172" s="192"/>
       <c r="B172" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C172" s="24"/>
       <c r="D172" s="23"/>
@@ -28068,7 +28164,7 @@
     <row r="173" spans="1:54" ht="28.8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A173" s="192"/>
       <c r="B173" s="15" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="C173" s="24"/>
       <c r="D173" s="23"/>
@@ -28119,13 +28215,13 @@
         <v>0.6</v>
       </c>
       <c r="AQ173" s="77" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="AR173" s="80"/>
       <c r="AS173" s="80"/>
       <c r="AT173" s="80"/>
       <c r="AU173" s="89" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="AV173" s="89"/>
       <c r="AW173" s="89"/>
@@ -28193,10 +28289,10 @@
     </row>
     <row r="175" spans="1:54" ht="57.6" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A175" s="192" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B175" s="119" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="C175" s="120"/>
       <c r="D175" s="121"/>
@@ -28246,30 +28342,30 @@
         <v>0.35833333333333334</v>
       </c>
       <c r="AQ175" s="125" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AR175" s="126"/>
       <c r="AS175" s="127" t="s">
         <v>63</v>
       </c>
       <c r="AT175" s="127" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AU175" s="128"/>
       <c r="AV175" s="128" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AW175" s="128" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AX175" s="128" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AY175" s="128" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AZ175" s="128" t="s">
-        <v>619</v>
+        <v>737</v>
       </c>
       <c r="BA175" s="128"/>
       <c r="BB175" s="190">
@@ -28279,7 +28375,7 @@
     <row r="176" spans="1:54" ht="72" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A176" s="192"/>
       <c r="B176" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C176" s="24"/>
       <c r="D176" s="23"/>
@@ -28330,24 +28426,24 @@
         <v>0.6</v>
       </c>
       <c r="AQ176" s="77" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AR176" s="80" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AS176" s="80" t="s">
         <v>63</v>
       </c>
       <c r="AT176" s="80"/>
       <c r="AU176" s="89" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AV176" s="89"/>
       <c r="AW176" s="89"/>
       <c r="AX176" s="89"/>
       <c r="AY176" s="89"/>
       <c r="AZ176" s="89" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="BA176" s="89"/>
       <c r="BB176" s="186"/>
@@ -28355,7 +28451,7 @@
     <row r="177" spans="1:54" ht="43.2" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A177" s="192"/>
       <c r="B177" s="15" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C177" s="24"/>
       <c r="D177" s="23"/>
@@ -28410,16 +28506,16 @@
         <v>1</v>
       </c>
       <c r="AQ177" s="77" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AR177" s="80" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="AS177" s="80" t="s">
         <v>63</v>
       </c>
       <c r="AT177" s="80" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AU177" s="89"/>
       <c r="AV177" s="89"/>
@@ -28433,7 +28529,7 @@
     <row r="178" spans="1:54" ht="28.8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A178" s="192"/>
       <c r="B178" s="15" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C178" s="24"/>
       <c r="D178" s="23"/>
@@ -28488,7 +28584,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ178" s="77" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AR178" s="80"/>
       <c r="AS178" s="80" t="s">
@@ -28507,7 +28603,7 @@
     <row r="179" spans="1:54" ht="28.8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A179" s="192"/>
       <c r="B179" s="15" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C179" s="24"/>
       <c r="D179" s="23"/>
@@ -28562,7 +28658,7 @@
         <v>0</v>
       </c>
       <c r="AQ179" s="77" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AR179" s="80"/>
       <c r="AS179" s="80" t="s">
@@ -28581,7 +28677,7 @@
     <row r="180" spans="1:54" ht="32.4" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A180" s="192"/>
       <c r="B180" s="15" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C180" s="24"/>
       <c r="D180" s="23"/>
@@ -28636,7 +28732,7 @@
         <v>0</v>
       </c>
       <c r="AQ180" s="77" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="AR180" s="80"/>
       <c r="AS180" s="80" t="s">
@@ -28655,7 +28751,7 @@
     <row r="181" spans="1:54" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A181" s="192"/>
       <c r="B181" s="15" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C181" s="24"/>
       <c r="D181" s="23"/>
@@ -28706,7 +28802,7 @@
         <v>0</v>
       </c>
       <c r="AQ181" s="77" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AR181" s="80"/>
       <c r="AS181" s="80"/>
@@ -28722,10 +28818,10 @@
     </row>
     <row r="182" spans="1:54" ht="57.6" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A182" s="192" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B182" s="119" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="C182" s="120"/>
       <c r="D182" s="121"/>
@@ -28775,30 +28871,30 @@
         <v>0.44153846153846149</v>
       </c>
       <c r="AQ182" s="125" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AR182" s="126"/>
       <c r="AS182" s="127" t="s">
         <v>63</v>
       </c>
       <c r="AT182" s="127" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AU182" s="128"/>
       <c r="AV182" s="128" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AW182" s="128" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AX182" s="128" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AY182" s="128" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AZ182" s="128" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="BA182" s="128"/>
       <c r="BB182" s="190">
@@ -28808,7 +28904,7 @@
     <row r="183" spans="1:54" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A183" s="192"/>
       <c r="B183" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C183" s="24"/>
       <c r="D183" s="23"/>
@@ -28859,7 +28955,7 @@
       <c r="AQ183" s="77"/>
       <c r="AR183" s="80"/>
       <c r="AS183" s="80" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AT183" s="80"/>
       <c r="AU183" s="89"/>
@@ -28874,7 +28970,7 @@
     <row r="184" spans="1:54" ht="43.2" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A184" s="192"/>
       <c r="B184" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C184" s="24"/>
       <c r="D184" s="23"/>
@@ -28923,13 +29019,13 @@
         <v>0.8</v>
       </c>
       <c r="AQ184" s="77" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AR184" s="80" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AS184" s="80" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AT184" s="80"/>
       <c r="AU184" s="89"/>
@@ -28944,7 +29040,7 @@
     <row r="185" spans="1:54" ht="115.2" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A185" s="192"/>
       <c r="B185" s="15" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="C185" s="24"/>
       <c r="D185" s="23"/>
@@ -29006,14 +29102,14 @@
       </c>
       <c r="AQ185" s="77"/>
       <c r="AR185" s="80" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="AS185" s="80" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AT185" s="80"/>
       <c r="AU185" s="89" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="AV185" s="89"/>
       <c r="AW185" s="89"/>
@@ -29026,7 +29122,7 @@
     <row r="186" spans="1:54" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A186" s="192"/>
       <c r="B186" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C186" s="24"/>
       <c r="D186" s="23"/>
@@ -29091,7 +29187,7 @@
       <c r="AQ186" s="77"/>
       <c r="AR186" s="80"/>
       <c r="AS186" s="80" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AT186" s="80"/>
       <c r="AU186" s="89"/>
@@ -29106,7 +29202,7 @@
     <row r="187" spans="1:54" ht="28.8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A187" s="192"/>
       <c r="B187" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C187" s="24"/>
       <c r="D187" s="23"/>
@@ -29173,7 +29269,7 @@
       <c r="AQ187" s="77"/>
       <c r="AR187" s="80"/>
       <c r="AS187" s="80" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AT187" s="80"/>
       <c r="AU187" s="89"/>
@@ -29188,7 +29284,7 @@
     <row r="188" spans="1:54" ht="28.8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A188" s="192"/>
       <c r="B188" s="15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C188" s="24"/>
       <c r="D188" s="23"/>
@@ -29254,14 +29350,14 @@
       </c>
       <c r="AQ188" s="77"/>
       <c r="AR188" s="80" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="AS188" s="80" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AT188" s="80"/>
       <c r="AU188" s="89" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="AV188" s="89"/>
       <c r="AW188" s="89"/>
@@ -29329,10 +29425,10 @@
     </row>
     <row r="190" spans="1:54" ht="129.6" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A190" s="192" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B190" s="119" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="C190" s="120"/>
       <c r="D190" s="121"/>
@@ -29382,7 +29478,7 @@
         <v>0.93333333333333335</v>
       </c>
       <c r="AQ190" s="125" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AR190" s="126"/>
       <c r="AS190" s="127" t="s">
@@ -29393,23 +29489,23 @@
       </c>
       <c r="AU190" s="128"/>
       <c r="AV190" s="128" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AW190" s="128" t="str">
         <f>"D"&amp;RIGHT(A190,5)</f>
         <v>D2.5.7</v>
       </c>
       <c r="AX190" s="128" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AY190" s="128" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AZ190" s="128" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="BA190" s="128" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="BB190" s="190">
         <v>3</v>
@@ -29418,7 +29514,7 @@
     <row r="191" spans="1:54" ht="43.2" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A191" s="192"/>
       <c r="B191" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C191" s="24"/>
       <c r="D191" s="23"/>
@@ -29472,7 +29568,7 @@
       </c>
       <c r="AQ191" s="77"/>
       <c r="AR191" s="85" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AS191" s="80" t="s">
         <v>50</v>
@@ -29484,7 +29580,7 @@
       <c r="AX191" s="89"/>
       <c r="AY191" s="89"/>
       <c r="AZ191" s="89" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="BA191" s="89"/>
       <c r="BB191" s="186"/>
@@ -29492,7 +29588,7 @@
     <row r="192" spans="1:54" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A192" s="192"/>
       <c r="B192" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C192" s="24"/>
       <c r="D192" s="23"/>
@@ -29546,14 +29642,14 @@
       </c>
       <c r="AQ192" s="77"/>
       <c r="AR192" s="85" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AS192" s="80" t="s">
         <v>50</v>
       </c>
       <c r="AT192" s="80"/>
       <c r="AU192" s="89" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AV192" s="89"/>
       <c r="AW192" s="89"/>
@@ -29566,7 +29662,7 @@
     <row r="193" spans="1:54" ht="57.6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A193" s="192"/>
       <c r="B193" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C193" s="24"/>
       <c r="D193" s="23"/>
@@ -29619,10 +29715,10 @@
         <v>1</v>
       </c>
       <c r="AQ193" s="77" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AR193" s="77" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AS193" s="80" t="s">
         <v>50</v>
@@ -29695,10 +29791,10 @@
     </row>
     <row r="195" spans="1:54" ht="43.2" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A195" s="192" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B195" s="119" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="C195" s="120"/>
       <c r="D195" s="121"/>
@@ -29748,30 +29844,30 @@
         <v>0.56666666666666676</v>
       </c>
       <c r="AQ195" s="125" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AR195" s="126"/>
       <c r="AS195" s="127" t="s">
         <v>63</v>
       </c>
       <c r="AT195" s="127" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AU195" s="128"/>
       <c r="AV195" s="128" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AW195" s="128" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AX195" s="128" t="s">
+        <v>448</v>
+      </c>
+      <c r="AY195" s="128" t="s">
         <v>449</v>
       </c>
-      <c r="AY195" s="128" t="s">
-        <v>450</v>
-      </c>
       <c r="AZ195" s="128" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="BA195" s="128"/>
       <c r="BB195" s="190">
@@ -29781,7 +29877,7 @@
     <row r="196" spans="1:54" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A196" s="14"/>
       <c r="B196" s="15" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C196" s="24"/>
       <c r="D196" s="23"/>
@@ -29831,7 +29927,7 @@
       </c>
       <c r="AQ196" s="77"/>
       <c r="AR196" s="85" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AS196" s="80"/>
       <c r="AT196" s="80"/>
@@ -29841,7 +29937,7 @@
       <c r="AX196" s="89"/>
       <c r="AY196" s="89"/>
       <c r="AZ196" s="89" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="BA196" s="89"/>
       <c r="BB196" s="186"/>
@@ -29849,7 +29945,7 @@
     <row r="197" spans="1:54" ht="86.4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A197" s="14"/>
       <c r="B197" s="15" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C197" s="24"/>
       <c r="D197" s="23"/>
@@ -29907,12 +30003,12 @@
       </c>
       <c r="AQ197" s="77"/>
       <c r="AR197" s="80" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="AS197" s="80"/>
       <c r="AT197" s="80"/>
       <c r="AU197" s="89" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="AV197" s="89"/>
       <c r="AW197" s="89"/>
@@ -29925,7 +30021,7 @@
     <row r="198" spans="1:54" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A198" s="14"/>
       <c r="B198" s="15" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C198" s="24"/>
       <c r="D198" s="23"/>
@@ -29995,7 +30091,7 @@
     <row r="199" spans="1:54" ht="28.8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A199" s="14"/>
       <c r="B199" s="15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C199" s="24"/>
       <c r="D199" s="23"/>
@@ -30052,7 +30148,7 @@
       <c r="AS199" s="80"/>
       <c r="AT199" s="80"/>
       <c r="AU199" s="89" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="AV199" s="89"/>
       <c r="AW199" s="89"/>
@@ -30120,10 +30216,10 @@
     </row>
     <row r="201" spans="1:54" ht="43.2" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A201" s="192" t="s">
+        <v>501</v>
+      </c>
+      <c r="B201" s="119" t="s">
         <v>502</v>
-      </c>
-      <c r="B201" s="119" t="s">
-        <v>503</v>
       </c>
       <c r="C201" s="120"/>
       <c r="D201" s="121"/>
@@ -30173,42 +30269,42 @@
         <v>1</v>
       </c>
       <c r="AQ201" s="125" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AR201" s="126" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="AS201" s="127" t="s">
         <v>63</v>
       </c>
       <c r="AT201" s="127" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AU201" s="128"/>
       <c r="AV201" s="128" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AW201" s="128" t="s">
+        <v>505</v>
+      </c>
+      <c r="AX201" s="128" t="s">
+        <v>507</v>
+      </c>
+      <c r="AY201" s="128" t="s">
         <v>506</v>
       </c>
-      <c r="AX201" s="128" t="s">
-        <v>508</v>
-      </c>
-      <c r="AY201" s="128" t="s">
-        <v>507</v>
-      </c>
       <c r="AZ201" s="128" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="BA201" s="128" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="BB201" s="190"/>
     </row>
     <row r="202" spans="1:54" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A202" s="14"/>
       <c r="B202" s="15" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C202" s="24"/>
       <c r="D202" s="23"/>
@@ -30569,10 +30665,10 @@
     </row>
     <row r="208" spans="1:54" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A208" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="B208" s="8" t="s">
         <v>509</v>
-      </c>
-      <c r="B208" s="8" t="s">
-        <v>510</v>
       </c>
       <c r="C208" s="10"/>
       <c r="D208" s="9"/>
@@ -30638,7 +30734,7 @@
       <c r="AN208" s="200"/>
       <c r="AO208" s="159"/>
       <c r="AP208" s="177" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AQ208" s="171"/>
       <c r="AR208" s="116"/>
@@ -30655,10 +30751,10 @@
     </row>
     <row r="209" spans="1:57" ht="28.8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A209" s="192" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B209" s="119" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C209" s="120"/>
       <c r="D209" s="121"/>
@@ -30708,22 +30804,22 @@
       </c>
       <c r="AQ209" s="125"/>
       <c r="AR209" s="126" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AS209" s="127" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="AT209" s="127" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AU209" s="128"/>
       <c r="AV209" s="128" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AW209" s="128"/>
       <c r="AX209" s="128"/>
       <c r="AY209" s="128" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AZ209" s="128"/>
       <c r="BA209" s="128"/>
@@ -30731,10 +30827,10 @@
     </row>
     <row r="210" spans="1:57" ht="28.8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A210" s="192" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B210" s="119" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C210" s="120"/>
       <c r="D210" s="121"/>
@@ -30784,22 +30880,22 @@
       </c>
       <c r="AQ210" s="125"/>
       <c r="AR210" s="126" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AS210" s="127" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="AT210" s="127" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AU210" s="128"/>
       <c r="AV210" s="128" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AW210" s="128"/>
       <c r="AX210" s="128"/>
       <c r="AY210" s="128" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AZ210" s="128"/>
       <c r="BA210" s="128"/>
@@ -30807,10 +30903,10 @@
     </row>
     <row r="211" spans="1:57" ht="28.8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A211" s="192" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B211" s="119" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C211" s="120"/>
       <c r="D211" s="121"/>
@@ -30860,22 +30956,22 @@
       </c>
       <c r="AQ211" s="125"/>
       <c r="AR211" s="126" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AS211" s="127" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AT211" s="127" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="AU211" s="128"/>
       <c r="AV211" s="128" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AW211" s="128"/>
       <c r="AX211" s="128"/>
       <c r="AY211" s="128" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AZ211" s="128"/>
       <c r="BA211" s="128"/>
@@ -30883,10 +30979,10 @@
     </row>
     <row r="212" spans="1:57" ht="28.8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A212" s="192" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B212" s="119" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C212" s="120"/>
       <c r="D212" s="121"/>
@@ -30936,22 +31032,22 @@
       </c>
       <c r="AQ212" s="125"/>
       <c r="AR212" s="126" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AS212" s="127" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="AT212" s="127" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AU212" s="128"/>
       <c r="AV212" s="128" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AW212" s="128"/>
       <c r="AX212" s="128"/>
       <c r="AY212" s="128" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AZ212" s="128"/>
       <c r="BA212" s="128"/>
@@ -38634,6 +38730,263 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC4C6906-1725-4EC5-8532-500ACC02087A}">
+  <dimension ref="A1:B30"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="217" t="s">
+        <v>364</v>
+      </c>
+      <c r="B1" s="217" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>366</v>
+      </c>
+      <c r="B3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>322</v>
+      </c>
+      <c r="B7" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>165</v>
+      </c>
+      <c r="B8" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B10" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>361</v>
+      </c>
+      <c r="B11" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>253</v>
+      </c>
+      <c r="B12" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>252</v>
+      </c>
+      <c r="B13" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>121</v>
+      </c>
+      <c r="B14" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>405</v>
+      </c>
+      <c r="B15" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>88</v>
+      </c>
+      <c r="B19" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>254</v>
+      </c>
+      <c r="B20" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>411</v>
+      </c>
+      <c r="B21" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>306</v>
+      </c>
+      <c r="B22" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>524</v>
+      </c>
+      <c r="B23" s="275" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>525</v>
+      </c>
+      <c r="B24" s="274" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>526</v>
+      </c>
+      <c r="B25" s="274" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B26" s="274"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>527</v>
+      </c>
+      <c r="B27" s="274" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>528</v>
+      </c>
+      <c r="B28" s="274" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>529</v>
+      </c>
+      <c r="B29" s="274" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>530</v>
+      </c>
+      <c r="B30" s="274" t="s">
+        <v>523</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:A20">
+    <sortCondition ref="A2"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E68EAA2-9DAB-4D72-A4A7-492042A43B2B}">
   <dimension ref="A1:H11"/>
   <sheetViews>
@@ -38648,82 +39001,82 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="217" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C1" s="223" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H1" s="217" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C2" s="222" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H2" s="218">
         <f ca="1">TODAY()</f>
-        <v>44298</v>
+        <v>44312</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C3" s="222" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C4" s="222" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C5" s="222" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C6" s="222" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C7" s="222" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C8" s="222" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C9" s="222" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C10" s="222" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C11" s="222" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
   </sheetData>
@@ -38752,19 +39105,19 @@
   <sheetData>
     <row r="1" spans="1:7" s="225" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="250" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B1" s="251" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C1" s="251" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D1" s="251" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E1" s="251" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="241" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -38781,7 +39134,7 @@
     </row>
     <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="229" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B3" s="230" t="str">
         <f>IF(VLOOKUP(A3,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A3,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -38803,7 +39156,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="229" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B4" s="230" t="str">
         <f>IF(VLOOKUP(A4,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A4,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -38825,7 +39178,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="229" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B5" s="230" t="str">
         <f>IF(VLOOKUP(A5,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A5,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -38847,7 +39200,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="229" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B6" s="230" t="str">
         <f>IF(VLOOKUP(A6,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A6,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -38869,7 +39222,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="229" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B7" s="230" t="str">
         <f>IF(VLOOKUP(A7,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A7,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -38891,7 +39244,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="229" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B8" s="230" t="str">
         <f>IF(VLOOKUP(A8,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A8,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -38924,7 +39277,7 @@
     </row>
     <row r="10" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="229" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B10" s="230" t="str">
         <f>IF(VLOOKUP(A10,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A10,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -38945,7 +39298,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="229" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B11" s="230" t="str">
         <f>IF(VLOOKUP(A11,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A11,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -38966,7 +39319,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="229" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B12" s="230" t="str">
         <f>IF(VLOOKUP(A12,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A12,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -38987,7 +39340,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="229" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B13" s="230" t="str">
         <f>IF(VLOOKUP(A13,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A13,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -39008,7 +39361,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="229" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="B14" s="230" t="str">
         <f>IF(VLOOKUP(A14,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A14,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -39041,7 +39394,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="229" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B16" s="230" t="str">
         <f>IF(VLOOKUP(A16,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A16,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -39062,7 +39415,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="229" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B17" s="230" t="str">
         <f>IF(VLOOKUP(A17,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A17,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -39083,7 +39436,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="229" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B18" s="230" t="str">
         <f>IF(VLOOKUP(A18,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A18,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -39104,7 +39457,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="229" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B19" s="230" t="str">
         <f>IF(VLOOKUP(A19,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A19,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -39125,7 +39478,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="229" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B20" s="230" t="str">
         <f>IF(VLOOKUP(A20,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A20,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -39146,7 +39499,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="229" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B21" s="230" t="str">
         <f>IF(VLOOKUP(A21,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A21,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -39167,7 +39520,7 @@
     </row>
     <row r="22" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="229" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B22" s="230" t="str">
         <f>IF(VLOOKUP(A22,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A22,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -39200,7 +39553,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="229" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B24" s="230" t="str">
         <f>IF(VLOOKUP(A24,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A24,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -39221,7 +39574,7 @@
     </row>
     <row r="25" spans="1:6" s="273" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="268" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B25" s="239" t="str">
         <f>IF(VLOOKUP(A25,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A25,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -39243,7 +39596,7 @@
     </row>
     <row r="26" spans="1:6" s="273" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="268" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B26" s="239" t="str">
         <f>IF(VLOOKUP(A26,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A26,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -39265,7 +39618,7 @@
     </row>
     <row r="27" spans="1:6" s="273" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="268" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B27" s="239" t="str">
         <f>IF(VLOOKUP(A27,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A27,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -39299,7 +39652,7 @@
     </row>
     <row r="29" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="229" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B29" s="230" t="str">
         <f>IF(VLOOKUP(A29,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A29,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -39320,7 +39673,7 @@
     </row>
     <row r="30" spans="1:6" s="273" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="268" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B30" s="239" t="str">
         <f>IF(VLOOKUP(A30,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A30,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -39366,7 +39719,7 @@
     </row>
     <row r="33" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="229" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B33" s="230" t="str">
         <f>IF(VLOOKUP(A33,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A33,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -39387,7 +39740,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="229" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B34" s="230" t="str">
         <f>IF(VLOOKUP(A34,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A34,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -39408,7 +39761,7 @@
     </row>
     <row r="35" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="229" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B35" s="230" t="str">
         <f>IF(VLOOKUP(A35,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A35,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -39429,7 +39782,7 @@
     </row>
     <row r="36" spans="1:6" s="273" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="268" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B36" s="239" t="str">
         <f>IF(VLOOKUP(A36,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A36,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -39463,7 +39816,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="229" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B38" s="230" t="str">
         <f>IF(VLOOKUP(A38,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A38,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -39484,7 +39837,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="229" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B39" s="230" t="str">
         <f>IF(VLOOKUP(A39,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A39,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -39505,7 +39858,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="229" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B40" s="230" t="str">
         <f>IF(VLOOKUP(A40,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A40,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -39526,7 +39879,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="229" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B41" s="230" t="str">
         <f>IF(VLOOKUP(A41,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A41,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -39547,7 +39900,7 @@
     </row>
     <row r="42" spans="1:6" s="273" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="268" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B42" s="239" t="str">
         <f>IF(VLOOKUP(A42,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A42,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -39569,7 +39922,7 @@
     </row>
     <row r="43" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="229" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B43" s="230" t="str">
         <f>IF(VLOOKUP(A43,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A43,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -39590,7 +39943,7 @@
     </row>
     <row r="44" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="229" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B44" s="230" t="str">
         <f>IF(VLOOKUP(A44,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A44,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -39611,7 +39964,7 @@
     </row>
     <row r="45" spans="1:6" s="273" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="268" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B45" s="239" t="str">
         <f>IF(VLOOKUP(A45,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A45,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -39633,7 +39986,7 @@
     </row>
     <row r="46" spans="1:6" s="273" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="268" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B46" s="239" t="str">
         <f>IF(VLOOKUP(A46,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A46,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -39803,28 +40156,28 @@
   <sheetData>
     <row r="1" spans="1:10" s="225" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="250" t="s">
+        <v>291</v>
+      </c>
+      <c r="B1" s="251" t="s">
+        <v>289</v>
+      </c>
+      <c r="C1" s="252" t="s">
         <v>292</v>
       </c>
-      <c r="B1" s="251" t="s">
-        <v>290</v>
-      </c>
-      <c r="C1" s="252" t="s">
-        <v>293</v>
-      </c>
       <c r="D1" s="251" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E1" s="251" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F1" s="253" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G1" s="251" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H1" s="254" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="241" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -39847,7 +40200,7 @@
     </row>
     <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="229" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B3" s="230" t="str">
         <f>IF(VLOOKUP(A3,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A3,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -39881,7 +40234,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="229" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B4" s="230" t="str">
         <f>IF(VLOOKUP(A4,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A4,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -39915,7 +40268,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="229" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B5" s="230" t="str">
         <f>IF(VLOOKUP(A5,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A5,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -39949,7 +40302,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="229" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B6" s="230" t="str">
         <f>IF(VLOOKUP(A6,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A6,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -39983,7 +40336,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="229" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B7" s="230" t="str">
         <f>IF(VLOOKUP(A7,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A7,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -39995,7 +40348,7 @@
       </c>
       <c r="D7" s="231">
         <f>IF(VLOOKUP(A7,EML_Tool_WP!A:BB,40,FALSE)="","",VLOOKUP(A7,EML_Tool_WP!A:BB,40,FALSE))</f>
-        <v>44347</v>
+        <v>44439</v>
       </c>
       <c r="E7" s="230" t="str">
         <f>IF(VLOOKUP(A7,EML_Tool_WP!A:BB,51,FALSE)="","",VLOOKUP(A7,EML_Tool_WP!A:BB,51,FALSE))</f>
@@ -40017,7 +40370,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="229" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B8" s="230" t="str">
         <f>IF(VLOOKUP(A8,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A8,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -40068,7 +40421,7 @@
     </row>
     <row r="10" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="229" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B10" s="230" t="str">
         <f>IF(VLOOKUP(A10,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A10,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -40101,7 +40454,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="229" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B11" s="230" t="str">
         <f>IF(VLOOKUP(A11,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A11,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -40134,7 +40487,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="229" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B12" s="230" t="str">
         <f>IF(VLOOKUP(A12,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A12,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -40167,7 +40520,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="229" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B13" s="230" t="str">
         <f>IF(VLOOKUP(A13,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A13,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -40200,7 +40553,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="229" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="B14" s="230" t="str">
         <f>IF(VLOOKUP(A14,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A14,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -40212,7 +40565,7 @@
       </c>
       <c r="D14" s="231">
         <f>IF(VLOOKUP(A14,EML_Tool_WP!A:BB,40,FALSE)="","",VLOOKUP(A14,EML_Tool_WP!A:BB,40,FALSE))</f>
-        <v>44331</v>
+        <v>44346</v>
       </c>
       <c r="E14" s="230" t="str">
         <f>IF(VLOOKUP(A14,EML_Tool_WP!A:BB,51,FALSE)="","",VLOOKUP(A14,EML_Tool_WP!A:BB,51,FALSE))</f>
@@ -40251,7 +40604,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="229" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B16" s="230" t="str">
         <f>IF(VLOOKUP(A16,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A16,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -40284,7 +40637,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="229" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B17" s="230" t="str">
         <f>IF(VLOOKUP(A17,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A17,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -40317,7 +40670,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="229" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B18" s="230" t="str">
         <f>IF(VLOOKUP(A18,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A18,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -40350,7 +40703,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="229" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B19" s="230" t="str">
         <f>IF(VLOOKUP(A19,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A19,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -40383,7 +40736,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="229" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B20" s="230" t="str">
         <f>IF(VLOOKUP(A20,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A20,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -40416,7 +40769,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="229" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B21" s="230" t="str">
         <f>IF(VLOOKUP(A21,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A21,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -40449,7 +40802,7 @@
     </row>
     <row r="22" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="229" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B22" s="230" t="str">
         <f>IF(VLOOKUP(A22,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A22,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -40500,7 +40853,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="229" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B24" s="230" t="str">
         <f>IF(VLOOKUP(A24,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A24,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -40533,7 +40886,7 @@
     </row>
     <row r="25" spans="1:9" s="273" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="268" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B25" s="239" t="str">
         <f>IF(VLOOKUP(A25,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A25,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -40567,7 +40920,7 @@
     </row>
     <row r="26" spans="1:9" s="273" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="268" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B26" s="239" t="str">
         <f>IF(VLOOKUP(A26,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A26,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -40601,7 +40954,7 @@
     </row>
     <row r="27" spans="1:9" s="273" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="268" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B27" s="239" t="str">
         <f>IF(VLOOKUP(A27,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A27,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -40653,7 +41006,7 @@
     </row>
     <row r="29" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="229" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B29" s="230" t="str">
         <f>IF(VLOOKUP(A29,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A29,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -40686,7 +41039,7 @@
     </row>
     <row r="30" spans="1:9" s="273" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="268" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B30" s="239" t="str">
         <f>IF(VLOOKUP(A30,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A30,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -40756,7 +41109,7 @@
     </row>
     <row r="33" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="229" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B33" s="230" t="str">
         <f>IF(VLOOKUP(A33,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A33,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -40789,7 +41142,7 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="229" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B34" s="230" t="str">
         <f>IF(VLOOKUP(A34,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A34,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -40822,7 +41175,7 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="229" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B35" s="230" t="str">
         <f>IF(VLOOKUP(A35,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A35,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -40855,7 +41208,7 @@
     </row>
     <row r="36" spans="1:9" s="273" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="268" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B36" s="239" t="str">
         <f>IF(VLOOKUP(A36,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A36,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -40907,7 +41260,7 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="229" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B38" s="230" t="str">
         <f>IF(VLOOKUP(A38,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A38,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -40940,7 +41293,7 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="229" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B39" s="230" t="str">
         <f>IF(VLOOKUP(A39,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A39,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -40973,7 +41326,7 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="229" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B40" s="230" t="str">
         <f>IF(VLOOKUP(A40,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A40,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -41006,7 +41359,7 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="229" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B41" s="230" t="str">
         <f>IF(VLOOKUP(A41,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A41,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -41039,7 +41392,7 @@
     </row>
     <row r="42" spans="1:9" s="273" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="268" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B42" s="239" t="str">
         <f>IF(VLOOKUP(A42,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A42,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -41073,7 +41426,7 @@
     </row>
     <row r="43" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="229" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B43" s="230" t="str">
         <f>IF(VLOOKUP(A43,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A43,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -41106,7 +41459,7 @@
     </row>
     <row r="44" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="229" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B44" s="230" t="str">
         <f>IF(VLOOKUP(A44,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A44,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -41139,7 +41492,7 @@
     </row>
     <row r="45" spans="1:9" s="273" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="268" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B45" s="239" t="str">
         <f>IF(VLOOKUP(A45,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A45,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -41173,7 +41526,7 @@
     </row>
     <row r="46" spans="1:9" s="273" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="268" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B46" s="239" t="str">
         <f>IF(VLOOKUP(A46,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A46,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -41456,8 +41809,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -41477,34 +41830,34 @@
   <sheetData>
     <row r="1" spans="1:10" s="225" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="250" t="s">
+        <v>291</v>
+      </c>
+      <c r="B1" s="251" t="s">
+        <v>289</v>
+      </c>
+      <c r="C1" s="252" t="s">
         <v>292</v>
       </c>
-      <c r="B1" s="251" t="s">
-        <v>290</v>
-      </c>
-      <c r="C1" s="252" t="s">
-        <v>293</v>
-      </c>
       <c r="D1" s="251" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E1" s="253" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F1" s="251" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G1" s="323" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H1" s="251" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="I1" s="251" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="J1" s="251" t="s">
-        <v>742</v>
+        <v>735</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="241" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -41526,12 +41879,12 @@
       <c r="H2" s="247"/>
       <c r="I2" s="247"/>
       <c r="J2" s="324" t="s">
-        <v>741</v>
+        <v>734</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="229" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B3" s="230" t="str">
         <f>IF(VLOOKUP(A3,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A3,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -41566,13 +41919,13 @@
         <v>* ANNETTE Paper: 20201224_ANETTE_IEEEAccess</v>
       </c>
       <c r="J3" s="74" t="str">
-        <f t="shared" ref="J2:J3" si="0">IFERROR(IF(FIND("(ME)",H3),"ME"),"")</f>
+        <f t="shared" ref="J3" si="0">IFERROR(IF(FIND("(ME)",H3),"ME"),"")</f>
         <v/>
       </c>
     </row>
     <row r="4" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="229" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B4" s="230" t="str">
         <f>IF(VLOOKUP(A4,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A4,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -41618,7 +41971,7 @@
     </row>
     <row r="5" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A5" s="229" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B5" s="230" t="str">
         <f>IF(VLOOKUP(A5,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A5,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -41665,7 +42018,7 @@
     </row>
     <row r="6" spans="1:10" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="229" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B6" s="230" t="str">
         <f>IF(VLOOKUP(A6,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A6,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -41706,7 +42059,7 @@
     </row>
     <row r="7" spans="1:10" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="229" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B7" s="230" t="str">
         <f>IF(VLOOKUP(A7,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A7,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -41718,7 +42071,7 @@
       </c>
       <c r="D7" s="231">
         <f>IF(VLOOKUP(A7,EML_Tool_WP!A:BB,40,FALSE)="","",VLOOKUP(A7,EML_Tool_WP!A:BB,40,FALSE))</f>
-        <v>44347</v>
+        <v>44439</v>
       </c>
       <c r="E7" s="233">
         <f>IF(VLOOKUP(A7,EML_Tool_WP!A:BB,42,FALSE)="","",VLOOKUP(A7,EML_Tool_WP!A:BB,42,FALSE))</f>
@@ -41749,7 +42102,7 @@
     </row>
     <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="229" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B8" s="230" t="str">
         <f>IF(VLOOKUP(A8,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A8,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -41807,12 +42160,12 @@
       <c r="H9" s="242"/>
       <c r="I9" s="242"/>
       <c r="J9" s="324" t="s">
-        <v>741</v>
+        <v>734</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="144" x14ac:dyDescent="0.3">
       <c r="A10" s="229" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B10" s="230" t="str">
         <f>IF(VLOOKUP(A10,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A10,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -41840,10 +42193,10 @@
       </c>
       <c r="H10" s="231" t="str">
         <f>IF(VLOOKUP(A10,EML_Tool_WP!A:BB,52,FALSE)="","",VLOOKUP(A10,EML_Tool_WP!A:BB,52,FALSE))</f>
-        <v>[] (ME) For each device, characterzation Batchsizes 1-4, variation of possible HW options: GPU frequency, definition of settings for min. latency, min power and min energy
+        <v>[] (ME) For each device and SSD-MobileNetV2, characterzation Batchsizes 1-4, variation of possible HW options: GPU frequency, definition of settings for min. latency, min power and min energy
 [] Analysis of Jetson, TX2, Xavier
 [] (ME) Analysis of power peaks to prevent overheating
-[] (ME) HW configurator in EML Github to select mode
+[] (ME) HW configurator script in EML Github to select mode
 [x] Publikation</v>
       </c>
       <c r="I10" s="231" t="str">
@@ -41857,7 +42210,7 @@
     </row>
     <row r="11" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A11" s="229" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B11" s="230" t="str">
         <f>IF(VLOOKUP(A11,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A11,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -41901,7 +42254,7 @@
     </row>
     <row r="12" spans="1:10" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="229" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B12" s="230" t="str">
         <f>IF(VLOOKUP(A12,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A12,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -41944,7 +42297,7 @@
     </row>
     <row r="13" spans="1:10" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="229" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B13" s="230" t="str">
         <f>IF(VLOOKUP(A13,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A13,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -41973,6 +42326,7 @@
       <c r="H13" s="231" t="str">
         <f>IF(VLOOKUP(A13,EML_Tool_WP!A:BB,52,FALSE)="","",VLOOKUP(A13,EML_Tool_WP!A:BB,52,FALSE))</f>
         <v>[] Evaluation of stick sync vs. async mode and other settings of NCS2 as part of thesis MW
+[] Execution and configuration scripts in Scripts-and-Guides repository
 [x] Results included in ANNETTE D1.1.3</v>
       </c>
       <c r="I13" s="231" t="str">
@@ -41986,7 +42340,7 @@
     </row>
     <row r="14" spans="1:10" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="229" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="B14" s="230" t="str">
         <f>IF(VLOOKUP(A14,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A14,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -41998,7 +42352,7 @@
       </c>
       <c r="D14" s="231">
         <f>IF(VLOOKUP(A14,EML_Tool_WP!A:BB,40,FALSE)="","",VLOOKUP(A14,EML_Tool_WP!A:BB,40,FALSE))</f>
-        <v>44331</v>
+        <v>44346</v>
       </c>
       <c r="E14" s="233">
         <f>IF(VLOOKUP(A14,EML_Tool_WP!A:BB,42,FALSE)="","",VLOOKUP(A14,EML_Tool_WP!A:BB,42,FALSE))</f>
@@ -42046,12 +42400,12 @@
       <c r="H15" s="242"/>
       <c r="I15" s="242"/>
       <c r="J15" s="324" t="s">
-        <v>741</v>
+        <v>734</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="229" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B16" s="230" t="str">
         <f>IF(VLOOKUP(A16,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A16,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -42095,7 +42449,7 @@
     </row>
     <row r="17" spans="1:10" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="229" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B17" s="230" t="str">
         <f>IF(VLOOKUP(A17,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A17,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -42141,7 +42495,7 @@
     </row>
     <row r="18" spans="1:10" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="229" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B18" s="230" t="str">
         <f>IF(VLOOKUP(A18,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A18,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -42187,7 +42541,7 @@
     </row>
     <row r="19" spans="1:10" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="229" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B19" s="230" t="str">
         <f>IF(VLOOKUP(A19,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A19,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -42233,7 +42587,7 @@
     </row>
     <row r="20" spans="1:10" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="229" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B20" s="230" t="str">
         <f>IF(VLOOKUP(A20,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A20,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -42278,7 +42632,7 @@
     </row>
     <row r="21" spans="1:10" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="229" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B21" s="230" t="str">
         <f>IF(VLOOKUP(A21,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A21,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -42323,7 +42677,7 @@
     </row>
     <row r="22" spans="1:10" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="229" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B22" s="230" t="str">
         <f>IF(VLOOKUP(A22,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A22,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -42384,12 +42738,12 @@
       <c r="H23" s="242"/>
       <c r="I23" s="242"/>
       <c r="J23" s="324" t="s">
-        <v>741</v>
+        <v>734</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="229" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B24" s="230" t="str">
         <f>IF(VLOOKUP(A24,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A24,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -42432,7 +42786,7 @@
     </row>
     <row r="25" spans="1:10" s="273" customFormat="1" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="268" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B25" s="239" t="str">
         <f>IF(VLOOKUP(A25,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A25,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -42473,7 +42827,7 @@
     </row>
     <row r="26" spans="1:10" s="273" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="268" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B26" s="239" t="str">
         <f>IF(VLOOKUP(A26,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A26,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -42514,7 +42868,7 @@
     </row>
     <row r="27" spans="1:10" s="273" customFormat="1" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="268" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B27" s="239" t="str">
         <f>IF(VLOOKUP(A27,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A27,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -42573,12 +42927,12 @@
       <c r="H28" s="242"/>
       <c r="I28" s="242"/>
       <c r="J28" s="324" t="s">
-        <v>741</v>
+        <v>734</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="229" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B29" s="230" t="str">
         <f>IF(VLOOKUP(A29,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A29,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -42623,7 +42977,7 @@
     </row>
     <row r="30" spans="1:10" s="273" customFormat="1" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="268" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B30" s="239" t="str">
         <f>IF(VLOOKUP(A30,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A30,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -42683,7 +43037,7 @@
       <c r="H31" s="242"/>
       <c r="I31" s="242"/>
       <c r="J31" s="324" t="s">
-        <v>741</v>
+        <v>734</v>
       </c>
     </row>
     <row r="32" spans="1:10" s="241" customFormat="1" x14ac:dyDescent="0.3">
@@ -42705,12 +43059,12 @@
       <c r="H32" s="242"/>
       <c r="I32" s="242"/>
       <c r="J32" s="324" t="s">
-        <v>741</v>
+        <v>734</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A33" s="229" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B33" s="230" t="str">
         <f>IF(VLOOKUP(A33,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A33,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -42754,7 +43108,7 @@
     </row>
     <row r="34" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A34" s="229" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B34" s="230" t="str">
         <f>IF(VLOOKUP(A34,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A34,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -42800,7 +43154,7 @@
     </row>
     <row r="35" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A35" s="229" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B35" s="230" t="str">
         <f>IF(VLOOKUP(A35,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A35,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -42842,7 +43196,7 @@
     </row>
     <row r="36" spans="1:10" s="273" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="268" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B36" s="239" t="str">
         <f>IF(VLOOKUP(A36,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A36,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -42900,12 +43254,12 @@
       <c r="H37" s="242"/>
       <c r="I37" s="242"/>
       <c r="J37" s="324" t="s">
-        <v>741</v>
+        <v>734</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="229" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B38" s="230" t="str">
         <f>IF(VLOOKUP(A38,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A38,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -42947,7 +43301,7 @@
     </row>
     <row r="39" spans="1:10" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="229" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B39" s="230" t="str">
         <f>IF(VLOOKUP(A39,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A39,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -42991,7 +43345,7 @@
     </row>
     <row r="40" spans="1:10" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="229" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B40" s="230" t="str">
         <f>IF(VLOOKUP(A40,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A40,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -43032,7 +43386,7 @@
     </row>
     <row r="41" spans="1:10" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="229" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B41" s="230" t="str">
         <f>IF(VLOOKUP(A41,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A41,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -43073,7 +43427,7 @@
     </row>
     <row r="42" spans="1:10" s="273" customFormat="1" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="268" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B42" s="239" t="str">
         <f>IF(VLOOKUP(A42,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A42,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -43101,7 +43455,8 @@
       </c>
       <c r="H42" s="231" t="str">
         <f>IF(VLOOKUP(A42,EML_Tool_WP!A:BB,52,FALSE)="","",VLOOKUP(A42,EML_Tool_WP!A:BB,52,FALSE))</f>
-        <v>[] Documented evaluation of EfficientDet, SSD-MobileNet and Yolo on NVIDIA, Edge TPU and NCS2
+        <v>[] (TUG) Documented evaluation of EfficientDet, SSD-MobileNet and Yolo on NVIDIA, Edge TPU and NCS2
+[] Optimal Network+Optimizer+Hardware as code
 [] Pedestrian training dataset created from official sources</v>
       </c>
       <c r="I42" s="231" t="str">
@@ -43115,7 +43470,7 @@
     </row>
     <row r="43" spans="1:10" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="229" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B43" s="230" t="str">
         <f>IF(VLOOKUP(A43,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A43,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -43158,7 +43513,7 @@
     </row>
     <row r="44" spans="1:10" ht="144" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="229" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B44" s="230" t="str">
         <f>IF(VLOOKUP(A44,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A44,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -43203,7 +43558,7 @@
     </row>
     <row r="45" spans="1:10" s="273" customFormat="1" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="268" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B45" s="239" t="str">
         <f>IF(VLOOKUP(A45,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A45,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -43246,7 +43601,7 @@
     </row>
     <row r="46" spans="1:10" s="273" customFormat="1" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="268" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B46" s="239" t="str">
         <f>IF(VLOOKUP(A46,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A46,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -43468,7 +43823,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2EA65BB-600E-4EAE-BF59-6A4F8252D931}">
   <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -43484,25 +43841,25 @@
   <sheetData>
     <row r="1" spans="1:9" s="225" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="250" t="s">
+        <v>291</v>
+      </c>
+      <c r="B1" s="251" t="s">
+        <v>289</v>
+      </c>
+      <c r="C1" s="252" t="s">
         <v>292</v>
       </c>
-      <c r="B1" s="251" t="s">
-        <v>290</v>
-      </c>
-      <c r="C1" s="252" t="s">
-        <v>293</v>
-      </c>
       <c r="D1" s="251" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E1" s="251" t="s">
         <v>14</v>
       </c>
       <c r="F1" s="251" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G1" s="287" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="241" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -43524,7 +43881,7 @@
     </row>
     <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="229" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B3" s="230" t="str">
         <f>IF(VLOOKUP(A3,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A3,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -43554,7 +43911,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="229" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B4" s="230" t="str">
         <f>IF(VLOOKUP(A4,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A4,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -43584,7 +43941,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="229" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B5" s="230" t="str">
         <f>IF(VLOOKUP(A5,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A5,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -43614,7 +43971,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="229" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B6" s="230" t="str">
         <f>IF(VLOOKUP(A6,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A6,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -43644,7 +44001,7 @@
     </row>
     <row r="7" spans="1:9" s="280" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="276" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B7" s="277" t="str">
         <f>IF(VLOOKUP(A7,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A7,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -43656,7 +44013,7 @@
       </c>
       <c r="D7" s="278">
         <f>IF(VLOOKUP(A7,EML_Tool_WP!A:BB,40,FALSE)="","",VLOOKUP(A7,EML_Tool_WP!A:BB,40,FALSE))</f>
-        <v>44347</v>
+        <v>44439</v>
       </c>
       <c r="E7" s="277" t="str">
         <f>IFERROR(VLOOKUP(VLOOKUP(A7,EML_Tool_WP!A:BB,45,FALSE),Members!A:B,2,FALSE),"ERROR")</f>
@@ -43675,7 +44032,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="229" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B8" s="230" t="str">
         <f>IF(VLOOKUP(A8,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A8,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -43721,7 +44078,7 @@
     </row>
     <row r="10" spans="1:9" s="273" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="268" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B10" s="239" t="str">
         <f>IF(VLOOKUP(A10,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A10,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -43751,7 +44108,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="229" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B11" s="230" t="str">
         <f>IF(VLOOKUP(A11,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A11,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -43780,7 +44137,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="229" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B12" s="230" t="str">
         <f>IF(VLOOKUP(A12,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A12,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -43809,7 +44166,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="229" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B13" s="230" t="str">
         <f>IF(VLOOKUP(A13,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A13,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -43838,7 +44195,7 @@
     </row>
     <row r="14" spans="1:9" s="280" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="276" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="B14" s="277" t="str">
         <f>IF(VLOOKUP(A14,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A14,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -43850,7 +44207,7 @@
       </c>
       <c r="D14" s="278">
         <f>IF(VLOOKUP(A14,EML_Tool_WP!A:BB,40,FALSE)="","",VLOOKUP(A14,EML_Tool_WP!A:BB,40,FALSE))</f>
-        <v>44331</v>
+        <v>44346</v>
       </c>
       <c r="E14" s="277" t="str">
         <f>IFERROR(VLOOKUP(VLOOKUP(A14,EML_Tool_WP!A:BB,45,FALSE),Members!A:B,2,FALSE),"ERROR")</f>
@@ -43885,7 +44242,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="229" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B16" s="230" t="str">
         <f>IF(VLOOKUP(A16,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A16,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -43914,7 +44271,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="229" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B17" s="230" t="str">
         <f>IF(VLOOKUP(A17,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A17,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -43943,7 +44300,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="229" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B18" s="230" t="str">
         <f>IF(VLOOKUP(A18,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A18,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -43972,7 +44329,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="229" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B19" s="230" t="str">
         <f>IF(VLOOKUP(A19,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A19,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -44001,7 +44358,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="229" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B20" s="230" t="str">
         <f>IF(VLOOKUP(A20,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A20,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -44030,7 +44387,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="229" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B21" s="230" t="str">
         <f>IF(VLOOKUP(A21,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A21,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -44059,7 +44416,7 @@
     </row>
     <row r="22" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="229" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B22" s="230" t="str">
         <f>IF(VLOOKUP(A22,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A22,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -44105,7 +44462,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="229" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B24" s="230" t="str">
         <f>IF(VLOOKUP(A24,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A24,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -44134,7 +44491,7 @@
     </row>
     <row r="25" spans="1:8" s="273" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="268" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B25" s="239" t="str">
         <f>IF(VLOOKUP(A25,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A25,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -44164,7 +44521,7 @@
     </row>
     <row r="26" spans="1:8" s="273" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="268" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B26" s="239" t="str">
         <f>IF(VLOOKUP(A26,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A26,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -44194,7 +44551,7 @@
     </row>
     <row r="27" spans="1:8" s="273" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="268" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B27" s="239" t="str">
         <f>IF(VLOOKUP(A27,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A27,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -44241,7 +44598,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="229" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B29" s="230" t="str">
         <f>IF(VLOOKUP(A29,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A29,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -44270,7 +44627,7 @@
     </row>
     <row r="30" spans="1:8" s="273" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="268" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B30" s="239" t="str">
         <f>IF(VLOOKUP(A30,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A30,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -44334,7 +44691,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="229" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B33" s="230" t="str">
         <f>IF(VLOOKUP(A33,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A33,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -44363,7 +44720,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="229" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B34" s="230" t="str">
         <f>IF(VLOOKUP(A34,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A34,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -44392,7 +44749,7 @@
     </row>
     <row r="35" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="229" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B35" s="230" t="str">
         <f>IF(VLOOKUP(A35,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A35,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -44421,7 +44778,7 @@
     </row>
     <row r="36" spans="1:8" s="280" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="276" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B36" s="277" t="str">
         <f>IF(VLOOKUP(A36,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A36,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -44468,7 +44825,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="229" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B38" s="230" t="str">
         <f>IF(VLOOKUP(A38,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A38,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -44497,7 +44854,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="229" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B39" s="230" t="str">
         <f>IF(VLOOKUP(A39,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A39,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -44526,7 +44883,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="229" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B40" s="230" t="str">
         <f>IF(VLOOKUP(A40,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A40,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -44555,7 +44912,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="229" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B41" s="230" t="str">
         <f>IF(VLOOKUP(A41,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A41,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -44584,7 +44941,7 @@
     </row>
     <row r="42" spans="1:8" s="273" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="268" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B42" s="239" t="str">
         <f>IF(VLOOKUP(A42,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A42,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -44614,7 +44971,7 @@
     </row>
     <row r="43" spans="1:8" s="273" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="268" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B43" s="239" t="str">
         <f>IF(VLOOKUP(A43,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A43,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -44644,7 +45001,7 @@
     </row>
     <row r="44" spans="1:8" s="273" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="268" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B44" s="239" t="str">
         <f>IF(VLOOKUP(A44,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A44,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -44674,7 +45031,7 @@
     </row>
     <row r="45" spans="1:8" s="273" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="268" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B45" s="239" t="str">
         <f>IF(VLOOKUP(A45,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A45,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -44704,7 +45061,7 @@
     </row>
     <row r="46" spans="1:8" s="285" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="281" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B46" s="282" t="str">
         <f>IF(VLOOKUP(A46,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A46,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -44734,7 +45091,7 @@
     </row>
     <row r="47" spans="1:8" s="241" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="244" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B47" s="242" t="str">
         <f>IF(VLOOKUP(A47,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A47,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -44748,7 +45105,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="262" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B48" s="239" t="str">
         <f>IF(VLOOKUP(A48,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A48,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -44777,7 +45134,7 @@
     </row>
     <row r="49" spans="1:8" s="285" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="286" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B49" s="282" t="str">
         <f>IF(VLOOKUP(A49,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A49,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -44807,7 +45164,7 @@
     </row>
     <row r="50" spans="1:8" s="285" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="286" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B50" s="282" t="str">
         <f>IF(VLOOKUP(A50,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A50,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -44837,7 +45194,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="262" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B51" s="239" t="str">
         <f>IF(VLOOKUP(A51,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A51,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -44932,11 +45289,290 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEA257A2-AF02-4FFE-B2EC-6ADA8BB9606C}">
+  <dimension ref="A1:E32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.109375" style="229" customWidth="1"/>
+    <col min="2" max="2" width="65.44140625" style="230" customWidth="1"/>
+    <col min="3" max="3" width="8.21875" style="230" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" style="230" customWidth="1"/>
+    <col min="5" max="5" width="37.88671875" style="240" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="294" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1" s="224" t="s">
+        <v>289</v>
+      </c>
+      <c r="C1" s="224" t="s">
+        <v>321</v>
+      </c>
+      <c r="D1" s="224" t="s">
+        <v>551</v>
+      </c>
+      <c r="E1" s="237" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="226" t="s">
+        <v>358</v>
+      </c>
+      <c r="B2" s="227"/>
+      <c r="C2" s="227" t="s">
+        <v>747</v>
+      </c>
+      <c r="D2" s="227" t="s">
+        <v>559</v>
+      </c>
+      <c r="E2" s="258" t="str">
+        <f>VLOOKUP(A2,AG_Students!F:F,1,FALSE)</f>
+        <v>Martin Lechner</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="229" t="s">
+        <v>357</v>
+      </c>
+      <c r="C3" s="230" t="s">
+        <v>747</v>
+      </c>
+      <c r="D3" s="230" t="s">
+        <v>559</v>
+      </c>
+      <c r="E3" s="258" t="str">
+        <f>VLOOKUP(A3,AG_Students!F:F,1,FALSE)</f>
+        <v>Matthias Wess</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="229" t="s">
+        <v>695</v>
+      </c>
+      <c r="C4" s="230" t="s">
+        <v>562</v>
+      </c>
+      <c r="D4" s="230" t="s">
+        <v>559</v>
+      </c>
+      <c r="E4" s="258" t="str">
+        <f>VLOOKUP(A4,AG_Students!F:F,1,FALSE)</f>
+        <v>Nikolas Alge</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="229" t="s">
+        <v>370</v>
+      </c>
+      <c r="B5" s="230" t="s">
+        <v>764</v>
+      </c>
+      <c r="C5" s="230" t="s">
+        <v>562</v>
+      </c>
+      <c r="D5" s="230" t="s">
+        <v>559</v>
+      </c>
+      <c r="E5" s="258" t="str">
+        <f>VLOOKUP(A5,AG_Students!F:F,1,FALSE)</f>
+        <v>Dominik Dallinger</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="229" t="s">
+        <v>367</v>
+      </c>
+      <c r="B6" s="230" t="s">
+        <v>751</v>
+      </c>
+      <c r="C6" s="230" t="s">
+        <v>555</v>
+      </c>
+      <c r="D6" s="230" t="s">
+        <v>559</v>
+      </c>
+      <c r="E6" s="258" t="str">
+        <f>VLOOKUP(A6,AG_Students!F:F,1,FALSE)</f>
+        <v>Andreas Glinserer</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="229" t="s">
+        <v>373</v>
+      </c>
+      <c r="B7" s="230" t="s">
+        <v>753</v>
+      </c>
+      <c r="C7" s="230" t="s">
+        <v>562</v>
+      </c>
+      <c r="D7" s="230" t="s">
+        <v>559</v>
+      </c>
+      <c r="E7" s="258" t="str">
+        <f>VLOOKUP(A7,AG_Students!F:F,1,FALSE)</f>
+        <v>Julian Westra</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="229" t="s">
+        <v>379</v>
+      </c>
+      <c r="B8" s="230" t="s">
+        <v>752</v>
+      </c>
+      <c r="C8" s="230" t="s">
+        <v>555</v>
+      </c>
+      <c r="D8" s="230" t="s">
+        <v>559</v>
+      </c>
+      <c r="E8" s="258" t="str">
+        <f>VLOOKUP(A8,AG_Students!F:F,1,FALSE)</f>
+        <v>Birgit Schreiber</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="229" t="s">
+        <v>299</v>
+      </c>
+      <c r="B9" s="230" t="s">
+        <v>757</v>
+      </c>
+      <c r="C9" s="230" t="s">
+        <v>555</v>
+      </c>
+      <c r="D9" s="230" t="s">
+        <v>559</v>
+      </c>
+      <c r="E9" s="258" t="str">
+        <f>VLOOKUP(A9,AG_Students!F:F,1,FALSE)</f>
+        <v>Bernhard Haas</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="229" t="s">
+        <v>371</v>
+      </c>
+      <c r="B10" s="230" t="s">
+        <v>754</v>
+      </c>
+      <c r="C10" s="230" t="s">
+        <v>555</v>
+      </c>
+      <c r="D10" s="230" t="s">
+        <v>559</v>
+      </c>
+      <c r="E10" s="258" t="str">
+        <f>VLOOKUP(A10,AG_Students!F:F,1,FALSE)</f>
+        <v>Helmuth Breitenfellner</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="229" t="s">
+        <v>412</v>
+      </c>
+      <c r="C11" s="230" t="s">
+        <v>562</v>
+      </c>
+      <c r="D11" s="230" t="s">
+        <v>559</v>
+      </c>
+      <c r="E11" s="258" t="str">
+        <f>VLOOKUP(A11,AG_Students!F:F,1,FALSE)</f>
+        <v>Fabian Scherer</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="229" t="s">
+        <v>375</v>
+      </c>
+      <c r="B12" s="230" t="s">
+        <v>755</v>
+      </c>
+      <c r="C12" s="230" t="s">
+        <v>555</v>
+      </c>
+      <c r="D12" s="230" t="s">
+        <v>559</v>
+      </c>
+      <c r="E12" s="258" t="str">
+        <f>VLOOKUP(A12,AG_Students!F:F,1,FALSE)</f>
+        <v>Lukas Steindl</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="226" t="s">
+        <v>377</v>
+      </c>
+      <c r="C13" s="230" t="s">
+        <v>562</v>
+      </c>
+      <c r="D13" s="230" t="s">
+        <v>559</v>
+      </c>
+      <c r="E13" s="258" t="str">
+        <f>VLOOKUP(A13,AG_Students!F:F,1,FALSE)</f>
+        <v>Matvey Ivanov</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="229" t="s">
+        <v>378</v>
+      </c>
+      <c r="B14" s="230" t="s">
+        <v>756</v>
+      </c>
+      <c r="C14" s="230" t="s">
+        <v>750</v>
+      </c>
+      <c r="D14" s="230" t="s">
+        <v>559</v>
+      </c>
+      <c r="E14" s="258" t="str">
+        <f>VLOOKUP(A14,AG_Students!F:F,1,FALSE)</f>
+        <v>Thomas Kotrba</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="229" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="296"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="226"/>
+      <c r="B25" s="227"/>
+      <c r="C25" s="227"/>
+      <c r="D25" s="227"/>
+      <c r="E25" s="258"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="229" t="s">
+        <v>523</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8D9D8D5-E8F0-467D-BAE4-113C45D21C9B}">
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection sqref="A1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -44953,37 +45589,37 @@
   <sheetData>
     <row r="1" spans="1:7" s="224" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="294" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B1" s="224" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C1" s="224" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D1" s="224" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="E1" s="224" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F1" s="237" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="G1" s="302"/>
     </row>
     <row r="2" spans="1:7" s="227" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="226" t="s">
+        <v>553</v>
+      </c>
+      <c r="B2" s="227" t="s">
+        <v>554</v>
+      </c>
+      <c r="C2" s="227" t="s">
         <v>555</v>
       </c>
-      <c r="B2" s="227" t="s">
-        <v>556</v>
-      </c>
-      <c r="C2" s="227" t="s">
-        <v>557</v>
-      </c>
       <c r="D2" s="227" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="E2" s="227">
         <v>2020</v>
@@ -44993,16 +45629,16 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="229" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B3" s="230" t="s">
+        <v>556</v>
+      </c>
+      <c r="C3" s="230" t="s">
+        <v>555</v>
+      </c>
+      <c r="D3" s="230" t="s">
         <v>558</v>
-      </c>
-      <c r="C3" s="230" t="s">
-        <v>557</v>
-      </c>
-      <c r="D3" s="230" t="s">
-        <v>560</v>
       </c>
       <c r="E3" s="230">
         <v>2020</v>
@@ -45010,16 +45646,16 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="229" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B4" s="230" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C4" s="230" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="D4" s="230" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="E4" s="230">
         <v>2020</v>
@@ -45027,16 +45663,16 @@
     </row>
     <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="229" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B5" s="230" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C5" s="230" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D5" s="230" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="E5" s="230">
         <v>2020</v>
@@ -45044,16 +45680,16 @@
     </row>
     <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="229" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B6" s="230" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C6" s="230" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D6" s="230" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="E6" s="230">
         <v>2020</v>
@@ -45073,12 +45709,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6762406-2B0F-49B7-87DC-3CBCF2CFDE3C}">
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -45091,33 +45727,47 @@
   <sheetData>
     <row r="1" spans="1:3" s="297" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="298" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B1" s="299" t="s">
         <v>12</v>
       </c>
       <c r="C1" s="300" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="226" t="s">
+        <v>565</v>
+      </c>
+      <c r="B2" s="227" t="s">
         <v>567</v>
       </c>
-      <c r="B2" s="227" t="s">
-        <v>569</v>
-      </c>
       <c r="C2" s="301" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="229"/>
-      <c r="C3" s="240"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="229"/>
-      <c r="C4" s="240"/>
+        <v>566</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="229" t="s">
+        <v>760</v>
+      </c>
+      <c r="B3" s="230" t="s">
+        <v>759</v>
+      </c>
+      <c r="C3" s="342" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="229" t="s">
+        <v>762</v>
+      </c>
+      <c r="B4" s="230" t="s">
+        <v>763</v>
+      </c>
+      <c r="C4" s="342" t="s">
+        <v>761</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="229"/>
@@ -45184,12 +45834,14 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{CEA76F3A-D315-48D4-99DC-30D01CF9DD5A}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{F2892BFB-88C7-4CDE-BBBA-2B8093C12FEC}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{FA82507D-54F7-4FB8-9956-C18024882BC3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{007AF3CF-5483-4EEA-BF33-354B7FE67C0B}">
   <dimension ref="A1:I12"/>
   <sheetViews>
@@ -45213,48 +45865,48 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="236" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1" s="235" t="s">
+        <v>292</v>
+      </c>
+      <c r="C1" s="224" t="s">
+        <v>321</v>
+      </c>
+      <c r="D1" s="224" t="s">
         <v>414</v>
       </c>
-      <c r="B1" s="235" t="s">
-        <v>293</v>
-      </c>
-      <c r="C1" s="224" t="s">
-        <v>322</v>
-      </c>
-      <c r="D1" s="224" t="s">
+      <c r="E1" s="224" t="s">
+        <v>419</v>
+      </c>
+      <c r="F1" s="224" t="s">
+        <v>302</v>
+      </c>
+      <c r="G1" s="224" t="s">
         <v>415</v>
       </c>
-      <c r="E1" s="224" t="s">
-        <v>420</v>
-      </c>
-      <c r="F1" s="224" t="s">
-        <v>303</v>
-      </c>
-      <c r="G1" s="224" t="s">
+      <c r="H1" s="224" t="s">
         <v>416</v>
       </c>
-      <c r="H1" s="224" t="s">
-        <v>417</v>
-      </c>
       <c r="I1" s="237" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C2" s="230" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D2" s="239" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E2" s="239" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G2" s="230" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I2" s="240" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -45262,19 +45914,19 @@
         <v>44153</v>
       </c>
       <c r="C3" s="230" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D3" s="239" t="s">
+        <v>310</v>
+      </c>
+      <c r="E3" s="239" t="s">
+        <v>356</v>
+      </c>
+      <c r="G3" s="239" t="s">
         <v>311</v>
       </c>
-      <c r="E3" s="239" t="s">
-        <v>357</v>
-      </c>
-      <c r="G3" s="239" t="s">
-        <v>312</v>
-      </c>
       <c r="I3" s="240" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -45282,19 +45934,19 @@
         <v>44153</v>
       </c>
       <c r="C4" s="230" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D4" s="239" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="E4" s="239" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G4" s="239" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I4" s="240" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -45302,100 +45954,100 @@
         <v>44294</v>
       </c>
       <c r="C5" s="230" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D5" s="230" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E5" s="230" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I5" s="240" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C6" s="230" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D6" s="230" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="E6" s="230" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I6" s="240" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C7" s="230" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D7" s="230" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="E7" s="230" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I7" s="240" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C8" s="230" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D8" s="230" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="E8" s="230" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I8" s="240" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C9" s="230" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D9" s="230" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="E9" s="230" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I9" s="240" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C10" s="230" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D10" s="230" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="E10" s="230" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I10" s="240" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C11" s="230" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D11" s="230" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E11" s="230" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I11" s="240" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -45403,16 +46055,16 @@
         <v>44294</v>
       </c>
       <c r="C12" s="230" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D12" s="230" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="E12" s="230" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I12" s="240" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
   </sheetData>
@@ -45420,261 +46072,4 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC4C6906-1725-4EC5-8532-500ACC02087A}">
-  <dimension ref="A1:B30"/>
-  <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="21.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="217" t="s">
-        <v>365</v>
-      </c>
-      <c r="B1" s="217" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B2" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>367</v>
-      </c>
-      <c r="B3" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B5" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B6" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>323</v>
-      </c>
-      <c r="B7" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B8" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>111</v>
-      </c>
-      <c r="B9" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>120</v>
-      </c>
-      <c r="B10" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>362</v>
-      </c>
-      <c r="B11" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>254</v>
-      </c>
-      <c r="B12" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>253</v>
-      </c>
-      <c r="B13" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>122</v>
-      </c>
-      <c r="B14" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>406</v>
-      </c>
-      <c r="B15" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>89</v>
-      </c>
-      <c r="B19" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>255</v>
-      </c>
-      <c r="B20" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>412</v>
-      </c>
-      <c r="B21" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>307</v>
-      </c>
-      <c r="B22" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>525</v>
-      </c>
-      <c r="B23" s="275" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>526</v>
-      </c>
-      <c r="B24" s="274" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>527</v>
-      </c>
-      <c r="B25" s="274" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B26" s="274"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>528</v>
-      </c>
-      <c r="B27" s="274" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>529</v>
-      </c>
-      <c r="B28" s="274" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>530</v>
-      </c>
-      <c r="B29" s="274" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>531</v>
-      </c>
-      <c r="B30" s="274" t="s">
-        <v>524</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState ref="A2:A20">
-    <sortCondition ref="A2"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/_data/CDLEML_WP_Progress_EML-Process.xlsx
+++ b/_data/CDLEML_WP_Progress_EML-Process.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\01_Admin\09_Projektplanung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17A110F5-52B7-447C-A6F7-5074FD0622AA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC75D08A-CD9D-453E-8040-EFAA6917A95D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EML_Tool_WP" sheetId="18" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1790" uniqueCount="765">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1822" uniqueCount="770">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -650,9 +650,6 @@
     <t>Fertig für sync modus, size 1. Schnittstelle nach außen offen</t>
   </si>
   <si>
-    <t>Mit Powerschätzungen erweitern. Systematisch Xilinx und Sticks durchmessen. CK: FPGA feingranulare Abschätzung der Energie. Xilinx Power Estimator, geplant technologieunabhängig, auf alle FPGAs. Technologielibrary. Kommersielle Lösungen gibt es schon</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -964,10 +961,6 @@
     <t>-Aufgabe wird aufgelassen, weil die Ergebnisse nicht gut sind. Schlussfolgerung: Unsere Methoden sind besser</t>
   </si>
   <si>
-    <t>- Testbeispiel gefunden und implementieren
-- Testsetup machen, wie misst man</t>
-  </si>
-  <si>
     <t>- Steuerung fertig. Neue Version verzögert die Entwicklung
 - Das Fahren geht gut</t>
   </si>
@@ -993,12 +986,6 @@
     <t>Dieselbe Messungen wir bei Nano</t>
   </si>
   <si>
-    <t>[] Besprechung mit Herbert @MW
-[] HW bestellen
-[] Studentenarbeit ausschreiben
-[] Mit Multimeter oder DAQ Messung</t>
-  </si>
-  <si>
     <t>Netz zu TFLite umwandeln</t>
   </si>
   <si>
@@ -1275,27 +1262,18 @@
     <t>Amid Mozelli</t>
   </si>
   <si>
-    <t>Estimator Blackthorn for Latency (NVIDIA)</t>
-  </si>
-  <si>
     <t>Model based latency estimator method</t>
   </si>
   <si>
     <t xml:space="preserve">Statistic and model based latency estimator method  </t>
   </si>
   <si>
-    <t>Power estimation through circuit simulator</t>
-  </si>
-  <si>
     <t>Power estimation through the estimator ANNETTE</t>
   </si>
   <si>
     <t>Estimator method ANETTE for Latency (Intel, ARM, Xilinx)</t>
   </si>
   <si>
-    <t>Estimation of Power through a White box model</t>
-  </si>
-  <si>
     <t>Estimation of On-Chip Resources</t>
   </si>
   <si>
@@ -1501,9 +1479,6 @@
   </si>
   <si>
     <t>Document, Repository</t>
-  </si>
-  <si>
-    <t>Cancelled in ist current idea</t>
   </si>
   <si>
     <t>Repository, Publication</t>
@@ -1780,9 +1755,6 @@
     <t>Setup Messungen von WP1.3.6, Charaktärisierung der HW durch WP1.2.1. 
 * Nachher andere 
 * Messaufbau, allg. charactärisierungsflow (automatisiert).Plattformen, Gridsearch Plattform Datenbank, unterschiedlichen Datenbank</t>
-  </si>
-  <si>
-    <t>Estimation of Power through ANNETTE</t>
   </si>
   <si>
     <t>Automated characterization of hardware platforms for power based on ANNETTE</t>
@@ -2800,9 +2772,6 @@
     <t>Accurate Neural Network Execution Time Estimation</t>
   </si>
   <si>
-    <t>ANNETE</t>
-  </si>
-  <si>
     <t>https://github.com/embedded-machine-learning/squeezenas_train</t>
   </si>
   <si>
@@ -2813,6 +2782,51 @@
   </si>
   <si>
     <t>Dynamic post-training Quantization of Tiny-YoloV3</t>
+  </si>
+  <si>
+    <t>BrainPOWER: Power Estimation for Embedded Machine-Learning Platforms</t>
+  </si>
+  <si>
+    <t>Latency Estimator Blackthorn (NVIDIA)</t>
+  </si>
+  <si>
+    <t>Latency Estimator ANETTE (Intel, ARM, Xilinx)</t>
+  </si>
+  <si>
+    <t>Power Estimator through ANNETTE</t>
+  </si>
+  <si>
+    <t>D1.1.4</t>
+  </si>
+  <si>
+    <t>Power Estimator through Christian's Model</t>
+  </si>
+  <si>
+    <t>Leistungsabschätzung mittels Abbildung der Netzwerk-Charakteristika auf die Plattform-Charakteristika</t>
+  </si>
+  <si>
+    <t>Accurate power estimation method for power-aware optimization applications</t>
+  </si>
+  <si>
+    <t>[] Estimation Model Xilinx
+[] Comparison Performance to ANETTE
+[] Publication about this method
+[] Repository with user friendly execution code</t>
+  </si>
+  <si>
+    <t>Embedded Machine Learning Demonstrator</t>
+  </si>
+  <si>
+    <t>* ResNet-50 wurde Once-and-for-all getestet</t>
+  </si>
+  <si>
+    <t>https://publik.tuwien.ac.at/files/publik_295896.pdf</t>
+  </si>
+  <si>
+    <t>https://publik.tuwien.ac.at/files/publik_295897.pdf</t>
+  </si>
+  <si>
+    <t>ANNETTE</t>
   </si>
 </sst>
 </file>
@@ -5100,6 +5114,9 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="56" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -5126,9 +5143,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="56" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -15509,10 +15523,10 @@
   <dimension ref="A1:BE254"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C175" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="Z117" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B195" sqref="B195"/>
+      <selection pane="bottomRight" activeCell="AE118" sqref="AE118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -15554,63 +15568,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:54" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="338" t="s">
+      <c r="A1" s="339" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="339"/>
-      <c r="C1" s="340">
+      <c r="B1" s="340"/>
+      <c r="C1" s="341">
         <v>2019</v>
       </c>
-      <c r="D1" s="340"/>
-      <c r="E1" s="340"/>
-      <c r="F1" s="340"/>
-      <c r="G1" s="340"/>
-      <c r="H1" s="340"/>
-      <c r="I1" s="340"/>
-      <c r="J1" s="340"/>
-      <c r="K1" s="340"/>
-      <c r="L1" s="340"/>
-      <c r="M1" s="340"/>
-      <c r="N1" s="341"/>
-      <c r="O1" s="333">
+      <c r="D1" s="341"/>
+      <c r="E1" s="341"/>
+      <c r="F1" s="341"/>
+      <c r="G1" s="341"/>
+      <c r="H1" s="341"/>
+      <c r="I1" s="341"/>
+      <c r="J1" s="341"/>
+      <c r="K1" s="341"/>
+      <c r="L1" s="341"/>
+      <c r="M1" s="341"/>
+      <c r="N1" s="342"/>
+      <c r="O1" s="334">
         <v>2020</v>
       </c>
-      <c r="P1" s="334"/>
-      <c r="Q1" s="334"/>
-      <c r="R1" s="334"/>
-      <c r="S1" s="334"/>
-      <c r="T1" s="334"/>
-      <c r="U1" s="334"/>
-      <c r="V1" s="334"/>
-      <c r="W1" s="334"/>
-      <c r="X1" s="334"/>
-      <c r="Y1" s="334"/>
-      <c r="Z1" s="335"/>
-      <c r="AA1" s="333">
+      <c r="P1" s="335"/>
+      <c r="Q1" s="335"/>
+      <c r="R1" s="335"/>
+      <c r="S1" s="335"/>
+      <c r="T1" s="335"/>
+      <c r="U1" s="335"/>
+      <c r="V1" s="335"/>
+      <c r="W1" s="335"/>
+      <c r="X1" s="335"/>
+      <c r="Y1" s="335"/>
+      <c r="Z1" s="336"/>
+      <c r="AA1" s="334">
         <v>2021</v>
       </c>
-      <c r="AB1" s="334"/>
-      <c r="AC1" s="334"/>
-      <c r="AD1" s="334"/>
-      <c r="AE1" s="334"/>
-      <c r="AF1" s="334"/>
-      <c r="AG1" s="334"/>
-      <c r="AH1" s="334"/>
-      <c r="AI1" s="334"/>
-      <c r="AJ1" s="334"/>
-      <c r="AK1" s="334"/>
-      <c r="AL1" s="334"/>
+      <c r="AB1" s="335"/>
+      <c r="AC1" s="335"/>
+      <c r="AD1" s="335"/>
+      <c r="AE1" s="335"/>
+      <c r="AF1" s="335"/>
+      <c r="AG1" s="335"/>
+      <c r="AH1" s="335"/>
+      <c r="AI1" s="335"/>
+      <c r="AJ1" s="335"/>
+      <c r="AK1" s="335"/>
+      <c r="AL1" s="335"/>
       <c r="AM1" s="196" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="AN1" s="196" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="AO1" s="157" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AP1" s="158" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AQ1" s="76" t="s">
         <v>12</v>
@@ -15622,36 +15636,36 @@
         <v>14</v>
       </c>
       <c r="AT1" s="82" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="AU1" s="90" t="s">
         <v>13</v>
       </c>
       <c r="AV1" s="90" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="AW1" s="90" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="AX1" s="90" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="AY1" s="90" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="AZ1" s="90" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="BA1" s="90" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="BB1" s="90" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="2" spans="1:54" x14ac:dyDescent="0.3">
-      <c r="A2" s="338"/>
-      <c r="B2" s="339"/>
+      <c r="A2" s="339"/>
+      <c r="B2" s="340"/>
       <c r="C2" s="3">
         <v>1</v>
       </c>
@@ -15780,8 +15794,8 @@
       <c r="BB2" s="189"/>
     </row>
     <row r="3" spans="1:54" ht="15.6" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="336"/>
-      <c r="B3" s="337"/>
+      <c r="A3" s="337"/>
+      <c r="B3" s="338"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
@@ -16099,13 +16113,13 @@
       <c r="AO6" s="159"/>
       <c r="AP6" s="172">
         <f>SUMPRODUCT(AO7:AO34,AP7:AP34)/SUM(AO7:AO34)</f>
-        <v>0.54594594594594592</v>
+        <v>0.51891891891891895</v>
       </c>
       <c r="AQ6" s="171" t="s">
         <v>103</v>
       </c>
       <c r="AR6" s="116" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AS6" s="90"/>
       <c r="AT6" s="106"/>
@@ -16120,10 +16134,10 @@
     </row>
     <row r="7" spans="1:54" ht="28.8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A7" s="192" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B7" s="119" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C7" s="120"/>
       <c r="D7" s="121"/>
@@ -16173,34 +16187,34 @@
         <v>1</v>
       </c>
       <c r="AQ7" s="125" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="AR7" s="126" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="AS7" s="127" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="AT7" s="127"/>
       <c r="AU7" s="128"/>
       <c r="AV7" s="128" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="AW7" s="128" t="str">
         <f>"D"&amp;RIGHT(A7,5)</f>
         <v>D1.1.1</v>
       </c>
       <c r="AX7" s="128" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="AY7" s="128" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="AZ7" s="128" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="BA7" s="128" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="BB7" s="190"/>
     </row>
@@ -16261,14 +16275,14 @@
         <v>56</v>
       </c>
       <c r="AR8" s="85" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AS8" s="80" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="AT8" s="80"/>
       <c r="AU8" s="89" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AV8" s="89"/>
       <c r="AW8" s="89"/>
@@ -16336,10 +16350,10 @@
     </row>
     <row r="10" spans="1:54" ht="72" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A10" s="192" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B10" s="119" t="s">
-        <v>324</v>
+        <v>757</v>
       </c>
       <c r="C10" s="120"/>
       <c r="D10" s="121"/>
@@ -16389,7 +16403,7 @@
         <v>0.81111111111111112</v>
       </c>
       <c r="AQ10" s="125" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="AR10" s="126" t="s">
         <v>100</v>
@@ -16402,23 +16416,23 @@
       </c>
       <c r="AU10" s="128"/>
       <c r="AV10" s="128" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="AW10" s="128" t="str">
         <f>"D"&amp;RIGHT(A10,5)</f>
         <v>D1.1.2</v>
       </c>
       <c r="AX10" s="128" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="AY10" s="128" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="AZ10" s="128" t="s">
-        <v>728</v>
+        <v>720</v>
       </c>
       <c r="BA10" s="128" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
       <c r="BB10" s="190">
         <v>1</v>
@@ -16496,7 +16510,7 @@
       </c>
       <c r="AT11" s="80"/>
       <c r="AU11" s="89" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="AV11" s="89"/>
       <c r="AW11" s="89"/>
@@ -16578,14 +16592,14 @@
       </c>
       <c r="AT12" s="80"/>
       <c r="AU12" s="89" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="AV12" s="89"/>
       <c r="AW12" s="89"/>
       <c r="AX12" s="89"/>
       <c r="AY12" s="89"/>
       <c r="AZ12" s="89" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="BA12" s="89"/>
       <c r="BB12" s="186"/>
@@ -16662,7 +16676,7 @@
       </c>
       <c r="AT13" s="80"/>
       <c r="AU13" s="89" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="AV13" s="89"/>
       <c r="AW13" s="89"/>
@@ -16674,10 +16688,10 @@
     </row>
     <row r="14" spans="1:54" ht="72" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A14" s="192" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B14" s="119" t="s">
-        <v>329</v>
+        <v>758</v>
       </c>
       <c r="C14" s="120"/>
       <c r="D14" s="121"/>
@@ -16727,7 +16741,7 @@
         <v>0.85454545454545461</v>
       </c>
       <c r="AQ14" s="125" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="AR14" s="126" t="s">
         <v>99</v>
@@ -16740,23 +16754,23 @@
       </c>
       <c r="AU14" s="128"/>
       <c r="AV14" s="128" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="AW14" s="128" t="str">
         <f>"D"&amp;RIGHT(A14,5)</f>
         <v>D1.1.3</v>
       </c>
       <c r="AX14" s="128" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="AY14" s="128" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="AZ14" s="128" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
       <c r="BA14" s="128" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
       <c r="BB14" s="190">
         <v>1</v>
@@ -16765,7 +16779,7 @@
     <row r="15" spans="1:54" ht="36.6" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A15" s="192"/>
       <c r="B15" s="115" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C15" s="38"/>
       <c r="D15" s="37"/>
@@ -16825,7 +16839,7 @@
       <c r="AX15" s="89"/>
       <c r="AY15" s="89"/>
       <c r="AZ15" s="89" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="BA15" s="89"/>
       <c r="BB15" s="186"/>
@@ -16833,7 +16847,7 @@
     <row r="16" spans="1:54" ht="28.8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A16" s="192"/>
       <c r="B16" s="115" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C16" s="38"/>
       <c r="D16" s="37"/>
@@ -16889,14 +16903,14 @@
       </c>
       <c r="AQ16" s="92"/>
       <c r="AR16" s="80" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="AS16" s="80" t="s">
         <v>46</v>
       </c>
       <c r="AT16" s="80"/>
       <c r="AU16" s="89" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
       <c r="AV16" s="89"/>
       <c r="AW16" s="89"/>
@@ -16909,7 +16923,7 @@
     <row r="17" spans="1:54" s="153" customFormat="1" ht="28.8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A17" s="143"/>
       <c r="B17" s="144" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C17" s="145"/>
       <c r="D17" s="146"/>
@@ -16955,7 +16969,7 @@
       <c r="AP17" s="150"/>
       <c r="AQ17" s="151"/>
       <c r="AR17" s="152" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AS17" s="152"/>
       <c r="AT17" s="152"/>
@@ -16971,7 +16985,7 @@
     <row r="18" spans="1:54" ht="100.8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A18" s="192"/>
       <c r="B18" s="115" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="16"/>
@@ -17036,7 +17050,7 @@
       </c>
       <c r="AT18" s="80"/>
       <c r="AU18" s="89" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
       <c r="AV18" s="89"/>
       <c r="AW18" s="89"/>
@@ -17049,7 +17063,7 @@
     <row r="19" spans="1:54" ht="28.8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A19" s="192"/>
       <c r="B19" s="115" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C19" s="99"/>
       <c r="D19" s="108"/>
@@ -17103,14 +17117,14 @@
       </c>
       <c r="AQ19" s="92"/>
       <c r="AR19" s="80" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="AS19" s="80" t="s">
         <v>46</v>
       </c>
       <c r="AT19" s="80"/>
       <c r="AU19" s="89" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="AV19" s="89"/>
       <c r="AW19" s="89"/>
@@ -17176,12 +17190,12 @@
       <c r="BA20" s="89"/>
       <c r="BB20" s="186"/>
     </row>
-    <row r="21" spans="1:54" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:54" ht="57.6" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A21" s="192" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B21" s="119" t="s">
-        <v>330</v>
+        <v>761</v>
       </c>
       <c r="C21" s="120"/>
       <c r="D21" s="121"/>
@@ -17228,33 +17242,37 @@
       <c r="AO21" s="160"/>
       <c r="AP21" s="124">
         <f>SUMPRODUCT(AO22:AO23,AP22:AP23)/SUM(AO22:AO23)</f>
-        <v>0.2</v>
-      </c>
-      <c r="AQ21" s="125" t="s">
-        <v>327</v>
-      </c>
-      <c r="AR21" s="126" t="s">
-        <v>400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AQ21" s="125"/>
+      <c r="AR21" s="126"/>
       <c r="AS21" s="127" t="s">
         <v>165</v>
       </c>
       <c r="AT21" s="127"/>
       <c r="AU21" s="128"/>
       <c r="AV21" s="128" t="s">
-        <v>314</v>
-      </c>
-      <c r="AW21" s="128"/>
-      <c r="AX21" s="128"/>
-      <c r="AY21" s="128"/>
-      <c r="AZ21" s="128"/>
+        <v>388</v>
+      </c>
+      <c r="AW21" s="128" t="s">
+        <v>760</v>
+      </c>
+      <c r="AX21" s="128" t="s">
+        <v>763</v>
+      </c>
+      <c r="AY21" s="128" t="s">
+        <v>394</v>
+      </c>
+      <c r="AZ21" s="128" t="s">
+        <v>764</v>
+      </c>
       <c r="BA21" s="128"/>
       <c r="BB21" s="190"/>
     </row>
-    <row r="22" spans="1:54" ht="100.8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:54" ht="43.2" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A22" s="192"/>
       <c r="B22" s="115" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C22" s="24"/>
       <c r="D22" s="23"/>
@@ -17276,27 +17294,29 @@
       <c r="T22" s="22"/>
       <c r="U22" s="24"/>
       <c r="V22" s="23"/>
-      <c r="W22" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="X22" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y22" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z22" s="26" t="s">
-        <v>15</v>
-      </c>
+      <c r="W22" s="25"/>
+      <c r="X22" s="24"/>
+      <c r="Y22" s="25"/>
+      <c r="Z22" s="26"/>
       <c r="AA22" s="22"/>
       <c r="AB22" s="23"/>
       <c r="AC22" s="25"/>
       <c r="AD22" s="24"/>
-      <c r="AE22" s="313"/>
-      <c r="AF22" s="22"/>
-      <c r="AG22" s="24"/>
-      <c r="AH22" s="23"/>
-      <c r="AI22" s="25"/>
+      <c r="AE22" s="313" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF22" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG22" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH22" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="AI22" s="25" t="s">
+        <v>15</v>
+      </c>
       <c r="AJ22" s="24"/>
       <c r="AK22" s="25"/>
       <c r="AL22" s="26"/>
@@ -17306,21 +17326,17 @@
         <v>5</v>
       </c>
       <c r="AP22" s="21">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AQ22" s="92" t="s">
-        <v>168</v>
-      </c>
-      <c r="AR22" s="85" t="s">
-        <v>223</v>
-      </c>
+        <v>762</v>
+      </c>
+      <c r="AR22" s="85"/>
       <c r="AS22" s="80" t="s">
         <v>165</v>
       </c>
       <c r="AT22" s="80"/>
-      <c r="AU22" s="89" t="s">
-        <v>231</v>
-      </c>
+      <c r="AU22" s="89"/>
       <c r="AV22" s="89"/>
       <c r="AW22" s="89"/>
       <c r="AX22" s="89"/>
@@ -17387,10 +17403,10 @@
     </row>
     <row r="24" spans="1:54" ht="43.2" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A24" s="192" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B24" s="119" t="s">
-        <v>492</v>
+        <v>759</v>
       </c>
       <c r="C24" s="120"/>
       <c r="D24" s="121"/>
@@ -17440,42 +17456,42 @@
         <v>6.25E-2</v>
       </c>
       <c r="AQ24" s="125" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="AR24" s="126"/>
       <c r="AS24" s="127" t="s">
         <v>165</v>
       </c>
       <c r="AT24" s="127" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="AU24" s="128"/>
       <c r="AV24" s="128" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="AW24" s="128" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="AX24" s="128" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="AY24" s="128" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="AZ24" s="128" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="BA24" s="128" t="s">
-        <v>676</v>
+        <v>668</v>
       </c>
       <c r="BB24" s="190">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:54" ht="100.8" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:54" ht="100.8" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A25" s="192"/>
       <c r="B25" s="115" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C25" s="24"/>
       <c r="D25" s="23"/>
@@ -17534,29 +17550,29 @@
         <v>0.1</v>
       </c>
       <c r="AQ25" s="92" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="AR25" s="80"/>
       <c r="AS25" s="80" t="s">
         <v>165</v>
       </c>
       <c r="AT25" s="80" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="AU25" s="89" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="AV25" s="89"/>
       <c r="AW25" s="89"/>
       <c r="AX25" s="89"/>
       <c r="AY25" s="89"/>
       <c r="AZ25" s="89" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="BA25" s="89"/>
       <c r="BB25" s="186"/>
     </row>
-    <row r="26" spans="1:54" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:54" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A26" s="192"/>
       <c r="B26" s="115"/>
       <c r="C26" s="24"/>
@@ -17612,7 +17628,7 @@
       <c r="BA26" s="89"/>
       <c r="BB26" s="186"/>
     </row>
-    <row r="27" spans="1:54" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:54" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A27" s="192"/>
       <c r="B27" s="115"/>
       <c r="C27" s="24"/>
@@ -17668,7 +17684,7 @@
       <c r="BA27" s="89"/>
       <c r="BB27" s="186"/>
     </row>
-    <row r="28" spans="1:54" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:54" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A28" s="192"/>
       <c r="B28" s="115"/>
       <c r="C28" s="24"/>
@@ -17724,10 +17740,10 @@
       <c r="BA28" s="89"/>
       <c r="BB28" s="186"/>
     </row>
-    <row r="29" spans="1:54" ht="28.8" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:54" ht="28.8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A29" s="192"/>
       <c r="B29" s="115" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C29" s="24"/>
       <c r="D29" s="23"/>
@@ -17774,10 +17790,10 @@
         <v>0</v>
       </c>
       <c r="AQ29" s="92" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AR29" s="80" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AS29" s="80" t="s">
         <v>46</v>
@@ -17792,7 +17808,7 @@
       <c r="BA29" s="89"/>
       <c r="BB29" s="186"/>
     </row>
-    <row r="30" spans="1:54" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:54" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A30" s="192"/>
       <c r="B30" s="115"/>
       <c r="C30" s="99"/>
@@ -17848,12 +17864,12 @@
       <c r="BA30" s="89"/>
       <c r="BB30" s="186"/>
     </row>
-    <row r="31" spans="1:54" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:54" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A31" s="192" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B31" s="119" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="C31" s="120"/>
       <c r="D31" s="121"/>
@@ -17901,7 +17917,7 @@
         <v>0</v>
       </c>
       <c r="AQ31" s="125" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="AR31" s="126"/>
       <c r="AS31" s="127" t="s">
@@ -17910,14 +17926,14 @@
       <c r="AT31" s="127"/>
       <c r="AU31" s="128"/>
       <c r="AV31" s="128" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="AW31" s="128"/>
       <c r="AX31" s="128"/>
       <c r="AY31" s="128"/>
       <c r="AZ31" s="128"/>
       <c r="BA31" s="128" t="s">
-        <v>677</v>
+        <v>669</v>
       </c>
       <c r="BB31" s="190">
         <v>3</v>
@@ -17926,7 +17942,7 @@
     <row r="32" spans="1:54" ht="129.6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A32" s="14"/>
       <c r="B32" s="115" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C32" s="24"/>
       <c r="D32" s="23"/>
@@ -17987,24 +18003,24 @@
         <v>0</v>
       </c>
       <c r="AQ32" s="92" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AR32" s="80" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AS32" s="80" t="s">
         <v>47</v>
       </c>
       <c r="AT32" s="80"/>
       <c r="AU32" s="89" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AV32" s="89"/>
       <c r="AW32" s="89"/>
       <c r="AX32" s="89"/>
       <c r="AY32" s="89"/>
       <c r="AZ32" s="89" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
       <c r="BA32" s="89"/>
       <c r="BB32" s="186"/>
@@ -18211,7 +18227,7 @@
         <v>104</v>
       </c>
       <c r="AR35" s="116" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AS35" s="90"/>
       <c r="AT35" s="90"/>
@@ -18226,10 +18242,10 @@
     </row>
     <row r="36" spans="1:54" ht="115.2" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A36" s="192" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B36" s="119" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="C36" s="120"/>
       <c r="D36" s="121"/>
@@ -18279,7 +18295,7 @@
         <v>0.41111111111111115</v>
       </c>
       <c r="AQ36" s="125" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AR36" s="126"/>
       <c r="AS36" s="127" t="s">
@@ -18288,23 +18304,23 @@
       <c r="AT36" s="127"/>
       <c r="AU36" s="128"/>
       <c r="AV36" s="128" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="AW36" s="128" t="str">
         <f>"D"&amp;RIGHT(A36,5)</f>
         <v>D1.2.1</v>
       </c>
       <c r="AX36" s="128" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="AY36" s="128" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="AZ36" s="128" t="s">
-        <v>741</v>
+        <v>733</v>
       </c>
       <c r="BA36" s="128" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="BB36" s="190">
         <v>1</v>
@@ -18313,7 +18329,7 @@
     <row r="37" spans="1:54" ht="200.4" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A37" s="192"/>
       <c r="B37" s="15" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C37" s="38"/>
       <c r="D37" s="37"/>
@@ -18376,7 +18392,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ37" s="61" t="s">
-        <v>739</v>
+        <v>731</v>
       </c>
       <c r="AR37" s="93"/>
       <c r="AS37" s="80" t="s">
@@ -18384,14 +18400,14 @@
       </c>
       <c r="AT37" s="80"/>
       <c r="AU37" s="91" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="AV37" s="91"/>
       <c r="AW37" s="89"/>
       <c r="AX37" s="89"/>
       <c r="AY37" s="89"/>
       <c r="AZ37" s="89" t="s">
-        <v>726</v>
+        <v>718</v>
       </c>
       <c r="BA37" s="89"/>
       <c r="BB37" s="186"/>
@@ -18399,7 +18415,7 @@
     <row r="38" spans="1:54" ht="43.2" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A38" s="192"/>
       <c r="B38" s="15" t="s">
-        <v>738</v>
+        <v>730</v>
       </c>
       <c r="C38" s="38"/>
       <c r="D38" s="37"/>
@@ -18460,7 +18476,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ38" s="61" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AR38" s="93"/>
       <c r="AS38" s="80" t="s">
@@ -18468,7 +18484,7 @@
       </c>
       <c r="AT38" s="80"/>
       <c r="AU38" s="91" t="s">
-        <v>696</v>
+        <v>688</v>
       </c>
       <c r="AV38" s="91"/>
       <c r="AW38" s="89"/>
@@ -18481,7 +18497,7 @@
     <row r="39" spans="1:54" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A39" s="192"/>
       <c r="B39" s="15" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C39" s="38"/>
       <c r="D39" s="37"/>
@@ -18538,10 +18554,10 @@
         <v>0</v>
       </c>
       <c r="AQ39" s="61" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="AR39" s="93" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AS39" s="80" t="s">
         <v>26</v>
@@ -18559,7 +18575,7 @@
     <row r="40" spans="1:54" ht="57.6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A40" s="192"/>
       <c r="B40" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C40" s="38"/>
       <c r="D40" s="37"/>
@@ -18612,10 +18628,10 @@
         <v>0</v>
       </c>
       <c r="AQ40" s="61" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="AR40" s="93" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AS40" s="80" t="s">
         <v>26</v>
@@ -18688,10 +18704,10 @@
     </row>
     <row r="42" spans="1:54" ht="115.2" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A42" s="192" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B42" s="119" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="C42" s="120"/>
       <c r="D42" s="121"/>
@@ -18741,7 +18757,7 @@
         <v>0.45999999999999996</v>
       </c>
       <c r="AQ42" s="125" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="AR42" s="126"/>
       <c r="AS42" s="127" t="s">
@@ -18750,20 +18766,20 @@
       <c r="AT42" s="127"/>
       <c r="AU42" s="128"/>
       <c r="AV42" s="128" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="AW42" s="128" t="str">
         <f>"D"&amp;RIGHT(A42,5)</f>
         <v>D1.2.2</v>
       </c>
       <c r="AX42" s="128" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="AY42" s="128" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="AZ42" s="128" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
       <c r="BA42" s="128"/>
       <c r="BB42" s="190">
@@ -18773,7 +18789,7 @@
     <row r="43" spans="1:54" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A43" s="192"/>
       <c r="B43" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C43" s="38"/>
       <c r="D43" s="37"/>
@@ -18822,7 +18838,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ43" s="61" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AR43" s="93"/>
       <c r="AS43" s="80" t="s">
@@ -18835,7 +18851,7 @@
       <c r="AX43" s="89"/>
       <c r="AY43" s="89"/>
       <c r="AZ43" s="89" t="s">
-        <v>697</v>
+        <v>689</v>
       </c>
       <c r="BA43" s="89"/>
       <c r="BB43" s="186"/>
@@ -18843,7 +18859,7 @@
     <row r="44" spans="1:54" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A44" s="192"/>
       <c r="B44" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C44" s="38"/>
       <c r="D44" s="37"/>
@@ -18906,10 +18922,10 @@
     </row>
     <row r="45" spans="1:54" ht="86.4" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A45" s="192" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B45" s="119" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="C45" s="120"/>
       <c r="D45" s="121"/>
@@ -18959,28 +18975,28 @@
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="AQ45" s="125" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="AR45" s="126"/>
       <c r="AS45" s="127" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="AT45" s="127"/>
       <c r="AU45" s="128"/>
       <c r="AV45" s="128" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="AW45" s="128" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="AX45" s="128" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="AY45" s="128" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="AZ45" s="128" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="BA45" s="128"/>
       <c r="BB45" s="190">
@@ -18990,7 +19006,7 @@
     <row r="46" spans="1:54" ht="57.6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A46" s="192"/>
       <c r="B46" s="15" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="C46" s="38"/>
       <c r="D46" s="37"/>
@@ -19049,22 +19065,22 @@
         <v>0.2</v>
       </c>
       <c r="AQ46" s="61" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
       <c r="AR46" s="93"/>
       <c r="AS46" s="80" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="AT46" s="80"/>
       <c r="AU46" s="91" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
       <c r="AV46" s="91"/>
       <c r="AW46" s="89"/>
       <c r="AX46" s="89"/>
       <c r="AY46" s="89"/>
       <c r="AZ46" s="89" t="s">
-        <v>698</v>
+        <v>690</v>
       </c>
       <c r="BA46" s="89"/>
       <c r="BB46" s="186"/>
@@ -19072,7 +19088,7 @@
     <row r="47" spans="1:54" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A47" s="192"/>
       <c r="B47" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C47" s="38"/>
       <c r="D47" s="37"/>
@@ -19129,7 +19145,7 @@
       <c r="AQ47" s="61"/>
       <c r="AR47" s="93"/>
       <c r="AS47" s="80" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="AT47" s="80"/>
       <c r="AU47" s="91"/>
@@ -19143,10 +19159,10 @@
     </row>
     <row r="48" spans="1:54" ht="72" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A48" s="192" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B48" s="119" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="C48" s="120"/>
       <c r="D48" s="121"/>
@@ -19196,7 +19212,7 @@
         <v>0.60000000000000009</v>
       </c>
       <c r="AQ48" s="125" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="AR48" s="126"/>
       <c r="AS48" s="127" t="s">
@@ -19205,19 +19221,19 @@
       <c r="AT48" s="127"/>
       <c r="AU48" s="128"/>
       <c r="AV48" s="128" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="AW48" s="128" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AX48" s="128" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="AY48" s="128" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="AZ48" s="128" t="s">
-        <v>743</v>
+        <v>735</v>
       </c>
       <c r="BA48" s="128"/>
       <c r="BB48" s="190">
@@ -19227,7 +19243,7 @@
     <row r="49" spans="1:54" ht="28.8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A49" s="35"/>
       <c r="B49" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C49" s="38"/>
       <c r="D49" s="37"/>
@@ -19274,7 +19290,7 @@
         <v>0.1</v>
       </c>
       <c r="AQ49" s="61" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="AR49" s="93" t="s">
         <v>163</v>
@@ -19284,7 +19300,7 @@
       </c>
       <c r="AT49" s="85"/>
       <c r="AU49" s="91" t="s">
-        <v>744</v>
+        <v>736</v>
       </c>
       <c r="AV49" s="91"/>
       <c r="AW49" s="89"/>
@@ -19297,7 +19313,7 @@
     <row r="50" spans="1:54" ht="43.2" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A50" s="35"/>
       <c r="B50" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C50" s="99"/>
       <c r="D50" s="108"/>
@@ -19344,20 +19360,20 @@
         <v>1</v>
       </c>
       <c r="AQ50" s="61" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AR50" s="93"/>
       <c r="AS50" s="85"/>
       <c r="AT50" s="85"/>
       <c r="AU50" s="91" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
       <c r="AV50" s="91"/>
       <c r="AW50" s="89"/>
       <c r="AX50" s="89"/>
       <c r="AY50" s="89"/>
       <c r="AZ50" s="89" t="s">
-        <v>742</v>
+        <v>734</v>
       </c>
       <c r="BA50" s="89"/>
       <c r="BB50" s="186"/>
@@ -19365,7 +19381,7 @@
     <row r="51" spans="1:54" ht="86.4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A51" s="35"/>
       <c r="B51" s="15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C51" s="38"/>
       <c r="D51" s="37"/>
@@ -19416,7 +19432,7 @@
         <v>1</v>
       </c>
       <c r="AQ51" s="61" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="AR51" s="93"/>
       <c r="AS51" s="80" t="s">
@@ -19424,7 +19440,7 @@
       </c>
       <c r="AT51" s="80"/>
       <c r="AU51" s="91" t="s">
-        <v>746</v>
+        <v>738</v>
       </c>
       <c r="AV51" s="91"/>
       <c r="AW51" s="89"/>
@@ -19436,10 +19452,10 @@
     </row>
     <row r="52" spans="1:54" ht="72" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A52" s="192" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
       <c r="B52" s="119" t="s">
-        <v>691</v>
+        <v>683</v>
       </c>
       <c r="C52" s="120"/>
       <c r="D52" s="121"/>
@@ -19494,23 +19510,23 @@
         <v>165</v>
       </c>
       <c r="AT52" s="127" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="AU52" s="128"/>
       <c r="AV52" s="128" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="AW52" s="128" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="AX52" s="128" t="s">
-        <v>693</v>
+        <v>685</v>
       </c>
       <c r="AY52" s="128" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
       <c r="AZ52" s="128" t="s">
-        <v>727</v>
+        <v>719</v>
       </c>
       <c r="BA52" s="128"/>
       <c r="BB52" s="190">
@@ -19520,7 +19536,7 @@
     <row r="53" spans="1:54" ht="28.8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A53" s="35"/>
       <c r="B53" s="15" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="C53" s="38"/>
       <c r="D53" s="37"/>
@@ -19573,16 +19589,16 @@
         <v>0.05</v>
       </c>
       <c r="AQ53" s="61" t="s">
-        <v>692</v>
+        <v>684</v>
       </c>
       <c r="AR53" s="93" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="AS53" s="85" t="s">
         <v>165</v>
       </c>
       <c r="AT53" s="85" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="AU53" s="91"/>
       <c r="AV53" s="91"/>
@@ -19590,7 +19606,7 @@
       <c r="AX53" s="89"/>
       <c r="AY53" s="89"/>
       <c r="AZ53" s="89" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
       <c r="BA53" s="89"/>
       <c r="BB53" s="186"/>
@@ -19598,7 +19614,7 @@
     <row r="54" spans="1:54" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A54" s="35"/>
       <c r="B54" s="15" t="s">
-        <v>690</v>
+        <v>682</v>
       </c>
       <c r="C54" s="99"/>
       <c r="D54" s="108"/>
@@ -19800,10 +19816,10 @@
     </row>
     <row r="57" spans="1:54" ht="57.6" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A57" s="192" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B57" s="119" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="C57" s="120"/>
       <c r="D57" s="121"/>
@@ -19849,7 +19865,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ57" s="125" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="AR57" s="126"/>
       <c r="AS57" s="127" t="s">
@@ -19858,29 +19874,29 @@
       <c r="AT57" s="127"/>
       <c r="AU57" s="128"/>
       <c r="AV57" s="128" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="AW57" s="128"/>
       <c r="AX57" s="128" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="AY57" s="128" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="AZ57" s="128" t="s">
-        <v>680</v>
+        <v>672</v>
       </c>
       <c r="BA57" s="128" t="s">
-        <v>679</v>
+        <v>671</v>
       </c>
       <c r="BB57" s="190">
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:54" ht="100.8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:54" ht="100.8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A58" s="192"/>
       <c r="B58" s="113" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="C58" s="24"/>
       <c r="D58" s="23"/>
@@ -19953,19 +19969,19 @@
       </c>
       <c r="AT58" s="80"/>
       <c r="AU58" s="89" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
       <c r="AV58" s="89"/>
       <c r="AW58" s="89"/>
       <c r="AX58" s="89"/>
       <c r="AY58" s="89"/>
       <c r="AZ58" s="89" t="s">
-        <v>700</v>
+        <v>692</v>
       </c>
       <c r="BA58" s="89"/>
       <c r="BB58" s="186"/>
     </row>
-    <row r="59" spans="1:54" ht="57.6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:54" ht="57.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A59" s="192"/>
       <c r="B59" s="113" t="s">
         <v>125</v>
@@ -20047,7 +20063,7 @@
       <c r="BA59" s="89"/>
       <c r="BB59" s="186"/>
     </row>
-    <row r="60" spans="1:54" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:54" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A60" s="192"/>
       <c r="B60" s="15"/>
       <c r="C60" s="99"/>
@@ -20103,12 +20119,12 @@
       <c r="BA60" s="89"/>
       <c r="BB60" s="186"/>
     </row>
-    <row r="61" spans="1:54" ht="100.8" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:54" ht="100.8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A61" s="192" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B61" s="119" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="C61" s="120"/>
       <c r="D61" s="121"/>
@@ -20158,7 +20174,7 @@
         <v>0.79999999999999993</v>
       </c>
       <c r="AQ61" s="125" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="AR61" s="126"/>
       <c r="AS61" s="127" t="s">
@@ -20167,20 +20183,20 @@
       <c r="AT61" s="127"/>
       <c r="AU61" s="128"/>
       <c r="AV61" s="128" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="AW61" s="128" t="str">
         <f>"D"&amp;RIGHT(A61,5)</f>
         <v>D1.3.2</v>
       </c>
       <c r="AX61" s="128" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="AY61" s="128" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="AZ61" s="128" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="BA61" s="128"/>
       <c r="BB61" s="190">
@@ -20256,7 +20272,7 @@
       <c r="AX62" s="89"/>
       <c r="AY62" s="89"/>
       <c r="AZ62" s="89" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
       <c r="BA62" s="89"/>
       <c r="BB62" s="186"/>
@@ -20264,7 +20280,7 @@
     <row r="63" spans="1:54" ht="72" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A63" s="192"/>
       <c r="B63" s="114" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C63" s="17"/>
       <c r="D63" s="16"/>
@@ -20318,14 +20334,14 @@
         <v>34</v>
       </c>
       <c r="AR63" s="80" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="AS63" s="80" t="s">
         <v>26</v>
       </c>
       <c r="AT63" s="80"/>
       <c r="AU63" s="80" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AV63" s="80"/>
       <c r="AW63" s="89"/>
@@ -20338,7 +20354,7 @@
     <row r="64" spans="1:54" ht="43.2" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A64" s="192"/>
       <c r="B64" s="114" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C64" s="24"/>
       <c r="D64" s="23"/>
@@ -20408,7 +20424,7 @@
     <row r="65" spans="1:54" ht="43.2" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A65" s="192"/>
       <c r="B65" s="114" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C65" s="24"/>
       <c r="D65" s="23"/>
@@ -20605,10 +20621,10 @@
     </row>
     <row r="68" spans="1:54" ht="86.4" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A68" s="192" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B68" s="119" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="C68" s="120"/>
       <c r="D68" s="121"/>
@@ -20658,7 +20674,7 @@
         <v>0.91249999999999998</v>
       </c>
       <c r="AQ68" s="125" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="AR68" s="126"/>
       <c r="AS68" s="127" t="s">
@@ -20667,19 +20683,19 @@
       <c r="AT68" s="127"/>
       <c r="AU68" s="128"/>
       <c r="AV68" s="128" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="AW68" s="128" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="AX68" s="128" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="AY68" s="128" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="AZ68" s="128" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="BA68" s="128"/>
       <c r="BB68" s="190">
@@ -20745,7 +20761,7 @@
         <v>105</v>
       </c>
       <c r="AR69" s="94" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="AS69" s="80" t="s">
         <v>46</v>
@@ -20757,7 +20773,7 @@
       <c r="AX69" s="89"/>
       <c r="AY69" s="89"/>
       <c r="AZ69" s="89" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="BA69" s="89"/>
       <c r="BB69" s="186"/>
@@ -20765,7 +20781,7 @@
     <row r="70" spans="1:54" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A70" s="192"/>
       <c r="B70" s="112" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C70" s="24"/>
       <c r="D70" s="23"/>
@@ -20822,7 +20838,7 @@
       </c>
       <c r="AT70" s="80"/>
       <c r="AU70" s="89" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AV70" s="89"/>
       <c r="AW70" s="89"/>
@@ -20902,10 +20918,10 @@
     </row>
     <row r="72" spans="1:54" ht="100.8" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A72" s="192" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B72" s="119" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="C72" s="120"/>
       <c r="D72" s="121"/>
@@ -20955,7 +20971,7 @@
         <v>0.10000000000000002</v>
       </c>
       <c r="AQ72" s="125" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="AR72" s="126" t="s">
         <v>95</v>
@@ -20966,19 +20982,19 @@
       <c r="AT72" s="127"/>
       <c r="AU72" s="128"/>
       <c r="AV72" s="128" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="AW72" s="128" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="AX72" s="128" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="AY72" s="128" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="AZ72" s="128" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="BA72" s="128"/>
       <c r="BB72" s="190">
@@ -20988,7 +21004,7 @@
     <row r="73" spans="1:54" ht="72" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A73" s="192"/>
       <c r="B73" s="134" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C73" s="135"/>
       <c r="D73" s="136"/>
@@ -21036,7 +21052,7 @@
         <v>61</v>
       </c>
       <c r="AR73" s="142" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AS73" s="142"/>
       <c r="AT73" s="142"/>
@@ -21048,7 +21064,7 @@
       <c r="AX73" s="89"/>
       <c r="AY73" s="89"/>
       <c r="AZ73" s="89" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="BA73" s="89"/>
       <c r="BB73" s="186"/>
@@ -21056,7 +21072,7 @@
     <row r="74" spans="1:54" ht="28.8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A74" s="192"/>
       <c r="B74" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C74" s="99"/>
       <c r="D74" s="108"/>
@@ -21109,7 +21125,7 @@
       </c>
       <c r="AT74" s="80"/>
       <c r="AU74" s="89" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="AV74" s="89"/>
       <c r="AW74" s="89"/>
@@ -21177,10 +21193,10 @@
     </row>
     <row r="76" spans="1:54" ht="72" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A76" s="192" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B76" s="119" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="C76" s="120"/>
       <c r="D76" s="121"/>
@@ -21230,30 +21246,30 @@
         <v>0.15</v>
       </c>
       <c r="AQ76" s="125" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="AR76" s="126" t="s">
         <v>95</v>
       </c>
       <c r="AS76" s="127" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="AT76" s="127"/>
       <c r="AU76" s="128"/>
       <c r="AV76" s="128" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="AW76" s="128" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="AX76" s="128" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="AY76" s="128" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="AZ76" s="128" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="BA76" s="128"/>
       <c r="BB76" s="190">
@@ -21313,7 +21329,7 @@
       <c r="AX77" s="89"/>
       <c r="AY77" s="89"/>
       <c r="AZ77" s="89" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
       <c r="BA77" s="89"/>
       <c r="BB77" s="186"/>
@@ -21321,7 +21337,7 @@
     <row r="78" spans="1:54" ht="43.2" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A78" s="192"/>
       <c r="B78" s="15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C78" s="99"/>
       <c r="D78" s="108"/>
@@ -21374,7 +21390,7 @@
         <v>0.3</v>
       </c>
       <c r="AQ78" s="77" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="AR78" s="80"/>
       <c r="AS78" s="80" t="s">
@@ -21382,7 +21398,7 @@
       </c>
       <c r="AT78" s="80"/>
       <c r="AU78" s="89" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="AV78" s="89"/>
       <c r="AW78" s="89"/>
@@ -21395,7 +21411,7 @@
     <row r="79" spans="1:54" ht="28.8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A79" s="192"/>
       <c r="B79" s="15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C79" s="99"/>
       <c r="D79" s="108"/>
@@ -21514,10 +21530,10 @@
     </row>
     <row r="81" spans="1:54" ht="128.4" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A81" s="192" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B81" s="119" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="C81" s="120"/>
       <c r="D81" s="121"/>
@@ -21567,7 +21583,7 @@
         <v>0.55227272727272725</v>
       </c>
       <c r="AQ81" s="125" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="AR81" s="126"/>
       <c r="AS81" s="127" t="s">
@@ -21576,19 +21592,19 @@
       <c r="AT81" s="127"/>
       <c r="AU81" s="128"/>
       <c r="AV81" s="128" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="AW81" s="128" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="AX81" s="128" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="AY81" s="128" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="AZ81" s="128" t="s">
-        <v>708</v>
+        <v>700</v>
       </c>
       <c r="BA81" s="128"/>
       <c r="BB81" s="190">
@@ -21654,21 +21670,21 @@
         <v>52</v>
       </c>
       <c r="AR82" s="80" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="AS82" s="80" t="s">
         <v>50</v>
       </c>
       <c r="AT82" s="80"/>
       <c r="AU82" s="89" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="AV82" s="107"/>
       <c r="AW82" s="89"/>
       <c r="AX82" s="89"/>
       <c r="AY82" s="89"/>
       <c r="AZ82" s="89" t="s">
-        <v>706</v>
+        <v>698</v>
       </c>
       <c r="BA82" s="89"/>
       <c r="BB82" s="186"/>
@@ -21676,7 +21692,7 @@
     <row r="83" spans="1:54" ht="43.2" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A83" s="192"/>
       <c r="B83" s="117" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="C83" s="38"/>
       <c r="D83" s="37"/>
@@ -21725,17 +21741,17 @@
         <v>0.95</v>
       </c>
       <c r="AQ83" s="89" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="AR83" s="80" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="AS83" s="80" t="s">
         <v>50</v>
       </c>
       <c r="AT83" s="80"/>
       <c r="AU83" s="89" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="AV83" s="89"/>
       <c r="AW83" s="89"/>
@@ -21748,7 +21764,7 @@
     <row r="84" spans="1:54" ht="44.4" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A84" s="192"/>
       <c r="B84" s="117" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C84" s="99"/>
       <c r="D84" s="108"/>
@@ -21798,21 +21814,21 @@
       </c>
       <c r="AQ84" s="77"/>
       <c r="AR84" s="80" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="AS84" s="80" t="s">
         <v>50</v>
       </c>
       <c r="AT84" s="80"/>
       <c r="AU84" s="89" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="AV84" s="89"/>
       <c r="AW84" s="89"/>
       <c r="AX84" s="89"/>
       <c r="AY84" s="89"/>
       <c r="AZ84" s="89" t="s">
-        <v>707</v>
+        <v>699</v>
       </c>
       <c r="BA84" s="89"/>
       <c r="BB84" s="186"/>
@@ -21820,7 +21836,7 @@
     <row r="85" spans="1:54" ht="13.8" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A85" s="192"/>
       <c r="B85" s="117" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C85" s="99"/>
       <c r="D85" s="108"/>
@@ -21882,7 +21898,7 @@
     <row r="86" spans="1:54" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A86" s="192"/>
       <c r="B86" s="117" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C86" s="99"/>
       <c r="D86" s="108"/>
@@ -21948,7 +21964,7 @@
     <row r="87" spans="1:54" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A87" s="192"/>
       <c r="B87" s="117" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C87" s="99"/>
       <c r="D87" s="108"/>
@@ -22014,7 +22030,7 @@
     <row r="88" spans="1:54" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A88" s="192"/>
       <c r="B88" s="117" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C88" s="99"/>
       <c r="D88" s="108"/>
@@ -22066,10 +22082,10 @@
       </c>
       <c r="AQ88" s="77"/>
       <c r="AR88" s="80" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="AS88" s="80" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="AT88" s="80"/>
       <c r="AU88" s="89"/>
@@ -22084,7 +22100,7 @@
     <row r="89" spans="1:54" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A89" s="192"/>
       <c r="B89" s="117" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C89" s="99"/>
       <c r="D89" s="108"/>
@@ -22135,11 +22151,11 @@
       <c r="AQ89" s="77"/>
       <c r="AR89" s="80"/>
       <c r="AS89" s="80" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="AT89" s="80"/>
       <c r="AU89" s="89" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="AV89" s="89"/>
       <c r="AW89" s="89"/>
@@ -22207,10 +22223,10 @@
     </row>
     <row r="91" spans="1:54" ht="72" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A91" s="192" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="B91" s="119" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="C91" s="120"/>
       <c r="D91" s="121"/>
@@ -22260,7 +22276,7 @@
         <v>0.3</v>
       </c>
       <c r="AQ91" s="125" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="AR91" s="126"/>
       <c r="AS91" s="127" t="s">
@@ -22269,20 +22285,20 @@
       <c r="AT91" s="127"/>
       <c r="AU91" s="128"/>
       <c r="AV91" s="128" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="AW91" s="128" t="str">
         <f>"D"&amp;RIGHT(A91,5)</f>
         <v>D1.3.7</v>
       </c>
       <c r="AX91" s="128" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="AY91" s="128" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="AZ91" s="128" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="BA91" s="128"/>
       <c r="BB91" s="190">
@@ -22354,7 +22370,7 @@
       <c r="AX92" s="89"/>
       <c r="AY92" s="89"/>
       <c r="AZ92" s="89" t="s">
-        <v>709</v>
+        <v>701</v>
       </c>
       <c r="BA92" s="89"/>
       <c r="BB92" s="186"/>
@@ -22636,10 +22652,10 @@
     </row>
     <row r="97" spans="1:54" ht="60" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A97" s="192" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B97" s="119" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="C97" s="120"/>
       <c r="D97" s="121"/>
@@ -22689,7 +22705,7 @@
         <v>0.74</v>
       </c>
       <c r="AQ97" s="125" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="AR97" s="126"/>
       <c r="AS97" s="127" t="s">
@@ -22700,19 +22716,19 @@
       </c>
       <c r="AU97" s="128"/>
       <c r="AV97" s="128" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="AW97" s="128" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="AX97" s="128" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="AY97" s="128" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="AZ97" s="128" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="BA97" s="128"/>
       <c r="BB97" s="190">
@@ -22796,21 +22812,21 @@
       </c>
       <c r="AQ98" s="92"/>
       <c r="AR98" s="80" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
       <c r="AS98" s="80" t="s">
         <v>110</v>
       </c>
       <c r="AT98" s="80"/>
       <c r="AU98" s="89" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="AV98" s="89"/>
       <c r="AW98" s="89"/>
       <c r="AX98" s="89"/>
       <c r="AY98" s="89"/>
       <c r="AZ98" s="89" t="s">
-        <v>710</v>
+        <v>702</v>
       </c>
       <c r="BA98" s="89"/>
       <c r="BB98" s="186"/>
@@ -22887,7 +22903,7 @@
       </c>
       <c r="AT99" s="80"/>
       <c r="AU99" s="91" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="AV99" s="91"/>
       <c r="AW99" s="89"/>
@@ -22899,10 +22915,10 @@
     </row>
     <row r="100" spans="1:54" ht="28.8" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A100" s="192" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B100" s="119" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="C100" s="120"/>
       <c r="D100" s="121"/>
@@ -22952,30 +22968,30 @@
         <v>0</v>
       </c>
       <c r="AQ100" s="125" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="AR100" s="126"/>
       <c r="AS100" s="127" t="s">
         <v>63</v>
       </c>
       <c r="AT100" s="127" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="AU100" s="128"/>
       <c r="AV100" s="128" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="AW100" s="128" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="AX100" s="128" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="AY100" s="128" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="AZ100" s="128" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="BA100" s="128"/>
       <c r="BB100" s="190">
@@ -22985,7 +23001,7 @@
     <row r="101" spans="1:54" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A101" s="192"/>
       <c r="B101" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C101" s="38"/>
       <c r="D101" s="37"/>
@@ -23034,7 +23050,7 @@
       <c r="AQ101" s="61"/>
       <c r="AR101" s="93"/>
       <c r="AS101" s="85" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="AT101" s="85"/>
       <c r="AU101" s="91"/>
@@ -23043,17 +23059,17 @@
       <c r="AX101" s="89"/>
       <c r="AY101" s="89"/>
       <c r="AZ101" s="89" t="s">
-        <v>710</v>
+        <v>702</v>
       </c>
       <c r="BA101" s="89"/>
       <c r="BB101" s="186"/>
     </row>
     <row r="102" spans="1:54" ht="28.8" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A102" s="192" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B102" s="119" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="C102" s="120"/>
       <c r="D102" s="121"/>
@@ -23103,30 +23119,30 @@
         <v>0</v>
       </c>
       <c r="AQ102" s="125" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="AR102" s="126"/>
       <c r="AS102" s="127" t="s">
         <v>63</v>
       </c>
       <c r="AT102" s="127" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AU102" s="128"/>
       <c r="AV102" s="128" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="AW102" s="128" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="AX102" s="128" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="AY102" s="128" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="AZ102" s="128" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="BA102" s="128"/>
       <c r="BB102" s="190">
@@ -23136,7 +23152,7 @@
     <row r="103" spans="1:54" ht="28.8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A103" s="192"/>
       <c r="B103" s="15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C103" s="38"/>
       <c r="D103" s="37"/>
@@ -23185,7 +23201,7 @@
       <c r="AQ103" s="61"/>
       <c r="AR103" s="93"/>
       <c r="AS103" s="80" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AT103" s="80"/>
       <c r="AU103" s="91"/>
@@ -23194,7 +23210,7 @@
       <c r="AX103" s="89"/>
       <c r="AY103" s="89"/>
       <c r="AZ103" s="89" t="s">
-        <v>711</v>
+        <v>703</v>
       </c>
       <c r="BA103" s="89"/>
       <c r="BB103" s="186"/>
@@ -23369,10 +23385,10 @@
     </row>
     <row r="107" spans="1:54" ht="43.2" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A107" s="192" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B107" s="119" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="C107" s="120"/>
       <c r="D107" s="121"/>
@@ -23422,31 +23438,31 @@
         <v>0.10000000000000002</v>
       </c>
       <c r="AQ107" s="125" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="AR107" s="126"/>
       <c r="AS107" s="127" t="s">
         <v>46</v>
       </c>
       <c r="AT107" s="127" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="AU107" s="128"/>
       <c r="AV107" s="128" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="AW107" s="128" t="str">
         <f>"D"&amp;RIGHT(A107,5)</f>
         <v>D2.1.4</v>
       </c>
       <c r="AX107" s="128" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="AY107" s="128" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="AZ107" s="128" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="BA107" s="128"/>
       <c r="BB107" s="190">
@@ -23456,7 +23472,7 @@
     <row r="108" spans="1:54" ht="100.8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A108" s="35"/>
       <c r="B108" s="15" t="s">
-        <v>682</v>
+        <v>674</v>
       </c>
       <c r="C108" s="99"/>
       <c r="D108" s="108"/>
@@ -23515,10 +23531,10 @@
         <v>0.1</v>
       </c>
       <c r="AQ108" s="61" t="s">
-        <v>684</v>
+        <v>676</v>
       </c>
       <c r="AR108" s="93" t="s">
-        <v>683</v>
+        <v>675</v>
       </c>
       <c r="AS108" s="80"/>
       <c r="AT108" s="80"/>
@@ -23528,7 +23544,7 @@
       <c r="AX108" s="89"/>
       <c r="AY108" s="89"/>
       <c r="AZ108" s="89" t="s">
-        <v>712</v>
+        <v>704</v>
       </c>
       <c r="BA108" s="89"/>
       <c r="BB108" s="186"/>
@@ -23536,7 +23552,7 @@
     <row r="109" spans="1:54" ht="28.8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A109" s="35"/>
       <c r="B109" s="15" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C109" s="99"/>
       <c r="D109" s="108"/>
@@ -23595,7 +23611,7 @@
         <v>0</v>
       </c>
       <c r="AQ109" s="61" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="AR109" s="93"/>
       <c r="AS109" s="80"/>
@@ -23612,7 +23628,7 @@
     <row r="110" spans="1:54" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A110" s="35"/>
       <c r="B110" s="15" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C110" s="99"/>
       <c r="D110" s="108"/>
@@ -23890,10 +23906,10 @@
     </row>
     <row r="114" spans="1:54" ht="88.2" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A114" s="192" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B114" s="119" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="C114" s="120"/>
       <c r="D114" s="121"/>
@@ -23943,7 +23959,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="AQ114" s="125" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="AR114" s="126"/>
       <c r="AS114" s="127" t="s">
@@ -23954,26 +23970,26 @@
       </c>
       <c r="AU114" s="128"/>
       <c r="AV114" s="128" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="AW114" s="128" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="AX114" s="128" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="AY114" s="128" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="AZ114" s="128" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
       <c r="BA114" s="128"/>
       <c r="BB114" s="190">
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:54" ht="118.2" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:54" ht="118.2" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A115" s="192"/>
       <c r="B115" s="15" t="s">
         <v>62</v>
@@ -24028,7 +24044,9 @@
       <c r="AD115" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="AE115" s="309"/>
+      <c r="AE115" s="309" t="s">
+        <v>87</v>
+      </c>
       <c r="AF115" s="20"/>
       <c r="AG115" s="17"/>
       <c r="AH115" s="16"/>
@@ -24046,26 +24064,26 @@
       </c>
       <c r="AQ115" s="92"/>
       <c r="AR115" s="85" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
       <c r="AS115" s="80" t="s">
         <v>127</v>
       </c>
       <c r="AT115" s="80"/>
       <c r="AU115" s="89" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="AV115" s="89"/>
       <c r="AW115" s="89"/>
       <c r="AX115" s="89"/>
       <c r="AY115" s="89"/>
       <c r="AZ115" s="89" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
       <c r="BA115" s="89"/>
       <c r="BB115" s="186"/>
     </row>
-    <row r="116" spans="1:54" ht="57.6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:54" ht="57.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A116" s="192"/>
       <c r="B116" s="15" t="s">
         <v>112</v>
@@ -24110,7 +24128,9 @@
       <c r="AD116" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="AE116" s="311"/>
+      <c r="AE116" s="311" t="s">
+        <v>87</v>
+      </c>
       <c r="AF116" s="40"/>
       <c r="AG116" s="38"/>
       <c r="AH116" s="37"/>
@@ -24130,14 +24150,14 @@
         <v>36</v>
       </c>
       <c r="AR116" s="93" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="AS116" s="80" t="s">
         <v>63</v>
       </c>
       <c r="AT116" s="80"/>
       <c r="AU116" s="91" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="AV116" s="91"/>
       <c r="AW116" s="89"/>
@@ -24147,12 +24167,12 @@
       <c r="BA116" s="89"/>
       <c r="BB116" s="186"/>
     </row>
-    <row r="117" spans="1:54" ht="72" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:54" ht="72" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A117" s="192" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B117" s="119" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="C117" s="120"/>
       <c r="D117" s="121"/>
@@ -24202,40 +24222,40 @@
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="AQ117" s="125" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="AR117" s="126"/>
       <c r="AS117" s="127" t="s">
         <v>46</v>
       </c>
       <c r="AT117" s="127" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="AU117" s="128"/>
       <c r="AV117" s="128" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="AW117" s="128" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="AX117" s="128" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="AY117" s="128" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="AZ117" s="128" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="BA117" s="128"/>
       <c r="BB117" s="190">
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:54" ht="115.2" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:54" ht="115.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A118" s="35"/>
       <c r="B118" s="15" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C118" s="38"/>
       <c r="D118" s="37"/>
@@ -24262,12 +24282,24 @@
       <c r="Y118" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="Z118" s="26"/>
-      <c r="AA118" s="40"/>
-      <c r="AB118" s="37"/>
-      <c r="AC118" s="39"/>
-      <c r="AD118" s="38"/>
-      <c r="AE118" s="311"/>
+      <c r="Z118" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA118" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB118" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC118" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD118" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE118" s="311" t="s">
+        <v>87</v>
+      </c>
       <c r="AF118" s="40"/>
       <c r="AG118" s="38"/>
       <c r="AH118" s="37"/>
@@ -24284,30 +24316,32 @@
         <v>0.3</v>
       </c>
       <c r="AQ118" s="61" t="s">
-        <v>244</v>
-      </c>
-      <c r="AR118" s="93"/>
+        <v>241</v>
+      </c>
+      <c r="AR118" s="93" t="s">
+        <v>766</v>
+      </c>
       <c r="AS118" s="85" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="AT118" s="85"/>
       <c r="AU118" s="91" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="AV118" s="91"/>
       <c r="AW118" s="89"/>
       <c r="AX118" s="89"/>
       <c r="AY118" s="89"/>
       <c r="AZ118" s="89" t="s">
-        <v>713</v>
+        <v>705</v>
       </c>
       <c r="BA118" s="89"/>
       <c r="BB118" s="186"/>
     </row>
-    <row r="119" spans="1:54" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:54" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A119" s="35"/>
       <c r="B119" s="15" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C119" s="38"/>
       <c r="D119" s="37"/>
@@ -24341,9 +24375,15 @@
       <c r="AB119" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="AC119" s="39"/>
-      <c r="AD119" s="38"/>
-      <c r="AE119" s="311"/>
+      <c r="AC119" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD119" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE119" s="311" t="s">
+        <v>87</v>
+      </c>
       <c r="AF119" s="40"/>
       <c r="AG119" s="38"/>
       <c r="AH119" s="37"/>
@@ -24362,7 +24402,7 @@
       <c r="AQ119" s="61"/>
       <c r="AR119" s="93"/>
       <c r="AS119" s="85" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="AT119" s="85"/>
       <c r="AU119" s="91"/>
@@ -24374,10 +24414,10 @@
       <c r="BA119" s="89"/>
       <c r="BB119" s="186"/>
     </row>
-    <row r="120" spans="1:54" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:54" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A120" s="35"/>
       <c r="B120" s="15" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C120" s="38"/>
       <c r="D120" s="37"/>
@@ -24411,9 +24451,15 @@
       <c r="AB120" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="AC120" s="39"/>
-      <c r="AD120" s="38"/>
-      <c r="AE120" s="311"/>
+      <c r="AC120" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD120" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE120" s="311" t="s">
+        <v>87</v>
+      </c>
       <c r="AF120" s="40"/>
       <c r="AG120" s="38"/>
       <c r="AH120" s="37"/>
@@ -24430,11 +24476,11 @@
         <v>0</v>
       </c>
       <c r="AQ120" s="61" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="AR120" s="93"/>
       <c r="AS120" s="85" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="AT120" s="85"/>
       <c r="AU120" s="91"/>
@@ -24446,10 +24492,10 @@
       <c r="BA120" s="89"/>
       <c r="BB120" s="186"/>
     </row>
-    <row r="121" spans="1:54" ht="28.8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:54" ht="28.8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A121" s="35"/>
       <c r="B121" s="15" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C121" s="38"/>
       <c r="D121" s="37"/>
@@ -24483,9 +24529,15 @@
       <c r="AB121" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="AC121" s="39"/>
-      <c r="AD121" s="38"/>
-      <c r="AE121" s="311"/>
+      <c r="AC121" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD121" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE121" s="311" t="s">
+        <v>87</v>
+      </c>
       <c r="AF121" s="40"/>
       <c r="AG121" s="38"/>
       <c r="AH121" s="37"/>
@@ -24502,11 +24554,11 @@
         <v>0</v>
       </c>
       <c r="AQ121" s="61" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="AR121" s="93"/>
       <c r="AS121" s="85" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="AT121" s="85"/>
       <c r="AU121" s="91"/>
@@ -24518,10 +24570,10 @@
       <c r="BA121" s="89"/>
       <c r="BB121" s="186"/>
     </row>
-    <row r="122" spans="1:54" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:54" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A122" s="35"/>
       <c r="B122" s="15" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C122" s="38"/>
       <c r="D122" s="37"/>
@@ -24555,9 +24607,15 @@
       <c r="AB122" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="AC122" s="39"/>
-      <c r="AD122" s="38"/>
-      <c r="AE122" s="311"/>
+      <c r="AC122" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD122" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE122" s="311" t="s">
+        <v>87</v>
+      </c>
       <c r="AF122" s="40"/>
       <c r="AG122" s="38"/>
       <c r="AH122" s="37"/>
@@ -24576,7 +24634,7 @@
       <c r="AQ122" s="61"/>
       <c r="AR122" s="93"/>
       <c r="AS122" s="85" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="AT122" s="85"/>
       <c r="AU122" s="91"/>
@@ -24588,10 +24646,10 @@
       <c r="BA122" s="89"/>
       <c r="BB122" s="186"/>
     </row>
-    <row r="123" spans="1:54" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:54" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A123" s="35"/>
       <c r="B123" s="15" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C123" s="38"/>
       <c r="D123" s="37"/>
@@ -24626,8 +24684,12 @@
       <c r="AC123" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="AD123" s="38"/>
-      <c r="AE123" s="311"/>
+      <c r="AD123" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE123" s="311" t="s">
+        <v>87</v>
+      </c>
       <c r="AF123" s="40"/>
       <c r="AG123" s="38"/>
       <c r="AH123" s="37"/>
@@ -24646,7 +24708,7 @@
       <c r="AQ123" s="61"/>
       <c r="AR123" s="93"/>
       <c r="AS123" s="85" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="AT123" s="85"/>
       <c r="AU123" s="91"/>
@@ -24658,10 +24720,10 @@
       <c r="BA123" s="89"/>
       <c r="BB123" s="186"/>
     </row>
-    <row r="124" spans="1:54" ht="28.8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:54" ht="28.8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A124" s="35"/>
       <c r="B124" s="15" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C124" s="38"/>
       <c r="D124" s="37"/>
@@ -24696,8 +24758,12 @@
       <c r="AC124" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="AD124" s="38"/>
-      <c r="AE124" s="311"/>
+      <c r="AD124" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE124" s="311" t="s">
+        <v>87</v>
+      </c>
       <c r="AF124" s="40"/>
       <c r="AG124" s="38"/>
       <c r="AH124" s="37"/>
@@ -24714,11 +24780,11 @@
         <v>0</v>
       </c>
       <c r="AQ124" s="61" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="AR124" s="93"/>
       <c r="AS124" s="80" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="AT124" s="80"/>
       <c r="AU124" s="91"/>
@@ -24730,10 +24796,10 @@
       <c r="BA124" s="89"/>
       <c r="BB124" s="186"/>
     </row>
-    <row r="125" spans="1:54" ht="28.8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:54" ht="28.8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A125" s="35"/>
       <c r="B125" s="15" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C125" s="99"/>
       <c r="D125" s="108"/>
@@ -24768,8 +24834,12 @@
       <c r="AC125" s="109" t="s">
         <v>15</v>
       </c>
-      <c r="AD125" s="99"/>
-      <c r="AE125" s="310"/>
+      <c r="AD125" s="99" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE125" s="310" t="s">
+        <v>87</v>
+      </c>
       <c r="AF125" s="26"/>
       <c r="AG125" s="99"/>
       <c r="AH125" s="108"/>
@@ -24786,11 +24856,11 @@
         <v>0</v>
       </c>
       <c r="AQ125" s="61" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AR125" s="93"/>
       <c r="AS125" s="80" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="AT125" s="80"/>
       <c r="AU125" s="91"/>
@@ -24802,7 +24872,7 @@
       <c r="BA125" s="89"/>
       <c r="BB125" s="186"/>
     </row>
-    <row r="126" spans="1:54" ht="15" outlineLevel="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:54" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" s="27"/>
       <c r="B126" s="28"/>
       <c r="C126" s="30"/>
@@ -24940,7 +25010,7 @@
       </c>
       <c r="AQ127" s="173"/>
       <c r="AR127" s="93" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AS127" s="106"/>
       <c r="AT127" s="106"/>
@@ -25326,10 +25396,10 @@
     </row>
     <row r="134" spans="1:54" ht="117" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A134" s="192" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B134" s="119" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="C134" s="120"/>
       <c r="D134" s="121"/>
@@ -25379,7 +25449,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ134" s="125" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="AR134" s="126"/>
       <c r="AS134" s="127" t="s">
@@ -25390,23 +25460,23 @@
       </c>
       <c r="AU134" s="128"/>
       <c r="AV134" s="128" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="AW134" s="128" t="str">
         <f>"D"&amp;RIGHT(A134,5)</f>
         <v>D2.4.1</v>
       </c>
       <c r="AX134" s="128" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="AY134" s="128" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="AZ134" s="128" t="s">
-        <v>731</v>
+        <v>723</v>
       </c>
       <c r="BA134" s="128" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="BB134" s="190">
         <v>1</v>
@@ -25477,23 +25547,23 @@
       </c>
       <c r="AQ135" s="92"/>
       <c r="AR135" s="80" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="AS135" s="80" t="s">
         <v>55</v>
       </c>
       <c r="AT135" s="80"/>
       <c r="AU135" s="80" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="AV135" s="80"/>
       <c r="AW135" s="80" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="AX135" s="80"/>
       <c r="AY135" s="80"/>
       <c r="AZ135" s="80" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="BA135" s="80"/>
       <c r="BB135" s="80"/>
@@ -25560,26 +25630,26 @@
       </c>
       <c r="AT136" s="80"/>
       <c r="AU136" s="80" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="AV136" s="80"/>
       <c r="AW136" s="80" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="AX136" s="80"/>
       <c r="AY136" s="80"/>
       <c r="AZ136" s="80" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="BA136" s="80"/>
       <c r="BB136" s="80"/>
     </row>
     <row r="137" spans="1:54" ht="76.2" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A137" s="192" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B137" s="119" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
       <c r="C137" s="120"/>
       <c r="D137" s="121"/>
@@ -25629,7 +25699,7 @@
         <v>1</v>
       </c>
       <c r="AQ137" s="125" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="AR137" s="126"/>
       <c r="AS137" s="127" t="s">
@@ -25638,23 +25708,23 @@
       <c r="AT137" s="127"/>
       <c r="AU137" s="128"/>
       <c r="AV137" s="128" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="AW137" s="128" t="str">
         <f>"D"&amp;RIGHT(A137,5)</f>
         <v>D2.4.2</v>
       </c>
       <c r="AX137" s="128" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="AY137" s="128" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="AZ137" s="128" t="s">
-        <v>732</v>
+        <v>724</v>
       </c>
       <c r="BA137" s="128" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="BB137" s="190"/>
     </row>
@@ -25788,7 +25858,7 @@
       </c>
       <c r="AT139" s="80"/>
       <c r="AU139" s="80" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="AV139" s="80"/>
       <c r="AW139" s="80"/>
@@ -25861,19 +25931,19 @@
         <v>115</v>
       </c>
       <c r="AR140" s="80" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="AS140" s="80" t="s">
         <v>26</v>
       </c>
       <c r="AT140" s="80"/>
       <c r="AU140" s="80" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="AV140" s="80"/>
       <c r="AW140" s="80"/>
       <c r="AX140" s="80" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="AY140" s="80"/>
       <c r="AZ140" s="80"/>
@@ -25882,10 +25952,10 @@
     </row>
     <row r="141" spans="1:54" ht="43.2" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A141" s="192" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B141" s="119" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="C141" s="120"/>
       <c r="D141" s="121"/>
@@ -25935,7 +26005,7 @@
         <v>0.27500000000000002</v>
       </c>
       <c r="AQ141" s="125" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="AR141" s="126" t="s">
         <v>120</v>
@@ -25948,19 +26018,19 @@
       </c>
       <c r="AU141" s="128"/>
       <c r="AV141" s="128" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="AW141" s="128" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="AX141" s="128" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="AY141" s="128" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="AZ141" s="128" t="s">
-        <v>733</v>
+        <v>725</v>
       </c>
       <c r="BA141" s="128"/>
       <c r="BB141" s="190">
@@ -26038,7 +26108,7 @@
       <c r="AX142" s="80"/>
       <c r="AY142" s="80"/>
       <c r="AZ142" s="80" t="s">
-        <v>714</v>
+        <v>706</v>
       </c>
       <c r="BA142" s="80"/>
       <c r="BB142" s="80"/>
@@ -26100,14 +26170,14 @@
         <v>141</v>
       </c>
       <c r="AR143" s="93" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="AS143" s="80" t="s">
         <v>119</v>
       </c>
       <c r="AT143" s="80"/>
       <c r="AU143" s="80" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="AV143" s="80"/>
       <c r="AW143" s="80"/>
@@ -26379,7 +26449,7 @@
         <v>0</v>
       </c>
       <c r="AQ147" s="91" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="AR147" s="2"/>
       <c r="AS147" s="80" t="s">
@@ -26399,10 +26469,10 @@
     </row>
     <row r="148" spans="1:54" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A148" s="192" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="B148" s="119" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="C148" s="120"/>
       <c r="D148" s="121"/>
@@ -26452,25 +26522,25 @@
         <v>0</v>
       </c>
       <c r="AQ148" s="125" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="AR148" s="126"/>
       <c r="AS148" s="127" t="s">
         <v>47</v>
       </c>
       <c r="AT148" s="127" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="AU148" s="128"/>
       <c r="AV148" s="128" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="AW148" s="128" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="AX148" s="128"/>
       <c r="AY148" s="128" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="AZ148" s="128"/>
       <c r="BA148" s="128"/>
@@ -26481,7 +26551,7 @@
     <row r="149" spans="1:54" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A149" s="35"/>
       <c r="B149" s="15" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
       <c r="C149" s="99"/>
       <c r="D149" s="108"/>
@@ -26553,7 +26623,7 @@
     <row r="150" spans="1:54" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A150" s="35"/>
       <c r="B150" s="15" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="C150" s="99"/>
       <c r="D150" s="108"/>
@@ -26929,10 +26999,10 @@
     </row>
     <row r="156" spans="1:54" ht="43.2" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A156" s="192" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B156" s="119" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="C156" s="120"/>
       <c r="D156" s="121"/>
@@ -26982,7 +27052,7 @@
         <v>1</v>
       </c>
       <c r="AQ156" s="125" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="AR156" s="126"/>
       <c r="AS156" s="127" t="s">
@@ -26991,22 +27061,22 @@
       <c r="AT156" s="127"/>
       <c r="AU156" s="128"/>
       <c r="AV156" s="128" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="AW156" s="128" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="AX156" s="128" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="AY156" s="128" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="AZ156" s="128" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="BA156" s="128" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="BB156" s="190"/>
     </row>
@@ -27287,17 +27357,17 @@
       <c r="AX160" s="89"/>
       <c r="AY160" s="89"/>
       <c r="AZ160" s="89" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="BA160" s="89"/>
       <c r="BB160" s="186"/>
     </row>
     <row r="161" spans="1:54" ht="100.8" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A161" s="192" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B161" s="119" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="C161" s="120"/>
       <c r="D161" s="121"/>
@@ -27347,7 +27417,7 @@
         <v>0.97142857142857142</v>
       </c>
       <c r="AQ161" s="125" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="AR161" s="126"/>
       <c r="AS161" s="127" t="s">
@@ -27356,22 +27426,22 @@
       <c r="AT161" s="127"/>
       <c r="AU161" s="128"/>
       <c r="AV161" s="128" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="AW161" s="128" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="AX161" s="128" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="AY161" s="128" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="AZ161" s="128" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="BA161" s="128" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="BB161" s="190">
         <v>3</v>
@@ -27380,7 +27450,7 @@
     <row r="162" spans="1:54" ht="43.2" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A162" s="192"/>
       <c r="B162" s="15" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="C162" s="24"/>
       <c r="D162" s="23"/>
@@ -27431,26 +27501,26 @@
         <v>1</v>
       </c>
       <c r="AQ162" s="77" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="AR162" s="80" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="AS162" s="80" t="s">
         <v>63</v>
       </c>
       <c r="AT162" s="80" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="AU162" s="89" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="AV162" s="89"/>
       <c r="AW162" s="89"/>
       <c r="AX162" s="89"/>
       <c r="AY162" s="89"/>
       <c r="AZ162" s="89" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="BA162" s="89"/>
       <c r="BB162" s="186"/>
@@ -27458,7 +27528,7 @@
     <row r="163" spans="1:54" ht="57.6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A163" s="192"/>
       <c r="B163" s="15" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="C163" s="24"/>
       <c r="D163" s="23"/>
@@ -27509,19 +27579,19 @@
         <v>0.9</v>
       </c>
       <c r="AQ163" s="77" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="AR163" s="80" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="AS163" s="80" t="s">
         <v>63</v>
       </c>
       <c r="AT163" s="80" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AU163" s="89" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="AV163" s="89"/>
       <c r="AW163" s="89"/>
@@ -27592,14 +27662,14 @@
         <v>124</v>
       </c>
       <c r="AR164" s="80" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="AS164" s="80" t="s">
         <v>55</v>
       </c>
       <c r="AT164" s="80"/>
       <c r="AU164" s="89" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="AV164" s="89"/>
       <c r="AW164" s="89"/>
@@ -27611,10 +27681,10 @@
     </row>
     <row r="165" spans="1:54" ht="28.8" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A165" s="192" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B165" s="119" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="C165" s="120"/>
       <c r="D165" s="121"/>
@@ -27660,7 +27730,7 @@
         <v>0</v>
       </c>
       <c r="AQ165" s="125" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="AR165" s="126"/>
       <c r="AS165" s="127" t="s">
@@ -27669,7 +27739,7 @@
       <c r="AT165" s="127"/>
       <c r="AU165" s="128"/>
       <c r="AV165" s="128" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="AW165" s="128"/>
       <c r="AX165" s="128"/>
@@ -27744,7 +27814,7 @@
       <c r="AY166" s="89"/>
       <c r="AZ166" s="89"/>
       <c r="BA166" s="89" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
       <c r="BB166" s="186"/>
     </row>
@@ -27948,10 +28018,10 @@
     </row>
     <row r="170" spans="1:54" ht="28.8" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A170" s="192" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B170" s="174" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="C170" s="129"/>
       <c r="D170" s="130"/>
@@ -28001,7 +28071,7 @@
         <v>0.15</v>
       </c>
       <c r="AQ170" s="221" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="AR170" s="133"/>
       <c r="AS170" s="127" t="s">
@@ -28010,7 +28080,7 @@
       <c r="AT170" s="127"/>
       <c r="AU170" s="128"/>
       <c r="AV170" s="128" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="AW170" s="128"/>
       <c r="AX170" s="128"/>
@@ -28088,7 +28158,7 @@
       <c r="AX171" s="89"/>
       <c r="AY171" s="89"/>
       <c r="AZ171" s="89" t="s">
-        <v>716</v>
+        <v>708</v>
       </c>
       <c r="BA171" s="89"/>
       <c r="BB171" s="186"/>
@@ -28164,7 +28234,7 @@
     <row r="173" spans="1:54" ht="28.8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A173" s="192"/>
       <c r="B173" s="15" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="C173" s="24"/>
       <c r="D173" s="23"/>
@@ -28215,13 +28285,13 @@
         <v>0.6</v>
       </c>
       <c r="AQ173" s="77" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="AR173" s="80"/>
       <c r="AS173" s="80"/>
       <c r="AT173" s="80"/>
       <c r="AU173" s="89" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
       <c r="AV173" s="89"/>
       <c r="AW173" s="89"/>
@@ -28289,10 +28359,10 @@
     </row>
     <row r="175" spans="1:54" ht="57.6" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A175" s="192" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B175" s="119" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="C175" s="120"/>
       <c r="D175" s="121"/>
@@ -28342,30 +28412,30 @@
         <v>0.35833333333333334</v>
       </c>
       <c r="AQ175" s="125" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="AR175" s="126"/>
       <c r="AS175" s="127" t="s">
         <v>63</v>
       </c>
       <c r="AT175" s="127" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AU175" s="128"/>
       <c r="AV175" s="128" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="AW175" s="128" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="AX175" s="128" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="AY175" s="128" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="AZ175" s="128" t="s">
-        <v>737</v>
+        <v>729</v>
       </c>
       <c r="BA175" s="128"/>
       <c r="BB175" s="190">
@@ -28426,24 +28496,24 @@
         <v>0.6</v>
       </c>
       <c r="AQ176" s="77" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AR176" s="80" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AS176" s="80" t="s">
         <v>63</v>
       </c>
       <c r="AT176" s="80"/>
       <c r="AU176" s="89" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AV176" s="89"/>
       <c r="AW176" s="89"/>
       <c r="AX176" s="89"/>
       <c r="AY176" s="89"/>
       <c r="AZ176" s="89" t="s">
-        <v>709</v>
+        <v>701</v>
       </c>
       <c r="BA176" s="89"/>
       <c r="BB176" s="186"/>
@@ -28451,7 +28521,7 @@
     <row r="177" spans="1:54" ht="43.2" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A177" s="192"/>
       <c r="B177" s="15" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="C177" s="24"/>
       <c r="D177" s="23"/>
@@ -28506,16 +28576,16 @@
         <v>1</v>
       </c>
       <c r="AQ177" s="77" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="AR177" s="80" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="AS177" s="80" t="s">
         <v>63</v>
       </c>
       <c r="AT177" s="80" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AU177" s="89"/>
       <c r="AV177" s="89"/>
@@ -28529,7 +28599,7 @@
     <row r="178" spans="1:54" ht="28.8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A178" s="192"/>
       <c r="B178" s="15" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="C178" s="24"/>
       <c r="D178" s="23"/>
@@ -28584,7 +28654,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ178" s="77" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="AR178" s="80"/>
       <c r="AS178" s="80" t="s">
@@ -28603,7 +28673,7 @@
     <row r="179" spans="1:54" ht="28.8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A179" s="192"/>
       <c r="B179" s="15" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="C179" s="24"/>
       <c r="D179" s="23"/>
@@ -28658,7 +28728,7 @@
         <v>0</v>
       </c>
       <c r="AQ179" s="77" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="AR179" s="80"/>
       <c r="AS179" s="80" t="s">
@@ -28677,7 +28747,7 @@
     <row r="180" spans="1:54" ht="32.4" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A180" s="192"/>
       <c r="B180" s="15" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="C180" s="24"/>
       <c r="D180" s="23"/>
@@ -28732,7 +28802,7 @@
         <v>0</v>
       </c>
       <c r="AQ180" s="77" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="AR180" s="80"/>
       <c r="AS180" s="80" t="s">
@@ -28751,7 +28821,7 @@
     <row r="181" spans="1:54" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A181" s="192"/>
       <c r="B181" s="15" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="C181" s="24"/>
       <c r="D181" s="23"/>
@@ -28818,10 +28888,10 @@
     </row>
     <row r="182" spans="1:54" ht="57.6" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A182" s="192" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B182" s="119" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="C182" s="120"/>
       <c r="D182" s="121"/>
@@ -28871,7 +28941,7 @@
         <v>0.44153846153846149</v>
       </c>
       <c r="AQ182" s="125" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="AR182" s="126"/>
       <c r="AS182" s="127" t="s">
@@ -28882,19 +28952,19 @@
       </c>
       <c r="AU182" s="128"/>
       <c r="AV182" s="128" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="AW182" s="128" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="AX182" s="128" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="AY182" s="128" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="AZ182" s="128" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="BA182" s="128"/>
       <c r="BB182" s="190">
@@ -29022,7 +29092,7 @@
         <v>158</v>
       </c>
       <c r="AR184" s="80" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="AS184" s="80" t="s">
         <v>121</v>
@@ -29040,7 +29110,7 @@
     <row r="185" spans="1:54" ht="115.2" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A185" s="192"/>
       <c r="B185" s="15" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
       <c r="C185" s="24"/>
       <c r="D185" s="23"/>
@@ -29102,14 +29172,14 @@
       </c>
       <c r="AQ185" s="77"/>
       <c r="AR185" s="80" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="AS185" s="80" t="s">
         <v>121</v>
       </c>
       <c r="AT185" s="80"/>
       <c r="AU185" s="89" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="AV185" s="89"/>
       <c r="AW185" s="89"/>
@@ -29350,14 +29420,14 @@
       </c>
       <c r="AQ188" s="77"/>
       <c r="AR188" s="80" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
       <c r="AS188" s="80" t="s">
         <v>121</v>
       </c>
       <c r="AT188" s="80"/>
       <c r="AU188" s="89" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="AV188" s="89"/>
       <c r="AW188" s="89"/>
@@ -29425,10 +29495,10 @@
     </row>
     <row r="190" spans="1:54" ht="129.6" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A190" s="192" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B190" s="119" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="C190" s="120"/>
       <c r="D190" s="121"/>
@@ -29478,7 +29548,7 @@
         <v>0.93333333333333335</v>
       </c>
       <c r="AQ190" s="125" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="AR190" s="126"/>
       <c r="AS190" s="127" t="s">
@@ -29489,23 +29559,23 @@
       </c>
       <c r="AU190" s="128"/>
       <c r="AV190" s="128" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="AW190" s="128" t="str">
         <f>"D"&amp;RIGHT(A190,5)</f>
         <v>D2.5.7</v>
       </c>
       <c r="AX190" s="128" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="AY190" s="128" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="AZ190" s="128" t="s">
-        <v>717</v>
+        <v>709</v>
       </c>
       <c r="BA190" s="128" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="BB190" s="190">
         <v>3</v>
@@ -29568,7 +29638,7 @@
       </c>
       <c r="AQ191" s="77"/>
       <c r="AR191" s="85" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AS191" s="80" t="s">
         <v>50</v>
@@ -29580,7 +29650,7 @@
       <c r="AX191" s="89"/>
       <c r="AY191" s="89"/>
       <c r="AZ191" s="89" t="s">
-        <v>709</v>
+        <v>701</v>
       </c>
       <c r="BA191" s="89"/>
       <c r="BB191" s="186"/>
@@ -29642,14 +29712,14 @@
       </c>
       <c r="AQ192" s="77"/>
       <c r="AR192" s="85" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="AS192" s="80" t="s">
         <v>50</v>
       </c>
       <c r="AT192" s="80"/>
       <c r="AU192" s="89" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="AV192" s="89"/>
       <c r="AW192" s="89"/>
@@ -29662,7 +29732,7 @@
     <row r="193" spans="1:54" ht="57.6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A193" s="192"/>
       <c r="B193" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C193" s="24"/>
       <c r="D193" s="23"/>
@@ -29715,10 +29785,10 @@
         <v>1</v>
       </c>
       <c r="AQ193" s="77" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AR193" s="77" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="AS193" s="80" t="s">
         <v>50</v>
@@ -29791,10 +29861,10 @@
     </row>
     <row r="195" spans="1:54" ht="43.2" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A195" s="192" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B195" s="119" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="C195" s="120"/>
       <c r="D195" s="121"/>
@@ -29844,30 +29914,30 @@
         <v>0.56666666666666676</v>
       </c>
       <c r="AQ195" s="125" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="AR195" s="126"/>
       <c r="AS195" s="127" t="s">
         <v>63</v>
       </c>
       <c r="AT195" s="127" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AU195" s="128"/>
       <c r="AV195" s="128" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="AW195" s="128" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="AX195" s="128" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="AY195" s="128" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="AZ195" s="128" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="BA195" s="128"/>
       <c r="BB195" s="190">
@@ -29877,7 +29947,7 @@
     <row r="196" spans="1:54" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A196" s="14"/>
       <c r="B196" s="15" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C196" s="24"/>
       <c r="D196" s="23"/>
@@ -29927,7 +29997,7 @@
       </c>
       <c r="AQ196" s="77"/>
       <c r="AR196" s="85" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="AS196" s="80"/>
       <c r="AT196" s="80"/>
@@ -29937,7 +30007,7 @@
       <c r="AX196" s="89"/>
       <c r="AY196" s="89"/>
       <c r="AZ196" s="89" t="s">
-        <v>709</v>
+        <v>701</v>
       </c>
       <c r="BA196" s="89"/>
       <c r="BB196" s="186"/>
@@ -29945,7 +30015,7 @@
     <row r="197" spans="1:54" ht="86.4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A197" s="14"/>
       <c r="B197" s="15" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C197" s="24"/>
       <c r="D197" s="23"/>
@@ -30003,12 +30073,12 @@
       </c>
       <c r="AQ197" s="77"/>
       <c r="AR197" s="80" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="AS197" s="80"/>
       <c r="AT197" s="80"/>
       <c r="AU197" s="89" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="AV197" s="89"/>
       <c r="AW197" s="89"/>
@@ -30021,7 +30091,7 @@
     <row r="198" spans="1:54" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A198" s="14"/>
       <c r="B198" s="15" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C198" s="24"/>
       <c r="D198" s="23"/>
@@ -30091,7 +30161,7 @@
     <row r="199" spans="1:54" ht="28.8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A199" s="14"/>
       <c r="B199" s="15" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C199" s="24"/>
       <c r="D199" s="23"/>
@@ -30148,7 +30218,7 @@
       <c r="AS199" s="80"/>
       <c r="AT199" s="80"/>
       <c r="AU199" s="89" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="AV199" s="89"/>
       <c r="AW199" s="89"/>
@@ -30216,10 +30286,10 @@
     </row>
     <row r="201" spans="1:54" ht="43.2" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A201" s="192" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="B201" s="119" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="C201" s="120"/>
       <c r="D201" s="121"/>
@@ -30269,42 +30339,42 @@
         <v>1</v>
       </c>
       <c r="AQ201" s="125" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="AR201" s="126" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="AS201" s="127" t="s">
         <v>63</v>
       </c>
       <c r="AT201" s="127" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="AU201" s="128"/>
       <c r="AV201" s="128" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="AW201" s="128" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="AX201" s="128" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="AY201" s="128" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="AZ201" s="128" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="BA201" s="128" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="BB201" s="190"/>
     </row>
     <row r="202" spans="1:54" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A202" s="14"/>
       <c r="B202" s="15" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="C202" s="24"/>
       <c r="D202" s="23"/>
@@ -30665,10 +30735,10 @@
     </row>
     <row r="208" spans="1:54" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A208" s="7" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="B208" s="8" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="C208" s="10"/>
       <c r="D208" s="9"/>
@@ -30734,7 +30804,7 @@
       <c r="AN208" s="200"/>
       <c r="AO208" s="159"/>
       <c r="AP208" s="177" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="AQ208" s="171"/>
       <c r="AR208" s="116"/>
@@ -30751,10 +30821,10 @@
     </row>
     <row r="209" spans="1:57" ht="28.8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A209" s="192" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="B209" s="119" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="C209" s="120"/>
       <c r="D209" s="121"/>
@@ -30804,22 +30874,22 @@
       </c>
       <c r="AQ209" s="125"/>
       <c r="AR209" s="126" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="AS209" s="127" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="AT209" s="127" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="AU209" s="128"/>
       <c r="AV209" s="128" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="AW209" s="128"/>
       <c r="AX209" s="128"/>
       <c r="AY209" s="128" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="AZ209" s="128"/>
       <c r="BA209" s="128"/>
@@ -30827,10 +30897,10 @@
     </row>
     <row r="210" spans="1:57" ht="28.8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A210" s="192" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="B210" s="119" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="C210" s="120"/>
       <c r="D210" s="121"/>
@@ -30880,22 +30950,22 @@
       </c>
       <c r="AQ210" s="125"/>
       <c r="AR210" s="126" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="AS210" s="127" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="AT210" s="127" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="AU210" s="128"/>
       <c r="AV210" s="128" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="AW210" s="128"/>
       <c r="AX210" s="128"/>
       <c r="AY210" s="128" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="AZ210" s="128"/>
       <c r="BA210" s="128"/>
@@ -30903,10 +30973,10 @@
     </row>
     <row r="211" spans="1:57" ht="28.8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A211" s="192" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="B211" s="119" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="C211" s="120"/>
       <c r="D211" s="121"/>
@@ -30956,22 +31026,22 @@
       </c>
       <c r="AQ211" s="125"/>
       <c r="AR211" s="126" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="AS211" s="127" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="AT211" s="127" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="AU211" s="128"/>
       <c r="AV211" s="128" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="AW211" s="128"/>
       <c r="AX211" s="128"/>
       <c r="AY211" s="128" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="AZ211" s="128"/>
       <c r="BA211" s="128"/>
@@ -30979,10 +31049,10 @@
     </row>
     <row r="212" spans="1:57" ht="28.8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A212" s="192" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="B212" s="119" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="C212" s="120"/>
       <c r="D212" s="121"/>
@@ -31032,22 +31102,22 @@
       </c>
       <c r="AQ212" s="125"/>
       <c r="AR212" s="126" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="AS212" s="127" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="AT212" s="127" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="AU212" s="128"/>
       <c r="AV212" s="128" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="AW212" s="128"/>
       <c r="AX212" s="128"/>
       <c r="AY212" s="128" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="AZ212" s="128"/>
       <c r="BA212" s="128"/>
@@ -38744,10 +38814,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="217" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="B1" s="217" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -38755,15 +38825,15 @@
         <v>127</v>
       </c>
       <c r="B2" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="B3" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -38771,7 +38841,7 @@
         <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -38779,7 +38849,7 @@
         <v>63</v>
       </c>
       <c r="B5" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -38787,15 +38857,15 @@
         <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B7" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -38803,7 +38873,7 @@
         <v>165</v>
       </c>
       <c r="B8" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -38811,7 +38881,7 @@
         <v>110</v>
       </c>
       <c r="B9" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -38819,31 +38889,31 @@
         <v>119</v>
       </c>
       <c r="B10" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="B11" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B12" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B13" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -38851,15 +38921,15 @@
         <v>121</v>
       </c>
       <c r="B14" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="B15" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -38867,7 +38937,7 @@
         <v>50</v>
       </c>
       <c r="B16" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -38875,7 +38945,7 @@
         <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -38883,7 +38953,7 @@
         <v>46</v>
       </c>
       <c r="B18" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -38891,55 +38961,55 @@
         <v>88</v>
       </c>
       <c r="B19" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B20" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="B21" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B22" t="s">
-        <v>695</v>
+        <v>687</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="B23" s="275" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="B24" s="274" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="B25" s="274" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -38947,34 +39017,34 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="B27" s="274" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="B28" s="274" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="B29" s="274" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="B30" s="274" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
     </row>
   </sheetData>
@@ -39001,82 +39071,82 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="217" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C1" s="223" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="H1" s="217" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C2" s="222" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="H2" s="218">
         <f ca="1">TODAY()</f>
-        <v>44312</v>
+        <v>44320</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="C3" s="222" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C4" s="222" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="C5" s="222" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="C6" s="222" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C7" s="222" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C8" s="222" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C9" s="222" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C10" s="222" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C11" s="222" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
     </row>
   </sheetData>
@@ -39105,19 +39175,19 @@
   <sheetData>
     <row r="1" spans="1:7" s="225" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="250" t="s">
+        <v>288</v>
+      </c>
+      <c r="B1" s="251" t="s">
+        <v>286</v>
+      </c>
+      <c r="C1" s="251" t="s">
+        <v>299</v>
+      </c>
+      <c r="D1" s="251" t="s">
+        <v>389</v>
+      </c>
+      <c r="E1" s="251" t="s">
         <v>291</v>
-      </c>
-      <c r="B1" s="251" t="s">
-        <v>289</v>
-      </c>
-      <c r="C1" s="251" t="s">
-        <v>302</v>
-      </c>
-      <c r="D1" s="251" t="s">
-        <v>395</v>
-      </c>
-      <c r="E1" s="251" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="241" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -39134,7 +39204,7 @@
     </row>
     <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="229" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B3" s="230" t="str">
         <f>IF(VLOOKUP(A3,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A3,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -39156,11 +39226,11 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="229" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B4" s="230" t="str">
         <f>IF(VLOOKUP(A4,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A4,EML_Tool_WP!A:BB,2,FALSE))</f>
-        <v>Estimator Blackthorn for Latency (NVIDIA)</v>
+        <v>Latency Estimator Blackthorn (NVIDIA)</v>
       </c>
       <c r="C4" s="230" t="str">
         <f>IFERROR(VLOOKUP(VLOOKUP(A4,EML_Tool_WP!A:BB,46,FALSE),Members!A:B,2,FALSE),"")</f>
@@ -39178,11 +39248,11 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="229" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B5" s="230" t="str">
         <f>IF(VLOOKUP(A5,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A5,EML_Tool_WP!A:BB,2,FALSE))</f>
-        <v>Estimator method ANETTE for Latency (Intel, ARM, Xilinx)</v>
+        <v>Latency Estimator ANETTE (Intel, ARM, Xilinx)</v>
       </c>
       <c r="C5" s="230" t="str">
         <f>IFERROR(VLOOKUP(VLOOKUP(A5,EML_Tool_WP!A:BB,46,FALSE),Members!A:B,2,FALSE),"")</f>
@@ -39200,11 +39270,11 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="229" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B6" s="230" t="str">
         <f>IF(VLOOKUP(A6,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A6,EML_Tool_WP!A:BB,2,FALSE))</f>
-        <v>Estimation of Power through a White box model</v>
+        <v>Power Estimator through Christian's Model</v>
       </c>
       <c r="C6" s="230" t="str">
         <f>IFERROR(VLOOKUP(VLOOKUP(A6,EML_Tool_WP!A:BB,46,FALSE),Members!A:B,2,FALSE),"")</f>
@@ -39212,21 +39282,21 @@
       </c>
       <c r="D6" s="230" t="str">
         <f>IF(VLOOKUP(A6,EML_Tool_WP!A:BB,51,FALSE)="","",VLOOKUP(A6,EML_Tool_WP!A:BB,51,FALSE))</f>
-        <v/>
+        <v>Repository, Publication</v>
       </c>
       <c r="E6" s="230" t="str">
         <f>IF(VLOOKUP(A6,EML_Tool_WP!A:BB,48,FALSE)="","",VLOOKUP(A6,EML_Tool_WP!A:BB,48,FALSE))</f>
-        <v>cancelled</v>
+        <v>open</v>
       </c>
       <c r="G6" s="267"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="229" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B7" s="230" t="str">
         <f>IF(VLOOKUP(A7,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A7,EML_Tool_WP!A:BB,2,FALSE))</f>
-        <v>Estimation of Power through ANNETTE</v>
+        <v>Power Estimator through ANNETTE</v>
       </c>
       <c r="C7" s="230" t="str">
         <f>IFERROR(VLOOKUP(VLOOKUP(A7,EML_Tool_WP!A:BB,46,FALSE),Members!A:B,2,FALSE),"")</f>
@@ -39244,7 +39314,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="229" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B8" s="230" t="str">
         <f>IF(VLOOKUP(A8,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A8,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -39277,7 +39347,7 @@
     </row>
     <row r="10" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="229" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B10" s="230" t="str">
         <f>IF(VLOOKUP(A10,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A10,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -39298,7 +39368,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="229" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B11" s="230" t="str">
         <f>IF(VLOOKUP(A11,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A11,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -39319,7 +39389,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="229" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B12" s="230" t="str">
         <f>IF(VLOOKUP(A12,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A12,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -39340,7 +39410,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="229" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B13" s="230" t="str">
         <f>IF(VLOOKUP(A13,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A13,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -39361,7 +39431,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="229" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
       <c r="B14" s="230" t="str">
         <f>IF(VLOOKUP(A14,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A14,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -39394,7 +39464,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="229" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B16" s="230" t="str">
         <f>IF(VLOOKUP(A16,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A16,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -39415,7 +39485,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="229" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B17" s="230" t="str">
         <f>IF(VLOOKUP(A17,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A17,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -39436,7 +39506,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="229" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B18" s="230" t="str">
         <f>IF(VLOOKUP(A18,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A18,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -39457,7 +39527,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="229" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B19" s="230" t="str">
         <f>IF(VLOOKUP(A19,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A19,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -39478,7 +39548,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="229" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B20" s="230" t="str">
         <f>IF(VLOOKUP(A20,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A20,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -39499,7 +39569,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="229" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B21" s="230" t="str">
         <f>IF(VLOOKUP(A21,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A21,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -39520,7 +39590,7 @@
     </row>
     <row r="22" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="229" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="B22" s="230" t="str">
         <f>IF(VLOOKUP(A22,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A22,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -39553,7 +39623,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="229" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B24" s="230" t="str">
         <f>IF(VLOOKUP(A24,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A24,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -39574,7 +39644,7 @@
     </row>
     <row r="25" spans="1:6" s="273" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="268" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B25" s="239" t="str">
         <f>IF(VLOOKUP(A25,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A25,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -39596,7 +39666,7 @@
     </row>
     <row r="26" spans="1:6" s="273" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="268" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B26" s="239" t="str">
         <f>IF(VLOOKUP(A26,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A26,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -39618,7 +39688,7 @@
     </row>
     <row r="27" spans="1:6" s="273" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="268" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B27" s="239" t="str">
         <f>IF(VLOOKUP(A27,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A27,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -39652,7 +39722,7 @@
     </row>
     <row r="29" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="229" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B29" s="230" t="str">
         <f>IF(VLOOKUP(A29,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A29,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -39673,7 +39743,7 @@
     </row>
     <row r="30" spans="1:6" s="273" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="268" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B30" s="239" t="str">
         <f>IF(VLOOKUP(A30,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A30,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -39719,7 +39789,7 @@
     </row>
     <row r="33" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="229" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B33" s="230" t="str">
         <f>IF(VLOOKUP(A33,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A33,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -39740,7 +39810,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="229" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B34" s="230" t="str">
         <f>IF(VLOOKUP(A34,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A34,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -39761,7 +39831,7 @@
     </row>
     <row r="35" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="229" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B35" s="230" t="str">
         <f>IF(VLOOKUP(A35,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A35,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -39782,7 +39852,7 @@
     </row>
     <row r="36" spans="1:6" s="273" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="268" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="B36" s="239" t="str">
         <f>IF(VLOOKUP(A36,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A36,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -39816,7 +39886,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="229" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B38" s="230" t="str">
         <f>IF(VLOOKUP(A38,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A38,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -39837,7 +39907,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="229" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B39" s="230" t="str">
         <f>IF(VLOOKUP(A39,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A39,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -39858,7 +39928,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="229" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B40" s="230" t="str">
         <f>IF(VLOOKUP(A40,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A40,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -39879,7 +39949,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="229" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B41" s="230" t="str">
         <f>IF(VLOOKUP(A41,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A41,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -39900,7 +39970,7 @@
     </row>
     <row r="42" spans="1:6" s="273" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="268" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B42" s="239" t="str">
         <f>IF(VLOOKUP(A42,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A42,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -39922,7 +39992,7 @@
     </row>
     <row r="43" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="229" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B43" s="230" t="str">
         <f>IF(VLOOKUP(A43,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A43,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -39943,7 +40013,7 @@
     </row>
     <row r="44" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="229" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B44" s="230" t="str">
         <f>IF(VLOOKUP(A44,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A44,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -39964,7 +40034,7 @@
     </row>
     <row r="45" spans="1:6" s="273" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="268" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B45" s="239" t="str">
         <f>IF(VLOOKUP(A45,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A45,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -39986,7 +40056,7 @@
     </row>
     <row r="46" spans="1:6" s="273" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="268" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="B46" s="239" t="str">
         <f>IF(VLOOKUP(A46,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A46,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -40156,28 +40226,28 @@
   <sheetData>
     <row r="1" spans="1:10" s="225" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="250" t="s">
+        <v>288</v>
+      </c>
+      <c r="B1" s="251" t="s">
+        <v>286</v>
+      </c>
+      <c r="C1" s="252" t="s">
+        <v>289</v>
+      </c>
+      <c r="D1" s="251" t="s">
+        <v>492</v>
+      </c>
+      <c r="E1" s="251" t="s">
+        <v>389</v>
+      </c>
+      <c r="F1" s="253" t="s">
+        <v>206</v>
+      </c>
+      <c r="G1" s="251" t="s">
         <v>291</v>
       </c>
-      <c r="B1" s="251" t="s">
-        <v>289</v>
-      </c>
-      <c r="C1" s="252" t="s">
-        <v>292</v>
-      </c>
-      <c r="D1" s="251" t="s">
-        <v>500</v>
-      </c>
-      <c r="E1" s="251" t="s">
-        <v>395</v>
-      </c>
-      <c r="F1" s="253" t="s">
-        <v>207</v>
-      </c>
-      <c r="G1" s="251" t="s">
-        <v>294</v>
-      </c>
       <c r="H1" s="254" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="241" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -40193,14 +40263,14 @@
       <c r="E2" s="247"/>
       <c r="F2" s="261">
         <f>IF(VLOOKUP(A2,EML_Tool_WP!A:BB,42,FALSE)="","",VLOOKUP(A2,EML_Tool_WP!A:BB,42,FALSE))</f>
-        <v>0.54594594594594592</v>
+        <v>0.51891891891891895</v>
       </c>
       <c r="G2" s="247"/>
       <c r="H2" s="249"/>
     </row>
     <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="229" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B3" s="230" t="str">
         <f>IF(VLOOKUP(A3,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A3,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -40234,11 +40304,11 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="229" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B4" s="230" t="str">
         <f>IF(VLOOKUP(A4,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A4,EML_Tool_WP!A:BB,2,FALSE))</f>
-        <v>Estimator Blackthorn for Latency (NVIDIA)</v>
+        <v>Latency Estimator Blackthorn (NVIDIA)</v>
       </c>
       <c r="C4" s="231">
         <f>IF(VLOOKUP(A4,EML_Tool_WP!A:BB,39,FALSE)="","",VLOOKUP(A4,EML_Tool_WP!A:BB,39,FALSE))</f>
@@ -40268,11 +40338,11 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="229" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B5" s="230" t="str">
         <f>IF(VLOOKUP(A5,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A5,EML_Tool_WP!A:BB,2,FALSE))</f>
-        <v>Estimator method ANETTE for Latency (Intel, ARM, Xilinx)</v>
+        <v>Latency Estimator ANETTE (Intel, ARM, Xilinx)</v>
       </c>
       <c r="C5" s="231">
         <f>IF(VLOOKUP(A5,EML_Tool_WP!A:BB,39,FALSE)="","",VLOOKUP(A5,EML_Tool_WP!A:BB,39,FALSE))</f>
@@ -40302,11 +40372,11 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="229" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B6" s="230" t="str">
         <f>IF(VLOOKUP(A6,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A6,EML_Tool_WP!A:BB,2,FALSE))</f>
-        <v>Estimation of Power through a White box model</v>
+        <v>Power Estimator through Christian's Model</v>
       </c>
       <c r="C6" s="231">
         <f>IF(VLOOKUP(A6,EML_Tool_WP!A:BB,39,FALSE)="","",VLOOKUP(A6,EML_Tool_WP!A:BB,39,FALSE))</f>
@@ -40318,15 +40388,15 @@
       </c>
       <c r="E6" s="230" t="str">
         <f>IF(VLOOKUP(A6,EML_Tool_WP!A:BB,51,FALSE)="","",VLOOKUP(A6,EML_Tool_WP!A:BB,51,FALSE))</f>
-        <v/>
+        <v>Repository, Publication</v>
       </c>
       <c r="F6" s="233">
         <f>IF(VLOOKUP(A6,EML_Tool_WP!A:BB,42,FALSE)="","",VLOOKUP(A6,EML_Tool_WP!A:BB,42,FALSE))</f>
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G6" s="230" t="str">
         <f>IF(VLOOKUP(A6,EML_Tool_WP!A:BB,48,FALSE)="","",VLOOKUP(A6,EML_Tool_WP!A:BB,48,FALSE))</f>
-        <v>cancelled</v>
+        <v>open</v>
       </c>
       <c r="H6" s="240" t="str">
         <f>IF(VLOOKUP(A6,EML_Tool_WP!A:BB,54,FALSE)="","",VLOOKUP(A6,EML_Tool_WP!A:BB,54,FALSE))</f>
@@ -40336,11 +40406,11 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="229" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B7" s="230" t="str">
         <f>IF(VLOOKUP(A7,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A7,EML_Tool_WP!A:BB,2,FALSE))</f>
-        <v>Estimation of Power through ANNETTE</v>
+        <v>Power Estimator through ANNETTE</v>
       </c>
       <c r="C7" s="231">
         <f>IF(VLOOKUP(A7,EML_Tool_WP!A:BB,39,FALSE)="","",VLOOKUP(A7,EML_Tool_WP!A:BB,39,FALSE))</f>
@@ -40370,7 +40440,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="229" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B8" s="230" t="str">
         <f>IF(VLOOKUP(A8,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A8,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -40421,7 +40491,7 @@
     </row>
     <row r="10" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="229" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B10" s="230" t="str">
         <f>IF(VLOOKUP(A10,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A10,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -40454,7 +40524,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="229" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B11" s="230" t="str">
         <f>IF(VLOOKUP(A11,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A11,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -40487,7 +40557,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="229" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B12" s="230" t="str">
         <f>IF(VLOOKUP(A12,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A12,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -40520,7 +40590,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="229" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B13" s="230" t="str">
         <f>IF(VLOOKUP(A13,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A13,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -40553,7 +40623,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="229" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
       <c r="B14" s="230" t="str">
         <f>IF(VLOOKUP(A14,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A14,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -40604,7 +40674,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="229" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B16" s="230" t="str">
         <f>IF(VLOOKUP(A16,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A16,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -40637,7 +40707,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="229" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B17" s="230" t="str">
         <f>IF(VLOOKUP(A17,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A17,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -40670,7 +40740,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="229" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B18" s="230" t="str">
         <f>IF(VLOOKUP(A18,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A18,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -40703,7 +40773,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="229" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B19" s="230" t="str">
         <f>IF(VLOOKUP(A19,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A19,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -40736,7 +40806,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="229" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B20" s="230" t="str">
         <f>IF(VLOOKUP(A20,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A20,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -40769,7 +40839,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="229" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B21" s="230" t="str">
         <f>IF(VLOOKUP(A21,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A21,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -40802,7 +40872,7 @@
     </row>
     <row r="22" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="229" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="B22" s="230" t="str">
         <f>IF(VLOOKUP(A22,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A22,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -40853,7 +40923,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="229" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B24" s="230" t="str">
         <f>IF(VLOOKUP(A24,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A24,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -40886,7 +40956,7 @@
     </row>
     <row r="25" spans="1:9" s="273" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="268" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B25" s="239" t="str">
         <f>IF(VLOOKUP(A25,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A25,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -40920,7 +40990,7 @@
     </row>
     <row r="26" spans="1:9" s="273" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="268" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B26" s="239" t="str">
         <f>IF(VLOOKUP(A26,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A26,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -40954,7 +41024,7 @@
     </row>
     <row r="27" spans="1:9" s="273" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="268" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B27" s="239" t="str">
         <f>IF(VLOOKUP(A27,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A27,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -41006,7 +41076,7 @@
     </row>
     <row r="29" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="229" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B29" s="230" t="str">
         <f>IF(VLOOKUP(A29,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A29,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -41039,7 +41109,7 @@
     </row>
     <row r="30" spans="1:9" s="273" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="268" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B30" s="239" t="str">
         <f>IF(VLOOKUP(A30,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A30,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -41109,7 +41179,7 @@
     </row>
     <row r="33" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="229" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B33" s="230" t="str">
         <f>IF(VLOOKUP(A33,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A33,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -41142,7 +41212,7 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="229" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B34" s="230" t="str">
         <f>IF(VLOOKUP(A34,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A34,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -41175,7 +41245,7 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="229" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B35" s="230" t="str">
         <f>IF(VLOOKUP(A35,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A35,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -41208,7 +41278,7 @@
     </row>
     <row r="36" spans="1:9" s="273" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="268" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="B36" s="239" t="str">
         <f>IF(VLOOKUP(A36,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A36,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -41260,7 +41330,7 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="229" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B38" s="230" t="str">
         <f>IF(VLOOKUP(A38,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A38,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -41293,7 +41363,7 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="229" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B39" s="230" t="str">
         <f>IF(VLOOKUP(A39,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A39,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -41326,7 +41396,7 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="229" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B40" s="230" t="str">
         <f>IF(VLOOKUP(A40,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A40,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -41359,7 +41429,7 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="229" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B41" s="230" t="str">
         <f>IF(VLOOKUP(A41,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A41,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -41392,7 +41462,7 @@
     </row>
     <row r="42" spans="1:9" s="273" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="268" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B42" s="239" t="str">
         <f>IF(VLOOKUP(A42,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A42,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -41426,7 +41496,7 @@
     </row>
     <row r="43" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="229" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B43" s="230" t="str">
         <f>IF(VLOOKUP(A43,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A43,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -41459,7 +41529,7 @@
     </row>
     <row r="44" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="229" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B44" s="230" t="str">
         <f>IF(VLOOKUP(A44,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A44,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -41492,7 +41562,7 @@
     </row>
     <row r="45" spans="1:9" s="273" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="268" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B45" s="239" t="str">
         <f>IF(VLOOKUP(A45,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A45,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -41526,7 +41596,7 @@
     </row>
     <row r="46" spans="1:9" s="273" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="268" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="B46" s="239" t="str">
         <f>IF(VLOOKUP(A46,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A46,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -41830,34 +41900,34 @@
   <sheetData>
     <row r="1" spans="1:10" s="225" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="250" t="s">
+        <v>288</v>
+      </c>
+      <c r="B1" s="251" t="s">
+        <v>286</v>
+      </c>
+      <c r="C1" s="252" t="s">
+        <v>289</v>
+      </c>
+      <c r="D1" s="251" t="s">
+        <v>492</v>
+      </c>
+      <c r="E1" s="253" t="s">
+        <v>206</v>
+      </c>
+      <c r="F1" s="251" t="s">
         <v>291</v>
       </c>
-      <c r="B1" s="251" t="s">
-        <v>289</v>
-      </c>
-      <c r="C1" s="252" t="s">
-        <v>292</v>
-      </c>
-      <c r="D1" s="251" t="s">
-        <v>500</v>
-      </c>
-      <c r="E1" s="253" t="s">
-        <v>207</v>
-      </c>
-      <c r="F1" s="251" t="s">
-        <v>294</v>
-      </c>
       <c r="G1" s="323" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="H1" s="251" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
       <c r="I1" s="251" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="J1" s="251" t="s">
-        <v>735</v>
+        <v>727</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="241" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -41872,19 +41942,19 @@
       <c r="D2" s="247"/>
       <c r="E2" s="261">
         <f>IF(VLOOKUP(A2,EML_Tool_WP!A:BB,42,FALSE)="","",VLOOKUP(A2,EML_Tool_WP!A:BB,42,FALSE))</f>
-        <v>0.54594594594594592</v>
+        <v>0.51891891891891895</v>
       </c>
       <c r="F2" s="247"/>
       <c r="G2" s="324"/>
       <c r="H2" s="247"/>
       <c r="I2" s="247"/>
       <c r="J2" s="324" t="s">
-        <v>734</v>
+        <v>726</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="229" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B3" s="230" t="str">
         <f>IF(VLOOKUP(A3,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A3,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -41925,11 +41995,11 @@
     </row>
     <row r="4" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="229" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B4" s="230" t="str">
         <f>IF(VLOOKUP(A4,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A4,EML_Tool_WP!A:BB,2,FALSE))</f>
-        <v>Estimator Blackthorn for Latency (NVIDIA)</v>
+        <v>Latency Estimator Blackthorn (NVIDIA)</v>
       </c>
       <c r="C4" s="231">
         <f>IF(VLOOKUP(A4,EML_Tool_WP!A:BB,39,FALSE)="","",VLOOKUP(A4,EML_Tool_WP!A:BB,39,FALSE))</f>
@@ -41971,11 +42041,11 @@
     </row>
     <row r="5" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A5" s="229" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B5" s="230" t="str">
         <f>IF(VLOOKUP(A5,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A5,EML_Tool_WP!A:BB,2,FALSE))</f>
-        <v>Estimator method ANETTE for Latency (Intel, ARM, Xilinx)</v>
+        <v>Latency Estimator ANETTE (Intel, ARM, Xilinx)</v>
       </c>
       <c r="C5" s="231">
         <f>IF(VLOOKUP(A5,EML_Tool_WP!A:BB,39,FALSE)="","",VLOOKUP(A5,EML_Tool_WP!A:BB,39,FALSE))</f>
@@ -42018,11 +42088,11 @@
     </row>
     <row r="6" spans="1:10" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="229" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B6" s="230" t="str">
         <f>IF(VLOOKUP(A6,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A6,EML_Tool_WP!A:BB,2,FALSE))</f>
-        <v>Estimation of Power through a White box model</v>
+        <v>Power Estimator through Christian's Model</v>
       </c>
       <c r="C6" s="231">
         <f>IF(VLOOKUP(A6,EML_Tool_WP!A:BB,39,FALSE)="","",VLOOKUP(A6,EML_Tool_WP!A:BB,39,FALSE))</f>
@@ -42034,19 +42104,22 @@
       </c>
       <c r="E6" s="233">
         <f>IF(VLOOKUP(A6,EML_Tool_WP!A:BB,42,FALSE)="","",VLOOKUP(A6,EML_Tool_WP!A:BB,42,FALSE))</f>
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F6" s="230" t="str">
         <f>IF(VLOOKUP(A6,EML_Tool_WP!A:BB,48,FALSE)="","",VLOOKUP(A6,EML_Tool_WP!A:BB,48,FALSE))</f>
-        <v>cancelled</v>
+        <v>open</v>
       </c>
       <c r="G6" s="325" t="str">
         <f>IF(VLOOKUP(A6,EML_Tool_WP!A:BB,50,FALSE)="","",VLOOKUP(A6,EML_Tool_WP!A:BB,50,FALSE))</f>
-        <v/>
+        <v>Accurate power estimation method for power-aware optimization applications</v>
       </c>
       <c r="H6" s="231" t="str">
         <f>IF(VLOOKUP(A6,EML_Tool_WP!A:BB,52,FALSE)="","",VLOOKUP(A6,EML_Tool_WP!A:BB,52,FALSE))</f>
-        <v/>
+        <v>[] Estimation Model Xilinx
+[] Comparison Performance to ANETTE
+[] Publication about this method
+[] Repository with user friendly execution code</v>
       </c>
       <c r="I6" s="231" t="str">
         <f>IF(VLOOKUP(A6,EML_Tool_WP!A:BB,53,FALSE)="","",VLOOKUP(A6,EML_Tool_WP!A:BB,53,FALSE))</f>
@@ -42059,11 +42132,11 @@
     </row>
     <row r="7" spans="1:10" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="229" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B7" s="230" t="str">
         <f>IF(VLOOKUP(A7,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A7,EML_Tool_WP!A:BB,2,FALSE))</f>
-        <v>Estimation of Power through ANNETTE</v>
+        <v>Power Estimator through ANNETTE</v>
       </c>
       <c r="C7" s="231">
         <f>IF(VLOOKUP(A7,EML_Tool_WP!A:BB,39,FALSE)="","",VLOOKUP(A7,EML_Tool_WP!A:BB,39,FALSE))</f>
@@ -42102,7 +42175,7 @@
     </row>
     <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="229" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B8" s="230" t="str">
         <f>IF(VLOOKUP(A8,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A8,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -42160,12 +42233,12 @@
       <c r="H9" s="242"/>
       <c r="I9" s="242"/>
       <c r="J9" s="324" t="s">
-        <v>734</v>
+        <v>726</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="144" x14ac:dyDescent="0.3">
       <c r="A10" s="229" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B10" s="230" t="str">
         <f>IF(VLOOKUP(A10,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A10,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -42210,7 +42283,7 @@
     </row>
     <row r="11" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A11" s="229" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B11" s="230" t="str">
         <f>IF(VLOOKUP(A11,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A11,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -42254,7 +42327,7 @@
     </row>
     <row r="12" spans="1:10" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="229" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B12" s="230" t="str">
         <f>IF(VLOOKUP(A12,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A12,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -42297,7 +42370,7 @@
     </row>
     <row r="13" spans="1:10" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="229" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B13" s="230" t="str">
         <f>IF(VLOOKUP(A13,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A13,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -42340,7 +42413,7 @@
     </row>
     <row r="14" spans="1:10" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="229" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
       <c r="B14" s="230" t="str">
         <f>IF(VLOOKUP(A14,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A14,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -42400,12 +42473,12 @@
       <c r="H15" s="242"/>
       <c r="I15" s="242"/>
       <c r="J15" s="324" t="s">
-        <v>734</v>
+        <v>726</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="229" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B16" s="230" t="str">
         <f>IF(VLOOKUP(A16,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A16,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -42449,7 +42522,7 @@
     </row>
     <row r="17" spans="1:10" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="229" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B17" s="230" t="str">
         <f>IF(VLOOKUP(A17,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A17,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -42495,7 +42568,7 @@
     </row>
     <row r="18" spans="1:10" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="229" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B18" s="230" t="str">
         <f>IF(VLOOKUP(A18,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A18,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -42541,7 +42614,7 @@
     </row>
     <row r="19" spans="1:10" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="229" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B19" s="230" t="str">
         <f>IF(VLOOKUP(A19,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A19,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -42587,7 +42660,7 @@
     </row>
     <row r="20" spans="1:10" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="229" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B20" s="230" t="str">
         <f>IF(VLOOKUP(A20,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A20,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -42632,7 +42705,7 @@
     </row>
     <row r="21" spans="1:10" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="229" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B21" s="230" t="str">
         <f>IF(VLOOKUP(A21,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A21,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -42677,7 +42750,7 @@
     </row>
     <row r="22" spans="1:10" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="229" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="B22" s="230" t="str">
         <f>IF(VLOOKUP(A22,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A22,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -42738,12 +42811,12 @@
       <c r="H23" s="242"/>
       <c r="I23" s="242"/>
       <c r="J23" s="324" t="s">
-        <v>734</v>
+        <v>726</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="229" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B24" s="230" t="str">
         <f>IF(VLOOKUP(A24,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A24,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -42786,7 +42859,7 @@
     </row>
     <row r="25" spans="1:10" s="273" customFormat="1" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="268" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B25" s="239" t="str">
         <f>IF(VLOOKUP(A25,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A25,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -42827,7 +42900,7 @@
     </row>
     <row r="26" spans="1:10" s="273" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="268" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B26" s="239" t="str">
         <f>IF(VLOOKUP(A26,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A26,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -42868,7 +42941,7 @@
     </row>
     <row r="27" spans="1:10" s="273" customFormat="1" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="268" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B27" s="239" t="str">
         <f>IF(VLOOKUP(A27,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A27,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -42927,12 +43000,12 @@
       <c r="H28" s="242"/>
       <c r="I28" s="242"/>
       <c r="J28" s="324" t="s">
-        <v>734</v>
+        <v>726</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="229" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B29" s="230" t="str">
         <f>IF(VLOOKUP(A29,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A29,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -42977,7 +43050,7 @@
     </row>
     <row r="30" spans="1:10" s="273" customFormat="1" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="268" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B30" s="239" t="str">
         <f>IF(VLOOKUP(A30,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A30,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -43037,7 +43110,7 @@
       <c r="H31" s="242"/>
       <c r="I31" s="242"/>
       <c r="J31" s="324" t="s">
-        <v>734</v>
+        <v>726</v>
       </c>
     </row>
     <row r="32" spans="1:10" s="241" customFormat="1" x14ac:dyDescent="0.3">
@@ -43059,12 +43132,12 @@
       <c r="H32" s="242"/>
       <c r="I32" s="242"/>
       <c r="J32" s="324" t="s">
-        <v>734</v>
+        <v>726</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A33" s="229" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B33" s="230" t="str">
         <f>IF(VLOOKUP(A33,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A33,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -43108,7 +43181,7 @@
     </row>
     <row r="34" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A34" s="229" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B34" s="230" t="str">
         <f>IF(VLOOKUP(A34,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A34,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -43154,7 +43227,7 @@
     </row>
     <row r="35" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A35" s="229" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B35" s="230" t="str">
         <f>IF(VLOOKUP(A35,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A35,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -43196,7 +43269,7 @@
     </row>
     <row r="36" spans="1:10" s="273" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="268" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="B36" s="239" t="str">
         <f>IF(VLOOKUP(A36,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A36,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -43254,12 +43327,12 @@
       <c r="H37" s="242"/>
       <c r="I37" s="242"/>
       <c r="J37" s="324" t="s">
-        <v>734</v>
+        <v>726</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="229" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B38" s="230" t="str">
         <f>IF(VLOOKUP(A38,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A38,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -43301,7 +43374,7 @@
     </row>
     <row r="39" spans="1:10" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="229" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B39" s="230" t="str">
         <f>IF(VLOOKUP(A39,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A39,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -43345,7 +43418,7 @@
     </row>
     <row r="40" spans="1:10" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="229" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B40" s="230" t="str">
         <f>IF(VLOOKUP(A40,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A40,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -43386,7 +43459,7 @@
     </row>
     <row r="41" spans="1:10" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="229" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B41" s="230" t="str">
         <f>IF(VLOOKUP(A41,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A41,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -43427,7 +43500,7 @@
     </row>
     <row r="42" spans="1:10" s="273" customFormat="1" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="268" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B42" s="239" t="str">
         <f>IF(VLOOKUP(A42,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A42,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -43470,7 +43543,7 @@
     </row>
     <row r="43" spans="1:10" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="229" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B43" s="230" t="str">
         <f>IF(VLOOKUP(A43,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A43,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -43513,7 +43586,7 @@
     </row>
     <row r="44" spans="1:10" ht="144" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="229" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B44" s="230" t="str">
         <f>IF(VLOOKUP(A44,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A44,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -43558,7 +43631,7 @@
     </row>
     <row r="45" spans="1:10" s="273" customFormat="1" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="268" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B45" s="239" t="str">
         <f>IF(VLOOKUP(A45,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A45,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -43601,7 +43674,7 @@
     </row>
     <row r="46" spans="1:10" s="273" customFormat="1" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="268" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="B46" s="239" t="str">
         <f>IF(VLOOKUP(A46,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A46,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -43841,25 +43914,25 @@
   <sheetData>
     <row r="1" spans="1:9" s="225" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="250" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B1" s="251" t="s">
+        <v>286</v>
+      </c>
+      <c r="C1" s="252" t="s">
         <v>289</v>
       </c>
-      <c r="C1" s="252" t="s">
-        <v>292</v>
-      </c>
       <c r="D1" s="251" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="E1" s="251" t="s">
         <v>14</v>
       </c>
       <c r="F1" s="251" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G1" s="287" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="241" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -43876,12 +43949,12 @@
       <c r="F2" s="247"/>
       <c r="G2" s="288">
         <f>IF(VLOOKUP(A2,EML_Tool_WP!A:BB,42,FALSE)="","",VLOOKUP(A2,EML_Tool_WP!A:BB,42,FALSE))</f>
-        <v>0.54594594594594592</v>
+        <v>0.51891891891891895</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="229" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B3" s="230" t="str">
         <f>IF(VLOOKUP(A3,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A3,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -43911,11 +43984,11 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="229" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B4" s="230" t="str">
         <f>IF(VLOOKUP(A4,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A4,EML_Tool_WP!A:BB,2,FALSE))</f>
-        <v>Estimator Blackthorn for Latency (NVIDIA)</v>
+        <v>Latency Estimator Blackthorn (NVIDIA)</v>
       </c>
       <c r="C4" s="231">
         <f>IF(VLOOKUP(A4,EML_Tool_WP!A:BB,39,FALSE)="","",VLOOKUP(A4,EML_Tool_WP!A:BB,39,FALSE))</f>
@@ -43941,11 +44014,11 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="229" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B5" s="230" t="str">
         <f>IF(VLOOKUP(A5,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A5,EML_Tool_WP!A:BB,2,FALSE))</f>
-        <v>Estimator method ANETTE for Latency (Intel, ARM, Xilinx)</v>
+        <v>Latency Estimator ANETTE (Intel, ARM, Xilinx)</v>
       </c>
       <c r="C5" s="231">
         <f>IF(VLOOKUP(A5,EML_Tool_WP!A:BB,39,FALSE)="","",VLOOKUP(A5,EML_Tool_WP!A:BB,39,FALSE))</f>
@@ -43971,11 +44044,11 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="229" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B6" s="230" t="str">
         <f>IF(VLOOKUP(A6,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A6,EML_Tool_WP!A:BB,2,FALSE))</f>
-        <v>Estimation of Power through a White box model</v>
+        <v>Power Estimator through Christian's Model</v>
       </c>
       <c r="C6" s="231">
         <f>IF(VLOOKUP(A6,EML_Tool_WP!A:BB,39,FALSE)="","",VLOOKUP(A6,EML_Tool_WP!A:BB,39,FALSE))</f>
@@ -43995,17 +44068,17 @@
       </c>
       <c r="G6" s="289">
         <f>IF(VLOOKUP(A6,EML_Tool_WP!A:BB,42,FALSE)="","",VLOOKUP(A6,EML_Tool_WP!A:BB,42,FALSE))</f>
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I6" s="267"/>
     </row>
     <row r="7" spans="1:9" s="280" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="276" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B7" s="277" t="str">
         <f>IF(VLOOKUP(A7,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A7,EML_Tool_WP!A:BB,2,FALSE))</f>
-        <v>Estimation of Power through ANNETTE</v>
+        <v>Power Estimator through ANNETTE</v>
       </c>
       <c r="C7" s="278">
         <f>IF(VLOOKUP(A7,EML_Tool_WP!A:BB,39,FALSE)="","",VLOOKUP(A7,EML_Tool_WP!A:BB,39,FALSE))</f>
@@ -44032,7 +44105,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="229" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B8" s="230" t="str">
         <f>IF(VLOOKUP(A8,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A8,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -44078,7 +44151,7 @@
     </row>
     <row r="10" spans="1:9" s="273" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="268" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B10" s="239" t="str">
         <f>IF(VLOOKUP(A10,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A10,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -44108,7 +44181,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="229" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B11" s="230" t="str">
         <f>IF(VLOOKUP(A11,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A11,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -44137,7 +44210,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="229" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B12" s="230" t="str">
         <f>IF(VLOOKUP(A12,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A12,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -44166,7 +44239,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="229" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B13" s="230" t="str">
         <f>IF(VLOOKUP(A13,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A13,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -44195,7 +44268,7 @@
     </row>
     <row r="14" spans="1:9" s="280" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="276" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
       <c r="B14" s="277" t="str">
         <f>IF(VLOOKUP(A14,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A14,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -44242,7 +44315,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="229" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B16" s="230" t="str">
         <f>IF(VLOOKUP(A16,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A16,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -44271,7 +44344,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="229" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B17" s="230" t="str">
         <f>IF(VLOOKUP(A17,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A17,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -44300,7 +44373,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="229" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B18" s="230" t="str">
         <f>IF(VLOOKUP(A18,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A18,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -44329,7 +44402,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="229" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B19" s="230" t="str">
         <f>IF(VLOOKUP(A19,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A19,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -44358,7 +44431,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="229" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B20" s="230" t="str">
         <f>IF(VLOOKUP(A20,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A20,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -44387,7 +44460,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="229" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B21" s="230" t="str">
         <f>IF(VLOOKUP(A21,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A21,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -44416,7 +44489,7 @@
     </row>
     <row r="22" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="229" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="B22" s="230" t="str">
         <f>IF(VLOOKUP(A22,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A22,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -44462,7 +44535,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="229" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B24" s="230" t="str">
         <f>IF(VLOOKUP(A24,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A24,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -44491,7 +44564,7 @@
     </row>
     <row r="25" spans="1:8" s="273" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="268" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B25" s="239" t="str">
         <f>IF(VLOOKUP(A25,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A25,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -44521,7 +44594,7 @@
     </row>
     <row r="26" spans="1:8" s="273" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="268" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B26" s="239" t="str">
         <f>IF(VLOOKUP(A26,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A26,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -44551,7 +44624,7 @@
     </row>
     <row r="27" spans="1:8" s="273" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="268" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B27" s="239" t="str">
         <f>IF(VLOOKUP(A27,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A27,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -44598,7 +44671,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="229" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B29" s="230" t="str">
         <f>IF(VLOOKUP(A29,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A29,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -44627,7 +44700,7 @@
     </row>
     <row r="30" spans="1:8" s="273" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="268" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B30" s="239" t="str">
         <f>IF(VLOOKUP(A30,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A30,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -44691,7 +44764,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="229" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B33" s="230" t="str">
         <f>IF(VLOOKUP(A33,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A33,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -44720,7 +44793,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="229" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B34" s="230" t="str">
         <f>IF(VLOOKUP(A34,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A34,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -44749,7 +44822,7 @@
     </row>
     <row r="35" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="229" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B35" s="230" t="str">
         <f>IF(VLOOKUP(A35,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A35,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -44778,7 +44851,7 @@
     </row>
     <row r="36" spans="1:8" s="280" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="276" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="B36" s="277" t="str">
         <f>IF(VLOOKUP(A36,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A36,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -44825,7 +44898,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="229" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B38" s="230" t="str">
         <f>IF(VLOOKUP(A38,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A38,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -44854,7 +44927,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="229" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B39" s="230" t="str">
         <f>IF(VLOOKUP(A39,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A39,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -44883,7 +44956,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="229" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B40" s="230" t="str">
         <f>IF(VLOOKUP(A40,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A40,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -44912,7 +44985,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="229" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B41" s="230" t="str">
         <f>IF(VLOOKUP(A41,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A41,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -44941,7 +45014,7 @@
     </row>
     <row r="42" spans="1:8" s="273" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="268" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B42" s="239" t="str">
         <f>IF(VLOOKUP(A42,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A42,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -44971,7 +45044,7 @@
     </row>
     <row r="43" spans="1:8" s="273" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="268" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B43" s="239" t="str">
         <f>IF(VLOOKUP(A43,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A43,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -45001,7 +45074,7 @@
     </row>
     <row r="44" spans="1:8" s="273" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="268" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B44" s="239" t="str">
         <f>IF(VLOOKUP(A44,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A44,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -45031,7 +45104,7 @@
     </row>
     <row r="45" spans="1:8" s="273" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="268" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B45" s="239" t="str">
         <f>IF(VLOOKUP(A45,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A45,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -45061,7 +45134,7 @@
     </row>
     <row r="46" spans="1:8" s="285" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="281" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="B46" s="282" t="str">
         <f>IF(VLOOKUP(A46,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A46,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -45091,7 +45164,7 @@
     </row>
     <row r="47" spans="1:8" s="241" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="244" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="B47" s="242" t="str">
         <f>IF(VLOOKUP(A47,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A47,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -45105,7 +45178,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="262" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="B48" s="239" t="str">
         <f>IF(VLOOKUP(A48,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A48,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -45134,7 +45207,7 @@
     </row>
     <row r="49" spans="1:8" s="285" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="286" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="B49" s="282" t="str">
         <f>IF(VLOOKUP(A49,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A49,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -45164,7 +45237,7 @@
     </row>
     <row r="50" spans="1:8" s="285" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="286" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="B50" s="282" t="str">
         <f>IF(VLOOKUP(A50,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A50,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -45194,7 +45267,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="262" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="B51" s="239" t="str">
         <f>IF(VLOOKUP(A51,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A51,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -45292,8 +45365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEA257A2-AF02-4FFE-B2EC-6ADA8BB9606C}">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -45307,31 +45380,31 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="294" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B1" s="224" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C1" s="224" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D1" s="224" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="E1" s="237" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="226" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="B2" s="227"/>
       <c r="C2" s="227" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="D2" s="227" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="E2" s="258" t="str">
         <f>VLOOKUP(A2,AG_Students!F:F,1,FALSE)</f>
@@ -45340,13 +45413,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="229" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C3" s="230" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="D3" s="230" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="E3" s="258" t="str">
         <f>VLOOKUP(A3,AG_Students!F:F,1,FALSE)</f>
@@ -45355,13 +45428,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="229" t="s">
-        <v>695</v>
+        <v>687</v>
+      </c>
+      <c r="B4" s="230" t="s">
+        <v>756</v>
       </c>
       <c r="C4" s="230" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="D4" s="230" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="E4" s="258" t="str">
         <f>VLOOKUP(A4,AG_Students!F:F,1,FALSE)</f>
@@ -45370,16 +45446,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="229" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="B5" s="230" t="s">
-        <v>764</v>
+        <v>755</v>
       </c>
       <c r="C5" s="230" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="D5" s="230" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="E5" s="258" t="str">
         <f>VLOOKUP(A5,AG_Students!F:F,1,FALSE)</f>
@@ -45388,16 +45464,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="229" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="B6" s="230" t="s">
-        <v>751</v>
+        <v>743</v>
       </c>
       <c r="C6" s="230" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="D6" s="230" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="E6" s="258" t="str">
         <f>VLOOKUP(A6,AG_Students!F:F,1,FALSE)</f>
@@ -45406,16 +45482,16 @@
     </row>
     <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="229" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="B7" s="230" t="s">
-        <v>753</v>
+        <v>745</v>
       </c>
       <c r="C7" s="230" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="D7" s="230" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="E7" s="258" t="str">
         <f>VLOOKUP(A7,AG_Students!F:F,1,FALSE)</f>
@@ -45424,16 +45500,16 @@
     </row>
     <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="229" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="B8" s="230" t="s">
-        <v>752</v>
+        <v>744</v>
       </c>
       <c r="C8" s="230" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="D8" s="230" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="E8" s="258" t="str">
         <f>VLOOKUP(A8,AG_Students!F:F,1,FALSE)</f>
@@ -45442,16 +45518,16 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="229" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B9" s="230" t="s">
-        <v>757</v>
+        <v>749</v>
       </c>
       <c r="C9" s="230" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="D9" s="230" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="E9" s="258" t="str">
         <f>VLOOKUP(A9,AG_Students!F:F,1,FALSE)</f>
@@ -45460,16 +45536,16 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="229" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="B10" s="230" t="s">
-        <v>754</v>
+        <v>746</v>
       </c>
       <c r="C10" s="230" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="D10" s="230" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="E10" s="258" t="str">
         <f>VLOOKUP(A10,AG_Students!F:F,1,FALSE)</f>
@@ -45478,13 +45554,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="229" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="C11" s="230" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="D11" s="230" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="E11" s="258" t="str">
         <f>VLOOKUP(A11,AG_Students!F:F,1,FALSE)</f>
@@ -45493,16 +45569,16 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="229" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="B12" s="230" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
       <c r="C12" s="230" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="D12" s="230" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="E12" s="258" t="str">
         <f>VLOOKUP(A12,AG_Students!F:F,1,FALSE)</f>
@@ -45511,13 +45587,16 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="226" t="s">
-        <v>377</v>
+        <v>371</v>
+      </c>
+      <c r="B13" s="230" t="s">
+        <v>765</v>
       </c>
       <c r="C13" s="230" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="D13" s="230" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="E13" s="258" t="str">
         <f>VLOOKUP(A13,AG_Students!F:F,1,FALSE)</f>
@@ -45526,16 +45605,16 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="229" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="B14" s="230" t="s">
-        <v>756</v>
+        <v>748</v>
       </c>
       <c r="C14" s="230" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
       <c r="D14" s="230" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="E14" s="258" t="str">
         <f>VLOOKUP(A14,AG_Students!F:F,1,FALSE)</f>
@@ -45544,7 +45623,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="229" t="s">
-        <v>749</v>
+        <v>741</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -45559,7 +45638,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="229" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
     </row>
   </sheetData>
@@ -45572,7 +45651,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F1048576"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -45589,37 +45668,37 @@
   <sheetData>
     <row r="1" spans="1:7" s="224" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="294" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B1" s="224" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C1" s="224" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D1" s="224" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="E1" s="224" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="F1" s="237" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="G1" s="302"/>
     </row>
     <row r="2" spans="1:7" s="227" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="226" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="B2" s="227" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="C2" s="227" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="D2" s="227" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="E2" s="227">
         <v>2020</v>
@@ -45629,16 +45708,16 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="229" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="B3" s="230" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="C3" s="230" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="D3" s="230" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="E3" s="230">
         <v>2020</v>
@@ -45646,16 +45725,16 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="229" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="B4" s="230" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="C4" s="230" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="D4" s="230" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="E4" s="230">
         <v>2020</v>
@@ -45663,36 +45742,42 @@
     </row>
     <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="229" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="B5" s="230" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="C5" s="230" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="D5" s="230" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="E5" s="230">
         <v>2020</v>
       </c>
+      <c r="F5" s="333" t="s">
+        <v>767</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="229" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="B6" s="230" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="C6" s="230" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="D6" s="230" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="E6" s="230">
         <v>2020</v>
+      </c>
+      <c r="F6" s="333" t="s">
+        <v>768</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -45704,8 +45789,12 @@
       <c r="G25" s="303"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F5" r:id="rId1" xr:uid="{E7289A75-C3AE-4337-8807-AD7E91ED4A36}"/>
+    <hyperlink ref="F6" r:id="rId2" xr:uid="{E49EE28A-E52B-4CB2-9513-3A759E1137D6}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -45713,8 +45802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6762406-2B0F-49B7-87DC-3CBCF2CFDE3C}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -45727,46 +45816,46 @@
   <sheetData>
     <row r="1" spans="1:3" s="297" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="298" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B1" s="299" t="s">
         <v>12</v>
       </c>
       <c r="C1" s="300" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="226" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="B2" s="227" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="C2" s="301" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="229" t="s">
-        <v>760</v>
+        <v>769</v>
       </c>
       <c r="B3" s="230" t="s">
-        <v>759</v>
-      </c>
-      <c r="C3" s="342" t="s">
-        <v>758</v>
+        <v>751</v>
+      </c>
+      <c r="C3" s="333" t="s">
+        <v>750</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="229" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
       <c r="B4" s="230" t="s">
-        <v>763</v>
-      </c>
-      <c r="C4" s="342" t="s">
-        <v>761</v>
+        <v>754</v>
+      </c>
+      <c r="C4" s="333" t="s">
+        <v>752</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -45865,48 +45954,48 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="236" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="B1" s="235" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C1" s="224" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D1" s="224" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="E1" s="224" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="F1" s="224" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G1" s="224" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="H1" s="224" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="I1" s="237" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C2" s="230" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D2" s="239" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="E2" s="239" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="G2" s="230" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="I2" s="240" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -45914,19 +46003,19 @@
         <v>44153</v>
       </c>
       <c r="C3" s="230" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D3" s="239" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E3" s="239" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="G3" s="239" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="I3" s="240" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -45934,19 +46023,19 @@
         <v>44153</v>
       </c>
       <c r="C4" s="230" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D4" s="239" t="s">
-        <v>720</v>
+        <v>712</v>
       </c>
       <c r="E4" s="239" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="G4" s="239" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="I4" s="240" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -45954,100 +46043,100 @@
         <v>44294</v>
       </c>
       <c r="C5" s="230" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D5" s="230" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="E5" s="230" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="I5" s="240" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C6" s="230" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D6" s="230" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="E6" s="230" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="I6" s="240" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C7" s="230" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D7" s="230" t="s">
-        <v>719</v>
+        <v>711</v>
       </c>
       <c r="E7" s="230" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="I7" s="240" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C8" s="230" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D8" s="230" t="s">
-        <v>721</v>
+        <v>713</v>
       </c>
       <c r="E8" s="230" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="I8" s="240" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C9" s="230" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D9" s="230" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
       <c r="E9" s="230" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="I9" s="240" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C10" s="230" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D10" s="230" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
       <c r="E10" s="230" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="I10" s="240" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C11" s="230" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D11" s="230" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E11" s="230" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="I11" s="240" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -46055,16 +46144,16 @@
         <v>44294</v>
       </c>
       <c r="C12" s="230" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D12" s="230" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
       <c r="E12" s="230" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="I12" s="240" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
     </row>
   </sheetData>

--- a/_data/CDLEML_WP_Progress_EML-Process.xlsx
+++ b/_data/CDLEML_WP_Progress_EML-Process.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\01_Admin\09_Projektplanung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC75D08A-CD9D-453E-8040-EFAA6917A95D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C002771F-3A59-4381-8AC2-EDE9A2B1423A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EML_Tool_WP" sheetId="18" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1822" uniqueCount="770">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1827" uniqueCount="772">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -2827,6 +2827,12 @@
   </si>
   <si>
     <t>ANNETTE</t>
+  </si>
+  <si>
+    <t>https://publik.tuwien.ac.at/files/publik_295948.pdf</t>
+  </si>
+  <si>
+    <t>Efficient Ensembles for Deep Learning</t>
   </si>
 </sst>
 </file>
@@ -15523,10 +15529,10 @@
   <dimension ref="A1:BE254"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="Z117" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="Z10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AE118" sqref="AE118"/>
+      <selection pane="bottomRight" activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -19533,7 +19539,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:54" ht="28.8" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:54" ht="28.8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A53" s="35"/>
       <c r="B53" s="15" t="s">
         <v>681</v>
@@ -19611,7 +19617,7 @@
       <c r="BA53" s="89"/>
       <c r="BB53" s="186"/>
     </row>
-    <row r="54" spans="1:54" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:54" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A54" s="35"/>
       <c r="B54" s="15" t="s">
         <v>682</v>
@@ -19675,7 +19681,7 @@
       <c r="BA54" s="89"/>
       <c r="BB54" s="186"/>
     </row>
-    <row r="55" spans="1:54" s="45" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:54" s="45" customFormat="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A55" s="27"/>
       <c r="B55" s="28"/>
       <c r="C55" s="179"/>
@@ -19893,7 +19899,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:54" ht="100.8" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:54" ht="100.8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A58" s="192"/>
       <c r="B58" s="113" t="s">
         <v>590</v>
@@ -19981,7 +19987,7 @@
       <c r="BA58" s="89"/>
       <c r="BB58" s="186"/>
     </row>
-    <row r="59" spans="1:54" ht="57.6" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:54" ht="57.6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A59" s="192"/>
       <c r="B59" s="113" t="s">
         <v>125</v>
@@ -20063,7 +20069,7 @@
       <c r="BA59" s="89"/>
       <c r="BB59" s="186"/>
     </row>
-    <row r="60" spans="1:54" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:54" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A60" s="192"/>
       <c r="B60" s="15"/>
       <c r="C60" s="99"/>
@@ -20119,7 +20125,7 @@
       <c r="BA60" s="89"/>
       <c r="BB60" s="186"/>
     </row>
-    <row r="61" spans="1:54" ht="100.8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:54" ht="100.8" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A61" s="192" t="s">
         <v>265</v>
       </c>
@@ -23989,7 +23995,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:54" ht="118.2" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:54" ht="118.2" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A115" s="192"/>
       <c r="B115" s="15" t="s">
         <v>62</v>
@@ -24083,7 +24089,7 @@
       <c r="BA115" s="89"/>
       <c r="BB115" s="186"/>
     </row>
-    <row r="116" spans="1:54" ht="57.6" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:54" ht="57.6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A116" s="192"/>
       <c r="B116" s="15" t="s">
         <v>112</v>
@@ -24167,7 +24173,7 @@
       <c r="BA116" s="89"/>
       <c r="BB116" s="186"/>
     </row>
-    <row r="117" spans="1:54" ht="72" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:54" ht="72" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A117" s="192" t="s">
         <v>254</v>
       </c>
@@ -24252,7 +24258,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:54" ht="115.2" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:54" ht="115.2" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A118" s="35"/>
       <c r="B118" s="15" t="s">
         <v>233</v>
@@ -24338,7 +24344,7 @@
       <c r="BA118" s="89"/>
       <c r="BB118" s="186"/>
     </row>
-    <row r="119" spans="1:54" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:54" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A119" s="35"/>
       <c r="B119" s="15" t="s">
         <v>234</v>
@@ -24414,7 +24420,7 @@
       <c r="BA119" s="89"/>
       <c r="BB119" s="186"/>
     </row>
-    <row r="120" spans="1:54" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:54" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A120" s="35"/>
       <c r="B120" s="15" t="s">
         <v>235</v>
@@ -24492,7 +24498,7 @@
       <c r="BA120" s="89"/>
       <c r="BB120" s="186"/>
     </row>
-    <row r="121" spans="1:54" ht="28.8" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:54" ht="28.8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A121" s="35"/>
       <c r="B121" s="15" t="s">
         <v>236</v>
@@ -24570,7 +24576,7 @@
       <c r="BA121" s="89"/>
       <c r="BB121" s="186"/>
     </row>
-    <row r="122" spans="1:54" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:54" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A122" s="35"/>
       <c r="B122" s="15" t="s">
         <v>237</v>
@@ -24646,7 +24652,7 @@
       <c r="BA122" s="89"/>
       <c r="BB122" s="186"/>
     </row>
-    <row r="123" spans="1:54" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:54" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A123" s="35"/>
       <c r="B123" s="15" t="s">
         <v>238</v>
@@ -24720,7 +24726,7 @@
       <c r="BA123" s="89"/>
       <c r="BB123" s="186"/>
     </row>
-    <row r="124" spans="1:54" ht="28.8" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:54" ht="28.8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A124" s="35"/>
       <c r="B124" s="15" t="s">
         <v>239</v>
@@ -24796,7 +24802,7 @@
       <c r="BA124" s="89"/>
       <c r="BB124" s="186"/>
     </row>
-    <row r="125" spans="1:54" ht="28.8" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:54" ht="28.8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A125" s="35"/>
       <c r="B125" s="15" t="s">
         <v>240</v>
@@ -24872,7 +24878,7 @@
       <c r="BA125" s="89"/>
       <c r="BB125" s="186"/>
     </row>
-    <row r="126" spans="1:54" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:54" ht="15" outlineLevel="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" s="27"/>
       <c r="B126" s="28"/>
       <c r="C126" s="30"/>
@@ -39089,7 +39095,7 @@
       </c>
       <c r="H2" s="218">
         <f ca="1">TODAY()</f>
-        <v>44320</v>
+        <v>44326</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -45366,7 +45372,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -45518,10 +45524,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="229" t="s">
-        <v>296</v>
+        <v>365</v>
       </c>
       <c r="B9" s="230" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="C9" s="230" t="s">
         <v>547</v>
@@ -45531,93 +45537,75 @@
       </c>
       <c r="E9" s="258" t="str">
         <f>VLOOKUP(A9,AG_Students!F:F,1,FALSE)</f>
-        <v>Bernhard Haas</v>
+        <v>Helmuth Breitenfellner</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="229" t="s">
-        <v>365</v>
-      </c>
-      <c r="B10" s="230" t="s">
-        <v>746</v>
+        <v>405</v>
       </c>
       <c r="C10" s="230" t="s">
-        <v>547</v>
+        <v>554</v>
       </c>
       <c r="D10" s="230" t="s">
         <v>551</v>
       </c>
       <c r="E10" s="258" t="str">
         <f>VLOOKUP(A10,AG_Students!F:F,1,FALSE)</f>
-        <v>Helmuth Breitenfellner</v>
+        <v>Fabian Scherer</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="229" t="s">
-        <v>405</v>
+        <v>369</v>
+      </c>
+      <c r="B11" s="230" t="s">
+        <v>747</v>
       </c>
       <c r="C11" s="230" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="D11" s="230" t="s">
         <v>551</v>
       </c>
       <c r="E11" s="258" t="str">
         <f>VLOOKUP(A11,AG_Students!F:F,1,FALSE)</f>
-        <v>Fabian Scherer</v>
+        <v>Lukas Steindl</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="229" t="s">
-        <v>369</v>
+      <c r="A12" s="226" t="s">
+        <v>371</v>
       </c>
       <c r="B12" s="230" t="s">
-        <v>747</v>
+        <v>765</v>
       </c>
       <c r="C12" s="230" t="s">
-        <v>547</v>
+        <v>554</v>
       </c>
       <c r="D12" s="230" t="s">
         <v>551</v>
       </c>
       <c r="E12" s="258" t="str">
         <f>VLOOKUP(A12,AG_Students!F:F,1,FALSE)</f>
-        <v>Lukas Steindl</v>
+        <v>Matvey Ivanov</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="226" t="s">
-        <v>371</v>
+      <c r="A13" s="229" t="s">
+        <v>372</v>
       </c>
       <c r="B13" s="230" t="s">
-        <v>765</v>
+        <v>748</v>
       </c>
       <c r="C13" s="230" t="s">
-        <v>554</v>
+        <v>742</v>
       </c>
       <c r="D13" s="230" t="s">
         <v>551</v>
       </c>
       <c r="E13" s="258" t="str">
         <f>VLOOKUP(A13,AG_Students!F:F,1,FALSE)</f>
-        <v>Matvey Ivanov</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="229" t="s">
-        <v>372</v>
-      </c>
-      <c r="B14" s="230" t="s">
-        <v>748</v>
-      </c>
-      <c r="C14" s="230" t="s">
-        <v>742</v>
-      </c>
-      <c r="D14" s="230" t="s">
-        <v>551</v>
-      </c>
-      <c r="E14" s="258" t="str">
-        <f>VLOOKUP(A14,AG_Students!F:F,1,FALSE)</f>
         <v>Thomas Kotrba</v>
       </c>
     </row>
@@ -45650,8 +45638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8D9D8D5-E8F0-467D-BAE4-113C45D21C9B}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -45780,6 +45768,43 @@
         <v>768</v>
       </c>
     </row>
+    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="229" t="s">
+        <v>296</v>
+      </c>
+      <c r="B7" s="230" t="s">
+        <v>749</v>
+      </c>
+      <c r="C7" s="230" t="s">
+        <v>547</v>
+      </c>
+      <c r="D7" s="230" t="s">
+        <v>551</v>
+      </c>
+      <c r="E7" s="230">
+        <v>2021</v>
+      </c>
+      <c r="F7" s="333" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="229" t="s">
+        <v>509</v>
+      </c>
+      <c r="B8" s="230" t="s">
+        <v>771</v>
+      </c>
+      <c r="C8" s="230" t="s">
+        <v>739</v>
+      </c>
+      <c r="D8" s="230" t="s">
+        <v>550</v>
+      </c>
+      <c r="E8" s="230">
+        <v>2021</v>
+      </c>
+    </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="296"/>
     </row>
@@ -45792,9 +45817,10 @@
   <hyperlinks>
     <hyperlink ref="F5" r:id="rId1" xr:uid="{E7289A75-C3AE-4337-8807-AD7E91ED4A36}"/>
     <hyperlink ref="F6" r:id="rId2" xr:uid="{E49EE28A-E52B-4CB2-9513-3A759E1137D6}"/>
+    <hyperlink ref="F7" r:id="rId3" xr:uid="{C0E33FD9-82ED-4500-AB30-38D416A93D49}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -45802,7 +45828,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6762406-2B0F-49B7-87DC-3CBCF2CFDE3C}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>

--- a/_data/CDLEML_WP_Progress_EML-Process.xlsx
+++ b/_data/CDLEML_WP_Progress_EML-Process.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\01_Admin\09_Projektplanung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C002771F-3A59-4381-8AC2-EDE9A2B1423A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C0B50C3-81C4-4B65-9A80-456A5F4B56DB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EML_Tool_WP" sheetId="18" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1827" uniqueCount="772">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1832" uniqueCount="777">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -2833,6 +2833,21 @@
   </si>
   <si>
     <t>Efficient Ensembles for Deep Learning</t>
+  </si>
+  <si>
+    <t>New Tasks</t>
+  </si>
+  <si>
+    <t>Marco: EDA-Server load measurement meathods implementation</t>
+  </si>
+  <si>
+    <t>https://github.com/embedded-machine-learning/eml-mobile-photo-app</t>
+  </si>
+  <si>
+    <t>EML Mobile Phone Photo Detection Application</t>
+  </si>
+  <si>
+    <t>A mobile phone application for applying detection networks on captured fotos and camera streams</t>
   </si>
 </sst>
 </file>
@@ -15526,13 +15541,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BE254"/>
+  <dimension ref="A1:BE257"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="Z10" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="Y10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B36" sqref="B36"/>
+      <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -32746,6 +32761,16 @@
       <c r="AR254" s="81"/>
       <c r="AS254" s="81"/>
       <c r="AT254" s="81"/>
+    </row>
+    <row r="256" spans="2:46" x14ac:dyDescent="0.3">
+      <c r="B256" s="54" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="257" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B257" s="2" t="s">
+        <v>773</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:BB254" xr:uid="{68AD8EEB-D875-462B-8A4D-98A56D3D7BFC}">
@@ -39095,7 +39120,7 @@
       </c>
       <c r="H2" s="218">
         <f ca="1">TODAY()</f>
-        <v>44326</v>
+        <v>44333</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -39166,7 +39191,7 @@
   <dimension ref="A1:G54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -40214,7 +40239,7 @@
   <dimension ref="A1:J54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:H14"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -41886,7 +41911,7 @@
   <dimension ref="A1:J54"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -43902,8 +43927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2EA65BB-600E-4EAE-BF59-6A4F8252D931}">
   <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -45372,7 +45397,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -45638,8 +45663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8D9D8D5-E8F0-467D-BAE4-113C45D21C9B}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -45829,7 +45854,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -45884,9 +45909,16 @@
         <v>752</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="229"/>
-      <c r="C5" s="240"/>
+    <row r="5" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="229" t="s">
+        <v>775</v>
+      </c>
+      <c r="B5" s="230" t="s">
+        <v>776</v>
+      </c>
+      <c r="C5" s="333" t="s">
+        <v>774</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="229"/>
@@ -45951,6 +45983,7 @@
     <hyperlink ref="C2" r:id="rId1" xr:uid="{CEA76F3A-D315-48D4-99DC-30D01CF9DD5A}"/>
     <hyperlink ref="C3" r:id="rId2" xr:uid="{F2892BFB-88C7-4CDE-BBBA-2B8093C12FEC}"/>
     <hyperlink ref="C4" r:id="rId3" xr:uid="{FA82507D-54F7-4FB8-9956-C18024882BC3}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{BDC0171B-8749-430B-A7FB-B1E93E6E7888}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/_data/CDLEML_WP_Progress_EML-Process.xlsx
+++ b/_data/CDLEML_WP_Progress_EML-Process.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20373"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20374"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\01_Admin\09_Projektplanung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C0B50C3-81C4-4B65-9A80-456A5F4B56DB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B46B4EC-E103-4031-93A2-5E1CBCB61FA1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,12 +34,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Upcoming_Thesis!$A$1:$I$4</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">EML_Tool_WP!$A$1:$Q$222</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1832" uniqueCount="777">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1836" uniqueCount="781">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -530,10 +530,6 @@
   <si>
     <t>- Parser von Matthias Format vorhanden
 - Master: Datensatz in Matthias Format</t>
-  </si>
-  <si>
-    <t>[] Infos und Scripts von Matthias und Matvey bekomme
-[] Matvey NUC Openvino installieren</t>
   </si>
   <si>
     <t>[] Edge TPU an NUC anhängen und zum Laufen zu bringen
@@ -2203,19 +2199,6 @@
 [] Repository with setup and execution scripts</t>
   </si>
   <si>
-    <t>[x] GPU-Erweiterung auf 2 GPUs: Funktioniert
-[x] Finetuning auf Imagenet
-[x] Übertragen auf Deeplab
-[x] Inference on NVIDIA HW
-[-] Inference on Intel-HW
-[-] Inference on Raspberry PI (Only CPU)
-[] Thesis written
-[] Paper written and accepted</t>
-  </si>
-  <si>
-    <t>* Inference results only on NVIDIA</t>
-  </si>
-  <si>
     <t>Analysis whether a common MobileNet backbone for object detection and segmentation is faster and provides better performance as separated networks</t>
   </si>
   <si>
@@ -2662,12 +2645,6 @@
 [] (ME) Githubrepo with measurement and configuration scripts for ArmNN</t>
   </si>
   <si>
-    <t>[] Documented results for training shunt connections using knowledge distillation both for classification and segmentation networks (Paper)
-[x] Inference results on NVIDIA, Xilinx and Raspberry Pi platforms
-[] (ME) Shunt connection algorithm Keras based in a repository
-[] (ME) DeeplabV3+MobileNetV3 in a Repository</t>
-  </si>
-  <si>
     <t>[x] (ME) Report: Preprocessing of the data, Latency values on NVIDIA Xavier, IoU scores for the RailSem
 [x] Comparison of RailSem and CityScape on squeezenas
 [x] Performance and latency comparison with DeepLab
@@ -2848,6 +2825,43 @@
   </si>
   <si>
     <t>A mobile phone application for applying detection networks on captured fotos and camera streams</t>
+  </si>
+  <si>
+    <t>https://publik.tuwien.ac.at/files/publik_296007.pdf</t>
+  </si>
+  <si>
+    <t>[x] GPU-Erweiterung auf 2 GPUs: Funktioniert
+[x] Finetuning auf Imagenet
+[x] Übertragen auf Deeplab
+[x] Inference on NVIDIA HW
+[-] Inference on Intel-HW
+[-] Inference on Raspberry PI (Only CPU)
+[x] Thesis written
+[x] Paper written and accepted</t>
+  </si>
+  <si>
+    <t>[x] Documented results for training shunt connections using knowledge distillation both for classification and segmentation networks (Paper)
+[x] Inference results on NVIDIA, Xilinx and Raspberry Pi platforms
+[] (ME) Shunt connection algorithm Keras based in a repository
+[] (ME) DeeplabV3+MobileNetV3 in a Repository</t>
+  </si>
+  <si>
+    <t>* Inference results only on NVIDIA
+* Shunt algorithm for SSD-MobileNetV2 too</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Video: Carina: EML Presentation Video with Handy app, small presentations</t>
+  </si>
+  <si>
+    <t>EML Network: AW: Train EML network</t>
+  </si>
+  <si>
+    <t>[x] Infos und Scripts von Matthias und Matvey bekomme
+[x] Matvey NUC Openvino installieren
+[] Doku</t>
   </si>
 </sst>
 </file>
@@ -15541,13 +15555,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BE257"/>
+  <dimension ref="A1:BE259"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="Y10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="AY112" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomRight" activeCell="AZ117" sqref="AZ117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -15568,11 +15582,11 @@
     <col min="26" max="26" width="3.88671875" style="55" customWidth="1"/>
     <col min="27" max="30" width="3.88671875" style="56" customWidth="1"/>
     <col min="31" max="31" width="3.88671875" style="321" customWidth="1"/>
-    <col min="32" max="38" width="3.88671875" style="56" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="39" max="39" width="11.33203125" style="215" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="40" max="40" width="10.6640625" style="215" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="41" max="41" width="7.6640625" style="52" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="42" max="42" width="8.33203125" style="52" customWidth="1" collapsed="1"/>
+    <col min="32" max="38" width="3.88671875" style="56" customWidth="1" outlineLevel="1"/>
+    <col min="39" max="39" width="11.33203125" style="215" customWidth="1" outlineLevel="1"/>
+    <col min="40" max="40" width="10.6640625" style="215" customWidth="1" outlineLevel="1"/>
+    <col min="41" max="41" width="7.6640625" style="52" customWidth="1" outlineLevel="1"/>
+    <col min="42" max="42" width="8.33203125" style="52" customWidth="1"/>
     <col min="43" max="43" width="38.6640625" style="1" customWidth="1"/>
     <col min="44" max="44" width="41.88671875" style="81" customWidth="1"/>
     <col min="45" max="45" width="5.88671875" style="81" customWidth="1"/>
@@ -15636,16 +15650,16 @@
       <c r="AK1" s="335"/>
       <c r="AL1" s="335"/>
       <c r="AM1" s="196" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AN1" s="196" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AO1" s="157" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AP1" s="158" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AQ1" s="76" t="s">
         <v>12</v>
@@ -15657,31 +15671,31 @@
         <v>14</v>
       </c>
       <c r="AT1" s="82" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AU1" s="90" t="s">
         <v>13</v>
       </c>
       <c r="AV1" s="90" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AW1" s="90" t="s">
+        <v>416</v>
+      </c>
+      <c r="AX1" s="90" t="s">
         <v>417</v>
       </c>
-      <c r="AX1" s="90" t="s">
+      <c r="AY1" s="90" t="s">
         <v>418</v>
       </c>
-      <c r="AY1" s="90" t="s">
-        <v>419</v>
-      </c>
       <c r="AZ1" s="90" t="s">
+        <v>537</v>
+      </c>
+      <c r="BA1" s="90" t="s">
         <v>538</v>
       </c>
-      <c r="BA1" s="90" t="s">
-        <v>539</v>
-      </c>
       <c r="BB1" s="90" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="2" spans="1:54" x14ac:dyDescent="0.3">
@@ -16140,7 +16154,7 @@
         <v>103</v>
       </c>
       <c r="AR6" s="116" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AS6" s="90"/>
       <c r="AT6" s="106"/>
@@ -16155,10 +16169,10 @@
     </row>
     <row r="7" spans="1:54" ht="28.8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A7" s="192" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B7" s="119" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C7" s="120"/>
       <c r="D7" s="121"/>
@@ -16208,34 +16222,34 @@
         <v>1</v>
       </c>
       <c r="AQ7" s="125" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AR7" s="126" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AS7" s="127" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AT7" s="127"/>
       <c r="AU7" s="128"/>
       <c r="AV7" s="128" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AW7" s="128" t="str">
         <f>"D"&amp;RIGHT(A7,5)</f>
         <v>D1.1.1</v>
       </c>
       <c r="AX7" s="128" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AY7" s="128" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AZ7" s="128" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="BA7" s="128" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="BB7" s="190"/>
     </row>
@@ -16296,14 +16310,14 @@
         <v>56</v>
       </c>
       <c r="AR8" s="85" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AS8" s="80" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AT8" s="80"/>
       <c r="AU8" s="89" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AV8" s="89"/>
       <c r="AW8" s="89"/>
@@ -16371,10 +16385,10 @@
     </row>
     <row r="10" spans="1:54" ht="72" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A10" s="192" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B10" s="119" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="C10" s="120"/>
       <c r="D10" s="121"/>
@@ -16424,7 +16438,7 @@
         <v>0.81111111111111112</v>
       </c>
       <c r="AQ10" s="125" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AR10" s="126" t="s">
         <v>100</v>
@@ -16437,23 +16451,23 @@
       </c>
       <c r="AU10" s="128"/>
       <c r="AV10" s="128" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AW10" s="128" t="str">
         <f>"D"&amp;RIGHT(A10,5)</f>
         <v>D1.1.2</v>
       </c>
       <c r="AX10" s="128" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AY10" s="128" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AZ10" s="128" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="BA10" s="128" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="BB10" s="190">
         <v>1</v>
@@ -16524,14 +16538,14 @@
       </c>
       <c r="AQ11" s="92"/>
       <c r="AR11" s="80" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AS11" s="80" t="s">
         <v>47</v>
       </c>
       <c r="AT11" s="80"/>
       <c r="AU11" s="89" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="AV11" s="89"/>
       <c r="AW11" s="89"/>
@@ -16606,21 +16620,21 @@
         <v>37</v>
       </c>
       <c r="AR12" s="80" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AS12" s="80" t="s">
         <v>47</v>
       </c>
       <c r="AT12" s="80"/>
       <c r="AU12" s="89" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AV12" s="89"/>
       <c r="AW12" s="89"/>
       <c r="AX12" s="89"/>
       <c r="AY12" s="89"/>
       <c r="AZ12" s="89" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="BA12" s="89"/>
       <c r="BB12" s="186"/>
@@ -16690,14 +16704,14 @@
         <v>37</v>
       </c>
       <c r="AR13" s="80" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AS13" s="80" t="s">
         <v>47</v>
       </c>
       <c r="AT13" s="80"/>
       <c r="AU13" s="89" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="AV13" s="89"/>
       <c r="AW13" s="89"/>
@@ -16709,10 +16723,10 @@
     </row>
     <row r="14" spans="1:54" ht="72" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A14" s="192" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B14" s="119" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="C14" s="120"/>
       <c r="D14" s="121"/>
@@ -16762,7 +16776,7 @@
         <v>0.85454545454545461</v>
       </c>
       <c r="AQ14" s="125" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AR14" s="126" t="s">
         <v>99</v>
@@ -16775,23 +16789,23 @@
       </c>
       <c r="AU14" s="128"/>
       <c r="AV14" s="128" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AW14" s="128" t="str">
         <f>"D"&amp;RIGHT(A14,5)</f>
         <v>D1.1.3</v>
       </c>
       <c r="AX14" s="128" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AY14" s="128" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AZ14" s="128" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="BA14" s="128" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="BB14" s="190">
         <v>1</v>
@@ -16800,7 +16814,7 @@
     <row r="15" spans="1:54" ht="36.6" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A15" s="192"/>
       <c r="B15" s="115" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C15" s="38"/>
       <c r="D15" s="37"/>
@@ -16860,7 +16874,7 @@
       <c r="AX15" s="89"/>
       <c r="AY15" s="89"/>
       <c r="AZ15" s="89" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="BA15" s="89"/>
       <c r="BB15" s="186"/>
@@ -16868,7 +16882,7 @@
     <row r="16" spans="1:54" ht="28.8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A16" s="192"/>
       <c r="B16" s="115" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C16" s="38"/>
       <c r="D16" s="37"/>
@@ -16924,14 +16938,14 @@
       </c>
       <c r="AQ16" s="92"/>
       <c r="AR16" s="80" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AS16" s="80" t="s">
         <v>46</v>
       </c>
       <c r="AT16" s="80"/>
       <c r="AU16" s="89" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="AV16" s="89"/>
       <c r="AW16" s="89"/>
@@ -16944,7 +16958,7 @@
     <row r="17" spans="1:54" s="153" customFormat="1" ht="28.8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A17" s="143"/>
       <c r="B17" s="144" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C17" s="145"/>
       <c r="D17" s="146"/>
@@ -16990,7 +17004,7 @@
       <c r="AP17" s="150"/>
       <c r="AQ17" s="151"/>
       <c r="AR17" s="152" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AS17" s="152"/>
       <c r="AT17" s="152"/>
@@ -17006,7 +17020,7 @@
     <row r="18" spans="1:54" ht="100.8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A18" s="192"/>
       <c r="B18" s="115" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="16"/>
@@ -17061,17 +17075,17 @@
         <v>1</v>
       </c>
       <c r="AQ18" s="92" t="s">
+        <v>165</v>
+      </c>
+      <c r="AR18" s="80" t="s">
         <v>166</v>
-      </c>
-      <c r="AR18" s="80" t="s">
-        <v>167</v>
       </c>
       <c r="AS18" s="80" t="s">
         <v>46</v>
       </c>
       <c r="AT18" s="80"/>
       <c r="AU18" s="89" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="AV18" s="89"/>
       <c r="AW18" s="89"/>
@@ -17084,7 +17098,7 @@
     <row r="19" spans="1:54" ht="28.8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A19" s="192"/>
       <c r="B19" s="115" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C19" s="99"/>
       <c r="D19" s="108"/>
@@ -17138,14 +17152,14 @@
       </c>
       <c r="AQ19" s="92"/>
       <c r="AR19" s="80" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AS19" s="80" t="s">
         <v>46</v>
       </c>
       <c r="AT19" s="80"/>
       <c r="AU19" s="89" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="AV19" s="89"/>
       <c r="AW19" s="89"/>
@@ -17213,10 +17227,10 @@
     </row>
     <row r="21" spans="1:54" ht="57.6" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A21" s="192" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B21" s="119" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="C21" s="120"/>
       <c r="D21" s="121"/>
@@ -17268,24 +17282,24 @@
       <c r="AQ21" s="125"/>
       <c r="AR21" s="126"/>
       <c r="AS21" s="127" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AT21" s="127"/>
       <c r="AU21" s="128"/>
       <c r="AV21" s="128" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AW21" s="128" t="s">
+        <v>756</v>
+      </c>
+      <c r="AX21" s="128" t="s">
+        <v>759</v>
+      </c>
+      <c r="AY21" s="128" t="s">
+        <v>393</v>
+      </c>
+      <c r="AZ21" s="128" t="s">
         <v>760</v>
-      </c>
-      <c r="AX21" s="128" t="s">
-        <v>763</v>
-      </c>
-      <c r="AY21" s="128" t="s">
-        <v>394</v>
-      </c>
-      <c r="AZ21" s="128" t="s">
-        <v>764</v>
       </c>
       <c r="BA21" s="128"/>
       <c r="BB21" s="190"/>
@@ -17293,7 +17307,7 @@
     <row r="22" spans="1:54" ht="43.2" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A22" s="192"/>
       <c r="B22" s="115" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C22" s="24"/>
       <c r="D22" s="23"/>
@@ -17350,11 +17364,11 @@
         <v>0</v>
       </c>
       <c r="AQ22" s="92" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="AR22" s="85"/>
       <c r="AS22" s="80" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AT22" s="80"/>
       <c r="AU22" s="89"/>
@@ -17424,10 +17438,10 @@
     </row>
     <row r="24" spans="1:54" ht="43.2" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A24" s="192" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B24" s="119" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="C24" s="120"/>
       <c r="D24" s="121"/>
@@ -17477,33 +17491,33 @@
         <v>6.25E-2</v>
       </c>
       <c r="AQ24" s="125" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AR24" s="126"/>
       <c r="AS24" s="127" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AT24" s="127" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AU24" s="128"/>
       <c r="AV24" s="128" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AW24" s="128" t="s">
+        <v>481</v>
+      </c>
+      <c r="AX24" s="128" t="s">
+        <v>484</v>
+      </c>
+      <c r="AY24" s="128" t="s">
         <v>482</v>
       </c>
-      <c r="AX24" s="128" t="s">
-        <v>485</v>
-      </c>
-      <c r="AY24" s="128" t="s">
-        <v>483</v>
-      </c>
       <c r="AZ24" s="128" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="BA24" s="128" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="BB24" s="190">
         <v>2</v>
@@ -17512,7 +17526,7 @@
     <row r="25" spans="1:54" ht="100.8" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A25" s="192"/>
       <c r="B25" s="115" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C25" s="24"/>
       <c r="D25" s="23"/>
@@ -17571,24 +17585,24 @@
         <v>0.1</v>
       </c>
       <c r="AQ25" s="92" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AR25" s="80"/>
       <c r="AS25" s="80" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AT25" s="80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AU25" s="89" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="AV25" s="89"/>
       <c r="AW25" s="89"/>
       <c r="AX25" s="89"/>
       <c r="AY25" s="89"/>
       <c r="AZ25" s="89" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="BA25" s="89"/>
       <c r="BB25" s="186"/>
@@ -17764,7 +17778,7 @@
     <row r="29" spans="1:54" ht="28.8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A29" s="192"/>
       <c r="B29" s="115" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C29" s="24"/>
       <c r="D29" s="23"/>
@@ -17811,10 +17825,10 @@
         <v>0</v>
       </c>
       <c r="AQ29" s="92" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AR29" s="80" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AS29" s="80" t="s">
         <v>46</v>
@@ -17887,10 +17901,10 @@
     </row>
     <row r="31" spans="1:54" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A31" s="192" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B31" s="119" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C31" s="120"/>
       <c r="D31" s="121"/>
@@ -17938,7 +17952,7 @@
         <v>0</v>
       </c>
       <c r="AQ31" s="125" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AR31" s="126"/>
       <c r="AS31" s="127" t="s">
@@ -17947,14 +17961,14 @@
       <c r="AT31" s="127"/>
       <c r="AU31" s="128"/>
       <c r="AV31" s="128" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AW31" s="128"/>
       <c r="AX31" s="128"/>
       <c r="AY31" s="128"/>
       <c r="AZ31" s="128"/>
       <c r="BA31" s="128" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="BB31" s="190">
         <v>3</v>
@@ -17963,7 +17977,7 @@
     <row r="32" spans="1:54" ht="129.6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A32" s="14"/>
       <c r="B32" s="115" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C32" s="24"/>
       <c r="D32" s="23"/>
@@ -18024,24 +18038,24 @@
         <v>0</v>
       </c>
       <c r="AQ32" s="92" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AR32" s="80" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AS32" s="80" t="s">
         <v>47</v>
       </c>
       <c r="AT32" s="80"/>
       <c r="AU32" s="89" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AV32" s="89"/>
       <c r="AW32" s="89"/>
       <c r="AX32" s="89"/>
       <c r="AY32" s="89"/>
       <c r="AZ32" s="89" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="BA32" s="89"/>
       <c r="BB32" s="186"/>
@@ -18248,7 +18262,7 @@
         <v>104</v>
       </c>
       <c r="AR35" s="116" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AS35" s="90"/>
       <c r="AT35" s="90"/>
@@ -18263,10 +18277,10 @@
     </row>
     <row r="36" spans="1:54" ht="115.2" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A36" s="192" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B36" s="119" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="C36" s="120"/>
       <c r="D36" s="121"/>
@@ -18316,7 +18330,7 @@
         <v>0.41111111111111115</v>
       </c>
       <c r="AQ36" s="125" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AR36" s="126"/>
       <c r="AS36" s="127" t="s">
@@ -18325,23 +18339,23 @@
       <c r="AT36" s="127"/>
       <c r="AU36" s="128"/>
       <c r="AV36" s="128" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AW36" s="128" t="str">
         <f>"D"&amp;RIGHT(A36,5)</f>
         <v>D1.2.1</v>
       </c>
       <c r="AX36" s="128" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AY36" s="128" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AZ36" s="128" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="BA36" s="128" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="BB36" s="190">
         <v>1</v>
@@ -18350,7 +18364,7 @@
     <row r="37" spans="1:54" ht="200.4" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A37" s="192"/>
       <c r="B37" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C37" s="38"/>
       <c r="D37" s="37"/>
@@ -18413,7 +18427,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ37" s="61" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="AR37" s="93"/>
       <c r="AS37" s="80" t="s">
@@ -18421,14 +18435,14 @@
       </c>
       <c r="AT37" s="80"/>
       <c r="AU37" s="91" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="AV37" s="91"/>
       <c r="AW37" s="89"/>
       <c r="AX37" s="89"/>
       <c r="AY37" s="89"/>
       <c r="AZ37" s="89" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="BA37" s="89"/>
       <c r="BB37" s="186"/>
@@ -18436,7 +18450,7 @@
     <row r="38" spans="1:54" ht="43.2" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A38" s="192"/>
       <c r="B38" s="15" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="C38" s="38"/>
       <c r="D38" s="37"/>
@@ -18497,7 +18511,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ38" s="61" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AR38" s="93"/>
       <c r="AS38" s="80" t="s">
@@ -18505,7 +18519,7 @@
       </c>
       <c r="AT38" s="80"/>
       <c r="AU38" s="91" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="AV38" s="91"/>
       <c r="AW38" s="89"/>
@@ -18518,7 +18532,7 @@
     <row r="39" spans="1:54" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A39" s="192"/>
       <c r="B39" s="15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C39" s="38"/>
       <c r="D39" s="37"/>
@@ -18575,10 +18589,10 @@
         <v>0</v>
       </c>
       <c r="AQ39" s="61" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AR39" s="93" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AS39" s="80" t="s">
         <v>26</v>
@@ -18596,7 +18610,7 @@
     <row r="40" spans="1:54" ht="57.6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A40" s="192"/>
       <c r="B40" s="15" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C40" s="38"/>
       <c r="D40" s="37"/>
@@ -18649,10 +18663,10 @@
         <v>0</v>
       </c>
       <c r="AQ40" s="61" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AR40" s="93" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AS40" s="80" t="s">
         <v>26</v>
@@ -18725,10 +18739,10 @@
     </row>
     <row r="42" spans="1:54" ht="115.2" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A42" s="192" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B42" s="119" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="C42" s="120"/>
       <c r="D42" s="121"/>
@@ -18778,7 +18792,7 @@
         <v>0.45999999999999996</v>
       </c>
       <c r="AQ42" s="125" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AR42" s="126"/>
       <c r="AS42" s="127" t="s">
@@ -18787,20 +18801,20 @@
       <c r="AT42" s="127"/>
       <c r="AU42" s="128"/>
       <c r="AV42" s="128" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AW42" s="128" t="str">
         <f>"D"&amp;RIGHT(A42,5)</f>
         <v>D1.2.2</v>
       </c>
       <c r="AX42" s="128" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="AY42" s="128" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AZ42" s="128" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="BA42" s="128"/>
       <c r="BB42" s="190">
@@ -18810,7 +18824,7 @@
     <row r="43" spans="1:54" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A43" s="192"/>
       <c r="B43" s="15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C43" s="38"/>
       <c r="D43" s="37"/>
@@ -18859,7 +18873,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ43" s="61" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AR43" s="93"/>
       <c r="AS43" s="80" t="s">
@@ -18872,7 +18886,7 @@
       <c r="AX43" s="89"/>
       <c r="AY43" s="89"/>
       <c r="AZ43" s="89" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="BA43" s="89"/>
       <c r="BB43" s="186"/>
@@ -18880,7 +18894,7 @@
     <row r="44" spans="1:54" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A44" s="192"/>
       <c r="B44" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C44" s="38"/>
       <c r="D44" s="37"/>
@@ -18943,10 +18957,10 @@
     </row>
     <row r="45" spans="1:54" ht="86.4" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A45" s="192" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B45" s="119" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="C45" s="120"/>
       <c r="D45" s="121"/>
@@ -18996,28 +19010,28 @@
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="AQ45" s="125" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AR45" s="126"/>
       <c r="AS45" s="127" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AT45" s="127"/>
       <c r="AU45" s="128"/>
       <c r="AV45" s="128" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AW45" s="128" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="AX45" s="128" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="AY45" s="128" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AZ45" s="128" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="BA45" s="128"/>
       <c r="BB45" s="190">
@@ -19027,7 +19041,7 @@
     <row r="46" spans="1:54" ht="57.6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A46" s="192"/>
       <c r="B46" s="15" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="C46" s="38"/>
       <c r="D46" s="37"/>
@@ -19086,22 +19100,22 @@
         <v>0.2</v>
       </c>
       <c r="AQ46" s="61" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="AR46" s="93"/>
       <c r="AS46" s="80" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AT46" s="80"/>
       <c r="AU46" s="91" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="AV46" s="91"/>
       <c r="AW46" s="89"/>
       <c r="AX46" s="89"/>
       <c r="AY46" s="89"/>
       <c r="AZ46" s="89" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="BA46" s="89"/>
       <c r="BB46" s="186"/>
@@ -19109,7 +19123,7 @@
     <row r="47" spans="1:54" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A47" s="192"/>
       <c r="B47" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C47" s="38"/>
       <c r="D47" s="37"/>
@@ -19166,7 +19180,7 @@
       <c r="AQ47" s="61"/>
       <c r="AR47" s="93"/>
       <c r="AS47" s="80" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AT47" s="80"/>
       <c r="AU47" s="91"/>
@@ -19180,10 +19194,10 @@
     </row>
     <row r="48" spans="1:54" ht="72" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A48" s="192" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B48" s="119" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="C48" s="120"/>
       <c r="D48" s="121"/>
@@ -19233,7 +19247,7 @@
         <v>0.60000000000000009</v>
       </c>
       <c r="AQ48" s="125" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AR48" s="126"/>
       <c r="AS48" s="127" t="s">
@@ -19242,19 +19256,19 @@
       <c r="AT48" s="127"/>
       <c r="AU48" s="128"/>
       <c r="AV48" s="128" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AW48" s="128" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AX48" s="128" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="AY48" s="128" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AZ48" s="128" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="BA48" s="128"/>
       <c r="BB48" s="190">
@@ -19264,7 +19278,7 @@
     <row r="49" spans="1:54" ht="28.8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A49" s="35"/>
       <c r="B49" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C49" s="38"/>
       <c r="D49" s="37"/>
@@ -19311,17 +19325,17 @@
         <v>0.1</v>
       </c>
       <c r="AQ49" s="61" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AR49" s="93" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AS49" s="85" t="s">
         <v>63</v>
       </c>
       <c r="AT49" s="85"/>
       <c r="AU49" s="91" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="AV49" s="91"/>
       <c r="AW49" s="89"/>
@@ -19334,7 +19348,7 @@
     <row r="50" spans="1:54" ht="43.2" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A50" s="35"/>
       <c r="B50" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C50" s="99"/>
       <c r="D50" s="108"/>
@@ -19381,20 +19395,20 @@
         <v>1</v>
       </c>
       <c r="AQ50" s="61" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AR50" s="93"/>
       <c r="AS50" s="85"/>
       <c r="AT50" s="85"/>
       <c r="AU50" s="91" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="AV50" s="91"/>
       <c r="AW50" s="89"/>
       <c r="AX50" s="89"/>
       <c r="AY50" s="89"/>
       <c r="AZ50" s="89" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="BA50" s="89"/>
       <c r="BB50" s="186"/>
@@ -19402,7 +19416,7 @@
     <row r="51" spans="1:54" ht="86.4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A51" s="35"/>
       <c r="B51" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C51" s="38"/>
       <c r="D51" s="37"/>
@@ -19453,7 +19467,7 @@
         <v>1</v>
       </c>
       <c r="AQ51" s="61" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AR51" s="93"/>
       <c r="AS51" s="80" t="s">
@@ -19461,7 +19475,7 @@
       </c>
       <c r="AT51" s="80"/>
       <c r="AU51" s="91" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="AV51" s="91"/>
       <c r="AW51" s="89"/>
@@ -19473,10 +19487,10 @@
     </row>
     <row r="52" spans="1:54" ht="72" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A52" s="192" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="B52" s="119" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="C52" s="120"/>
       <c r="D52" s="121"/>
@@ -19528,26 +19542,26 @@
       <c r="AQ52" s="125"/>
       <c r="AR52" s="126"/>
       <c r="AS52" s="127" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AT52" s="127" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AU52" s="128"/>
       <c r="AV52" s="128" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AW52" s="128" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="AX52" s="128" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="AY52" s="128" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="AZ52" s="128" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="BA52" s="128"/>
       <c r="BB52" s="190">
@@ -19557,7 +19571,7 @@
     <row r="53" spans="1:54" ht="28.8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A53" s="35"/>
       <c r="B53" s="15" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="C53" s="38"/>
       <c r="D53" s="37"/>
@@ -19610,16 +19624,16 @@
         <v>0.05</v>
       </c>
       <c r="AQ53" s="61" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="AR53" s="93" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AS53" s="85" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AT53" s="85" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AU53" s="91"/>
       <c r="AV53" s="91"/>
@@ -19627,7 +19641,7 @@
       <c r="AX53" s="89"/>
       <c r="AY53" s="89"/>
       <c r="AZ53" s="89" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="BA53" s="89"/>
       <c r="BB53" s="186"/>
@@ -19635,7 +19649,7 @@
     <row r="54" spans="1:54" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A54" s="35"/>
       <c r="B54" s="15" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="C54" s="99"/>
       <c r="D54" s="108"/>
@@ -19837,10 +19851,10 @@
     </row>
     <row r="57" spans="1:54" ht="57.6" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A57" s="192" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B57" s="119" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C57" s="120"/>
       <c r="D57" s="121"/>
@@ -19886,7 +19900,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ57" s="125" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AR57" s="126"/>
       <c r="AS57" s="127" t="s">
@@ -19895,29 +19909,29 @@
       <c r="AT57" s="127"/>
       <c r="AU57" s="128"/>
       <c r="AV57" s="128" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AW57" s="128"/>
       <c r="AX57" s="128" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AY57" s="128" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="AZ57" s="128" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="BA57" s="128" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="BB57" s="190">
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:54" ht="100.8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:54" ht="114" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A58" s="192"/>
       <c r="B58" s="113" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C58" s="24"/>
       <c r="D58" s="23"/>
@@ -19990,14 +20004,14 @@
       </c>
       <c r="AT58" s="80"/>
       <c r="AU58" s="89" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="AV58" s="89"/>
       <c r="AW58" s="89"/>
       <c r="AX58" s="89"/>
       <c r="AY58" s="89"/>
       <c r="AZ58" s="89" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="BA58" s="89"/>
       <c r="BB58" s="186"/>
@@ -20074,7 +20088,7 @@
       </c>
       <c r="AT59" s="80"/>
       <c r="AU59" s="89" t="s">
-        <v>130</v>
+        <v>780</v>
       </c>
       <c r="AV59" s="89"/>
       <c r="AW59" s="89"/>
@@ -20142,10 +20156,10 @@
     </row>
     <row r="61" spans="1:54" ht="100.8" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A61" s="192" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B61" s="119" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="C61" s="120"/>
       <c r="D61" s="121"/>
@@ -20195,7 +20209,7 @@
         <v>0.79999999999999993</v>
       </c>
       <c r="AQ61" s="125" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AR61" s="126"/>
       <c r="AS61" s="127" t="s">
@@ -20204,20 +20218,20 @@
       <c r="AT61" s="127"/>
       <c r="AU61" s="128"/>
       <c r="AV61" s="128" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AW61" s="128" t="str">
         <f>"D"&amp;RIGHT(A61,5)</f>
         <v>D1.3.2</v>
       </c>
       <c r="AX61" s="128" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AY61" s="128" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AZ61" s="128" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="BA61" s="128"/>
       <c r="BB61" s="190">
@@ -20281,7 +20295,7 @@
         <v>105</v>
       </c>
       <c r="AR62" s="94" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AS62" s="80" t="s">
         <v>26</v>
@@ -20293,7 +20307,7 @@
       <c r="AX62" s="89"/>
       <c r="AY62" s="89"/>
       <c r="AZ62" s="89" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="BA62" s="89"/>
       <c r="BB62" s="186"/>
@@ -20301,7 +20315,7 @@
     <row r="63" spans="1:54" ht="72" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A63" s="192"/>
       <c r="B63" s="114" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C63" s="17"/>
       <c r="D63" s="16"/>
@@ -20355,14 +20369,14 @@
         <v>34</v>
       </c>
       <c r="AR63" s="80" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AS63" s="80" t="s">
         <v>26</v>
       </c>
       <c r="AT63" s="80"/>
       <c r="AU63" s="80" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AV63" s="80"/>
       <c r="AW63" s="89"/>
@@ -20375,7 +20389,7 @@
     <row r="64" spans="1:54" ht="43.2" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A64" s="192"/>
       <c r="B64" s="114" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C64" s="24"/>
       <c r="D64" s="23"/>
@@ -20427,7 +20441,7 @@
         <v>34</v>
       </c>
       <c r="AR64" s="94" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AS64" s="80" t="s">
         <v>26</v>
@@ -20445,7 +20459,7 @@
     <row r="65" spans="1:54" ht="43.2" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A65" s="192"/>
       <c r="B65" s="114" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C65" s="24"/>
       <c r="D65" s="23"/>
@@ -20497,7 +20511,7 @@
         <v>34</v>
       </c>
       <c r="AR65" s="94" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AS65" s="80" t="s">
         <v>26</v>
@@ -20574,7 +20588,7 @@
       </c>
       <c r="AT66" s="80"/>
       <c r="AU66" s="97" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AV66" s="97"/>
       <c r="AW66" s="89"/>
@@ -20642,10 +20656,10 @@
     </row>
     <row r="68" spans="1:54" ht="86.4" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A68" s="192" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B68" s="119" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C68" s="120"/>
       <c r="D68" s="121"/>
@@ -20695,7 +20709,7 @@
         <v>0.91249999999999998</v>
       </c>
       <c r="AQ68" s="125" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AR68" s="126"/>
       <c r="AS68" s="127" t="s">
@@ -20704,19 +20718,19 @@
       <c r="AT68" s="127"/>
       <c r="AU68" s="128"/>
       <c r="AV68" s="128" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AW68" s="128" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AX68" s="128" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AY68" s="128" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AZ68" s="128" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="BA68" s="128"/>
       <c r="BB68" s="190">
@@ -20782,7 +20796,7 @@
         <v>105</v>
       </c>
       <c r="AR69" s="94" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AS69" s="80" t="s">
         <v>46</v>
@@ -20794,7 +20808,7 @@
       <c r="AX69" s="89"/>
       <c r="AY69" s="89"/>
       <c r="AZ69" s="89" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="BA69" s="89"/>
       <c r="BB69" s="186"/>
@@ -20802,7 +20816,7 @@
     <row r="70" spans="1:54" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A70" s="192"/>
       <c r="B70" s="112" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C70" s="24"/>
       <c r="D70" s="23"/>
@@ -20852,14 +20866,14 @@
       </c>
       <c r="AQ70" s="77"/>
       <c r="AR70" s="94" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AS70" s="80" t="s">
         <v>63</v>
       </c>
       <c r="AT70" s="80"/>
       <c r="AU70" s="89" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AV70" s="89"/>
       <c r="AW70" s="89"/>
@@ -20939,10 +20953,10 @@
     </row>
     <row r="72" spans="1:54" ht="100.8" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A72" s="192" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B72" s="119" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="C72" s="120"/>
       <c r="D72" s="121"/>
@@ -20992,7 +21006,7 @@
         <v>0.10000000000000002</v>
       </c>
       <c r="AQ72" s="125" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AR72" s="126" t="s">
         <v>95</v>
@@ -21003,19 +21017,19 @@
       <c r="AT72" s="127"/>
       <c r="AU72" s="128"/>
       <c r="AV72" s="128" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AW72" s="128" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="AX72" s="128" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AY72" s="128" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AZ72" s="128" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="BA72" s="128"/>
       <c r="BB72" s="190">
@@ -21025,7 +21039,7 @@
     <row r="73" spans="1:54" ht="72" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A73" s="192"/>
       <c r="B73" s="134" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C73" s="135"/>
       <c r="D73" s="136"/>
@@ -21073,19 +21087,19 @@
         <v>61</v>
       </c>
       <c r="AR73" s="142" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AS73" s="142"/>
       <c r="AT73" s="142"/>
       <c r="AU73" s="142" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AV73" s="142"/>
       <c r="AW73" s="89"/>
       <c r="AX73" s="89"/>
       <c r="AY73" s="89"/>
       <c r="AZ73" s="89" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="BA73" s="89"/>
       <c r="BB73" s="186"/>
@@ -21093,7 +21107,7 @@
     <row r="74" spans="1:54" ht="28.8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A74" s="192"/>
       <c r="B74" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C74" s="99"/>
       <c r="D74" s="108"/>
@@ -21146,7 +21160,7 @@
       </c>
       <c r="AT74" s="80"/>
       <c r="AU74" s="89" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="AV74" s="89"/>
       <c r="AW74" s="89"/>
@@ -21214,10 +21228,10 @@
     </row>
     <row r="76" spans="1:54" ht="72" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A76" s="192" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B76" s="119" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="C76" s="120"/>
       <c r="D76" s="121"/>
@@ -21267,30 +21281,30 @@
         <v>0.15</v>
       </c>
       <c r="AQ76" s="125" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AR76" s="126" t="s">
         <v>95</v>
       </c>
       <c r="AS76" s="127" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AT76" s="127"/>
       <c r="AU76" s="128"/>
       <c r="AV76" s="128" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AW76" s="128" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AX76" s="128" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AY76" s="128" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AZ76" s="128" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="BA76" s="128"/>
       <c r="BB76" s="190">
@@ -21350,7 +21364,7 @@
       <c r="AX77" s="89"/>
       <c r="AY77" s="89"/>
       <c r="AZ77" s="89" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="BA77" s="89"/>
       <c r="BB77" s="186"/>
@@ -21358,7 +21372,7 @@
     <row r="78" spans="1:54" ht="43.2" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A78" s="192"/>
       <c r="B78" s="15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C78" s="99"/>
       <c r="D78" s="108"/>
@@ -21411,7 +21425,7 @@
         <v>0.3</v>
       </c>
       <c r="AQ78" s="77" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AR78" s="80"/>
       <c r="AS78" s="80" t="s">
@@ -21419,7 +21433,7 @@
       </c>
       <c r="AT78" s="80"/>
       <c r="AU78" s="89" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="AV78" s="89"/>
       <c r="AW78" s="89"/>
@@ -21432,7 +21446,7 @@
     <row r="79" spans="1:54" ht="28.8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A79" s="192"/>
       <c r="B79" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C79" s="99"/>
       <c r="D79" s="108"/>
@@ -21551,10 +21565,10 @@
     </row>
     <row r="81" spans="1:54" ht="128.4" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A81" s="192" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B81" s="119" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C81" s="120"/>
       <c r="D81" s="121"/>
@@ -21604,7 +21618,7 @@
         <v>0.55227272727272725</v>
       </c>
       <c r="AQ81" s="125" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AR81" s="126"/>
       <c r="AS81" s="127" t="s">
@@ -21613,19 +21627,19 @@
       <c r="AT81" s="127"/>
       <c r="AU81" s="128"/>
       <c r="AV81" s="128" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AW81" s="128" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AX81" s="128" t="s">
+        <v>465</v>
+      </c>
+      <c r="AY81" s="128" t="s">
         <v>466</v>
       </c>
-      <c r="AY81" s="128" t="s">
-        <v>467</v>
-      </c>
       <c r="AZ81" s="128" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="BA81" s="128"/>
       <c r="BB81" s="190">
@@ -21691,21 +21705,21 @@
         <v>52</v>
       </c>
       <c r="AR82" s="80" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="AS82" s="80" t="s">
         <v>50</v>
       </c>
       <c r="AT82" s="80"/>
       <c r="AU82" s="89" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="AV82" s="107"/>
       <c r="AW82" s="89"/>
       <c r="AX82" s="89"/>
       <c r="AY82" s="89"/>
       <c r="AZ82" s="89" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="BA82" s="89"/>
       <c r="BB82" s="186"/>
@@ -21713,7 +21727,7 @@
     <row r="83" spans="1:54" ht="43.2" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A83" s="192"/>
       <c r="B83" s="117" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C83" s="38"/>
       <c r="D83" s="37"/>
@@ -21762,17 +21776,17 @@
         <v>0.95</v>
       </c>
       <c r="AQ83" s="89" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AR83" s="80" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="AS83" s="80" t="s">
         <v>50</v>
       </c>
       <c r="AT83" s="80"/>
       <c r="AU83" s="89" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AV83" s="89"/>
       <c r="AW83" s="89"/>
@@ -21785,7 +21799,7 @@
     <row r="84" spans="1:54" ht="44.4" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A84" s="192"/>
       <c r="B84" s="117" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C84" s="99"/>
       <c r="D84" s="108"/>
@@ -21835,21 +21849,21 @@
       </c>
       <c r="AQ84" s="77"/>
       <c r="AR84" s="80" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="AS84" s="80" t="s">
         <v>50</v>
       </c>
       <c r="AT84" s="80"/>
       <c r="AU84" s="89" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="AV84" s="89"/>
       <c r="AW84" s="89"/>
       <c r="AX84" s="89"/>
       <c r="AY84" s="89"/>
       <c r="AZ84" s="89" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="BA84" s="89"/>
       <c r="BB84" s="186"/>
@@ -21857,7 +21871,7 @@
     <row r="85" spans="1:54" ht="13.8" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A85" s="192"/>
       <c r="B85" s="117" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C85" s="99"/>
       <c r="D85" s="108"/>
@@ -21919,7 +21933,7 @@
     <row r="86" spans="1:54" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A86" s="192"/>
       <c r="B86" s="117" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C86" s="99"/>
       <c r="D86" s="108"/>
@@ -21985,7 +21999,7 @@
     <row r="87" spans="1:54" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A87" s="192"/>
       <c r="B87" s="117" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C87" s="99"/>
       <c r="D87" s="108"/>
@@ -22051,7 +22065,7 @@
     <row r="88" spans="1:54" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A88" s="192"/>
       <c r="B88" s="117" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C88" s="99"/>
       <c r="D88" s="108"/>
@@ -22103,10 +22117,10 @@
       </c>
       <c r="AQ88" s="77"/>
       <c r="AR88" s="80" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="AS88" s="80" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AT88" s="80"/>
       <c r="AU88" s="89"/>
@@ -22121,7 +22135,7 @@
     <row r="89" spans="1:54" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A89" s="192"/>
       <c r="B89" s="117" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C89" s="99"/>
       <c r="D89" s="108"/>
@@ -22172,11 +22186,11 @@
       <c r="AQ89" s="77"/>
       <c r="AR89" s="80"/>
       <c r="AS89" s="80" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AT89" s="80"/>
       <c r="AU89" s="89" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="AV89" s="89"/>
       <c r="AW89" s="89"/>
@@ -22244,10 +22258,10 @@
     </row>
     <row r="91" spans="1:54" ht="72" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A91" s="192" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B91" s="119" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="C91" s="120"/>
       <c r="D91" s="121"/>
@@ -22297,7 +22311,7 @@
         <v>0.3</v>
       </c>
       <c r="AQ91" s="125" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AR91" s="126"/>
       <c r="AS91" s="127" t="s">
@@ -22306,20 +22320,20 @@
       <c r="AT91" s="127"/>
       <c r="AU91" s="128"/>
       <c r="AV91" s="128" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AW91" s="128" t="str">
         <f>"D"&amp;RIGHT(A91,5)</f>
         <v>D1.3.7</v>
       </c>
       <c r="AX91" s="128" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AY91" s="128" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AZ91" s="128" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="BA91" s="128"/>
       <c r="BB91" s="190">
@@ -22391,7 +22405,7 @@
       <c r="AX92" s="89"/>
       <c r="AY92" s="89"/>
       <c r="AZ92" s="89" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="BA92" s="89"/>
       <c r="BB92" s="186"/>
@@ -22673,10 +22687,10 @@
     </row>
     <row r="97" spans="1:54" ht="60" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A97" s="192" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B97" s="119" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="C97" s="120"/>
       <c r="D97" s="121"/>
@@ -22726,7 +22740,7 @@
         <v>0.74</v>
       </c>
       <c r="AQ97" s="125" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AR97" s="126"/>
       <c r="AS97" s="127" t="s">
@@ -22737,19 +22751,19 @@
       </c>
       <c r="AU97" s="128"/>
       <c r="AV97" s="128" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AW97" s="128" t="s">
+        <v>456</v>
+      </c>
+      <c r="AX97" s="128" t="s">
         <v>457</v>
       </c>
-      <c r="AX97" s="128" t="s">
-        <v>458</v>
-      </c>
       <c r="AY97" s="128" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AZ97" s="128" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="BA97" s="128"/>
       <c r="BB97" s="190">
@@ -22833,21 +22847,21 @@
       </c>
       <c r="AQ98" s="92"/>
       <c r="AR98" s="80" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="AS98" s="80" t="s">
         <v>110</v>
       </c>
       <c r="AT98" s="80"/>
       <c r="AU98" s="89" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="AV98" s="89"/>
       <c r="AW98" s="89"/>
       <c r="AX98" s="89"/>
       <c r="AY98" s="89"/>
       <c r="AZ98" s="89" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="BA98" s="89"/>
       <c r="BB98" s="186"/>
@@ -22924,7 +22938,7 @@
       </c>
       <c r="AT99" s="80"/>
       <c r="AU99" s="91" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="AV99" s="91"/>
       <c r="AW99" s="89"/>
@@ -22936,10 +22950,10 @@
     </row>
     <row r="100" spans="1:54" ht="28.8" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A100" s="192" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B100" s="119" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="C100" s="120"/>
       <c r="D100" s="121"/>
@@ -22989,30 +23003,30 @@
         <v>0</v>
       </c>
       <c r="AQ100" s="125" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AR100" s="126"/>
       <c r="AS100" s="127" t="s">
         <v>63</v>
       </c>
       <c r="AT100" s="127" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AU100" s="128"/>
       <c r="AV100" s="128" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AW100" s="128" t="s">
+        <v>422</v>
+      </c>
+      <c r="AX100" s="128" t="s">
         <v>423</v>
       </c>
-      <c r="AX100" s="128" t="s">
+      <c r="AY100" s="128" t="s">
         <v>424</v>
       </c>
-      <c r="AY100" s="128" t="s">
-        <v>425</v>
-      </c>
       <c r="AZ100" s="128" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="BA100" s="128"/>
       <c r="BB100" s="190">
@@ -23022,7 +23036,7 @@
     <row r="101" spans="1:54" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A101" s="192"/>
       <c r="B101" s="15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C101" s="38"/>
       <c r="D101" s="37"/>
@@ -23071,7 +23085,7 @@
       <c r="AQ101" s="61"/>
       <c r="AR101" s="93"/>
       <c r="AS101" s="85" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AT101" s="85"/>
       <c r="AU101" s="91"/>
@@ -23080,17 +23094,17 @@
       <c r="AX101" s="89"/>
       <c r="AY101" s="89"/>
       <c r="AZ101" s="89" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="BA101" s="89"/>
       <c r="BB101" s="186"/>
     </row>
     <row r="102" spans="1:54" ht="28.8" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A102" s="192" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B102" s="119" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="C102" s="120"/>
       <c r="D102" s="121"/>
@@ -23140,30 +23154,30 @@
         <v>0</v>
       </c>
       <c r="AQ102" s="125" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AR102" s="126"/>
       <c r="AS102" s="127" t="s">
         <v>63</v>
       </c>
       <c r="AT102" s="127" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AU102" s="128"/>
       <c r="AV102" s="128" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AW102" s="128" t="s">
+        <v>425</v>
+      </c>
+      <c r="AX102" s="128" t="s">
         <v>426</v>
       </c>
-      <c r="AX102" s="128" t="s">
-        <v>427</v>
-      </c>
       <c r="AY102" s="128" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AZ102" s="128" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="BA102" s="128"/>
       <c r="BB102" s="190">
@@ -23173,7 +23187,7 @@
     <row r="103" spans="1:54" ht="28.8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A103" s="192"/>
       <c r="B103" s="15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C103" s="38"/>
       <c r="D103" s="37"/>
@@ -23222,7 +23236,7 @@
       <c r="AQ103" s="61"/>
       <c r="AR103" s="93"/>
       <c r="AS103" s="80" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AT103" s="80"/>
       <c r="AU103" s="91"/>
@@ -23231,7 +23245,7 @@
       <c r="AX103" s="89"/>
       <c r="AY103" s="89"/>
       <c r="AZ103" s="89" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="BA103" s="89"/>
       <c r="BB103" s="186"/>
@@ -23406,10 +23420,10 @@
     </row>
     <row r="107" spans="1:54" ht="43.2" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A107" s="192" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B107" s="119" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C107" s="120"/>
       <c r="D107" s="121"/>
@@ -23459,31 +23473,31 @@
         <v>0.10000000000000002</v>
       </c>
       <c r="AQ107" s="125" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AR107" s="126"/>
       <c r="AS107" s="127" t="s">
         <v>46</v>
       </c>
       <c r="AT107" s="127" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AU107" s="128"/>
       <c r="AV107" s="128" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AW107" s="128" t="str">
         <f>"D"&amp;RIGHT(A107,5)</f>
         <v>D2.1.4</v>
       </c>
       <c r="AX107" s="128" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AY107" s="128" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AZ107" s="128" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="BA107" s="128"/>
       <c r="BB107" s="190">
@@ -23493,7 +23507,7 @@
     <row r="108" spans="1:54" ht="100.8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A108" s="35"/>
       <c r="B108" s="15" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="C108" s="99"/>
       <c r="D108" s="108"/>
@@ -23552,10 +23566,10 @@
         <v>0.1</v>
       </c>
       <c r="AQ108" s="61" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="AR108" s="93" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="AS108" s="80"/>
       <c r="AT108" s="80"/>
@@ -23565,7 +23579,7 @@
       <c r="AX108" s="89"/>
       <c r="AY108" s="89"/>
       <c r="AZ108" s="89" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="BA108" s="89"/>
       <c r="BB108" s="186"/>
@@ -23573,7 +23587,7 @@
     <row r="109" spans="1:54" ht="28.8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A109" s="35"/>
       <c r="B109" s="15" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C109" s="99"/>
       <c r="D109" s="108"/>
@@ -23632,7 +23646,7 @@
         <v>0</v>
       </c>
       <c r="AQ109" s="61" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AR109" s="93"/>
       <c r="AS109" s="80"/>
@@ -23649,7 +23663,7 @@
     <row r="110" spans="1:54" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A110" s="35"/>
       <c r="B110" s="15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C110" s="99"/>
       <c r="D110" s="108"/>
@@ -23927,10 +23941,10 @@
     </row>
     <row r="114" spans="1:54" ht="88.2" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A114" s="192" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B114" s="119" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="C114" s="120"/>
       <c r="D114" s="121"/>
@@ -23980,7 +23994,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="AQ114" s="125" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AR114" s="126"/>
       <c r="AS114" s="127" t="s">
@@ -23991,19 +24005,19 @@
       </c>
       <c r="AU114" s="128"/>
       <c r="AV114" s="128" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AW114" s="128" t="s">
+        <v>444</v>
+      </c>
+      <c r="AX114" s="128" t="s">
+        <v>460</v>
+      </c>
+      <c r="AY114" s="128" t="s">
         <v>445</v>
       </c>
-      <c r="AX114" s="128" t="s">
-        <v>461</v>
-      </c>
-      <c r="AY114" s="128" t="s">
-        <v>446</v>
-      </c>
       <c r="AZ114" s="128" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="BA114" s="128"/>
       <c r="BB114" s="190">
@@ -24085,21 +24099,21 @@
       </c>
       <c r="AQ115" s="92"/>
       <c r="AR115" s="85" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="AS115" s="80" t="s">
         <v>127</v>
       </c>
       <c r="AT115" s="80"/>
       <c r="AU115" s="89" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AV115" s="89"/>
       <c r="AW115" s="89"/>
       <c r="AX115" s="89"/>
       <c r="AY115" s="89"/>
       <c r="AZ115" s="89" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="BA115" s="89"/>
       <c r="BB115" s="186"/>
@@ -24171,14 +24185,14 @@
         <v>36</v>
       </c>
       <c r="AR116" s="93" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AS116" s="80" t="s">
         <v>63</v>
       </c>
       <c r="AT116" s="80"/>
       <c r="AU116" s="91" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="AV116" s="91"/>
       <c r="AW116" s="89"/>
@@ -24190,10 +24204,10 @@
     </row>
     <row r="117" spans="1:54" ht="72" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A117" s="192" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B117" s="119" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="C117" s="120"/>
       <c r="D117" s="121"/>
@@ -24243,30 +24257,30 @@
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="AQ117" s="125" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AR117" s="126"/>
       <c r="AS117" s="127" t="s">
         <v>46</v>
       </c>
       <c r="AT117" s="127" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AU117" s="128"/>
       <c r="AV117" s="128" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AW117" s="128" t="s">
+        <v>427</v>
+      </c>
+      <c r="AX117" s="128" t="s">
         <v>428</v>
       </c>
-      <c r="AX117" s="128" t="s">
-        <v>429</v>
-      </c>
       <c r="AY117" s="128" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AZ117" s="128" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="BA117" s="128"/>
       <c r="BB117" s="190">
@@ -24276,7 +24290,7 @@
     <row r="118" spans="1:54" ht="115.2" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A118" s="35"/>
       <c r="B118" s="15" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C118" s="38"/>
       <c r="D118" s="37"/>
@@ -24337,24 +24351,24 @@
         <v>0.3</v>
       </c>
       <c r="AQ118" s="61" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AR118" s="93" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="AS118" s="85" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AT118" s="85"/>
       <c r="AU118" s="91" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AV118" s="91"/>
       <c r="AW118" s="89"/>
       <c r="AX118" s="89"/>
       <c r="AY118" s="89"/>
       <c r="AZ118" s="89" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="BA118" s="89"/>
       <c r="BB118" s="186"/>
@@ -24362,7 +24376,7 @@
     <row r="119" spans="1:54" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A119" s="35"/>
       <c r="B119" s="15" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C119" s="38"/>
       <c r="D119" s="37"/>
@@ -24423,7 +24437,7 @@
       <c r="AQ119" s="61"/>
       <c r="AR119" s="93"/>
       <c r="AS119" s="85" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AT119" s="85"/>
       <c r="AU119" s="91"/>
@@ -24438,7 +24452,7 @@
     <row r="120" spans="1:54" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A120" s="35"/>
       <c r="B120" s="15" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C120" s="38"/>
       <c r="D120" s="37"/>
@@ -24497,11 +24511,11 @@
         <v>0</v>
       </c>
       <c r="AQ120" s="61" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AR120" s="93"/>
       <c r="AS120" s="85" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AT120" s="85"/>
       <c r="AU120" s="91"/>
@@ -24516,7 +24530,7 @@
     <row r="121" spans="1:54" ht="28.8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A121" s="35"/>
       <c r="B121" s="15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C121" s="38"/>
       <c r="D121" s="37"/>
@@ -24575,11 +24589,11 @@
         <v>0</v>
       </c>
       <c r="AQ121" s="61" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AR121" s="93"/>
       <c r="AS121" s="85" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AT121" s="85"/>
       <c r="AU121" s="91"/>
@@ -24594,7 +24608,7 @@
     <row r="122" spans="1:54" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A122" s="35"/>
       <c r="B122" s="15" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C122" s="38"/>
       <c r="D122" s="37"/>
@@ -24655,7 +24669,7 @@
       <c r="AQ122" s="61"/>
       <c r="AR122" s="93"/>
       <c r="AS122" s="85" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AT122" s="85"/>
       <c r="AU122" s="91"/>
@@ -24670,7 +24684,7 @@
     <row r="123" spans="1:54" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A123" s="35"/>
       <c r="B123" s="15" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C123" s="38"/>
       <c r="D123" s="37"/>
@@ -24729,7 +24743,7 @@
       <c r="AQ123" s="61"/>
       <c r="AR123" s="93"/>
       <c r="AS123" s="85" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AT123" s="85"/>
       <c r="AU123" s="91"/>
@@ -24744,7 +24758,7 @@
     <row r="124" spans="1:54" ht="28.8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A124" s="35"/>
       <c r="B124" s="15" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C124" s="38"/>
       <c r="D124" s="37"/>
@@ -24801,11 +24815,11 @@
         <v>0</v>
       </c>
       <c r="AQ124" s="61" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AR124" s="93"/>
       <c r="AS124" s="80" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AT124" s="80"/>
       <c r="AU124" s="91"/>
@@ -24820,7 +24834,7 @@
     <row r="125" spans="1:54" ht="28.8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A125" s="35"/>
       <c r="B125" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C125" s="99"/>
       <c r="D125" s="108"/>
@@ -24877,11 +24891,11 @@
         <v>0</v>
       </c>
       <c r="AQ125" s="61" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AR125" s="93"/>
       <c r="AS125" s="80" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AT125" s="80"/>
       <c r="AU125" s="91"/>
@@ -25031,7 +25045,7 @@
       </c>
       <c r="AQ127" s="173"/>
       <c r="AR127" s="93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AS127" s="106"/>
       <c r="AT127" s="106"/>
@@ -25400,7 +25414,7 @@
       <c r="AO133" s="164"/>
       <c r="AP133" s="172">
         <f>SUMPRODUCT(AO134:AO154,AP134:AP154)/SUM(AO134:AO154)</f>
-        <v>0.55666666666666675</v>
+        <v>0.57333333333333347</v>
       </c>
       <c r="AQ133" s="173"/>
       <c r="AR133" s="93"/>
@@ -25417,10 +25431,10 @@
     </row>
     <row r="134" spans="1:54" ht="117" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A134" s="192" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B134" s="119" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="C134" s="120"/>
       <c r="D134" s="121"/>
@@ -25467,10 +25481,10 @@
       <c r="AO134" s="169"/>
       <c r="AP134" s="124">
         <f>SUMPRODUCT(AO135:AO136,AP135:AP136)/SUM(AO135:AO136)</f>
-        <v>0.9</v>
+        <v>0.98333333333333339</v>
       </c>
       <c r="AQ134" s="125" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AR134" s="126"/>
       <c r="AS134" s="127" t="s">
@@ -25481,23 +25495,23 @@
       </c>
       <c r="AU134" s="128"/>
       <c r="AV134" s="128" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AW134" s="128" t="str">
         <f>"D"&amp;RIGHT(A134,5)</f>
         <v>D2.4.1</v>
       </c>
       <c r="AX134" s="128" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AY134" s="128" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AZ134" s="128" t="s">
-        <v>723</v>
+        <v>775</v>
       </c>
       <c r="BA134" s="128" t="s">
-        <v>597</v>
+        <v>776</v>
       </c>
       <c r="BB134" s="190">
         <v>1</v>
@@ -25564,35 +25578,37 @@
         <v>5</v>
       </c>
       <c r="AP135" s="21">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AQ135" s="92"/>
       <c r="AR135" s="80" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AS135" s="80" t="s">
         <v>55</v>
       </c>
       <c r="AT135" s="80"/>
       <c r="AU135" s="80" t="s">
-        <v>596</v>
+        <v>774</v>
       </c>
       <c r="AV135" s="80"/>
       <c r="AW135" s="80" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AX135" s="80"/>
       <c r="AY135" s="80"/>
       <c r="AZ135" s="80" t="s">
-        <v>531</v>
-      </c>
-      <c r="BA135" s="80"/>
+        <v>530</v>
+      </c>
+      <c r="BA135" s="80" t="s">
+        <v>777</v>
+      </c>
       <c r="BB135" s="80"/>
     </row>
     <row r="136" spans="1:54" ht="57.6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A136" s="192"/>
       <c r="B136" s="15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C136" s="24"/>
       <c r="D136" s="23"/>
@@ -25651,26 +25667,26 @@
       </c>
       <c r="AT136" s="80"/>
       <c r="AU136" s="80" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AV136" s="80"/>
       <c r="AW136" s="80" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AX136" s="80"/>
       <c r="AY136" s="80"/>
       <c r="AZ136" s="80" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="BA136" s="80"/>
       <c r="BB136" s="80"/>
     </row>
     <row r="137" spans="1:54" ht="76.2" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A137" s="192" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B137" s="119" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="C137" s="120"/>
       <c r="D137" s="121"/>
@@ -25720,7 +25736,7 @@
         <v>1</v>
       </c>
       <c r="AQ137" s="125" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AR137" s="126"/>
       <c r="AS137" s="127" t="s">
@@ -25729,23 +25745,23 @@
       <c r="AT137" s="127"/>
       <c r="AU137" s="128"/>
       <c r="AV137" s="128" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AW137" s="128" t="str">
         <f>"D"&amp;RIGHT(A137,5)</f>
         <v>D2.4.2</v>
       </c>
       <c r="AX137" s="128" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AY137" s="128" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AZ137" s="128" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="BA137" s="128" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="BB137" s="190"/>
     </row>
@@ -25871,7 +25887,7 @@
         <v>1</v>
       </c>
       <c r="AQ139" s="92" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AR139" s="80"/>
       <c r="AS139" s="80" t="s">
@@ -25879,7 +25895,7 @@
       </c>
       <c r="AT139" s="80"/>
       <c r="AU139" s="80" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV139" s="80"/>
       <c r="AW139" s="80"/>
@@ -25952,19 +25968,19 @@
         <v>115</v>
       </c>
       <c r="AR140" s="80" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="AS140" s="80" t="s">
         <v>26</v>
       </c>
       <c r="AT140" s="80"/>
       <c r="AU140" s="80" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="AV140" s="80"/>
       <c r="AW140" s="80"/>
       <c r="AX140" s="80" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="AY140" s="80"/>
       <c r="AZ140" s="80"/>
@@ -25973,10 +25989,10 @@
     </row>
     <row r="141" spans="1:54" ht="43.2" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A141" s="192" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B141" s="119" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C141" s="120"/>
       <c r="D141" s="121"/>
@@ -26026,7 +26042,7 @@
         <v>0.27500000000000002</v>
       </c>
       <c r="AQ141" s="125" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AR141" s="126" t="s">
         <v>120</v>
@@ -26039,19 +26055,19 @@
       </c>
       <c r="AU141" s="128"/>
       <c r="AV141" s="128" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AW141" s="128" t="s">
+        <v>429</v>
+      </c>
+      <c r="AX141" s="128" t="s">
+        <v>595</v>
+      </c>
+      <c r="AY141" s="128" t="s">
         <v>430</v>
       </c>
-      <c r="AX141" s="128" t="s">
-        <v>598</v>
-      </c>
-      <c r="AY141" s="128" t="s">
-        <v>431</v>
-      </c>
       <c r="AZ141" s="128" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="BA141" s="128"/>
       <c r="BB141" s="190">
@@ -26061,7 +26077,7 @@
     <row r="142" spans="1:54" ht="43.2" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A142" s="35"/>
       <c r="B142" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C142" s="99"/>
       <c r="D142" s="108"/>
@@ -26112,24 +26128,24 @@
         <v>1</v>
       </c>
       <c r="AQ142" s="61" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AR142" s="93" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AS142" s="80" t="s">
         <v>119</v>
       </c>
       <c r="AT142" s="80"/>
       <c r="AU142" s="80" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AV142" s="80"/>
       <c r="AW142" s="80"/>
       <c r="AX142" s="80"/>
       <c r="AY142" s="80"/>
       <c r="AZ142" s="80" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="BA142" s="80"/>
       <c r="BB142" s="80"/>
@@ -26137,7 +26153,7 @@
     <row r="143" spans="1:54" ht="57.6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A143" s="35"/>
       <c r="B143" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C143" s="99"/>
       <c r="D143" s="108"/>
@@ -26188,17 +26204,17 @@
         <v>0.35</v>
       </c>
       <c r="AQ143" s="61" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AR143" s="93" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AS143" s="80" t="s">
         <v>119</v>
       </c>
       <c r="AT143" s="80"/>
       <c r="AU143" s="80" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="AV143" s="80"/>
       <c r="AW143" s="80"/>
@@ -26211,7 +26227,7 @@
     <row r="144" spans="1:54" ht="28.8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A144" s="35"/>
       <c r="B144" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C144" s="99"/>
       <c r="D144" s="108"/>
@@ -26262,7 +26278,7 @@
         <v>0.3</v>
       </c>
       <c r="AQ144" s="61" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AR144" s="93"/>
       <c r="AS144" s="80" t="s">
@@ -26281,7 +26297,7 @@
     <row r="145" spans="1:54" ht="57.6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A145" s="35"/>
       <c r="B145" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C145" s="99"/>
       <c r="D145" s="108"/>
@@ -26330,7 +26346,7 @@
         <v>0</v>
       </c>
       <c r="AQ145" s="61" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AR145" s="93"/>
       <c r="AS145" s="80" t="s">
@@ -26349,7 +26365,7 @@
     <row r="146" spans="1:54" ht="43.2" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A146" s="35"/>
       <c r="B146" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C146" s="99"/>
       <c r="D146" s="108"/>
@@ -26398,10 +26414,10 @@
         <v>0</v>
       </c>
       <c r="AQ146" s="61" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AR146" s="93" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AS146" s="80" t="s">
         <v>119</v>
@@ -26419,7 +26435,7 @@
     <row r="147" spans="1:54" ht="72" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A147" s="35"/>
       <c r="B147" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C147" s="99"/>
       <c r="D147" s="108"/>
@@ -26470,7 +26486,7 @@
         <v>0</v>
       </c>
       <c r="AQ147" s="91" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AR147" s="2"/>
       <c r="AS147" s="80" t="s">
@@ -26478,7 +26494,7 @@
       </c>
       <c r="AT147" s="80"/>
       <c r="AU147" s="80" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AV147" s="80"/>
       <c r="AW147" s="80"/>
@@ -26490,10 +26506,10 @@
     </row>
     <row r="148" spans="1:54" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A148" s="192" t="s">
+        <v>401</v>
+      </c>
+      <c r="B148" s="119" t="s">
         <v>402</v>
-      </c>
-      <c r="B148" s="119" t="s">
-        <v>403</v>
       </c>
       <c r="C148" s="120"/>
       <c r="D148" s="121"/>
@@ -26543,25 +26559,25 @@
         <v>0</v>
       </c>
       <c r="AQ148" s="125" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AR148" s="126"/>
       <c r="AS148" s="127" t="s">
         <v>47</v>
       </c>
       <c r="AT148" s="127" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AU148" s="128"/>
       <c r="AV148" s="128" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AW148" s="128" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="AX148" s="128"/>
       <c r="AY148" s="128" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="AZ148" s="128"/>
       <c r="BA148" s="128"/>
@@ -26572,7 +26588,7 @@
     <row r="149" spans="1:54" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A149" s="35"/>
       <c r="B149" s="15" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="C149" s="99"/>
       <c r="D149" s="108"/>
@@ -26644,7 +26660,7 @@
     <row r="150" spans="1:54" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A150" s="35"/>
       <c r="B150" s="15" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="C150" s="99"/>
       <c r="D150" s="108"/>
@@ -27005,7 +27021,7 @@
       </c>
       <c r="AQ155" s="173"/>
       <c r="AR155" s="93" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AS155" s="106"/>
       <c r="AT155" s="106"/>
@@ -27020,10 +27036,10 @@
     </row>
     <row r="156" spans="1:54" ht="43.2" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A156" s="192" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B156" s="119" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="C156" s="120"/>
       <c r="D156" s="121"/>
@@ -27073,7 +27089,7 @@
         <v>1</v>
       </c>
       <c r="AQ156" s="125" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AR156" s="126"/>
       <c r="AS156" s="127" t="s">
@@ -27082,22 +27098,22 @@
       <c r="AT156" s="127"/>
       <c r="AU156" s="128"/>
       <c r="AV156" s="128" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="AW156" s="128" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AX156" s="128" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AY156" s="128" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AZ156" s="128" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="BA156" s="128" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="BB156" s="190"/>
     </row>
@@ -27226,14 +27242,14 @@
         <v>29</v>
       </c>
       <c r="AR158" s="80" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AS158" s="80" t="s">
         <v>55</v>
       </c>
       <c r="AT158" s="80"/>
       <c r="AU158" s="89" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AV158" s="89"/>
       <c r="AW158" s="89"/>
@@ -27378,17 +27394,17 @@
       <c r="AX160" s="89"/>
       <c r="AY160" s="89"/>
       <c r="AZ160" s="89" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="BA160" s="89"/>
       <c r="BB160" s="186"/>
     </row>
     <row r="161" spans="1:54" ht="100.8" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A161" s="192" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B161" s="119" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="C161" s="120"/>
       <c r="D161" s="121"/>
@@ -27438,7 +27454,7 @@
         <v>0.97142857142857142</v>
       </c>
       <c r="AQ161" s="125" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AR161" s="126"/>
       <c r="AS161" s="127" t="s">
@@ -27447,22 +27463,22 @@
       <c r="AT161" s="127"/>
       <c r="AU161" s="128"/>
       <c r="AV161" s="128" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AW161" s="128" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AX161" s="128" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AY161" s="128" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AZ161" s="128" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="BA161" s="128" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="BB161" s="190">
         <v>3</v>
@@ -27471,7 +27487,7 @@
     <row r="162" spans="1:54" ht="43.2" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A162" s="192"/>
       <c r="B162" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C162" s="24"/>
       <c r="D162" s="23"/>
@@ -27522,26 +27538,26 @@
         <v>1</v>
       </c>
       <c r="AQ162" s="77" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AR162" s="80" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AS162" s="80" t="s">
         <v>63</v>
       </c>
       <c r="AT162" s="80" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AU162" s="89" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AV162" s="89"/>
       <c r="AW162" s="89"/>
       <c r="AX162" s="89"/>
       <c r="AY162" s="89"/>
       <c r="AZ162" s="89" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="BA162" s="89"/>
       <c r="BB162" s="186"/>
@@ -27549,7 +27565,7 @@
     <row r="163" spans="1:54" ht="57.6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A163" s="192"/>
       <c r="B163" s="15" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C163" s="24"/>
       <c r="D163" s="23"/>
@@ -27600,19 +27616,19 @@
         <v>0.9</v>
       </c>
       <c r="AQ163" s="77" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AR163" s="80" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="AS163" s="80" t="s">
         <v>63</v>
       </c>
       <c r="AT163" s="80" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AU163" s="89" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="AV163" s="89"/>
       <c r="AW163" s="89"/>
@@ -27683,14 +27699,14 @@
         <v>124</v>
       </c>
       <c r="AR164" s="80" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AS164" s="80" t="s">
         <v>55</v>
       </c>
       <c r="AT164" s="80"/>
       <c r="AU164" s="89" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="AV164" s="89"/>
       <c r="AW164" s="89"/>
@@ -27702,10 +27718,10 @@
     </row>
     <row r="165" spans="1:54" ht="28.8" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A165" s="192" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B165" s="119" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="C165" s="120"/>
       <c r="D165" s="121"/>
@@ -27751,7 +27767,7 @@
         <v>0</v>
       </c>
       <c r="AQ165" s="125" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="AR165" s="126"/>
       <c r="AS165" s="127" t="s">
@@ -27760,7 +27776,7 @@
       <c r="AT165" s="127"/>
       <c r="AU165" s="128"/>
       <c r="AV165" s="128" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AW165" s="128"/>
       <c r="AX165" s="128"/>
@@ -27835,7 +27851,7 @@
       <c r="AY166" s="89"/>
       <c r="AZ166" s="89"/>
       <c r="BA166" s="89" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="BB166" s="186"/>
     </row>
@@ -28039,10 +28055,10 @@
     </row>
     <row r="170" spans="1:54" ht="28.8" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A170" s="192" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B170" s="174" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="C170" s="129"/>
       <c r="D170" s="130"/>
@@ -28092,7 +28108,7 @@
         <v>0.15</v>
       </c>
       <c r="AQ170" s="221" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AR170" s="133"/>
       <c r="AS170" s="127" t="s">
@@ -28101,7 +28117,7 @@
       <c r="AT170" s="127"/>
       <c r="AU170" s="128"/>
       <c r="AV170" s="128" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AW170" s="128"/>
       <c r="AX170" s="128"/>
@@ -28179,7 +28195,7 @@
       <c r="AX171" s="89"/>
       <c r="AY171" s="89"/>
       <c r="AZ171" s="89" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="BA171" s="89"/>
       <c r="BB171" s="186"/>
@@ -28255,7 +28271,7 @@
     <row r="173" spans="1:54" ht="28.8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A173" s="192"/>
       <c r="B173" s="15" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="C173" s="24"/>
       <c r="D173" s="23"/>
@@ -28306,13 +28322,13 @@
         <v>0.6</v>
       </c>
       <c r="AQ173" s="77" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="AR173" s="80"/>
       <c r="AS173" s="80"/>
       <c r="AT173" s="80"/>
       <c r="AU173" s="89" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="AV173" s="89"/>
       <c r="AW173" s="89"/>
@@ -28380,10 +28396,10 @@
     </row>
     <row r="175" spans="1:54" ht="57.6" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A175" s="192" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B175" s="119" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="C175" s="120"/>
       <c r="D175" s="121"/>
@@ -28433,30 +28449,30 @@
         <v>0.35833333333333334</v>
       </c>
       <c r="AQ175" s="125" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AR175" s="126"/>
       <c r="AS175" s="127" t="s">
         <v>63</v>
       </c>
       <c r="AT175" s="127" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AU175" s="128"/>
       <c r="AV175" s="128" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AW175" s="128" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AX175" s="128" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AY175" s="128" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AZ175" s="128" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="BA175" s="128"/>
       <c r="BB175" s="190">
@@ -28517,24 +28533,24 @@
         <v>0.6</v>
       </c>
       <c r="AQ176" s="77" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AR176" s="80" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AS176" s="80" t="s">
         <v>63</v>
       </c>
       <c r="AT176" s="80"/>
       <c r="AU176" s="89" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AV176" s="89"/>
       <c r="AW176" s="89"/>
       <c r="AX176" s="89"/>
       <c r="AY176" s="89"/>
       <c r="AZ176" s="89" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="BA176" s="89"/>
       <c r="BB176" s="186"/>
@@ -28542,7 +28558,7 @@
     <row r="177" spans="1:54" ht="43.2" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A177" s="192"/>
       <c r="B177" s="15" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C177" s="24"/>
       <c r="D177" s="23"/>
@@ -28597,16 +28613,16 @@
         <v>1</v>
       </c>
       <c r="AQ177" s="77" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AR177" s="80" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="AS177" s="80" t="s">
         <v>63</v>
       </c>
       <c r="AT177" s="80" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AU177" s="89"/>
       <c r="AV177" s="89"/>
@@ -28620,7 +28636,7 @@
     <row r="178" spans="1:54" ht="28.8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A178" s="192"/>
       <c r="B178" s="15" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C178" s="24"/>
       <c r="D178" s="23"/>
@@ -28675,7 +28691,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ178" s="77" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AR178" s="80"/>
       <c r="AS178" s="80" t="s">
@@ -28694,7 +28710,7 @@
     <row r="179" spans="1:54" ht="28.8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A179" s="192"/>
       <c r="B179" s="15" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C179" s="24"/>
       <c r="D179" s="23"/>
@@ -28749,7 +28765,7 @@
         <v>0</v>
       </c>
       <c r="AQ179" s="77" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AR179" s="80"/>
       <c r="AS179" s="80" t="s">
@@ -28768,7 +28784,7 @@
     <row r="180" spans="1:54" ht="32.4" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A180" s="192"/>
       <c r="B180" s="15" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C180" s="24"/>
       <c r="D180" s="23"/>
@@ -28823,7 +28839,7 @@
         <v>0</v>
       </c>
       <c r="AQ180" s="77" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AR180" s="80"/>
       <c r="AS180" s="80" t="s">
@@ -28842,7 +28858,7 @@
     <row r="181" spans="1:54" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A181" s="192"/>
       <c r="B181" s="15" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C181" s="24"/>
       <c r="D181" s="23"/>
@@ -28909,10 +28925,10 @@
     </row>
     <row r="182" spans="1:54" ht="57.6" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A182" s="192" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B182" s="119" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="C182" s="120"/>
       <c r="D182" s="121"/>
@@ -28962,7 +28978,7 @@
         <v>0.44153846153846149</v>
       </c>
       <c r="AQ182" s="125" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AR182" s="126"/>
       <c r="AS182" s="127" t="s">
@@ -28973,19 +28989,19 @@
       </c>
       <c r="AU182" s="128"/>
       <c r="AV182" s="128" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AW182" s="128" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AX182" s="128" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AY182" s="128" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AZ182" s="128" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="BA182" s="128"/>
       <c r="BB182" s="190">
@@ -28995,7 +29011,7 @@
     <row r="183" spans="1:54" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A183" s="192"/>
       <c r="B183" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C183" s="24"/>
       <c r="D183" s="23"/>
@@ -29061,7 +29077,7 @@
     <row r="184" spans="1:54" ht="43.2" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A184" s="192"/>
       <c r="B184" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C184" s="24"/>
       <c r="D184" s="23"/>
@@ -29110,10 +29126,10 @@
         <v>0.8</v>
       </c>
       <c r="AQ184" s="77" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AR184" s="80" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AS184" s="80" t="s">
         <v>121</v>
@@ -29131,7 +29147,7 @@
     <row r="185" spans="1:54" ht="115.2" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A185" s="192"/>
       <c r="B185" s="15" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="C185" s="24"/>
       <c r="D185" s="23"/>
@@ -29193,14 +29209,14 @@
       </c>
       <c r="AQ185" s="77"/>
       <c r="AR185" s="80" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AS185" s="80" t="s">
         <v>121</v>
       </c>
       <c r="AT185" s="80"/>
       <c r="AU185" s="89" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="AV185" s="89"/>
       <c r="AW185" s="89"/>
@@ -29213,7 +29229,7 @@
     <row r="186" spans="1:54" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A186" s="192"/>
       <c r="B186" s="15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C186" s="24"/>
       <c r="D186" s="23"/>
@@ -29293,7 +29309,7 @@
     <row r="187" spans="1:54" ht="28.8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A187" s="192"/>
       <c r="B187" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C187" s="24"/>
       <c r="D187" s="23"/>
@@ -29375,7 +29391,7 @@
     <row r="188" spans="1:54" ht="28.8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A188" s="192"/>
       <c r="B188" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C188" s="24"/>
       <c r="D188" s="23"/>
@@ -29441,14 +29457,14 @@
       </c>
       <c r="AQ188" s="77"/>
       <c r="AR188" s="80" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="AS188" s="80" t="s">
         <v>121</v>
       </c>
       <c r="AT188" s="80"/>
       <c r="AU188" s="89" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="AV188" s="89"/>
       <c r="AW188" s="89"/>
@@ -29516,10 +29532,10 @@
     </row>
     <row r="190" spans="1:54" ht="129.6" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A190" s="192" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B190" s="119" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="C190" s="120"/>
       <c r="D190" s="121"/>
@@ -29569,7 +29585,7 @@
         <v>0.93333333333333335</v>
       </c>
       <c r="AQ190" s="125" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AR190" s="126"/>
       <c r="AS190" s="127" t="s">
@@ -29580,23 +29596,23 @@
       </c>
       <c r="AU190" s="128"/>
       <c r="AV190" s="128" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AW190" s="128" t="str">
         <f>"D"&amp;RIGHT(A190,5)</f>
         <v>D2.5.7</v>
       </c>
       <c r="AX190" s="128" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AY190" s="128" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AZ190" s="128" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="BA190" s="128" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="BB190" s="190">
         <v>3</v>
@@ -29605,7 +29621,7 @@
     <row r="191" spans="1:54" ht="43.2" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A191" s="192"/>
       <c r="B191" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C191" s="24"/>
       <c r="D191" s="23"/>
@@ -29659,7 +29675,7 @@
       </c>
       <c r="AQ191" s="77"/>
       <c r="AR191" s="85" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AS191" s="80" t="s">
         <v>50</v>
@@ -29671,7 +29687,7 @@
       <c r="AX191" s="89"/>
       <c r="AY191" s="89"/>
       <c r="AZ191" s="89" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="BA191" s="89"/>
       <c r="BB191" s="186"/>
@@ -29679,7 +29695,7 @@
     <row r="192" spans="1:54" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A192" s="192"/>
       <c r="B192" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C192" s="24"/>
       <c r="D192" s="23"/>
@@ -29733,14 +29749,14 @@
       </c>
       <c r="AQ192" s="77"/>
       <c r="AR192" s="85" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AS192" s="80" t="s">
         <v>50</v>
       </c>
       <c r="AT192" s="80"/>
       <c r="AU192" s="89" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AV192" s="89"/>
       <c r="AW192" s="89"/>
@@ -29753,7 +29769,7 @@
     <row r="193" spans="1:54" ht="57.6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A193" s="192"/>
       <c r="B193" s="15" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C193" s="24"/>
       <c r="D193" s="23"/>
@@ -29806,10 +29822,10 @@
         <v>1</v>
       </c>
       <c r="AQ193" s="77" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AR193" s="77" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AS193" s="80" t="s">
         <v>50</v>
@@ -29882,10 +29898,10 @@
     </row>
     <row r="195" spans="1:54" ht="43.2" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A195" s="192" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B195" s="119" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="C195" s="120"/>
       <c r="D195" s="121"/>
@@ -29935,30 +29951,30 @@
         <v>0.56666666666666676</v>
       </c>
       <c r="AQ195" s="125" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AR195" s="126"/>
       <c r="AS195" s="127" t="s">
         <v>63</v>
       </c>
       <c r="AT195" s="127" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AU195" s="128"/>
       <c r="AV195" s="128" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AW195" s="128" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AX195" s="128" t="s">
+        <v>440</v>
+      </c>
+      <c r="AY195" s="128" t="s">
         <v>441</v>
       </c>
-      <c r="AY195" s="128" t="s">
-        <v>442</v>
-      </c>
       <c r="AZ195" s="128" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="BA195" s="128"/>
       <c r="BB195" s="190">
@@ -29968,7 +29984,7 @@
     <row r="196" spans="1:54" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A196" s="14"/>
       <c r="B196" s="15" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C196" s="24"/>
       <c r="D196" s="23"/>
@@ -30018,7 +30034,7 @@
       </c>
       <c r="AQ196" s="77"/>
       <c r="AR196" s="85" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AS196" s="80"/>
       <c r="AT196" s="80"/>
@@ -30028,7 +30044,7 @@
       <c r="AX196" s="89"/>
       <c r="AY196" s="89"/>
       <c r="AZ196" s="89" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="BA196" s="89"/>
       <c r="BB196" s="186"/>
@@ -30036,7 +30052,7 @@
     <row r="197" spans="1:54" ht="86.4" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A197" s="14"/>
       <c r="B197" s="15" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C197" s="24"/>
       <c r="D197" s="23"/>
@@ -30094,12 +30110,12 @@
       </c>
       <c r="AQ197" s="77"/>
       <c r="AR197" s="80" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="AS197" s="80"/>
       <c r="AT197" s="80"/>
       <c r="AU197" s="89" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="AV197" s="89"/>
       <c r="AW197" s="89"/>
@@ -30112,7 +30128,7 @@
     <row r="198" spans="1:54" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A198" s="14"/>
       <c r="B198" s="15" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C198" s="24"/>
       <c r="D198" s="23"/>
@@ -30182,7 +30198,7 @@
     <row r="199" spans="1:54" ht="28.8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A199" s="14"/>
       <c r="B199" s="15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C199" s="24"/>
       <c r="D199" s="23"/>
@@ -30239,7 +30255,7 @@
       <c r="AS199" s="80"/>
       <c r="AT199" s="80"/>
       <c r="AU199" s="89" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="AV199" s="89"/>
       <c r="AW199" s="89"/>
@@ -30307,10 +30323,10 @@
     </row>
     <row r="201" spans="1:54" ht="43.2" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A201" s="192" t="s">
+        <v>492</v>
+      </c>
+      <c r="B201" s="119" t="s">
         <v>493</v>
-      </c>
-      <c r="B201" s="119" t="s">
-        <v>494</v>
       </c>
       <c r="C201" s="120"/>
       <c r="D201" s="121"/>
@@ -30360,42 +30376,42 @@
         <v>1</v>
       </c>
       <c r="AQ201" s="125" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AR201" s="126" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="AS201" s="127" t="s">
         <v>63</v>
       </c>
       <c r="AT201" s="127" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AU201" s="128"/>
       <c r="AV201" s="128" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AW201" s="128" t="s">
+        <v>496</v>
+      </c>
+      <c r="AX201" s="128" t="s">
+        <v>498</v>
+      </c>
+      <c r="AY201" s="128" t="s">
         <v>497</v>
       </c>
-      <c r="AX201" s="128" t="s">
-        <v>499</v>
-      </c>
-      <c r="AY201" s="128" t="s">
-        <v>498</v>
-      </c>
       <c r="AZ201" s="128" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="BA201" s="128" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="BB201" s="190"/>
     </row>
     <row r="202" spans="1:54" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A202" s="14"/>
       <c r="B202" s="15" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C202" s="24"/>
       <c r="D202" s="23"/>
@@ -30756,10 +30772,10 @@
     </row>
     <row r="208" spans="1:54" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A208" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="B208" s="8" t="s">
         <v>500</v>
-      </c>
-      <c r="B208" s="8" t="s">
-        <v>501</v>
       </c>
       <c r="C208" s="10"/>
       <c r="D208" s="9"/>
@@ -30825,7 +30841,7 @@
       <c r="AN208" s="200"/>
       <c r="AO208" s="159"/>
       <c r="AP208" s="177" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AQ208" s="171"/>
       <c r="AR208" s="116"/>
@@ -30842,10 +30858,10 @@
     </row>
     <row r="209" spans="1:57" ht="28.8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A209" s="192" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B209" s="119" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C209" s="120"/>
       <c r="D209" s="121"/>
@@ -30895,22 +30911,22 @@
       </c>
       <c r="AQ209" s="125"/>
       <c r="AR209" s="126" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="AS209" s="127" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AT209" s="127" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AU209" s="128"/>
       <c r="AV209" s="128" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AW209" s="128"/>
       <c r="AX209" s="128"/>
       <c r="AY209" s="128" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AZ209" s="128"/>
       <c r="BA209" s="128"/>
@@ -30918,10 +30934,10 @@
     </row>
     <row r="210" spans="1:57" ht="28.8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A210" s="192" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B210" s="119" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C210" s="120"/>
       <c r="D210" s="121"/>
@@ -30971,22 +30987,22 @@
       </c>
       <c r="AQ210" s="125"/>
       <c r="AR210" s="126" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AS210" s="127" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AT210" s="127" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AU210" s="128"/>
       <c r="AV210" s="128" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AW210" s="128"/>
       <c r="AX210" s="128"/>
       <c r="AY210" s="128" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AZ210" s="128"/>
       <c r="BA210" s="128"/>
@@ -30994,10 +31010,10 @@
     </row>
     <row r="211" spans="1:57" ht="28.8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A211" s="192" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B211" s="119" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C211" s="120"/>
       <c r="D211" s="121"/>
@@ -31047,22 +31063,22 @@
       </c>
       <c r="AQ211" s="125"/>
       <c r="AR211" s="126" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AS211" s="127" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AT211" s="127" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AU211" s="128"/>
       <c r="AV211" s="128" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AW211" s="128"/>
       <c r="AX211" s="128"/>
       <c r="AY211" s="128" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AZ211" s="128"/>
       <c r="BA211" s="128"/>
@@ -31070,10 +31086,10 @@
     </row>
     <row r="212" spans="1:57" ht="28.8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A212" s="192" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B212" s="119" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C212" s="120"/>
       <c r="D212" s="121"/>
@@ -31123,22 +31139,22 @@
       </c>
       <c r="AQ212" s="125"/>
       <c r="AR212" s="126" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AS212" s="127" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AT212" s="127" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AU212" s="128"/>
       <c r="AV212" s="128" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AW212" s="128"/>
       <c r="AX212" s="128"/>
       <c r="AY212" s="128" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AZ212" s="128"/>
       <c r="BA212" s="128"/>
@@ -32764,12 +32780,22 @@
     </row>
     <row r="256" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B256" s="54" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="257" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B257" s="2" t="s">
-        <v>773</v>
+        <v>769</v>
+      </c>
+    </row>
+    <row r="258" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B258" s="2" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="259" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B259" s="2" t="s">
+        <v>779</v>
       </c>
     </row>
   </sheetData>
@@ -38845,10 +38871,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="217" t="s">
+        <v>357</v>
+      </c>
+      <c r="B1" s="217" t="s">
         <v>358</v>
-      </c>
-      <c r="B1" s="217" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -38856,15 +38882,15 @@
         <v>127</v>
       </c>
       <c r="B2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -38872,7 +38898,7 @@
         <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -38880,7 +38906,7 @@
         <v>63</v>
       </c>
       <c r="B5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -38888,23 +38914,23 @@
         <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B7" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -38912,7 +38938,7 @@
         <v>110</v>
       </c>
       <c r="B9" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -38920,31 +38946,31 @@
         <v>119</v>
       </c>
       <c r="B10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B11" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B12" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B13" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -38952,15 +38978,15 @@
         <v>121</v>
       </c>
       <c r="B14" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B15" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -38968,7 +38994,7 @@
         <v>50</v>
       </c>
       <c r="B16" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -38976,7 +39002,7 @@
         <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -38984,7 +39010,7 @@
         <v>46</v>
       </c>
       <c r="B18" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -38992,55 +39018,55 @@
         <v>88</v>
       </c>
       <c r="B19" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B20" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>403</v>
+      </c>
+      <c r="B21" t="s">
         <v>404</v>
-      </c>
-      <c r="B21" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B22" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B23" s="275" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B24" s="274" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B25" s="274" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -39048,34 +39074,34 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B27" s="274" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B28" s="274" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B29" s="274" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B30" s="274" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
   </sheetData>
@@ -39102,82 +39128,82 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="217" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C1" s="223" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H1" s="217" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C2" s="222" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H2" s="218">
         <f ca="1">TODAY()</f>
-        <v>44333</v>
+        <v>44341</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C3" s="222" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C4" s="222" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C5" s="222" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C6" s="222" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C7" s="222" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C8" s="222" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C9" s="222" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C10" s="222" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C11" s="222" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
   </sheetData>
@@ -39206,19 +39232,19 @@
   <sheetData>
     <row r="1" spans="1:7" s="225" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="250" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B1" s="251" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C1" s="251" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D1" s="251" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E1" s="251" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="241" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -39235,7 +39261,7 @@
     </row>
     <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="229" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B3" s="230" t="str">
         <f>IF(VLOOKUP(A3,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A3,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -39257,7 +39283,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="229" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B4" s="230" t="str">
         <f>IF(VLOOKUP(A4,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A4,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -39279,7 +39305,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="229" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B5" s="230" t="str">
         <f>IF(VLOOKUP(A5,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A5,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -39301,7 +39327,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="229" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B6" s="230" t="str">
         <f>IF(VLOOKUP(A6,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A6,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -39323,7 +39349,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="229" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B7" s="230" t="str">
         <f>IF(VLOOKUP(A7,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A7,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -39345,7 +39371,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="229" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B8" s="230" t="str">
         <f>IF(VLOOKUP(A8,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A8,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -39378,7 +39404,7 @@
     </row>
     <row r="10" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="229" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B10" s="230" t="str">
         <f>IF(VLOOKUP(A10,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A10,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -39399,7 +39425,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="229" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B11" s="230" t="str">
         <f>IF(VLOOKUP(A11,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A11,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -39420,7 +39446,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="229" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B12" s="230" t="str">
         <f>IF(VLOOKUP(A12,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A12,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -39441,7 +39467,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="229" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B13" s="230" t="str">
         <f>IF(VLOOKUP(A13,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A13,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -39462,7 +39488,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="229" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="B14" s="230" t="str">
         <f>IF(VLOOKUP(A14,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A14,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -39495,7 +39521,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="229" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B16" s="230" t="str">
         <f>IF(VLOOKUP(A16,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A16,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -39516,7 +39542,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="229" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B17" s="230" t="str">
         <f>IF(VLOOKUP(A17,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A17,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -39537,7 +39563,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="229" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B18" s="230" t="str">
         <f>IF(VLOOKUP(A18,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A18,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -39558,7 +39584,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="229" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B19" s="230" t="str">
         <f>IF(VLOOKUP(A19,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A19,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -39579,7 +39605,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="229" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B20" s="230" t="str">
         <f>IF(VLOOKUP(A20,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A20,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -39600,7 +39626,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="229" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B21" s="230" t="str">
         <f>IF(VLOOKUP(A21,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A21,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -39621,7 +39647,7 @@
     </row>
     <row r="22" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="229" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B22" s="230" t="str">
         <f>IF(VLOOKUP(A22,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A22,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -39654,7 +39680,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="229" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B24" s="230" t="str">
         <f>IF(VLOOKUP(A24,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A24,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -39675,7 +39701,7 @@
     </row>
     <row r="25" spans="1:6" s="273" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="268" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B25" s="239" t="str">
         <f>IF(VLOOKUP(A25,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A25,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -39697,7 +39723,7 @@
     </row>
     <row r="26" spans="1:6" s="273" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="268" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B26" s="239" t="str">
         <f>IF(VLOOKUP(A26,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A26,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -39719,7 +39745,7 @@
     </row>
     <row r="27" spans="1:6" s="273" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="268" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B27" s="239" t="str">
         <f>IF(VLOOKUP(A27,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A27,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -39753,7 +39779,7 @@
     </row>
     <row r="29" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="229" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B29" s="230" t="str">
         <f>IF(VLOOKUP(A29,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A29,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -39774,7 +39800,7 @@
     </row>
     <row r="30" spans="1:6" s="273" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="268" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B30" s="239" t="str">
         <f>IF(VLOOKUP(A30,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A30,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -39820,7 +39846,7 @@
     </row>
     <row r="33" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="229" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B33" s="230" t="str">
         <f>IF(VLOOKUP(A33,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A33,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -39841,7 +39867,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="229" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B34" s="230" t="str">
         <f>IF(VLOOKUP(A34,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A34,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -39862,7 +39888,7 @@
     </row>
     <row r="35" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="229" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B35" s="230" t="str">
         <f>IF(VLOOKUP(A35,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A35,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -39883,7 +39909,7 @@
     </row>
     <row r="36" spans="1:6" s="273" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="268" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B36" s="239" t="str">
         <f>IF(VLOOKUP(A36,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A36,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -39917,7 +39943,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="229" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B38" s="230" t="str">
         <f>IF(VLOOKUP(A38,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A38,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -39938,7 +39964,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="229" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B39" s="230" t="str">
         <f>IF(VLOOKUP(A39,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A39,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -39959,7 +39985,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="229" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B40" s="230" t="str">
         <f>IF(VLOOKUP(A40,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A40,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -39980,7 +40006,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="229" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B41" s="230" t="str">
         <f>IF(VLOOKUP(A41,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A41,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -40001,7 +40027,7 @@
     </row>
     <row r="42" spans="1:6" s="273" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="268" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B42" s="239" t="str">
         <f>IF(VLOOKUP(A42,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A42,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -40023,7 +40049,7 @@
     </row>
     <row r="43" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="229" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B43" s="230" t="str">
         <f>IF(VLOOKUP(A43,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A43,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -40044,7 +40070,7 @@
     </row>
     <row r="44" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="229" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B44" s="230" t="str">
         <f>IF(VLOOKUP(A44,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A44,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -40065,7 +40091,7 @@
     </row>
     <row r="45" spans="1:6" s="273" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="268" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B45" s="239" t="str">
         <f>IF(VLOOKUP(A45,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A45,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -40087,7 +40113,7 @@
     </row>
     <row r="46" spans="1:6" s="273" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="268" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B46" s="239" t="str">
         <f>IF(VLOOKUP(A46,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A46,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -40257,28 +40283,28 @@
   <sheetData>
     <row r="1" spans="1:10" s="225" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="250" t="s">
+        <v>287</v>
+      </c>
+      <c r="B1" s="251" t="s">
+        <v>285</v>
+      </c>
+      <c r="C1" s="252" t="s">
         <v>288</v>
       </c>
-      <c r="B1" s="251" t="s">
-        <v>286</v>
-      </c>
-      <c r="C1" s="252" t="s">
-        <v>289</v>
-      </c>
       <c r="D1" s="251" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E1" s="251" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F1" s="253" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G1" s="251" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H1" s="254" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="241" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -40301,7 +40327,7 @@
     </row>
     <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="229" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B3" s="230" t="str">
         <f>IF(VLOOKUP(A3,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A3,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -40335,7 +40361,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="229" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B4" s="230" t="str">
         <f>IF(VLOOKUP(A4,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A4,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -40369,7 +40395,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="229" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B5" s="230" t="str">
         <f>IF(VLOOKUP(A5,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A5,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -40403,7 +40429,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="229" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B6" s="230" t="str">
         <f>IF(VLOOKUP(A6,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A6,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -40437,7 +40463,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="229" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B7" s="230" t="str">
         <f>IF(VLOOKUP(A7,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A7,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -40471,7 +40497,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="229" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B8" s="230" t="str">
         <f>IF(VLOOKUP(A8,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A8,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -40522,7 +40548,7 @@
     </row>
     <row r="10" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="229" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B10" s="230" t="str">
         <f>IF(VLOOKUP(A10,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A10,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -40555,7 +40581,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="229" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B11" s="230" t="str">
         <f>IF(VLOOKUP(A11,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A11,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -40588,7 +40614,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="229" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B12" s="230" t="str">
         <f>IF(VLOOKUP(A12,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A12,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -40621,7 +40647,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="229" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B13" s="230" t="str">
         <f>IF(VLOOKUP(A13,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A13,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -40654,7 +40680,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="229" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="B14" s="230" t="str">
         <f>IF(VLOOKUP(A14,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A14,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -40705,7 +40731,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="229" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B16" s="230" t="str">
         <f>IF(VLOOKUP(A16,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A16,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -40738,7 +40764,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="229" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B17" s="230" t="str">
         <f>IF(VLOOKUP(A17,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A17,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -40771,7 +40797,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="229" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B18" s="230" t="str">
         <f>IF(VLOOKUP(A18,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A18,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -40804,7 +40830,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="229" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B19" s="230" t="str">
         <f>IF(VLOOKUP(A19,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A19,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -40837,7 +40863,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="229" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B20" s="230" t="str">
         <f>IF(VLOOKUP(A20,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A20,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -40870,7 +40896,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="229" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B21" s="230" t="str">
         <f>IF(VLOOKUP(A21,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A21,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -40903,7 +40929,7 @@
     </row>
     <row r="22" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="229" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B22" s="230" t="str">
         <f>IF(VLOOKUP(A22,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A22,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -40954,7 +40980,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="229" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B24" s="230" t="str">
         <f>IF(VLOOKUP(A24,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A24,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -40987,7 +41013,7 @@
     </row>
     <row r="25" spans="1:9" s="273" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="268" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B25" s="239" t="str">
         <f>IF(VLOOKUP(A25,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A25,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -41021,7 +41047,7 @@
     </row>
     <row r="26" spans="1:9" s="273" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="268" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B26" s="239" t="str">
         <f>IF(VLOOKUP(A26,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A26,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -41055,7 +41081,7 @@
     </row>
     <row r="27" spans="1:9" s="273" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="268" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B27" s="239" t="str">
         <f>IF(VLOOKUP(A27,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A27,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -41107,7 +41133,7 @@
     </row>
     <row r="29" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="229" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B29" s="230" t="str">
         <f>IF(VLOOKUP(A29,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A29,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -41140,7 +41166,7 @@
     </row>
     <row r="30" spans="1:9" s="273" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="268" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B30" s="239" t="str">
         <f>IF(VLOOKUP(A30,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A30,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -41203,14 +41229,14 @@
       <c r="E32" s="242"/>
       <c r="F32" s="261">
         <f>IF(VLOOKUP(A32,EML_Tool_WP!A:BB,42,FALSE)="","",VLOOKUP(A32,EML_Tool_WP!A:BB,42,FALSE))</f>
-        <v>0.55666666666666675</v>
+        <v>0.57333333333333347</v>
       </c>
       <c r="G32" s="242"/>
       <c r="H32" s="245"/>
     </row>
     <row r="33" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="229" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B33" s="230" t="str">
         <f>IF(VLOOKUP(A33,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A33,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -41230,7 +41256,7 @@
       </c>
       <c r="F33" s="233">
         <f>IF(VLOOKUP(A33,EML_Tool_WP!A:BB,42,FALSE)="","",VLOOKUP(A33,EML_Tool_WP!A:BB,42,FALSE))</f>
-        <v>0.9</v>
+        <v>0.98333333333333339</v>
       </c>
       <c r="G33" s="230" t="str">
         <f>IF(VLOOKUP(A33,EML_Tool_WP!A:BB,48,FALSE)="","",VLOOKUP(A33,EML_Tool_WP!A:BB,48,FALSE))</f>
@@ -41243,7 +41269,7 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="229" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B34" s="230" t="str">
         <f>IF(VLOOKUP(A34,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A34,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -41276,7 +41302,7 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="229" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B35" s="230" t="str">
         <f>IF(VLOOKUP(A35,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A35,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -41309,7 +41335,7 @@
     </row>
     <row r="36" spans="1:9" s="273" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="268" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B36" s="239" t="str">
         <f>IF(VLOOKUP(A36,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A36,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -41361,7 +41387,7 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="229" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B38" s="230" t="str">
         <f>IF(VLOOKUP(A38,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A38,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -41394,7 +41420,7 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="229" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B39" s="230" t="str">
         <f>IF(VLOOKUP(A39,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A39,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -41427,7 +41453,7 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="229" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B40" s="230" t="str">
         <f>IF(VLOOKUP(A40,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A40,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -41460,7 +41486,7 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="229" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B41" s="230" t="str">
         <f>IF(VLOOKUP(A41,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A41,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -41493,7 +41519,7 @@
     </row>
     <row r="42" spans="1:9" s="273" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="268" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B42" s="239" t="str">
         <f>IF(VLOOKUP(A42,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A42,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -41527,7 +41553,7 @@
     </row>
     <row r="43" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="229" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B43" s="230" t="str">
         <f>IF(VLOOKUP(A43,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A43,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -41560,7 +41586,7 @@
     </row>
     <row r="44" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="229" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B44" s="230" t="str">
         <f>IF(VLOOKUP(A44,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A44,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -41593,7 +41619,7 @@
     </row>
     <row r="45" spans="1:9" s="273" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="268" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B45" s="239" t="str">
         <f>IF(VLOOKUP(A45,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A45,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -41627,7 +41653,7 @@
     </row>
     <row r="46" spans="1:9" s="273" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="268" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B46" s="239" t="str">
         <f>IF(VLOOKUP(A46,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A46,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -41931,34 +41957,34 @@
   <sheetData>
     <row r="1" spans="1:10" s="225" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="250" t="s">
+        <v>287</v>
+      </c>
+      <c r="B1" s="251" t="s">
+        <v>285</v>
+      </c>
+      <c r="C1" s="252" t="s">
         <v>288</v>
       </c>
-      <c r="B1" s="251" t="s">
-        <v>286</v>
-      </c>
-      <c r="C1" s="252" t="s">
-        <v>289</v>
-      </c>
       <c r="D1" s="251" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E1" s="253" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F1" s="251" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G1" s="323" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H1" s="251" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="I1" s="251" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="J1" s="251" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="241" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -41980,12 +42006,12 @@
       <c r="H2" s="247"/>
       <c r="I2" s="247"/>
       <c r="J2" s="324" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="229" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B3" s="230" t="str">
         <f>IF(VLOOKUP(A3,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A3,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -42026,7 +42052,7 @@
     </row>
     <row r="4" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="229" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B4" s="230" t="str">
         <f>IF(VLOOKUP(A4,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A4,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -42072,7 +42098,7 @@
     </row>
     <row r="5" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A5" s="229" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B5" s="230" t="str">
         <f>IF(VLOOKUP(A5,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A5,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -42119,7 +42145,7 @@
     </row>
     <row r="6" spans="1:10" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="229" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B6" s="230" t="str">
         <f>IF(VLOOKUP(A6,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A6,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -42163,7 +42189,7 @@
     </row>
     <row r="7" spans="1:10" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="229" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B7" s="230" t="str">
         <f>IF(VLOOKUP(A7,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A7,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -42206,7 +42232,7 @@
     </row>
     <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="229" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B8" s="230" t="str">
         <f>IF(VLOOKUP(A8,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A8,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -42264,12 +42290,12 @@
       <c r="H9" s="242"/>
       <c r="I9" s="242"/>
       <c r="J9" s="324" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="144" x14ac:dyDescent="0.3">
       <c r="A10" s="229" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B10" s="230" t="str">
         <f>IF(VLOOKUP(A10,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A10,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -42314,7 +42340,7 @@
     </row>
     <row r="11" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A11" s="229" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B11" s="230" t="str">
         <f>IF(VLOOKUP(A11,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A11,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -42358,7 +42384,7 @@
     </row>
     <row r="12" spans="1:10" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="229" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B12" s="230" t="str">
         <f>IF(VLOOKUP(A12,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A12,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -42401,7 +42427,7 @@
     </row>
     <row r="13" spans="1:10" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="229" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B13" s="230" t="str">
         <f>IF(VLOOKUP(A13,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A13,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -42444,7 +42470,7 @@
     </row>
     <row r="14" spans="1:10" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="229" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="B14" s="230" t="str">
         <f>IF(VLOOKUP(A14,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A14,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -42504,12 +42530,12 @@
       <c r="H15" s="242"/>
       <c r="I15" s="242"/>
       <c r="J15" s="324" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="229" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B16" s="230" t="str">
         <f>IF(VLOOKUP(A16,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A16,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -42553,7 +42579,7 @@
     </row>
     <row r="17" spans="1:10" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="229" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B17" s="230" t="str">
         <f>IF(VLOOKUP(A17,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A17,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -42599,7 +42625,7 @@
     </row>
     <row r="18" spans="1:10" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="229" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B18" s="230" t="str">
         <f>IF(VLOOKUP(A18,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A18,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -42645,7 +42671,7 @@
     </row>
     <row r="19" spans="1:10" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="229" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B19" s="230" t="str">
         <f>IF(VLOOKUP(A19,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A19,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -42691,7 +42717,7 @@
     </row>
     <row r="20" spans="1:10" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="229" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B20" s="230" t="str">
         <f>IF(VLOOKUP(A20,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A20,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -42736,7 +42762,7 @@
     </row>
     <row r="21" spans="1:10" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="229" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B21" s="230" t="str">
         <f>IF(VLOOKUP(A21,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A21,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -42781,7 +42807,7 @@
     </row>
     <row r="22" spans="1:10" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="229" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B22" s="230" t="str">
         <f>IF(VLOOKUP(A22,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A22,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -42842,12 +42868,12 @@
       <c r="H23" s="242"/>
       <c r="I23" s="242"/>
       <c r="J23" s="324" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="229" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B24" s="230" t="str">
         <f>IF(VLOOKUP(A24,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A24,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -42890,7 +42916,7 @@
     </row>
     <row r="25" spans="1:10" s="273" customFormat="1" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="268" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B25" s="239" t="str">
         <f>IF(VLOOKUP(A25,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A25,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -42931,7 +42957,7 @@
     </row>
     <row r="26" spans="1:10" s="273" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="268" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B26" s="239" t="str">
         <f>IF(VLOOKUP(A26,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A26,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -42972,7 +42998,7 @@
     </row>
     <row r="27" spans="1:10" s="273" customFormat="1" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="268" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B27" s="239" t="str">
         <f>IF(VLOOKUP(A27,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A27,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -43031,12 +43057,12 @@
       <c r="H28" s="242"/>
       <c r="I28" s="242"/>
       <c r="J28" s="324" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="229" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B29" s="230" t="str">
         <f>IF(VLOOKUP(A29,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A29,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -43081,7 +43107,7 @@
     </row>
     <row r="30" spans="1:10" s="273" customFormat="1" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="268" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B30" s="239" t="str">
         <f>IF(VLOOKUP(A30,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A30,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -43141,7 +43167,7 @@
       <c r="H31" s="242"/>
       <c r="I31" s="242"/>
       <c r="J31" s="324" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
     </row>
     <row r="32" spans="1:10" s="241" customFormat="1" x14ac:dyDescent="0.3">
@@ -43156,19 +43182,19 @@
       <c r="D32" s="242"/>
       <c r="E32" s="261">
         <f>IF(VLOOKUP(A32,EML_Tool_WP!A:BB,42,FALSE)="","",VLOOKUP(A32,EML_Tool_WP!A:BB,42,FALSE))</f>
-        <v>0.55666666666666675</v>
+        <v>0.57333333333333347</v>
       </c>
       <c r="F32" s="242"/>
       <c r="G32" s="326"/>
       <c r="H32" s="242"/>
       <c r="I32" s="242"/>
       <c r="J32" s="324" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A33" s="229" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B33" s="230" t="str">
         <f>IF(VLOOKUP(A33,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A33,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -43184,7 +43210,7 @@
       </c>
       <c r="E33" s="233">
         <f>IF(VLOOKUP(A33,EML_Tool_WP!A:BB,42,FALSE)="","",VLOOKUP(A33,EML_Tool_WP!A:BB,42,FALSE))</f>
-        <v>0.9</v>
+        <v>0.98333333333333339</v>
       </c>
       <c r="F33" s="230" t="str">
         <f>IF(VLOOKUP(A33,EML_Tool_WP!A:BB,48,FALSE)="","",VLOOKUP(A33,EML_Tool_WP!A:BB,48,FALSE))</f>
@@ -43196,14 +43222,15 @@
       </c>
       <c r="H33" s="231" t="str">
         <f>IF(VLOOKUP(A33,EML_Tool_WP!A:BB,52,FALSE)="","",VLOOKUP(A33,EML_Tool_WP!A:BB,52,FALSE))</f>
-        <v>[] Documented results for training shunt connections using knowledge distillation both for classification and segmentation networks (Paper)
+        <v>[x] Documented results for training shunt connections using knowledge distillation both for classification and segmentation networks (Paper)
 [x] Inference results on NVIDIA, Xilinx and Raspberry Pi platforms
 [] (ME) Shunt connection algorithm Keras based in a repository
 [] (ME) DeeplabV3+MobileNetV3 in a Repository</v>
       </c>
       <c r="I33" s="231" t="str">
         <f>IF(VLOOKUP(A33,EML_Tool_WP!A:BB,53,FALSE)="","",VLOOKUP(A33,EML_Tool_WP!A:BB,53,FALSE))</f>
-        <v>* Inference results only on NVIDIA</v>
+        <v>* Inference results only on NVIDIA
+* Shunt algorithm for SSD-MobileNetV2 too</v>
       </c>
       <c r="J33" s="74" t="str">
         <f t="shared" si="1"/>
@@ -43212,7 +43239,7 @@
     </row>
     <row r="34" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A34" s="229" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B34" s="230" t="str">
         <f>IF(VLOOKUP(A34,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A34,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -43258,7 +43285,7 @@
     </row>
     <row r="35" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A35" s="229" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B35" s="230" t="str">
         <f>IF(VLOOKUP(A35,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A35,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -43300,7 +43327,7 @@
     </row>
     <row r="36" spans="1:10" s="273" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="268" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B36" s="239" t="str">
         <f>IF(VLOOKUP(A36,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A36,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -43358,12 +43385,12 @@
       <c r="H37" s="242"/>
       <c r="I37" s="242"/>
       <c r="J37" s="324" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="229" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B38" s="230" t="str">
         <f>IF(VLOOKUP(A38,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A38,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -43405,7 +43432,7 @@
     </row>
     <row r="39" spans="1:10" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="229" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B39" s="230" t="str">
         <f>IF(VLOOKUP(A39,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A39,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -43449,7 +43476,7 @@
     </row>
     <row r="40" spans="1:10" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="229" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B40" s="230" t="str">
         <f>IF(VLOOKUP(A40,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A40,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -43490,7 +43517,7 @@
     </row>
     <row r="41" spans="1:10" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="229" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B41" s="230" t="str">
         <f>IF(VLOOKUP(A41,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A41,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -43531,7 +43558,7 @@
     </row>
     <row r="42" spans="1:10" s="273" customFormat="1" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="268" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B42" s="239" t="str">
         <f>IF(VLOOKUP(A42,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A42,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -43574,7 +43601,7 @@
     </row>
     <row r="43" spans="1:10" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="229" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B43" s="230" t="str">
         <f>IF(VLOOKUP(A43,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A43,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -43617,7 +43644,7 @@
     </row>
     <row r="44" spans="1:10" ht="144" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="229" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B44" s="230" t="str">
         <f>IF(VLOOKUP(A44,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A44,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -43662,7 +43689,7 @@
     </row>
     <row r="45" spans="1:10" s="273" customFormat="1" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="268" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B45" s="239" t="str">
         <f>IF(VLOOKUP(A45,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A45,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -43705,7 +43732,7 @@
     </row>
     <row r="46" spans="1:10" s="273" customFormat="1" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="268" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B46" s="239" t="str">
         <f>IF(VLOOKUP(A46,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A46,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -43945,25 +43972,25 @@
   <sheetData>
     <row r="1" spans="1:9" s="225" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="250" t="s">
+        <v>287</v>
+      </c>
+      <c r="B1" s="251" t="s">
+        <v>285</v>
+      </c>
+      <c r="C1" s="252" t="s">
         <v>288</v>
       </c>
-      <c r="B1" s="251" t="s">
-        <v>286</v>
-      </c>
-      <c r="C1" s="252" t="s">
-        <v>289</v>
-      </c>
       <c r="D1" s="251" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E1" s="251" t="s">
         <v>14</v>
       </c>
       <c r="F1" s="251" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G1" s="287" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="241" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -43985,7 +44012,7 @@
     </row>
     <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="229" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B3" s="230" t="str">
         <f>IF(VLOOKUP(A3,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A3,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -44015,7 +44042,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="229" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B4" s="230" t="str">
         <f>IF(VLOOKUP(A4,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A4,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -44045,7 +44072,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="229" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B5" s="230" t="str">
         <f>IF(VLOOKUP(A5,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A5,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -44075,7 +44102,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="229" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B6" s="230" t="str">
         <f>IF(VLOOKUP(A6,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A6,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -44105,7 +44132,7 @@
     </row>
     <row r="7" spans="1:9" s="280" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="276" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B7" s="277" t="str">
         <f>IF(VLOOKUP(A7,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A7,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -44136,7 +44163,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="229" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B8" s="230" t="str">
         <f>IF(VLOOKUP(A8,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A8,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -44182,7 +44209,7 @@
     </row>
     <row r="10" spans="1:9" s="273" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="268" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B10" s="239" t="str">
         <f>IF(VLOOKUP(A10,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A10,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -44212,7 +44239,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="229" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B11" s="230" t="str">
         <f>IF(VLOOKUP(A11,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A11,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -44241,7 +44268,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="229" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B12" s="230" t="str">
         <f>IF(VLOOKUP(A12,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A12,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -44270,7 +44297,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="229" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B13" s="230" t="str">
         <f>IF(VLOOKUP(A13,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A13,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -44299,7 +44326,7 @@
     </row>
     <row r="14" spans="1:9" s="280" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="276" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="B14" s="277" t="str">
         <f>IF(VLOOKUP(A14,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A14,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -44346,7 +44373,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="229" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B16" s="230" t="str">
         <f>IF(VLOOKUP(A16,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A16,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -44375,7 +44402,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="229" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B17" s="230" t="str">
         <f>IF(VLOOKUP(A17,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A17,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -44404,7 +44431,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="229" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B18" s="230" t="str">
         <f>IF(VLOOKUP(A18,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A18,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -44433,7 +44460,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="229" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B19" s="230" t="str">
         <f>IF(VLOOKUP(A19,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A19,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -44462,7 +44489,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="229" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B20" s="230" t="str">
         <f>IF(VLOOKUP(A20,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A20,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -44491,7 +44518,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="229" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B21" s="230" t="str">
         <f>IF(VLOOKUP(A21,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A21,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -44520,7 +44547,7 @@
     </row>
     <row r="22" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="229" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B22" s="230" t="str">
         <f>IF(VLOOKUP(A22,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A22,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -44566,7 +44593,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="229" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B24" s="230" t="str">
         <f>IF(VLOOKUP(A24,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A24,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -44595,7 +44622,7 @@
     </row>
     <row r="25" spans="1:8" s="273" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="268" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B25" s="239" t="str">
         <f>IF(VLOOKUP(A25,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A25,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -44625,7 +44652,7 @@
     </row>
     <row r="26" spans="1:8" s="273" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="268" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B26" s="239" t="str">
         <f>IF(VLOOKUP(A26,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A26,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -44655,7 +44682,7 @@
     </row>
     <row r="27" spans="1:8" s="273" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="268" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B27" s="239" t="str">
         <f>IF(VLOOKUP(A27,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A27,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -44702,7 +44729,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="229" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B29" s="230" t="str">
         <f>IF(VLOOKUP(A29,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A29,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -44731,7 +44758,7 @@
     </row>
     <row r="30" spans="1:8" s="273" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="268" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B30" s="239" t="str">
         <f>IF(VLOOKUP(A30,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A30,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -44790,12 +44817,12 @@
       <c r="F32" s="242"/>
       <c r="G32" s="288">
         <f>IF(VLOOKUP(A32,EML_Tool_WP!A:BB,42,FALSE)="","",VLOOKUP(A32,EML_Tool_WP!A:BB,42,FALSE))</f>
-        <v>0.55666666666666675</v>
+        <v>0.57333333333333347</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="229" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B33" s="230" t="str">
         <f>IF(VLOOKUP(A33,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A33,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -44819,12 +44846,12 @@
       </c>
       <c r="G33" s="289">
         <f>IF(VLOOKUP(A33,EML_Tool_WP!A:BB,42,FALSE)="","",VLOOKUP(A33,EML_Tool_WP!A:BB,42,FALSE))</f>
-        <v>0.9</v>
+        <v>0.98333333333333339</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="229" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B34" s="230" t="str">
         <f>IF(VLOOKUP(A34,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A34,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -44853,7 +44880,7 @@
     </row>
     <row r="35" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="229" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B35" s="230" t="str">
         <f>IF(VLOOKUP(A35,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A35,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -44882,7 +44909,7 @@
     </row>
     <row r="36" spans="1:8" s="280" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="276" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B36" s="277" t="str">
         <f>IF(VLOOKUP(A36,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A36,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -44929,7 +44956,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="229" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B38" s="230" t="str">
         <f>IF(VLOOKUP(A38,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A38,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -44958,7 +44985,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="229" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B39" s="230" t="str">
         <f>IF(VLOOKUP(A39,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A39,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -44987,7 +45014,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="229" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B40" s="230" t="str">
         <f>IF(VLOOKUP(A40,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A40,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -45016,7 +45043,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="229" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B41" s="230" t="str">
         <f>IF(VLOOKUP(A41,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A41,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -45045,7 +45072,7 @@
     </row>
     <row r="42" spans="1:8" s="273" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="268" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B42" s="239" t="str">
         <f>IF(VLOOKUP(A42,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A42,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -45075,7 +45102,7 @@
     </row>
     <row r="43" spans="1:8" s="273" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="268" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B43" s="239" t="str">
         <f>IF(VLOOKUP(A43,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A43,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -45105,7 +45132,7 @@
     </row>
     <row r="44" spans="1:8" s="273" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="268" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B44" s="239" t="str">
         <f>IF(VLOOKUP(A44,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A44,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -45135,7 +45162,7 @@
     </row>
     <row r="45" spans="1:8" s="273" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="268" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B45" s="239" t="str">
         <f>IF(VLOOKUP(A45,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A45,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -45165,7 +45192,7 @@
     </row>
     <row r="46" spans="1:8" s="285" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="281" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B46" s="282" t="str">
         <f>IF(VLOOKUP(A46,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A46,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -45195,7 +45222,7 @@
     </row>
     <row r="47" spans="1:8" s="241" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="244" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B47" s="242" t="str">
         <f>IF(VLOOKUP(A47,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A47,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -45209,7 +45236,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="262" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B48" s="239" t="str">
         <f>IF(VLOOKUP(A48,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A48,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -45238,7 +45265,7 @@
     </row>
     <row r="49" spans="1:8" s="285" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="286" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B49" s="282" t="str">
         <f>IF(VLOOKUP(A49,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A49,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -45268,7 +45295,7 @@
     </row>
     <row r="50" spans="1:8" s="285" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="286" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B50" s="282" t="str">
         <f>IF(VLOOKUP(A50,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A50,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -45298,7 +45325,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="262" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B51" s="239" t="str">
         <f>IF(VLOOKUP(A51,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A51,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -45397,7 +45424,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -45411,31 +45438,31 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="294" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B1" s="224" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C1" s="224" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D1" s="224" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E1" s="237" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="226" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B2" s="227"/>
       <c r="C2" s="227" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="D2" s="227" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E2" s="258" t="str">
         <f>VLOOKUP(A2,AG_Students!F:F,1,FALSE)</f>
@@ -45444,13 +45471,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="229" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C3" s="230" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="D3" s="230" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E3" s="258" t="str">
         <f>VLOOKUP(A3,AG_Students!F:F,1,FALSE)</f>
@@ -45459,16 +45486,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="229" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="B4" s="230" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="C4" s="230" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D4" s="230" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E4" s="258" t="str">
         <f>VLOOKUP(A4,AG_Students!F:F,1,FALSE)</f>
@@ -45477,16 +45504,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="229" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B5" s="230" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="C5" s="230" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D5" s="230" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E5" s="258" t="str">
         <f>VLOOKUP(A5,AG_Students!F:F,1,FALSE)</f>
@@ -45495,16 +45522,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="229" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B6" s="230" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="C6" s="230" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D6" s="230" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E6" s="258" t="str">
         <f>VLOOKUP(A6,AG_Students!F:F,1,FALSE)</f>
@@ -45513,16 +45540,16 @@
     </row>
     <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="229" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B7" s="230" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="C7" s="230" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D7" s="230" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E7" s="258" t="str">
         <f>VLOOKUP(A7,AG_Students!F:F,1,FALSE)</f>
@@ -45531,16 +45558,16 @@
     </row>
     <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="229" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B8" s="230" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="C8" s="230" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D8" s="230" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E8" s="258" t="str">
         <f>VLOOKUP(A8,AG_Students!F:F,1,FALSE)</f>
@@ -45549,16 +45576,16 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="229" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B9" s="230" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="C9" s="230" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D9" s="230" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E9" s="258" t="str">
         <f>VLOOKUP(A9,AG_Students!F:F,1,FALSE)</f>
@@ -45567,13 +45594,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="229" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C10" s="230" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D10" s="230" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E10" s="258" t="str">
         <f>VLOOKUP(A10,AG_Students!F:F,1,FALSE)</f>
@@ -45582,16 +45609,16 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="229" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B11" s="230" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="C11" s="230" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D11" s="230" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E11" s="258" t="str">
         <f>VLOOKUP(A11,AG_Students!F:F,1,FALSE)</f>
@@ -45599,44 +45626,29 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="226" t="s">
+      <c r="A12" s="229" t="s">
         <v>371</v>
       </c>
       <c r="B12" s="230" t="s">
-        <v>765</v>
+        <v>744</v>
       </c>
       <c r="C12" s="230" t="s">
-        <v>554</v>
+        <v>738</v>
       </c>
       <c r="D12" s="230" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E12" s="258" t="str">
         <f>VLOOKUP(A12,AG_Students!F:F,1,FALSE)</f>
-        <v>Matvey Ivanov</v>
+        <v>Thomas Kotrba</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="229" t="s">
-        <v>372</v>
-      </c>
-      <c r="B13" s="230" t="s">
-        <v>748</v>
-      </c>
-      <c r="C13" s="230" t="s">
-        <v>742</v>
-      </c>
-      <c r="D13" s="230" t="s">
-        <v>551</v>
-      </c>
-      <c r="E13" s="258" t="str">
-        <f>VLOOKUP(A13,AG_Students!F:F,1,FALSE)</f>
-        <v>Thomas Kotrba</v>
-      </c>
+      <c r="E13" s="258"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="229" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -45651,7 +45663,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="229" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
   </sheetData>
@@ -45664,7 +45676,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -45681,37 +45693,37 @@
   <sheetData>
     <row r="1" spans="1:7" s="224" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="294" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B1" s="224" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C1" s="224" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D1" s="224" t="s">
+        <v>542</v>
+      </c>
+      <c r="E1" s="224" t="s">
         <v>543</v>
       </c>
-      <c r="E1" s="224" t="s">
-        <v>544</v>
-      </c>
       <c r="F1" s="237" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="G1" s="302"/>
     </row>
     <row r="2" spans="1:7" s="227" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="226" t="s">
+        <v>544</v>
+      </c>
+      <c r="B2" s="227" t="s">
         <v>545</v>
       </c>
-      <c r="B2" s="227" t="s">
+      <c r="C2" s="227" t="s">
         <v>546</v>
       </c>
-      <c r="C2" s="227" t="s">
-        <v>547</v>
-      </c>
       <c r="D2" s="227" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E2" s="227">
         <v>2020</v>
@@ -45721,16 +45733,16 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="229" t="s">
+        <v>548</v>
+      </c>
+      <c r="B3" s="230" t="s">
+        <v>547</v>
+      </c>
+      <c r="C3" s="230" t="s">
+        <v>546</v>
+      </c>
+      <c r="D3" s="230" t="s">
         <v>549</v>
-      </c>
-      <c r="B3" s="230" t="s">
-        <v>548</v>
-      </c>
-      <c r="C3" s="230" t="s">
-        <v>547</v>
-      </c>
-      <c r="D3" s="230" t="s">
-        <v>550</v>
       </c>
       <c r="E3" s="230">
         <v>2020</v>
@@ -45738,16 +45750,16 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="229" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B4" s="230" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C4" s="230" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D4" s="230" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E4" s="230">
         <v>2020</v>
@@ -45755,79 +45767,99 @@
     </row>
     <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="229" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B5" s="230" t="s">
+        <v>552</v>
+      </c>
+      <c r="C5" s="230" t="s">
         <v>553</v>
       </c>
-      <c r="C5" s="230" t="s">
-        <v>554</v>
-      </c>
       <c r="D5" s="230" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E5" s="230">
         <v>2020</v>
       </c>
       <c r="F5" s="333" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="229" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B6" s="230" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C6" s="230" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D6" s="230" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E6" s="230">
         <v>2020</v>
       </c>
       <c r="F6" s="333" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="229" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B7" s="230" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="C7" s="230" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D7" s="230" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E7" s="230">
         <v>2021</v>
       </c>
       <c r="F7" s="333" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="229" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B8" s="230" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="C8" s="230" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="D8" s="230" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E8" s="230">
         <v>2021</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="229" t="s">
+        <v>370</v>
+      </c>
+      <c r="B9" s="230" t="s">
+        <v>761</v>
+      </c>
+      <c r="C9" s="230" t="s">
+        <v>553</v>
+      </c>
+      <c r="D9" s="230" t="s">
+        <v>550</v>
+      </c>
+      <c r="E9" s="230">
+        <v>2021</v>
+      </c>
+      <c r="F9" s="333" t="s">
+        <v>773</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -45843,9 +45875,10 @@
     <hyperlink ref="F5" r:id="rId1" xr:uid="{E7289A75-C3AE-4337-8807-AD7E91ED4A36}"/>
     <hyperlink ref="F6" r:id="rId2" xr:uid="{E49EE28A-E52B-4CB2-9513-3A759E1137D6}"/>
     <hyperlink ref="F7" r:id="rId3" xr:uid="{C0E33FD9-82ED-4500-AB30-38D416A93D49}"/>
+    <hyperlink ref="F9" r:id="rId4" xr:uid="{A0F1AC7A-F99B-4CCF-B694-AF7F2194CFFC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -45867,57 +45900,57 @@
   <sheetData>
     <row r="1" spans="1:3" s="297" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="298" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B1" s="299" t="s">
         <v>12</v>
       </c>
       <c r="C1" s="300" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="226" t="s">
+        <v>556</v>
+      </c>
+      <c r="B2" s="227" t="s">
+        <v>558</v>
+      </c>
+      <c r="C2" s="301" t="s">
         <v>557</v>
-      </c>
-      <c r="B2" s="227" t="s">
-        <v>559</v>
-      </c>
-      <c r="C2" s="301" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="229" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="B3" s="230" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="C3" s="333" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="229" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="B4" s="230" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="C4" s="333" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="229" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="B5" s="230" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="C5" s="333" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -46013,48 +46046,48 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="236" t="s">
+        <v>405</v>
+      </c>
+      <c r="B1" s="235" t="s">
+        <v>288</v>
+      </c>
+      <c r="C1" s="224" t="s">
+        <v>317</v>
+      </c>
+      <c r="D1" s="224" t="s">
         <v>406</v>
       </c>
-      <c r="B1" s="235" t="s">
-        <v>289</v>
-      </c>
-      <c r="C1" s="224" t="s">
-        <v>318</v>
-      </c>
-      <c r="D1" s="224" t="s">
+      <c r="E1" s="224" t="s">
+        <v>411</v>
+      </c>
+      <c r="F1" s="224" t="s">
+        <v>298</v>
+      </c>
+      <c r="G1" s="224" t="s">
         <v>407</v>
       </c>
-      <c r="E1" s="224" t="s">
-        <v>412</v>
-      </c>
-      <c r="F1" s="224" t="s">
-        <v>299</v>
-      </c>
-      <c r="G1" s="224" t="s">
+      <c r="H1" s="224" t="s">
         <v>408</v>
       </c>
-      <c r="H1" s="224" t="s">
-        <v>409</v>
-      </c>
       <c r="I1" s="237" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C2" s="230" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D2" s="239" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E2" s="239" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G2" s="230" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I2" s="240" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -46062,19 +46095,19 @@
         <v>44153</v>
       </c>
       <c r="C3" s="230" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D3" s="239" t="s">
+        <v>306</v>
+      </c>
+      <c r="E3" s="239" t="s">
+        <v>349</v>
+      </c>
+      <c r="G3" s="239" t="s">
         <v>307</v>
       </c>
-      <c r="E3" s="239" t="s">
-        <v>350</v>
-      </c>
-      <c r="G3" s="239" t="s">
-        <v>308</v>
-      </c>
       <c r="I3" s="240" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -46082,19 +46115,19 @@
         <v>44153</v>
       </c>
       <c r="C4" s="230" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D4" s="239" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="E4" s="239" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G4" s="239" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I4" s="240" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -46102,100 +46135,100 @@
         <v>44294</v>
       </c>
       <c r="C5" s="230" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D5" s="230" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E5" s="230" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I5" s="240" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C6" s="230" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D6" s="230" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="E6" s="230" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I6" s="240" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C7" s="230" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D7" s="230" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="E7" s="230" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I7" s="240" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C8" s="230" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D8" s="230" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="E8" s="230" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I8" s="240" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C9" s="230" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D9" s="230" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="E9" s="230" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I9" s="240" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C10" s="230" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D10" s="230" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="E10" s="230" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I10" s="240" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C11" s="230" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D11" s="230" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E11" s="230" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I11" s="240" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -46203,16 +46236,16 @@
         <v>44294</v>
       </c>
       <c r="C12" s="230" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D12" s="230" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="E12" s="230" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I12" s="240" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
   </sheetData>

--- a/_data/CDLEML_WP_Progress_EML-Process.xlsx
+++ b/_data/CDLEML_WP_Progress_EML-Process.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20374"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20375"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\01_Admin\09_Projektplanung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B46B4EC-E103-4031-93A2-5E1CBCB61FA1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8DC3392-3209-4145-A18D-35993F3421B8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EML_Tool_WP" sheetId="18" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1836" uniqueCount="781">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1840" uniqueCount="782">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -2862,6 +2862,9 @@
     <t>[x] Infos und Scripts von Matthias und Matvey bekomme
 [x] Matvey NUC Openvino installieren
 [] Doku</t>
+  </si>
+  <si>
+    <t>Autopruning  mit  Intel  Distiller  und  Evaluation  auf  einem  Jetson  Xavier AGX</t>
   </si>
 </sst>
 </file>
@@ -15557,7 +15560,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BE259"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="AY112" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
@@ -39146,7 +39149,7 @@
       </c>
       <c r="H2" s="218">
         <f ca="1">TODAY()</f>
-        <v>44341</v>
+        <v>44368</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -45676,7 +45679,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -45862,6 +45865,23 @@
         <v>773</v>
       </c>
     </row>
+    <row r="10" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="229" t="s">
+        <v>360</v>
+      </c>
+      <c r="B10" s="230" t="s">
+        <v>781</v>
+      </c>
+      <c r="C10" s="230" t="s">
+        <v>546</v>
+      </c>
+      <c r="D10" s="230" t="s">
+        <v>550</v>
+      </c>
+      <c r="E10" s="230">
+        <v>2021</v>
+      </c>
+    </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="296"/>
     </row>
@@ -45886,7 +45906,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6762406-2B0F-49B7-87DC-3CBCF2CFDE3C}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>

--- a/_data/CDLEML_WP_Progress_EML-Process.xlsx
+++ b/_data/CDLEML_WP_Progress_EML-Process.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\01_Admin\09_Projektplanung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8DC3392-3209-4145-A18D-35993F3421B8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F965B797-83A9-484C-BA7B-38655ABBE65F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EML_Tool_WP" sheetId="18" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1840" uniqueCount="782">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1836" uniqueCount="781">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1982,9 +1982,6 @@
   </si>
   <si>
     <t>TU Wien</t>
-  </si>
-  <si>
-    <t>Continual Domain-Incremental Learning for Object Detection</t>
   </si>
   <si>
     <t>Auswertung verschiedener Methoden der Hyperparameteroptimierung in Machine Learning</t>
@@ -16249,7 +16246,7 @@
         <v>398</v>
       </c>
       <c r="AZ7" s="128" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="BA7" s="128" t="s">
         <v>541</v>
@@ -16391,7 +16388,7 @@
         <v>254</v>
       </c>
       <c r="B10" s="119" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C10" s="120"/>
       <c r="D10" s="121"/>
@@ -16467,10 +16464,10 @@
         <v>393</v>
       </c>
       <c r="AZ10" s="128" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="BA10" s="128" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="BB10" s="190">
         <v>1</v>
@@ -16548,7 +16545,7 @@
       </c>
       <c r="AT11" s="80"/>
       <c r="AU11" s="89" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="AV11" s="89"/>
       <c r="AW11" s="89"/>
@@ -16714,7 +16711,7 @@
       </c>
       <c r="AT13" s="80"/>
       <c r="AU13" s="89" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="AV13" s="89"/>
       <c r="AW13" s="89"/>
@@ -16729,7 +16726,7 @@
         <v>255</v>
       </c>
       <c r="B14" s="119" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C14" s="120"/>
       <c r="D14" s="121"/>
@@ -16805,10 +16802,10 @@
         <v>393</v>
       </c>
       <c r="AZ14" s="128" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="BA14" s="128" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="BB14" s="190">
         <v>1</v>
@@ -16877,7 +16874,7 @@
       <c r="AX15" s="89"/>
       <c r="AY15" s="89"/>
       <c r="AZ15" s="89" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="BA15" s="89"/>
       <c r="BB15" s="186"/>
@@ -16941,14 +16938,14 @@
       </c>
       <c r="AQ16" s="92"/>
       <c r="AR16" s="80" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="AS16" s="80" t="s">
         <v>46</v>
       </c>
       <c r="AT16" s="80"/>
       <c r="AU16" s="89" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="AV16" s="89"/>
       <c r="AW16" s="89"/>
@@ -17088,7 +17085,7 @@
       </c>
       <c r="AT18" s="80"/>
       <c r="AU18" s="89" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="AV18" s="89"/>
       <c r="AW18" s="89"/>
@@ -17155,14 +17152,14 @@
       </c>
       <c r="AQ19" s="92"/>
       <c r="AR19" s="80" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AS19" s="80" t="s">
         <v>46</v>
       </c>
       <c r="AT19" s="80"/>
       <c r="AU19" s="89" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AV19" s="89"/>
       <c r="AW19" s="89"/>
@@ -17233,7 +17230,7 @@
         <v>258</v>
       </c>
       <c r="B21" s="119" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C21" s="120"/>
       <c r="D21" s="121"/>
@@ -17293,16 +17290,16 @@
         <v>387</v>
       </c>
       <c r="AW21" s="128" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="AX21" s="128" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="AY21" s="128" t="s">
         <v>393</v>
       </c>
       <c r="AZ21" s="128" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="BA21" s="128"/>
       <c r="BB21" s="190"/>
@@ -17367,7 +17364,7 @@
         <v>0</v>
       </c>
       <c r="AQ22" s="92" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="AR22" s="85"/>
       <c r="AS22" s="80" t="s">
@@ -17444,7 +17441,7 @@
         <v>256</v>
       </c>
       <c r="B24" s="119" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C24" s="120"/>
       <c r="D24" s="121"/>
@@ -17517,10 +17514,10 @@
         <v>482</v>
       </c>
       <c r="AZ24" s="128" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="BA24" s="128" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="BB24" s="190">
         <v>2</v>
@@ -17598,14 +17595,14 @@
         <v>302</v>
       </c>
       <c r="AU25" s="89" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="AV25" s="89"/>
       <c r="AW25" s="89"/>
       <c r="AX25" s="89"/>
       <c r="AY25" s="89"/>
       <c r="AZ25" s="89" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="BA25" s="89"/>
       <c r="BB25" s="186"/>
@@ -17971,7 +17968,7 @@
       <c r="AY31" s="128"/>
       <c r="AZ31" s="128"/>
       <c r="BA31" s="128" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="BB31" s="190">
         <v>3</v>
@@ -18058,7 +18055,7 @@
       <c r="AX32" s="89"/>
       <c r="AY32" s="89"/>
       <c r="AZ32" s="89" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="BA32" s="89"/>
       <c r="BB32" s="186"/>
@@ -18283,7 +18280,7 @@
         <v>259</v>
       </c>
       <c r="B36" s="119" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C36" s="120"/>
       <c r="D36" s="121"/>
@@ -18355,10 +18352,10 @@
         <v>391</v>
       </c>
       <c r="AZ36" s="128" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="BA36" s="128" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="BB36" s="190">
         <v>1</v>
@@ -18430,7 +18427,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ37" s="61" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="AR37" s="93"/>
       <c r="AS37" s="80" t="s">
@@ -18438,14 +18435,14 @@
       </c>
       <c r="AT37" s="80"/>
       <c r="AU37" s="91" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="AV37" s="91"/>
       <c r="AW37" s="89"/>
       <c r="AX37" s="89"/>
       <c r="AY37" s="89"/>
       <c r="AZ37" s="89" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="BA37" s="89"/>
       <c r="BB37" s="186"/>
@@ -18453,7 +18450,7 @@
     <row r="38" spans="1:54" ht="43.2" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A38" s="192"/>
       <c r="B38" s="15" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C38" s="38"/>
       <c r="D38" s="37"/>
@@ -18522,7 +18519,7 @@
       </c>
       <c r="AT38" s="80"/>
       <c r="AU38" s="91" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="AV38" s="91"/>
       <c r="AW38" s="89"/>
@@ -18666,7 +18663,7 @@
         <v>0</v>
       </c>
       <c r="AQ40" s="61" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="AR40" s="93" t="s">
         <v>175</v>
@@ -18745,7 +18742,7 @@
         <v>260</v>
       </c>
       <c r="B42" s="119" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C42" s="120"/>
       <c r="D42" s="121"/>
@@ -18811,13 +18808,13 @@
         <v>D1.2.2</v>
       </c>
       <c r="AX42" s="128" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="AY42" s="128" t="s">
         <v>390</v>
       </c>
       <c r="AZ42" s="128" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="BA42" s="128"/>
       <c r="BB42" s="190">
@@ -18889,7 +18886,7 @@
       <c r="AX43" s="89"/>
       <c r="AY43" s="89"/>
       <c r="AZ43" s="89" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="BA43" s="89"/>
       <c r="BB43" s="186"/>
@@ -18963,7 +18960,7 @@
         <v>261</v>
       </c>
       <c r="B45" s="119" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C45" s="120"/>
       <c r="D45" s="121"/>
@@ -19028,13 +19025,13 @@
         <v>469</v>
       </c>
       <c r="AX45" s="128" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="AY45" s="128" t="s">
         <v>424</v>
       </c>
       <c r="AZ45" s="128" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="BA45" s="128"/>
       <c r="BB45" s="190">
@@ -19044,7 +19041,7 @@
     <row r="46" spans="1:54" ht="57.6" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A46" s="192"/>
       <c r="B46" s="15" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C46" s="38"/>
       <c r="D46" s="37"/>
@@ -19103,7 +19100,7 @@
         <v>0.2</v>
       </c>
       <c r="AQ46" s="61" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="AR46" s="93"/>
       <c r="AS46" s="80" t="s">
@@ -19111,14 +19108,14 @@
       </c>
       <c r="AT46" s="80"/>
       <c r="AU46" s="91" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="AV46" s="91"/>
       <c r="AW46" s="89"/>
       <c r="AX46" s="89"/>
       <c r="AY46" s="89"/>
       <c r="AZ46" s="89" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="BA46" s="89"/>
       <c r="BB46" s="186"/>
@@ -19200,7 +19197,7 @@
         <v>262</v>
       </c>
       <c r="B48" s="119" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C48" s="120"/>
       <c r="D48" s="121"/>
@@ -19265,13 +19262,13 @@
         <v>470</v>
       </c>
       <c r="AX48" s="128" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="AY48" s="128" t="s">
         <v>473</v>
       </c>
       <c r="AZ48" s="128" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="BA48" s="128"/>
       <c r="BB48" s="190">
@@ -19338,7 +19335,7 @@
       </c>
       <c r="AT49" s="85"/>
       <c r="AU49" s="91" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="AV49" s="91"/>
       <c r="AW49" s="89"/>
@@ -19404,14 +19401,14 @@
       <c r="AS50" s="85"/>
       <c r="AT50" s="85"/>
       <c r="AU50" s="91" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="AV50" s="91"/>
       <c r="AW50" s="89"/>
       <c r="AX50" s="89"/>
       <c r="AY50" s="89"/>
       <c r="AZ50" s="89" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="BA50" s="89"/>
       <c r="BB50" s="186"/>
@@ -19478,7 +19475,7 @@
       </c>
       <c r="AT51" s="80"/>
       <c r="AU51" s="91" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="AV51" s="91"/>
       <c r="AW51" s="89"/>
@@ -19490,10 +19487,10 @@
     </row>
     <row r="52" spans="1:54" ht="72" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A52" s="192" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B52" s="119" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C52" s="120"/>
       <c r="D52" s="121"/>
@@ -19555,16 +19552,16 @@
         <v>386</v>
       </c>
       <c r="AW52" s="128" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="AX52" s="128" t="s">
+        <v>681</v>
+      </c>
+      <c r="AY52" s="128" t="s">
         <v>682</v>
       </c>
-      <c r="AY52" s="128" t="s">
-        <v>683</v>
-      </c>
       <c r="AZ52" s="128" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="BA52" s="128"/>
       <c r="BB52" s="190">
@@ -19574,7 +19571,7 @@
     <row r="53" spans="1:54" ht="28.8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A53" s="35"/>
       <c r="B53" s="15" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C53" s="38"/>
       <c r="D53" s="37"/>
@@ -19627,7 +19624,7 @@
         <v>0.05</v>
       </c>
       <c r="AQ53" s="61" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="AR53" s="93" t="s">
         <v>300</v>
@@ -19644,7 +19641,7 @@
       <c r="AX53" s="89"/>
       <c r="AY53" s="89"/>
       <c r="AZ53" s="89" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="BA53" s="89"/>
       <c r="BB53" s="186"/>
@@ -19652,7 +19649,7 @@
     <row r="54" spans="1:54" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A54" s="35"/>
       <c r="B54" s="15" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C54" s="99"/>
       <c r="D54" s="108"/>
@@ -19857,7 +19854,7 @@
         <v>263</v>
       </c>
       <c r="B57" s="119" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C57" s="120"/>
       <c r="D57" s="121"/>
@@ -19916,16 +19913,16 @@
       </c>
       <c r="AW57" s="128"/>
       <c r="AX57" s="128" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="AY57" s="128" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="AZ57" s="128" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="BA57" s="128" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="BB57" s="190">
         <v>2</v>
@@ -19934,7 +19931,7 @@
     <row r="58" spans="1:54" ht="114" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A58" s="192"/>
       <c r="B58" s="113" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C58" s="24"/>
       <c r="D58" s="23"/>
@@ -20007,14 +20004,14 @@
       </c>
       <c r="AT58" s="80"/>
       <c r="AU58" s="89" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="AV58" s="89"/>
       <c r="AW58" s="89"/>
       <c r="AX58" s="89"/>
       <c r="AY58" s="89"/>
       <c r="AZ58" s="89" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="BA58" s="89"/>
       <c r="BB58" s="186"/>
@@ -20091,7 +20088,7 @@
       </c>
       <c r="AT59" s="80"/>
       <c r="AU59" s="89" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="AV59" s="89"/>
       <c r="AW59" s="89"/>
@@ -20162,7 +20159,7 @@
         <v>264</v>
       </c>
       <c r="B61" s="119" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C61" s="120"/>
       <c r="D61" s="121"/>
@@ -20234,7 +20231,7 @@
         <v>420</v>
       </c>
       <c r="AZ61" s="128" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="BA61" s="128"/>
       <c r="BB61" s="190">
@@ -20310,7 +20307,7 @@
       <c r="AX62" s="89"/>
       <c r="AY62" s="89"/>
       <c r="AZ62" s="89" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="BA62" s="89"/>
       <c r="BB62" s="186"/>
@@ -20662,7 +20659,7 @@
         <v>267</v>
       </c>
       <c r="B68" s="119" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C68" s="120"/>
       <c r="D68" s="121"/>
@@ -20733,7 +20730,7 @@
         <v>420</v>
       </c>
       <c r="AZ68" s="128" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="BA68" s="128"/>
       <c r="BB68" s="190">
@@ -20811,7 +20808,7 @@
       <c r="AX69" s="89"/>
       <c r="AY69" s="89"/>
       <c r="AZ69" s="89" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="BA69" s="89"/>
       <c r="BB69" s="186"/>
@@ -20959,7 +20956,7 @@
         <v>265</v>
       </c>
       <c r="B72" s="119" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C72" s="120"/>
       <c r="D72" s="121"/>
@@ -21032,7 +21029,7 @@
         <v>420</v>
       </c>
       <c r="AZ72" s="128" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="BA72" s="128"/>
       <c r="BB72" s="190">
@@ -21102,7 +21099,7 @@
       <c r="AX73" s="89"/>
       <c r="AY73" s="89"/>
       <c r="AZ73" s="89" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="BA73" s="89"/>
       <c r="BB73" s="186"/>
@@ -21163,7 +21160,7 @@
       </c>
       <c r="AT74" s="80"/>
       <c r="AU74" s="89" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="AV74" s="89"/>
       <c r="AW74" s="89"/>
@@ -21234,7 +21231,7 @@
         <v>268</v>
       </c>
       <c r="B76" s="119" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C76" s="120"/>
       <c r="D76" s="121"/>
@@ -21307,7 +21304,7 @@
         <v>420</v>
       </c>
       <c r="AZ76" s="128" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="BA76" s="128"/>
       <c r="BB76" s="190">
@@ -21367,7 +21364,7 @@
       <c r="AX77" s="89"/>
       <c r="AY77" s="89"/>
       <c r="AZ77" s="89" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="BA77" s="89"/>
       <c r="BB77" s="186"/>
@@ -21436,7 +21433,7 @@
       </c>
       <c r="AT78" s="80"/>
       <c r="AU78" s="89" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AV78" s="89"/>
       <c r="AW78" s="89"/>
@@ -21571,7 +21568,7 @@
         <v>266</v>
       </c>
       <c r="B81" s="119" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C81" s="120"/>
       <c r="D81" s="121"/>
@@ -21642,7 +21639,7 @@
         <v>466</v>
       </c>
       <c r="AZ81" s="128" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="BA81" s="128"/>
       <c r="BB81" s="190">
@@ -21708,21 +21705,21 @@
         <v>52</v>
       </c>
       <c r="AR82" s="80" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="AS82" s="80" t="s">
         <v>50</v>
       </c>
       <c r="AT82" s="80"/>
       <c r="AU82" s="89" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="AV82" s="107"/>
       <c r="AW82" s="89"/>
       <c r="AX82" s="89"/>
       <c r="AY82" s="89"/>
       <c r="AZ82" s="89" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="BA82" s="89"/>
       <c r="BB82" s="186"/>
@@ -21852,21 +21849,21 @@
       </c>
       <c r="AQ84" s="77"/>
       <c r="AR84" s="80" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AS84" s="80" t="s">
         <v>50</v>
       </c>
       <c r="AT84" s="80"/>
       <c r="AU84" s="89" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="AV84" s="89"/>
       <c r="AW84" s="89"/>
       <c r="AX84" s="89"/>
       <c r="AY84" s="89"/>
       <c r="AZ84" s="89" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="BA84" s="89"/>
       <c r="BB84" s="186"/>
@@ -22120,7 +22117,7 @@
       </c>
       <c r="AQ88" s="77"/>
       <c r="AR88" s="80" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="AS88" s="80" t="s">
         <v>397</v>
@@ -22193,7 +22190,7 @@
       </c>
       <c r="AT89" s="80"/>
       <c r="AU89" s="89" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="AV89" s="89"/>
       <c r="AW89" s="89"/>
@@ -22264,7 +22261,7 @@
         <v>421</v>
       </c>
       <c r="B91" s="119" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C91" s="120"/>
       <c r="D91" s="121"/>
@@ -22336,7 +22333,7 @@
         <v>389</v>
       </c>
       <c r="AZ91" s="128" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="BA91" s="128"/>
       <c r="BB91" s="190">
@@ -22408,7 +22405,7 @@
       <c r="AX92" s="89"/>
       <c r="AY92" s="89"/>
       <c r="AZ92" s="89" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="BA92" s="89"/>
       <c r="BB92" s="186"/>
@@ -22693,7 +22690,7 @@
         <v>269</v>
       </c>
       <c r="B97" s="119" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C97" s="120"/>
       <c r="D97" s="121"/>
@@ -22766,7 +22763,7 @@
         <v>424</v>
       </c>
       <c r="AZ97" s="128" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="BA97" s="128"/>
       <c r="BB97" s="190">
@@ -22850,21 +22847,21 @@
       </c>
       <c r="AQ98" s="92"/>
       <c r="AR98" s="80" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AS98" s="80" t="s">
         <v>110</v>
       </c>
       <c r="AT98" s="80"/>
       <c r="AU98" s="89" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AV98" s="89"/>
       <c r="AW98" s="89"/>
       <c r="AX98" s="89"/>
       <c r="AY98" s="89"/>
       <c r="AZ98" s="89" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="BA98" s="89"/>
       <c r="BB98" s="186"/>
@@ -22941,7 +22938,7 @@
       </c>
       <c r="AT99" s="80"/>
       <c r="AU99" s="91" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="AV99" s="91"/>
       <c r="AW99" s="89"/>
@@ -22956,7 +22953,7 @@
         <v>270</v>
       </c>
       <c r="B100" s="119" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C100" s="120"/>
       <c r="D100" s="121"/>
@@ -23029,7 +23026,7 @@
         <v>424</v>
       </c>
       <c r="AZ100" s="128" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="BA100" s="128"/>
       <c r="BB100" s="190">
@@ -23097,7 +23094,7 @@
       <c r="AX101" s="89"/>
       <c r="AY101" s="89"/>
       <c r="AZ101" s="89" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="BA101" s="89"/>
       <c r="BB101" s="186"/>
@@ -23107,7 +23104,7 @@
         <v>271</v>
       </c>
       <c r="B102" s="119" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C102" s="120"/>
       <c r="D102" s="121"/>
@@ -23180,7 +23177,7 @@
         <v>424</v>
       </c>
       <c r="AZ102" s="128" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="BA102" s="128"/>
       <c r="BB102" s="190">
@@ -23248,7 +23245,7 @@
       <c r="AX103" s="89"/>
       <c r="AY103" s="89"/>
       <c r="AZ103" s="89" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="BA103" s="89"/>
       <c r="BB103" s="186"/>
@@ -23500,7 +23497,7 @@
         <v>394</v>
       </c>
       <c r="AZ107" s="128" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="BA107" s="128"/>
       <c r="BB107" s="190">
@@ -23510,7 +23507,7 @@
     <row r="108" spans="1:54" ht="100.8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A108" s="35"/>
       <c r="B108" s="15" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C108" s="99"/>
       <c r="D108" s="108"/>
@@ -23569,10 +23566,10 @@
         <v>0.1</v>
       </c>
       <c r="AQ108" s="61" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="AR108" s="93" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="AS108" s="80"/>
       <c r="AT108" s="80"/>
@@ -23582,7 +23579,7 @@
       <c r="AX108" s="89"/>
       <c r="AY108" s="89"/>
       <c r="AZ108" s="89" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="BA108" s="89"/>
       <c r="BB108" s="186"/>
@@ -23947,7 +23944,7 @@
         <v>273</v>
       </c>
       <c r="B114" s="119" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C114" s="120"/>
       <c r="D114" s="121"/>
@@ -24020,7 +24017,7 @@
         <v>445</v>
       </c>
       <c r="AZ114" s="128" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="BA114" s="128"/>
       <c r="BB114" s="190">
@@ -24102,21 +24099,21 @@
       </c>
       <c r="AQ115" s="92"/>
       <c r="AR115" s="85" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="AS115" s="80" t="s">
         <v>127</v>
       </c>
       <c r="AT115" s="80"/>
       <c r="AU115" s="89" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="AV115" s="89"/>
       <c r="AW115" s="89"/>
       <c r="AX115" s="89"/>
       <c r="AY115" s="89"/>
       <c r="AZ115" s="89" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="BA115" s="89"/>
       <c r="BB115" s="186"/>
@@ -24195,7 +24192,7 @@
       </c>
       <c r="AT116" s="80"/>
       <c r="AU116" s="91" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="AV116" s="91"/>
       <c r="AW116" s="89"/>
@@ -24210,7 +24207,7 @@
         <v>253</v>
       </c>
       <c r="B117" s="119" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C117" s="120"/>
       <c r="D117" s="121"/>
@@ -24283,7 +24280,7 @@
         <v>420</v>
       </c>
       <c r="AZ117" s="128" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="BA117" s="128"/>
       <c r="BB117" s="190">
@@ -24357,7 +24354,7 @@
         <v>240</v>
       </c>
       <c r="AR118" s="93" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="AS118" s="85" t="s">
         <v>248</v>
@@ -24371,7 +24368,7 @@
       <c r="AX118" s="89"/>
       <c r="AY118" s="89"/>
       <c r="AZ118" s="89" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="BA118" s="89"/>
       <c r="BB118" s="186"/>
@@ -25437,7 +25434,7 @@
         <v>274</v>
       </c>
       <c r="B134" s="119" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C134" s="120"/>
       <c r="D134" s="121"/>
@@ -25511,10 +25508,10 @@
         <v>414</v>
       </c>
       <c r="AZ134" s="128" t="s">
+        <v>774</v>
+      </c>
+      <c r="BA134" s="128" t="s">
         <v>775</v>
-      </c>
-      <c r="BA134" s="128" t="s">
-        <v>776</v>
       </c>
       <c r="BB134" s="190">
         <v>1</v>
@@ -25592,7 +25589,7 @@
       </c>
       <c r="AT135" s="80"/>
       <c r="AU135" s="80" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="AV135" s="80"/>
       <c r="AW135" s="80" t="s">
@@ -25604,7 +25601,7 @@
         <v>530</v>
       </c>
       <c r="BA135" s="80" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="BB135" s="80"/>
     </row>
@@ -25689,7 +25686,7 @@
         <v>275</v>
       </c>
       <c r="B137" s="119" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C137" s="120"/>
       <c r="D137" s="121"/>
@@ -25761,10 +25758,10 @@
         <v>392</v>
       </c>
       <c r="AZ137" s="128" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="BA137" s="128" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="BB137" s="190"/>
     </row>
@@ -25898,7 +25895,7 @@
       </c>
       <c r="AT139" s="80"/>
       <c r="AU139" s="80" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="AV139" s="80"/>
       <c r="AW139" s="80"/>
@@ -25978,7 +25975,7 @@
       </c>
       <c r="AT140" s="80"/>
       <c r="AU140" s="80" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AV140" s="80"/>
       <c r="AW140" s="80"/>
@@ -26064,13 +26061,13 @@
         <v>429</v>
       </c>
       <c r="AX141" s="128" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AY141" s="128" t="s">
         <v>430</v>
       </c>
       <c r="AZ141" s="128" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="BA141" s="128"/>
       <c r="BB141" s="190">
@@ -26148,7 +26145,7 @@
       <c r="AX142" s="80"/>
       <c r="AY142" s="80"/>
       <c r="AZ142" s="80" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="BA142" s="80"/>
       <c r="BB142" s="80"/>
@@ -26210,14 +26207,14 @@
         <v>140</v>
       </c>
       <c r="AR143" s="93" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="AS143" s="80" t="s">
         <v>119</v>
       </c>
       <c r="AT143" s="80"/>
       <c r="AU143" s="80" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AV143" s="80"/>
       <c r="AW143" s="80"/>
@@ -26576,11 +26573,11 @@
         <v>386</v>
       </c>
       <c r="AW148" s="128" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="AX148" s="128"/>
       <c r="AY148" s="128" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="AZ148" s="128"/>
       <c r="BA148" s="128"/>
@@ -26591,7 +26588,7 @@
     <row r="149" spans="1:54" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A149" s="35"/>
       <c r="B149" s="15" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C149" s="99"/>
       <c r="D149" s="108"/>
@@ -26663,7 +26660,7 @@
     <row r="150" spans="1:54" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A150" s="35"/>
       <c r="B150" s="15" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C150" s="99"/>
       <c r="D150" s="108"/>
@@ -27042,7 +27039,7 @@
         <v>277</v>
       </c>
       <c r="B156" s="119" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C156" s="120"/>
       <c r="D156" s="121"/>
@@ -27113,7 +27110,7 @@
         <v>424</v>
       </c>
       <c r="AZ156" s="128" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="BA156" s="128" t="s">
         <v>526</v>
@@ -27407,7 +27404,7 @@
         <v>278</v>
       </c>
       <c r="B161" s="119" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C161" s="120"/>
       <c r="D161" s="121"/>
@@ -27478,10 +27475,10 @@
         <v>424</v>
       </c>
       <c r="AZ161" s="128" t="s">
+        <v>598</v>
+      </c>
+      <c r="BA161" s="128" t="s">
         <v>599</v>
-      </c>
-      <c r="BA161" s="128" t="s">
-        <v>600</v>
       </c>
       <c r="BB161" s="190">
         <v>3</v>
@@ -27622,7 +27619,7 @@
         <v>443</v>
       </c>
       <c r="AR163" s="80" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="AS163" s="80" t="s">
         <v>63</v>
@@ -27631,7 +27628,7 @@
         <v>249</v>
       </c>
       <c r="AU163" s="89" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="AV163" s="89"/>
       <c r="AW163" s="89"/>
@@ -27709,7 +27706,7 @@
       </c>
       <c r="AT164" s="80"/>
       <c r="AU164" s="89" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="AV164" s="89"/>
       <c r="AW164" s="89"/>
@@ -27724,7 +27721,7 @@
         <v>279</v>
       </c>
       <c r="B165" s="119" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C165" s="120"/>
       <c r="D165" s="121"/>
@@ -27854,7 +27851,7 @@
       <c r="AY166" s="89"/>
       <c r="AZ166" s="89"/>
       <c r="BA166" s="89" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="BB166" s="186"/>
     </row>
@@ -28061,7 +28058,7 @@
         <v>280</v>
       </c>
       <c r="B170" s="174" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C170" s="129"/>
       <c r="D170" s="130"/>
@@ -28198,7 +28195,7 @@
       <c r="AX171" s="89"/>
       <c r="AY171" s="89"/>
       <c r="AZ171" s="89" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="BA171" s="89"/>
       <c r="BB171" s="186"/>
@@ -28274,7 +28271,7 @@
     <row r="173" spans="1:54" ht="28.8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A173" s="192"/>
       <c r="B173" s="15" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C173" s="24"/>
       <c r="D173" s="23"/>
@@ -28325,13 +28322,13 @@
         <v>0.6</v>
       </c>
       <c r="AQ173" s="77" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="AR173" s="80"/>
       <c r="AS173" s="80"/>
       <c r="AT173" s="80"/>
       <c r="AU173" s="89" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="AV173" s="89"/>
       <c r="AW173" s="89"/>
@@ -28402,7 +28399,7 @@
         <v>281</v>
       </c>
       <c r="B175" s="119" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C175" s="120"/>
       <c r="D175" s="121"/>
@@ -28475,7 +28472,7 @@
         <v>424</v>
       </c>
       <c r="AZ175" s="128" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="BA175" s="128"/>
       <c r="BB175" s="190">
@@ -28553,7 +28550,7 @@
       <c r="AX176" s="89"/>
       <c r="AY176" s="89"/>
       <c r="AZ176" s="89" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="BA176" s="89"/>
       <c r="BB176" s="186"/>
@@ -28619,7 +28616,7 @@
         <v>447</v>
       </c>
       <c r="AR177" s="80" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="AS177" s="80" t="s">
         <v>63</v>
@@ -28931,7 +28928,7 @@
         <v>282</v>
       </c>
       <c r="B182" s="119" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C182" s="120"/>
       <c r="D182" s="121"/>
@@ -29004,7 +29001,7 @@
         <v>458</v>
       </c>
       <c r="AZ182" s="128" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="BA182" s="128"/>
       <c r="BB182" s="190">
@@ -29150,7 +29147,7 @@
     <row r="185" spans="1:54" ht="115.2" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A185" s="192"/>
       <c r="B185" s="15" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C185" s="24"/>
       <c r="D185" s="23"/>
@@ -29212,14 +29209,14 @@
       </c>
       <c r="AQ185" s="77"/>
       <c r="AR185" s="80" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="AS185" s="80" t="s">
         <v>121</v>
       </c>
       <c r="AT185" s="80"/>
       <c r="AU185" s="89" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="AV185" s="89"/>
       <c r="AW185" s="89"/>
@@ -29460,14 +29457,14 @@
       </c>
       <c r="AQ188" s="77"/>
       <c r="AR188" s="80" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="AS188" s="80" t="s">
         <v>121</v>
       </c>
       <c r="AT188" s="80"/>
       <c r="AU188" s="89" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="AV188" s="89"/>
       <c r="AW188" s="89"/>
@@ -29538,7 +29535,7 @@
         <v>283</v>
       </c>
       <c r="B190" s="119" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C190" s="120"/>
       <c r="D190" s="121"/>
@@ -29612,10 +29609,10 @@
         <v>395</v>
       </c>
       <c r="AZ190" s="128" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="BA190" s="128" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="BB190" s="190">
         <v>3</v>
@@ -29690,7 +29687,7 @@
       <c r="AX191" s="89"/>
       <c r="AY191" s="89"/>
       <c r="AZ191" s="89" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="BA191" s="89"/>
       <c r="BB191" s="186"/>
@@ -29904,7 +29901,7 @@
         <v>284</v>
       </c>
       <c r="B195" s="119" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C195" s="120"/>
       <c r="D195" s="121"/>
@@ -29977,7 +29974,7 @@
         <v>441</v>
       </c>
       <c r="AZ195" s="128" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="BA195" s="128"/>
       <c r="BB195" s="190">
@@ -30047,7 +30044,7 @@
       <c r="AX196" s="89"/>
       <c r="AY196" s="89"/>
       <c r="AZ196" s="89" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="BA196" s="89"/>
       <c r="BB196" s="186"/>
@@ -30113,12 +30110,12 @@
       </c>
       <c r="AQ197" s="77"/>
       <c r="AR197" s="80" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AS197" s="80"/>
       <c r="AT197" s="80"/>
       <c r="AU197" s="89" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="AV197" s="89"/>
       <c r="AW197" s="89"/>
@@ -30258,7 +30255,7 @@
       <c r="AS199" s="80"/>
       <c r="AT199" s="80"/>
       <c r="AU199" s="89" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AV199" s="89"/>
       <c r="AW199" s="89"/>
@@ -30404,7 +30401,7 @@
         <v>497</v>
       </c>
       <c r="AZ201" s="128" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="BA201" s="128" t="s">
         <v>540</v>
@@ -32783,22 +32780,22 @@
     </row>
     <row r="256" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B256" s="54" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="257" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B257" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="258" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B258" s="2" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="259" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B259" s="2" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
   </sheetData>
@@ -39045,7 +39042,7 @@
         <v>302</v>
       </c>
       <c r="B22" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -39491,7 +39488,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="229" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B14" s="230" t="str">
         <f>IF(VLOOKUP(A14,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A14,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -40683,7 +40680,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="229" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B14" s="230" t="str">
         <f>IF(VLOOKUP(A14,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A14,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -41981,13 +41978,13 @@
         <v>417</v>
       </c>
       <c r="H1" s="251" t="s">
+        <v>634</v>
+      </c>
+      <c r="I1" s="251" t="s">
         <v>635</v>
       </c>
-      <c r="I1" s="251" t="s">
-        <v>636</v>
-      </c>
       <c r="J1" s="251" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="241" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -42009,7 +42006,7 @@
       <c r="H2" s="247"/>
       <c r="I2" s="247"/>
       <c r="J2" s="324" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -42293,7 +42290,7 @@
       <c r="H9" s="242"/>
       <c r="I9" s="242"/>
       <c r="J9" s="324" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="144" x14ac:dyDescent="0.3">
@@ -42473,7 +42470,7 @@
     </row>
     <row r="14" spans="1:10" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="229" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B14" s="230" t="str">
         <f>IF(VLOOKUP(A14,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A14,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -42533,7 +42530,7 @@
       <c r="H15" s="242"/>
       <c r="I15" s="242"/>
       <c r="J15" s="324" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="72" hidden="1" x14ac:dyDescent="0.3">
@@ -42871,7 +42868,7 @@
       <c r="H23" s="242"/>
       <c r="I23" s="242"/>
       <c r="J23" s="324" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
@@ -43060,7 +43057,7 @@
       <c r="H28" s="242"/>
       <c r="I28" s="242"/>
       <c r="J28" s="324" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
@@ -43170,7 +43167,7 @@
       <c r="H31" s="242"/>
       <c r="I31" s="242"/>
       <c r="J31" s="324" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="32" spans="1:10" s="241" customFormat="1" x14ac:dyDescent="0.3">
@@ -43192,7 +43189,7 @@
       <c r="H32" s="242"/>
       <c r="I32" s="242"/>
       <c r="J32" s="324" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
@@ -43388,7 +43385,7 @@
       <c r="H37" s="242"/>
       <c r="I37" s="242"/>
       <c r="J37" s="324" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
@@ -44329,7 +44326,7 @@
     </row>
     <row r="14" spans="1:9" s="280" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="276" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B14" s="277" t="str">
         <f>IF(VLOOKUP(A14,EML_Tool_WP!A:BB,2,FALSE)="","",VLOOKUP(A14,EML_Tool_WP!A:BB,2,FALSE))</f>
@@ -45453,7 +45450,7 @@
         <v>542</v>
       </c>
       <c r="E1" s="237" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -45462,7 +45459,7 @@
       </c>
       <c r="B2" s="227"/>
       <c r="C2" s="227" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="D2" s="227" t="s">
         <v>550</v>
@@ -45477,7 +45474,7 @@
         <v>350</v>
       </c>
       <c r="C3" s="230" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="D3" s="230" t="s">
         <v>550</v>
@@ -45489,13 +45486,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="229" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B4" s="230" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C4" s="230" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D4" s="230" t="s">
         <v>550</v>
@@ -45510,10 +45507,10 @@
         <v>363</v>
       </c>
       <c r="B5" s="230" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C5" s="230" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D5" s="230" t="s">
         <v>550</v>
@@ -45528,7 +45525,7 @@
         <v>360</v>
       </c>
       <c r="B6" s="230" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C6" s="230" t="s">
         <v>546</v>
@@ -45546,10 +45543,10 @@
         <v>366</v>
       </c>
       <c r="B7" s="230" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C7" s="230" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D7" s="230" t="s">
         <v>550</v>
@@ -45564,7 +45561,7 @@
         <v>372</v>
       </c>
       <c r="B8" s="230" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C8" s="230" t="s">
         <v>546</v>
@@ -45582,7 +45579,7 @@
         <v>364</v>
       </c>
       <c r="B9" s="230" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C9" s="230" t="s">
         <v>546</v>
@@ -45600,7 +45597,7 @@
         <v>404</v>
       </c>
       <c r="C10" s="230" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D10" s="230" t="s">
         <v>550</v>
@@ -45615,7 +45612,7 @@
         <v>368</v>
       </c>
       <c r="B11" s="230" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C11" s="230" t="s">
         <v>546</v>
@@ -45633,10 +45630,10 @@
         <v>371</v>
       </c>
       <c r="B12" s="230" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C12" s="230" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D12" s="230" t="s">
         <v>550</v>
@@ -45651,7 +45648,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="229" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -45678,8 +45675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8D9D8D5-E8F0-467D-BAE4-113C45D21C9B}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -45711,7 +45708,7 @@
         <v>543</v>
       </c>
       <c r="F1" s="237" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G1" s="302"/>
     </row>
@@ -45751,21 +45748,21 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="229" t="s">
-        <v>511</v>
+        <v>360</v>
       </c>
       <c r="B4" s="230" t="s">
-        <v>551</v>
+        <v>780</v>
       </c>
       <c r="C4" s="230" t="s">
         <v>546</v>
       </c>
       <c r="D4" s="230" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="E4" s="230">
-        <v>2020</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -45773,10 +45770,10 @@
         <v>369</v>
       </c>
       <c r="B5" s="230" t="s">
+        <v>551</v>
+      </c>
+      <c r="C5" s="230" t="s">
         <v>552</v>
-      </c>
-      <c r="C5" s="230" t="s">
-        <v>553</v>
       </c>
       <c r="D5" s="230" t="s">
         <v>550</v>
@@ -45785,7 +45782,7 @@
         <v>2020</v>
       </c>
       <c r="F5" s="333" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -45793,10 +45790,10 @@
         <v>365</v>
       </c>
       <c r="B6" s="230" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C6" s="230" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D6" s="230" t="s">
         <v>550</v>
@@ -45805,7 +45802,7 @@
         <v>2020</v>
       </c>
       <c r="F6" s="333" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -45813,7 +45810,7 @@
         <v>295</v>
       </c>
       <c r="B7" s="230" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C7" s="230" t="s">
         <v>546</v>
@@ -45825,7 +45822,7 @@
         <v>2021</v>
       </c>
       <c r="F7" s="333" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -45833,10 +45830,10 @@
         <v>508</v>
       </c>
       <c r="B8" s="230" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C8" s="230" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="D8" s="230" t="s">
         <v>549</v>
@@ -45850,10 +45847,10 @@
         <v>370</v>
       </c>
       <c r="B9" s="230" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C9" s="230" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D9" s="230" t="s">
         <v>550</v>
@@ -45862,24 +45859,7 @@
         <v>2021</v>
       </c>
       <c r="F9" s="333" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="229" t="s">
-        <v>360</v>
-      </c>
-      <c r="B10" s="230" t="s">
-        <v>781</v>
-      </c>
-      <c r="C10" s="230" t="s">
-        <v>546</v>
-      </c>
-      <c r="D10" s="230" t="s">
-        <v>550</v>
-      </c>
-      <c r="E10" s="230">
-        <v>2021</v>
+        <v>772</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -45906,7 +45886,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6762406-2B0F-49B7-87DC-3CBCF2CFDE3C}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -45926,51 +45906,51 @@
         <v>12</v>
       </c>
       <c r="C1" s="300" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="226" t="s">
+        <v>555</v>
+      </c>
+      <c r="B2" s="227" t="s">
+        <v>557</v>
+      </c>
+      <c r="C2" s="301" t="s">
         <v>556</v>
-      </c>
-      <c r="B2" s="227" t="s">
-        <v>558</v>
-      </c>
-      <c r="C2" s="301" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="229" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B3" s="230" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C3" s="333" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="229" t="s">
+        <v>748</v>
+      </c>
+      <c r="B4" s="230" t="s">
         <v>749</v>
       </c>
-      <c r="B4" s="230" t="s">
-        <v>750</v>
-      </c>
       <c r="C4" s="333" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="229" t="s">
+        <v>770</v>
+      </c>
+      <c r="B5" s="230" t="s">
         <v>771</v>
       </c>
-      <c r="B5" s="230" t="s">
-        <v>772</v>
-      </c>
       <c r="C5" s="333" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -46138,7 +46118,7 @@
         <v>299</v>
       </c>
       <c r="D4" s="239" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E4" s="239" t="s">
         <v>349</v>
@@ -46164,7 +46144,7 @@
         <v>349</v>
       </c>
       <c r="I5" s="240" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -46172,7 +46152,7 @@
         <v>299</v>
       </c>
       <c r="D6" s="230" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E6" s="230" t="s">
         <v>349</v>
@@ -46186,7 +46166,7 @@
         <v>301</v>
       </c>
       <c r="D7" s="230" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E7" s="230" t="s">
         <v>349</v>
@@ -46200,7 +46180,7 @@
         <v>301</v>
       </c>
       <c r="D8" s="230" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E8" s="230" t="s">
         <v>349</v>
@@ -46214,7 +46194,7 @@
         <v>301</v>
       </c>
       <c r="D9" s="230" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E9" s="230" t="s">
         <v>349</v>
@@ -46228,7 +46208,7 @@
         <v>301</v>
       </c>
       <c r="D10" s="230" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E10" s="230" t="s">
         <v>349</v>
@@ -46259,7 +46239,7 @@
         <v>301</v>
       </c>
       <c r="D12" s="230" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E12" s="230" t="s">
         <v>349</v>

--- a/_data/CDLEML_WP_Progress_EML-Process.xlsx
+++ b/_data/CDLEML_WP_Progress_EML-Process.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\01_Admin\09_Projektplanung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F965B797-83A9-484C-BA7B-38655ABBE65F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76D26F8D-C190-47B2-82FF-0CE6831E67DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EML_Tool_WP" sheetId="18" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1836" uniqueCount="781">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1842" uniqueCount="787">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -2862,6 +2862,24 @@
   </si>
   <si>
     <t>Autopruning  mit  Intel  Distiller  und  Evaluation  auf  einem  Jetson  Xavier AGX</t>
+  </si>
+  <si>
+    <t>https://github.com/embedded-machine-learning/ShuntConnector</t>
+  </si>
+  <si>
+    <t>Shunt Connector</t>
+  </si>
+  <si>
+    <t>Neural network compression technique called 'Shunt connection' using Keras and TensorFlow 2.x as its backend.</t>
+  </si>
+  <si>
+    <t>https://github.com/embedded-machine-learning/MobileNetV3-Segmentation-Keras</t>
+  </si>
+  <si>
+    <t>MobileNetV3-Segmentation-Keras</t>
+  </si>
+  <si>
+    <t>Semantic segmentation version of the MobileNetV3 architecture (source), which is inspired by the DeeplabV3 architecture. The model is implemented using Keras and TensorFlow 2.x.</t>
   </si>
 </sst>
 </file>
@@ -39146,7 +39164,7 @@
       </c>
       <c r="H2" s="218">
         <f ca="1">TODAY()</f>
-        <v>44368</v>
+        <v>44375</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -45675,8 +45693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8D9D8D5-E8F0-467D-BAE4-113C45D21C9B}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -45886,8 +45904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6762406-2B0F-49B7-87DC-3CBCF2CFDE3C}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -45953,13 +45971,27 @@
         <v>769</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="229"/>
-      <c r="C6" s="240"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="229"/>
-      <c r="C7" s="240"/>
+    <row r="6" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="229" t="s">
+        <v>782</v>
+      </c>
+      <c r="B6" s="230" t="s">
+        <v>783</v>
+      </c>
+      <c r="C6" s="333" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A7" s="229" t="s">
+        <v>785</v>
+      </c>
+      <c r="B7" s="230" t="s">
+        <v>786</v>
+      </c>
+      <c r="C7" s="333" t="s">
+        <v>784</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="229"/>
@@ -46017,6 +46049,8 @@
     <hyperlink ref="C3" r:id="rId2" xr:uid="{F2892BFB-88C7-4CDE-BBBA-2B8093C12FEC}"/>
     <hyperlink ref="C4" r:id="rId3" xr:uid="{FA82507D-54F7-4FB8-9956-C18024882BC3}"/>
     <hyperlink ref="C5" r:id="rId4" xr:uid="{BDC0171B-8749-430B-A7FB-B1E93E6E7888}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{6F964081-2C0C-4E1D-B6DA-281A9D8E43A9}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{87569CC2-449D-4A10-ABA0-8E446E73C40D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/_data/CDLEML_WP_Progress_EML-Process.xlsx
+++ b/_data/CDLEML_WP_Progress_EML-Process.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1857" uniqueCount="791">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1859" uniqueCount="793">
   <si>
     <t xml:space="preserve">Compliance zu WPs CDLEML</t>
   </si>
@@ -2624,6 +2624,9 @@
     <t xml:space="preserve">Autopruning  mit  Intel  Distiller  und  Evaluation  auf  einem  Jetson  Xavier AGX</t>
   </si>
   <si>
+    <t xml:space="preserve">https://doi.org/10.34726/hss.2021.90301</t>
+  </si>
+  <si>
     <t xml:space="preserve">Marco Wuschnig</t>
   </si>
   <si>
@@ -2685,6 +2688,9 @@
   </si>
   <si>
     <t xml:space="preserve">FPGA Based Embedded Neural Network Object Detector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.34726/hss.2021.69314</t>
   </si>
   <si>
     <t xml:space="preserve">Embedded Machine Learning Scripts and Guides</t>
@@ -2898,15 +2904,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="8">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0\ %"/>
-    <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="166" formatCode="DD/MM/YYYY"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
     <numFmt numFmtId="168" formatCode="0"/>
-    <numFmt numFmtId="169" formatCode="dd/mmm"/>
+    <numFmt numFmtId="169" formatCode="DD/MMM"/>
     <numFmt numFmtId="170" formatCode="0.0000"/>
-    <numFmt numFmtId="171" formatCode="General"/>
   </numFmts>
   <fonts count="36">
     <font>
@@ -4916,7 +4921,7 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="6" fillId="12" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="12" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4936,7 +4941,7 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="6" fillId="12" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="12" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4948,7 +4953,7 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5020,7 +5025,7 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="67" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="67" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5108,7 +5113,7 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="13" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5132,11 +5137,11 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="14" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="15" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="15" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5144,7 +5149,7 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="16" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="16" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5188,7 +5193,7 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="69" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="69" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5266,14 +5271,14 @@
     </xf>
   </cellXfs>
   <cellStyles count="8">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Standard 2" xfId="21"/>
-    <cellStyle name="*unknown*" xfId="20" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Standard 2" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="*unknown*" xfId="20" builtinId="8" customBuiltin="false"/>
   </cellStyles>
   <dxfs count="1222">
     <dxf>
@@ -14693,7 +14698,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -14707,7 +14712,7 @@
       <selection pane="bottomRight" activeCell="AZ117" activeCellId="0" sqref="AZ117"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.4453125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="2" outlineLevelCol="1"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="64.11"/>
@@ -14727,22 +14732,22 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="4" width="3.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="38" min="32" style="2" width="3.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="39" min="39" style="5" width="11.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="40" min="40" style="5" width="10.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="40" min="40" style="5" width="10.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="41" min="41" style="6" width="7.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="6" width="8.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="7" width="38.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="8" width="41.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="8" width="5.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="8" width="6.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="8" width="6.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="7" width="35.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="7" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="7" width="10.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="7" width="47.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="7" width="10.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="7" width="10.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="7" width="47.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="51" min="51" style="7" width="11.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="52" style="7" width="52.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="7" width="72.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="1" width="8.33"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="55" style="1" width="11.44"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="55" style="1" width="11.44"/>
   </cols>
   <sheetData>
     <row r="1" s="7" customFormat="true" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36761,7 +36766,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -36771,17 +36776,19 @@
       <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.67"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.45"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="316" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="B1" s="316" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36794,10 +36801,10 @@
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36805,7 +36812,7 @@
         <v>128</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36813,7 +36820,7 @@
         <v>177</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36821,7 +36828,7 @@
         <v>403</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36837,7 +36844,7 @@
         <v>90</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36861,7 +36868,7 @@
         <v>502</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36877,7 +36884,7 @@
         <v>329</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36893,7 +36900,7 @@
         <v>35</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36901,7 +36908,7 @@
         <v>147</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36922,10 +36929,10 @@
     </row>
     <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36957,7 +36964,7 @@
         <v>620</v>
       </c>
       <c r="B23" s="317" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36965,7 +36972,7 @@
         <v>625</v>
       </c>
       <c r="B24" s="318" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36973,7 +36980,7 @@
         <v>629</v>
       </c>
       <c r="B25" s="318" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36984,7 +36991,7 @@
         <v>621</v>
       </c>
       <c r="B27" s="318" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36992,7 +36999,7 @@
         <v>626</v>
       </c>
       <c r="B28" s="318" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37000,7 +37007,7 @@
         <v>630</v>
       </c>
       <c r="B29" s="318" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37023,7 +37030,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -37033,9 +37040,11 @@
       <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.33"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.45"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37043,22 +37052,22 @@
         <v>10</v>
       </c>
       <c r="C1" s="319" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="H1" s="316" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="C2" s="320" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="H2" s="321" t="n">
         <f aca="true">TODAY()</f>
-        <v>44505</v>
+        <v>44586</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37066,15 +37075,15 @@
         <v>91</v>
       </c>
       <c r="C3" s="320" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="C4" s="320" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37082,7 +37091,7 @@
         <v>51</v>
       </c>
       <c r="C5" s="320" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37090,32 +37099,32 @@
         <v>36</v>
       </c>
       <c r="C6" s="320" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="320" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="320" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="320" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="320" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="320" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
     </row>
   </sheetData>
@@ -37130,7 +37139,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -37140,14 +37149,15 @@
       <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="228" width="8.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="229" width="54.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="229" width="15.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="229" width="24.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="229" width="10"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="230" width="11.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="230" width="11.56"/>
   </cols>
   <sheetData>
     <row r="1" s="233" customFormat="true" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -38115,7 +38125,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -38125,7 +38135,7 @@
       <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="228" width="8.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="229" width="54.44"/>
@@ -38134,8 +38144,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="229" width="24.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="251" width="8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="229" width="9.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="252" width="6.44"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="10" style="230" width="11.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="252" width="6.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="11.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="230" width="11.56"/>
   </cols>
   <sheetData>
     <row r="1" s="233" customFormat="true" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -39723,7 +39734,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -39733,19 +39744,19 @@
       <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="228" width="8.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="229" width="32.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="229" width="32.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="250" width="10.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="229" width="10.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="251" width="8.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="251" width="8.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="229" width="5.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="271" width="33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="229" width="45.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="229" width="43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="230" width="12.11"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="11" style="230" width="11.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="230" width="11.56"/>
   </cols>
   <sheetData>
     <row r="1" s="233" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -41678,7 +41689,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -41688,7 +41699,7 @@
       <selection pane="topLeft" activeCell="F29" activeCellId="0" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="228" width="8.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="229" width="54.44"/>
@@ -41697,7 +41708,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="229" width="15.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="229" width="15.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="251" width="8"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="9" style="230" width="11.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="230" width="11.56"/>
   </cols>
   <sheetData>
     <row r="1" s="233" customFormat="true" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -43147,7 +43159,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -43157,13 +43169,14 @@
       <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="228" width="22.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="229" width="65.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="229" width="8.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="229" width="65.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="229" width="8.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="229" width="15.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="252" width="37.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="10.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43403,26 +43416,26 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="228" width="22.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="229" width="60.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="229" width="8.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="229" width="8.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="229" width="15.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="229" width="5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="229" width="5.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="252" width="37.88"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="271" width="11.55"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="8" style="229" width="11.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="271" width="11.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="229" width="11.56"/>
   </cols>
   <sheetData>
     <row r="1" s="301" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43482,7 +43495,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="228" t="s">
         <v>677</v>
       </c>
@@ -43498,13 +43511,16 @@
       <c r="E4" s="229" t="n">
         <v>2021</v>
       </c>
+      <c r="F4" s="252" t="s">
+        <v>701</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="228" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="B5" s="229" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="C5" s="229" t="s">
         <v>674</v>
@@ -43516,15 +43532,15 @@
         <v>2020</v>
       </c>
       <c r="F5" s="306" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="228" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B6" s="229" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="C6" s="229" t="s">
         <v>674</v>
@@ -43536,15 +43552,15 @@
         <v>2020</v>
       </c>
       <c r="F6" s="306" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="228" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B7" s="229" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C7" s="229" t="s">
         <v>679</v>
@@ -43556,15 +43572,15 @@
         <v>2021</v>
       </c>
       <c r="F7" s="306" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="228" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B8" s="229" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="C8" s="229" t="s">
         <v>669</v>
@@ -43578,10 +43594,10 @@
     </row>
     <row r="9" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="228" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B9" s="229" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C9" s="229" t="s">
         <v>674</v>
@@ -43593,7 +43609,7 @@
         <v>2021</v>
       </c>
       <c r="F9" s="306" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43601,7 +43617,7 @@
         <v>675</v>
       </c>
       <c r="B10" s="307" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="C10" s="229" t="s">
         <v>674</v>
@@ -43615,10 +43631,10 @@
     </row>
     <row r="11" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="228" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B11" s="307" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="C11" s="229" t="s">
         <v>674</v>
@@ -43632,10 +43648,10 @@
     </row>
     <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="228" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B12" s="229" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="C12" s="229" t="s">
         <v>679</v>
@@ -43647,12 +43663,12 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="228" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B13" s="229" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="C13" s="229" t="s">
         <v>679</v>
@@ -43662,6 +43678,9 @@
       </c>
       <c r="E13" s="229" t="n">
         <v>2021</v>
+      </c>
+      <c r="F13" s="252" t="s">
+        <v>723</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43690,7 +43709,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -43700,12 +43719,12 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="229" width="40"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="229" width="39.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="229" width="39.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="229" width="56.66"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="230" width="11.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="230" width="11.56"/>
   </cols>
   <sheetData>
     <row r="1" s="311" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43721,68 +43740,68 @@
     </row>
     <row r="2" customFormat="false" ht="75.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="248" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="B2" s="249" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="C2" s="312" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="228" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="B3" s="229" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="C3" s="306" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="228" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="B4" s="229" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="C4" s="306" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="228" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="B5" s="229" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="C5" s="306" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="228" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="B6" s="229" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="C6" s="306" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="72" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="228" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="B7" s="229" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="C7" s="306" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43855,7 +43874,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -43865,23 +43884,23 @@
       <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.4453125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
+  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="313" width="11.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="250" width="11.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="229" width="9.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="229" width="46.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="229" width="15.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="229" width="15.88"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="6" min="6" style="229" width="14.66"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="7" min="7" style="229" width="40"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="8" min="8" style="229" width="13.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="252" width="19"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="10" style="230" width="11.44"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="10" style="230" width="11.44"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="314" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="B1" s="315" t="s">
         <v>1</v>
@@ -43890,19 +43909,19 @@
         <v>665</v>
       </c>
       <c r="D1" s="301" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="E1" s="301" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="F1" s="301" t="s">
         <v>8</v>
       </c>
       <c r="G1" s="301" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="H1" s="301" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="I1" s="302" t="s">
         <v>10</v>
@@ -43910,19 +43929,19 @@
     </row>
     <row r="2" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="229" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="D2" s="243" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="E2" s="243" t="s">
         <v>668</v>
       </c>
       <c r="G2" s="229" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="I2" s="252" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43930,19 +43949,19 @@
         <v>44153</v>
       </c>
       <c r="C3" s="229" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="D3" s="243" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="E3" s="243" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="G3" s="243" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="I3" s="252" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43950,19 +43969,19 @@
         <v>44153</v>
       </c>
       <c r="C4" s="229" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="D4" s="243" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="E4" s="243" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="G4" s="243" t="s">
+        <v>757</v>
+      </c>
+      <c r="I4" s="252" t="s">
         <v>755</v>
-      </c>
-      <c r="I4" s="252" t="s">
-        <v>753</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43970,100 +43989,100 @@
         <v>44294</v>
       </c>
       <c r="C5" s="229" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="D5" s="229" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="E5" s="229" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="I5" s="252" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="229" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="D6" s="229" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="E6" s="229" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="I6" s="252" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="229" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="D7" s="229" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="E7" s="229" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="I7" s="252" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="229" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="D8" s="229" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="E8" s="229" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="I8" s="252" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="229" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="D9" s="229" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="E9" s="229" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="I9" s="252" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="229" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="D10" s="229" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="E10" s="229" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="I10" s="252" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="229" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="D11" s="229" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="E11" s="229" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="I11" s="252" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44071,16 +44090,16 @@
         <v>44294</v>
       </c>
       <c r="C12" s="229" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="D12" s="229" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="E12" s="229" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="I12" s="252" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
     </row>
   </sheetData>

--- a/_data/CDLEML_WP_Progress_EML-Process.xlsx
+++ b/_data/CDLEML_WP_Progress_EML-Process.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1859" uniqueCount="793">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1860" uniqueCount="794">
   <si>
     <t xml:space="preserve">Compliance zu WPs CDLEML</t>
   </si>
@@ -2672,6 +2672,9 @@
     <t xml:space="preserve">FPGA optimized dynamic post-training quantization of TinyYoloV3</t>
   </si>
   <si>
+    <t xml:space="preserve">https://publik.tuwien.ac.at/files/publik_296008.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">Amid Mozelli</t>
   </si>
   <si>
@@ -2904,16 +2907,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="7">
+  <numFmts count="8">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0\ %"/>
-    <numFmt numFmtId="166" formatCode="DD/MM/YYYY"/>
+    <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
     <numFmt numFmtId="168" formatCode="0"/>
-    <numFmt numFmtId="169" formatCode="DD/MMM"/>
+    <numFmt numFmtId="169" formatCode="dd/mmm"/>
     <numFmt numFmtId="170" formatCode="0.0000"/>
+    <numFmt numFmtId="171" formatCode="General"/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="35">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2935,13 +2939,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="18"/>
@@ -3946,7 +3943,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="22">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3972,15 +3969,11 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="35" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="34" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="322">
+  <cellXfs count="318">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4017,7 +4010,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4033,27 +4026,27 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="4" borderId="6" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="5" fillId="4" borderId="6" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="5" borderId="6" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="5" fillId="5" borderId="6" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="6" borderId="7" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="5" fillId="6" borderId="7" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4093,7 +4086,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4137,11 +4130,11 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4153,27 +4146,27 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4197,39 +4190,39 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="9" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="9" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="6" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="6" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="6" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="6" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="21" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="21" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4241,7 +4234,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4249,39 +4242,39 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="10" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="10" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="10" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="7" fillId="10" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="10" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="7" fillId="10" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="10" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="7" fillId="10" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="10" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="7" fillId="10" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="10" borderId="14" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="11" fillId="10" borderId="14" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="12" fillId="10" borderId="14" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="11" fillId="10" borderId="14" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="10" borderId="15" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="11" fillId="10" borderId="15" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4293,7 +4286,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="10" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="10" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4305,43 +4298,43 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="14" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="14" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="8" fillId="0" borderId="14" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="14" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="15" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="15" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4357,19 +4350,43 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4377,107 +4394,83 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="15" fillId="9" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="15" fillId="2" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="9" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="16" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="16" fillId="0" borderId="34" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="16" fillId="0" borderId="35" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="16" fillId="0" borderId="14" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="16" fillId="0" borderId="14" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="15" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="2" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="17" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="17" fillId="0" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="17" fillId="0" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="17" fillId="0" borderId="34" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="17" fillId="0" borderId="35" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="14" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="17" fillId="0" borderId="14" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="15" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="40" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4485,7 +4478,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="18" fillId="0" borderId="39" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="17" fillId="0" borderId="39" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4493,27 +4486,27 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="41" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="42" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="43" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="44" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="44" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="45" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="45" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="46" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="46" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4525,11 +4518,11 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="15" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="15" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="8" fillId="0" borderId="15" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="15" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4537,7 +4530,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="9" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="9" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4549,39 +4542,39 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="47" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="47" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="48" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="49" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="49" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="18" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="17" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="51" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="51" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="5" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="5" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="8" fillId="0" borderId="5" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="5" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="50" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="50" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4605,151 +4598,151 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="14" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="14" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="14" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="14" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="52" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="52" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="2" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="2" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="2" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="2" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="23" fillId="2" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="24" fillId="2" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="2" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="26" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="26" fillId="0" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="26" fillId="0" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="26" fillId="0" borderId="34" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="26" fillId="0" borderId="35" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="14" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="26" fillId="0" borderId="14" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="26" fillId="0" borderId="15" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="2" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="27" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="26" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="27" fillId="0" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="26" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="27" fillId="0" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="26" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="26" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="27" fillId="0" borderId="34" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="27" fillId="0" borderId="35" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="27" fillId="0" borderId="14" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="27" fillId="0" borderId="14" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="27" fillId="0" borderId="15" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="28" fillId="2" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="27" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="27" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="27" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="27" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="29" fillId="2" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="2" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="15" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="15" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="15" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="15" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="15" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="15" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="53" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="53" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="54" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="54" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="55" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="55" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="18" fillId="0" borderId="56" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="17" fillId="0" borderId="56" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="56" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="56" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="57" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="57" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4757,19 +4750,19 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="4" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="4" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="8" fillId="0" borderId="4" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="4" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="10" borderId="15" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="11" fillId="10" borderId="15" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="12" fillId="10" borderId="15" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="11" fillId="10" borderId="15" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4777,63 +4770,63 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="31" fillId="10" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="32" fillId="10" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="32" fillId="10" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="32" fillId="10" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="32" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="32" fillId="10" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="33" fillId="10" borderId="15" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="33" fillId="10" borderId="15" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="10" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="30" fillId="10" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="4" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="31" fillId="10" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="31" fillId="10" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="31" fillId="10" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="31" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="58" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="31" fillId="10" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="32" fillId="10" borderId="15" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="32" fillId="10" borderId="15" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="10" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="10" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="4" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="58" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4853,7 +4846,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4905,31 +4898,27 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="11" borderId="61" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="11" borderId="61" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="11" borderId="62" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="11" borderId="62" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="12" borderId="63" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="12" borderId="63" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="12" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="171" fontId="5" fillId="12" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="12" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4937,23 +4926,15 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="12" borderId="60" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="12" borderId="60" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="12" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="12" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="171" fontId="5" fillId="12" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="60" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4993,19 +4974,19 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="11" borderId="62" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="5" fillId="11" borderId="62" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="11" borderId="62" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="5" fillId="11" borderId="62" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="11" borderId="68" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="11" borderId="68" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="12" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="5" fillId="12" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5013,19 +4994,15 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="12" borderId="69" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="12" borderId="69" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="12" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="5" fillId="12" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="12" borderId="67" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="67" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="12" borderId="67" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5069,11 +5046,11 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="11" borderId="72" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="11" borderId="72" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="12" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="12" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5081,7 +5058,7 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="12" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="12" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5097,7 +5074,7 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="11" borderId="68" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="5" fillId="11" borderId="68" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5113,7 +5090,7 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="171" fontId="0" fillId="13" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5137,11 +5114,11 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="171" fontId="0" fillId="14" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="15" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="171" fontId="0" fillId="15" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5149,7 +5126,7 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="16" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="171" fontId="0" fillId="16" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5181,31 +5158,31 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="61" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="61" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="62" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="62" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="68" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="69" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="69" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="34" fillId="0" borderId="60" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="60" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="72" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="72" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="35" fillId="0" borderId="67" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="34" fillId="0" borderId="67" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5229,7 +5206,7 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="35" fillId="0" borderId="69" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="34" fillId="0" borderId="69" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5237,15 +5214,15 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="61" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="61" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="62" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="62" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5257,7 +5234,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5270,15 +5247,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="8">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Standard 2" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="*unknown*" xfId="20" builtinId="8" customBuiltin="false"/>
+  <cellStyles count="7">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="*unknown*" xfId="20" builtinId="8"/>
   </cellStyles>
   <dxfs count="1222">
     <dxf>
@@ -14698,7 +14674,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -14712,7 +14688,7 @@
       <selection pane="bottomRight" activeCell="AZ117" activeCellId="0" sqref="AZ117"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="11.4453125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="2" outlineLevelCol="1"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="64.11"/>
@@ -14732,7 +14708,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="4" width="3.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="38" min="32" style="2" width="3.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="39" min="39" style="5" width="11.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="40" min="40" style="5" width="10.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="40" min="40" style="5" width="10.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="41" min="41" style="6" width="7.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="6" width="8.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="7" width="38.66"/>
@@ -14741,13 +14717,13 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="8" width="6.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="7" width="35.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="7" width="10.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="7" width="10.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="7" width="10.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="7" width="47.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="51" min="51" style="7" width="11.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="52" style="7" width="52.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="7" width="72.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="1" width="8.33"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="55" style="1" width="11.44"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="55" style="1" width="11.44"/>
   </cols>
   <sheetData>
     <row r="1" s="7" customFormat="true" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36766,7 +36742,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -36776,19 +36752,17 @@
       <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.67"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.45"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="316" t="s">
-        <v>767</v>
-      </c>
-      <c r="B1" s="316" t="s">
+      <c r="A1" s="312" t="s">
         <v>768</v>
+      </c>
+      <c r="B1" s="312" t="s">
+        <v>769</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36801,10 +36775,10 @@
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36812,7 +36786,7 @@
         <v>128</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36820,7 +36794,7 @@
         <v>177</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36844,7 +36818,7 @@
         <v>90</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36884,7 +36858,7 @@
         <v>329</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36929,10 +36903,10 @@
     </row>
     <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36963,7 +36937,7 @@
       <c r="A23" s="0" t="s">
         <v>620</v>
       </c>
-      <c r="B23" s="317" t="s">
+      <c r="B23" s="313" t="s">
         <v>711</v>
       </c>
     </row>
@@ -36971,50 +36945,50 @@
       <c r="A24" s="0" t="s">
         <v>625</v>
       </c>
-      <c r="B24" s="318" t="s">
-        <v>775</v>
+      <c r="B24" s="314" t="s">
+        <v>776</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
         <v>629</v>
       </c>
-      <c r="B25" s="318" t="s">
-        <v>776</v>
+      <c r="B25" s="314" t="s">
+        <v>777</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="318"/>
+      <c r="B26" s="314"/>
     </row>
     <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
         <v>621</v>
       </c>
-      <c r="B27" s="318" t="s">
-        <v>719</v>
+      <c r="B27" s="314" t="s">
+        <v>720</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
         <v>626</v>
       </c>
-      <c r="B28" s="318" t="s">
-        <v>777</v>
+      <c r="B28" s="314" t="s">
+        <v>778</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
         <v>630</v>
       </c>
-      <c r="B29" s="318" t="s">
-        <v>778</v>
+      <c r="B29" s="314" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
         <v>634</v>
       </c>
-      <c r="B30" s="318" t="s">
+      <c r="B30" s="314" t="s">
         <v>692</v>
       </c>
     </row>
@@ -37030,7 +37004,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -37040,32 +37014,30 @@
       <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.33"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.45"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="316" t="s">
+      <c r="A1" s="312" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="319" t="s">
-        <v>779</v>
-      </c>
-      <c r="H1" s="316" t="s">
+      <c r="C1" s="315" t="s">
         <v>780</v>
+      </c>
+      <c r="H1" s="312" t="s">
+        <v>781</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>781</v>
-      </c>
-      <c r="C2" s="320" t="s">
         <v>782</v>
       </c>
-      <c r="H2" s="321" t="n">
+      <c r="C2" s="316" t="s">
+        <v>783</v>
+      </c>
+      <c r="H2" s="317" t="n">
         <f aca="true">TODAY()</f>
         <v>44586</v>
       </c>
@@ -37074,57 +37046,57 @@
       <c r="A3" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="C3" s="320" t="s">
-        <v>783</v>
+      <c r="C3" s="316" t="s">
+        <v>784</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>784</v>
-      </c>
-      <c r="C4" s="320" t="s">
         <v>785</v>
+      </c>
+      <c r="C4" s="316" t="s">
+        <v>786</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="320" t="s">
-        <v>786</v>
+      <c r="C5" s="316" t="s">
+        <v>787</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="320" t="s">
-        <v>787</v>
+      <c r="C6" s="316" t="s">
+        <v>788</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="320" t="s">
-        <v>788</v>
+      <c r="C7" s="316" t="s">
+        <v>789</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="320" t="s">
-        <v>789</v>
+      <c r="C8" s="316" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="320" t="s">
-        <v>790</v>
+      <c r="C9" s="316" t="s">
+        <v>791</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="320" t="s">
-        <v>791</v>
+      <c r="C10" s="316" t="s">
+        <v>792</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="320" t="s">
-        <v>792</v>
+      <c r="C11" s="316" t="s">
+        <v>793</v>
       </c>
     </row>
   </sheetData>
@@ -37139,7 +37111,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -37149,15 +37121,14 @@
       <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.56640625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="228" width="8.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="229" width="54.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="229" width="15.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="229" width="24.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="229" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="230" width="11.56"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="230" width="11.56"/>
   </cols>
   <sheetData>
     <row r="1" s="233" customFormat="true" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -37177,7 +37148,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" s="237" customFormat="true" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" s="236" customFormat="true" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="234" t="s">
         <v>25</v>
       </c>
@@ -37187,7 +37158,7 @@
       </c>
       <c r="C2" s="235"/>
       <c r="D2" s="235"/>
-      <c r="E2" s="236"/>
+      <c r="E2" s="235"/>
     </row>
     <row r="3" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="228" t="s">
@@ -37209,7 +37180,7 @@
         <f aca="false">IF(VLOOKUP(A3,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A3,EML_Tool_WP!A:BB,48,0))</f>
         <v>completed</v>
       </c>
-      <c r="G3" s="238"/>
+      <c r="G3" s="237"/>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="228" t="s">
@@ -37231,7 +37202,7 @@
         <f aca="false">IF(VLOOKUP(A4,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A4,EML_Tool_WP!A:BB,48,0))</f>
         <v>active</v>
       </c>
-      <c r="G4" s="238"/>
+      <c r="G4" s="237"/>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="228" t="s">
@@ -37253,7 +37224,7 @@
         <f aca="false">IF(VLOOKUP(A5,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A5,EML_Tool_WP!A:BB,48,0))</f>
         <v>active</v>
       </c>
-      <c r="G5" s="238"/>
+      <c r="G5" s="237"/>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="228" t="s">
@@ -37275,7 +37246,7 @@
         <f aca="false">IF(VLOOKUP(A6,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A6,EML_Tool_WP!A:BB,48,0))</f>
         <v>open</v>
       </c>
-      <c r="G6" s="238"/>
+      <c r="G6" s="237"/>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="228" t="s">
@@ -37297,7 +37268,7 @@
         <f aca="false">IF(VLOOKUP(A7,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A7,EML_Tool_WP!A:BB,48,0))</f>
         <v>active</v>
       </c>
-      <c r="G7" s="238"/>
+      <c r="G7" s="237"/>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="228" t="s">
@@ -37320,17 +37291,17 @@
         <v>open</v>
       </c>
     </row>
-    <row r="9" s="237" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="239" t="s">
+    <row r="9" s="236" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="238" t="s">
         <v>121</v>
       </c>
-      <c r="B9" s="240" t="str">
+      <c r="B9" s="239" t="str">
         <f aca="false">IF(VLOOKUP(A9,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A9,EML_Tool_WP!A:BB,2,0))</f>
         <v>Optimize HW Dependent Settings</v>
       </c>
-      <c r="C9" s="240"/>
-      <c r="D9" s="240"/>
-      <c r="E9" s="241"/>
+      <c r="C9" s="239"/>
+      <c r="D9" s="239"/>
+      <c r="E9" s="239"/>
     </row>
     <row r="10" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="228" t="s">
@@ -37437,17 +37408,17 @@
         <v>active</v>
       </c>
     </row>
-    <row r="15" s="237" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="239" t="s">
+    <row r="15" s="236" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="238" t="s">
         <v>196</v>
       </c>
-      <c r="B15" s="240" t="str">
+      <c r="B15" s="239" t="str">
         <f aca="false">IF(VLOOKUP(A15,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A15,EML_Tool_WP!A:BB,2,0))</f>
         <v>Map Models of hardware</v>
       </c>
-      <c r="C15" s="240"/>
-      <c r="D15" s="240"/>
-      <c r="E15" s="241"/>
+      <c r="C15" s="239"/>
+      <c r="D15" s="239"/>
+      <c r="E15" s="239"/>
     </row>
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="228" t="s">
@@ -37596,17 +37567,17 @@
         <v>open</v>
       </c>
     </row>
-    <row r="23" s="237" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="239" t="s">
+    <row r="23" s="236" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="238" t="s">
         <v>309</v>
       </c>
-      <c r="B23" s="240" t="str">
+      <c r="B23" s="239" t="str">
         <f aca="false">IF(VLOOKUP(A23,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A23,EML_Tool_WP!A:BB,2,0))</f>
         <v>Quantization</v>
       </c>
-      <c r="C23" s="240"/>
-      <c r="D23" s="240"/>
-      <c r="E23" s="241"/>
+      <c r="C23" s="239"/>
+      <c r="D23" s="239"/>
+      <c r="E23" s="239"/>
     </row>
     <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="228" t="s">
@@ -37630,79 +37601,79 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="242" t="s">
+      <c r="A25" s="240" t="s">
         <v>326</v>
       </c>
-      <c r="B25" s="243" t="str">
+      <c r="B25" s="229" t="str">
         <f aca="false">IF(VLOOKUP(A25,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A25,EML_Tool_WP!A:BB,2,0))</f>
         <v>Analysis of NVIDIA Native Quantization</v>
       </c>
-      <c r="C25" s="243" t="str">
+      <c r="C25" s="229" t="str">
         <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A25,EML_Tool_WP!A:BB,46,0),Members!A:B,2,0),"")</f>
         <v>Karoline Knoth</v>
       </c>
-      <c r="D25" s="243" t="str">
+      <c r="D25" s="229" t="str">
         <f aca="false">IF(VLOOKUP(A25,EML_Tool_WP!A:BB,51,0)="","",VLOOKUP(A25,EML_Tool_WP!A:BB,51,0))</f>
         <v>Document</v>
       </c>
-      <c r="E25" s="243" t="str">
+      <c r="E25" s="229" t="str">
         <f aca="false">IF(VLOOKUP(A25,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A25,EML_Tool_WP!A:BB,48,0))</f>
         <v>active</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="242" t="s">
+      <c r="A26" s="240" t="s">
         <v>334</v>
       </c>
-      <c r="B26" s="243" t="str">
+      <c r="B26" s="229" t="str">
         <f aca="false">IF(VLOOKUP(A26,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A26,EML_Tool_WP!A:BB,2,0))</f>
         <v>Analysis of Intel Native Quantization</v>
       </c>
-      <c r="C26" s="243" t="str">
+      <c r="C26" s="229" t="str">
         <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A26,EML_Tool_WP!A:BB,46,0),Members!A:B,2,0),"")</f>
         <v>Julian Westra</v>
       </c>
-      <c r="D26" s="243" t="str">
+      <c r="D26" s="229" t="str">
         <f aca="false">IF(VLOOKUP(A26,EML_Tool_WP!A:BB,51,0)="","",VLOOKUP(A26,EML_Tool_WP!A:BB,51,0))</f>
         <v>Document</v>
       </c>
-      <c r="E26" s="243" t="str">
+      <c r="E26" s="229" t="str">
         <f aca="false">IF(VLOOKUP(A26,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A26,EML_Tool_WP!A:BB,48,0))</f>
         <v>active</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="242" t="s">
+      <c r="A27" s="240" t="s">
         <v>343</v>
       </c>
-      <c r="B27" s="243" t="str">
+      <c r="B27" s="229" t="str">
         <f aca="false">IF(VLOOKUP(A27,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A27,EML_Tool_WP!A:BB,2,0))</f>
         <v>One-shot Quantizeable Slimmable Adaptive Networks on Xilinx</v>
       </c>
-      <c r="C27" s="243" t="str">
+      <c r="C27" s="229" t="str">
         <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A27,EML_Tool_WP!A:BB,46,0),Members!A:B,2,0),"")</f>
         <v>Birgit Schreiber</v>
       </c>
-      <c r="D27" s="243" t="str">
+      <c r="D27" s="229" t="str">
         <f aca="false">IF(VLOOKUP(A27,EML_Tool_WP!A:BB,51,0)="","",VLOOKUP(A27,EML_Tool_WP!A:BB,51,0))</f>
         <v>Repositor, Master Thesis</v>
       </c>
-      <c r="E27" s="243" t="str">
+      <c r="E27" s="229" t="str">
         <f aca="false">IF(VLOOKUP(A27,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A27,EML_Tool_WP!A:BB,48,0))</f>
         <v>active</v>
       </c>
     </row>
-    <row r="28" s="237" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="239" t="s">
+    <row r="28" s="236" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="238" t="s">
         <v>357</v>
       </c>
-      <c r="B28" s="240" t="str">
+      <c r="B28" s="239" t="str">
         <f aca="false">IF(VLOOKUP(A28,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A28,EML_Tool_WP!A:BB,2,0))</f>
         <v>Pruning</v>
       </c>
-      <c r="C28" s="240"/>
-      <c r="D28" s="240"/>
-      <c r="E28" s="241"/>
+      <c r="C28" s="239"/>
+      <c r="D28" s="239"/>
+      <c r="E28" s="239"/>
     </row>
     <row r="29" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="228" t="s">
@@ -37726,49 +37697,49 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="242" t="s">
+      <c r="A30" s="240" t="s">
         <v>373</v>
       </c>
-      <c r="B30" s="243" t="str">
+      <c r="B30" s="229" t="str">
         <f aca="false">IF(VLOOKUP(A30,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A30,EML_Tool_WP!A:BB,2,0))</f>
         <v>Analysis of Performance of Slimmable Networks</v>
       </c>
-      <c r="C30" s="243" t="str">
+      <c r="C30" s="229" t="str">
         <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A30,EML_Tool_WP!A:BB,46,0),Members!A:B,2,0),"")</f>
         <v>Karoline Knoth</v>
       </c>
-      <c r="D30" s="243" t="str">
+      <c r="D30" s="229" t="str">
         <f aca="false">IF(VLOOKUP(A30,EML_Tool_WP!A:BB,51,0)="","",VLOOKUP(A30,EML_Tool_WP!A:BB,51,0))</f>
         <v>Document, repository</v>
       </c>
-      <c r="E30" s="243" t="str">
+      <c r="E30" s="229" t="str">
         <f aca="false">IF(VLOOKUP(A30,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A30,EML_Tool_WP!A:BB,48,0))</f>
         <v>active</v>
       </c>
     </row>
-    <row r="31" s="237" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="239" t="s">
+    <row r="31" s="236" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="238" t="s">
         <v>395</v>
       </c>
-      <c r="B31" s="240" t="str">
+      <c r="B31" s="239" t="str">
         <f aca="false">IF(VLOOKUP(A31,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A31,EML_Tool_WP!A:BB,2,0))</f>
         <v>Factorization</v>
       </c>
-      <c r="C31" s="240"/>
-      <c r="D31" s="240"/>
-      <c r="E31" s="241"/>
-    </row>
-    <row r="32" s="237" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="239" t="s">
+      <c r="C31" s="239"/>
+      <c r="D31" s="239"/>
+      <c r="E31" s="239"/>
+    </row>
+    <row r="32" s="236" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="238" t="s">
         <v>398</v>
       </c>
-      <c r="B32" s="240" t="str">
+      <c r="B32" s="239" t="str">
         <f aca="false">IF(VLOOKUP(A32,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A32,EML_Tool_WP!A:BB,2,0))</f>
         <v>Compact Design</v>
       </c>
-      <c r="C32" s="240"/>
-      <c r="D32" s="240"/>
-      <c r="E32" s="241"/>
+      <c r="C32" s="239"/>
+      <c r="D32" s="239"/>
+      <c r="E32" s="239"/>
     </row>
     <row r="33" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="228" t="s">
@@ -37834,37 +37805,37 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="242" t="s">
+      <c r="A36" s="240" t="s">
         <v>462</v>
       </c>
-      <c r="B36" s="243" t="str">
+      <c r="B36" s="229" t="str">
         <f aca="false">IF(VLOOKUP(A36,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A36,EML_Tool_WP!A:BB,2,0))</f>
         <v>Comparison of YoloV3 vs. YoloV4 on a Xilinx</v>
       </c>
-      <c r="C36" s="243" t="str">
+      <c r="C36" s="229" t="str">
         <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A36,EML_Tool_WP!A:BB,46,0),Members!A:B,2,0),"")</f>
         <v>Fabian Scherer</v>
       </c>
-      <c r="D36" s="243" t="str">
+      <c r="D36" s="229" t="str">
         <f aca="false">IF(VLOOKUP(A36,EML_Tool_WP!A:BB,51,0)="","",VLOOKUP(A36,EML_Tool_WP!A:BB,51,0))</f>
         <v>Thesis</v>
       </c>
-      <c r="E36" s="243" t="str">
+      <c r="E36" s="229" t="str">
         <f aca="false">IF(VLOOKUP(A36,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A36,EML_Tool_WP!A:BB,48,0))</f>
         <v>active</v>
       </c>
     </row>
-    <row r="37" s="237" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="239" t="s">
+    <row r="37" s="236" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="238" t="s">
         <v>469</v>
       </c>
-      <c r="B37" s="240" t="str">
+      <c r="B37" s="239" t="str">
         <f aca="false">IF(VLOOKUP(A37,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A37,EML_Tool_WP!A:BB,2,0))</f>
         <v>Optimization Strategy</v>
       </c>
-      <c r="C37" s="240"/>
-      <c r="D37" s="240"/>
-      <c r="E37" s="241"/>
+      <c r="C37" s="239"/>
+      <c r="D37" s="239"/>
+      <c r="E37" s="239"/>
     </row>
     <row r="38" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="228" t="s">
@@ -37951,22 +37922,22 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="242" t="s">
+      <c r="A42" s="240" t="s">
         <v>536</v>
       </c>
-      <c r="B42" s="243" t="str">
+      <c r="B42" s="229" t="str">
         <f aca="false">IF(VLOOKUP(A42,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A42,EML_Tool_WP!A:BB,2,0))</f>
         <v>Application: Traffic Light System</v>
       </c>
-      <c r="C42" s="243" t="str">
+      <c r="C42" s="229" t="str">
         <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A42,EML_Tool_WP!A:BB,46,0),Members!A:B,2,0),"")</f>
         <v>Julian Westra</v>
       </c>
-      <c r="D42" s="243" t="str">
+      <c r="D42" s="229" t="str">
         <f aca="false">IF(VLOOKUP(A42,EML_Tool_WP!A:BB,51,0)="","",VLOOKUP(A42,EML_Tool_WP!A:BB,51,0))</f>
         <v>Document</v>
       </c>
-      <c r="E42" s="243" t="str">
+      <c r="E42" s="229" t="str">
         <f aca="false">IF(VLOOKUP(A42,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A42,EML_Tool_WP!A:BB,48,0))</f>
         <v>active</v>
       </c>
@@ -38014,102 +37985,102 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="242" t="s">
+      <c r="A45" s="240" t="s">
         <v>591</v>
       </c>
-      <c r="B45" s="243" t="str">
+      <c r="B45" s="229" t="str">
         <f aca="false">IF(VLOOKUP(A45,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A45,EML_Tool_WP!A:BB,2,0))</f>
         <v>Application: Tensorflow Lite Object Detection on an Android Smart Phone</v>
       </c>
-      <c r="C45" s="243" t="str">
+      <c r="C45" s="229" t="str">
         <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A45,EML_Tool_WP!A:BB,46,0),Members!A:B,2,0),"")</f>
         <v>Thomas Kotrba</v>
       </c>
-      <c r="D45" s="243" t="str">
+      <c r="D45" s="229" t="str">
         <f aca="false">IF(VLOOKUP(A45,EML_Tool_WP!A:BB,51,0)="","",VLOOKUP(A45,EML_Tool_WP!A:BB,51,0))</f>
         <v>Document, SW package</v>
       </c>
-      <c r="E45" s="243" t="str">
+      <c r="E45" s="229" t="str">
         <f aca="false">IF(VLOOKUP(A45,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A45,EML_Tool_WP!A:BB,48,0))</f>
         <v>active</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="242" t="s">
+      <c r="A46" s="240" t="s">
         <v>607</v>
       </c>
-      <c r="B46" s="243" t="str">
+      <c r="B46" s="229" t="str">
         <f aca="false">IF(VLOOKUP(A46,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A46,EML_Tool_WP!A:BB,2,0))</f>
         <v>Hyper Parameterization Optimization through a Two-Phase-Search</v>
       </c>
-      <c r="C46" s="243" t="str">
+      <c r="C46" s="229" t="str">
         <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A46,EML_Tool_WP!A:BB,46,0),Members!A:B,2,0),"")</f>
         <v>Marco Wuschnig</v>
       </c>
-      <c r="D46" s="243" t="str">
+      <c r="D46" s="229" t="str">
         <f aca="false">IF(VLOOKUP(A46,EML_Tool_WP!A:BB,51,0)="","",VLOOKUP(A46,EML_Tool_WP!A:BB,51,0))</f>
         <v>Thesis, publication</v>
       </c>
-      <c r="E46" s="243" t="str">
+      <c r="E46" s="229" t="str">
         <f aca="false">IF(VLOOKUP(A46,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A46,EML_Tool_WP!A:BB,48,0))</f>
         <v>completed</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="244"/>
-      <c r="B47" s="245"/>
-      <c r="C47" s="245"/>
-      <c r="D47" s="245"/>
-      <c r="E47" s="245"/>
+      <c r="A47" s="241"/>
+      <c r="B47" s="242"/>
+      <c r="C47" s="242"/>
+      <c r="D47" s="242"/>
+      <c r="E47" s="242"/>
     </row>
     <row r="48" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="244"/>
-      <c r="B48" s="245"/>
-      <c r="C48" s="245"/>
-      <c r="D48" s="245"/>
-      <c r="E48" s="245"/>
+      <c r="A48" s="241"/>
+      <c r="B48" s="242"/>
+      <c r="C48" s="242"/>
+      <c r="D48" s="242"/>
+      <c r="E48" s="242"/>
     </row>
     <row r="49" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="244"/>
-      <c r="B49" s="245"/>
-      <c r="C49" s="245"/>
-      <c r="D49" s="245"/>
-      <c r="E49" s="245"/>
+      <c r="A49" s="241"/>
+      <c r="B49" s="242"/>
+      <c r="C49" s="242"/>
+      <c r="D49" s="242"/>
+      <c r="E49" s="242"/>
     </row>
     <row r="50" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="244"/>
-      <c r="B50" s="245"/>
-      <c r="C50" s="245"/>
-      <c r="D50" s="245"/>
-      <c r="E50" s="245"/>
+      <c r="A50" s="241"/>
+      <c r="B50" s="242"/>
+      <c r="C50" s="242"/>
+      <c r="D50" s="242"/>
+      <c r="E50" s="242"/>
     </row>
     <row r="51" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="244"/>
-      <c r="B51" s="245"/>
-      <c r="C51" s="245"/>
-      <c r="D51" s="245"/>
-      <c r="E51" s="245"/>
+      <c r="A51" s="241"/>
+      <c r="B51" s="242"/>
+      <c r="C51" s="242"/>
+      <c r="D51" s="242"/>
+      <c r="E51" s="242"/>
     </row>
     <row r="52" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="244"/>
-      <c r="B52" s="245"/>
-      <c r="C52" s="245"/>
-      <c r="D52" s="245"/>
-      <c r="E52" s="245"/>
+      <c r="A52" s="241"/>
+      <c r="B52" s="242"/>
+      <c r="C52" s="242"/>
+      <c r="D52" s="242"/>
+      <c r="E52" s="242"/>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="246"/>
-      <c r="B53" s="247"/>
-      <c r="C53" s="247"/>
-      <c r="D53" s="247"/>
-      <c r="E53" s="247"/>
+      <c r="A53" s="243"/>
+      <c r="B53" s="244"/>
+      <c r="C53" s="244"/>
+      <c r="D53" s="244"/>
+      <c r="E53" s="244"/>
     </row>
     <row r="54" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="248"/>
-      <c r="B54" s="249"/>
-      <c r="C54" s="249"/>
-      <c r="D54" s="249"/>
-      <c r="E54" s="249"/>
+      <c r="A54" s="245"/>
+      <c r="B54" s="246"/>
+      <c r="C54" s="246"/>
+      <c r="D54" s="246"/>
+      <c r="E54" s="246"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D54"/>
@@ -38125,7 +38096,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -38135,18 +38106,17 @@
       <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.56640625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="228" width="8.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="229" width="54.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="250" width="10.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="247" width="10.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="229" width="10.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="229" width="24.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="251" width="8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="248" width="8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="229" width="9.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="252" width="6.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="11.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="230" width="11.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="249" width="6.43"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="10" style="230" width="11.56"/>
   </cols>
   <sheetData>
     <row r="1" s="233" customFormat="true" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -38156,7 +38126,7 @@
       <c r="B1" s="232" t="s">
         <v>657</v>
       </c>
-      <c r="C1" s="253" t="s">
+      <c r="C1" s="250" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="232" t="s">
@@ -38165,17 +38135,17 @@
       <c r="E1" s="232" t="s">
         <v>658</v>
       </c>
-      <c r="F1" s="254" t="s">
+      <c r="F1" s="251" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="232" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="255" t="s">
+      <c r="H1" s="252" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="2" s="237" customFormat="true" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" s="236" customFormat="true" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="234" t="s">
         <v>25</v>
       </c>
@@ -38183,15 +38153,15 @@
         <f aca="false">IF(VLOOKUP(A2,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A2,EML_Tool_WP!A:BB,2,0))</f>
         <v>Create estimations for lat, throughput, power, energy, acc, resources</v>
       </c>
-      <c r="C2" s="256"/>
+      <c r="C2" s="253"/>
       <c r="D2" s="235"/>
       <c r="E2" s="235"/>
-      <c r="F2" s="257" t="n">
+      <c r="F2" s="254" t="n">
         <f aca="false">IF(VLOOKUP(A2,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A2,EML_Tool_WP!A:BB,42,0))</f>
         <v>0.518918918918919</v>
       </c>
-      <c r="G2" s="236"/>
-      <c r="H2" s="258"/>
+      <c r="G2" s="235"/>
+      <c r="H2" s="255"/>
     </row>
     <row r="3" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="228" t="s">
@@ -38201,11 +38171,11 @@
         <f aca="false">IF(VLOOKUP(A3,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A3,EML_Tool_WP!A:BB,2,0))</f>
         <v>State of the Art Latency und Power Estimation Modelle aufsetzen</v>
       </c>
-      <c r="C3" s="250" t="n">
+      <c r="C3" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A3,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A3,EML_Tool_WP!A:BB,39,0))</f>
         <v>44075</v>
       </c>
-      <c r="D3" s="250" t="n">
+      <c r="D3" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A3,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A3,EML_Tool_WP!A:BB,40,0))</f>
         <v>44134</v>
       </c>
@@ -38213,7 +38183,7 @@
         <f aca="false">IF(VLOOKUP(A3,EML_Tool_WP!A:BB,51,0)="","",VLOOKUP(A3,EML_Tool_WP!A:BB,51,0))</f>
         <v>Publication</v>
       </c>
-      <c r="F3" s="251" t="n">
+      <c r="F3" s="248" t="n">
         <f aca="false">IF(VLOOKUP(A3,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A3,EML_Tool_WP!A:BB,42,0))</f>
         <v>1</v>
       </c>
@@ -38221,11 +38191,11 @@
         <f aca="false">IF(VLOOKUP(A3,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A3,EML_Tool_WP!A:BB,48,0))</f>
         <v>completed</v>
       </c>
-      <c r="H3" s="252" t="str">
+      <c r="H3" s="249" t="str">
         <f aca="false">IF(VLOOKUP(A3,EML_Tool_WP!A:BB,54,0)="","",VLOOKUP(A3,EML_Tool_WP!A:BB,54,0))</f>
         <v/>
       </c>
-      <c r="J3" s="238"/>
+      <c r="J3" s="237"/>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="228" t="s">
@@ -38235,11 +38205,11 @@
         <f aca="false">IF(VLOOKUP(A4,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A4,EML_Tool_WP!A:BB,2,0))</f>
         <v>Latency Estimator Blackthorn (NVIDIA)</v>
       </c>
-      <c r="C4" s="250" t="n">
+      <c r="C4" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A4,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A4,EML_Tool_WP!A:BB,39,0))</f>
         <v>43739</v>
       </c>
-      <c r="D4" s="250" t="n">
+      <c r="D4" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A4,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A4,EML_Tool_WP!A:BB,40,0))</f>
         <v>44469</v>
       </c>
@@ -38247,7 +38217,7 @@
         <f aca="false">IF(VLOOKUP(A4,EML_Tool_WP!A:BB,51,0)="","",VLOOKUP(A4,EML_Tool_WP!A:BB,51,0))</f>
         <v>Repository, Publication</v>
       </c>
-      <c r="F4" s="251" t="n">
+      <c r="F4" s="248" t="n">
         <f aca="false">IF(VLOOKUP(A4,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A4,EML_Tool_WP!A:BB,42,0))</f>
         <v>0.811111111111111</v>
       </c>
@@ -38255,11 +38225,11 @@
         <f aca="false">IF(VLOOKUP(A4,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A4,EML_Tool_WP!A:BB,48,0))</f>
         <v>active</v>
       </c>
-      <c r="H4" s="252" t="n">
+      <c r="H4" s="249" t="n">
         <f aca="false">IF(VLOOKUP(A4,EML_Tool_WP!A:BB,54,0)="","",VLOOKUP(A4,EML_Tool_WP!A:BB,54,0))</f>
         <v>1</v>
       </c>
-      <c r="J4" s="238"/>
+      <c r="J4" s="237"/>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="228" t="s">
@@ -38269,11 +38239,11 @@
         <f aca="false">IF(VLOOKUP(A5,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A5,EML_Tool_WP!A:BB,2,0))</f>
         <v>Latency Estimator ANETTE (Intel, ARM, Xilinx)</v>
       </c>
-      <c r="C5" s="250" t="n">
+      <c r="C5" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A5,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A5,EML_Tool_WP!A:BB,39,0))</f>
         <v>43739</v>
       </c>
-      <c r="D5" s="250" t="n">
+      <c r="D5" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A5,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A5,EML_Tool_WP!A:BB,40,0))</f>
         <v>44469</v>
       </c>
@@ -38281,7 +38251,7 @@
         <f aca="false">IF(VLOOKUP(A5,EML_Tool_WP!A:BB,51,0)="","",VLOOKUP(A5,EML_Tool_WP!A:BB,51,0))</f>
         <v>Repository, Publication</v>
       </c>
-      <c r="F5" s="251" t="n">
+      <c r="F5" s="248" t="n">
         <f aca="false">IF(VLOOKUP(A5,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A5,EML_Tool_WP!A:BB,42,0))</f>
         <v>0.854545454545455</v>
       </c>
@@ -38289,11 +38259,11 @@
         <f aca="false">IF(VLOOKUP(A5,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A5,EML_Tool_WP!A:BB,48,0))</f>
         <v>active</v>
       </c>
-      <c r="H5" s="252" t="n">
+      <c r="H5" s="249" t="n">
         <f aca="false">IF(VLOOKUP(A5,EML_Tool_WP!A:BB,54,0)="","",VLOOKUP(A5,EML_Tool_WP!A:BB,54,0))</f>
         <v>1</v>
       </c>
-      <c r="J5" s="238"/>
+      <c r="J5" s="237"/>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="228" t="s">
@@ -38303,11 +38273,11 @@
         <f aca="false">IF(VLOOKUP(A6,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A6,EML_Tool_WP!A:BB,2,0))</f>
         <v>Power Estimator through Christian's Model</v>
       </c>
-      <c r="C6" s="250" t="n">
+      <c r="C6" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A6,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A6,EML_Tool_WP!A:BB,39,0))</f>
         <v>44044</v>
       </c>
-      <c r="D6" s="250" t="n">
+      <c r="D6" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A6,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A6,EML_Tool_WP!A:BB,40,0))</f>
         <v>44134</v>
       </c>
@@ -38315,7 +38285,7 @@
         <f aca="false">IF(VLOOKUP(A6,EML_Tool_WP!A:BB,51,0)="","",VLOOKUP(A6,EML_Tool_WP!A:BB,51,0))</f>
         <v>Repository, Publication</v>
       </c>
-      <c r="F6" s="251" t="n">
+      <c r="F6" s="248" t="n">
         <f aca="false">IF(VLOOKUP(A6,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A6,EML_Tool_WP!A:BB,42,0))</f>
         <v>0</v>
       </c>
@@ -38323,11 +38293,11 @@
         <f aca="false">IF(VLOOKUP(A6,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A6,EML_Tool_WP!A:BB,48,0))</f>
         <v>open</v>
       </c>
-      <c r="H6" s="252" t="str">
+      <c r="H6" s="249" t="str">
         <f aca="false">IF(VLOOKUP(A6,EML_Tool_WP!A:BB,54,0)="","",VLOOKUP(A6,EML_Tool_WP!A:BB,54,0))</f>
         <v/>
       </c>
-      <c r="J6" s="238"/>
+      <c r="J6" s="237"/>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="228" t="s">
@@ -38337,11 +38307,11 @@
         <f aca="false">IF(VLOOKUP(A7,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A7,EML_Tool_WP!A:BB,2,0))</f>
         <v>Power Estimator through ANNETTE</v>
       </c>
-      <c r="C7" s="250" t="n">
+      <c r="C7" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A7,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A7,EML_Tool_WP!A:BB,39,0))</f>
         <v>44146</v>
       </c>
-      <c r="D7" s="250" t="n">
+      <c r="D7" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A7,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A7,EML_Tool_WP!A:BB,40,0))</f>
         <v>44439</v>
       </c>
@@ -38349,7 +38319,7 @@
         <f aca="false">IF(VLOOKUP(A7,EML_Tool_WP!A:BB,51,0)="","",VLOOKUP(A7,EML_Tool_WP!A:BB,51,0))</f>
         <v>Database, repository</v>
       </c>
-      <c r="F7" s="251" t="n">
+      <c r="F7" s="248" t="n">
         <f aca="false">IF(VLOOKUP(A7,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A7,EML_Tool_WP!A:BB,42,0))</f>
         <v>0.0625</v>
       </c>
@@ -38357,11 +38327,11 @@
         <f aca="false">IF(VLOOKUP(A7,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A7,EML_Tool_WP!A:BB,48,0))</f>
         <v>active</v>
       </c>
-      <c r="H7" s="252" t="n">
+      <c r="H7" s="249" t="n">
         <f aca="false">IF(VLOOKUP(A7,EML_Tool_WP!A:BB,54,0)="","",VLOOKUP(A7,EML_Tool_WP!A:BB,54,0))</f>
         <v>2</v>
       </c>
-      <c r="J7" s="238"/>
+      <c r="J7" s="237"/>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="228" t="s">
@@ -38371,11 +38341,11 @@
         <f aca="false">IF(VLOOKUP(A8,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A8,EML_Tool_WP!A:BB,2,0))</f>
         <v>Estimation of On-Chip Resources</v>
       </c>
-      <c r="C8" s="250" t="n">
+      <c r="C8" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A8,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A8,EML_Tool_WP!A:BB,39,0))</f>
         <v>44470</v>
       </c>
-      <c r="D8" s="250" t="str">
+      <c r="D8" s="247" t="str">
         <f aca="false">IF(VLOOKUP(A8,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A8,EML_Tool_WP!A:BB,40,0))</f>
         <v/>
       </c>
@@ -38383,7 +38353,7 @@
         <f aca="false">IF(VLOOKUP(A8,EML_Tool_WP!A:BB,51,0)="","",VLOOKUP(A8,EML_Tool_WP!A:BB,51,0))</f>
         <v/>
       </c>
-      <c r="F8" s="251" t="n">
+      <c r="F8" s="248" t="n">
         <f aca="false">IF(VLOOKUP(A8,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A8,EML_Tool_WP!A:BB,42,0))</f>
         <v>0</v>
       </c>
@@ -38391,28 +38361,28 @@
         <f aca="false">IF(VLOOKUP(A8,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A8,EML_Tool_WP!A:BB,48,0))</f>
         <v>open</v>
       </c>
-      <c r="H8" s="252" t="n">
+      <c r="H8" s="249" t="n">
         <f aca="false">IF(VLOOKUP(A8,EML_Tool_WP!A:BB,54,0)="","",VLOOKUP(A8,EML_Tool_WP!A:BB,54,0))</f>
         <v>3</v>
       </c>
     </row>
-    <row r="9" s="237" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="239" t="s">
+    <row r="9" s="236" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="238" t="s">
         <v>121</v>
       </c>
-      <c r="B9" s="240" t="str">
+      <c r="B9" s="239" t="str">
         <f aca="false">IF(VLOOKUP(A9,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A9,EML_Tool_WP!A:BB,2,0))</f>
         <v>Optimize HW Dependent Settings</v>
       </c>
-      <c r="C9" s="259"/>
-      <c r="D9" s="240"/>
-      <c r="E9" s="240"/>
-      <c r="F9" s="257" t="n">
+      <c r="C9" s="256"/>
+      <c r="D9" s="239"/>
+      <c r="E9" s="239"/>
+      <c r="F9" s="254" t="n">
         <f aca="false">IF(VLOOKUP(A9,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A9,EML_Tool_WP!A:BB,42,0))</f>
         <v>0.406896551724138</v>
       </c>
-      <c r="G9" s="241"/>
-      <c r="H9" s="260"/>
+      <c r="G9" s="239"/>
+      <c r="H9" s="257"/>
     </row>
     <row r="10" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="228" t="s">
@@ -38422,11 +38392,11 @@
         <f aca="false">IF(VLOOKUP(A10,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A10,EML_Tool_WP!A:BB,2,0))</f>
         <v>NVIDIA Platform Profiling (Jetson, TC2, Xavier)</v>
       </c>
-      <c r="C10" s="250" t="n">
+      <c r="C10" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A10,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A10,EML_Tool_WP!A:BB,39,0))</f>
         <v>43891</v>
       </c>
-      <c r="D10" s="250" t="n">
+      <c r="D10" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A10,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A10,EML_Tool_WP!A:BB,40,0))</f>
         <v>44286</v>
       </c>
@@ -38434,7 +38404,7 @@
         <f aca="false">IF(VLOOKUP(A10,EML_Tool_WP!A:BB,51,0)="","",VLOOKUP(A10,EML_Tool_WP!A:BB,51,0))</f>
         <v>Bachelor thesis, Publication, Documentation</v>
       </c>
-      <c r="F10" s="251" t="n">
+      <c r="F10" s="248" t="n">
         <f aca="false">IF(VLOOKUP(A10,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A10,EML_Tool_WP!A:BB,42,0))</f>
         <v>0.411111111111111</v>
       </c>
@@ -38442,7 +38412,7 @@
         <f aca="false">IF(VLOOKUP(A10,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A10,EML_Tool_WP!A:BB,48,0))</f>
         <v>active</v>
       </c>
-      <c r="H10" s="252" t="n">
+      <c r="H10" s="249" t="n">
         <f aca="false">IF(VLOOKUP(A10,EML_Tool_WP!A:BB,54,0)="","",VLOOKUP(A10,EML_Tool_WP!A:BB,54,0))</f>
         <v>1</v>
       </c>
@@ -38455,11 +38425,11 @@
         <f aca="false">IF(VLOOKUP(A11,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A11,EML_Tool_WP!A:BB,2,0))</f>
         <v>ARM Platform Profiling (Rasp. Pi 4)</v>
       </c>
-      <c r="C11" s="250" t="n">
+      <c r="C11" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A11,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A11,EML_Tool_WP!A:BB,39,0))</f>
         <v>44136</v>
       </c>
-      <c r="D11" s="250" t="n">
+      <c r="D11" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A11,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A11,EML_Tool_WP!A:BB,40,0))</f>
         <v>44255</v>
       </c>
@@ -38467,7 +38437,7 @@
         <f aca="false">IF(VLOOKUP(A11,EML_Tool_WP!A:BB,51,0)="","",VLOOKUP(A11,EML_Tool_WP!A:BB,51,0))</f>
         <v>Repository, Document</v>
       </c>
-      <c r="F11" s="251" t="n">
+      <c r="F11" s="248" t="n">
         <f aca="false">IF(VLOOKUP(A11,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A11,EML_Tool_WP!A:BB,42,0))</f>
         <v>0.46</v>
       </c>
@@ -38475,7 +38445,7 @@
         <f aca="false">IF(VLOOKUP(A11,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A11,EML_Tool_WP!A:BB,48,0))</f>
         <v>active</v>
       </c>
-      <c r="H11" s="252" t="n">
+      <c r="H11" s="249" t="n">
         <f aca="false">IF(VLOOKUP(A11,EML_Tool_WP!A:BB,54,0)="","",VLOOKUP(A11,EML_Tool_WP!A:BB,54,0))</f>
         <v>2</v>
       </c>
@@ -38488,11 +38458,11 @@
         <f aca="false">IF(VLOOKUP(A12,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A12,EML_Tool_WP!A:BB,2,0))</f>
         <v>Xilinx Rlatform Profiling (ZCU102)</v>
       </c>
-      <c r="C12" s="250" t="n">
+      <c r="C12" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A12,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A12,EML_Tool_WP!A:BB,39,0))</f>
         <v>44136</v>
       </c>
-      <c r="D12" s="250" t="n">
+      <c r="D12" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A12,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A12,EML_Tool_WP!A:BB,40,0))</f>
         <v>44347</v>
       </c>
@@ -38500,7 +38470,7 @@
         <f aca="false">IF(VLOOKUP(A12,EML_Tool_WP!A:BB,51,0)="","",VLOOKUP(A12,EML_Tool_WP!A:BB,51,0))</f>
         <v>Document</v>
       </c>
-      <c r="F12" s="251" t="n">
+      <c r="F12" s="248" t="n">
         <f aca="false">IF(VLOOKUP(A12,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A12,EML_Tool_WP!A:BB,42,0))</f>
         <v>0.0666666666666667</v>
       </c>
@@ -38508,7 +38478,7 @@
         <f aca="false">IF(VLOOKUP(A12,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A12,EML_Tool_WP!A:BB,48,0))</f>
         <v>active</v>
       </c>
-      <c r="H12" s="252" t="n">
+      <c r="H12" s="249" t="n">
         <f aca="false">IF(VLOOKUP(A12,EML_Tool_WP!A:BB,54,0)="","",VLOOKUP(A12,EML_Tool_WP!A:BB,54,0))</f>
         <v>1</v>
       </c>
@@ -38521,11 +38491,11 @@
         <f aca="false">IF(VLOOKUP(A13,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A13,EML_Tool_WP!A:BB,2,0))</f>
         <v>Intel Platform Profiling (NUC, NCS2)</v>
       </c>
-      <c r="C13" s="250" t="n">
+      <c r="C13" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A13,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A13,EML_Tool_WP!A:BB,39,0))</f>
         <v>43739</v>
       </c>
-      <c r="D13" s="250" t="n">
+      <c r="D13" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A13,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A13,EML_Tool_WP!A:BB,40,0))</f>
         <v>43921</v>
       </c>
@@ -38533,7 +38503,7 @@
         <f aca="false">IF(VLOOKUP(A13,EML_Tool_WP!A:BB,51,0)="","",VLOOKUP(A13,EML_Tool_WP!A:BB,51,0))</f>
         <v>Document, thesis</v>
       </c>
-      <c r="F13" s="251" t="n">
+      <c r="F13" s="248" t="n">
         <f aca="false">IF(VLOOKUP(A13,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A13,EML_Tool_WP!A:BB,42,0))</f>
         <v>0.6</v>
       </c>
@@ -38541,7 +38511,7 @@
         <f aca="false">IF(VLOOKUP(A13,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A13,EML_Tool_WP!A:BB,48,0))</f>
         <v>active</v>
       </c>
-      <c r="H13" s="252" t="n">
+      <c r="H13" s="249" t="n">
         <f aca="false">IF(VLOOKUP(A13,EML_Tool_WP!A:BB,54,0)="","",VLOOKUP(A13,EML_Tool_WP!A:BB,54,0))</f>
         <v>1</v>
       </c>
@@ -38554,11 +38524,11 @@
         <f aca="false">IF(VLOOKUP(A14,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A14,EML_Tool_WP!A:BB,2,0))</f>
         <v>Google Platform Profiling (Edge TPU)</v>
       </c>
-      <c r="C14" s="250" t="n">
+      <c r="C14" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A14,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A14,EML_Tool_WP!A:BB,39,0))</f>
         <v>44273</v>
       </c>
-      <c r="D14" s="250" t="n">
+      <c r="D14" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A14,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A14,EML_Tool_WP!A:BB,40,0))</f>
         <v>44346</v>
       </c>
@@ -38566,7 +38536,7 @@
         <f aca="false">IF(VLOOKUP(A14,EML_Tool_WP!A:BB,51,0)="","",VLOOKUP(A14,EML_Tool_WP!A:BB,51,0))</f>
         <v>Document, Repo</v>
       </c>
-      <c r="F14" s="251" t="n">
+      <c r="F14" s="248" t="n">
         <f aca="false">IF(VLOOKUP(A14,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A14,EML_Tool_WP!A:BB,42,0))</f>
         <v>0.0375</v>
       </c>
@@ -38574,28 +38544,28 @@
         <f aca="false">IF(VLOOKUP(A14,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A14,EML_Tool_WP!A:BB,48,0))</f>
         <v>active</v>
       </c>
-      <c r="H14" s="252" t="n">
+      <c r="H14" s="249" t="n">
         <f aca="false">IF(VLOOKUP(A14,EML_Tool_WP!A:BB,54,0)="","",VLOOKUP(A14,EML_Tool_WP!A:BB,54,0))</f>
         <v>2</v>
       </c>
     </row>
-    <row r="15" s="237" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="239" t="s">
+    <row r="15" s="236" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="238" t="s">
         <v>196</v>
       </c>
-      <c r="B15" s="240" t="str">
+      <c r="B15" s="239" t="str">
         <f aca="false">IF(VLOOKUP(A15,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A15,EML_Tool_WP!A:BB,2,0))</f>
         <v>Map Models of hardware</v>
       </c>
-      <c r="C15" s="259"/>
-      <c r="D15" s="240"/>
-      <c r="E15" s="240"/>
-      <c r="F15" s="257" t="n">
+      <c r="C15" s="256"/>
+      <c r="D15" s="239"/>
+      <c r="E15" s="239"/>
+      <c r="F15" s="254" t="n">
         <f aca="false">IF(VLOOKUP(A15,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A15,EML_Tool_WP!A:BB,42,0))</f>
         <v>0.557017543859649</v>
       </c>
-      <c r="G15" s="241"/>
-      <c r="H15" s="260"/>
+      <c r="G15" s="239"/>
+      <c r="H15" s="257"/>
     </row>
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="228" t="s">
@@ -38605,11 +38575,11 @@
         <f aca="false">IF(VLOOKUP(A16,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A16,EML_Tool_WP!A:BB,2,0))</f>
         <v>Common Interface Inference on all Platforms</v>
       </c>
-      <c r="C16" s="250" t="str">
+      <c r="C16" s="247" t="str">
         <f aca="false">IF(VLOOKUP(A16,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A16,EML_Tool_WP!A:BB,39,0))</f>
         <v/>
       </c>
-      <c r="D16" s="250" t="str">
+      <c r="D16" s="247" t="str">
         <f aca="false">IF(VLOOKUP(A16,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A16,EML_Tool_WP!A:BB,40,0))</f>
         <v/>
       </c>
@@ -38617,7 +38587,7 @@
         <f aca="false">IF(VLOOKUP(A16,EML_Tool_WP!A:BB,51,0)="","",VLOOKUP(A16,EML_Tool_WP!A:BB,51,0))</f>
         <v>repository</v>
       </c>
-      <c r="F16" s="251" t="n">
+      <c r="F16" s="248" t="n">
         <f aca="false">IF(VLOOKUP(A16,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A16,EML_Tool_WP!A:BB,42,0))</f>
         <v>0.8</v>
       </c>
@@ -38625,7 +38595,7 @@
         <f aca="false">IF(VLOOKUP(A16,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A16,EML_Tool_WP!A:BB,48,0))</f>
         <v>active</v>
       </c>
-      <c r="H16" s="252" t="n">
+      <c r="H16" s="249" t="n">
         <f aca="false">IF(VLOOKUP(A16,EML_Tool_WP!A:BB,54,0)="","",VLOOKUP(A16,EML_Tool_WP!A:BB,54,0))</f>
         <v>2</v>
       </c>
@@ -38638,11 +38608,11 @@
         <f aca="false">IF(VLOOKUP(A17,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A17,EML_Tool_WP!A:BB,2,0))</f>
         <v>Common Network Inference Possible on NVIDIA</v>
       </c>
-      <c r="C17" s="250" t="n">
+      <c r="C17" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A17,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A17,EML_Tool_WP!A:BB,39,0))</f>
         <v>43891</v>
       </c>
-      <c r="D17" s="250" t="n">
+      <c r="D17" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A17,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A17,EML_Tool_WP!A:BB,40,0))</f>
         <v>43921</v>
       </c>
@@ -38650,7 +38620,7 @@
         <f aca="false">IF(VLOOKUP(A17,EML_Tool_WP!A:BB,51,0)="","",VLOOKUP(A17,EML_Tool_WP!A:BB,51,0))</f>
         <v>Document, repository</v>
       </c>
-      <c r="F17" s="251" t="n">
+      <c r="F17" s="248" t="n">
         <f aca="false">IF(VLOOKUP(A17,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A17,EML_Tool_WP!A:BB,42,0))</f>
         <v>0.8</v>
       </c>
@@ -38658,7 +38628,7 @@
         <f aca="false">IF(VLOOKUP(A17,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A17,EML_Tool_WP!A:BB,48,0))</f>
         <v>active</v>
       </c>
-      <c r="H17" s="252" t="n">
+      <c r="H17" s="249" t="n">
         <f aca="false">IF(VLOOKUP(A17,EML_Tool_WP!A:BB,54,0)="","",VLOOKUP(A17,EML_Tool_WP!A:BB,54,0))</f>
         <v>1</v>
       </c>
@@ -38671,11 +38641,11 @@
         <f aca="false">IF(VLOOKUP(A18,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A18,EML_Tool_WP!A:BB,2,0))</f>
         <v>Common Network Inference Possible on Intel</v>
       </c>
-      <c r="C18" s="250" t="n">
+      <c r="C18" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A18,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A18,EML_Tool_WP!A:BB,39,0))</f>
         <v>43739</v>
       </c>
-      <c r="D18" s="250" t="n">
+      <c r="D18" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A18,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A18,EML_Tool_WP!A:BB,40,0))</f>
         <v>44227</v>
       </c>
@@ -38683,7 +38653,7 @@
         <f aca="false">IF(VLOOKUP(A18,EML_Tool_WP!A:BB,51,0)="","",VLOOKUP(A18,EML_Tool_WP!A:BB,51,0))</f>
         <v>Document, repository</v>
       </c>
-      <c r="F18" s="251" t="n">
+      <c r="F18" s="248" t="n">
         <f aca="false">IF(VLOOKUP(A18,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A18,EML_Tool_WP!A:BB,42,0))</f>
         <v>0.9125</v>
       </c>
@@ -38691,7 +38661,7 @@
         <f aca="false">IF(VLOOKUP(A18,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A18,EML_Tool_WP!A:BB,48,0))</f>
         <v>active</v>
       </c>
-      <c r="H18" s="252" t="n">
+      <c r="H18" s="249" t="n">
         <f aca="false">IF(VLOOKUP(A18,EML_Tool_WP!A:BB,54,0)="","",VLOOKUP(A18,EML_Tool_WP!A:BB,54,0))</f>
         <v>1</v>
       </c>
@@ -38704,11 +38674,11 @@
         <f aca="false">IF(VLOOKUP(A19,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A19,EML_Tool_WP!A:BB,2,0))</f>
         <v>Common Network Inference Possible on ARM</v>
       </c>
-      <c r="C19" s="250" t="n">
+      <c r="C19" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A19,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A19,EML_Tool_WP!A:BB,39,0))</f>
         <v>44105</v>
       </c>
-      <c r="D19" s="250" t="n">
+      <c r="D19" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A19,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A19,EML_Tool_WP!A:BB,40,0))</f>
         <v>44255</v>
       </c>
@@ -38716,7 +38686,7 @@
         <f aca="false">IF(VLOOKUP(A19,EML_Tool_WP!A:BB,51,0)="","",VLOOKUP(A19,EML_Tool_WP!A:BB,51,0))</f>
         <v>Document, repository</v>
       </c>
-      <c r="F19" s="251" t="n">
+      <c r="F19" s="248" t="n">
         <f aca="false">IF(VLOOKUP(A19,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A19,EML_Tool_WP!A:BB,42,0))</f>
         <v>0.1</v>
       </c>
@@ -38724,7 +38694,7 @@
         <f aca="false">IF(VLOOKUP(A19,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A19,EML_Tool_WP!A:BB,48,0))</f>
         <v>active</v>
       </c>
-      <c r="H19" s="252" t="n">
+      <c r="H19" s="249" t="n">
         <f aca="false">IF(VLOOKUP(A19,EML_Tool_WP!A:BB,54,0)="","",VLOOKUP(A19,EML_Tool_WP!A:BB,54,0))</f>
         <v>1</v>
       </c>
@@ -38737,11 +38707,11 @@
         <f aca="false">IF(VLOOKUP(A20,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A20,EML_Tool_WP!A:BB,2,0))</f>
         <v>Common Network Inference Possible on Xilinx</v>
       </c>
-      <c r="C20" s="250" t="n">
+      <c r="C20" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A20,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A20,EML_Tool_WP!A:BB,39,0))</f>
         <v>44105</v>
       </c>
-      <c r="D20" s="250" t="n">
+      <c r="D20" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A20,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A20,EML_Tool_WP!A:BB,40,0))</f>
         <v>44346</v>
       </c>
@@ -38749,7 +38719,7 @@
         <f aca="false">IF(VLOOKUP(A20,EML_Tool_WP!A:BB,51,0)="","",VLOOKUP(A20,EML_Tool_WP!A:BB,51,0))</f>
         <v>Document, repository</v>
       </c>
-      <c r="F20" s="251" t="n">
+      <c r="F20" s="248" t="n">
         <f aca="false">IF(VLOOKUP(A20,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A20,EML_Tool_WP!A:BB,42,0))</f>
         <v>0.15</v>
       </c>
@@ -38757,7 +38727,7 @@
         <f aca="false">IF(VLOOKUP(A20,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A20,EML_Tool_WP!A:BB,48,0))</f>
         <v>active</v>
       </c>
-      <c r="H20" s="252" t="n">
+      <c r="H20" s="249" t="n">
         <f aca="false">IF(VLOOKUP(A20,EML_Tool_WP!A:BB,54,0)="","",VLOOKUP(A20,EML_Tool_WP!A:BB,54,0))</f>
         <v>1</v>
       </c>
@@ -38770,11 +38740,11 @@
         <f aca="false">IF(VLOOKUP(A21,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A21,EML_Tool_WP!A:BB,2,0))</f>
         <v>Power Measurements possible for NCS2 and NVIDIA</v>
       </c>
-      <c r="C21" s="250" t="n">
+      <c r="C21" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A21,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A21,EML_Tool_WP!A:BB,39,0))</f>
         <v>44013</v>
       </c>
-      <c r="D21" s="250" t="n">
+      <c r="D21" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A21,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A21,EML_Tool_WP!A:BB,40,0))</f>
         <v>43921</v>
       </c>
@@ -38782,7 +38752,7 @@
         <f aca="false">IF(VLOOKUP(A21,EML_Tool_WP!A:BB,51,0)="","",VLOOKUP(A21,EML_Tool_WP!A:BB,51,0))</f>
         <v>Script, guide</v>
       </c>
-      <c r="F21" s="251" t="n">
+      <c r="F21" s="248" t="n">
         <f aca="false">IF(VLOOKUP(A21,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A21,EML_Tool_WP!A:BB,42,0))</f>
         <v>0.552272727272727</v>
       </c>
@@ -38790,7 +38760,7 @@
         <f aca="false">IF(VLOOKUP(A21,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A21,EML_Tool_WP!A:BB,48,0))</f>
         <v>active</v>
       </c>
-      <c r="H21" s="252" t="n">
+      <c r="H21" s="249" t="n">
         <f aca="false">IF(VLOOKUP(A21,EML_Tool_WP!A:BB,54,0)="","",VLOOKUP(A21,EML_Tool_WP!A:BB,54,0))</f>
         <v>2</v>
       </c>
@@ -38803,11 +38773,11 @@
         <f aca="false">IF(VLOOKUP(A22,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A22,EML_Tool_WP!A:BB,2,0))</f>
         <v>Demonstration of Inference on all Platforms with Common Interface</v>
       </c>
-      <c r="C22" s="250" t="n">
+      <c r="C22" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A22,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A22,EML_Tool_WP!A:BB,39,0))</f>
         <v>44256</v>
       </c>
-      <c r="D22" s="250" t="n">
+      <c r="D22" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A22,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A22,EML_Tool_WP!A:BB,40,0))</f>
         <v>44347</v>
       </c>
@@ -38815,7 +38785,7 @@
         <f aca="false">IF(VLOOKUP(A22,EML_Tool_WP!A:BB,51,0)="","",VLOOKUP(A22,EML_Tool_WP!A:BB,51,0))</f>
         <v>Document, validation networks</v>
       </c>
-      <c r="F22" s="251" t="n">
+      <c r="F22" s="248" t="n">
         <f aca="false">IF(VLOOKUP(A22,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A22,EML_Tool_WP!A:BB,42,0))</f>
         <v>0.3</v>
       </c>
@@ -38823,28 +38793,28 @@
         <f aca="false">IF(VLOOKUP(A22,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A22,EML_Tool_WP!A:BB,48,0))</f>
         <v>open</v>
       </c>
-      <c r="H22" s="252" t="n">
+      <c r="H22" s="249" t="n">
         <f aca="false">IF(VLOOKUP(A22,EML_Tool_WP!A:BB,54,0)="","",VLOOKUP(A22,EML_Tool_WP!A:BB,54,0))</f>
         <v>3</v>
       </c>
     </row>
-    <row r="23" s="237" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="239" t="s">
+    <row r="23" s="236" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="238" t="s">
         <v>309</v>
       </c>
-      <c r="B23" s="240" t="str">
+      <c r="B23" s="239" t="str">
         <f aca="false">IF(VLOOKUP(A23,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A23,EML_Tool_WP!A:BB,2,0))</f>
         <v>Quantization</v>
       </c>
-      <c r="C23" s="259"/>
-      <c r="D23" s="240"/>
-      <c r="E23" s="240"/>
-      <c r="F23" s="257" t="n">
+      <c r="C23" s="256"/>
+      <c r="D23" s="239"/>
+      <c r="E23" s="239"/>
+      <c r="F23" s="254" t="n">
         <f aca="false">IF(VLOOKUP(A23,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A23,EML_Tool_WP!A:BB,42,0))</f>
         <v>0.235294117647059</v>
       </c>
-      <c r="G23" s="241"/>
-      <c r="H23" s="260"/>
+      <c r="G23" s="239"/>
+      <c r="H23" s="257"/>
     </row>
     <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="228" t="s">
@@ -38854,11 +38824,11 @@
         <f aca="false">IF(VLOOKUP(A24,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A24,EML_Tool_WP!A:BB,2,0))</f>
         <v>HW Independent Quantization on Xilinx</v>
       </c>
-      <c r="C24" s="250" t="n">
+      <c r="C24" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A24,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A24,EML_Tool_WP!A:BB,39,0))</f>
         <v>43891</v>
       </c>
-      <c r="D24" s="250" t="n">
+      <c r="D24" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A24,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A24,EML_Tool_WP!A:BB,40,0))</f>
         <v>44286</v>
       </c>
@@ -38866,7 +38836,7 @@
         <f aca="false">IF(VLOOKUP(A24,EML_Tool_WP!A:BB,51,0)="","",VLOOKUP(A24,EML_Tool_WP!A:BB,51,0))</f>
         <v>Document</v>
       </c>
-      <c r="F24" s="251" t="n">
+      <c r="F24" s="248" t="n">
         <f aca="false">IF(VLOOKUP(A24,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A24,EML_Tool_WP!A:BB,42,0))</f>
         <v>0.74</v>
       </c>
@@ -38874,127 +38844,127 @@
         <f aca="false">IF(VLOOKUP(A24,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A24,EML_Tool_WP!A:BB,48,0))</f>
         <v>active</v>
       </c>
-      <c r="H24" s="252" t="n">
+      <c r="H24" s="249" t="n">
         <f aca="false">IF(VLOOKUP(A24,EML_Tool_WP!A:BB,54,0)="","",VLOOKUP(A24,EML_Tool_WP!A:BB,54,0))</f>
         <v>3</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="242" t="s">
+      <c r="A25" s="240" t="s">
         <v>326</v>
       </c>
-      <c r="B25" s="243" t="str">
+      <c r="B25" s="229" t="str">
         <f aca="false">IF(VLOOKUP(A25,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A25,EML_Tool_WP!A:BB,2,0))</f>
         <v>Analysis of NVIDIA Native Quantization</v>
       </c>
-      <c r="C25" s="250" t="n">
+      <c r="C25" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A25,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A25,EML_Tool_WP!A:BB,39,0))</f>
         <v>44136</v>
       </c>
-      <c r="D25" s="250" t="n">
+      <c r="D25" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A25,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A25,EML_Tool_WP!A:BB,40,0))</f>
         <v>44255</v>
       </c>
-      <c r="E25" s="243" t="str">
+      <c r="E25" s="229" t="str">
         <f aca="false">IF(VLOOKUP(A25,EML_Tool_WP!A:BB,51,0)="","",VLOOKUP(A25,EML_Tool_WP!A:BB,51,0))</f>
         <v>Document</v>
       </c>
-      <c r="F25" s="251" t="n">
+      <c r="F25" s="248" t="n">
         <f aca="false">IF(VLOOKUP(A25,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A25,EML_Tool_WP!A:BB,42,0))</f>
         <v>0</v>
       </c>
-      <c r="G25" s="243" t="str">
+      <c r="G25" s="229" t="str">
         <f aca="false">IF(VLOOKUP(A25,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A25,EML_Tool_WP!A:BB,48,0))</f>
         <v>active</v>
       </c>
-      <c r="H25" s="261" t="n">
+      <c r="H25" s="249" t="n">
         <f aca="false">IF(VLOOKUP(A25,EML_Tool_WP!A:BB,54,0)="","",VLOOKUP(A25,EML_Tool_WP!A:BB,54,0))</f>
         <v>2</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="242" t="s">
+      <c r="A26" s="240" t="s">
         <v>334</v>
       </c>
-      <c r="B26" s="243" t="str">
+      <c r="B26" s="229" t="str">
         <f aca="false">IF(VLOOKUP(A26,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A26,EML_Tool_WP!A:BB,2,0))</f>
         <v>Analysis of Intel Native Quantization</v>
       </c>
-      <c r="C26" s="250" t="n">
+      <c r="C26" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A26,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A26,EML_Tool_WP!A:BB,39,0))</f>
         <v>44105</v>
       </c>
-      <c r="D26" s="250" t="n">
+      <c r="D26" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A26,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A26,EML_Tool_WP!A:BB,40,0))</f>
         <v>44255</v>
       </c>
-      <c r="E26" s="243" t="str">
+      <c r="E26" s="229" t="str">
         <f aca="false">IF(VLOOKUP(A26,EML_Tool_WP!A:BB,51,0)="","",VLOOKUP(A26,EML_Tool_WP!A:BB,51,0))</f>
         <v>Document</v>
       </c>
-      <c r="F26" s="251" t="n">
+      <c r="F26" s="248" t="n">
         <f aca="false">IF(VLOOKUP(A26,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A26,EML_Tool_WP!A:BB,42,0))</f>
         <v>0</v>
       </c>
-      <c r="G26" s="243" t="str">
+      <c r="G26" s="229" t="str">
         <f aca="false">IF(VLOOKUP(A26,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A26,EML_Tool_WP!A:BB,48,0))</f>
         <v>active</v>
       </c>
-      <c r="H26" s="261" t="n">
+      <c r="H26" s="249" t="n">
         <f aca="false">IF(VLOOKUP(A26,EML_Tool_WP!A:BB,54,0)="","",VLOOKUP(A26,EML_Tool_WP!A:BB,54,0))</f>
         <v>2</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="242" t="s">
+      <c r="A27" s="240" t="s">
         <v>343</v>
       </c>
-      <c r="B27" s="243" t="str">
+      <c r="B27" s="229" t="str">
         <f aca="false">IF(VLOOKUP(A27,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A27,EML_Tool_WP!A:BB,2,0))</f>
         <v>One-shot Quantizeable Slimmable Adaptive Networks on Xilinx</v>
       </c>
-      <c r="C27" s="250" t="n">
+      <c r="C27" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A27,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A27,EML_Tool_WP!A:BB,39,0))</f>
         <v>44105</v>
       </c>
-      <c r="D27" s="250" t="n">
+      <c r="D27" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A27,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A27,EML_Tool_WP!A:BB,40,0))</f>
         <v>44407</v>
       </c>
-      <c r="E27" s="243" t="str">
+      <c r="E27" s="229" t="str">
         <f aca="false">IF(VLOOKUP(A27,EML_Tool_WP!A:BB,51,0)="","",VLOOKUP(A27,EML_Tool_WP!A:BB,51,0))</f>
         <v>Repositor, Master Thesis</v>
       </c>
-      <c r="F27" s="251" t="n">
+      <c r="F27" s="248" t="n">
         <f aca="false">IF(VLOOKUP(A27,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A27,EML_Tool_WP!A:BB,42,0))</f>
         <v>0.1</v>
       </c>
-      <c r="G27" s="243" t="str">
+      <c r="G27" s="229" t="str">
         <f aca="false">IF(VLOOKUP(A27,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A27,EML_Tool_WP!A:BB,48,0))</f>
         <v>active</v>
       </c>
-      <c r="H27" s="261" t="n">
+      <c r="H27" s="249" t="n">
         <f aca="false">IF(VLOOKUP(A27,EML_Tool_WP!A:BB,54,0)="","",VLOOKUP(A27,EML_Tool_WP!A:BB,54,0))</f>
         <v>2</v>
       </c>
     </row>
-    <row r="28" s="237" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="239" t="s">
+    <row r="28" s="236" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="238" t="s">
         <v>357</v>
       </c>
-      <c r="B28" s="240" t="str">
+      <c r="B28" s="239" t="str">
         <f aca="false">IF(VLOOKUP(A28,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A28,EML_Tool_WP!A:BB,2,0))</f>
         <v>Pruning</v>
       </c>
-      <c r="C28" s="259"/>
-      <c r="D28" s="240"/>
-      <c r="E28" s="240"/>
-      <c r="F28" s="257" t="n">
+      <c r="C28" s="256"/>
+      <c r="D28" s="239"/>
+      <c r="E28" s="239"/>
+      <c r="F28" s="254" t="n">
         <f aca="false">IF(VLOOKUP(A28,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A28,EML_Tool_WP!A:BB,42,0))</f>
         <v>0.360714285714286</v>
       </c>
-      <c r="G28" s="241"/>
-      <c r="H28" s="260"/>
+      <c r="G28" s="239"/>
+      <c r="H28" s="257"/>
     </row>
     <row r="29" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="228" t="s">
@@ -39004,11 +38974,11 @@
         <f aca="false">IF(VLOOKUP(A29,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A29,EML_Tool_WP!A:BB,2,0))</f>
         <v>HW Independent Pruning with Distiller</v>
       </c>
-      <c r="C29" s="250" t="n">
+      <c r="C29" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A29,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A29,EML_Tool_WP!A:BB,39,0))</f>
         <v>43891</v>
       </c>
-      <c r="D29" s="250" t="n">
+      <c r="D29" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A29,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A29,EML_Tool_WP!A:BB,40,0))</f>
         <v>44255</v>
       </c>
@@ -39016,7 +38986,7 @@
         <f aca="false">IF(VLOOKUP(A29,EML_Tool_WP!A:BB,51,0)="","",VLOOKUP(A29,EML_Tool_WP!A:BB,51,0))</f>
         <v>Thesis, Publication, Repository</v>
       </c>
-      <c r="F29" s="251" t="n">
+      <c r="F29" s="248" t="n">
         <f aca="false">IF(VLOOKUP(A29,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A29,EML_Tool_WP!A:BB,42,0))</f>
         <v>0.791666666666667</v>
       </c>
@@ -39024,79 +38994,79 @@
         <f aca="false">IF(VLOOKUP(A29,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A29,EML_Tool_WP!A:BB,48,0))</f>
         <v>active</v>
       </c>
-      <c r="H29" s="252" t="n">
+      <c r="H29" s="249" t="n">
         <f aca="false">IF(VLOOKUP(A29,EML_Tool_WP!A:BB,54,0)="","",VLOOKUP(A29,EML_Tool_WP!A:BB,54,0))</f>
         <v>3</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="242" t="s">
+      <c r="A30" s="240" t="s">
         <v>373</v>
       </c>
-      <c r="B30" s="243" t="str">
+      <c r="B30" s="229" t="str">
         <f aca="false">IF(VLOOKUP(A30,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A30,EML_Tool_WP!A:BB,2,0))</f>
         <v>Analysis of Performance of Slimmable Networks</v>
       </c>
-      <c r="C30" s="250" t="n">
+      <c r="C30" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A30,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A30,EML_Tool_WP!A:BB,39,0))</f>
         <v>44105</v>
       </c>
-      <c r="D30" s="250" t="n">
+      <c r="D30" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A30,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A30,EML_Tool_WP!A:BB,40,0))</f>
         <v>44227</v>
       </c>
-      <c r="E30" s="243" t="str">
+      <c r="E30" s="229" t="str">
         <f aca="false">IF(VLOOKUP(A30,EML_Tool_WP!A:BB,51,0)="","",VLOOKUP(A30,EML_Tool_WP!A:BB,51,0))</f>
         <v>Document, repository</v>
       </c>
-      <c r="F30" s="251" t="n">
+      <c r="F30" s="248" t="n">
         <f aca="false">IF(VLOOKUP(A30,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A30,EML_Tool_WP!A:BB,42,0))</f>
         <v>0.0375</v>
       </c>
-      <c r="G30" s="243" t="str">
+      <c r="G30" s="229" t="str">
         <f aca="false">IF(VLOOKUP(A30,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A30,EML_Tool_WP!A:BB,48,0))</f>
         <v>active</v>
       </c>
-      <c r="H30" s="261" t="n">
+      <c r="H30" s="249" t="n">
         <f aca="false">IF(VLOOKUP(A30,EML_Tool_WP!A:BB,54,0)="","",VLOOKUP(A30,EML_Tool_WP!A:BB,54,0))</f>
         <v>2</v>
       </c>
     </row>
-    <row r="31" s="237" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="239" t="s">
+    <row r="31" s="236" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="238" t="s">
         <v>395</v>
       </c>
-      <c r="B31" s="240" t="str">
+      <c r="B31" s="239" t="str">
         <f aca="false">IF(VLOOKUP(A31,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A31,EML_Tool_WP!A:BB,2,0))</f>
         <v>Factorization</v>
       </c>
-      <c r="C31" s="259"/>
-      <c r="D31" s="240"/>
-      <c r="E31" s="240"/>
-      <c r="F31" s="257" t="n">
+      <c r="C31" s="256"/>
+      <c r="D31" s="239"/>
+      <c r="E31" s="239"/>
+      <c r="F31" s="254" t="n">
         <f aca="false">IF(VLOOKUP(A31,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A31,EML_Tool_WP!A:BB,42,0))</f>
         <v>0</v>
       </c>
-      <c r="G31" s="241"/>
-      <c r="H31" s="260"/>
-    </row>
-    <row r="32" s="237" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="239" t="s">
+      <c r="G31" s="239"/>
+      <c r="H31" s="257"/>
+    </row>
+    <row r="32" s="236" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="238" t="s">
         <v>398</v>
       </c>
-      <c r="B32" s="240" t="str">
+      <c r="B32" s="239" t="str">
         <f aca="false">IF(VLOOKUP(A32,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A32,EML_Tool_WP!A:BB,2,0))</f>
         <v>Compact Design</v>
       </c>
-      <c r="C32" s="259"/>
-      <c r="D32" s="240"/>
-      <c r="E32" s="240"/>
-      <c r="F32" s="257" t="n">
+      <c r="C32" s="256"/>
+      <c r="D32" s="239"/>
+      <c r="E32" s="239"/>
+      <c r="F32" s="254" t="n">
         <f aca="false">IF(VLOOKUP(A32,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A32,EML_Tool_WP!A:BB,42,0))</f>
         <v>0.573333333333334</v>
       </c>
-      <c r="G32" s="241"/>
-      <c r="H32" s="260"/>
+      <c r="G32" s="239"/>
+      <c r="H32" s="257"/>
     </row>
     <row r="33" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="228" t="s">
@@ -39106,11 +39076,11 @@
         <f aca="false">IF(VLOOKUP(A33,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A33,EML_Tool_WP!A:BB,2,0))</f>
         <v>Analysis of Shunt Connections for Segmentation</v>
       </c>
-      <c r="C33" s="250" t="n">
+      <c r="C33" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A33,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A33,EML_Tool_WP!A:BB,39,0))</f>
         <v>44044</v>
       </c>
-      <c r="D33" s="250" t="n">
+      <c r="D33" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A33,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A33,EML_Tool_WP!A:BB,40,0))</f>
         <v>43889</v>
       </c>
@@ -39118,7 +39088,7 @@
         <f aca="false">IF(VLOOKUP(A33,EML_Tool_WP!A:BB,51,0)="","",VLOOKUP(A33,EML_Tool_WP!A:BB,51,0))</f>
         <v>Publication, Master Thesis, Repository</v>
       </c>
-      <c r="F33" s="251" t="n">
+      <c r="F33" s="248" t="n">
         <f aca="false">IF(VLOOKUP(A33,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A33,EML_Tool_WP!A:BB,42,0))</f>
         <v>0.983333333333333</v>
       </c>
@@ -39126,7 +39096,7 @@
         <f aca="false">IF(VLOOKUP(A33,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A33,EML_Tool_WP!A:BB,48,0))</f>
         <v>active</v>
       </c>
-      <c r="H33" s="252" t="n">
+      <c r="H33" s="249" t="n">
         <f aca="false">IF(VLOOKUP(A33,EML_Tool_WP!A:BB,54,0)="","",VLOOKUP(A33,EML_Tool_WP!A:BB,54,0))</f>
         <v>1</v>
       </c>
@@ -39139,11 +39109,11 @@
         <f aca="false">IF(VLOOKUP(A34,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A34,EML_Tool_WP!A:BB,2,0))</f>
         <v>Evaluate Performance of SqueezeNas Models</v>
       </c>
-      <c r="C34" s="250" t="n">
+      <c r="C34" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A34,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A34,EML_Tool_WP!A:BB,39,0))</f>
         <v>43922</v>
       </c>
-      <c r="D34" s="250" t="n">
+      <c r="D34" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A34,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A34,EML_Tool_WP!A:BB,40,0))</f>
         <v>44227</v>
       </c>
@@ -39151,7 +39121,7 @@
         <f aca="false">IF(VLOOKUP(A34,EML_Tool_WP!A:BB,51,0)="","",VLOOKUP(A34,EML_Tool_WP!A:BB,51,0))</f>
         <v>Document, Repository</v>
       </c>
-      <c r="F34" s="251" t="n">
+      <c r="F34" s="248" t="n">
         <f aca="false">IF(VLOOKUP(A34,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A34,EML_Tool_WP!A:BB,42,0))</f>
         <v>1</v>
       </c>
@@ -39159,7 +39129,7 @@
         <f aca="false">IF(VLOOKUP(A34,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A34,EML_Tool_WP!A:BB,48,0))</f>
         <v>completed</v>
       </c>
-      <c r="H34" s="252" t="str">
+      <c r="H34" s="249" t="str">
         <f aca="false">IF(VLOOKUP(A34,EML_Tool_WP!A:BB,54,0)="","",VLOOKUP(A34,EML_Tool_WP!A:BB,54,0))</f>
         <v/>
       </c>
@@ -39172,11 +39142,11 @@
         <f aca="false">IF(VLOOKUP(A35,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A35,EML_Tool_WP!A:BB,2,0))</f>
         <v>Common Backbone for semantic and instance Segmentation</v>
       </c>
-      <c r="C35" s="250" t="n">
+      <c r="C35" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A35,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A35,EML_Tool_WP!A:BB,39,0))</f>
         <v>44075</v>
       </c>
-      <c r="D35" s="250" t="n">
+      <c r="D35" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A35,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A35,EML_Tool_WP!A:BB,40,0))</f>
         <v>44316</v>
       </c>
@@ -39184,7 +39154,7 @@
         <f aca="false">IF(VLOOKUP(A35,EML_Tool_WP!A:BB,51,0)="","",VLOOKUP(A35,EML_Tool_WP!A:BB,51,0))</f>
         <v>Thesis, repository</v>
       </c>
-      <c r="F35" s="251" t="n">
+      <c r="F35" s="248" t="n">
         <f aca="false">IF(VLOOKUP(A35,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A35,EML_Tool_WP!A:BB,42,0))</f>
         <v>0.275</v>
       </c>
@@ -39192,61 +39162,61 @@
         <f aca="false">IF(VLOOKUP(A35,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A35,EML_Tool_WP!A:BB,48,0))</f>
         <v>active</v>
       </c>
-      <c r="H35" s="252" t="n">
+      <c r="H35" s="249" t="n">
         <f aca="false">IF(VLOOKUP(A35,EML_Tool_WP!A:BB,54,0)="","",VLOOKUP(A35,EML_Tool_WP!A:BB,54,0))</f>
         <v>1</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="242" t="s">
+      <c r="A36" s="240" t="s">
         <v>462</v>
       </c>
-      <c r="B36" s="243" t="str">
+      <c r="B36" s="229" t="str">
         <f aca="false">IF(VLOOKUP(A36,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A36,EML_Tool_WP!A:BB,2,0))</f>
         <v>Comparison of YoloV3 vs. YoloV4 on a Xilinx</v>
       </c>
-      <c r="C36" s="250" t="n">
+      <c r="C36" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A36,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A36,EML_Tool_WP!A:BB,39,0))</f>
         <v>44256</v>
       </c>
-      <c r="D36" s="250" t="n">
+      <c r="D36" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A36,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A36,EML_Tool_WP!A:BB,40,0))</f>
         <v>44439</v>
       </c>
-      <c r="E36" s="243" t="str">
+      <c r="E36" s="229" t="str">
         <f aca="false">IF(VLOOKUP(A36,EML_Tool_WP!A:BB,51,0)="","",VLOOKUP(A36,EML_Tool_WP!A:BB,51,0))</f>
         <v>Thesis</v>
       </c>
-      <c r="F36" s="251" t="n">
+      <c r="F36" s="248" t="n">
         <f aca="false">IF(VLOOKUP(A36,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A36,EML_Tool_WP!A:BB,42,0))</f>
         <v>0</v>
       </c>
-      <c r="G36" s="243" t="str">
+      <c r="G36" s="229" t="str">
         <f aca="false">IF(VLOOKUP(A36,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A36,EML_Tool_WP!A:BB,48,0))</f>
         <v>active</v>
       </c>
-      <c r="H36" s="261" t="n">
+      <c r="H36" s="249" t="n">
         <f aca="false">IF(VLOOKUP(A36,EML_Tool_WP!A:BB,54,0)="","",VLOOKUP(A36,EML_Tool_WP!A:BB,54,0))</f>
         <v>3</v>
       </c>
     </row>
-    <row r="37" s="237" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="239" t="s">
+    <row r="37" s="236" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="238" t="s">
         <v>469</v>
       </c>
-      <c r="B37" s="240" t="str">
+      <c r="B37" s="239" t="str">
         <f aca="false">IF(VLOOKUP(A37,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A37,EML_Tool_WP!A:BB,2,0))</f>
         <v>Optimization Strategy</v>
       </c>
-      <c r="C37" s="259"/>
-      <c r="D37" s="240"/>
-      <c r="E37" s="240"/>
-      <c r="F37" s="257" t="n">
+      <c r="C37" s="256"/>
+      <c r="D37" s="239"/>
+      <c r="E37" s="239"/>
+      <c r="F37" s="254" t="n">
         <f aca="false">IF(VLOOKUP(A37,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A37,EML_Tool_WP!A:BB,42,0))</f>
         <v>0.571176470588235</v>
       </c>
-      <c r="G37" s="241"/>
-      <c r="H37" s="260"/>
+      <c r="G37" s="239"/>
+      <c r="H37" s="257"/>
     </row>
     <row r="38" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="228" t="s">
@@ -39256,11 +39226,11 @@
         <f aca="false">IF(VLOOKUP(A38,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A38,EML_Tool_WP!A:BB,2,0))</f>
         <v>Setup Training on Server EDA01 and EDA02</v>
       </c>
-      <c r="C38" s="250" t="n">
+      <c r="C38" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A38,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A38,EML_Tool_WP!A:BB,39,0))</f>
         <v>43952</v>
       </c>
-      <c r="D38" s="250" t="n">
+      <c r="D38" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A38,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A38,EML_Tool_WP!A:BB,40,0))</f>
         <v>44227</v>
       </c>
@@ -39268,7 +39238,7 @@
         <f aca="false">IF(VLOOKUP(A38,EML_Tool_WP!A:BB,51,0)="","",VLOOKUP(A38,EML_Tool_WP!A:BB,51,0))</f>
         <v>Document</v>
       </c>
-      <c r="F38" s="251" t="n">
+      <c r="F38" s="248" t="n">
         <f aca="false">IF(VLOOKUP(A38,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A38,EML_Tool_WP!A:BB,42,0))</f>
         <v>1</v>
       </c>
@@ -39276,7 +39246,7 @@
         <f aca="false">IF(VLOOKUP(A38,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A38,EML_Tool_WP!A:BB,48,0))</f>
         <v>Completed</v>
       </c>
-      <c r="H38" s="252" t="str">
+      <c r="H38" s="249" t="str">
         <f aca="false">IF(VLOOKUP(A38,EML_Tool_WP!A:BB,54,0)="","",VLOOKUP(A38,EML_Tool_WP!A:BB,54,0))</f>
         <v/>
       </c>
@@ -39289,11 +39259,11 @@
         <f aca="false">IF(VLOOKUP(A39,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A39,EML_Tool_WP!A:BB,2,0))</f>
         <v>Setup External Training on Cloud and Vienna Scientific Cluster</v>
       </c>
-      <c r="C39" s="250" t="n">
+      <c r="C39" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A39,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A39,EML_Tool_WP!A:BB,39,0))</f>
         <v>44105</v>
       </c>
-      <c r="D39" s="250" t="n">
+      <c r="D39" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A39,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A39,EML_Tool_WP!A:BB,40,0))</f>
         <v>44316</v>
       </c>
@@ -39301,7 +39271,7 @@
         <f aca="false">IF(VLOOKUP(A39,EML_Tool_WP!A:BB,51,0)="","",VLOOKUP(A39,EML_Tool_WP!A:BB,51,0))</f>
         <v>Document</v>
       </c>
-      <c r="F39" s="251" t="n">
+      <c r="F39" s="248" t="n">
         <f aca="false">IF(VLOOKUP(A39,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A39,EML_Tool_WP!A:BB,42,0))</f>
         <v>0.971428571428571</v>
       </c>
@@ -39309,7 +39279,7 @@
         <f aca="false">IF(VLOOKUP(A39,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A39,EML_Tool_WP!A:BB,48,0))</f>
         <v>active</v>
       </c>
-      <c r="H39" s="252" t="n">
+      <c r="H39" s="249" t="n">
         <f aca="false">IF(VLOOKUP(A39,EML_Tool_WP!A:BB,54,0)="","",VLOOKUP(A39,EML_Tool_WP!A:BB,54,0))</f>
         <v>3</v>
       </c>
@@ -39322,11 +39292,11 @@
         <f aca="false">IF(VLOOKUP(A40,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A40,EML_Tool_WP!A:BB,2,0))</f>
         <v>Common Measurement Database for Hardware Inference</v>
       </c>
-      <c r="C40" s="250" t="str">
+      <c r="C40" s="247" t="str">
         <f aca="false">IF(VLOOKUP(A40,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A40,EML_Tool_WP!A:BB,39,0))</f>
         <v/>
       </c>
-      <c r="D40" s="250" t="str">
+      <c r="D40" s="247" t="str">
         <f aca="false">IF(VLOOKUP(A40,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A40,EML_Tool_WP!A:BB,40,0))</f>
         <v/>
       </c>
@@ -39334,7 +39304,7 @@
         <f aca="false">IF(VLOOKUP(A40,EML_Tool_WP!A:BB,51,0)="","",VLOOKUP(A40,EML_Tool_WP!A:BB,51,0))</f>
         <v/>
       </c>
-      <c r="F40" s="251" t="n">
+      <c r="F40" s="248" t="n">
         <f aca="false">IF(VLOOKUP(A40,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A40,EML_Tool_WP!A:BB,42,0))</f>
         <v>0</v>
       </c>
@@ -39342,7 +39312,7 @@
         <f aca="false">IF(VLOOKUP(A40,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A40,EML_Tool_WP!A:BB,48,0))</f>
         <v>open</v>
       </c>
-      <c r="H40" s="252" t="n">
+      <c r="H40" s="249" t="n">
         <f aca="false">IF(VLOOKUP(A40,EML_Tool_WP!A:BB,54,0)="","",VLOOKUP(A40,EML_Tool_WP!A:BB,54,0))</f>
         <v>3</v>
       </c>
@@ -39355,11 +39325,11 @@
         <f aca="false">IF(VLOOKUP(A41,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A41,EML_Tool_WP!A:BB,2,0))</f>
         <v>Automation and Simplification of the EML Process</v>
       </c>
-      <c r="C41" s="250" t="n">
+      <c r="C41" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A41,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A41,EML_Tool_WP!A:BB,39,0))</f>
         <v>44228</v>
       </c>
-      <c r="D41" s="250" t="n">
+      <c r="D41" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A41,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A41,EML_Tool_WP!A:BB,40,0))</f>
         <v>44469</v>
       </c>
@@ -39367,7 +39337,7 @@
         <f aca="false">IF(VLOOKUP(A41,EML_Tool_WP!A:BB,51,0)="","",VLOOKUP(A41,EML_Tool_WP!A:BB,51,0))</f>
         <v/>
       </c>
-      <c r="F41" s="251" t="n">
+      <c r="F41" s="248" t="n">
         <f aca="false">IF(VLOOKUP(A41,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A41,EML_Tool_WP!A:BB,42,0))</f>
         <v>0.15</v>
       </c>
@@ -39375,40 +39345,40 @@
         <f aca="false">IF(VLOOKUP(A41,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A41,EML_Tool_WP!A:BB,48,0))</f>
         <v>open</v>
       </c>
-      <c r="H41" s="252" t="n">
+      <c r="H41" s="249" t="n">
         <f aca="false">IF(VLOOKUP(A41,EML_Tool_WP!A:BB,54,0)="","",VLOOKUP(A41,EML_Tool_WP!A:BB,54,0))</f>
         <v>3</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="242" t="s">
+      <c r="A42" s="240" t="s">
         <v>536</v>
       </c>
-      <c r="B42" s="243" t="str">
+      <c r="B42" s="229" t="str">
         <f aca="false">IF(VLOOKUP(A42,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A42,EML_Tool_WP!A:BB,2,0))</f>
         <v>Application: Traffic Light System</v>
       </c>
-      <c r="C42" s="250" t="n">
+      <c r="C42" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A42,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A42,EML_Tool_WP!A:BB,39,0))</f>
         <v>43891</v>
       </c>
-      <c r="D42" s="250" t="n">
+      <c r="D42" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A42,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A42,EML_Tool_WP!A:BB,40,0))</f>
         <v>44316</v>
       </c>
-      <c r="E42" s="243" t="str">
+      <c r="E42" s="229" t="str">
         <f aca="false">IF(VLOOKUP(A42,EML_Tool_WP!A:BB,51,0)="","",VLOOKUP(A42,EML_Tool_WP!A:BB,51,0))</f>
         <v>Document</v>
       </c>
-      <c r="F42" s="251" t="n">
+      <c r="F42" s="248" t="n">
         <f aca="false">IF(VLOOKUP(A42,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A42,EML_Tool_WP!A:BB,42,0))</f>
         <v>0.358333333333333</v>
       </c>
-      <c r="G42" s="243" t="str">
+      <c r="G42" s="229" t="str">
         <f aca="false">IF(VLOOKUP(A42,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A42,EML_Tool_WP!A:BB,48,0))</f>
         <v>active</v>
       </c>
-      <c r="H42" s="261" t="n">
+      <c r="H42" s="249" t="n">
         <f aca="false">IF(VLOOKUP(A42,EML_Tool_WP!A:BB,54,0)="","",VLOOKUP(A42,EML_Tool_WP!A:BB,54,0))</f>
         <v>2</v>
       </c>
@@ -39421,11 +39391,11 @@
         <f aca="false">IF(VLOOKUP(A43,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A43,EML_Tool_WP!A:BB,2,0))</f>
         <v>Application: Ragweed Recognition Through a Drone</v>
       </c>
-      <c r="C43" s="250" t="n">
+      <c r="C43" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A43,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A43,EML_Tool_WP!A:BB,39,0))</f>
         <v>44044</v>
       </c>
-      <c r="D43" s="250" t="n">
+      <c r="D43" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A43,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A43,EML_Tool_WP!A:BB,40,0))</f>
         <v>44286</v>
       </c>
@@ -39433,7 +39403,7 @@
         <f aca="false">IF(VLOOKUP(A43,EML_Tool_WP!A:BB,51,0)="","",VLOOKUP(A43,EML_Tool_WP!A:BB,51,0))</f>
         <v>Document, Pretrained network</v>
       </c>
-      <c r="F43" s="251" t="n">
+      <c r="F43" s="248" t="n">
         <f aca="false">IF(VLOOKUP(A43,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A43,EML_Tool_WP!A:BB,42,0))</f>
         <v>0.441538461538462</v>
       </c>
@@ -39441,7 +39411,7 @@
         <f aca="false">IF(VLOOKUP(A43,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A43,EML_Tool_WP!A:BB,48,0))</f>
         <v>active</v>
       </c>
-      <c r="H43" s="252" t="n">
+      <c r="H43" s="249" t="n">
         <f aca="false">IF(VLOOKUP(A43,EML_Tool_WP!A:BB,54,0)="","",VLOOKUP(A43,EML_Tool_WP!A:BB,54,0))</f>
         <v>3</v>
       </c>
@@ -39454,11 +39424,11 @@
         <f aca="false">IF(VLOOKUP(A44,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A44,EML_Tool_WP!A:BB,2,0))</f>
         <v>Application: Minicar Demonstrator</v>
       </c>
-      <c r="C44" s="250" t="n">
+      <c r="C44" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A44,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A44,EML_Tool_WP!A:BB,39,0))</f>
         <v>43831</v>
       </c>
-      <c r="D44" s="250" t="n">
+      <c r="D44" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A44,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A44,EML_Tool_WP!A:BB,40,0))</f>
         <v>44227</v>
       </c>
@@ -39466,7 +39436,7 @@
         <f aca="false">IF(VLOOKUP(A44,EML_Tool_WP!A:BB,51,0)="","",VLOOKUP(A44,EML_Tool_WP!A:BB,51,0))</f>
         <v>Repository, Model car, Bachelor Thesis</v>
       </c>
-      <c r="F44" s="251" t="n">
+      <c r="F44" s="248" t="n">
         <f aca="false">IF(VLOOKUP(A44,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A44,EML_Tool_WP!A:BB,42,0))</f>
         <v>0.933333333333333</v>
       </c>
@@ -39474,156 +39444,156 @@
         <f aca="false">IF(VLOOKUP(A44,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A44,EML_Tool_WP!A:BB,48,0))</f>
         <v>active</v>
       </c>
-      <c r="H44" s="252" t="n">
+      <c r="H44" s="249" t="n">
         <f aca="false">IF(VLOOKUP(A44,EML_Tool_WP!A:BB,54,0)="","",VLOOKUP(A44,EML_Tool_WP!A:BB,54,0))</f>
         <v>3</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="242" t="s">
+      <c r="A45" s="240" t="s">
         <v>591</v>
       </c>
-      <c r="B45" s="243" t="str">
+      <c r="B45" s="229" t="str">
         <f aca="false">IF(VLOOKUP(A45,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A45,EML_Tool_WP!A:BB,2,0))</f>
         <v>Application: Tensorflow Lite Object Detection on an Android Smart Phone</v>
       </c>
-      <c r="C45" s="250" t="n">
+      <c r="C45" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A45,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A45,EML_Tool_WP!A:BB,39,0))</f>
         <v>44105</v>
       </c>
-      <c r="D45" s="250" t="n">
+      <c r="D45" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A45,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A45,EML_Tool_WP!A:BB,40,0))</f>
         <v>44255</v>
       </c>
-      <c r="E45" s="243" t="str">
+      <c r="E45" s="229" t="str">
         <f aca="false">IF(VLOOKUP(A45,EML_Tool_WP!A:BB,51,0)="","",VLOOKUP(A45,EML_Tool_WP!A:BB,51,0))</f>
         <v>Document, SW package</v>
       </c>
-      <c r="F45" s="251" t="n">
+      <c r="F45" s="248" t="n">
         <f aca="false">IF(VLOOKUP(A45,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A45,EML_Tool_WP!A:BB,42,0))</f>
         <v>0.566666666666667</v>
       </c>
-      <c r="G45" s="243" t="str">
+      <c r="G45" s="229" t="str">
         <f aca="false">IF(VLOOKUP(A45,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A45,EML_Tool_WP!A:BB,48,0))</f>
         <v>active</v>
       </c>
-      <c r="H45" s="261" t="n">
+      <c r="H45" s="249" t="n">
         <f aca="false">IF(VLOOKUP(A45,EML_Tool_WP!A:BB,54,0)="","",VLOOKUP(A45,EML_Tool_WP!A:BB,54,0))</f>
         <v>3</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="242" t="s">
+      <c r="A46" s="240" t="s">
         <v>607</v>
       </c>
-      <c r="B46" s="243" t="str">
+      <c r="B46" s="229" t="str">
         <f aca="false">IF(VLOOKUP(A46,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A46,EML_Tool_WP!A:BB,2,0))</f>
         <v>Hyper Parameterization Optimization through a Two-Phase-Search</v>
       </c>
-      <c r="C46" s="250" t="n">
+      <c r="C46" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A46,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A46,EML_Tool_WP!A:BB,39,0))</f>
         <v>43831</v>
       </c>
-      <c r="D46" s="250" t="n">
+      <c r="D46" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A46,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A46,EML_Tool_WP!A:BB,40,0))</f>
         <v>44104</v>
       </c>
-      <c r="E46" s="243" t="str">
+      <c r="E46" s="229" t="str">
         <f aca="false">IF(VLOOKUP(A46,EML_Tool_WP!A:BB,51,0)="","",VLOOKUP(A46,EML_Tool_WP!A:BB,51,0))</f>
         <v>Thesis, publication</v>
       </c>
-      <c r="F46" s="251" t="n">
+      <c r="F46" s="248" t="n">
         <f aca="false">IF(VLOOKUP(A46,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A46,EML_Tool_WP!A:BB,42,0))</f>
         <v>1</v>
       </c>
-      <c r="G46" s="243" t="str">
+      <c r="G46" s="229" t="str">
         <f aca="false">IF(VLOOKUP(A46,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A46,EML_Tool_WP!A:BB,48,0))</f>
         <v>completed</v>
       </c>
-      <c r="H46" s="261" t="str">
+      <c r="H46" s="249" t="str">
         <f aca="false">IF(VLOOKUP(A46,EML_Tool_WP!A:BB,54,0)="","",VLOOKUP(A46,EML_Tool_WP!A:BB,54,0))</f>
         <v/>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="244"/>
-      <c r="B47" s="245"/>
-      <c r="C47" s="262"/>
-      <c r="D47" s="262"/>
-      <c r="E47" s="245"/>
-      <c r="F47" s="263"/>
-      <c r="G47" s="245"/>
-      <c r="H47" s="264"/>
+      <c r="A47" s="241"/>
+      <c r="B47" s="242"/>
+      <c r="C47" s="258"/>
+      <c r="D47" s="258"/>
+      <c r="E47" s="242"/>
+      <c r="F47" s="259"/>
+      <c r="G47" s="242"/>
+      <c r="H47" s="260"/>
     </row>
     <row r="48" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="244"/>
-      <c r="B48" s="245"/>
-      <c r="C48" s="262"/>
-      <c r="D48" s="262"/>
-      <c r="E48" s="245"/>
-      <c r="F48" s="263"/>
-      <c r="G48" s="245"/>
-      <c r="H48" s="264"/>
+      <c r="A48" s="241"/>
+      <c r="B48" s="242"/>
+      <c r="C48" s="258"/>
+      <c r="D48" s="258"/>
+      <c r="E48" s="242"/>
+      <c r="F48" s="259"/>
+      <c r="G48" s="242"/>
+      <c r="H48" s="260"/>
     </row>
     <row r="49" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="244"/>
-      <c r="B49" s="245"/>
-      <c r="C49" s="262"/>
-      <c r="D49" s="262"/>
-      <c r="E49" s="245"/>
-      <c r="F49" s="263"/>
-      <c r="G49" s="245"/>
-      <c r="H49" s="264"/>
+      <c r="A49" s="241"/>
+      <c r="B49" s="242"/>
+      <c r="C49" s="258"/>
+      <c r="D49" s="258"/>
+      <c r="E49" s="242"/>
+      <c r="F49" s="259"/>
+      <c r="G49" s="242"/>
+      <c r="H49" s="260"/>
     </row>
     <row r="50" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="244"/>
-      <c r="B50" s="245"/>
-      <c r="C50" s="262"/>
-      <c r="D50" s="262"/>
-      <c r="E50" s="245"/>
-      <c r="F50" s="263"/>
-      <c r="G50" s="245"/>
-      <c r="H50" s="264"/>
+      <c r="A50" s="241"/>
+      <c r="B50" s="242"/>
+      <c r="C50" s="258"/>
+      <c r="D50" s="258"/>
+      <c r="E50" s="242"/>
+      <c r="F50" s="259"/>
+      <c r="G50" s="242"/>
+      <c r="H50" s="260"/>
     </row>
     <row r="51" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="244"/>
-      <c r="B51" s="245"/>
-      <c r="C51" s="262"/>
-      <c r="D51" s="262"/>
-      <c r="E51" s="245"/>
-      <c r="F51" s="263"/>
-      <c r="G51" s="245"/>
-      <c r="H51" s="264"/>
+      <c r="A51" s="241"/>
+      <c r="B51" s="242"/>
+      <c r="C51" s="258"/>
+      <c r="D51" s="258"/>
+      <c r="E51" s="242"/>
+      <c r="F51" s="259"/>
+      <c r="G51" s="242"/>
+      <c r="H51" s="260"/>
     </row>
     <row r="52" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="244"/>
-      <c r="B52" s="245"/>
-      <c r="C52" s="262"/>
-      <c r="D52" s="262"/>
-      <c r="E52" s="245"/>
-      <c r="F52" s="263"/>
-      <c r="G52" s="245"/>
-      <c r="H52" s="264"/>
+      <c r="A52" s="241"/>
+      <c r="B52" s="242"/>
+      <c r="C52" s="258"/>
+      <c r="D52" s="258"/>
+      <c r="E52" s="242"/>
+      <c r="F52" s="259"/>
+      <c r="G52" s="242"/>
+      <c r="H52" s="260"/>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="246"/>
-      <c r="B53" s="247"/>
-      <c r="C53" s="265"/>
-      <c r="D53" s="247"/>
-      <c r="E53" s="247"/>
-      <c r="F53" s="266"/>
-      <c r="G53" s="247"/>
-      <c r="H53" s="267"/>
+      <c r="A53" s="243"/>
+      <c r="B53" s="244"/>
+      <c r="C53" s="261"/>
+      <c r="D53" s="244"/>
+      <c r="E53" s="244"/>
+      <c r="F53" s="262"/>
+      <c r="G53" s="244"/>
+      <c r="H53" s="263"/>
     </row>
     <row r="54" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="248"/>
-      <c r="B54" s="249"/>
-      <c r="C54" s="268"/>
-      <c r="D54" s="249"/>
-      <c r="E54" s="249"/>
-      <c r="F54" s="269"/>
-      <c r="G54" s="249"/>
-      <c r="H54" s="270"/>
+      <c r="A54" s="245"/>
+      <c r="B54" s="246"/>
+      <c r="C54" s="264"/>
+      <c r="D54" s="246"/>
+      <c r="E54" s="246"/>
+      <c r="F54" s="265"/>
+      <c r="G54" s="246"/>
+      <c r="H54" s="266"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F54"/>
@@ -39734,7 +39704,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -39744,19 +39714,19 @@
       <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.56640625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="228" width="8.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="229" width="32.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="250" width="10.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="247" width="10.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="229" width="10.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="251" width="8.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="248" width="8.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="229" width="5.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="271" width="33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="267" width="33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="229" width="45.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="229" width="43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="230" width="12.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="230" width="11.56"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="11" style="230" width="11.56"/>
   </cols>
   <sheetData>
     <row r="1" s="233" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -39766,19 +39736,19 @@
       <c r="B1" s="232" t="s">
         <v>657</v>
       </c>
-      <c r="C1" s="253" t="s">
+      <c r="C1" s="250" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="232" t="s">
         <v>659</v>
       </c>
-      <c r="E1" s="254" t="s">
+      <c r="E1" s="251" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="232" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="272" t="s">
+      <c r="G1" s="268" t="s">
         <v>12</v>
       </c>
       <c r="H1" s="232" t="s">
@@ -39791,7 +39761,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="2" s="237" customFormat="true" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" s="236" customFormat="true" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="234" t="s">
         <v>25</v>
       </c>
@@ -39799,17 +39769,17 @@
         <f aca="false">IF(VLOOKUP(A2,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A2,EML_Tool_WP!A:BB,2,0))</f>
         <v>Create estimations for lat, throughput, power, energy, acc, resources</v>
       </c>
-      <c r="C2" s="256"/>
+      <c r="C2" s="253"/>
       <c r="D2" s="235"/>
-      <c r="E2" s="257" t="n">
+      <c r="E2" s="254" t="n">
         <f aca="false">IF(VLOOKUP(A2,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A2,EML_Tool_WP!A:BB,42,0))</f>
         <v>0.518918918918919</v>
       </c>
-      <c r="F2" s="236"/>
-      <c r="G2" s="273"/>
+      <c r="F2" s="235"/>
+      <c r="G2" s="269"/>
       <c r="H2" s="235"/>
       <c r="I2" s="235"/>
-      <c r="J2" s="273" t="s">
+      <c r="J2" s="269" t="s">
         <v>664</v>
       </c>
     </row>
@@ -39821,15 +39791,15 @@
         <f aca="false">IF(VLOOKUP(A3,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A3,EML_Tool_WP!A:BB,2,0))</f>
         <v>State of the Art Latency und Power Estimation Modelle aufsetzen</v>
       </c>
-      <c r="C3" s="250" t="n">
+      <c r="C3" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A3,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A3,EML_Tool_WP!A:BB,39,0))</f>
         <v>44075</v>
       </c>
-      <c r="D3" s="250" t="n">
+      <c r="D3" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A3,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A3,EML_Tool_WP!A:BB,40,0))</f>
         <v>44134</v>
       </c>
-      <c r="E3" s="251" t="n">
+      <c r="E3" s="248" t="n">
         <f aca="false">IF(VLOOKUP(A3,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A3,EML_Tool_WP!A:BB,42,0))</f>
         <v>1</v>
       </c>
@@ -39837,15 +39807,15 @@
         <f aca="false">IF(VLOOKUP(A3,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A3,EML_Tool_WP!A:BB,48,0))</f>
         <v>completed</v>
       </c>
-      <c r="G3" s="274" t="str">
+      <c r="G3" s="270" t="str">
         <f aca="false">IF(VLOOKUP(A3,EML_Tool_WP!A:BB,50,0)="","",VLOOKUP(A3,EML_Tool_WP!A:BB,50,0))</f>
         <v>State of the art estimations implementation</v>
       </c>
-      <c r="H3" s="250" t="str">
+      <c r="H3" s="247" t="str">
         <f aca="false">IF(VLOOKUP(A3,EML_Tool_WP!A:BB,52,0)="","",VLOOKUP(A3,EML_Tool_WP!A:BB,52,0))</f>
         <v>[x] included in the publication of ANNETTE</v>
       </c>
-      <c r="I3" s="250" t="str">
+      <c r="I3" s="247" t="str">
         <f aca="false">IF(VLOOKUP(A3,EML_Tool_WP!A:BB,53,0)="","",VLOOKUP(A3,EML_Tool_WP!A:BB,53,0))</f>
         <v>* ANNETTE Paper: 20201224_ANETTE_IEEEAccess</v>
       </c>
@@ -39862,15 +39832,15 @@
         <f aca="false">IF(VLOOKUP(A4,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A4,EML_Tool_WP!A:BB,2,0))</f>
         <v>Latency Estimator Blackthorn (NVIDIA)</v>
       </c>
-      <c r="C4" s="250" t="n">
+      <c r="C4" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A4,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A4,EML_Tool_WP!A:BB,39,0))</f>
         <v>43739</v>
       </c>
-      <c r="D4" s="250" t="n">
+      <c r="D4" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A4,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A4,EML_Tool_WP!A:BB,40,0))</f>
         <v>44469</v>
       </c>
-      <c r="E4" s="251" t="n">
+      <c r="E4" s="248" t="n">
         <f aca="false">IF(VLOOKUP(A4,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A4,EML_Tool_WP!A:BB,42,0))</f>
         <v>0.811111111111111</v>
       </c>
@@ -39878,11 +39848,11 @@
         <f aca="false">IF(VLOOKUP(A4,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A4,EML_Tool_WP!A:BB,48,0))</f>
         <v>active</v>
       </c>
-      <c r="G4" s="274" t="str">
+      <c r="G4" s="270" t="str">
         <f aca="false">IF(VLOOKUP(A4,EML_Tool_WP!A:BB,50,0)="","",VLOOKUP(A4,EML_Tool_WP!A:BB,50,0))</f>
         <v>Estimation model for Embedded (Nvidia) Platforms through Blackthorn</v>
       </c>
-      <c r="H4" s="250" t="str">
+      <c r="H4" s="247" t="str">
         <f aca="false">IF(VLOOKUP(A4,EML_Tool_WP!A:BB,52,0)="","",VLOOKUP(A4,EML_Tool_WP!A:BB,52,0))</f>
         <v>[] Publication
 [x] Estimation Models NVIDIA Jetson Nano
@@ -39890,7 +39860,7 @@
 [] Estimation Models NVIDIA Xavier
 [] (ME) Repository on Github (Open source)</v>
       </c>
-      <c r="I4" s="250" t="str">
+      <c r="I4" s="247" t="str">
         <f aca="false">IF(VLOOKUP(A4,EML_Tool_WP!A:BB,53,0)="","",VLOOKUP(A4,EML_Tool_WP!A:BB,53,0))</f>
         <v>* Model for Nano, TX2
 * Publication acceptance expected until 2021-09-30</v>
@@ -39908,15 +39878,15 @@
         <f aca="false">IF(VLOOKUP(A5,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A5,EML_Tool_WP!A:BB,2,0))</f>
         <v>Latency Estimator ANETTE (Intel, ARM, Xilinx)</v>
       </c>
-      <c r="C5" s="250" t="n">
+      <c r="C5" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A5,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A5,EML_Tool_WP!A:BB,39,0))</f>
         <v>43739</v>
       </c>
-      <c r="D5" s="250" t="n">
+      <c r="D5" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A5,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A5,EML_Tool_WP!A:BB,40,0))</f>
         <v>44469</v>
       </c>
-      <c r="E5" s="251" t="n">
+      <c r="E5" s="248" t="n">
         <f aca="false">IF(VLOOKUP(A5,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A5,EML_Tool_WP!A:BB,42,0))</f>
         <v>0.854545454545455</v>
       </c>
@@ -39924,11 +39894,11 @@
         <f aca="false">IF(VLOOKUP(A5,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A5,EML_Tool_WP!A:BB,48,0))</f>
         <v>active</v>
       </c>
-      <c r="G5" s="274" t="str">
+      <c r="G5" s="270" t="str">
         <f aca="false">IF(VLOOKUP(A5,EML_Tool_WP!A:BB,50,0)="","",VLOOKUP(A5,EML_Tool_WP!A:BB,50,0))</f>
         <v>Estimator method ANETTE for Latency (Intel, ARM, Xilinx)</v>
       </c>
-      <c r="H5" s="250" t="str">
+      <c r="H5" s="247" t="str">
         <f aca="false">IF(VLOOKUP(A5,EML_Tool_WP!A:BB,52,0)="","",VLOOKUP(A5,EML_Tool_WP!A:BB,52,0))</f>
         <v>[x] Publication of ANNETTE
 [x] Prediction Models of NCS2 Platform
@@ -39936,7 +39906,7 @@
 [] Prediction Models of ARMNN Example Platform
 [x] (ME) Open Source Repository for Latency Estimation</v>
       </c>
-      <c r="I5" s="250" t="str">
+      <c r="I5" s="247" t="str">
         <f aca="false">IF(VLOOKUP(A5,EML_Tool_WP!A:BB,53,0)="","",VLOOKUP(A5,EML_Tool_WP!A:BB,53,0))</f>
         <v>* NCS2, Xilinx ZCU102 Models fertig
 * Github: https://github.com/embedded-machine-learning/annette
@@ -39955,15 +39925,15 @@
         <f aca="false">IF(VLOOKUP(A6,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A6,EML_Tool_WP!A:BB,2,0))</f>
         <v>Power Estimator through Christian's Model</v>
       </c>
-      <c r="C6" s="250" t="n">
+      <c r="C6" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A6,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A6,EML_Tool_WP!A:BB,39,0))</f>
         <v>44044</v>
       </c>
-      <c r="D6" s="250" t="n">
+      <c r="D6" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A6,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A6,EML_Tool_WP!A:BB,40,0))</f>
         <v>44134</v>
       </c>
-      <c r="E6" s="251" t="n">
+      <c r="E6" s="248" t="n">
         <f aca="false">IF(VLOOKUP(A6,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A6,EML_Tool_WP!A:BB,42,0))</f>
         <v>0</v>
       </c>
@@ -39971,18 +39941,18 @@
         <f aca="false">IF(VLOOKUP(A6,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A6,EML_Tool_WP!A:BB,48,0))</f>
         <v>open</v>
       </c>
-      <c r="G6" s="274" t="str">
+      <c r="G6" s="270" t="str">
         <f aca="false">IF(VLOOKUP(A6,EML_Tool_WP!A:BB,50,0)="","",VLOOKUP(A6,EML_Tool_WP!A:BB,50,0))</f>
         <v>Accurate power estimation method for power-aware optimization applications</v>
       </c>
-      <c r="H6" s="250" t="str">
+      <c r="H6" s="247" t="str">
         <f aca="false">IF(VLOOKUP(A6,EML_Tool_WP!A:BB,52,0)="","",VLOOKUP(A6,EML_Tool_WP!A:BB,52,0))</f>
         <v>[] Estimation Model Xilinx
 [] Comparison Performance to ANETTE
 [] Publication about this method
 [] Repository with user friendly execution code</v>
       </c>
-      <c r="I6" s="250" t="str">
+      <c r="I6" s="247" t="str">
         <f aca="false">IF(VLOOKUP(A6,EML_Tool_WP!A:BB,53,0)="","",VLOOKUP(A6,EML_Tool_WP!A:BB,53,0))</f>
         <v/>
       </c>
@@ -39999,15 +39969,15 @@
         <f aca="false">IF(VLOOKUP(A7,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A7,EML_Tool_WP!A:BB,2,0))</f>
         <v>Power Estimator through ANNETTE</v>
       </c>
-      <c r="C7" s="250" t="n">
+      <c r="C7" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A7,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A7,EML_Tool_WP!A:BB,39,0))</f>
         <v>44146</v>
       </c>
-      <c r="D7" s="250" t="n">
+      <c r="D7" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A7,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A7,EML_Tool_WP!A:BB,40,0))</f>
         <v>44439</v>
       </c>
-      <c r="E7" s="251" t="n">
+      <c r="E7" s="248" t="n">
         <f aca="false">IF(VLOOKUP(A7,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A7,EML_Tool_WP!A:BB,42,0))</f>
         <v>0.0625</v>
       </c>
@@ -40015,16 +39985,16 @@
         <f aca="false">IF(VLOOKUP(A7,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A7,EML_Tool_WP!A:BB,48,0))</f>
         <v>active</v>
       </c>
-      <c r="G7" s="274" t="str">
+      <c r="G7" s="270" t="str">
         <f aca="false">IF(VLOOKUP(A7,EML_Tool_WP!A:BB,50,0)="","",VLOOKUP(A7,EML_Tool_WP!A:BB,50,0))</f>
         <v>Automated characterization of hardware platforms for power based on ANNETTE</v>
       </c>
-      <c r="H7" s="250" t="str">
+      <c r="H7" s="247" t="str">
         <f aca="false">IF(VLOOKUP(A7,EML_Tool_WP!A:BB,52,0)="","",VLOOKUP(A7,EML_Tool_WP!A:BB,52,0))</f>
         <v>[] Completed power measurement environment
 [] Automated platform characterization for a platform</v>
       </c>
-      <c r="I7" s="250" t="str">
+      <c r="I7" s="247" t="str">
         <f aca="false">IF(VLOOKUP(A7,EML_Tool_WP!A:BB,53,0)="","",VLOOKUP(A7,EML_Tool_WP!A:BB,53,0))</f>
         <v>* ANNETTE Estimation of NCS2 and Edge TPU until 2021-09-30</v>
       </c>
@@ -40041,15 +40011,15 @@
         <f aca="false">IF(VLOOKUP(A8,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A8,EML_Tool_WP!A:BB,2,0))</f>
         <v>Estimation of On-Chip Resources</v>
       </c>
-      <c r="C8" s="250" t="n">
+      <c r="C8" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A8,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A8,EML_Tool_WP!A:BB,39,0))</f>
         <v>44470</v>
       </c>
-      <c r="D8" s="250" t="str">
+      <c r="D8" s="247" t="str">
         <f aca="false">IF(VLOOKUP(A8,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A8,EML_Tool_WP!A:BB,40,0))</f>
         <v/>
       </c>
-      <c r="E8" s="251" t="n">
+      <c r="E8" s="248" t="n">
         <f aca="false">IF(VLOOKUP(A8,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A8,EML_Tool_WP!A:BB,42,0))</f>
         <v>0</v>
       </c>
@@ -40057,15 +40027,15 @@
         <f aca="false">IF(VLOOKUP(A8,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A8,EML_Tool_WP!A:BB,48,0))</f>
         <v>open</v>
       </c>
-      <c r="G8" s="274" t="str">
+      <c r="G8" s="270" t="str">
         <f aca="false">IF(VLOOKUP(A8,EML_Tool_WP!A:BB,50,0)="","",VLOOKUP(A8,EML_Tool_WP!A:BB,50,0))</f>
         <v/>
       </c>
-      <c r="H8" s="250" t="str">
+      <c r="H8" s="247" t="str">
         <f aca="false">IF(VLOOKUP(A8,EML_Tool_WP!A:BB,52,0)="","",VLOOKUP(A8,EML_Tool_WP!A:BB,52,0))</f>
         <v/>
       </c>
-      <c r="I8" s="250" t="str">
+      <c r="I8" s="247" t="str">
         <f aca="false">IF(VLOOKUP(A8,EML_Tool_WP!A:BB,53,0)="","",VLOOKUP(A8,EML_Tool_WP!A:BB,53,0))</f>
         <v>* Will be considered in year 3</v>
       </c>
@@ -40074,25 +40044,25 @@
         <v/>
       </c>
     </row>
-    <row r="9" s="237" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="239" t="s">
+    <row r="9" s="236" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="238" t="s">
         <v>121</v>
       </c>
-      <c r="B9" s="240" t="str">
+      <c r="B9" s="239" t="str">
         <f aca="false">IF(VLOOKUP(A9,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A9,EML_Tool_WP!A:BB,2,0))</f>
         <v>Optimize HW Dependent Settings</v>
       </c>
-      <c r="C9" s="259"/>
-      <c r="D9" s="240"/>
-      <c r="E9" s="257" t="n">
+      <c r="C9" s="256"/>
+      <c r="D9" s="239"/>
+      <c r="E9" s="254" t="n">
         <f aca="false">IF(VLOOKUP(A9,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A9,EML_Tool_WP!A:BB,42,0))</f>
         <v>0.406896551724138</v>
       </c>
-      <c r="F9" s="241"/>
-      <c r="G9" s="275"/>
-      <c r="H9" s="240"/>
-      <c r="I9" s="240"/>
-      <c r="J9" s="273" t="s">
+      <c r="F9" s="239"/>
+      <c r="G9" s="271"/>
+      <c r="H9" s="239"/>
+      <c r="I9" s="239"/>
+      <c r="J9" s="269" t="s">
         <v>664</v>
       </c>
     </row>
@@ -40104,15 +40074,15 @@
         <f aca="false">IF(VLOOKUP(A10,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A10,EML_Tool_WP!A:BB,2,0))</f>
         <v>NVIDIA Platform Profiling (Jetson, TC2, Xavier)</v>
       </c>
-      <c r="C10" s="250" t="n">
+      <c r="C10" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A10,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A10,EML_Tool_WP!A:BB,39,0))</f>
         <v>43891</v>
       </c>
-      <c r="D10" s="250" t="n">
+      <c r="D10" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A10,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A10,EML_Tool_WP!A:BB,40,0))</f>
         <v>44286</v>
       </c>
-      <c r="E10" s="251" t="n">
+      <c r="E10" s="248" t="n">
         <f aca="false">IF(VLOOKUP(A10,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A10,EML_Tool_WP!A:BB,42,0))</f>
         <v>0.411111111111111</v>
       </c>
@@ -40120,11 +40090,11 @@
         <f aca="false">IF(VLOOKUP(A10,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A10,EML_Tool_WP!A:BB,48,0))</f>
         <v>active</v>
       </c>
-      <c r="G10" s="274" t="str">
+      <c r="G10" s="270" t="str">
         <f aca="false">IF(VLOOKUP(A10,EML_Tool_WP!A:BB,50,0)="","",VLOOKUP(A10,EML_Tool_WP!A:BB,50,0))</f>
         <v>Latency, power and energy profiling of HW options of NVIDIA Jetson Nano, Xavier, TX2</v>
       </c>
-      <c r="H10" s="250" t="str">
+      <c r="H10" s="247" t="str">
         <f aca="false">IF(VLOOKUP(A10,EML_Tool_WP!A:BB,52,0)="","",VLOOKUP(A10,EML_Tool_WP!A:BB,52,0))</f>
         <v>[] (ME) For each device and SSD-MobileNetV2, characterzation Batchsizes 1-4, variation of possible HW options: GPU frequency, definition of settings for min. latency, min power and min energy
 [] Analysis of Jetson, TX2, Xavier
@@ -40132,7 +40102,7 @@
 [] (ME) HW configurator script in EML Github to select mode
 [x] Publikation</v>
       </c>
-      <c r="I10" s="250" t="str">
+      <c r="I10" s="247" t="str">
         <f aca="false">IF(VLOOKUP(A10,EML_Tool_WP!A:BB,53,0)="","",VLOOKUP(A10,EML_Tool_WP!A:BB,53,0))</f>
         <v>* Pub: https://ieeexplore.ieee.org/abstract/document/9290876</v>
       </c>
@@ -40149,15 +40119,15 @@
         <f aca="false">IF(VLOOKUP(A11,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A11,EML_Tool_WP!A:BB,2,0))</f>
         <v>ARM Platform Profiling (Rasp. Pi 4)</v>
       </c>
-      <c r="C11" s="250" t="n">
+      <c r="C11" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A11,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A11,EML_Tool_WP!A:BB,39,0))</f>
         <v>44136</v>
       </c>
-      <c r="D11" s="250" t="n">
+      <c r="D11" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A11,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A11,EML_Tool_WP!A:BB,40,0))</f>
         <v>44255</v>
       </c>
-      <c r="E11" s="251" t="n">
+      <c r="E11" s="248" t="n">
         <f aca="false">IF(VLOOKUP(A11,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A11,EML_Tool_WP!A:BB,42,0))</f>
         <v>0.46</v>
       </c>
@@ -40165,18 +40135,18 @@
         <f aca="false">IF(VLOOKUP(A11,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A11,EML_Tool_WP!A:BB,48,0))</f>
         <v>active</v>
       </c>
-      <c r="G11" s="274" t="str">
+      <c r="G11" s="270" t="str">
         <f aca="false">IF(VLOOKUP(A11,EML_Tool_WP!A:BB,50,0)="","",VLOOKUP(A11,EML_Tool_WP!A:BB,50,0))</f>
         <v>Performance and latency characterization of the ARM processor of a Raspberry PI as well as devloping tools for measurement execution</v>
       </c>
-      <c r="H11" s="250" t="str">
+      <c r="H11" s="247" t="str">
         <f aca="false">IF(VLOOKUP(A11,EML_Tool_WP!A:BB,52,0)="","",VLOOKUP(A11,EML_Tool_WP!A:BB,52,0))</f>
         <v>[x] Guide how to setup ArmNN and TFLite for 32 and 64 bit of a Raspberry Pi 4 (32/64 Bit)
 [] Optimal settings for min. latency, min. power and min. energy found and documented
 [] Table with latency comparison of ArmNN and TFLite 32/64 Bit with inference with an ordinary accelerator
 [] (ME) Githubrepo with measurement and configuration scripts for ArmNN</v>
       </c>
-      <c r="I11" s="250" t="str">
+      <c r="I11" s="247" t="str">
         <f aca="false">IF(VLOOKUP(A11,EML_Tool_WP!A:BB,53,0)="","",VLOOKUP(A11,EML_Tool_WP!A:BB,53,0))</f>
         <v/>
       </c>
@@ -40193,15 +40163,15 @@
         <f aca="false">IF(VLOOKUP(A12,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A12,EML_Tool_WP!A:BB,2,0))</f>
         <v>Xilinx Rlatform Profiling (ZCU102)</v>
       </c>
-      <c r="C12" s="250" t="n">
+      <c r="C12" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A12,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A12,EML_Tool_WP!A:BB,39,0))</f>
         <v>44136</v>
       </c>
-      <c r="D12" s="250" t="n">
+      <c r="D12" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A12,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A12,EML_Tool_WP!A:BB,40,0))</f>
         <v>44347</v>
       </c>
-      <c r="E12" s="251" t="n">
+      <c r="E12" s="248" t="n">
         <f aca="false">IF(VLOOKUP(A12,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A12,EML_Tool_WP!A:BB,42,0))</f>
         <v>0.0666666666666667</v>
       </c>
@@ -40209,17 +40179,17 @@
         <f aca="false">IF(VLOOKUP(A12,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A12,EML_Tool_WP!A:BB,48,0))</f>
         <v>active</v>
       </c>
-      <c r="G12" s="274" t="str">
+      <c r="G12" s="270" t="str">
         <f aca="false">IF(VLOOKUP(A12,EML_Tool_WP!A:BB,50,0)="","",VLOOKUP(A12,EML_Tool_WP!A:BB,50,0))</f>
         <v>Understanding of how to adapt Xilinx images for certain network architectures</v>
       </c>
-      <c r="H12" s="250" t="str">
+      <c r="H12" s="247" t="str">
         <f aca="false">IF(VLOOKUP(A12,EML_Tool_WP!A:BB,52,0)="","",VLOOKUP(A12,EML_Tool_WP!A:BB,52,0))</f>
         <v>[] Documented analysis how many needed kernels, share of FPGA used, consequences of consumes power, tradeoff between speedup and power
 [] Optimal settings for min. latency, min. power and min. energy found and documented
 [] Execution scripts in repository</v>
       </c>
-      <c r="I12" s="250" t="str">
+      <c r="I12" s="247" t="str">
         <f aca="false">IF(VLOOKUP(A12,EML_Tool_WP!A:BB,53,0)="","",VLOOKUP(A12,EML_Tool_WP!A:BB,53,0))</f>
         <v/>
       </c>
@@ -40236,15 +40206,15 @@
         <f aca="false">IF(VLOOKUP(A13,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A13,EML_Tool_WP!A:BB,2,0))</f>
         <v>Intel Platform Profiling (NUC, NCS2)</v>
       </c>
-      <c r="C13" s="250" t="n">
+      <c r="C13" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A13,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A13,EML_Tool_WP!A:BB,39,0))</f>
         <v>43739</v>
       </c>
-      <c r="D13" s="250" t="n">
+      <c r="D13" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A13,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A13,EML_Tool_WP!A:BB,40,0))</f>
         <v>43921</v>
       </c>
-      <c r="E13" s="251" t="n">
+      <c r="E13" s="248" t="n">
         <f aca="false">IF(VLOOKUP(A13,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A13,EML_Tool_WP!A:BB,42,0))</f>
         <v>0.6</v>
       </c>
@@ -40252,17 +40222,17 @@
         <f aca="false">IF(VLOOKUP(A13,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A13,EML_Tool_WP!A:BB,48,0))</f>
         <v>active</v>
       </c>
-      <c r="G13" s="274" t="str">
+      <c r="G13" s="270" t="str">
         <f aca="false">IF(VLOOKUP(A13,EML_Tool_WP!A:BB,50,0)="","",VLOOKUP(A13,EML_Tool_WP!A:BB,50,0))</f>
         <v>Latency, power and energy profiling of HW options of Intel NCS2 and Intel CPU</v>
       </c>
-      <c r="H13" s="250" t="str">
+      <c r="H13" s="247" t="str">
         <f aca="false">IF(VLOOKUP(A13,EML_Tool_WP!A:BB,52,0)="","",VLOOKUP(A13,EML_Tool_WP!A:BB,52,0))</f>
         <v>[] Evaluation of stick sync vs. async mode and other settings of NCS2 as part of thesis MW
 [] Execution and configuration scripts in Scripts-and-Guides repository
 [x] Results included in ANNETTE D1.1.3</v>
       </c>
-      <c r="I13" s="250" t="str">
+      <c r="I13" s="247" t="str">
         <f aca="false">IF(VLOOKUP(A13,EML_Tool_WP!A:BB,53,0)="","",VLOOKUP(A13,EML_Tool_WP!A:BB,53,0))</f>
         <v/>
       </c>
@@ -40279,15 +40249,15 @@
         <f aca="false">IF(VLOOKUP(A14,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A14,EML_Tool_WP!A:BB,2,0))</f>
         <v>Google Platform Profiling (Edge TPU)</v>
       </c>
-      <c r="C14" s="250" t="n">
+      <c r="C14" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A14,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A14,EML_Tool_WP!A:BB,39,0))</f>
         <v>44273</v>
       </c>
-      <c r="D14" s="250" t="n">
+      <c r="D14" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A14,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A14,EML_Tool_WP!A:BB,40,0))</f>
         <v>44346</v>
       </c>
-      <c r="E14" s="251" t="n">
+      <c r="E14" s="248" t="n">
         <f aca="false">IF(VLOOKUP(A14,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A14,EML_Tool_WP!A:BB,42,0))</f>
         <v>0.0375</v>
       </c>
@@ -40295,17 +40265,17 @@
         <f aca="false">IF(VLOOKUP(A14,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A14,EML_Tool_WP!A:BB,48,0))</f>
         <v>active</v>
       </c>
-      <c r="G14" s="274" t="str">
+      <c r="G14" s="270" t="str">
         <f aca="false">IF(VLOOKUP(A14,EML_Tool_WP!A:BB,50,0)="","",VLOOKUP(A14,EML_Tool_WP!A:BB,50,0))</f>
         <v>Latency, power and energy profiling of HW options of Edge TPU</v>
       </c>
-      <c r="H14" s="250" t="str">
+      <c r="H14" s="247" t="str">
         <f aca="false">IF(VLOOKUP(A14,EML_Tool_WP!A:BB,52,0)="","",VLOOKUP(A14,EML_Tool_WP!A:BB,52,0))</f>
         <v>[] Table of impact of hardware settings on latency, power and energy consumption
 [] Description of settings for min. latency, min. power or min. energy
 [] Scripts for setting optimizations in the hardware</v>
       </c>
-      <c r="I14" s="250" t="str">
+      <c r="I14" s="247" t="str">
         <f aca="false">IF(VLOOKUP(A14,EML_Tool_WP!A:BB,53,0)="","",VLOOKUP(A14,EML_Tool_WP!A:BB,53,0))</f>
         <v/>
       </c>
@@ -40314,25 +40284,25 @@
         <v/>
       </c>
     </row>
-    <row r="15" s="237" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="239" t="s">
+    <row r="15" s="236" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="238" t="s">
         <v>196</v>
       </c>
-      <c r="B15" s="240" t="str">
+      <c r="B15" s="239" t="str">
         <f aca="false">IF(VLOOKUP(A15,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A15,EML_Tool_WP!A:BB,2,0))</f>
         <v>Map Models of hardware</v>
       </c>
-      <c r="C15" s="259"/>
-      <c r="D15" s="240"/>
-      <c r="E15" s="257" t="n">
+      <c r="C15" s="256"/>
+      <c r="D15" s="239"/>
+      <c r="E15" s="254" t="n">
         <f aca="false">IF(VLOOKUP(A15,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A15,EML_Tool_WP!A:BB,42,0))</f>
         <v>0.557017543859649</v>
       </c>
-      <c r="F15" s="241"/>
-      <c r="G15" s="275"/>
-      <c r="H15" s="240"/>
-      <c r="I15" s="240"/>
-      <c r="J15" s="273" t="s">
+      <c r="F15" s="239"/>
+      <c r="G15" s="271"/>
+      <c r="H15" s="239"/>
+      <c r="I15" s="239"/>
+      <c r="J15" s="269" t="s">
         <v>664</v>
       </c>
     </row>
@@ -40344,15 +40314,15 @@
         <f aca="false">IF(VLOOKUP(A16,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A16,EML_Tool_WP!A:BB,2,0))</f>
         <v>Common Interface Inference on all Platforms</v>
       </c>
-      <c r="C16" s="250" t="str">
+      <c r="C16" s="247" t="str">
         <f aca="false">IF(VLOOKUP(A16,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A16,EML_Tool_WP!A:BB,39,0))</f>
         <v/>
       </c>
-      <c r="D16" s="250" t="str">
+      <c r="D16" s="247" t="str">
         <f aca="false">IF(VLOOKUP(A16,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A16,EML_Tool_WP!A:BB,40,0))</f>
         <v/>
       </c>
-      <c r="E16" s="251" t="n">
+      <c r="E16" s="248" t="n">
         <f aca="false">IF(VLOOKUP(A16,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A16,EML_Tool_WP!A:BB,42,0))</f>
         <v>0.8</v>
       </c>
@@ -40360,18 +40330,18 @@
         <f aca="false">IF(VLOOKUP(A16,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A16,EML_Tool_WP!A:BB,48,0))</f>
         <v>active</v>
       </c>
-      <c r="G16" s="274" t="str">
+      <c r="G16" s="270" t="str">
         <f aca="false">IF(VLOOKUP(A16,EML_Tool_WP!A:BB,50,0)="","",VLOOKUP(A16,EML_Tool_WP!A:BB,50,0))</f>
         <v>Common interface to hardware to create independence between platform specific settings and cross-hardware comparions</v>
       </c>
-      <c r="H16" s="250" t="str">
+      <c r="H16" s="247" t="str">
         <f aca="false">IF(VLOOKUP(A16,EML_Tool_WP!A:BB,52,0)="","",VLOOKUP(A16,EML_Tool_WP!A:BB,52,0))</f>
         <v>[] Common exchange format for inference
 [] Common exchange format for estimators
 [x] Common Inference execution scripts for platforms
 [x] Demonstration on OpenVino and NVIDIA</v>
       </c>
-      <c r="I16" s="250" t="str">
+      <c r="I16" s="247" t="str">
         <f aca="false">IF(VLOOKUP(A16,EML_Tool_WP!A:BB,53,0)="","",VLOOKUP(A16,EML_Tool_WP!A:BB,53,0))</f>
         <v>* Scripts for each hardware in https://github.com/embedded-machine-learning/scripts-and-guides/tree/main/scripts/hardwaremodules</v>
       </c>
@@ -40388,15 +40358,15 @@
         <f aca="false">IF(VLOOKUP(A17,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A17,EML_Tool_WP!A:BB,2,0))</f>
         <v>Common Network Inference Possible on NVIDIA</v>
       </c>
-      <c r="C17" s="250" t="n">
+      <c r="C17" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A17,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A17,EML_Tool_WP!A:BB,39,0))</f>
         <v>43891</v>
       </c>
-      <c r="D17" s="250" t="n">
+      <c r="D17" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A17,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A17,EML_Tool_WP!A:BB,40,0))</f>
         <v>43921</v>
       </c>
-      <c r="E17" s="251" t="n">
+      <c r="E17" s="248" t="n">
         <f aca="false">IF(VLOOKUP(A17,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A17,EML_Tool_WP!A:BB,42,0))</f>
         <v>0.8</v>
       </c>
@@ -40404,11 +40374,11 @@
         <f aca="false">IF(VLOOKUP(A17,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A17,EML_Tool_WP!A:BB,48,0))</f>
         <v>active</v>
       </c>
-      <c r="G17" s="274" t="str">
+      <c r="G17" s="270" t="str">
         <f aca="false">IF(VLOOKUP(A17,EML_Tool_WP!A:BB,50,0)="","",VLOOKUP(A17,EML_Tool_WP!A:BB,50,0))</f>
         <v>Inference NVIDIA: Out of the box inference with defined networks with or without tensor-rt</v>
       </c>
-      <c r="H17" s="250" t="str">
+      <c r="H17" s="247" t="str">
         <f aca="false">IF(VLOOKUP(A17,EML_Tool_WP!A:BB,52,0)="","",VLOOKUP(A17,EML_Tool_WP!A:BB,52,0))</f>
         <v>[] Guides in Github for setup of system in HW
 [] Scripts for inference and evaluation in Github
@@ -40417,7 +40387,7 @@
 [] Inference trt for Object Detection API 2.0
 [] 1x segmentation trt: DeepLabV3</v>
       </c>
-      <c r="I17" s="250" t="str">
+      <c r="I17" s="247" t="str">
         <f aca="false">IF(VLOOKUP(A17,EML_Tool_WP!A:BB,53,0)="","",VLOOKUP(A17,EML_Tool_WP!A:BB,53,0))</f>
         <v/>
       </c>
@@ -40434,15 +40404,15 @@
         <f aca="false">IF(VLOOKUP(A18,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A18,EML_Tool_WP!A:BB,2,0))</f>
         <v>Common Network Inference Possible on Intel</v>
       </c>
-      <c r="C18" s="250" t="n">
+      <c r="C18" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A18,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A18,EML_Tool_WP!A:BB,39,0))</f>
         <v>43739</v>
       </c>
-      <c r="D18" s="250" t="n">
+      <c r="D18" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A18,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A18,EML_Tool_WP!A:BB,40,0))</f>
         <v>44227</v>
       </c>
-      <c r="E18" s="251" t="n">
+      <c r="E18" s="248" t="n">
         <f aca="false">IF(VLOOKUP(A18,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A18,EML_Tool_WP!A:BB,42,0))</f>
         <v>0.9125</v>
       </c>
@@ -40450,11 +40420,11 @@
         <f aca="false">IF(VLOOKUP(A18,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A18,EML_Tool_WP!A:BB,48,0))</f>
         <v>active</v>
       </c>
-      <c r="G18" s="274" t="str">
+      <c r="G18" s="270" t="str">
         <f aca="false">IF(VLOOKUP(A18,EML_Tool_WP!A:BB,50,0)="","",VLOOKUP(A18,EML_Tool_WP!A:BB,50,0))</f>
         <v>Inference Intel: Out of the box inference with defined networks with or without OpenVino</v>
       </c>
-      <c r="H18" s="250" t="str">
+      <c r="H18" s="247" t="str">
         <f aca="false">IF(VLOOKUP(A18,EML_Tool_WP!A:BB,52,0)="","",VLOOKUP(A18,EML_Tool_WP!A:BB,52,0))</f>
         <v>[] Guides in Github for setup of system in HW
 [] Scripts for inference and evaluation in Github
@@ -40463,7 +40433,7 @@
 [] 1x segmentation, Openvino, DeepLabV3
 [] Object Detection API 2.0 SSD-MobileNetV2</v>
       </c>
-      <c r="I18" s="250" t="str">
+      <c r="I18" s="247" t="str">
         <f aca="false">IF(VLOOKUP(A18,EML_Tool_WP!A:BB,53,0)="","",VLOOKUP(A18,EML_Tool_WP!A:BB,53,0))</f>
         <v/>
       </c>
@@ -40480,15 +40450,15 @@
         <f aca="false">IF(VLOOKUP(A19,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A19,EML_Tool_WP!A:BB,2,0))</f>
         <v>Common Network Inference Possible on ARM</v>
       </c>
-      <c r="C19" s="250" t="n">
+      <c r="C19" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A19,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A19,EML_Tool_WP!A:BB,39,0))</f>
         <v>44105</v>
       </c>
-      <c r="D19" s="250" t="n">
+      <c r="D19" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A19,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A19,EML_Tool_WP!A:BB,40,0))</f>
         <v>44255</v>
       </c>
-      <c r="E19" s="251" t="n">
+      <c r="E19" s="248" t="n">
         <f aca="false">IF(VLOOKUP(A19,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A19,EML_Tool_WP!A:BB,42,0))</f>
         <v>0.1</v>
       </c>
@@ -40496,11 +40466,11 @@
         <f aca="false">IF(VLOOKUP(A19,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A19,EML_Tool_WP!A:BB,48,0))</f>
         <v>active</v>
       </c>
-      <c r="G19" s="274" t="str">
+      <c r="G19" s="270" t="str">
         <f aca="false">IF(VLOOKUP(A19,EML_Tool_WP!A:BB,50,0)="","",VLOOKUP(A19,EML_Tool_WP!A:BB,50,0))</f>
         <v>Inference ARM: Out of the box inference with defined networks with or without ARM-NN</v>
       </c>
-      <c r="H19" s="250" t="str">
+      <c r="H19" s="247" t="str">
         <f aca="false">IF(VLOOKUP(A19,EML_Tool_WP!A:BB,52,0)="","",VLOOKUP(A19,EML_Tool_WP!A:BB,52,0))</f>
         <v>[] Guides in Github for setup of system in HW
 [] Scripts for inference and evaluation in Github
@@ -40509,7 +40479,7 @@
 [] 1x segmentation, Openvino, DeepLabV3
 [] TFLite Object Detection API 2.0 SSD-MobileNetV2 and InceptionResNet</v>
       </c>
-      <c r="I19" s="250" t="str">
+      <c r="I19" s="247" t="str">
         <f aca="false">IF(VLOOKUP(A19,EML_Tool_WP!A:BB,53,0)="","",VLOOKUP(A19,EML_Tool_WP!A:BB,53,0))</f>
         <v/>
       </c>
@@ -40526,15 +40496,15 @@
         <f aca="false">IF(VLOOKUP(A20,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A20,EML_Tool_WP!A:BB,2,0))</f>
         <v>Common Network Inference Possible on Xilinx</v>
       </c>
-      <c r="C20" s="250" t="n">
+      <c r="C20" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A20,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A20,EML_Tool_WP!A:BB,39,0))</f>
         <v>44105</v>
       </c>
-      <c r="D20" s="250" t="n">
+      <c r="D20" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A20,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A20,EML_Tool_WP!A:BB,40,0))</f>
         <v>44346</v>
       </c>
-      <c r="E20" s="251" t="n">
+      <c r="E20" s="248" t="n">
         <f aca="false">IF(VLOOKUP(A20,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A20,EML_Tool_WP!A:BB,42,0))</f>
         <v>0.15</v>
       </c>
@@ -40542,11 +40512,11 @@
         <f aca="false">IF(VLOOKUP(A20,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A20,EML_Tool_WP!A:BB,48,0))</f>
         <v>active</v>
       </c>
-      <c r="G20" s="274" t="str">
+      <c r="G20" s="270" t="str">
         <f aca="false">IF(VLOOKUP(A20,EML_Tool_WP!A:BB,50,0)="","",VLOOKUP(A20,EML_Tool_WP!A:BB,50,0))</f>
         <v>Inference Xilinx: Out of the box inference with defined networks with or without Vitis-AI</v>
       </c>
-      <c r="H20" s="250" t="str">
+      <c r="H20" s="247" t="str">
         <f aca="false">IF(VLOOKUP(A20,EML_Tool_WP!A:BB,52,0)="","",VLOOKUP(A20,EML_Tool_WP!A:BB,52,0))</f>
         <v>[] Guides in Github for setup of system in HW
 [] Scripts for inference and evaluation in Github
@@ -40554,7 +40524,7 @@
 [] 1x Obj. Detection, Openvino, YoloV4 (Bck YoloV3)
 [] 1x segmentation, Openvino, DeepLabV3</v>
       </c>
-      <c r="I20" s="250" t="str">
+      <c r="I20" s="247" t="str">
         <f aca="false">IF(VLOOKUP(A20,EML_Tool_WP!A:BB,53,0)="","",VLOOKUP(A20,EML_Tool_WP!A:BB,53,0))</f>
         <v/>
       </c>
@@ -40571,15 +40541,15 @@
         <f aca="false">IF(VLOOKUP(A21,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A21,EML_Tool_WP!A:BB,2,0))</f>
         <v>Power Measurements possible for NCS2 and NVIDIA</v>
       </c>
-      <c r="C21" s="250" t="n">
+      <c r="C21" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A21,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A21,EML_Tool_WP!A:BB,39,0))</f>
         <v>44013</v>
       </c>
-      <c r="D21" s="250" t="n">
+      <c r="D21" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A21,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A21,EML_Tool_WP!A:BB,40,0))</f>
         <v>43921</v>
       </c>
-      <c r="E21" s="251" t="n">
+      <c r="E21" s="248" t="n">
         <f aca="false">IF(VLOOKUP(A21,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A21,EML_Tool_WP!A:BB,42,0))</f>
         <v>0.552272727272727</v>
       </c>
@@ -40587,11 +40557,11 @@
         <f aca="false">IF(VLOOKUP(A21,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A21,EML_Tool_WP!A:BB,48,0))</f>
         <v>active</v>
       </c>
-      <c r="G21" s="274" t="str">
+      <c r="G21" s="270" t="str">
         <f aca="false">IF(VLOOKUP(A21,EML_Tool_WP!A:BB,50,0)="","",VLOOKUP(A21,EML_Tool_WP!A:BB,50,0))</f>
         <v>Single networks power measurements</v>
       </c>
-      <c r="H21" s="250" t="str">
+      <c r="H21" s="247" t="str">
         <f aca="false">IF(VLOOKUP(A21,EML_Tool_WP!A:BB,52,0)="","",VLOOKUP(A21,EML_Tool_WP!A:BB,52,0))</f>
         <v>[x] Hardware power measurement setup for NCS2, Edge TPU, Xilinx and Jetson Nano
 [] Scripts for power measurements in Github for NCS2 and NVIDIA
@@ -40599,7 +40569,7 @@
 [] Measurements of latency and power at the same time possible
 [] Evaluation script: Varianz, Median, min, max of single layers</v>
       </c>
-      <c r="I21" s="250" t="str">
+      <c r="I21" s="247" t="str">
         <f aca="false">IF(VLOOKUP(A21,EML_Tool_WP!A:BB,53,0)="","",VLOOKUP(A21,EML_Tool_WP!A:BB,53,0))</f>
         <v/>
       </c>
@@ -40616,15 +40586,15 @@
         <f aca="false">IF(VLOOKUP(A22,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A22,EML_Tool_WP!A:BB,2,0))</f>
         <v>Demonstration of Inference on all Platforms with Common Interface</v>
       </c>
-      <c r="C22" s="250" t="n">
+      <c r="C22" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A22,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A22,EML_Tool_WP!A:BB,39,0))</f>
         <v>44256</v>
       </c>
-      <c r="D22" s="250" t="n">
+      <c r="D22" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A22,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A22,EML_Tool_WP!A:BB,40,0))</f>
         <v>44347</v>
       </c>
-      <c r="E22" s="251" t="n">
+      <c r="E22" s="248" t="n">
         <f aca="false">IF(VLOOKUP(A22,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A22,EML_Tool_WP!A:BB,42,0))</f>
         <v>0.3</v>
       </c>
@@ -40632,18 +40602,18 @@
         <f aca="false">IF(VLOOKUP(A22,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A22,EML_Tool_WP!A:BB,48,0))</f>
         <v>open</v>
       </c>
-      <c r="G22" s="274" t="str">
+      <c r="G22" s="270" t="str">
         <f aca="false">IF(VLOOKUP(A22,EML_Tool_WP!A:BB,50,0)="","",VLOOKUP(A22,EML_Tool_WP!A:BB,50,0))</f>
         <v>Inference of common neural networks available on all hardware</v>
       </c>
-      <c r="H22" s="250" t="str">
+      <c r="H22" s="247" t="str">
         <f aca="false">IF(VLOOKUP(A22,EML_Tool_WP!A:BB,52,0)="","",VLOOKUP(A22,EML_Tool_WP!A:BB,52,0))</f>
         <v>[] Overview matrix of the possibility to do inference with a certain framework on a certain hardware in the laboratory
 [] Guides how to setup the environments
 [] Guides how to do inference with a pretrained model
 [] Validation networks for each framework</v>
       </c>
-      <c r="I22" s="250" t="str">
+      <c r="I22" s="247" t="str">
         <f aca="false">IF(VLOOKUP(A22,EML_Tool_WP!A:BB,53,0)="","",VLOOKUP(A22,EML_Tool_WP!A:BB,53,0))</f>
         <v/>
       </c>
@@ -40652,25 +40622,25 @@
         <v/>
       </c>
     </row>
-    <row r="23" s="237" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="239" t="s">
+    <row r="23" s="236" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="238" t="s">
         <v>309</v>
       </c>
-      <c r="B23" s="240" t="str">
+      <c r="B23" s="239" t="str">
         <f aca="false">IF(VLOOKUP(A23,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A23,EML_Tool_WP!A:BB,2,0))</f>
         <v>Quantization</v>
       </c>
-      <c r="C23" s="259"/>
-      <c r="D23" s="240"/>
-      <c r="E23" s="257" t="n">
+      <c r="C23" s="256"/>
+      <c r="D23" s="239"/>
+      <c r="E23" s="254" t="n">
         <f aca="false">IF(VLOOKUP(A23,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A23,EML_Tool_WP!A:BB,42,0))</f>
         <v>0.235294117647059</v>
       </c>
-      <c r="F23" s="241"/>
-      <c r="G23" s="275"/>
-      <c r="H23" s="240"/>
-      <c r="I23" s="240"/>
-      <c r="J23" s="273" t="s">
+      <c r="F23" s="239"/>
+      <c r="G23" s="271"/>
+      <c r="H23" s="239"/>
+      <c r="I23" s="239"/>
+      <c r="J23" s="269" t="s">
         <v>664</v>
       </c>
     </row>
@@ -40682,15 +40652,15 @@
         <f aca="false">IF(VLOOKUP(A24,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A24,EML_Tool_WP!A:BB,2,0))</f>
         <v>HW Independent Quantization on Xilinx</v>
       </c>
-      <c r="C24" s="250" t="n">
+      <c r="C24" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A24,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A24,EML_Tool_WP!A:BB,39,0))</f>
         <v>43891</v>
       </c>
-      <c r="D24" s="250" t="n">
+      <c r="D24" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A24,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A24,EML_Tool_WP!A:BB,40,0))</f>
         <v>44286</v>
       </c>
-      <c r="E24" s="251" t="n">
+      <c r="E24" s="248" t="n">
         <f aca="false">IF(VLOOKUP(A24,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A24,EML_Tool_WP!A:BB,42,0))</f>
         <v>0.74</v>
       </c>
@@ -40698,17 +40668,17 @@
         <f aca="false">IF(VLOOKUP(A24,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A24,EML_Tool_WP!A:BB,48,0))</f>
         <v>active</v>
       </c>
-      <c r="G24" s="274" t="str">
+      <c r="G24" s="270" t="str">
         <f aca="false">IF(VLOOKUP(A24,EML_Tool_WP!A:BB,50,0)="","",VLOOKUP(A24,EML_Tool_WP!A:BB,50,0))</f>
         <v>Quantization of fully connected und conv layer prunable, TinyYoloV3, ResNet</v>
       </c>
-      <c r="H24" s="250" t="str">
+      <c r="H24" s="247" t="str">
         <f aca="false">IF(VLOOKUP(A24,EML_Tool_WP!A:BB,52,0)="","",VLOOKUP(A24,EML_Tool_WP!A:BB,52,0))</f>
         <v>[] Repository with Quantization software module
 [] Written comprison with Vitis AI, für TinyYolo, ResNet and supported layer
 [] Thesis</v>
       </c>
-      <c r="I24" s="250" t="str">
+      <c r="I24" s="247" t="str">
         <f aca="false">IF(VLOOKUP(A24,EML_Tool_WP!A:BB,53,0)="","",VLOOKUP(A24,EML_Tool_WP!A:BB,53,0))</f>
         <v/>
       </c>
@@ -40718,38 +40688,38 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="43.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="242" t="s">
+      <c r="A25" s="240" t="s">
         <v>326</v>
       </c>
-      <c r="B25" s="243" t="str">
+      <c r="B25" s="229" t="str">
         <f aca="false">IF(VLOOKUP(A25,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A25,EML_Tool_WP!A:BB,2,0))</f>
         <v>Analysis of NVIDIA Native Quantization</v>
       </c>
-      <c r="C25" s="250" t="n">
+      <c r="C25" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A25,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A25,EML_Tool_WP!A:BB,39,0))</f>
         <v>44136</v>
       </c>
-      <c r="D25" s="250" t="n">
+      <c r="D25" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A25,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A25,EML_Tool_WP!A:BB,40,0))</f>
         <v>44255</v>
       </c>
-      <c r="E25" s="251" t="n">
+      <c r="E25" s="248" t="n">
         <f aca="false">IF(VLOOKUP(A25,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A25,EML_Tool_WP!A:BB,42,0))</f>
         <v>0</v>
       </c>
-      <c r="F25" s="243" t="str">
+      <c r="F25" s="229" t="str">
         <f aca="false">IF(VLOOKUP(A25,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A25,EML_Tool_WP!A:BB,48,0))</f>
         <v>active</v>
       </c>
-      <c r="G25" s="274" t="str">
+      <c r="G25" s="270" t="str">
         <f aca="false">IF(VLOOKUP(A25,EML_Tool_WP!A:BB,50,0)="","",VLOOKUP(A25,EML_Tool_WP!A:BB,50,0))</f>
         <v>Effects of quantization through tensor-rt known</v>
       </c>
-      <c r="H25" s="250" t="str">
+      <c r="H25" s="247" t="str">
         <f aca="false">IF(VLOOKUP(A25,EML_Tool_WP!A:BB,52,0)="","",VLOOKUP(A25,EML_Tool_WP!A:BB,52,0))</f>
         <v>[] Measurements of latency and accuracy of MobileNet variants w/o trt quantization all possibilities</v>
       </c>
-      <c r="I25" s="250" t="str">
+      <c r="I25" s="247" t="str">
         <f aca="false">IF(VLOOKUP(A25,EML_Tool_WP!A:BB,53,0)="","",VLOOKUP(A25,EML_Tool_WP!A:BB,53,0))</f>
         <v/>
       </c>
@@ -40759,38 +40729,38 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="28.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="242" t="s">
+      <c r="A26" s="240" t="s">
         <v>334</v>
       </c>
-      <c r="B26" s="243" t="str">
+      <c r="B26" s="229" t="str">
         <f aca="false">IF(VLOOKUP(A26,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A26,EML_Tool_WP!A:BB,2,0))</f>
         <v>Analysis of Intel Native Quantization</v>
       </c>
-      <c r="C26" s="250" t="n">
+      <c r="C26" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A26,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A26,EML_Tool_WP!A:BB,39,0))</f>
         <v>44105</v>
       </c>
-      <c r="D26" s="250" t="n">
+      <c r="D26" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A26,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A26,EML_Tool_WP!A:BB,40,0))</f>
         <v>44255</v>
       </c>
-      <c r="E26" s="251" t="n">
+      <c r="E26" s="248" t="n">
         <f aca="false">IF(VLOOKUP(A26,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A26,EML_Tool_WP!A:BB,42,0))</f>
         <v>0</v>
       </c>
-      <c r="F26" s="243" t="str">
+      <c r="F26" s="229" t="str">
         <f aca="false">IF(VLOOKUP(A26,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A26,EML_Tool_WP!A:BB,48,0))</f>
         <v>active</v>
       </c>
-      <c r="G26" s="274" t="str">
+      <c r="G26" s="270" t="str">
         <f aca="false">IF(VLOOKUP(A26,EML_Tool_WP!A:BB,50,0)="","",VLOOKUP(A26,EML_Tool_WP!A:BB,50,0))</f>
         <v>Effect of quantization through OpenVino known</v>
       </c>
-      <c r="H26" s="250" t="str">
+      <c r="H26" s="247" t="str">
         <f aca="false">IF(VLOOKUP(A26,EML_Tool_WP!A:BB,52,0)="","",VLOOKUP(A26,EML_Tool_WP!A:BB,52,0))</f>
         <v>[] Measurements of MobileNet  variants latency and accuracy. w/o openvino quantization</v>
       </c>
-      <c r="I26" s="250" t="str">
+      <c r="I26" s="247" t="str">
         <f aca="false">IF(VLOOKUP(A26,EML_Tool_WP!A:BB,53,0)="","",VLOOKUP(A26,EML_Tool_WP!A:BB,53,0))</f>
         <v/>
       </c>
@@ -40800,39 +40770,39 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="57.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="242" t="s">
+      <c r="A27" s="240" t="s">
         <v>343</v>
       </c>
-      <c r="B27" s="243" t="str">
+      <c r="B27" s="229" t="str">
         <f aca="false">IF(VLOOKUP(A27,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A27,EML_Tool_WP!A:BB,2,0))</f>
         <v>One-shot Quantizeable Slimmable Adaptive Networks on Xilinx</v>
       </c>
-      <c r="C27" s="250" t="n">
+      <c r="C27" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A27,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A27,EML_Tool_WP!A:BB,39,0))</f>
         <v>44105</v>
       </c>
-      <c r="D27" s="250" t="n">
+      <c r="D27" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A27,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A27,EML_Tool_WP!A:BB,40,0))</f>
         <v>44407</v>
       </c>
-      <c r="E27" s="251" t="n">
+      <c r="E27" s="248" t="n">
         <f aca="false">IF(VLOOKUP(A27,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A27,EML_Tool_WP!A:BB,42,0))</f>
         <v>0.1</v>
       </c>
-      <c r="F27" s="243" t="str">
+      <c r="F27" s="229" t="str">
         <f aca="false">IF(VLOOKUP(A27,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A27,EML_Tool_WP!A:BB,48,0))</f>
         <v>active</v>
       </c>
-      <c r="G27" s="274" t="str">
+      <c r="G27" s="270" t="str">
         <f aca="false">IF(VLOOKUP(A27,EML_Tool_WP!A:BB,50,0)="","",VLOOKUP(A27,EML_Tool_WP!A:BB,50,0))</f>
         <v>Tradeoff between slimmable networks and quantization regarding performance loss and latency gain on State-of-the-Art Architectures</v>
       </c>
-      <c r="H27" s="250" t="str">
+      <c r="H27" s="247" t="str">
         <f aca="false">IF(VLOOKUP(A27,EML_Tool_WP!A:BB,52,0)="","",VLOOKUP(A27,EML_Tool_WP!A:BB,52,0))</f>
         <v>[] Comparison of Slimmable Networks to Depthmultiplier and pruning
 [] Repository to apply Methodology on other Networks</v>
       </c>
-      <c r="I27" s="250" t="str">
+      <c r="I27" s="247" t="str">
         <f aca="false">IF(VLOOKUP(A27,EML_Tool_WP!A:BB,53,0)="","",VLOOKUP(A27,EML_Tool_WP!A:BB,53,0))</f>
         <v/>
       </c>
@@ -40841,25 +40811,25 @@
         <v/>
       </c>
     </row>
-    <row r="28" s="237" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="239" t="s">
+    <row r="28" s="236" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="238" t="s">
         <v>357</v>
       </c>
-      <c r="B28" s="240" t="str">
+      <c r="B28" s="239" t="str">
         <f aca="false">IF(VLOOKUP(A28,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A28,EML_Tool_WP!A:BB,2,0))</f>
         <v>Pruning</v>
       </c>
-      <c r="C28" s="259"/>
-      <c r="D28" s="240"/>
-      <c r="E28" s="257" t="n">
+      <c r="C28" s="256"/>
+      <c r="D28" s="239"/>
+      <c r="E28" s="254" t="n">
         <f aca="false">IF(VLOOKUP(A28,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A28,EML_Tool_WP!A:BB,42,0))</f>
         <v>0.360714285714286</v>
       </c>
-      <c r="F28" s="241"/>
-      <c r="G28" s="275"/>
-      <c r="H28" s="240"/>
-      <c r="I28" s="240"/>
-      <c r="J28" s="273" t="s">
+      <c r="F28" s="239"/>
+      <c r="G28" s="271"/>
+      <c r="H28" s="239"/>
+      <c r="I28" s="239"/>
+      <c r="J28" s="269" t="s">
         <v>664</v>
       </c>
     </row>
@@ -40871,15 +40841,15 @@
         <f aca="false">IF(VLOOKUP(A29,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A29,EML_Tool_WP!A:BB,2,0))</f>
         <v>HW Independent Pruning with Distiller</v>
       </c>
-      <c r="C29" s="250" t="n">
+      <c r="C29" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A29,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A29,EML_Tool_WP!A:BB,39,0))</f>
         <v>43891</v>
       </c>
-      <c r="D29" s="250" t="n">
+      <c r="D29" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A29,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A29,EML_Tool_WP!A:BB,40,0))</f>
         <v>44255</v>
       </c>
-      <c r="E29" s="251" t="n">
+      <c r="E29" s="248" t="n">
         <f aca="false">IF(VLOOKUP(A29,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A29,EML_Tool_WP!A:BB,42,0))</f>
         <v>0.791666666666667</v>
       </c>
@@ -40887,11 +40857,11 @@
         <f aca="false">IF(VLOOKUP(A29,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A29,EML_Tool_WP!A:BB,48,0))</f>
         <v>active</v>
       </c>
-      <c r="G29" s="274" t="str">
+      <c r="G29" s="270" t="str">
         <f aca="false">IF(VLOOKUP(A29,EML_Tool_WP!A:BB,50,0)="","",VLOOKUP(A29,EML_Tool_WP!A:BB,50,0))</f>
         <v>Distiller derived pruning tool for simple networks ResNets for classification tasks as well as MobileNet</v>
       </c>
-      <c r="H29" s="250" t="str">
+      <c r="H29" s="247" t="str">
         <f aca="false">IF(VLOOKUP(A29,EML_Tool_WP!A:BB,52,0)="","",VLOOKUP(A29,EML_Tool_WP!A:BB,52,0))</f>
         <v>[] Enhancement of Distiller pruning tool
 [] Performane comparison to a depth multipler at MobileNet
@@ -40899,7 +40869,7 @@
 [] Software Tool for Pytorch inputs in Repo
 [] Thesis</v>
       </c>
-      <c r="I29" s="250" t="str">
+      <c r="I29" s="247" t="str">
         <f aca="false">IF(VLOOKUP(A29,EML_Tool_WP!A:BB,53,0)="","",VLOOKUP(A29,EML_Tool_WP!A:BB,53,0))</f>
         <v/>
       </c>
@@ -40909,40 +40879,40 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="72" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="242" t="s">
+      <c r="A30" s="240" t="s">
         <v>373</v>
       </c>
-      <c r="B30" s="243" t="str">
+      <c r="B30" s="229" t="str">
         <f aca="false">IF(VLOOKUP(A30,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A30,EML_Tool_WP!A:BB,2,0))</f>
         <v>Analysis of Performance of Slimmable Networks</v>
       </c>
-      <c r="C30" s="250" t="n">
+      <c r="C30" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A30,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A30,EML_Tool_WP!A:BB,39,0))</f>
         <v>44105</v>
       </c>
-      <c r="D30" s="250" t="n">
+      <c r="D30" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A30,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A30,EML_Tool_WP!A:BB,40,0))</f>
         <v>44227</v>
       </c>
-      <c r="E30" s="251" t="n">
+      <c r="E30" s="248" t="n">
         <f aca="false">IF(VLOOKUP(A30,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A30,EML_Tool_WP!A:BB,42,0))</f>
         <v>0.0375</v>
       </c>
-      <c r="F30" s="243" t="str">
+      <c r="F30" s="229" t="str">
         <f aca="false">IF(VLOOKUP(A30,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A30,EML_Tool_WP!A:BB,48,0))</f>
         <v>active</v>
       </c>
-      <c r="G30" s="274" t="str">
+      <c r="G30" s="270" t="str">
         <f aca="false">IF(VLOOKUP(A30,EML_Tool_WP!A:BB,50,0)="","",VLOOKUP(A30,EML_Tool_WP!A:BB,50,0))</f>
         <v>Knowledge if slimmable networks better than MobileNet Depth multipler</v>
       </c>
-      <c r="H30" s="250" t="str">
+      <c r="H30" s="247" t="str">
         <f aca="false">IF(VLOOKUP(A30,EML_Tool_WP!A:BB,52,0)="","",VLOOKUP(A30,EML_Tool_WP!A:BB,52,0))</f>
         <v>[] Bach. Thesis: Implementation of slimmable networks on MobileNet on NVIDIA. Compare performance with depth multiplier
 [] Comparison of latency and acc. On device
 [] Repository with setup and execution scripts</v>
       </c>
-      <c r="I30" s="250" t="str">
+      <c r="I30" s="247" t="str">
         <f aca="false">IF(VLOOKUP(A30,EML_Tool_WP!A:BB,53,0)="","",VLOOKUP(A30,EML_Tool_WP!A:BB,53,0))</f>
         <v/>
       </c>
@@ -40951,47 +40921,47 @@
         <v/>
       </c>
     </row>
-    <row r="31" s="237" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="239" t="s">
+    <row r="31" s="236" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="238" t="s">
         <v>395</v>
       </c>
-      <c r="B31" s="240" t="str">
+      <c r="B31" s="239" t="str">
         <f aca="false">IF(VLOOKUP(A31,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A31,EML_Tool_WP!A:BB,2,0))</f>
         <v>Factorization</v>
       </c>
-      <c r="C31" s="259"/>
-      <c r="D31" s="240"/>
-      <c r="E31" s="257" t="n">
+      <c r="C31" s="256"/>
+      <c r="D31" s="239"/>
+      <c r="E31" s="254" t="n">
         <f aca="false">IF(VLOOKUP(A31,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A31,EML_Tool_WP!A:BB,42,0))</f>
         <v>0</v>
       </c>
-      <c r="F31" s="241"/>
-      <c r="G31" s="275"/>
-      <c r="H31" s="240"/>
-      <c r="I31" s="240"/>
-      <c r="J31" s="273" t="s">
+      <c r="F31" s="239"/>
+      <c r="G31" s="271"/>
+      <c r="H31" s="239"/>
+      <c r="I31" s="239"/>
+      <c r="J31" s="269" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="32" s="237" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="239" t="s">
+    <row r="32" s="236" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="238" t="s">
         <v>398</v>
       </c>
-      <c r="B32" s="240" t="str">
+      <c r="B32" s="239" t="str">
         <f aca="false">IF(VLOOKUP(A32,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A32,EML_Tool_WP!A:BB,2,0))</f>
         <v>Compact Design</v>
       </c>
-      <c r="C32" s="259"/>
-      <c r="D32" s="240"/>
-      <c r="E32" s="257" t="n">
+      <c r="C32" s="256"/>
+      <c r="D32" s="239"/>
+      <c r="E32" s="254" t="n">
         <f aca="false">IF(VLOOKUP(A32,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A32,EML_Tool_WP!A:BB,42,0))</f>
         <v>0.573333333333334</v>
       </c>
-      <c r="F32" s="241"/>
-      <c r="G32" s="275"/>
-      <c r="H32" s="240"/>
-      <c r="I32" s="240"/>
-      <c r="J32" s="273" t="s">
+      <c r="F32" s="239"/>
+      <c r="G32" s="271"/>
+      <c r="H32" s="239"/>
+      <c r="I32" s="239"/>
+      <c r="J32" s="269" t="s">
         <v>664</v>
       </c>
     </row>
@@ -41003,15 +40973,15 @@
         <f aca="false">IF(VLOOKUP(A33,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A33,EML_Tool_WP!A:BB,2,0))</f>
         <v>Analysis of Shunt Connections for Segmentation</v>
       </c>
-      <c r="C33" s="250" t="n">
+      <c r="C33" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A33,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A33,EML_Tool_WP!A:BB,39,0))</f>
         <v>44044</v>
       </c>
-      <c r="D33" s="250" t="n">
+      <c r="D33" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A33,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A33,EML_Tool_WP!A:BB,40,0))</f>
         <v>43889</v>
       </c>
-      <c r="E33" s="251" t="n">
+      <c r="E33" s="248" t="n">
         <f aca="false">IF(VLOOKUP(A33,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A33,EML_Tool_WP!A:BB,42,0))</f>
         <v>0.983333333333333</v>
       </c>
@@ -41019,18 +40989,18 @@
         <f aca="false">IF(VLOOKUP(A33,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A33,EML_Tool_WP!A:BB,48,0))</f>
         <v>active</v>
       </c>
-      <c r="G33" s="274" t="str">
+      <c r="G33" s="270" t="str">
         <f aca="false">IF(VLOOKUP(A33,EML_Tool_WP!A:BB,50,0)="","",VLOOKUP(A33,EML_Tool_WP!A:BB,50,0))</f>
         <v>Proof of concept of Knowledge distillation and shunt connections for segmentation networks. Provide an easy-to-use open-source software tool for inserting shunt connections into existing Keras networks</v>
       </c>
-      <c r="H33" s="250" t="str">
+      <c r="H33" s="247" t="str">
         <f aca="false">IF(VLOOKUP(A33,EML_Tool_WP!A:BB,52,0)="","",VLOOKUP(A33,EML_Tool_WP!A:BB,52,0))</f>
         <v>[x] Documented results for training shunt connections using knowledge distillation both for classification and segmentation networks (Paper)
 [x] Inference results on NVIDIA, Xilinx and Raspberry Pi platforms
 [] (ME) Shunt connection algorithm Keras based in a repository
 [] (ME) DeeplabV3+MobileNetV3 in a Repository</v>
       </c>
-      <c r="I33" s="250" t="str">
+      <c r="I33" s="247" t="str">
         <f aca="false">IF(VLOOKUP(A33,EML_Tool_WP!A:BB,53,0)="","",VLOOKUP(A33,EML_Tool_WP!A:BB,53,0))</f>
         <v>* Inference results only on NVIDIA
 * Shunt algorithm for SSD-MobileNetV2 too</v>
@@ -41048,15 +41018,15 @@
         <f aca="false">IF(VLOOKUP(A34,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A34,EML_Tool_WP!A:BB,2,0))</f>
         <v>Evaluate Performance of SqueezeNas Models</v>
       </c>
-      <c r="C34" s="250" t="n">
+      <c r="C34" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A34,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A34,EML_Tool_WP!A:BB,39,0))</f>
         <v>43922</v>
       </c>
-      <c r="D34" s="250" t="n">
+      <c r="D34" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A34,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A34,EML_Tool_WP!A:BB,40,0))</f>
         <v>44227</v>
       </c>
-      <c r="E34" s="251" t="n">
+      <c r="E34" s="248" t="n">
         <f aca="false">IF(VLOOKUP(A34,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A34,EML_Tool_WP!A:BB,42,0))</f>
         <v>1</v>
       </c>
@@ -41064,18 +41034,18 @@
         <f aca="false">IF(VLOOKUP(A34,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A34,EML_Tool_WP!A:BB,48,0))</f>
         <v>completed</v>
       </c>
-      <c r="G34" s="274" t="str">
+      <c r="G34" s="270" t="str">
         <f aca="false">IF(VLOOKUP(A34,EML_Tool_WP!A:BB,50,0)="","",VLOOKUP(A34,EML_Tool_WP!A:BB,50,0))</f>
         <v>Retraining the SqueezeNAS networks on the RailSem dataset and comparing the inference results on Xavier with the results of CityScape. Compare performance to Shunt connections. Network generation for hardware</v>
       </c>
-      <c r="H34" s="250" t="str">
+      <c r="H34" s="247" t="str">
         <f aca="false">IF(VLOOKUP(A34,EML_Tool_WP!A:BB,52,0)="","",VLOOKUP(A34,EML_Tool_WP!A:BB,52,0))</f>
         <v>[x] (ME) Report: Preprocessing of the data, Latency values on NVIDIA Xavier, IoU scores for the RailSem
 [x] Comparison of RailSem and CityScape on squeezenas
 [x] Performance and latency comparison with DeepLab
 [x] Github repo with experiment</v>
       </c>
-      <c r="I34" s="250" t="str">
+      <c r="I34" s="247" t="str">
         <f aca="false">IF(VLOOKUP(A34,EML_Tool_WP!A:BB,53,0)="","",VLOOKUP(A34,EML_Tool_WP!A:BB,53,0))</f>
         <v>*Retraining of existing Xavier models possible
 *New architectures not possible
@@ -41094,15 +41064,15 @@
         <f aca="false">IF(VLOOKUP(A35,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A35,EML_Tool_WP!A:BB,2,0))</f>
         <v>Common Backbone for semantic and instance Segmentation</v>
       </c>
-      <c r="C35" s="250" t="n">
+      <c r="C35" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A35,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A35,EML_Tool_WP!A:BB,39,0))</f>
         <v>44075</v>
       </c>
-      <c r="D35" s="250" t="n">
+      <c r="D35" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A35,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A35,EML_Tool_WP!A:BB,40,0))</f>
         <v>44316</v>
       </c>
-      <c r="E35" s="251" t="n">
+      <c r="E35" s="248" t="n">
         <f aca="false">IF(VLOOKUP(A35,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A35,EML_Tool_WP!A:BB,42,0))</f>
         <v>0.275</v>
       </c>
@@ -41110,16 +41080,16 @@
         <f aca="false">IF(VLOOKUP(A35,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A35,EML_Tool_WP!A:BB,48,0))</f>
         <v>active</v>
       </c>
-      <c r="G35" s="274" t="str">
+      <c r="G35" s="270" t="str">
         <f aca="false">IF(VLOOKUP(A35,EML_Tool_WP!A:BB,50,0)="","",VLOOKUP(A35,EML_Tool_WP!A:BB,50,0))</f>
         <v>Analysis whether a common MobileNet backbone for object detection and segmentation is faster and provides better performance as separated networks</v>
       </c>
-      <c r="H35" s="250" t="str">
+      <c r="H35" s="247" t="str">
         <f aca="false">IF(VLOOKUP(A35,EML_Tool_WP!A:BB,52,0)="","",VLOOKUP(A35,EML_Tool_WP!A:BB,52,0))</f>
         <v>[] (ME) Comparison acc and latency NVIDIA device of common backbone vs. separate networks
 [] (ME) Common backbone implementation in repo</v>
       </c>
-      <c r="I35" s="250" t="str">
+      <c r="I35" s="247" t="str">
         <f aca="false">IF(VLOOKUP(A35,EML_Tool_WP!A:BB,53,0)="","",VLOOKUP(A35,EML_Tool_WP!A:BB,53,0))</f>
         <v/>
       </c>
@@ -41129,38 +41099,38 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="28.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="242" t="s">
+      <c r="A36" s="240" t="s">
         <v>462</v>
       </c>
-      <c r="B36" s="243" t="str">
+      <c r="B36" s="229" t="str">
         <f aca="false">IF(VLOOKUP(A36,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A36,EML_Tool_WP!A:BB,2,0))</f>
         <v>Comparison of YoloV3 vs. YoloV4 on a Xilinx</v>
       </c>
-      <c r="C36" s="250" t="n">
+      <c r="C36" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A36,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A36,EML_Tool_WP!A:BB,39,0))</f>
         <v>44256</v>
       </c>
-      <c r="D36" s="250" t="n">
+      <c r="D36" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A36,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A36,EML_Tool_WP!A:BB,40,0))</f>
         <v>44439</v>
       </c>
-      <c r="E36" s="251" t="n">
+      <c r="E36" s="248" t="n">
         <f aca="false">IF(VLOOKUP(A36,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A36,EML_Tool_WP!A:BB,42,0))</f>
         <v>0</v>
       </c>
-      <c r="F36" s="243" t="str">
+      <c r="F36" s="229" t="str">
         <f aca="false">IF(VLOOKUP(A36,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A36,EML_Tool_WP!A:BB,48,0))</f>
         <v>active</v>
       </c>
-      <c r="G36" s="274" t="str">
+      <c r="G36" s="270" t="str">
         <f aca="false">IF(VLOOKUP(A36,EML_Tool_WP!A:BB,50,0)="","",VLOOKUP(A36,EML_Tool_WP!A:BB,50,0))</f>
         <v/>
       </c>
-      <c r="H36" s="250" t="str">
+      <c r="H36" s="247" t="str">
         <f aca="false">IF(VLOOKUP(A36,EML_Tool_WP!A:BB,52,0)="","",VLOOKUP(A36,EML_Tool_WP!A:BB,52,0))</f>
         <v/>
       </c>
-      <c r="I36" s="250" t="str">
+      <c r="I36" s="247" t="str">
         <f aca="false">IF(VLOOKUP(A36,EML_Tool_WP!A:BB,53,0)="","",VLOOKUP(A36,EML_Tool_WP!A:BB,53,0))</f>
         <v/>
       </c>
@@ -41169,25 +41139,25 @@
         <v/>
       </c>
     </row>
-    <row r="37" s="237" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="239" t="s">
+    <row r="37" s="236" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="238" t="s">
         <v>469</v>
       </c>
-      <c r="B37" s="240" t="str">
+      <c r="B37" s="239" t="str">
         <f aca="false">IF(VLOOKUP(A37,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A37,EML_Tool_WP!A:BB,2,0))</f>
         <v>Optimization Strategy</v>
       </c>
-      <c r="C37" s="259"/>
-      <c r="D37" s="240"/>
-      <c r="E37" s="257" t="n">
+      <c r="C37" s="256"/>
+      <c r="D37" s="239"/>
+      <c r="E37" s="254" t="n">
         <f aca="false">IF(VLOOKUP(A37,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A37,EML_Tool_WP!A:BB,42,0))</f>
         <v>0.571176470588235</v>
       </c>
-      <c r="F37" s="241"/>
-      <c r="G37" s="275"/>
-      <c r="H37" s="240"/>
-      <c r="I37" s="240"/>
-      <c r="J37" s="273" t="s">
+      <c r="F37" s="239"/>
+      <c r="G37" s="271"/>
+      <c r="H37" s="239"/>
+      <c r="I37" s="239"/>
+      <c r="J37" s="269" t="s">
         <v>664</v>
       </c>
     </row>
@@ -41199,15 +41169,15 @@
         <f aca="false">IF(VLOOKUP(A38,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A38,EML_Tool_WP!A:BB,2,0))</f>
         <v>Setup Training on Server EDA01 and EDA02</v>
       </c>
-      <c r="C38" s="250" t="n">
+      <c r="C38" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A38,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A38,EML_Tool_WP!A:BB,39,0))</f>
         <v>43952</v>
       </c>
-      <c r="D38" s="250" t="n">
+      <c r="D38" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A38,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A38,EML_Tool_WP!A:BB,40,0))</f>
         <v>44227</v>
       </c>
-      <c r="E38" s="251" t="n">
+      <c r="E38" s="248" t="n">
         <f aca="false">IF(VLOOKUP(A38,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A38,EML_Tool_WP!A:BB,42,0))</f>
         <v>1</v>
       </c>
@@ -41215,16 +41185,16 @@
         <f aca="false">IF(VLOOKUP(A38,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A38,EML_Tool_WP!A:BB,48,0))</f>
         <v>Completed</v>
       </c>
-      <c r="G38" s="274" t="str">
+      <c r="G38" s="270" t="str">
         <f aca="false">IF(VLOOKUP(A38,EML_Tool_WP!A:BB,50,0)="","",VLOOKUP(A38,EML_Tool_WP!A:BB,50,0))</f>
         <v>Server ready for training</v>
       </c>
-      <c r="H38" s="250" t="str">
+      <c r="H38" s="247" t="str">
         <f aca="false">IF(VLOOKUP(A38,EML_Tool_WP!A:BB,52,0)="","",VLOOKUP(A38,EML_Tool_WP!A:BB,52,0))</f>
         <v>[x] Guides on how to setup EDA01 for different environments and training
 [x] Environments ready: Tensorflow 2, Pytorch</v>
       </c>
-      <c r="I38" s="250" t="str">
+      <c r="I38" s="247" t="str">
         <f aca="false">IF(VLOOKUP(A38,EML_Tool_WP!A:BB,53,0)="","",VLOOKUP(A38,EML_Tool_WP!A:BB,53,0))</f>
         <v>* https://github.com/embedded-machine-learning/scripts-and-guides/blob/main/guides/task_spooler_manual.md</v>
       </c>
@@ -41241,15 +41211,15 @@
         <f aca="false">IF(VLOOKUP(A39,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A39,EML_Tool_WP!A:BB,2,0))</f>
         <v>Setup External Training on Cloud and Vienna Scientific Cluster</v>
       </c>
-      <c r="C39" s="250" t="n">
+      <c r="C39" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A39,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A39,EML_Tool_WP!A:BB,39,0))</f>
         <v>44105</v>
       </c>
-      <c r="D39" s="250" t="n">
+      <c r="D39" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A39,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A39,EML_Tool_WP!A:BB,40,0))</f>
         <v>44316</v>
       </c>
-      <c r="E39" s="251" t="n">
+      <c r="E39" s="248" t="n">
         <f aca="false">IF(VLOOKUP(A39,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A39,EML_Tool_WP!A:BB,42,0))</f>
         <v>0.971428571428571</v>
       </c>
@@ -41257,16 +41227,16 @@
         <f aca="false">IF(VLOOKUP(A39,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A39,EML_Tool_WP!A:BB,48,0))</f>
         <v>active</v>
       </c>
-      <c r="G39" s="274" t="str">
+      <c r="G39" s="270" t="str">
         <f aca="false">IF(VLOOKUP(A39,EML_Tool_WP!A:BB,50,0)="","",VLOOKUP(A39,EML_Tool_WP!A:BB,50,0))</f>
         <v>External services ready for training with our networks</v>
       </c>
-      <c r="H39" s="250" t="str">
+      <c r="H39" s="247" t="str">
         <f aca="false">IF(VLOOKUP(A39,EML_Tool_WP!A:BB,52,0)="","",VLOOKUP(A39,EML_Tool_WP!A:BB,52,0))</f>
         <v>[x] Training possible with TF2 and Pytorch on Vienna Scientific Cluster
 [] Guide how to train on Microsoft Azure</v>
       </c>
-      <c r="I39" s="250" t="str">
+      <c r="I39" s="247" t="str">
         <f aca="false">IF(VLOOKUP(A39,EML_Tool_WP!A:BB,53,0)="","",VLOOKUP(A39,EML_Tool_WP!A:BB,53,0))</f>
         <v>* Demonstration through work of BH
 * Guide Scientific Cluster: \\fileserver\Projects\SoC_EML\02_Documentation\11_Tutorials\Vienna_Scientific_Cluster
@@ -41285,15 +41255,15 @@
         <f aca="false">IF(VLOOKUP(A40,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A40,EML_Tool_WP!A:BB,2,0))</f>
         <v>Common Measurement Database for Hardware Inference</v>
       </c>
-      <c r="C40" s="250" t="str">
+      <c r="C40" s="247" t="str">
         <f aca="false">IF(VLOOKUP(A40,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A40,EML_Tool_WP!A:BB,39,0))</f>
         <v/>
       </c>
-      <c r="D40" s="250" t="str">
+      <c r="D40" s="247" t="str">
         <f aca="false">IF(VLOOKUP(A40,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A40,EML_Tool_WP!A:BB,40,0))</f>
         <v/>
       </c>
-      <c r="E40" s="251" t="n">
+      <c r="E40" s="248" t="n">
         <f aca="false">IF(VLOOKUP(A40,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A40,EML_Tool_WP!A:BB,42,0))</f>
         <v>0</v>
       </c>
@@ -41301,15 +41271,15 @@
         <f aca="false">IF(VLOOKUP(A40,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A40,EML_Tool_WP!A:BB,48,0))</f>
         <v>open</v>
       </c>
-      <c r="G40" s="274" t="str">
+      <c r="G40" s="270" t="str">
         <f aca="false">IF(VLOOKUP(A40,EML_Tool_WP!A:BB,50,0)="","",VLOOKUP(A40,EML_Tool_WP!A:BB,50,0))</f>
         <v/>
       </c>
-      <c r="H40" s="250" t="str">
+      <c r="H40" s="247" t="str">
         <f aca="false">IF(VLOOKUP(A40,EML_Tool_WP!A:BB,52,0)="","",VLOOKUP(A40,EML_Tool_WP!A:BB,52,0))</f>
         <v/>
       </c>
-      <c r="I40" s="250" t="str">
+      <c r="I40" s="247" t="str">
         <f aca="false">IF(VLOOKUP(A40,EML_Tool_WP!A:BB,53,0)="","",VLOOKUP(A40,EML_Tool_WP!A:BB,53,0))</f>
         <v/>
       </c>
@@ -41326,15 +41296,15 @@
         <f aca="false">IF(VLOOKUP(A41,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A41,EML_Tool_WP!A:BB,2,0))</f>
         <v>Automation and Simplification of the EML Process</v>
       </c>
-      <c r="C41" s="250" t="n">
+      <c r="C41" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A41,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A41,EML_Tool_WP!A:BB,39,0))</f>
         <v>44228</v>
       </c>
-      <c r="D41" s="250" t="n">
+      <c r="D41" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A41,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A41,EML_Tool_WP!A:BB,40,0))</f>
         <v>44469</v>
       </c>
-      <c r="E41" s="251" t="n">
+      <c r="E41" s="248" t="n">
         <f aca="false">IF(VLOOKUP(A41,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A41,EML_Tool_WP!A:BB,42,0))</f>
         <v>0.15</v>
       </c>
@@ -41342,15 +41312,15 @@
         <f aca="false">IF(VLOOKUP(A41,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A41,EML_Tool_WP!A:BB,48,0))</f>
         <v>open</v>
       </c>
-      <c r="G41" s="274" t="str">
+      <c r="G41" s="270" t="str">
         <f aca="false">IF(VLOOKUP(A41,EML_Tool_WP!A:BB,50,0)="","",VLOOKUP(A41,EML_Tool_WP!A:BB,50,0))</f>
         <v/>
       </c>
-      <c r="H41" s="250" t="str">
+      <c r="H41" s="247" t="str">
         <f aca="false">IF(VLOOKUP(A41,EML_Tool_WP!A:BB,52,0)="","",VLOOKUP(A41,EML_Tool_WP!A:BB,52,0))</f>
         <v/>
       </c>
-      <c r="I41" s="250" t="str">
+      <c r="I41" s="247" t="str">
         <f aca="false">IF(VLOOKUP(A41,EML_Tool_WP!A:BB,53,0)="","",VLOOKUP(A41,EML_Tool_WP!A:BB,53,0))</f>
         <v/>
       </c>
@@ -41360,40 +41330,40 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="57.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="242" t="s">
+      <c r="A42" s="240" t="s">
         <v>536</v>
       </c>
-      <c r="B42" s="243" t="str">
+      <c r="B42" s="229" t="str">
         <f aca="false">IF(VLOOKUP(A42,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A42,EML_Tool_WP!A:BB,2,0))</f>
         <v>Application: Traffic Light System</v>
       </c>
-      <c r="C42" s="250" t="n">
+      <c r="C42" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A42,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A42,EML_Tool_WP!A:BB,39,0))</f>
         <v>43891</v>
       </c>
-      <c r="D42" s="250" t="n">
+      <c r="D42" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A42,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A42,EML_Tool_WP!A:BB,40,0))</f>
         <v>44316</v>
       </c>
-      <c r="E42" s="251" t="n">
+      <c r="E42" s="248" t="n">
         <f aca="false">IF(VLOOKUP(A42,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A42,EML_Tool_WP!A:BB,42,0))</f>
         <v>0.358333333333333</v>
       </c>
-      <c r="F42" s="243" t="str">
+      <c r="F42" s="229" t="str">
         <f aca="false">IF(VLOOKUP(A42,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A42,EML_Tool_WP!A:BB,48,0))</f>
         <v>active</v>
       </c>
-      <c r="G42" s="274" t="str">
+      <c r="G42" s="270" t="str">
         <f aca="false">IF(VLOOKUP(A42,EML_Tool_WP!A:BB,50,0)="","",VLOOKUP(A42,EML_Tool_WP!A:BB,50,0))</f>
         <v>Optimal network, hardware and hardware configuration</v>
       </c>
-      <c r="H42" s="250" t="str">
+      <c r="H42" s="247" t="str">
         <f aca="false">IF(VLOOKUP(A42,EML_Tool_WP!A:BB,52,0)="","",VLOOKUP(A42,EML_Tool_WP!A:BB,52,0))</f>
         <v>[] (TUG) Documented evaluation of EfficientDet, SSD-MobileNet and Yolo on NVIDIA, Edge TPU and NCS2
 [] Optimal Network+Optimizer+Hardware as code
 [] Pedestrian training dataset created from official sources</v>
       </c>
-      <c r="I42" s="250" t="str">
+      <c r="I42" s="247" t="str">
         <f aca="false">IF(VLOOKUP(A42,EML_Tool_WP!A:BB,53,0)="","",VLOOKUP(A42,EML_Tool_WP!A:BB,53,0))</f>
         <v/>
       </c>
@@ -41410,15 +41380,15 @@
         <f aca="false">IF(VLOOKUP(A43,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A43,EML_Tool_WP!A:BB,2,0))</f>
         <v>Application: Ragweed Recognition Through a Drone</v>
       </c>
-      <c r="C43" s="250" t="n">
+      <c r="C43" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A43,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A43,EML_Tool_WP!A:BB,39,0))</f>
         <v>44044</v>
       </c>
-      <c r="D43" s="250" t="n">
+      <c r="D43" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A43,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A43,EML_Tool_WP!A:BB,40,0))</f>
         <v>44286</v>
       </c>
-      <c r="E43" s="251" t="n">
+      <c r="E43" s="248" t="n">
         <f aca="false">IF(VLOOKUP(A43,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A43,EML_Tool_WP!A:BB,42,0))</f>
         <v>0.441538461538462</v>
       </c>
@@ -41426,17 +41396,17 @@
         <f aca="false">IF(VLOOKUP(A43,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A43,EML_Tool_WP!A:BB,48,0))</f>
         <v>active</v>
       </c>
-      <c r="G43" s="274" t="str">
+      <c r="G43" s="270" t="str">
         <f aca="false">IF(VLOOKUP(A43,EML_Tool_WP!A:BB,50,0)="","",VLOOKUP(A43,EML_Tool_WP!A:BB,50,0))</f>
         <v>Optimal network, hardware and hardware configuration</v>
       </c>
-      <c r="H43" s="250" t="str">
+      <c r="H43" s="247" t="str">
         <f aca="false">IF(VLOOKUP(A43,EML_Tool_WP!A:BB,52,0)="","",VLOOKUP(A43,EML_Tool_WP!A:BB,52,0))</f>
         <v>[] Documentation of evaluation of performance and latency of segmentation network on NVIDIA 
 [] Trained network and data in repository
 [] Ragweed dataset on fileserver</v>
       </c>
-      <c r="I43" s="250" t="str">
+      <c r="I43" s="247" t="str">
         <f aca="false">IF(VLOOKUP(A43,EML_Tool_WP!A:BB,53,0)="","",VLOOKUP(A43,EML_Tool_WP!A:BB,53,0))</f>
         <v/>
       </c>
@@ -41453,15 +41423,15 @@
         <f aca="false">IF(VLOOKUP(A44,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A44,EML_Tool_WP!A:BB,2,0))</f>
         <v>Application: Minicar Demonstrator</v>
       </c>
-      <c r="C44" s="250" t="n">
+      <c r="C44" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A44,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A44,EML_Tool_WP!A:BB,39,0))</f>
         <v>43831</v>
       </c>
-      <c r="D44" s="250" t="n">
+      <c r="D44" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A44,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A44,EML_Tool_WP!A:BB,40,0))</f>
         <v>44227</v>
       </c>
-      <c r="E44" s="251" t="n">
+      <c r="E44" s="248" t="n">
         <f aca="false">IF(VLOOKUP(A44,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A44,EML_Tool_WP!A:BB,42,0))</f>
         <v>0.933333333333333</v>
       </c>
@@ -41469,18 +41439,18 @@
         <f aca="false">IF(VLOOKUP(A44,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A44,EML_Tool_WP!A:BB,48,0))</f>
         <v>active</v>
       </c>
-      <c r="G44" s="274" t="str">
+      <c r="G44" s="270" t="str">
         <f aca="false">IF(VLOOKUP(A44,EML_Tool_WP!A:BB,50,0)="","",VLOOKUP(A44,EML_Tool_WP!A:BB,50,0))</f>
         <v>Running demonstrator for neural networks</v>
       </c>
-      <c r="H44" s="250" t="str">
+      <c r="H44" s="247" t="str">
         <f aca="false">IF(VLOOKUP(A44,EML_Tool_WP!A:BB,52,0)="","",VLOOKUP(A44,EML_Tool_WP!A:BB,52,0))</f>
         <v>[x] Modified model car, which can be controlled by WiFI, video feed with camera image, bounding boxes with classes painted into the image by an object detection network
 [] Software project with scripts necessary to run the demonstrator in repository
 [] Written thesis about the demonstrator
 [x] Video with visible comparsion of networks and modi published on homepage</v>
       </c>
-      <c r="I44" s="250" t="str">
+      <c r="I44" s="247" t="str">
         <f aca="false">IF(VLOOKUP(A44,EML_Tool_WP!A:BB,53,0)="","",VLOOKUP(A44,EML_Tool_WP!A:BB,53,0))</f>
         <v>* Car finished</v>
       </c>
@@ -41490,40 +41460,40 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="57.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="242" t="s">
+      <c r="A45" s="240" t="s">
         <v>591</v>
       </c>
-      <c r="B45" s="243" t="str">
+      <c r="B45" s="229" t="str">
         <f aca="false">IF(VLOOKUP(A45,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A45,EML_Tool_WP!A:BB,2,0))</f>
         <v>Application: Tensorflow Lite Object Detection on an Android Smart Phone</v>
       </c>
-      <c r="C45" s="250" t="n">
+      <c r="C45" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A45,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A45,EML_Tool_WP!A:BB,39,0))</f>
         <v>44105</v>
       </c>
-      <c r="D45" s="250" t="n">
+      <c r="D45" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A45,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A45,EML_Tool_WP!A:BB,40,0))</f>
         <v>44255</v>
       </c>
-      <c r="E45" s="251" t="n">
+      <c r="E45" s="248" t="n">
         <f aca="false">IF(VLOOKUP(A45,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A45,EML_Tool_WP!A:BB,42,0))</f>
         <v>0.566666666666667</v>
       </c>
-      <c r="F45" s="243" t="str">
+      <c r="F45" s="229" t="str">
         <f aca="false">IF(VLOOKUP(A45,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A45,EML_Tool_WP!A:BB,48,0))</f>
         <v>active</v>
       </c>
-      <c r="G45" s="274" t="str">
+      <c r="G45" s="270" t="str">
         <f aca="false">IF(VLOOKUP(A45,EML_Tool_WP!A:BB,50,0)="","",VLOOKUP(A45,EML_Tool_WP!A:BB,50,0))</f>
         <v>Android handy with custom object detection in TF</v>
       </c>
-      <c r="H45" s="250" t="str">
+      <c r="H45" s="247" t="str">
         <f aca="false">IF(VLOOKUP(A45,EML_Tool_WP!A:BB,52,0)="","",VLOOKUP(A45,EML_Tool_WP!A:BB,52,0))</f>
         <v>[] Guide how to setup app for TF Obj. Detection API TF2
 [] App installed on mobile phone
 [] Coco Pretrained test network</v>
       </c>
-      <c r="I45" s="250" t="str">
+      <c r="I45" s="247" t="str">
         <f aca="false">IF(VLOOKUP(A45,EML_Tool_WP!A:BB,53,0)="","",VLOOKUP(A45,EML_Tool_WP!A:BB,53,0))</f>
         <v/>
       </c>
@@ -41533,39 +41503,39 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="86.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="242" t="s">
+      <c r="A46" s="240" t="s">
         <v>607</v>
       </c>
-      <c r="B46" s="243" t="str">
+      <c r="B46" s="229" t="str">
         <f aca="false">IF(VLOOKUP(A46,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A46,EML_Tool_WP!A:BB,2,0))</f>
         <v>Hyper Parameterization Optimization through a Two-Phase-Search</v>
       </c>
-      <c r="C46" s="250" t="n">
+      <c r="C46" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A46,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A46,EML_Tool_WP!A:BB,39,0))</f>
         <v>43831</v>
       </c>
-      <c r="D46" s="250" t="n">
+      <c r="D46" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A46,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A46,EML_Tool_WP!A:BB,40,0))</f>
         <v>44104</v>
       </c>
-      <c r="E46" s="251" t="n">
+      <c r="E46" s="248" t="n">
         <f aca="false">IF(VLOOKUP(A46,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A46,EML_Tool_WP!A:BB,42,0))</f>
         <v>1</v>
       </c>
-      <c r="F46" s="243" t="str">
+      <c r="F46" s="229" t="str">
         <f aca="false">IF(VLOOKUP(A46,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A46,EML_Tool_WP!A:BB,48,0))</f>
         <v>completed</v>
       </c>
-      <c r="G46" s="274" t="str">
+      <c r="G46" s="270" t="str">
         <f aca="false">IF(VLOOKUP(A46,EML_Tool_WP!A:BB,50,0)="","",VLOOKUP(A46,EML_Tool_WP!A:BB,50,0))</f>
         <v>Find out how to speed up common SVM and RF search methods</v>
       </c>
-      <c r="H46" s="250" t="str">
+      <c r="H46" s="247" t="str">
         <f aca="false">IF(VLOOKUP(A46,EML_Tool_WP!A:BB,52,0)="","",VLOOKUP(A46,EML_Tool_WP!A:BB,52,0))</f>
         <v>[x] Thesis with anaylsis of search
 [x] Publication for IECON with results</v>
       </c>
-      <c r="I46" s="250" t="str">
+      <c r="I46" s="247" t="str">
         <f aca="false">IF(VLOOKUP(A46,EML_Tool_WP!A:BB,53,0)="","",VLOOKUP(A46,EML_Tool_WP!A:BB,53,0))</f>
         <v>*Thesis: 20191212_BA_Marco_Wuschning_EML_Hyperopt_closed
 * Publication: 20200617_Hyperparameter_Optimization_IECON
@@ -41577,92 +41547,92 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="244"/>
-      <c r="B47" s="245"/>
-      <c r="C47" s="262"/>
-      <c r="D47" s="262"/>
-      <c r="E47" s="263"/>
-      <c r="F47" s="245"/>
-      <c r="G47" s="276"/>
-      <c r="H47" s="262"/>
-      <c r="I47" s="262"/>
+      <c r="A47" s="241"/>
+      <c r="B47" s="242"/>
+      <c r="C47" s="258"/>
+      <c r="D47" s="258"/>
+      <c r="E47" s="259"/>
+      <c r="F47" s="242"/>
+      <c r="G47" s="272"/>
+      <c r="H47" s="258"/>
+      <c r="I47" s="258"/>
     </row>
     <row r="48" customFormat="false" ht="14.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="244"/>
-      <c r="B48" s="245"/>
-      <c r="C48" s="262"/>
-      <c r="D48" s="262"/>
-      <c r="E48" s="263"/>
-      <c r="F48" s="245"/>
-      <c r="G48" s="276"/>
-      <c r="H48" s="262"/>
-      <c r="I48" s="262"/>
+      <c r="A48" s="241"/>
+      <c r="B48" s="242"/>
+      <c r="C48" s="258"/>
+      <c r="D48" s="258"/>
+      <c r="E48" s="259"/>
+      <c r="F48" s="242"/>
+      <c r="G48" s="272"/>
+      <c r="H48" s="258"/>
+      <c r="I48" s="258"/>
     </row>
     <row r="49" customFormat="false" ht="14.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="244"/>
-      <c r="B49" s="245"/>
-      <c r="C49" s="262"/>
-      <c r="D49" s="262"/>
-      <c r="E49" s="263"/>
-      <c r="F49" s="245"/>
-      <c r="G49" s="276"/>
-      <c r="H49" s="262"/>
-      <c r="I49" s="262"/>
+      <c r="A49" s="241"/>
+      <c r="B49" s="242"/>
+      <c r="C49" s="258"/>
+      <c r="D49" s="258"/>
+      <c r="E49" s="259"/>
+      <c r="F49" s="242"/>
+      <c r="G49" s="272"/>
+      <c r="H49" s="258"/>
+      <c r="I49" s="258"/>
     </row>
     <row r="50" customFormat="false" ht="14.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="244"/>
-      <c r="B50" s="245"/>
-      <c r="C50" s="262"/>
-      <c r="D50" s="262"/>
-      <c r="E50" s="263"/>
-      <c r="F50" s="245"/>
-      <c r="G50" s="276"/>
-      <c r="H50" s="262"/>
-      <c r="I50" s="262"/>
+      <c r="A50" s="241"/>
+      <c r="B50" s="242"/>
+      <c r="C50" s="258"/>
+      <c r="D50" s="258"/>
+      <c r="E50" s="259"/>
+      <c r="F50" s="242"/>
+      <c r="G50" s="272"/>
+      <c r="H50" s="258"/>
+      <c r="I50" s="258"/>
     </row>
     <row r="51" customFormat="false" ht="14.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="244"/>
-      <c r="B51" s="245"/>
-      <c r="C51" s="262"/>
-      <c r="D51" s="262"/>
-      <c r="E51" s="263"/>
-      <c r="F51" s="245"/>
-      <c r="G51" s="276"/>
-      <c r="H51" s="262"/>
-      <c r="I51" s="262"/>
+      <c r="A51" s="241"/>
+      <c r="B51" s="242"/>
+      <c r="C51" s="258"/>
+      <c r="D51" s="258"/>
+      <c r="E51" s="259"/>
+      <c r="F51" s="242"/>
+      <c r="G51" s="272"/>
+      <c r="H51" s="258"/>
+      <c r="I51" s="258"/>
     </row>
     <row r="52" customFormat="false" ht="14.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="244"/>
-      <c r="B52" s="245"/>
-      <c r="C52" s="262"/>
-      <c r="D52" s="262"/>
-      <c r="E52" s="263"/>
-      <c r="F52" s="245"/>
-      <c r="G52" s="276"/>
-      <c r="H52" s="262"/>
-      <c r="I52" s="262"/>
+      <c r="A52" s="241"/>
+      <c r="B52" s="242"/>
+      <c r="C52" s="258"/>
+      <c r="D52" s="258"/>
+      <c r="E52" s="259"/>
+      <c r="F52" s="242"/>
+      <c r="G52" s="272"/>
+      <c r="H52" s="258"/>
+      <c r="I52" s="258"/>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="246"/>
-      <c r="B53" s="247"/>
-      <c r="C53" s="265"/>
-      <c r="D53" s="247"/>
-      <c r="E53" s="266"/>
-      <c r="F53" s="247"/>
-      <c r="G53" s="277"/>
-      <c r="H53" s="247"/>
-      <c r="I53" s="247"/>
+      <c r="A53" s="243"/>
+      <c r="B53" s="244"/>
+      <c r="C53" s="261"/>
+      <c r="D53" s="244"/>
+      <c r="E53" s="262"/>
+      <c r="F53" s="244"/>
+      <c r="G53" s="273"/>
+      <c r="H53" s="244"/>
+      <c r="I53" s="244"/>
     </row>
     <row r="54" customFormat="false" ht="14.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="248"/>
-      <c r="B54" s="249"/>
-      <c r="C54" s="268"/>
-      <c r="D54" s="249"/>
-      <c r="E54" s="269"/>
-      <c r="F54" s="249"/>
-      <c r="G54" s="278"/>
-      <c r="H54" s="249"/>
-      <c r="I54" s="249"/>
+      <c r="A54" s="245"/>
+      <c r="B54" s="246"/>
+      <c r="C54" s="264"/>
+      <c r="D54" s="246"/>
+      <c r="E54" s="265"/>
+      <c r="F54" s="246"/>
+      <c r="G54" s="274"/>
+      <c r="H54" s="246"/>
+      <c r="I54" s="246"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:J54"/>
@@ -41689,7 +41659,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -41699,17 +41669,16 @@
       <selection pane="topLeft" activeCell="F29" activeCellId="0" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.56640625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="228" width="8.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="229" width="54.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="250" width="10.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="247" width="10.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="229" width="10.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="229" width="15.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="229" width="15.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="251" width="8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="230" width="11.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="248" width="8"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="9" style="230" width="11.56"/>
   </cols>
   <sheetData>
     <row r="1" s="233" customFormat="true" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -41719,7 +41688,7 @@
       <c r="B1" s="232" t="s">
         <v>657</v>
       </c>
-      <c r="C1" s="253" t="s">
+      <c r="C1" s="250" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="232" t="s">
@@ -41731,11 +41700,11 @@
       <c r="F1" s="232" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="279" t="s">
+      <c r="G1" s="275" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" s="237" customFormat="true" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" s="236" customFormat="true" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="234" t="s">
         <v>25</v>
       </c>
@@ -41743,11 +41712,11 @@
         <f aca="false">IF(VLOOKUP(A2,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A2,EML_Tool_WP!A:BB,2,0))</f>
         <v>Create estimations for lat, throughput, power, energy, acc, resources</v>
       </c>
-      <c r="C2" s="256"/>
+      <c r="C2" s="253"/>
       <c r="D2" s="235"/>
       <c r="E2" s="235"/>
       <c r="F2" s="235"/>
-      <c r="G2" s="280" t="n">
+      <c r="G2" s="276" t="n">
         <f aca="false">IF(VLOOKUP(A2,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A2,EML_Tool_WP!A:BB,42,0))</f>
         <v>0.518918918918919</v>
       </c>
@@ -41760,11 +41729,11 @@
         <f aca="false">IF(VLOOKUP(A3,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A3,EML_Tool_WP!A:BB,2,0))</f>
         <v>State of the Art Latency und Power Estimation Modelle aufsetzen</v>
       </c>
-      <c r="C3" s="250" t="n">
+      <c r="C3" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A3,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A3,EML_Tool_WP!A:BB,39,0))</f>
         <v>44075</v>
       </c>
-      <c r="D3" s="250" t="n">
+      <c r="D3" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A3,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A3,EML_Tool_WP!A:BB,40,0))</f>
         <v>44134</v>
       </c>
@@ -41776,11 +41745,11 @@
         <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A3,EML_Tool_WP!A:BB,46,0),Members!A:B,2,0),"")</f>
         <v/>
       </c>
-      <c r="G3" s="281" t="n">
+      <c r="G3" s="277" t="n">
         <f aca="false">IF(VLOOKUP(A3,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A3,EML_Tool_WP!A:BB,42,0))</f>
         <v>1</v>
       </c>
-      <c r="I3" s="238"/>
+      <c r="I3" s="237"/>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="228" t="s">
@@ -41790,11 +41759,11 @@
         <f aca="false">IF(VLOOKUP(A4,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A4,EML_Tool_WP!A:BB,2,0))</f>
         <v>Latency Estimator Blackthorn (NVIDIA)</v>
       </c>
-      <c r="C4" s="250" t="n">
+      <c r="C4" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A4,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A4,EML_Tool_WP!A:BB,39,0))</f>
         <v>43739</v>
       </c>
-      <c r="D4" s="250" t="n">
+      <c r="D4" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A4,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A4,EML_Tool_WP!A:BB,40,0))</f>
         <v>44469</v>
       </c>
@@ -41806,11 +41775,11 @@
         <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A4,EML_Tool_WP!A:BB,46,0),Members!A:B,2,0),"")</f>
         <v>Martin Lechner</v>
       </c>
-      <c r="G4" s="281" t="n">
+      <c r="G4" s="277" t="n">
         <f aca="false">IF(VLOOKUP(A4,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A4,EML_Tool_WP!A:BB,42,0))</f>
         <v>0.811111111111111</v>
       </c>
-      <c r="I4" s="238"/>
+      <c r="I4" s="237"/>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="228" t="s">
@@ -41820,11 +41789,11 @@
         <f aca="false">IF(VLOOKUP(A5,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A5,EML_Tool_WP!A:BB,2,0))</f>
         <v>Latency Estimator ANETTE (Intel, ARM, Xilinx)</v>
       </c>
-      <c r="C5" s="250" t="n">
+      <c r="C5" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A5,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A5,EML_Tool_WP!A:BB,39,0))</f>
         <v>43739</v>
       </c>
-      <c r="D5" s="250" t="n">
+      <c r="D5" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A5,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A5,EML_Tool_WP!A:BB,40,0))</f>
         <v>44469</v>
       </c>
@@ -41836,11 +41805,11 @@
         <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A5,EML_Tool_WP!A:BB,46,0),Members!A:B,2,0),"")</f>
         <v>Matthias Wess</v>
       </c>
-      <c r="G5" s="281" t="n">
+      <c r="G5" s="277" t="n">
         <f aca="false">IF(VLOOKUP(A5,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A5,EML_Tool_WP!A:BB,42,0))</f>
         <v>0.854545454545455</v>
       </c>
-      <c r="I5" s="238"/>
+      <c r="I5" s="237"/>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="228" t="s">
@@ -41850,11 +41819,11 @@
         <f aca="false">IF(VLOOKUP(A6,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A6,EML_Tool_WP!A:BB,2,0))</f>
         <v>Power Estimator through Christian's Model</v>
       </c>
-      <c r="C6" s="250" t="n">
+      <c r="C6" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A6,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A6,EML_Tool_WP!A:BB,39,0))</f>
         <v>44044</v>
       </c>
-      <c r="D6" s="250" t="n">
+      <c r="D6" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A6,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A6,EML_Tool_WP!A:BB,40,0))</f>
         <v>44134</v>
       </c>
@@ -41866,42 +41835,42 @@
         <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A6,EML_Tool_WP!A:BB,46,0),Members!A:B,2,0),"")</f>
         <v/>
       </c>
-      <c r="G6" s="281" t="n">
+      <c r="G6" s="277" t="n">
         <f aca="false">IF(VLOOKUP(A6,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A6,EML_Tool_WP!A:BB,42,0))</f>
         <v>0</v>
       </c>
-      <c r="I6" s="238"/>
-    </row>
-    <row r="7" s="288" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="282" t="s">
+      <c r="I6" s="237"/>
+    </row>
+    <row r="7" s="284" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="278" t="s">
         <v>97</v>
       </c>
-      <c r="B7" s="283" t="str">
+      <c r="B7" s="279" t="str">
         <f aca="false">IF(VLOOKUP(A7,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A7,EML_Tool_WP!A:BB,2,0))</f>
         <v>Power Estimator through ANNETTE</v>
       </c>
-      <c r="C7" s="284" t="n">
+      <c r="C7" s="280" t="n">
         <f aca="false">IF(VLOOKUP(A7,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A7,EML_Tool_WP!A:BB,39,0))</f>
         <v>44146</v>
       </c>
-      <c r="D7" s="284" t="n">
+      <c r="D7" s="280" t="n">
         <f aca="false">IF(VLOOKUP(A7,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A7,EML_Tool_WP!A:BB,40,0))</f>
         <v>44439</v>
       </c>
-      <c r="E7" s="283" t="str">
+      <c r="E7" s="279" t="str">
         <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A7,EML_Tool_WP!A:BB,45,0),Members!A:B,2,0),"ERROR")</f>
         <v>Christian Krieg</v>
       </c>
-      <c r="F7" s="283" t="str">
+      <c r="F7" s="279" t="str">
         <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A7,EML_Tool_WP!A:BB,46,0),Members!A:B,2,0),"")</f>
         <v>Nikolas Alge</v>
       </c>
-      <c r="G7" s="285" t="n">
+      <c r="G7" s="281" t="n">
         <f aca="false">IF(VLOOKUP(A7,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A7,EML_Tool_WP!A:BB,42,0))</f>
         <v>0.0625</v>
       </c>
-      <c r="H7" s="286"/>
-      <c r="I7" s="287"/>
+      <c r="H7" s="282"/>
+      <c r="I7" s="283"/>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="228" t="s">
@@ -41911,11 +41880,11 @@
         <f aca="false">IF(VLOOKUP(A8,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A8,EML_Tool_WP!A:BB,2,0))</f>
         <v>Estimation of On-Chip Resources</v>
       </c>
-      <c r="C8" s="250" t="n">
+      <c r="C8" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A8,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A8,EML_Tool_WP!A:BB,39,0))</f>
         <v>44470</v>
       </c>
-      <c r="D8" s="250" t="str">
+      <c r="D8" s="247" t="str">
         <f aca="false">IF(VLOOKUP(A8,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A8,EML_Tool_WP!A:BB,40,0))</f>
         <v/>
       </c>
@@ -41927,53 +41896,53 @@
         <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A8,EML_Tool_WP!A:BB,46,0),Members!A:B,2,0),"")</f>
         <v/>
       </c>
-      <c r="G8" s="281" t="n">
+      <c r="G8" s="277" t="n">
         <f aca="false">IF(VLOOKUP(A8,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A8,EML_Tool_WP!A:BB,42,0))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="237" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="239" t="s">
+    <row r="9" s="236" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="238" t="s">
         <v>121</v>
       </c>
-      <c r="B9" s="240" t="str">
+      <c r="B9" s="239" t="str">
         <f aca="false">IF(VLOOKUP(A9,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A9,EML_Tool_WP!A:BB,2,0))</f>
         <v>Optimize HW Dependent Settings</v>
       </c>
-      <c r="C9" s="259"/>
-      <c r="D9" s="240"/>
-      <c r="E9" s="240"/>
-      <c r="F9" s="240"/>
-      <c r="G9" s="280" t="n">
+      <c r="C9" s="256"/>
+      <c r="D9" s="239"/>
+      <c r="E9" s="239"/>
+      <c r="F9" s="239"/>
+      <c r="G9" s="276" t="n">
         <f aca="false">IF(VLOOKUP(A9,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A9,EML_Tool_WP!A:BB,42,0))</f>
         <v>0.406896551724138</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="242" t="s">
+      <c r="A10" s="240" t="s">
         <v>125</v>
       </c>
-      <c r="B10" s="243" t="str">
+      <c r="B10" s="229" t="str">
         <f aca="false">IF(VLOOKUP(A10,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A10,EML_Tool_WP!A:BB,2,0))</f>
         <v>NVIDIA Platform Profiling (Jetson, TC2, Xavier)</v>
       </c>
-      <c r="C10" s="250" t="n">
+      <c r="C10" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A10,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A10,EML_Tool_WP!A:BB,39,0))</f>
         <v>43891</v>
       </c>
-      <c r="D10" s="250" t="n">
+      <c r="D10" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A10,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A10,EML_Tool_WP!A:BB,40,0))</f>
         <v>44286</v>
       </c>
-      <c r="E10" s="243" t="str">
+      <c r="E10" s="229" t="str">
         <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A10,EML_Tool_WP!A:BB,45,0),Members!A:B,2,0),"ERROR")</f>
         <v>Amid Mozelli</v>
       </c>
-      <c r="F10" s="289" t="str">
+      <c r="F10" s="285" t="str">
         <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A10,EML_Tool_WP!A:BB,46,0),Members!A:B,2,0),"")</f>
         <v/>
       </c>
-      <c r="G10" s="281" t="n">
+      <c r="G10" s="277" t="n">
         <f aca="false">IF(VLOOKUP(A10,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A10,EML_Tool_WP!A:BB,42,0))</f>
         <v>0.411111111111111</v>
       </c>
@@ -41986,11 +41955,11 @@
         <f aca="false">IF(VLOOKUP(A11,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A11,EML_Tool_WP!A:BB,2,0))</f>
         <v>ARM Platform Profiling (Rasp. Pi 4)</v>
       </c>
-      <c r="C11" s="250" t="n">
+      <c r="C11" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A11,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A11,EML_Tool_WP!A:BB,39,0))</f>
         <v>44136</v>
       </c>
-      <c r="D11" s="250" t="n">
+      <c r="D11" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A11,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A11,EML_Tool_WP!A:BB,40,0))</f>
         <v>44255</v>
       </c>
@@ -42002,7 +41971,7 @@
         <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A11,EML_Tool_WP!A:BB,46,0),Members!A:B,2,0),"")</f>
         <v/>
       </c>
-      <c r="G11" s="281" t="n">
+      <c r="G11" s="277" t="n">
         <f aca="false">IF(VLOOKUP(A11,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A11,EML_Tool_WP!A:BB,42,0))</f>
         <v>0.46</v>
       </c>
@@ -42015,11 +41984,11 @@
         <f aca="false">IF(VLOOKUP(A12,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A12,EML_Tool_WP!A:BB,2,0))</f>
         <v>Xilinx Rlatform Profiling (ZCU102)</v>
       </c>
-      <c r="C12" s="250" t="n">
+      <c r="C12" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A12,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A12,EML_Tool_WP!A:BB,39,0))</f>
         <v>44136</v>
       </c>
-      <c r="D12" s="250" t="n">
+      <c r="D12" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A12,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A12,EML_Tool_WP!A:BB,40,0))</f>
         <v>44347</v>
       </c>
@@ -42031,7 +42000,7 @@
         <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A12,EML_Tool_WP!A:BB,46,0),Members!A:B,2,0),"")</f>
         <v/>
       </c>
-      <c r="G12" s="281" t="n">
+      <c r="G12" s="277" t="n">
         <f aca="false">IF(VLOOKUP(A12,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A12,EML_Tool_WP!A:BB,42,0))</f>
         <v>0.0666666666666667</v>
       </c>
@@ -42044,11 +42013,11 @@
         <f aca="false">IF(VLOOKUP(A13,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A13,EML_Tool_WP!A:BB,2,0))</f>
         <v>Intel Platform Profiling (NUC, NCS2)</v>
       </c>
-      <c r="C13" s="250" t="n">
+      <c r="C13" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A13,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A13,EML_Tool_WP!A:BB,39,0))</f>
         <v>43739</v>
       </c>
-      <c r="D13" s="250" t="n">
+      <c r="D13" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A13,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A13,EML_Tool_WP!A:BB,40,0))</f>
         <v>43921</v>
       </c>
@@ -42060,54 +42029,54 @@
         <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A13,EML_Tool_WP!A:BB,46,0),Members!A:B,2,0),"")</f>
         <v/>
       </c>
-      <c r="G13" s="281" t="n">
+      <c r="G13" s="277" t="n">
         <f aca="false">IF(VLOOKUP(A13,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A13,EML_Tool_WP!A:BB,42,0))</f>
         <v>0.6</v>
       </c>
     </row>
-    <row r="14" s="288" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="282" t="s">
+    <row r="14" s="284" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="278" t="s">
         <v>185</v>
       </c>
-      <c r="B14" s="283" t="str">
+      <c r="B14" s="279" t="str">
         <f aca="false">IF(VLOOKUP(A14,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A14,EML_Tool_WP!A:BB,2,0))</f>
         <v>Google Platform Profiling (Edge TPU)</v>
       </c>
-      <c r="C14" s="284" t="n">
+      <c r="C14" s="280" t="n">
         <f aca="false">IF(VLOOKUP(A14,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A14,EML_Tool_WP!A:BB,39,0))</f>
         <v>44273</v>
       </c>
-      <c r="D14" s="284" t="n">
+      <c r="D14" s="280" t="n">
         <f aca="false">IF(VLOOKUP(A14,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A14,EML_Tool_WP!A:BB,40,0))</f>
         <v>44346</v>
       </c>
-      <c r="E14" s="283" t="str">
+      <c r="E14" s="279" t="str">
         <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A14,EML_Tool_WP!A:BB,45,0),Members!A:B,2,0),"ERROR")</f>
         <v>Christian Krieg</v>
       </c>
-      <c r="F14" s="283" t="str">
+      <c r="F14" s="279" t="str">
         <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A14,EML_Tool_WP!A:BB,46,0),Members!A:B,2,0),"")</f>
         <v>Nikolas Alge</v>
       </c>
-      <c r="G14" s="285" t="n">
+      <c r="G14" s="281" t="n">
         <f aca="false">IF(VLOOKUP(A14,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A14,EML_Tool_WP!A:BB,42,0))</f>
         <v>0.0375</v>
       </c>
-      <c r="H14" s="286"/>
-    </row>
-    <row r="15" s="237" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="239" t="s">
+      <c r="H14" s="282"/>
+    </row>
+    <row r="15" s="236" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="238" t="s">
         <v>196</v>
       </c>
-      <c r="B15" s="240" t="str">
+      <c r="B15" s="239" t="str">
         <f aca="false">IF(VLOOKUP(A15,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A15,EML_Tool_WP!A:BB,2,0))</f>
         <v>Map Models of hardware</v>
       </c>
-      <c r="C15" s="259"/>
-      <c r="D15" s="240"/>
-      <c r="E15" s="240"/>
-      <c r="F15" s="240"/>
-      <c r="G15" s="280" t="n">
+      <c r="C15" s="256"/>
+      <c r="D15" s="239"/>
+      <c r="E15" s="239"/>
+      <c r="F15" s="239"/>
+      <c r="G15" s="276" t="n">
         <f aca="false">IF(VLOOKUP(A15,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A15,EML_Tool_WP!A:BB,42,0))</f>
         <v>0.557017543859649</v>
       </c>
@@ -42120,11 +42089,11 @@
         <f aca="false">IF(VLOOKUP(A16,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A16,EML_Tool_WP!A:BB,2,0))</f>
         <v>Common Interface Inference on all Platforms</v>
       </c>
-      <c r="C16" s="250" t="str">
+      <c r="C16" s="247" t="str">
         <f aca="false">IF(VLOOKUP(A16,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A16,EML_Tool_WP!A:BB,39,0))</f>
         <v/>
       </c>
-      <c r="D16" s="250" t="str">
+      <c r="D16" s="247" t="str">
         <f aca="false">IF(VLOOKUP(A16,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A16,EML_Tool_WP!A:BB,40,0))</f>
         <v/>
       </c>
@@ -42136,7 +42105,7 @@
         <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A16,EML_Tool_WP!A:BB,46,0),Members!A:B,2,0),"")</f>
         <v/>
       </c>
-      <c r="G16" s="281" t="n">
+      <c r="G16" s="277" t="n">
         <f aca="false">IF(VLOOKUP(A16,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A16,EML_Tool_WP!A:BB,42,0))</f>
         <v>0.8</v>
       </c>
@@ -42149,11 +42118,11 @@
         <f aca="false">IF(VLOOKUP(A17,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A17,EML_Tool_WP!A:BB,2,0))</f>
         <v>Common Network Inference Possible on NVIDIA</v>
       </c>
-      <c r="C17" s="250" t="n">
+      <c r="C17" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A17,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A17,EML_Tool_WP!A:BB,39,0))</f>
         <v>43891</v>
       </c>
-      <c r="D17" s="250" t="n">
+      <c r="D17" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A17,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A17,EML_Tool_WP!A:BB,40,0))</f>
         <v>43921</v>
       </c>
@@ -42165,7 +42134,7 @@
         <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A17,EML_Tool_WP!A:BB,46,0),Members!A:B,2,0),"")</f>
         <v/>
       </c>
-      <c r="G17" s="281" t="n">
+      <c r="G17" s="277" t="n">
         <f aca="false">IF(VLOOKUP(A17,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A17,EML_Tool_WP!A:BB,42,0))</f>
         <v>0.8</v>
       </c>
@@ -42178,11 +42147,11 @@
         <f aca="false">IF(VLOOKUP(A18,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A18,EML_Tool_WP!A:BB,2,0))</f>
         <v>Common Network Inference Possible on Intel</v>
       </c>
-      <c r="C18" s="250" t="n">
+      <c r="C18" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A18,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A18,EML_Tool_WP!A:BB,39,0))</f>
         <v>43739</v>
       </c>
-      <c r="D18" s="250" t="n">
+      <c r="D18" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A18,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A18,EML_Tool_WP!A:BB,40,0))</f>
         <v>44227</v>
       </c>
@@ -42194,7 +42163,7 @@
         <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A18,EML_Tool_WP!A:BB,46,0),Members!A:B,2,0),"")</f>
         <v/>
       </c>
-      <c r="G18" s="281" t="n">
+      <c r="G18" s="277" t="n">
         <f aca="false">IF(VLOOKUP(A18,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A18,EML_Tool_WP!A:BB,42,0))</f>
         <v>0.9125</v>
       </c>
@@ -42207,11 +42176,11 @@
         <f aca="false">IF(VLOOKUP(A19,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A19,EML_Tool_WP!A:BB,2,0))</f>
         <v>Common Network Inference Possible on ARM</v>
       </c>
-      <c r="C19" s="250" t="n">
+      <c r="C19" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A19,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A19,EML_Tool_WP!A:BB,39,0))</f>
         <v>44105</v>
       </c>
-      <c r="D19" s="250" t="n">
+      <c r="D19" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A19,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A19,EML_Tool_WP!A:BB,40,0))</f>
         <v>44255</v>
       </c>
@@ -42223,7 +42192,7 @@
         <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A19,EML_Tool_WP!A:BB,46,0),Members!A:B,2,0),"")</f>
         <v/>
       </c>
-      <c r="G19" s="281" t="n">
+      <c r="G19" s="277" t="n">
         <f aca="false">IF(VLOOKUP(A19,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A19,EML_Tool_WP!A:BB,42,0))</f>
         <v>0.1</v>
       </c>
@@ -42236,11 +42205,11 @@
         <f aca="false">IF(VLOOKUP(A20,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A20,EML_Tool_WP!A:BB,2,0))</f>
         <v>Common Network Inference Possible on Xilinx</v>
       </c>
-      <c r="C20" s="250" t="n">
+      <c r="C20" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A20,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A20,EML_Tool_WP!A:BB,39,0))</f>
         <v>44105</v>
       </c>
-      <c r="D20" s="250" t="n">
+      <c r="D20" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A20,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A20,EML_Tool_WP!A:BB,40,0))</f>
         <v>44346</v>
       </c>
@@ -42252,7 +42221,7 @@
         <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A20,EML_Tool_WP!A:BB,46,0),Members!A:B,2,0),"")</f>
         <v/>
       </c>
-      <c r="G20" s="281" t="n">
+      <c r="G20" s="277" t="n">
         <f aca="false">IF(VLOOKUP(A20,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A20,EML_Tool_WP!A:BB,42,0))</f>
         <v>0.15</v>
       </c>
@@ -42265,11 +42234,11 @@
         <f aca="false">IF(VLOOKUP(A21,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A21,EML_Tool_WP!A:BB,2,0))</f>
         <v>Power Measurements possible for NCS2 and NVIDIA</v>
       </c>
-      <c r="C21" s="250" t="n">
+      <c r="C21" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A21,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A21,EML_Tool_WP!A:BB,39,0))</f>
         <v>44013</v>
       </c>
-      <c r="D21" s="250" t="n">
+      <c r="D21" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A21,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A21,EML_Tool_WP!A:BB,40,0))</f>
         <v>43921</v>
       </c>
@@ -42281,7 +42250,7 @@
         <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A21,EML_Tool_WP!A:BB,46,0),Members!A:B,2,0),"")</f>
         <v/>
       </c>
-      <c r="G21" s="281" t="n">
+      <c r="G21" s="277" t="n">
         <f aca="false">IF(VLOOKUP(A21,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A21,EML_Tool_WP!A:BB,42,0))</f>
         <v>0.552272727272727</v>
       </c>
@@ -42294,11 +42263,11 @@
         <f aca="false">IF(VLOOKUP(A22,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A22,EML_Tool_WP!A:BB,2,0))</f>
         <v>Demonstration of Inference on all Platforms with Common Interface</v>
       </c>
-      <c r="C22" s="250" t="n">
+      <c r="C22" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A22,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A22,EML_Tool_WP!A:BB,39,0))</f>
         <v>44256</v>
       </c>
-      <c r="D22" s="250" t="n">
+      <c r="D22" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A22,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A22,EML_Tool_WP!A:BB,40,0))</f>
         <v>44347</v>
       </c>
@@ -42310,24 +42279,24 @@
         <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A22,EML_Tool_WP!A:BB,46,0),Members!A:B,2,0),"")</f>
         <v/>
       </c>
-      <c r="G22" s="281" t="n">
+      <c r="G22" s="277" t="n">
         <f aca="false">IF(VLOOKUP(A22,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A22,EML_Tool_WP!A:BB,42,0))</f>
         <v>0.3</v>
       </c>
     </row>
-    <row r="23" s="237" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="239" t="s">
+    <row r="23" s="236" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="238" t="s">
         <v>309</v>
       </c>
-      <c r="B23" s="240" t="str">
+      <c r="B23" s="239" t="str">
         <f aca="false">IF(VLOOKUP(A23,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A23,EML_Tool_WP!A:BB,2,0))</f>
         <v>Quantization</v>
       </c>
-      <c r="C23" s="259"/>
-      <c r="D23" s="240"/>
-      <c r="E23" s="240"/>
-      <c r="F23" s="240"/>
-      <c r="G23" s="280" t="n">
+      <c r="C23" s="256"/>
+      <c r="D23" s="239"/>
+      <c r="E23" s="239"/>
+      <c r="F23" s="239"/>
+      <c r="G23" s="276" t="n">
         <f aca="false">IF(VLOOKUP(A23,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A23,EML_Tool_WP!A:BB,42,0))</f>
         <v>0.235294117647059</v>
       </c>
@@ -42340,11 +42309,11 @@
         <f aca="false">IF(VLOOKUP(A24,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A24,EML_Tool_WP!A:BB,2,0))</f>
         <v>HW Independent Quantization on Xilinx</v>
       </c>
-      <c r="C24" s="250" t="n">
+      <c r="C24" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A24,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A24,EML_Tool_WP!A:BB,39,0))</f>
         <v>43891</v>
       </c>
-      <c r="D24" s="250" t="n">
+      <c r="D24" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A24,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A24,EML_Tool_WP!A:BB,40,0))</f>
         <v>44286</v>
       </c>
@@ -42356,111 +42325,111 @@
         <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A24,EML_Tool_WP!A:BB,46,0),Members!A:B,2,0),"")</f>
         <v>Dominik Dallinger</v>
       </c>
-      <c r="G24" s="281" t="n">
+      <c r="G24" s="277" t="n">
         <f aca="false">IF(VLOOKUP(A24,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A24,EML_Tool_WP!A:BB,42,0))</f>
         <v>0.74</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="242" t="s">
+      <c r="A25" s="240" t="s">
         <v>326</v>
       </c>
-      <c r="B25" s="243" t="str">
+      <c r="B25" s="229" t="str">
         <f aca="false">IF(VLOOKUP(A25,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A25,EML_Tool_WP!A:BB,2,0))</f>
         <v>Analysis of NVIDIA Native Quantization</v>
       </c>
-      <c r="C25" s="250" t="n">
+      <c r="C25" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A25,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A25,EML_Tool_WP!A:BB,39,0))</f>
         <v>44136</v>
       </c>
-      <c r="D25" s="250" t="n">
+      <c r="D25" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A25,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A25,EML_Tool_WP!A:BB,40,0))</f>
         <v>44255</v>
       </c>
-      <c r="E25" s="243" t="str">
+      <c r="E25" s="229" t="str">
         <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A25,EML_Tool_WP!A:BB,45,0),Members!A:B,2,0),"ERROR")</f>
         <v>Alexander Wendt</v>
       </c>
-      <c r="F25" s="290" t="str">
+      <c r="F25" s="286" t="str">
         <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A25,EML_Tool_WP!A:BB,46,0),Members!A:B,2,0),"")</f>
         <v>Karoline Knoth</v>
       </c>
-      <c r="G25" s="281" t="n">
+      <c r="G25" s="277" t="n">
         <f aca="false">IF(VLOOKUP(A25,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A25,EML_Tool_WP!A:BB,42,0))</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="242" t="s">
+      <c r="A26" s="240" t="s">
         <v>334</v>
       </c>
-      <c r="B26" s="243" t="str">
+      <c r="B26" s="229" t="str">
         <f aca="false">IF(VLOOKUP(A26,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A26,EML_Tool_WP!A:BB,2,0))</f>
         <v>Analysis of Intel Native Quantization</v>
       </c>
-      <c r="C26" s="250" t="n">
+      <c r="C26" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A26,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A26,EML_Tool_WP!A:BB,39,0))</f>
         <v>44105</v>
       </c>
-      <c r="D26" s="250" t="n">
+      <c r="D26" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A26,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A26,EML_Tool_WP!A:BB,40,0))</f>
         <v>44255</v>
       </c>
-      <c r="E26" s="243" t="str">
+      <c r="E26" s="229" t="str">
         <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A26,EML_Tool_WP!A:BB,45,0),Members!A:B,2,0),"ERROR")</f>
         <v>Alexander Wendt</v>
       </c>
-      <c r="F26" s="243" t="str">
+      <c r="F26" s="229" t="str">
         <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A26,EML_Tool_WP!A:BB,46,0),Members!A:B,2,0),"")</f>
         <v>Julian Westra</v>
       </c>
-      <c r="G26" s="281" t="n">
+      <c r="G26" s="277" t="n">
         <f aca="false">IF(VLOOKUP(A26,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A26,EML_Tool_WP!A:BB,42,0))</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="242" t="s">
+      <c r="A27" s="240" t="s">
         <v>343</v>
       </c>
-      <c r="B27" s="243" t="str">
+      <c r="B27" s="229" t="str">
         <f aca="false">IF(VLOOKUP(A27,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A27,EML_Tool_WP!A:BB,2,0))</f>
         <v>One-shot Quantizeable Slimmable Adaptive Networks on Xilinx</v>
       </c>
-      <c r="C27" s="250" t="n">
+      <c r="C27" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A27,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A27,EML_Tool_WP!A:BB,39,0))</f>
         <v>44105</v>
       </c>
-      <c r="D27" s="250" t="n">
+      <c r="D27" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A27,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A27,EML_Tool_WP!A:BB,40,0))</f>
         <v>44407</v>
       </c>
-      <c r="E27" s="243" t="str">
+      <c r="E27" s="229" t="str">
         <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A27,EML_Tool_WP!A:BB,45,0),Members!A:B,2,0),"ERROR")</f>
         <v>Matthias Wess</v>
       </c>
-      <c r="F27" s="243" t="str">
+      <c r="F27" s="229" t="str">
         <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A27,EML_Tool_WP!A:BB,46,0),Members!A:B,2,0),"")</f>
         <v>Birgit Schreiber</v>
       </c>
-      <c r="G27" s="281" t="n">
+      <c r="G27" s="277" t="n">
         <f aca="false">IF(VLOOKUP(A27,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A27,EML_Tool_WP!A:BB,42,0))</f>
         <v>0.1</v>
       </c>
     </row>
-    <row r="28" s="237" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="239" t="s">
+    <row r="28" s="236" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="238" t="s">
         <v>357</v>
       </c>
-      <c r="B28" s="240" t="str">
+      <c r="B28" s="239" t="str">
         <f aca="false">IF(VLOOKUP(A28,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A28,EML_Tool_WP!A:BB,2,0))</f>
         <v>Pruning</v>
       </c>
-      <c r="C28" s="259"/>
-      <c r="D28" s="240"/>
-      <c r="E28" s="240"/>
-      <c r="F28" s="240"/>
-      <c r="G28" s="280" t="n">
+      <c r="C28" s="256"/>
+      <c r="D28" s="239"/>
+      <c r="E28" s="239"/>
+      <c r="F28" s="239"/>
+      <c r="G28" s="276" t="n">
         <f aca="false">IF(VLOOKUP(A28,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A28,EML_Tool_WP!A:BB,42,0))</f>
         <v>0.360714285714286</v>
       </c>
@@ -42473,11 +42442,11 @@
         <f aca="false">IF(VLOOKUP(A29,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A29,EML_Tool_WP!A:BB,2,0))</f>
         <v>HW Independent Pruning with Distiller</v>
       </c>
-      <c r="C29" s="250" t="n">
+      <c r="C29" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A29,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A29,EML_Tool_WP!A:BB,39,0))</f>
         <v>43891</v>
       </c>
-      <c r="D29" s="250" t="n">
+      <c r="D29" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A29,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A29,EML_Tool_WP!A:BB,40,0))</f>
         <v>44255</v>
       </c>
@@ -42489,70 +42458,70 @@
         <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A29,EML_Tool_WP!A:BB,46,0),Members!A:B,2,0),"")</f>
         <v>Andreas Glinserer</v>
       </c>
-      <c r="G29" s="281" t="n">
+      <c r="G29" s="277" t="n">
         <f aca="false">IF(VLOOKUP(A29,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A29,EML_Tool_WP!A:BB,42,0))</f>
         <v>0.791666666666667</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="242" t="s">
+      <c r="A30" s="240" t="s">
         <v>373</v>
       </c>
-      <c r="B30" s="243" t="str">
+      <c r="B30" s="229" t="str">
         <f aca="false">IF(VLOOKUP(A30,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A30,EML_Tool_WP!A:BB,2,0))</f>
         <v>Analysis of Performance of Slimmable Networks</v>
       </c>
-      <c r="C30" s="250" t="n">
+      <c r="C30" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A30,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A30,EML_Tool_WP!A:BB,39,0))</f>
         <v>44105</v>
       </c>
-      <c r="D30" s="250" t="n">
+      <c r="D30" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A30,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A30,EML_Tool_WP!A:BB,40,0))</f>
         <v>44227</v>
       </c>
-      <c r="E30" s="243" t="str">
+      <c r="E30" s="229" t="str">
         <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A30,EML_Tool_WP!A:BB,45,0),Members!A:B,2,0),"ERROR")</f>
         <v>Matthias Wess</v>
       </c>
-      <c r="F30" s="290" t="str">
+      <c r="F30" s="286" t="str">
         <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A30,EML_Tool_WP!A:BB,46,0),Members!A:B,2,0),"")</f>
         <v>Karoline Knoth</v>
       </c>
-      <c r="G30" s="281" t="n">
+      <c r="G30" s="277" t="n">
         <f aca="false">IF(VLOOKUP(A30,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A30,EML_Tool_WP!A:BB,42,0))</f>
         <v>0.0375</v>
       </c>
     </row>
-    <row r="31" s="237" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="239" t="s">
+    <row r="31" s="236" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="238" t="s">
         <v>395</v>
       </c>
-      <c r="B31" s="240" t="str">
+      <c r="B31" s="239" t="str">
         <f aca="false">IF(VLOOKUP(A31,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A31,EML_Tool_WP!A:BB,2,0))</f>
         <v>Factorization</v>
       </c>
-      <c r="C31" s="259"/>
-      <c r="D31" s="240"/>
-      <c r="E31" s="240"/>
-      <c r="F31" s="240"/>
-      <c r="G31" s="280" t="n">
+      <c r="C31" s="256"/>
+      <c r="D31" s="239"/>
+      <c r="E31" s="239"/>
+      <c r="F31" s="239"/>
+      <c r="G31" s="276" t="n">
         <f aca="false">IF(VLOOKUP(A31,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A31,EML_Tool_WP!A:BB,42,0))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="32" s="237" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="239" t="s">
+    <row r="32" s="236" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="238" t="s">
         <v>398</v>
       </c>
-      <c r="B32" s="240" t="str">
+      <c r="B32" s="239" t="str">
         <f aca="false">IF(VLOOKUP(A32,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A32,EML_Tool_WP!A:BB,2,0))</f>
         <v>Compact Design</v>
       </c>
-      <c r="C32" s="259"/>
-      <c r="D32" s="240"/>
-      <c r="E32" s="240"/>
-      <c r="F32" s="240"/>
-      <c r="G32" s="280" t="n">
+      <c r="C32" s="256"/>
+      <c r="D32" s="239"/>
+      <c r="E32" s="239"/>
+      <c r="F32" s="239"/>
+      <c r="G32" s="276" t="n">
         <f aca="false">IF(VLOOKUP(A32,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A32,EML_Tool_WP!A:BB,42,0))</f>
         <v>0.573333333333334</v>
       </c>
@@ -42565,11 +42534,11 @@
         <f aca="false">IF(VLOOKUP(A33,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A33,EML_Tool_WP!A:BB,2,0))</f>
         <v>Analysis of Shunt Connections for Segmentation</v>
       </c>
-      <c r="C33" s="250" t="n">
+      <c r="C33" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A33,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A33,EML_Tool_WP!A:BB,39,0))</f>
         <v>44044</v>
       </c>
-      <c r="D33" s="250" t="n">
+      <c r="D33" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A33,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A33,EML_Tool_WP!A:BB,40,0))</f>
         <v>43889</v>
       </c>
@@ -42577,11 +42546,11 @@
         <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A33,EML_Tool_WP!A:BB,45,0),Members!A:B,2,0),"ERROR")</f>
         <v>Alexander Wendt</v>
       </c>
-      <c r="F33" s="289" t="str">
+      <c r="F33" s="285" t="str">
         <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A33,EML_Tool_WP!A:BB,46,0),Members!A:B,2,0),"")</f>
         <v>Bernhard Haas</v>
       </c>
-      <c r="G33" s="281" t="n">
+      <c r="G33" s="277" t="n">
         <f aca="false">IF(VLOOKUP(A33,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A33,EML_Tool_WP!A:BB,42,0))</f>
         <v>0.983333333333333</v>
       </c>
@@ -42594,11 +42563,11 @@
         <f aca="false">IF(VLOOKUP(A34,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A34,EML_Tool_WP!A:BB,2,0))</f>
         <v>Evaluate Performance of SqueezeNas Models</v>
       </c>
-      <c r="C34" s="250" t="n">
+      <c r="C34" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A34,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A34,EML_Tool_WP!A:BB,39,0))</f>
         <v>43922</v>
       </c>
-      <c r="D34" s="250" t="n">
+      <c r="D34" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A34,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A34,EML_Tool_WP!A:BB,40,0))</f>
         <v>44227</v>
       </c>
@@ -42610,7 +42579,7 @@
         <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A34,EML_Tool_WP!A:BB,46,0),Members!A:B,2,0),"")</f>
         <v/>
       </c>
-      <c r="G34" s="281" t="n">
+      <c r="G34" s="277" t="n">
         <f aca="false">IF(VLOOKUP(A34,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A34,EML_Tool_WP!A:BB,42,0))</f>
         <v>1</v>
       </c>
@@ -42623,11 +42592,11 @@
         <f aca="false">IF(VLOOKUP(A35,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A35,EML_Tool_WP!A:BB,2,0))</f>
         <v>Common Backbone for semantic and instance Segmentation</v>
       </c>
-      <c r="C35" s="250" t="n">
+      <c r="C35" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A35,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A35,EML_Tool_WP!A:BB,39,0))</f>
         <v>44075</v>
       </c>
-      <c r="D35" s="250" t="n">
+      <c r="D35" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A35,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A35,EML_Tool_WP!A:BB,40,0))</f>
         <v>44316</v>
       </c>
@@ -42639,54 +42608,54 @@
         <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A35,EML_Tool_WP!A:BB,46,0),Members!A:B,2,0),"")</f>
         <v>Helmuth Breitenfellner</v>
       </c>
-      <c r="G35" s="281" t="n">
+      <c r="G35" s="277" t="n">
         <f aca="false">IF(VLOOKUP(A35,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A35,EML_Tool_WP!A:BB,42,0))</f>
         <v>0.275</v>
       </c>
     </row>
-    <row r="36" s="288" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="282" t="s">
+    <row r="36" s="284" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="278" t="s">
         <v>462</v>
       </c>
-      <c r="B36" s="283" t="str">
+      <c r="B36" s="279" t="str">
         <f aca="false">IF(VLOOKUP(A36,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A36,EML_Tool_WP!A:BB,2,0))</f>
         <v>Comparison of YoloV3 vs. YoloV4 on a Xilinx</v>
       </c>
-      <c r="C36" s="284" t="n">
+      <c r="C36" s="280" t="n">
         <f aca="false">IF(VLOOKUP(A36,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A36,EML_Tool_WP!A:BB,39,0))</f>
         <v>44256</v>
       </c>
-      <c r="D36" s="284" t="n">
+      <c r="D36" s="280" t="n">
         <f aca="false">IF(VLOOKUP(A36,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A36,EML_Tool_WP!A:BB,40,0))</f>
         <v>44439</v>
       </c>
-      <c r="E36" s="283" t="str">
+      <c r="E36" s="279" t="str">
         <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A36,EML_Tool_WP!A:BB,45,0),Members!A:B,2,0),"ERROR")</f>
         <v>Martin Lechner</v>
       </c>
-      <c r="F36" s="283" t="str">
+      <c r="F36" s="279" t="str">
         <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A36,EML_Tool_WP!A:BB,46,0),Members!A:B,2,0),"")</f>
         <v>Fabian Scherer</v>
       </c>
-      <c r="G36" s="285" t="n">
+      <c r="G36" s="281" t="n">
         <f aca="false">IF(VLOOKUP(A36,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A36,EML_Tool_WP!A:BB,42,0))</f>
         <v>0</v>
       </c>
-      <c r="H36" s="286"/>
-    </row>
-    <row r="37" s="237" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="239" t="s">
+      <c r="H36" s="282"/>
+    </row>
+    <row r="37" s="236" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="238" t="s">
         <v>469</v>
       </c>
-      <c r="B37" s="240" t="str">
+      <c r="B37" s="239" t="str">
         <f aca="false">IF(VLOOKUP(A37,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A37,EML_Tool_WP!A:BB,2,0))</f>
         <v>Optimization Strategy</v>
       </c>
-      <c r="C37" s="259"/>
-      <c r="D37" s="240"/>
-      <c r="E37" s="240"/>
-      <c r="F37" s="240"/>
-      <c r="G37" s="280" t="n">
+      <c r="C37" s="256"/>
+      <c r="D37" s="239"/>
+      <c r="E37" s="239"/>
+      <c r="F37" s="239"/>
+      <c r="G37" s="276" t="n">
         <f aca="false">IF(VLOOKUP(A37,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A37,EML_Tool_WP!A:BB,42,0))</f>
         <v>0.571176470588235</v>
       </c>
@@ -42699,11 +42668,11 @@
         <f aca="false">IF(VLOOKUP(A38,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A38,EML_Tool_WP!A:BB,2,0))</f>
         <v>Setup Training on Server EDA01 and EDA02</v>
       </c>
-      <c r="C38" s="250" t="n">
+      <c r="C38" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A38,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A38,EML_Tool_WP!A:BB,39,0))</f>
         <v>43952</v>
       </c>
-      <c r="D38" s="250" t="n">
+      <c r="D38" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A38,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A38,EML_Tool_WP!A:BB,40,0))</f>
         <v>44227</v>
       </c>
@@ -42715,7 +42684,7 @@
         <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A38,EML_Tool_WP!A:BB,46,0),Members!A:B,2,0),"")</f>
         <v/>
       </c>
-      <c r="G38" s="281" t="n">
+      <c r="G38" s="277" t="n">
         <f aca="false">IF(VLOOKUP(A38,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A38,EML_Tool_WP!A:BB,42,0))</f>
         <v>1</v>
       </c>
@@ -42728,11 +42697,11 @@
         <f aca="false">IF(VLOOKUP(A39,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A39,EML_Tool_WP!A:BB,2,0))</f>
         <v>Setup External Training on Cloud and Vienna Scientific Cluster</v>
       </c>
-      <c r="C39" s="250" t="n">
+      <c r="C39" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A39,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A39,EML_Tool_WP!A:BB,39,0))</f>
         <v>44105</v>
       </c>
-      <c r="D39" s="250" t="n">
+      <c r="D39" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A39,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A39,EML_Tool_WP!A:BB,40,0))</f>
         <v>44316</v>
       </c>
@@ -42744,7 +42713,7 @@
         <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A39,EML_Tool_WP!A:BB,46,0),Members!A:B,2,0),"")</f>
         <v/>
       </c>
-      <c r="G39" s="281" t="n">
+      <c r="G39" s="277" t="n">
         <f aca="false">IF(VLOOKUP(A39,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A39,EML_Tool_WP!A:BB,42,0))</f>
         <v>0.971428571428571</v>
       </c>
@@ -42757,11 +42726,11 @@
         <f aca="false">IF(VLOOKUP(A40,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A40,EML_Tool_WP!A:BB,2,0))</f>
         <v>Common Measurement Database for Hardware Inference</v>
       </c>
-      <c r="C40" s="250" t="str">
+      <c r="C40" s="247" t="str">
         <f aca="false">IF(VLOOKUP(A40,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A40,EML_Tool_WP!A:BB,39,0))</f>
         <v/>
       </c>
-      <c r="D40" s="250" t="str">
+      <c r="D40" s="247" t="str">
         <f aca="false">IF(VLOOKUP(A40,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A40,EML_Tool_WP!A:BB,40,0))</f>
         <v/>
       </c>
@@ -42773,7 +42742,7 @@
         <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A40,EML_Tool_WP!A:BB,46,0),Members!A:B,2,0),"")</f>
         <v/>
       </c>
-      <c r="G40" s="281" t="n">
+      <c r="G40" s="277" t="n">
         <f aca="false">IF(VLOOKUP(A40,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A40,EML_Tool_WP!A:BB,42,0))</f>
         <v>0</v>
       </c>
@@ -42786,11 +42755,11 @@
         <f aca="false">IF(VLOOKUP(A41,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A41,EML_Tool_WP!A:BB,2,0))</f>
         <v>Automation and Simplification of the EML Process</v>
       </c>
-      <c r="C41" s="250" t="n">
+      <c r="C41" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A41,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A41,EML_Tool_WP!A:BB,39,0))</f>
         <v>44228</v>
       </c>
-      <c r="D41" s="250" t="n">
+      <c r="D41" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A41,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A41,EML_Tool_WP!A:BB,40,0))</f>
         <v>44469</v>
       </c>
@@ -42802,315 +42771,315 @@
         <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A41,EML_Tool_WP!A:BB,46,0),Members!A:B,2,0),"")</f>
         <v/>
       </c>
-      <c r="G41" s="281" t="n">
+      <c r="G41" s="277" t="n">
         <f aca="false">IF(VLOOKUP(A41,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A41,EML_Tool_WP!A:BB,42,0))</f>
         <v>0.15</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="242" t="s">
+      <c r="A42" s="240" t="s">
         <v>536</v>
       </c>
-      <c r="B42" s="243" t="str">
+      <c r="B42" s="229" t="str">
         <f aca="false">IF(VLOOKUP(A42,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A42,EML_Tool_WP!A:BB,2,0))</f>
         <v>Application: Traffic Light System</v>
       </c>
-      <c r="C42" s="250" t="n">
+      <c r="C42" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A42,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A42,EML_Tool_WP!A:BB,39,0))</f>
         <v>43891</v>
       </c>
-      <c r="D42" s="250" t="n">
+      <c r="D42" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A42,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A42,EML_Tool_WP!A:BB,40,0))</f>
         <v>44316</v>
       </c>
-      <c r="E42" s="243" t="str">
+      <c r="E42" s="229" t="str">
         <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A42,EML_Tool_WP!A:BB,45,0),Members!A:B,2,0),"ERROR")</f>
         <v>Alexander Wendt</v>
       </c>
-      <c r="F42" s="243" t="str">
+      <c r="F42" s="229" t="str">
         <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A42,EML_Tool_WP!A:BB,46,0),Members!A:B,2,0),"")</f>
         <v>Julian Westra</v>
       </c>
-      <c r="G42" s="281" t="n">
+      <c r="G42" s="277" t="n">
         <f aca="false">IF(VLOOKUP(A42,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A42,EML_Tool_WP!A:BB,42,0))</f>
         <v>0.358333333333333</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="242" t="s">
+      <c r="A43" s="240" t="s">
         <v>557</v>
       </c>
-      <c r="B43" s="243" t="str">
+      <c r="B43" s="229" t="str">
         <f aca="false">IF(VLOOKUP(A43,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A43,EML_Tool_WP!A:BB,2,0))</f>
         <v>Application: Ragweed Recognition Through a Drone</v>
       </c>
-      <c r="C43" s="250" t="n">
+      <c r="C43" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A43,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A43,EML_Tool_WP!A:BB,39,0))</f>
         <v>44044</v>
       </c>
-      <c r="D43" s="250" t="n">
+      <c r="D43" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A43,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A43,EML_Tool_WP!A:BB,40,0))</f>
         <v>44286</v>
       </c>
-      <c r="E43" s="243" t="str">
+      <c r="E43" s="229" t="str">
         <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A43,EML_Tool_WP!A:BB,45,0),Members!A:B,2,0),"ERROR")</f>
         <v>Alexander Wendt</v>
       </c>
-      <c r="F43" s="243" t="str">
+      <c r="F43" s="229" t="str">
         <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A43,EML_Tool_WP!A:BB,46,0),Members!A:B,2,0),"")</f>
         <v>Lukas Steindl</v>
       </c>
-      <c r="G43" s="281" t="n">
+      <c r="G43" s="277" t="n">
         <f aca="false">IF(VLOOKUP(A43,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A43,EML_Tool_WP!A:BB,42,0))</f>
         <v>0.441538461538462</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="242" t="s">
+      <c r="A44" s="240" t="s">
         <v>576</v>
       </c>
-      <c r="B44" s="243" t="str">
+      <c r="B44" s="229" t="str">
         <f aca="false">IF(VLOOKUP(A44,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A44,EML_Tool_WP!A:BB,2,0))</f>
         <v>Application: Minicar Demonstrator</v>
       </c>
-      <c r="C44" s="250" t="n">
+      <c r="C44" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A44,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A44,EML_Tool_WP!A:BB,39,0))</f>
         <v>43831</v>
       </c>
-      <c r="D44" s="250" t="n">
+      <c r="D44" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A44,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A44,EML_Tool_WP!A:BB,40,0))</f>
         <v>44227</v>
       </c>
-      <c r="E44" s="243" t="str">
+      <c r="E44" s="229" t="str">
         <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A44,EML_Tool_WP!A:BB,45,0),Members!A:B,2,0),"ERROR")</f>
         <v>Matvey Ivanov</v>
       </c>
-      <c r="F44" s="243" t="str">
+      <c r="F44" s="229" t="str">
         <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A44,EML_Tool_WP!A:BB,46,0),Members!A:B,2,0),"")</f>
         <v>Matvey Ivanov</v>
       </c>
-      <c r="G44" s="281" t="n">
+      <c r="G44" s="277" t="n">
         <f aca="false">IF(VLOOKUP(A44,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A44,EML_Tool_WP!A:BB,42,0))</f>
         <v>0.933333333333333</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="242" t="s">
+      <c r="A45" s="240" t="s">
         <v>591</v>
       </c>
-      <c r="B45" s="243" t="str">
+      <c r="B45" s="229" t="str">
         <f aca="false">IF(VLOOKUP(A45,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A45,EML_Tool_WP!A:BB,2,0))</f>
         <v>Application: Tensorflow Lite Object Detection on an Android Smart Phone</v>
       </c>
-      <c r="C45" s="250" t="n">
+      <c r="C45" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A45,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A45,EML_Tool_WP!A:BB,39,0))</f>
         <v>44105</v>
       </c>
-      <c r="D45" s="250" t="n">
+      <c r="D45" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A45,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A45,EML_Tool_WP!A:BB,40,0))</f>
         <v>44255</v>
       </c>
-      <c r="E45" s="243" t="str">
+      <c r="E45" s="229" t="str">
         <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A45,EML_Tool_WP!A:BB,45,0),Members!A:B,2,0),"ERROR")</f>
         <v>Alexander Wendt</v>
       </c>
-      <c r="F45" s="243" t="str">
+      <c r="F45" s="229" t="str">
         <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A45,EML_Tool_WP!A:BB,46,0),Members!A:B,2,0),"")</f>
         <v>Thomas Kotrba</v>
       </c>
-      <c r="G45" s="281" t="n">
+      <c r="G45" s="277" t="n">
         <f aca="false">IF(VLOOKUP(A45,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A45,EML_Tool_WP!A:BB,42,0))</f>
         <v>0.566666666666667</v>
       </c>
     </row>
-    <row r="46" s="296" customFormat="true" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="291" t="s">
+    <row r="46" s="292" customFormat="true" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="287" t="s">
         <v>607</v>
       </c>
-      <c r="B46" s="292" t="str">
+      <c r="B46" s="288" t="str">
         <f aca="false">IF(VLOOKUP(A46,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A46,EML_Tool_WP!A:BB,2,0))</f>
         <v>Hyper Parameterization Optimization through a Two-Phase-Search</v>
       </c>
-      <c r="C46" s="293" t="n">
+      <c r="C46" s="289" t="n">
         <f aca="false">IF(VLOOKUP(A46,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A46,EML_Tool_WP!A:BB,39,0))</f>
         <v>43831</v>
       </c>
-      <c r="D46" s="293" t="n">
+      <c r="D46" s="289" t="n">
         <f aca="false">IF(VLOOKUP(A46,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A46,EML_Tool_WP!A:BB,40,0))</f>
         <v>44104</v>
       </c>
-      <c r="E46" s="292" t="str">
+      <c r="E46" s="288" t="str">
         <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A46,EML_Tool_WP!A:BB,45,0),Members!A:B,2,0),"ERROR")</f>
         <v>Alexander Wendt</v>
       </c>
-      <c r="F46" s="292" t="str">
+      <c r="F46" s="288" t="str">
         <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A46,EML_Tool_WP!A:BB,46,0),Members!A:B,2,0),"")</f>
         <v>Marco Wuschnig</v>
       </c>
-      <c r="G46" s="294" t="n">
+      <c r="G46" s="290" t="n">
         <f aca="false">IF(VLOOKUP(A46,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A46,EML_Tool_WP!A:BB,42,0))</f>
         <v>1</v>
       </c>
-      <c r="H46" s="295"/>
-    </row>
-    <row r="47" s="237" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="239" t="s">
+      <c r="H46" s="291"/>
+    </row>
+    <row r="47" s="236" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="238" t="s">
         <v>615</v>
       </c>
-      <c r="B47" s="240" t="str">
+      <c r="B47" s="239" t="str">
         <f aca="false">IF(VLOOKUP(A47,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A47,EML_Tool_WP!A:BB,2,0))</f>
         <v>Continuous learning</v>
       </c>
-      <c r="C47" s="259"/>
-      <c r="D47" s="240"/>
-      <c r="E47" s="240"/>
-      <c r="F47" s="240"/>
-      <c r="G47" s="280"/>
+      <c r="C47" s="256"/>
+      <c r="D47" s="239"/>
+      <c r="E47" s="239"/>
+      <c r="F47" s="239"/>
+      <c r="G47" s="276"/>
     </row>
     <row r="48" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="244" t="s">
+      <c r="A48" s="241" t="s">
         <v>617</v>
       </c>
-      <c r="B48" s="243" t="str">
+      <c r="B48" s="229" t="str">
         <f aca="false">IF(VLOOKUP(A48,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A48,EML_Tool_WP!A:BB,2,0))</f>
         <v>On-line Object Detection</v>
       </c>
-      <c r="C48" s="250" t="n">
+      <c r="C48" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A48,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A48,EML_Tool_WP!A:BB,39,0))</f>
         <v>43891</v>
       </c>
-      <c r="D48" s="250" t="n">
+      <c r="D48" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A48,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A48,EML_Tool_WP!A:BB,40,0))</f>
         <v>44256</v>
       </c>
-      <c r="E48" s="243" t="str">
+      <c r="E48" s="229" t="str">
         <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A48,EML_Tool_WP!A:BB,45,0),Members!A:B,2,0),"ERROR")</f>
         <v>Michael Opitz</v>
       </c>
-      <c r="F48" s="289" t="str">
+      <c r="F48" s="285" t="str">
         <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A48,EML_Tool_WP!A:BB,46,0),Members!A:B,2,0),"")</f>
         <v>Rudolf Wörndle</v>
       </c>
-      <c r="G48" s="281" t="n">
+      <c r="G48" s="277" t="n">
         <f aca="false">IF(VLOOKUP(A48,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A48,EML_Tool_WP!A:BB,42,0))</f>
         <v>0.9</v>
       </c>
     </row>
-    <row r="49" s="296" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="297" t="s">
+    <row r="49" s="292" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="293" t="s">
         <v>622</v>
       </c>
-      <c r="B49" s="292" t="str">
+      <c r="B49" s="288" t="str">
         <f aca="false">IF(VLOOKUP(A49,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A49,EML_Tool_WP!A:BB,2,0))</f>
         <v>Pointcloud Registration</v>
       </c>
-      <c r="C49" s="293" t="n">
+      <c r="C49" s="289" t="n">
         <f aca="false">IF(VLOOKUP(A49,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A49,EML_Tool_WP!A:BB,39,0))</f>
         <v>43862</v>
       </c>
-      <c r="D49" s="293" t="n">
+      <c r="D49" s="289" t="n">
         <f aca="false">IF(VLOOKUP(A49,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A49,EML_Tool_WP!A:BB,40,0))</f>
         <v>44043</v>
       </c>
-      <c r="E49" s="292" t="str">
+      <c r="E49" s="288" t="str">
         <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A49,EML_Tool_WP!A:BB,45,0),Members!A:B,2,0),"ERROR")</f>
         <v>Georg Krispel</v>
       </c>
-      <c r="F49" s="289" t="str">
+      <c r="F49" s="285" t="str">
         <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A49,EML_Tool_WP!A:BB,46,0),Members!A:B,2,0),"")</f>
         <v>Zahra Anam</v>
       </c>
-      <c r="G49" s="294" t="n">
+      <c r="G49" s="290" t="n">
         <f aca="false">IF(VLOOKUP(A49,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A49,EML_Tool_WP!A:BB,42,0))</f>
         <v>1</v>
       </c>
-      <c r="H49" s="295"/>
-    </row>
-    <row r="50" s="296" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="297" t="s">
+      <c r="H49" s="291"/>
+    </row>
+    <row r="50" s="292" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="293" t="s">
         <v>627</v>
       </c>
-      <c r="B50" s="292" t="str">
+      <c r="B50" s="288" t="str">
         <f aca="false">IF(VLOOKUP(A50,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A50,EML_Tool_WP!A:BB,2,0))</f>
         <v>Self Supervised Stereo</v>
       </c>
-      <c r="C50" s="293" t="n">
+      <c r="C50" s="289" t="n">
         <f aca="false">IF(VLOOKUP(A50,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A50,EML_Tool_WP!A:BB,39,0))</f>
         <v>43862</v>
       </c>
-      <c r="D50" s="293" t="n">
+      <c r="D50" s="289" t="n">
         <f aca="false">IF(VLOOKUP(A50,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A50,EML_Tool_WP!A:BB,40,0))</f>
         <v>44043</v>
       </c>
-      <c r="E50" s="292" t="str">
+      <c r="E50" s="288" t="str">
         <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A50,EML_Tool_WP!A:BB,45,0),Members!A:B,2,0),"ERROR")</f>
         <v>Horst Possegger</v>
       </c>
-      <c r="F50" s="289" t="str">
+      <c r="F50" s="285" t="str">
         <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A50,EML_Tool_WP!A:BB,46,0),Members!A:B,2,0),"")</f>
         <v>Kaleb Alemayehu</v>
       </c>
-      <c r="G50" s="294" t="n">
+      <c r="G50" s="290" t="n">
         <f aca="false">IF(VLOOKUP(A50,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A50,EML_Tool_WP!A:BB,42,0))</f>
         <v>1</v>
       </c>
-      <c r="H50" s="295"/>
+      <c r="H50" s="291"/>
     </row>
     <row r="51" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="244" t="s">
+      <c r="A51" s="241" t="s">
         <v>631</v>
       </c>
-      <c r="B51" s="243" t="str">
+      <c r="B51" s="229" t="str">
         <f aca="false">IF(VLOOKUP(A51,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A51,EML_Tool_WP!A:BB,2,0))</f>
         <v>3D Tracking Metrics</v>
       </c>
-      <c r="C51" s="250" t="n">
+      <c r="C51" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A51,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A51,EML_Tool_WP!A:BB,39,0))</f>
         <v>43839</v>
       </c>
-      <c r="D51" s="250" t="n">
+      <c r="D51" s="247" t="n">
         <f aca="false">IF(VLOOKUP(A51,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A51,EML_Tool_WP!A:BB,40,0))</f>
         <v>44199</v>
       </c>
-      <c r="E51" s="243" t="str">
+      <c r="E51" s="229" t="str">
         <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A51,EML_Tool_WP!A:BB,45,0),Members!A:B,2,0),"ERROR")</f>
         <v>Georg Krispel</v>
       </c>
-      <c r="F51" s="243" t="str">
+      <c r="F51" s="229" t="str">
         <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A51,EML_Tool_WP!A:BB,46,0),Members!A:B,2,0),"")</f>
         <v>Srdan Letina</v>
       </c>
-      <c r="G51" s="281" t="n">
+      <c r="G51" s="277" t="n">
         <f aca="false">IF(VLOOKUP(A51,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A51,EML_Tool_WP!A:BB,42,0))</f>
         <v>0.4</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="244"/>
-      <c r="B52" s="245"/>
-      <c r="C52" s="262"/>
-      <c r="D52" s="262"/>
-      <c r="E52" s="245"/>
-      <c r="F52" s="245"/>
-      <c r="G52" s="298"/>
+      <c r="A52" s="241"/>
+      <c r="B52" s="242"/>
+      <c r="C52" s="258"/>
+      <c r="D52" s="258"/>
+      <c r="E52" s="242"/>
+      <c r="F52" s="242"/>
+      <c r="G52" s="294"/>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="246"/>
-      <c r="B53" s="247"/>
-      <c r="C53" s="265"/>
-      <c r="D53" s="247"/>
-      <c r="E53" s="247"/>
-      <c r="F53" s="247"/>
-      <c r="G53" s="299"/>
+      <c r="A53" s="243"/>
+      <c r="B53" s="244"/>
+      <c r="C53" s="261"/>
+      <c r="D53" s="244"/>
+      <c r="E53" s="244"/>
+      <c r="F53" s="244"/>
+      <c r="G53" s="295"/>
     </row>
     <row r="54" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="248"/>
-      <c r="B54" s="249"/>
-      <c r="C54" s="268"/>
-      <c r="D54" s="249"/>
-      <c r="E54" s="249"/>
-      <c r="F54" s="249"/>
-      <c r="G54" s="269"/>
+      <c r="A54" s="245"/>
+      <c r="B54" s="246"/>
+      <c r="C54" s="264"/>
+      <c r="D54" s="246"/>
+      <c r="E54" s="246"/>
+      <c r="F54" s="246"/>
+      <c r="G54" s="265"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:G54"/>
@@ -43159,7 +43128,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -43169,45 +43138,44 @@
       <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="228" width="22.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="229" width="65.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="229" width="8.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="229" width="15.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="252" width="37.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="10.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="249" width="37.88"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="300" t="s">
+      <c r="A1" s="296" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="301" t="s">
+      <c r="B1" s="297" t="s">
         <v>657</v>
       </c>
-      <c r="C1" s="301" t="s">
+      <c r="C1" s="297" t="s">
         <v>665</v>
       </c>
-      <c r="D1" s="301" t="s">
+      <c r="D1" s="297" t="s">
         <v>666</v>
       </c>
-      <c r="E1" s="302" t="s">
+      <c r="E1" s="298" t="s">
         <v>667</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="248" t="s">
+      <c r="A2" s="245" t="s">
         <v>668</v>
       </c>
-      <c r="B2" s="249"/>
-      <c r="C2" s="249" t="s">
+      <c r="B2" s="246"/>
+      <c r="C2" s="246" t="s">
         <v>669</v>
       </c>
-      <c r="D2" s="249" t="s">
+      <c r="D2" s="246" t="s">
         <v>670</v>
       </c>
-      <c r="E2" s="303" t="str">
+      <c r="E2" s="299" t="str">
         <f aca="false">VLOOKUP(A2,AG_Students!F:F,1,0)</f>
         <v>Martin Lechner</v>
       </c>
@@ -43222,7 +43190,7 @@
       <c r="D3" s="229" t="s">
         <v>670</v>
       </c>
-      <c r="E3" s="303" t="str">
+      <c r="E3" s="299" t="str">
         <f aca="false">VLOOKUP(A3,AG_Students!F:F,1,0)</f>
         <v>Matthias Wess</v>
       </c>
@@ -43240,7 +43208,7 @@
       <c r="D4" s="229" t="s">
         <v>670</v>
       </c>
-      <c r="E4" s="303" t="str">
+      <c r="E4" s="299" t="str">
         <f aca="false">VLOOKUP(A4,AG_Students!F:F,1,0)</f>
         <v>Nikolas Alge</v>
       </c>
@@ -43258,7 +43226,7 @@
       <c r="D5" s="229" t="s">
         <v>670</v>
       </c>
-      <c r="E5" s="303" t="str">
+      <c r="E5" s="299" t="str">
         <f aca="false">VLOOKUP(A5,AG_Students!F:F,1,0)</f>
         <v>Dominik Dallinger</v>
       </c>
@@ -43276,7 +43244,7 @@
       <c r="D6" s="229" t="s">
         <v>670</v>
       </c>
-      <c r="E6" s="303" t="str">
+      <c r="E6" s="299" t="str">
         <f aca="false">VLOOKUP(A6,AG_Students!F:F,1,0)</f>
         <v>Andreas Glinserer</v>
       </c>
@@ -43294,7 +43262,7 @@
       <c r="D7" s="229" t="s">
         <v>670</v>
       </c>
-      <c r="E7" s="303" t="str">
+      <c r="E7" s="299" t="str">
         <f aca="false">VLOOKUP(A7,AG_Students!F:F,1,0)</f>
         <v>Julian Westra</v>
       </c>
@@ -43312,7 +43280,7 @@
       <c r="D8" s="229" t="s">
         <v>670</v>
       </c>
-      <c r="E8" s="303" t="str">
+      <c r="E8" s="299" t="str">
         <f aca="false">VLOOKUP(A8,AG_Students!F:F,1,0)</f>
         <v>Birgit Schreiber</v>
       </c>
@@ -43330,7 +43298,7 @@
       <c r="D9" s="229" t="s">
         <v>670</v>
       </c>
-      <c r="E9" s="303" t="str">
+      <c r="E9" s="299" t="str">
         <f aca="false">VLOOKUP(A9,AG_Students!F:F,1,0)</f>
         <v>Helmuth Breitenfellner</v>
       </c>
@@ -43345,7 +43313,7 @@
       <c r="D10" s="229" t="s">
         <v>670</v>
       </c>
-      <c r="E10" s="303" t="str">
+      <c r="E10" s="299" t="str">
         <f aca="false">VLOOKUP(A10,AG_Students!F:F,1,0)</f>
         <v>Fabian Scherer</v>
       </c>
@@ -43363,7 +43331,7 @@
       <c r="D11" s="229" t="s">
         <v>670</v>
       </c>
-      <c r="E11" s="303" t="str">
+      <c r="E11" s="299" t="str">
         <f aca="false">VLOOKUP(A11,AG_Students!F:F,1,0)</f>
         <v>Lukas Steindl</v>
       </c>
@@ -43381,23 +43349,23 @@
       <c r="D12" s="229" t="s">
         <v>670</v>
       </c>
-      <c r="E12" s="303" t="str">
+      <c r="E12" s="299" t="str">
         <f aca="false">VLOOKUP(A12,AG_Students!F:F,1,0)</f>
         <v>Thomas Kotrba</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E13" s="303"/>
+      <c r="E13" s="299"/>
     </row>
     <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="304"/>
+      <c r="A18" s="300"/>
     </row>
     <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="248"/>
-      <c r="B25" s="249"/>
-      <c r="C25" s="249"/>
-      <c r="D25" s="249"/>
-      <c r="E25" s="303"/>
+      <c r="A25" s="245"/>
+      <c r="B25" s="246"/>
+      <c r="C25" s="246"/>
+      <c r="D25" s="246"/>
+      <c r="E25" s="299"/>
     </row>
     <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="228" t="s">
@@ -43416,67 +43384,67 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.56640625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="228" width="22.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="229" width="60.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="229" width="8.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="229" width="15.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="229" width="5.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="252" width="37.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="271" width="11.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="229" width="11.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="229" width="5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="249" width="37.88"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="267" width="11.56"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="8" style="229" width="11.56"/>
   </cols>
   <sheetData>
-    <row r="1" s="301" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="300" t="s">
+    <row r="1" s="297" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="296" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="301" t="s">
+      <c r="B1" s="297" t="s">
         <v>657</v>
       </c>
-      <c r="C1" s="301" t="s">
+      <c r="C1" s="297" t="s">
         <v>665</v>
       </c>
-      <c r="D1" s="301" t="s">
+      <c r="D1" s="297" t="s">
         <v>666</v>
       </c>
-      <c r="E1" s="301" t="s">
+      <c r="E1" s="297" t="s">
         <v>693</v>
       </c>
-      <c r="F1" s="302" t="s">
+      <c r="F1" s="298" t="s">
         <v>694</v>
       </c>
-      <c r="G1" s="305"/>
-    </row>
-    <row r="2" s="249" customFormat="true" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="248" t="s">
+      <c r="G1" s="301"/>
+    </row>
+    <row r="2" s="246" customFormat="true" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="245" t="s">
         <v>695</v>
       </c>
-      <c r="B2" s="249" t="s">
+      <c r="B2" s="246" t="s">
         <v>696</v>
       </c>
-      <c r="C2" s="249" t="s">
+      <c r="C2" s="246" t="s">
         <v>679</v>
       </c>
-      <c r="D2" s="249" t="s">
+      <c r="D2" s="246" t="s">
         <v>697</v>
       </c>
-      <c r="E2" s="249" t="n">
+      <c r="E2" s="246" t="n">
         <v>2020</v>
       </c>
-      <c r="F2" s="303"/>
-      <c r="G2" s="278"/>
+      <c r="F2" s="299"/>
+      <c r="G2" s="274"/>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="228" t="s">
@@ -43511,7 +43479,7 @@
       <c r="E4" s="229" t="n">
         <v>2021</v>
       </c>
-      <c r="F4" s="252" t="s">
+      <c r="F4" s="249" t="s">
         <v>701</v>
       </c>
     </row>
@@ -43531,7 +43499,7 @@
       <c r="E5" s="229" t="n">
         <v>2020</v>
       </c>
-      <c r="F5" s="306" t="s">
+      <c r="F5" s="302" t="s">
         <v>704</v>
       </c>
     </row>
@@ -43551,7 +43519,7 @@
       <c r="E6" s="229" t="n">
         <v>2020</v>
       </c>
-      <c r="F6" s="306" t="s">
+      <c r="F6" s="302" t="s">
         <v>707</v>
       </c>
     </row>
@@ -43571,7 +43539,7 @@
       <c r="E7" s="229" t="n">
         <v>2021</v>
       </c>
-      <c r="F7" s="306" t="s">
+      <c r="F7" s="302" t="s">
         <v>710</v>
       </c>
     </row>
@@ -43608,15 +43576,15 @@
       <c r="E9" s="229" t="n">
         <v>2021</v>
       </c>
-      <c r="F9" s="306" t="s">
+      <c r="F9" s="302" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="228" t="s">
         <v>675</v>
       </c>
-      <c r="B10" s="307" t="s">
+      <c r="B10" s="303" t="s">
         <v>716</v>
       </c>
       <c r="C10" s="229" t="s">
@@ -43628,13 +43596,16 @@
       <c r="E10" s="229" t="n">
         <v>2021</v>
       </c>
+      <c r="F10" s="249" t="s">
+        <v>717</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="228" t="s">
-        <v>717</v>
-      </c>
-      <c r="B11" s="307" t="s">
         <v>718</v>
+      </c>
+      <c r="B11" s="303" t="s">
+        <v>719</v>
       </c>
       <c r="C11" s="229" t="s">
         <v>674</v>
@@ -43648,10 +43619,10 @@
     </row>
     <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="228" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B12" s="229" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C12" s="229" t="s">
         <v>679</v>
@@ -43665,10 +43636,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="228" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B13" s="229" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="C13" s="229" t="s">
         <v>679</v>
@@ -43679,17 +43650,17 @@
       <c r="E13" s="229" t="n">
         <v>2021</v>
       </c>
-      <c r="F13" s="252" t="s">
-        <v>723</v>
+      <c r="F13" s="249" t="s">
+        <v>724</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="304"/>
-    </row>
-    <row r="25" s="249" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="248"/>
-      <c r="F25" s="303"/>
-      <c r="G25" s="278"/>
+      <c r="A18" s="300"/>
+    </row>
+    <row r="25" s="246" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="245"/>
+      <c r="F25" s="299"/>
+      <c r="G25" s="274"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -43709,7 +43680,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -43719,140 +43690,140 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.56640625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="229" width="40"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="229" width="39.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="229" width="56.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="230" width="11.56"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="230" width="11.56"/>
   </cols>
   <sheetData>
-    <row r="1" s="311" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="308" t="s">
+    <row r="1" s="307" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="304" t="s">
         <v>657</v>
       </c>
-      <c r="B1" s="309" t="s">
+      <c r="B1" s="305" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="310" t="s">
+      <c r="C1" s="306" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="75.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="248" t="s">
-        <v>724</v>
-      </c>
-      <c r="B2" s="249" t="s">
+      <c r="A2" s="245" t="s">
         <v>725</v>
       </c>
-      <c r="C2" s="312" t="s">
+      <c r="B2" s="246" t="s">
         <v>726</v>
+      </c>
+      <c r="C2" s="308" t="s">
+        <v>727</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="228" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B3" s="229" t="s">
-        <v>728</v>
-      </c>
-      <c r="C3" s="306" t="s">
         <v>729</v>
+      </c>
+      <c r="C3" s="302" t="s">
+        <v>730</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="228" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="B4" s="229" t="s">
-        <v>731</v>
-      </c>
-      <c r="C4" s="306" t="s">
         <v>732</v>
+      </c>
+      <c r="C4" s="302" t="s">
+        <v>733</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="228" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B5" s="229" t="s">
-        <v>734</v>
-      </c>
-      <c r="C5" s="306" t="s">
         <v>735</v>
+      </c>
+      <c r="C5" s="302" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="228" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B6" s="229" t="s">
-        <v>737</v>
-      </c>
-      <c r="C6" s="306" t="s">
         <v>738</v>
+      </c>
+      <c r="C6" s="302" t="s">
+        <v>739</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="72" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="228" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="B7" s="229" t="s">
-        <v>740</v>
-      </c>
-      <c r="C7" s="306" t="s">
         <v>741</v>
+      </c>
+      <c r="C7" s="302" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="228"/>
-      <c r="C8" s="252"/>
+      <c r="C8" s="249"/>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="228"/>
-      <c r="C9" s="252"/>
+      <c r="C9" s="249"/>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="228"/>
-      <c r="C10" s="252"/>
+      <c r="C10" s="249"/>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="228"/>
-      <c r="C11" s="252"/>
+      <c r="C11" s="249"/>
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="228"/>
-      <c r="C12" s="252"/>
+      <c r="C12" s="249"/>
     </row>
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="228"/>
-      <c r="C13" s="252"/>
+      <c r="C13" s="249"/>
     </row>
     <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="228"/>
-      <c r="C14" s="252"/>
+      <c r="C14" s="249"/>
     </row>
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="228"/>
-      <c r="C15" s="252"/>
+      <c r="C15" s="249"/>
     </row>
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="228"/>
-      <c r="C16" s="252"/>
+      <c r="C16" s="249"/>
     </row>
     <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="228"/>
-      <c r="C17" s="252"/>
+      <c r="C17" s="249"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="246"/>
-      <c r="B18" s="247"/>
-      <c r="C18" s="267"/>
+      <c r="A18" s="243"/>
+      <c r="B18" s="244"/>
+      <c r="C18" s="263"/>
     </row>
     <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="249"/>
-      <c r="B19" s="249"/>
-      <c r="C19" s="249"/>
+      <c r="A19" s="246"/>
+      <c r="B19" s="246"/>
+      <c r="C19" s="246"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -43874,7 +43845,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -43884,222 +43855,222 @@
       <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="11.4453125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="313" width="11.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="250" width="11.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="309" width="11.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="247" width="11.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="229" width="9.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="229" width="46.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="229" width="15.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="229" width="15.87"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="6" min="6" style="229" width="14.66"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="7" min="7" style="229" width="40"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="8" min="8" style="229" width="13.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="252" width="19"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="10" style="230" width="11.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="249" width="19"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="10" style="230" width="11.44"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="314" t="s">
-        <v>742</v>
-      </c>
-      <c r="B1" s="315" t="s">
+      <c r="A1" s="310" t="s">
+        <v>743</v>
+      </c>
+      <c r="B1" s="311" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="301" t="s">
+      <c r="C1" s="297" t="s">
         <v>665</v>
       </c>
-      <c r="D1" s="301" t="s">
-        <v>743</v>
-      </c>
-      <c r="E1" s="301" t="s">
+      <c r="D1" s="297" t="s">
         <v>744</v>
       </c>
-      <c r="F1" s="301" t="s">
+      <c r="E1" s="297" t="s">
+        <v>745</v>
+      </c>
+      <c r="F1" s="297" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="301" t="s">
-        <v>745</v>
-      </c>
-      <c r="H1" s="301" t="s">
+      <c r="G1" s="297" t="s">
         <v>746</v>
       </c>
-      <c r="I1" s="302" t="s">
+      <c r="H1" s="297" t="s">
+        <v>747</v>
+      </c>
+      <c r="I1" s="298" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="229" t="s">
-        <v>747</v>
-      </c>
-      <c r="D2" s="243" t="s">
         <v>748</v>
       </c>
-      <c r="E2" s="243" t="s">
+      <c r="D2" s="229" t="s">
+        <v>749</v>
+      </c>
+      <c r="E2" s="229" t="s">
         <v>668</v>
       </c>
       <c r="G2" s="229" t="s">
-        <v>749</v>
-      </c>
-      <c r="I2" s="252" t="s">
         <v>750</v>
       </c>
+      <c r="I2" s="249" t="s">
+        <v>751</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="313" t="n">
+      <c r="A3" s="309" t="n">
         <v>44153</v>
       </c>
       <c r="C3" s="229" t="s">
-        <v>751</v>
-      </c>
-      <c r="D3" s="243" t="s">
         <v>752</v>
       </c>
-      <c r="E3" s="243" t="s">
+      <c r="D3" s="229" t="s">
         <v>753</v>
       </c>
-      <c r="G3" s="243" t="s">
+      <c r="E3" s="229" t="s">
         <v>754</v>
       </c>
-      <c r="I3" s="252" t="s">
+      <c r="G3" s="229" t="s">
         <v>755</v>
       </c>
+      <c r="I3" s="249" t="s">
+        <v>756</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="313" t="n">
+      <c r="A4" s="309" t="n">
         <v>44153</v>
       </c>
       <c r="C4" s="229" t="s">
-        <v>747</v>
-      </c>
-      <c r="D4" s="243" t="s">
+        <v>748</v>
+      </c>
+      <c r="D4" s="229" t="s">
+        <v>757</v>
+      </c>
+      <c r="E4" s="229" t="s">
+        <v>754</v>
+      </c>
+      <c r="G4" s="229" t="s">
+        <v>758</v>
+      </c>
+      <c r="I4" s="249" t="s">
         <v>756</v>
       </c>
-      <c r="E4" s="243" t="s">
-        <v>753</v>
-      </c>
-      <c r="G4" s="243" t="s">
-        <v>757</v>
-      </c>
-      <c r="I4" s="252" t="s">
-        <v>755</v>
-      </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="313" t="n">
+      <c r="A5" s="309" t="n">
         <v>44294</v>
       </c>
       <c r="C5" s="229" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="D5" s="229" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="E5" s="229" t="s">
-        <v>753</v>
-      </c>
-      <c r="I5" s="252" t="s">
-        <v>759</v>
+        <v>754</v>
+      </c>
+      <c r="I5" s="249" t="s">
+        <v>760</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="229" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="D6" s="229" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="E6" s="229" t="s">
-        <v>753</v>
-      </c>
-      <c r="I6" s="252" t="s">
-        <v>755</v>
+        <v>754</v>
+      </c>
+      <c r="I6" s="249" t="s">
+        <v>756</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="229" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="D7" s="229" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E7" s="229" t="s">
-        <v>753</v>
-      </c>
-      <c r="I7" s="252" t="s">
-        <v>755</v>
+        <v>754</v>
+      </c>
+      <c r="I7" s="249" t="s">
+        <v>756</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="229" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="D8" s="229" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="E8" s="229" t="s">
-        <v>753</v>
-      </c>
-      <c r="I8" s="252" t="s">
-        <v>755</v>
+        <v>754</v>
+      </c>
+      <c r="I8" s="249" t="s">
+        <v>756</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="229" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="D9" s="229" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="E9" s="229" t="s">
-        <v>753</v>
-      </c>
-      <c r="I9" s="252" t="s">
-        <v>755</v>
+        <v>754</v>
+      </c>
+      <c r="I9" s="249" t="s">
+        <v>756</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="229" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="D10" s="229" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="E10" s="229" t="s">
-        <v>753</v>
-      </c>
-      <c r="I10" s="252" t="s">
-        <v>755</v>
+        <v>754</v>
+      </c>
+      <c r="I10" s="249" t="s">
+        <v>756</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="229" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="D11" s="229" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="E11" s="229" t="s">
-        <v>753</v>
-      </c>
-      <c r="I11" s="252" t="s">
-        <v>755</v>
+        <v>754</v>
+      </c>
+      <c r="I11" s="249" t="s">
+        <v>756</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="313" t="n">
+      <c r="A12" s="309" t="n">
         <v>44294</v>
       </c>
       <c r="C12" s="229" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="D12" s="229" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="E12" s="229" t="s">
-        <v>753</v>
-      </c>
-      <c r="I12" s="252" t="s">
-        <v>755</v>
+        <v>754</v>
+      </c>
+      <c r="I12" s="249" t="s">
+        <v>756</v>
       </c>
     </row>
   </sheetData>

--- a/_data/CDLEML_WP_Progress_EML-Process.xlsx
+++ b/_data/CDLEML_WP_Progress_EML-Process.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="EML_Tool_WP" sheetId="1" state="visible" r:id="rId2"/>
@@ -19,6 +19,7 @@
     <sheet name="Upcoming_Thesis" sheetId="9" state="visible" r:id="rId10"/>
     <sheet name="Members" sheetId="10" state="visible" r:id="rId11"/>
     <sheet name="Settings" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="OpenTheses" sheetId="12" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">AG_Progress!$A$1:$F$54</definedName>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1860" uniqueCount="794">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1918" uniqueCount="822">
   <si>
     <t xml:space="preserve">Compliance zu WPs CDLEML</t>
   </si>
@@ -2902,6 +2903,90 @@
   <si>
     <t xml:space="preserve">Prio: Priority of the sub task in range [1,2,3]</t>
   </si>
+  <si>
+    <t xml:space="preserve">Betreuer 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Betreuer 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Titel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jantsch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wess</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://tiss.tuwien.ac.at/thesis/thesisDetails.xhtml?dswid=9078&amp;dsrid=628&amp;thesisId=83155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://tiss.tuwien.ac.at/thesis/thesisDetails.xhtml?dswid=8615&amp;dsrid=533&amp;thesisId=89084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Power-Aware Pruning on Embedded Platforms with Reinforcement Learning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://tiss.tuwien.ac.at/thesis/thesisDetails.xhtml?dswid=8461&amp;dsrid=505&amp;thesisId=89961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lechner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consistent Semantic Segmentation of Video Objects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://tiss.tuwien.ac.at/thesis/thesisDetails.xhtml?dswid=9579&amp;dsrid=362&amp;thesisId=90183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hardware-Aware Pruning of Neural Networks with Intel Distiller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://tiss.tuwien.ac.at/thesis/thesisDetails.xhtml?dswid=7234&amp;dsrid=684&amp;thesisId=83157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://tiss.tuwien.ac.at/thesis/thesisDetails.xhtml?dswid=2782&amp;dsrid=203&amp;thesisId=85720</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Real-time Simultaneous Face Detection and Pose Estimation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://tiss.tuwien.ac.at/thesis/thesisDetails.xhtml?dswid=8201&amp;dsrid=413&amp;thesisId=96423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bittner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vision based workplace safety monitor in an automotive test bench</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://tiss.tuwien.ac.at/thesis/thesisDetails.xhtml?dswid=8384&amp;dsrid=99&amp;thesisId=98360</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Designing an all-digital DLL for an open-source DDR3 controller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://tiss.tuwien.ac.at/thesis/thesisDetails.xhtml?dswid=6371&amp;dsrid=717&amp;thesisId=37487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deep Learning with Reduced Precision Weights</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://tiss.tuwien.ac.at/thesis/thesisDetails.xhtml?dswid=2720&amp;dsrid=822&amp;thesisId=57335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Embedded Deep Learning Inference with Shift-CNN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://tiss.tuwien.ac.at/thesis/thesisDetails.xhtml?dswid=1203&amp;dsrid=744&amp;thesisId=57337</t>
+  </si>
 </sst>
 </file>
 
@@ -2917,7 +3002,7 @@
     <numFmt numFmtId="170" formatCode="0.0000"/>
     <numFmt numFmtId="171" formatCode="General"/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="36">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -3167,6 +3252,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="17">
@@ -3973,7 +4063,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="318">
+  <cellXfs count="320">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -5246,6 +5336,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="35" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -24538,7 +24636,7 @@
       <c r="AO133" s="157"/>
       <c r="AP133" s="62" t="n">
         <f aca="false">SUMPRODUCT(AO134:AO154,AP134:AP154)/SUM(AO134:AO154)</f>
-        <v>0.573333333333334</v>
+        <v>0.573333333333333</v>
       </c>
       <c r="AQ133" s="138"/>
       <c r="AR133" s="92"/>
@@ -36752,7 +36850,7 @@
       <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.45703125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.67"/>
   </cols>
@@ -37014,7 +37112,7 @@
       <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.45703125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.33"/>
   </cols>
@@ -37039,7 +37137,7 @@
       </c>
       <c r="H2" s="317" t="n">
         <f aca="true">TODAY()</f>
-        <v>44586</v>
+        <v>44601</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37106,6 +37204,233 @@
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="50.6"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="314" t="s">
+        <v>665</v>
+      </c>
+      <c r="B1" s="314" t="s">
+        <v>794</v>
+      </c>
+      <c r="C1" s="314" t="s">
+        <v>795</v>
+      </c>
+      <c r="D1" s="314" t="s">
+        <v>796</v>
+      </c>
+      <c r="E1" s="314" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="314" t="s">
+        <v>748</v>
+      </c>
+      <c r="B2" s="314" t="s">
+        <v>797</v>
+      </c>
+      <c r="C2" s="314" t="s">
+        <v>798</v>
+      </c>
+      <c r="D2" s="318" t="s">
+        <v>766</v>
+      </c>
+      <c r="E2" s="314" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="314" t="s">
+        <v>748</v>
+      </c>
+      <c r="B3" s="314" t="s">
+        <v>797</v>
+      </c>
+      <c r="C3" s="314" t="s">
+        <v>798</v>
+      </c>
+      <c r="D3" s="318" t="s">
+        <v>761</v>
+      </c>
+      <c r="E3" s="314" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="314" t="s">
+        <v>801</v>
+      </c>
+      <c r="B4" s="314" t="s">
+        <v>797</v>
+      </c>
+      <c r="C4" s="314" t="s">
+        <v>798</v>
+      </c>
+      <c r="D4" s="318" t="s">
+        <v>802</v>
+      </c>
+      <c r="E4" s="314" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>801</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>797</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>804</v>
+      </c>
+      <c r="D5" s="319" t="s">
+        <v>805</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>801</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>797</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>804</v>
+      </c>
+      <c r="D6" s="319" t="s">
+        <v>807</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>801</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>797</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>804</v>
+      </c>
+      <c r="D7" s="319" t="s">
+        <v>763</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>748</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>797</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>804</v>
+      </c>
+      <c r="D8" s="319" t="s">
+        <v>810</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>801</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>797</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>812</v>
+      </c>
+      <c r="D9" s="319" t="s">
+        <v>813</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>801</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>797</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>815</v>
+      </c>
+      <c r="D10" s="319" t="s">
+        <v>816</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>801</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>797</v>
+      </c>
+      <c r="D11" s="319" t="s">
+        <v>818</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>801</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>797</v>
+      </c>
+      <c r="D12" s="319" t="s">
+        <v>820</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>821</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -39063,7 +39388,7 @@
       <c r="E32" s="239"/>
       <c r="F32" s="254" t="n">
         <f aca="false">IF(VLOOKUP(A32,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A32,EML_Tool_WP!A:BB,42,0))</f>
-        <v>0.573333333333334</v>
+        <v>0.573333333333333</v>
       </c>
       <c r="G32" s="239"/>
       <c r="H32" s="257"/>
@@ -39992,7 +40317,8 @@
       <c r="H7" s="247" t="str">
         <f aca="false">IF(VLOOKUP(A7,EML_Tool_WP!A:BB,52,0)="","",VLOOKUP(A7,EML_Tool_WP!A:BB,52,0))</f>
         <v>[] Completed power measurement environment
-[] Automated platform characterization for a platform</v>
+[] Automated platform characterization for a platform
+</v>
       </c>
       <c r="I7" s="247" t="str">
         <f aca="false">IF(VLOOKUP(A7,EML_Tool_WP!A:BB,53,0)="","",VLOOKUP(A7,EML_Tool_WP!A:BB,53,0))</f>
@@ -40859,7 +41185,7 @@
       </c>
       <c r="G29" s="270" t="str">
         <f aca="false">IF(VLOOKUP(A29,EML_Tool_WP!A:BB,50,0)="","",VLOOKUP(A29,EML_Tool_WP!A:BB,50,0))</f>
-        <v>Distiller derived pruning tool for simple networks ResNets for classification tasks as well as MobileNet</v>
+        <v>Distiller derived pruning tool for simple networks ResNets for classification tasks as well as MobileNet </v>
       </c>
       <c r="H29" s="247" t="str">
         <f aca="false">IF(VLOOKUP(A29,EML_Tool_WP!A:BB,52,0)="","",VLOOKUP(A29,EML_Tool_WP!A:BB,52,0))</f>
@@ -40955,7 +41281,7 @@
       <c r="D32" s="239"/>
       <c r="E32" s="254" t="n">
         <f aca="false">IF(VLOOKUP(A32,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A32,EML_Tool_WP!A:BB,42,0))</f>
-        <v>0.573333333333334</v>
+        <v>0.573333333333333</v>
       </c>
       <c r="F32" s="239"/>
       <c r="G32" s="271"/>
@@ -41448,7 +41774,8 @@
         <v>[x] Modified model car, which can be controlled by WiFI, video feed with camera image, bounding boxes with classes painted into the image by an object detection network
 [] Software project with scripts necessary to run the demonstrator in repository
 [] Written thesis about the demonstrator
-[x] Video with visible comparsion of networks and modi published on homepage</v>
+[x] Video with visible comparsion of networks and modi published on homepage
+</v>
       </c>
       <c r="I44" s="247" t="str">
         <f aca="false">IF(VLOOKUP(A44,EML_Tool_WP!A:BB,53,0)="","",VLOOKUP(A44,EML_Tool_WP!A:BB,53,0))</f>
@@ -42523,7 +42850,7 @@
       <c r="F32" s="239"/>
       <c r="G32" s="276" t="n">
         <f aca="false">IF(VLOOKUP(A32,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A32,EML_Tool_WP!A:BB,42,0))</f>
-        <v>0.573333333333334</v>
+        <v>0.573333333333333</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43390,8 +43717,8 @@
   </sheetPr>
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.56640625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/_data/CDLEML_WP_Progress_EML-Process.xlsx
+++ b/_data/CDLEML_WP_Progress_EML-Process.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1918" uniqueCount="822">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1923" uniqueCount="823">
   <si>
     <t xml:space="preserve">Compliance zu WPs CDLEML</t>
   </si>
@@ -2986,6 +2986,9 @@
   </si>
   <si>
     <t xml:space="preserve">https://tiss.tuwien.ac.at/thesis/thesisDetails.xhtml?dswid=1203&amp;dsrid=744&amp;thesisId=57337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test</t>
   </si>
 </sst>
 </file>
@@ -3257,6 +3260,7 @@
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="17">
@@ -37213,13 +37217,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.06"/>
@@ -37422,6 +37426,23 @@
       </c>
       <c r="E12" s="0" t="s">
         <v>821</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>822</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>822</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>822</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>822</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>822</v>
       </c>
     </row>
   </sheetData>
@@ -40317,8 +40338,7 @@
       <c r="H7" s="247" t="str">
         <f aca="false">IF(VLOOKUP(A7,EML_Tool_WP!A:BB,52,0)="","",VLOOKUP(A7,EML_Tool_WP!A:BB,52,0))</f>
         <v>[] Completed power measurement environment
-[] Automated platform characterization for a platform
-</v>
+[] Automated platform characterization for a platform</v>
       </c>
       <c r="I7" s="247" t="str">
         <f aca="false">IF(VLOOKUP(A7,EML_Tool_WP!A:BB,53,0)="","",VLOOKUP(A7,EML_Tool_WP!A:BB,53,0))</f>
@@ -41185,7 +41205,7 @@
       </c>
       <c r="G29" s="270" t="str">
         <f aca="false">IF(VLOOKUP(A29,EML_Tool_WP!A:BB,50,0)="","",VLOOKUP(A29,EML_Tool_WP!A:BB,50,0))</f>
-        <v>Distiller derived pruning tool for simple networks ResNets for classification tasks as well as MobileNet </v>
+        <v>Distiller derived pruning tool for simple networks ResNets for classification tasks as well as MobileNet</v>
       </c>
       <c r="H29" s="247" t="str">
         <f aca="false">IF(VLOOKUP(A29,EML_Tool_WP!A:BB,52,0)="","",VLOOKUP(A29,EML_Tool_WP!A:BB,52,0))</f>
@@ -41774,8 +41794,7 @@
         <v>[x] Modified model car, which can be controlled by WiFI, video feed with camera image, bounding boxes with classes painted into the image by an object detection network
 [] Software project with scripts necessary to run the demonstrator in repository
 [] Written thesis about the demonstrator
-[x] Video with visible comparsion of networks and modi published on homepage
-</v>
+[x] Video with visible comparsion of networks and modi published on homepage</v>
       </c>
       <c r="I44" s="247" t="str">
         <f aca="false">IF(VLOOKUP(A44,EML_Tool_WP!A:BB,53,0)="","",VLOOKUP(A44,EML_Tool_WP!A:BB,53,0))</f>

--- a/_data/CDLEML_WP_Progress_EML-Process.xlsx
+++ b/_data/CDLEML_WP_Progress_EML-Process.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1923" uniqueCount="823">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1918" uniqueCount="822">
   <si>
     <t xml:space="preserve">Compliance zu WPs CDLEML</t>
   </si>
@@ -2986,9 +2986,6 @@
   </si>
   <si>
     <t xml:space="preserve">https://tiss.tuwien.ac.at/thesis/thesisDetails.xhtml?dswid=1203&amp;dsrid=744&amp;thesisId=57337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test</t>
   </si>
 </sst>
 </file>
@@ -37219,11 +37216,11 @@
   </sheetPr>
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.06"/>
@@ -37428,23 +37425,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>822</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>822</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>822</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>822</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>822</v>
-      </c>
-    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/_data/CDLEML_WP_Progress_EML-Process.xlsx
+++ b/_data/CDLEML_WP_Progress_EML-Process.xlsx
@@ -5,30 +5,19 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="11"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="EML_Tool_WP" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="AG_Web_Activities " sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="AG_Progress" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="AG_Progress_Ext" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="AG_Students" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="Active_Thesis" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="Compl_Thesis" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="Software" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="Upcoming_Thesis" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="Members" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="Settings" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="OpenTheses" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="Compl_Thesis" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Software" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="OpenTheses" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">AG_Progress!$A$1:$F$54</definedName>
-    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">AG_Progress_Ext!$A$1:$J$54</definedName>
-    <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">AG_Students!$A$1:$G$54</definedName>
     <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'AG_Web_Activities '!$A$1:$D$54</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">EML_Tool_WP!$A$1:$Q$222</definedName>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">EML_Tool_WP!$A$1:$BB$254</definedName>
-    <definedName function="false" hidden="true" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">Upcoming_Thesis!$A$1:$I$4</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -40,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1918" uniqueCount="822">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1566" uniqueCount="749">
   <si>
     <t xml:space="preserve">Compliance zu WPs CDLEML</t>
   </si>
@@ -2499,177 +2488,99 @@
     <t xml:space="preserve">Result</t>
   </si>
   <si>
-    <t xml:space="preserve">Exp. End</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Planned Deliverable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deliverable Comment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assigned ME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ME</t>
-  </si>
-  <si>
     <t xml:space="preserve">Type</t>
   </si>
   <si>
     <t xml:space="preserve">Location</t>
   </si>
   <si>
-    <t xml:space="preserve">Check if exist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Martin Lechner</t>
+    <t xml:space="preserve">Year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaleab Alemayehu Kinfu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lifelong Learning for Autonomous Vehicles: Monocular Depth Estimation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Master</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TU Graz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anam Zahra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Autonomous Vehicle Self-localization in Noisy Environments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andreas Glinserer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Autopruning  mit  Intel  Distiller  und  Evaluation  auf  einem  Jetson  Xavier AGX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TU Wien</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.34726/hss.2021.90301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marco Wuschnig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auswertung verschiedener Methoden der Hyperparameteroptimierung in Machine Learning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bachelor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://publik.tuwien.ac.at/files/publik_295896.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Julian Roth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auswertung von Cloudbasierten Machine Learning Frameworks für Supervised Machine Learning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://publik.tuwien.ac.at/files/publik_295897.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bernhard Haas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compressing MobileNet With Shunt Connections for NVIDIA Hardware</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://publik.tuwien.ac.at/files/publik_295948.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michael Opitz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Efficient Ensembles for Deep Learning</t>
   </si>
   <si>
     <t xml:space="preserve">Ph.D</t>
   </si>
   <si>
-    <t xml:space="preserve">TU Wien</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matthias Wess</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nikolas Alge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BrainPOWER: Power Estimation for Embedded Machine-Learning Platforms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bachelor</t>
+    <t xml:space="preserve">Matvey Ivanov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Embedded Machine Learning Demonstrator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://publik.tuwien.ac.at/files/publik_296007.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Dominik Dallinger</t>
   </si>
   <si>
-    <t xml:space="preserve">Dynamic post-training Quantization of Tiny-YoloV3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andreas Glinserer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Autopruning mit Intel Distiller und Evaluation auf einem Jetson Xavier AGX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Master</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Julian Westra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Optimierung eines Deep Neural Network mit Hilfe von OpenVino für eine Fußgängererkennungsalgorithmus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Birgit Schreiber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evaluation of Quantization Aware Training Methods for INT8 and lower bit-widths for image classification, object detection and segmentation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Helmuth Breitenfellner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Simultanous Detection and Segmentation of Different Objects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fabian Scherer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lukas Steindl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Optimizing DNNs for efficient dronebased ragweed detection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thomas Kotrba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tensorflow Lite Object Detection on an Android Smart Phone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seminar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Srdan Letina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Link</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kaleab Alemayehu Kinfu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lifelong Learning for Autonomous Vehicles: Monocular Depth Estimation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TU Graz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anam Zahra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Autonomous Vehicle Self-localization in Noisy Environments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Autopruning  mit  Intel  Distiller  und  Evaluation  auf  einem  Jetson  Xavier AGX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.34726/hss.2021.90301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marco Wuschnig</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Auswertung verschiedener Methoden der Hyperparameteroptimierung in Machine Learning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://publik.tuwien.ac.at/files/publik_295896.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Julian Roth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Auswertung von Cloudbasierten Machine Learning Frameworks für Supervised Machine Learning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://publik.tuwien.ac.at/files/publik_295897.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bernhard Haas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compressing MobileNet With Shunt Connections for NVIDIA Hardware</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://publik.tuwien.ac.at/files/publik_295948.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Michael Opitz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Efficient Ensembles for Deep Learning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matvey Ivanov</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Embedded Machine Learning Demonstrator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://publik.tuwien.ac.at/files/publik_296007.pdf</t>
-  </si>
-  <si>
     <t xml:space="preserve">FPGA optimized dynamic post-training quantization of TinyYoloV3</t>
   </si>
   <si>
@@ -2751,202 +2662,61 @@
     <t xml:space="preserve">https://github.com/embedded-machine-learning/MobileNetV3-Segmentation-Keras</t>
   </si>
   <si>
-    <t xml:space="preserve">Publish Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Topic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supervisor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TISS Link</t>
+    <t xml:space="preserve">Betreuer 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Betreuer 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Titel</t>
   </si>
   <si>
     <t xml:space="preserve">BA</t>
   </si>
   <si>
-    <t xml:space="preserve">Resourcenestimierung NVIDIA Möglichkeiten sondieren, Framework, nSight?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thema definieren</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To be defined</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3D Convolutions an NVIDIA Hardware auswerten</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alexander Wendt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thema genau mit Graz definieren</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Open</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Optimierung von Objekterkennungsnetzwerken an der Google Edge TPU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ausgeschrieben</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPU vs. GPU Performance comparison on Intel NUC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Student found</t>
+    <t xml:space="preserve">Jantsch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wess</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anpassung eines Latenz- und Leistungsschätzungsmodell für ARM Prozessoren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://tiss.tuwien.ac.at/thesis/thesisDetails.xhtml?dswid=9078&amp;dsrid=628&amp;thesisId=83155</t>
   </si>
   <si>
     <t xml:space="preserve">Pruning von Slimmable Deep Neural Networks an einer Intel Neural Processing Unit</t>
   </si>
   <si>
-    <t xml:space="preserve">Embedded High Speed Image Classification/Detection/Segmentation with Quantized Neural Networks</t>
+    <t xml:space="preserve">https://tiss.tuwien.ac.at/thesis/thesisDetails.xhtml?dswid=8615&amp;dsrid=533&amp;thesisId=89084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Power-Aware Pruning on Embedded Platforms with Reinforcement Learning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://tiss.tuwien.ac.at/thesis/thesisDetails.xhtml?dswid=8461&amp;dsrid=505&amp;thesisId=89961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lechner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consistent Semantic Segmentation of Video Objects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://tiss.tuwien.ac.at/thesis/thesisDetails.xhtml?dswid=9579&amp;dsrid=362&amp;thesisId=90183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hardware-Aware Pruning of Neural Networks with Intel Distiller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://tiss.tuwien.ac.at/thesis/thesisDetails.xhtml?dswid=7234&amp;dsrid=684&amp;thesisId=83157</t>
   </si>
   <si>
     <t xml:space="preserve">Optimierung von 3D Convolutions auf Embedded Hardware für autonomes Fahren</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leistung- and Latenz Optimierung eines Xilinx ZCU102 Boards für die Erkennung von Fussgängertrajektorien in einem Use Case</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hardware Aware Pruning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anpassung eines Latenz- und Leistungsschätzungsmodell für ARM Prozessoren</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Power-Aware Pruning on Embedded Platforms with Reinforcement Learning </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abbreviation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Axel Jantsch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Christian Krieg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Karoline Knoth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stephan Holly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Georg Krispel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Horst Possegger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zahra Anam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kaleb Alemayehu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Legend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WP ID: Work package sub task Id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Title: Sub task title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">paused</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Start Date: Start Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">End Date: Confirmed end date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description: Very short content summary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Responsible: EML member responsible or supervisor of student</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Student: In case of a thesis, the student, who is active</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Links: Links to sub task results</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State: [not started, cancelled, running, closed]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prio: Priority of the sub task in range [1,2,3]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Betreuer 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Betreuer 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Titel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jantsch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wess</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://tiss.tuwien.ac.at/thesis/thesisDetails.xhtml?dswid=9078&amp;dsrid=628&amp;thesisId=83155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://tiss.tuwien.ac.at/thesis/thesisDetails.xhtml?dswid=8615&amp;dsrid=533&amp;thesisId=89084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Power-Aware Pruning on Embedded Platforms with Reinforcement Learning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://tiss.tuwien.ac.at/thesis/thesisDetails.xhtml?dswid=8461&amp;dsrid=505&amp;thesisId=89961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lechner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Consistent Semantic Segmentation of Video Objects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://tiss.tuwien.ac.at/thesis/thesisDetails.xhtml?dswid=9579&amp;dsrid=362&amp;thesisId=90183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hardware-Aware Pruning of Neural Networks with Intel Distiller</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://tiss.tuwien.ac.at/thesis/thesisDetails.xhtml?dswid=7234&amp;dsrid=684&amp;thesisId=83157</t>
   </si>
   <si>
     <t xml:space="preserve">https://tiss.tuwien.ac.at/thesis/thesisDetails.xhtml?dswid=2782&amp;dsrid=203&amp;thesisId=85720</t>
@@ -3239,17 +3009,17 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF111111"/>
-      <name val="Arial"/>
+      <u val="single"/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <u val="single"/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <color rgb="FF111111"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -3260,7 +3030,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3333,32 +3103,8 @@
         <bgColor rgb="FFE6E0EC"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFC000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FF9C0006"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor rgb="FFFF9900"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor rgb="FFC3D69B"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="76">
+  <borders count="73">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -3985,6 +3731,13 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
       <right style="medium"/>
       <top/>
@@ -3992,44 +3745,16 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="medium"/>
-      <top style="thin"/>
-      <bottom/>
+      <left/>
+      <right/>
+      <top style="medium"/>
+      <bottom style="medium"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
       <right style="medium"/>
       <top style="thin"/>
-      <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="thin"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
-      <top style="medium"/>
       <bottom style="medium"/>
       <diagonal/>
     </border>
@@ -4060,11 +3785,11 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="34" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="320">
+  <cellXfs count="267">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -5053,199 +4778,11 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="67" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="11" borderId="62" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="11" borderId="62" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="11" borderId="68" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="12" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="12" borderId="11" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="12" borderId="69" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="12" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="12" borderId="67" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="70" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="66" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="66" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="71" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="69" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="11" borderId="72" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="12" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="12" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="73" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="74" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="11" borderId="68" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="12" borderId="67" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="67" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="60" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="13" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="13" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="13" borderId="67" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="14" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="15" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="16" borderId="60" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="16" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="16" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="16" borderId="67" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="16" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="16" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="16" borderId="64" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="70" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="71" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5261,24 +4798,28 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="69" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="69" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="33" fillId="0" borderId="60" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="70" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="72" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="34" fillId="0" borderId="67" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="67" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="34" fillId="0" borderId="60" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="61" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -5293,47 +4834,19 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="75" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="71" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="34" fillId="0" borderId="69" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="70" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="60" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="72" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="61" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="62" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -14692,7 +14205,7 @@
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00CC00"/>
       <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFDEADA"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF9C0006"/>
@@ -14703,7 +14216,7 @@
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFBFBFBF"/>
       <rgbColor rgb="FF9C6500"/>
-      <rgbColor rgb="FFFDEADA"/>
+      <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF7030A0"/>
       <rgbColor rgb="FFEBF1DE"/>
       <rgbColor rgb="FFDCE6F2"/>
@@ -14713,7 +14226,7 @@
       <rgbColor rgb="FFB9CDE5"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFD7E4BD"/>
+      <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF800000"/>
@@ -14724,12 +14237,12 @@
       <rgbColor rgb="FFC6EFCE"/>
       <rgbColor rgb="FFFFEB9C"/>
       <rgbColor rgb="FFCCC1DA"/>
-      <rgbColor rgb="FFC3D69B"/>
+      <rgbColor rgb="FFD7E4BD"/>
       <rgbColor rgb="FFD9D9D9"/>
       <rgbColor rgb="FFFFC7CE"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF92D050"/>
+      <rgbColor rgb="FFC3D69B"/>
       <rgbColor rgb="FFFFC000"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFE46C0A"/>
@@ -14756,22 +14269,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -14779,12 +14276,12 @@
   </sheetPr>
   <dimension ref="A1:BE259"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="AY112" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="AY1" activeCellId="0" sqref="AY1"/>
       <selection pane="bottomLeft" activeCell="A112" activeCellId="0" sqref="A112"/>
-      <selection pane="bottomRight" activeCell="AZ117" activeCellId="0" sqref="AZ117"/>
+      <selection pane="bottomRight" activeCell="B134" activeCellId="0" sqref="B134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4453125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="2" outlineLevelCol="1"/>
@@ -36822,7 +36319,7 @@
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AV3:AV219" type="list">
-      <formula1>Settings!$A$2:$A$6</formula1>
+      <formula1>#REF!</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -36840,603 +36337,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B30"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.45703125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.67"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="312" t="s">
-        <v>768</v>
-      </c>
-      <c r="B1" s="312" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>363</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>770</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>403</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>346</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>315</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>438</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>502</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>337</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>329</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>560</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>774</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>594</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>464</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="B22" s="0" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>620</v>
-      </c>
-      <c r="B23" s="313" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>625</v>
-      </c>
-      <c r="B24" s="314" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>629</v>
-      </c>
-      <c r="B25" s="314" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="314"/>
-    </row>
-    <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
-        <v>621</v>
-      </c>
-      <c r="B27" s="314" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
-        <v>626</v>
-      </c>
-      <c r="B28" s="314" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
-        <v>630</v>
-      </c>
-      <c r="B29" s="314" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
-        <v>634</v>
-      </c>
-      <c r="B30" s="314" t="s">
-        <v>692</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:H11"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.45703125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.33"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="312" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="315" t="s">
-        <v>780</v>
-      </c>
-      <c r="H1" s="312" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>782</v>
-      </c>
-      <c r="C2" s="316" t="s">
-        <v>783</v>
-      </c>
-      <c r="H2" s="317" t="n">
-        <f aca="true">TODAY()</f>
-        <v>44601</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="C3" s="316" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>785</v>
-      </c>
-      <c r="C4" s="316" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" s="316" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="316" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="316" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="316" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="316" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="316" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="316" t="s">
-        <v>793</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:E13"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="50.6"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="314" t="s">
-        <v>665</v>
-      </c>
-      <c r="B1" s="314" t="s">
-        <v>794</v>
-      </c>
-      <c r="C1" s="314" t="s">
-        <v>795</v>
-      </c>
-      <c r="D1" s="314" t="s">
-        <v>796</v>
-      </c>
-      <c r="E1" s="314" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="314" t="s">
-        <v>748</v>
-      </c>
-      <c r="B2" s="314" t="s">
-        <v>797</v>
-      </c>
-      <c r="C2" s="314" t="s">
-        <v>798</v>
-      </c>
-      <c r="D2" s="318" t="s">
-        <v>766</v>
-      </c>
-      <c r="E2" s="314" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="314" t="s">
-        <v>748</v>
-      </c>
-      <c r="B3" s="314" t="s">
-        <v>797</v>
-      </c>
-      <c r="C3" s="314" t="s">
-        <v>798</v>
-      </c>
-      <c r="D3" s="318" t="s">
-        <v>761</v>
-      </c>
-      <c r="E3" s="314" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="314" t="s">
-        <v>801</v>
-      </c>
-      <c r="B4" s="314" t="s">
-        <v>797</v>
-      </c>
-      <c r="C4" s="314" t="s">
-        <v>798</v>
-      </c>
-      <c r="D4" s="318" t="s">
-        <v>802</v>
-      </c>
-      <c r="E4" s="314" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>801</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>797</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>804</v>
-      </c>
-      <c r="D5" s="319" t="s">
-        <v>805</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>801</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>797</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>804</v>
-      </c>
-      <c r="D6" s="319" t="s">
-        <v>807</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>801</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>797</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>804</v>
-      </c>
-      <c r="D7" s="319" t="s">
-        <v>763</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>748</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>797</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>804</v>
-      </c>
-      <c r="D8" s="319" t="s">
-        <v>810</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>801</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>797</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>812</v>
-      </c>
-      <c r="D9" s="319" t="s">
-        <v>813</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>801</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>797</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>815</v>
-      </c>
-      <c r="D10" s="319" t="s">
-        <v>816</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>801</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>797</v>
-      </c>
-      <c r="D11" s="319" t="s">
-        <v>818</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>801</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>797</v>
-      </c>
-      <c r="D12" s="319" t="s">
-        <v>820</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -37445,7 +36345,7 @@
   <dimension ref="A1:G54"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.56640625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -37496,7 +36396,7 @@
         <v>State of the Art Latency und Power Estimation Modelle aufsetzen</v>
       </c>
       <c r="C3" s="229" t="str">
-        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A3,EML_Tool_WP!A:BB,46,0),Members!A:B,2,0),"")</f>
+        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A3,EML_Tool_WP!A:BB,46,0),#REF!,2,0),"")</f>
         <v/>
       </c>
       <c r="D3" s="229" t="str">
@@ -37518,8 +36418,8 @@
         <v>Latency Estimator Blackthorn (NVIDIA)</v>
       </c>
       <c r="C4" s="229" t="str">
-        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A4,EML_Tool_WP!A:BB,46,0),Members!A:B,2,0),"")</f>
-        <v>Martin Lechner</v>
+        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A4,EML_Tool_WP!A:BB,46,0),#REF!,2,0),"")</f>
+        <v/>
       </c>
       <c r="D4" s="229" t="str">
         <f aca="false">IF(VLOOKUP(A4,EML_Tool_WP!A:BB,51,0)="","",VLOOKUP(A4,EML_Tool_WP!A:BB,51,0))</f>
@@ -37540,8 +36440,8 @@
         <v>Latency Estimator ANETTE (Intel, ARM, Xilinx)</v>
       </c>
       <c r="C5" s="229" t="str">
-        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A5,EML_Tool_WP!A:BB,46,0),Members!A:B,2,0),"")</f>
-        <v>Matthias Wess</v>
+        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A5,EML_Tool_WP!A:BB,46,0),#REF!,2,0),"")</f>
+        <v/>
       </c>
       <c r="D5" s="229" t="str">
         <f aca="false">IF(VLOOKUP(A5,EML_Tool_WP!A:BB,51,0)="","",VLOOKUP(A5,EML_Tool_WP!A:BB,51,0))</f>
@@ -37562,7 +36462,7 @@
         <v>Power Estimator through Christian's Model</v>
       </c>
       <c r="C6" s="229" t="str">
-        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A6,EML_Tool_WP!A:BB,46,0),Members!A:B,2,0),"")</f>
+        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A6,EML_Tool_WP!A:BB,46,0),#REF!,2,0),"")</f>
         <v/>
       </c>
       <c r="D6" s="229" t="str">
@@ -37584,8 +36484,8 @@
         <v>Power Estimator through ANNETTE</v>
       </c>
       <c r="C7" s="229" t="str">
-        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A7,EML_Tool_WP!A:BB,46,0),Members!A:B,2,0),"")</f>
-        <v>Nikolas Alge</v>
+        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A7,EML_Tool_WP!A:BB,46,0),#REF!,2,0),"")</f>
+        <v/>
       </c>
       <c r="D7" s="229" t="str">
         <f aca="false">IF(VLOOKUP(A7,EML_Tool_WP!A:BB,51,0)="","",VLOOKUP(A7,EML_Tool_WP!A:BB,51,0))</f>
@@ -37606,7 +36506,7 @@
         <v>Estimation of On-Chip Resources</v>
       </c>
       <c r="C8" s="229" t="str">
-        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A8,EML_Tool_WP!A:BB,46,0),Members!A:B,2,0),"")</f>
+        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A8,EML_Tool_WP!A:BB,46,0),#REF!,2,0),"")</f>
         <v/>
       </c>
       <c r="D8" s="229" t="str">
@@ -37639,7 +36539,7 @@
         <v>NVIDIA Platform Profiling (Jetson, TC2, Xavier)</v>
       </c>
       <c r="C10" s="229" t="str">
-        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A10,EML_Tool_WP!A:BB,46,0),Members!A:B,2,0),"")</f>
+        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A10,EML_Tool_WP!A:BB,46,0),#REF!,2,0),"")</f>
         <v/>
       </c>
       <c r="D10" s="229" t="str">
@@ -37660,7 +36560,7 @@
         <v>ARM Platform Profiling (Rasp. Pi 4)</v>
       </c>
       <c r="C11" s="229" t="str">
-        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A11,EML_Tool_WP!A:BB,46,0),Members!A:B,2,0),"")</f>
+        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A11,EML_Tool_WP!A:BB,46,0),#REF!,2,0),"")</f>
         <v/>
       </c>
       <c r="D11" s="229" t="str">
@@ -37681,7 +36581,7 @@
         <v>Xilinx Rlatform Profiling (ZCU102)</v>
       </c>
       <c r="C12" s="229" t="str">
-        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A12,EML_Tool_WP!A:BB,46,0),Members!A:B,2,0),"")</f>
+        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A12,EML_Tool_WP!A:BB,46,0),#REF!,2,0),"")</f>
         <v/>
       </c>
       <c r="D12" s="229" t="str">
@@ -37702,7 +36602,7 @@
         <v>Intel Platform Profiling (NUC, NCS2)</v>
       </c>
       <c r="C13" s="229" t="str">
-        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A13,EML_Tool_WP!A:BB,46,0),Members!A:B,2,0),"")</f>
+        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A13,EML_Tool_WP!A:BB,46,0),#REF!,2,0),"")</f>
         <v/>
       </c>
       <c r="D13" s="229" t="str">
@@ -37723,8 +36623,8 @@
         <v>Google Platform Profiling (Edge TPU)</v>
       </c>
       <c r="C14" s="229" t="str">
-        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A14,EML_Tool_WP!A:BB,46,0),Members!A:B,2,0),"")</f>
-        <v>Nikolas Alge</v>
+        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A14,EML_Tool_WP!A:BB,46,0),#REF!,2,0),"")</f>
+        <v/>
       </c>
       <c r="D14" s="229" t="str">
         <f aca="false">IF(VLOOKUP(A14,EML_Tool_WP!A:BB,51,0)="","",VLOOKUP(A14,EML_Tool_WP!A:BB,51,0))</f>
@@ -37756,7 +36656,7 @@
         <v>Common Interface Inference on all Platforms</v>
       </c>
       <c r="C16" s="229" t="str">
-        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A16,EML_Tool_WP!A:BB,46,0),Members!A:B,2,0),"")</f>
+        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A16,EML_Tool_WP!A:BB,46,0),#REF!,2,0),"")</f>
         <v/>
       </c>
       <c r="D16" s="229" t="str">
@@ -37777,7 +36677,7 @@
         <v>Common Network Inference Possible on NVIDIA</v>
       </c>
       <c r="C17" s="229" t="str">
-        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A17,EML_Tool_WP!A:BB,46,0),Members!A:B,2,0),"")</f>
+        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A17,EML_Tool_WP!A:BB,46,0),#REF!,2,0),"")</f>
         <v/>
       </c>
       <c r="D17" s="229" t="str">
@@ -37798,7 +36698,7 @@
         <v>Common Network Inference Possible on Intel</v>
       </c>
       <c r="C18" s="229" t="str">
-        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A18,EML_Tool_WP!A:BB,46,0),Members!A:B,2,0),"")</f>
+        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A18,EML_Tool_WP!A:BB,46,0),#REF!,2,0),"")</f>
         <v/>
       </c>
       <c r="D18" s="229" t="str">
@@ -37819,7 +36719,7 @@
         <v>Common Network Inference Possible on ARM</v>
       </c>
       <c r="C19" s="229" t="str">
-        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A19,EML_Tool_WP!A:BB,46,0),Members!A:B,2,0),"")</f>
+        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A19,EML_Tool_WP!A:BB,46,0),#REF!,2,0),"")</f>
         <v/>
       </c>
       <c r="D19" s="229" t="str">
@@ -37840,7 +36740,7 @@
         <v>Common Network Inference Possible on Xilinx</v>
       </c>
       <c r="C20" s="229" t="str">
-        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A20,EML_Tool_WP!A:BB,46,0),Members!A:B,2,0),"")</f>
+        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A20,EML_Tool_WP!A:BB,46,0),#REF!,2,0),"")</f>
         <v/>
       </c>
       <c r="D20" s="229" t="str">
@@ -37861,7 +36761,7 @@
         <v>Power Measurements possible for NCS2 and NVIDIA</v>
       </c>
       <c r="C21" s="229" t="str">
-        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A21,EML_Tool_WP!A:BB,46,0),Members!A:B,2,0),"")</f>
+        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A21,EML_Tool_WP!A:BB,46,0),#REF!,2,0),"")</f>
         <v/>
       </c>
       <c r="D21" s="229" t="str">
@@ -37882,7 +36782,7 @@
         <v>Demonstration of Inference on all Platforms with Common Interface</v>
       </c>
       <c r="C22" s="229" t="str">
-        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A22,EML_Tool_WP!A:BB,46,0),Members!A:B,2,0),"")</f>
+        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A22,EML_Tool_WP!A:BB,46,0),#REF!,2,0),"")</f>
         <v/>
       </c>
       <c r="D22" s="229" t="str">
@@ -37915,8 +36815,8 @@
         <v>HW Independent Quantization on Xilinx</v>
       </c>
       <c r="C24" s="229" t="str">
-        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A24,EML_Tool_WP!A:BB,46,0),Members!A:B,2,0),"")</f>
-        <v>Dominik Dallinger</v>
+        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A24,EML_Tool_WP!A:BB,46,0),#REF!,2,0),"")</f>
+        <v/>
       </c>
       <c r="D24" s="229" t="str">
         <f aca="false">IF(VLOOKUP(A24,EML_Tool_WP!A:BB,51,0)="","",VLOOKUP(A24,EML_Tool_WP!A:BB,51,0))</f>
@@ -37936,8 +36836,8 @@
         <v>Analysis of NVIDIA Native Quantization</v>
       </c>
       <c r="C25" s="229" t="str">
-        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A25,EML_Tool_WP!A:BB,46,0),Members!A:B,2,0),"")</f>
-        <v>Karoline Knoth</v>
+        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A25,EML_Tool_WP!A:BB,46,0),#REF!,2,0),"")</f>
+        <v/>
       </c>
       <c r="D25" s="229" t="str">
         <f aca="false">IF(VLOOKUP(A25,EML_Tool_WP!A:BB,51,0)="","",VLOOKUP(A25,EML_Tool_WP!A:BB,51,0))</f>
@@ -37957,8 +36857,8 @@
         <v>Analysis of Intel Native Quantization</v>
       </c>
       <c r="C26" s="229" t="str">
-        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A26,EML_Tool_WP!A:BB,46,0),Members!A:B,2,0),"")</f>
-        <v>Julian Westra</v>
+        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A26,EML_Tool_WP!A:BB,46,0),#REF!,2,0),"")</f>
+        <v/>
       </c>
       <c r="D26" s="229" t="str">
         <f aca="false">IF(VLOOKUP(A26,EML_Tool_WP!A:BB,51,0)="","",VLOOKUP(A26,EML_Tool_WP!A:BB,51,0))</f>
@@ -37978,8 +36878,8 @@
         <v>One-shot Quantizeable Slimmable Adaptive Networks on Xilinx</v>
       </c>
       <c r="C27" s="229" t="str">
-        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A27,EML_Tool_WP!A:BB,46,0),Members!A:B,2,0),"")</f>
-        <v>Birgit Schreiber</v>
+        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A27,EML_Tool_WP!A:BB,46,0),#REF!,2,0),"")</f>
+        <v/>
       </c>
       <c r="D27" s="229" t="str">
         <f aca="false">IF(VLOOKUP(A27,EML_Tool_WP!A:BB,51,0)="","",VLOOKUP(A27,EML_Tool_WP!A:BB,51,0))</f>
@@ -38011,8 +36911,8 @@
         <v>HW Independent Pruning with Distiller</v>
       </c>
       <c r="C29" s="229" t="str">
-        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A29,EML_Tool_WP!A:BB,46,0),Members!A:B,2,0),"")</f>
-        <v>Andreas Glinserer</v>
+        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A29,EML_Tool_WP!A:BB,46,0),#REF!,2,0),"")</f>
+        <v/>
       </c>
       <c r="D29" s="229" t="str">
         <f aca="false">IF(VLOOKUP(A29,EML_Tool_WP!A:BB,51,0)="","",VLOOKUP(A29,EML_Tool_WP!A:BB,51,0))</f>
@@ -38032,8 +36932,8 @@
         <v>Analysis of Performance of Slimmable Networks</v>
       </c>
       <c r="C30" s="229" t="str">
-        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A30,EML_Tool_WP!A:BB,46,0),Members!A:B,2,0),"")</f>
-        <v>Karoline Knoth</v>
+        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A30,EML_Tool_WP!A:BB,46,0),#REF!,2,0),"")</f>
+        <v/>
       </c>
       <c r="D30" s="229" t="str">
         <f aca="false">IF(VLOOKUP(A30,EML_Tool_WP!A:BB,51,0)="","",VLOOKUP(A30,EML_Tool_WP!A:BB,51,0))</f>
@@ -38077,8 +36977,8 @@
         <v>Analysis of Shunt Connections for Segmentation</v>
       </c>
       <c r="C33" s="229" t="str">
-        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A33,EML_Tool_WP!A:BB,46,0),Members!A:B,2,0),"")</f>
-        <v>Bernhard Haas</v>
+        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A33,EML_Tool_WP!A:BB,46,0),#REF!,2,0),"")</f>
+        <v/>
       </c>
       <c r="D33" s="229" t="str">
         <f aca="false">IF(VLOOKUP(A33,EML_Tool_WP!A:BB,51,0)="","",VLOOKUP(A33,EML_Tool_WP!A:BB,51,0))</f>
@@ -38098,7 +36998,7 @@
         <v>Evaluate Performance of SqueezeNas Models</v>
       </c>
       <c r="C34" s="229" t="str">
-        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A34,EML_Tool_WP!A:BB,46,0),Members!A:B,2,0),"")</f>
+        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A34,EML_Tool_WP!A:BB,46,0),#REF!,2,0),"")</f>
         <v/>
       </c>
       <c r="D34" s="229" t="str">
@@ -38119,8 +37019,8 @@
         <v>Common Backbone for semantic and instance Segmentation</v>
       </c>
       <c r="C35" s="229" t="str">
-        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A35,EML_Tool_WP!A:BB,46,0),Members!A:B,2,0),"")</f>
-        <v>Helmuth Breitenfellner</v>
+        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A35,EML_Tool_WP!A:BB,46,0),#REF!,2,0),"")</f>
+        <v/>
       </c>
       <c r="D35" s="229" t="str">
         <f aca="false">IF(VLOOKUP(A35,EML_Tool_WP!A:BB,51,0)="","",VLOOKUP(A35,EML_Tool_WP!A:BB,51,0))</f>
@@ -38140,8 +37040,8 @@
         <v>Comparison of YoloV3 vs. YoloV4 on a Xilinx</v>
       </c>
       <c r="C36" s="229" t="str">
-        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A36,EML_Tool_WP!A:BB,46,0),Members!A:B,2,0),"")</f>
-        <v>Fabian Scherer</v>
+        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A36,EML_Tool_WP!A:BB,46,0),#REF!,2,0),"")</f>
+        <v/>
       </c>
       <c r="D36" s="229" t="str">
         <f aca="false">IF(VLOOKUP(A36,EML_Tool_WP!A:BB,51,0)="","",VLOOKUP(A36,EML_Tool_WP!A:BB,51,0))</f>
@@ -38173,7 +37073,7 @@
         <v>Setup Training on Server EDA01 and EDA02</v>
       </c>
       <c r="C38" s="229" t="str">
-        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A38,EML_Tool_WP!A:BB,46,0),Members!A:B,2,0),"")</f>
+        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A38,EML_Tool_WP!A:BB,46,0),#REF!,2,0),"")</f>
         <v/>
       </c>
       <c r="D38" s="229" t="str">
@@ -38194,7 +37094,7 @@
         <v>Setup External Training on Cloud and Vienna Scientific Cluster</v>
       </c>
       <c r="C39" s="229" t="str">
-        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A39,EML_Tool_WP!A:BB,46,0),Members!A:B,2,0),"")</f>
+        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A39,EML_Tool_WP!A:BB,46,0),#REF!,2,0),"")</f>
         <v/>
       </c>
       <c r="D39" s="229" t="str">
@@ -38215,7 +37115,7 @@
         <v>Common Measurement Database for Hardware Inference</v>
       </c>
       <c r="C40" s="229" t="str">
-        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A40,EML_Tool_WP!A:BB,46,0),Members!A:B,2,0),"")</f>
+        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A40,EML_Tool_WP!A:BB,46,0),#REF!,2,0),"")</f>
         <v/>
       </c>
       <c r="D40" s="229" t="str">
@@ -38236,7 +37136,7 @@
         <v>Automation and Simplification of the EML Process</v>
       </c>
       <c r="C41" s="229" t="str">
-        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A41,EML_Tool_WP!A:BB,46,0),Members!A:B,2,0),"")</f>
+        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A41,EML_Tool_WP!A:BB,46,0),#REF!,2,0),"")</f>
         <v/>
       </c>
       <c r="D41" s="229" t="str">
@@ -38257,8 +37157,8 @@
         <v>Application: Traffic Light System</v>
       </c>
       <c r="C42" s="229" t="str">
-        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A42,EML_Tool_WP!A:BB,46,0),Members!A:B,2,0),"")</f>
-        <v>Julian Westra</v>
+        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A42,EML_Tool_WP!A:BB,46,0),#REF!,2,0),"")</f>
+        <v/>
       </c>
       <c r="D42" s="229" t="str">
         <f aca="false">IF(VLOOKUP(A42,EML_Tool_WP!A:BB,51,0)="","",VLOOKUP(A42,EML_Tool_WP!A:BB,51,0))</f>
@@ -38278,8 +37178,8 @@
         <v>Application: Ragweed Recognition Through a Drone</v>
       </c>
       <c r="C43" s="229" t="str">
-        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A43,EML_Tool_WP!A:BB,46,0),Members!A:B,2,0),"")</f>
-        <v>Lukas Steindl</v>
+        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A43,EML_Tool_WP!A:BB,46,0),#REF!,2,0),"")</f>
+        <v/>
       </c>
       <c r="D43" s="229" t="str">
         <f aca="false">IF(VLOOKUP(A43,EML_Tool_WP!A:BB,51,0)="","",VLOOKUP(A43,EML_Tool_WP!A:BB,51,0))</f>
@@ -38299,8 +37199,8 @@
         <v>Application: Minicar Demonstrator</v>
       </c>
       <c r="C44" s="229" t="str">
-        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A44,EML_Tool_WP!A:BB,46,0),Members!A:B,2,0),"")</f>
-        <v>Matvey Ivanov</v>
+        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A44,EML_Tool_WP!A:BB,46,0),#REF!,2,0),"")</f>
+        <v/>
       </c>
       <c r="D44" s="229" t="str">
         <f aca="false">IF(VLOOKUP(A44,EML_Tool_WP!A:BB,51,0)="","",VLOOKUP(A44,EML_Tool_WP!A:BB,51,0))</f>
@@ -38320,8 +37220,8 @@
         <v>Application: Tensorflow Lite Object Detection on an Android Smart Phone</v>
       </c>
       <c r="C45" s="229" t="str">
-        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A45,EML_Tool_WP!A:BB,46,0),Members!A:B,2,0),"")</f>
-        <v>Thomas Kotrba</v>
+        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A45,EML_Tool_WP!A:BB,46,0),#REF!,2,0),"")</f>
+        <v/>
       </c>
       <c r="D45" s="229" t="str">
         <f aca="false">IF(VLOOKUP(A45,EML_Tool_WP!A:BB,51,0)="","",VLOOKUP(A45,EML_Tool_WP!A:BB,51,0))</f>
@@ -38341,8 +37241,8 @@
         <v>Hyper Parameterization Optimization through a Two-Phase-Search</v>
       </c>
       <c r="C46" s="229" t="str">
-        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A46,EML_Tool_WP!A:BB,46,0),Members!A:B,2,0),"")</f>
-        <v>Marco Wuschnig</v>
+        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A46,EML_Tool_WP!A:BB,46,0),#REF!,2,0),"")</f>
+        <v/>
       </c>
       <c r="D46" s="229" t="str">
         <f aca="false">IF(VLOOKUP(A46,EML_Tool_WP!A:BB,51,0)="","",VLOOKUP(A46,EML_Tool_WP!A:BB,51,0))</f>
@@ -38427,5294 +37327,6 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J54"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.56640625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="228" width="8.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="229" width="54.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="247" width="10.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="229" width="10.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="229" width="24.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="248" width="8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="229" width="9.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="249" width="6.43"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="10" style="230" width="11.56"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="233" customFormat="true" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="231" t="s">
-        <v>656</v>
-      </c>
-      <c r="B1" s="232" t="s">
-        <v>657</v>
-      </c>
-      <c r="C1" s="250" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="232" t="s">
-        <v>659</v>
-      </c>
-      <c r="E1" s="232" t="s">
-        <v>658</v>
-      </c>
-      <c r="F1" s="251" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="232" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="252" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="2" s="236" customFormat="true" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="234" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="235" t="str">
-        <f aca="false">IF(VLOOKUP(A2,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A2,EML_Tool_WP!A:BB,2,0))</f>
-        <v>Create estimations for lat, throughput, power, energy, acc, resources</v>
-      </c>
-      <c r="C2" s="253"/>
-      <c r="D2" s="235"/>
-      <c r="E2" s="235"/>
-      <c r="F2" s="254" t="n">
-        <f aca="false">IF(VLOOKUP(A2,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A2,EML_Tool_WP!A:BB,42,0))</f>
-        <v>0.518918918918919</v>
-      </c>
-      <c r="G2" s="235"/>
-      <c r="H2" s="255"/>
-    </row>
-    <row r="3" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="228" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A3,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A3,EML_Tool_WP!A:BB,2,0))</f>
-        <v>State of the Art Latency und Power Estimation Modelle aufsetzen</v>
-      </c>
-      <c r="C3" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A3,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A3,EML_Tool_WP!A:BB,39,0))</f>
-        <v>44075</v>
-      </c>
-      <c r="D3" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A3,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A3,EML_Tool_WP!A:BB,40,0))</f>
-        <v>44134</v>
-      </c>
-      <c r="E3" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A3,EML_Tool_WP!A:BB,51,0)="","",VLOOKUP(A3,EML_Tool_WP!A:BB,51,0))</f>
-        <v>Publication</v>
-      </c>
-      <c r="F3" s="248" t="n">
-        <f aca="false">IF(VLOOKUP(A3,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A3,EML_Tool_WP!A:BB,42,0))</f>
-        <v>1</v>
-      </c>
-      <c r="G3" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A3,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A3,EML_Tool_WP!A:BB,48,0))</f>
-        <v>completed</v>
-      </c>
-      <c r="H3" s="249" t="str">
-        <f aca="false">IF(VLOOKUP(A3,EML_Tool_WP!A:BB,54,0)="","",VLOOKUP(A3,EML_Tool_WP!A:BB,54,0))</f>
-        <v/>
-      </c>
-      <c r="J3" s="237"/>
-    </row>
-    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="228" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A4,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A4,EML_Tool_WP!A:BB,2,0))</f>
-        <v>Latency Estimator Blackthorn (NVIDIA)</v>
-      </c>
-      <c r="C4" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A4,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A4,EML_Tool_WP!A:BB,39,0))</f>
-        <v>43739</v>
-      </c>
-      <c r="D4" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A4,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A4,EML_Tool_WP!A:BB,40,0))</f>
-        <v>44469</v>
-      </c>
-      <c r="E4" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A4,EML_Tool_WP!A:BB,51,0)="","",VLOOKUP(A4,EML_Tool_WP!A:BB,51,0))</f>
-        <v>Repository, Publication</v>
-      </c>
-      <c r="F4" s="248" t="n">
-        <f aca="false">IF(VLOOKUP(A4,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A4,EML_Tool_WP!A:BB,42,0))</f>
-        <v>0.811111111111111</v>
-      </c>
-      <c r="G4" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A4,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A4,EML_Tool_WP!A:BB,48,0))</f>
-        <v>active</v>
-      </c>
-      <c r="H4" s="249" t="n">
-        <f aca="false">IF(VLOOKUP(A4,EML_Tool_WP!A:BB,54,0)="","",VLOOKUP(A4,EML_Tool_WP!A:BB,54,0))</f>
-        <v>1</v>
-      </c>
-      <c r="J4" s="237"/>
-    </row>
-    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="228" t="s">
-        <v>66</v>
-      </c>
-      <c r="B5" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A5,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A5,EML_Tool_WP!A:BB,2,0))</f>
-        <v>Latency Estimator ANETTE (Intel, ARM, Xilinx)</v>
-      </c>
-      <c r="C5" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A5,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A5,EML_Tool_WP!A:BB,39,0))</f>
-        <v>43739</v>
-      </c>
-      <c r="D5" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A5,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A5,EML_Tool_WP!A:BB,40,0))</f>
-        <v>44469</v>
-      </c>
-      <c r="E5" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A5,EML_Tool_WP!A:BB,51,0)="","",VLOOKUP(A5,EML_Tool_WP!A:BB,51,0))</f>
-        <v>Repository, Publication</v>
-      </c>
-      <c r="F5" s="248" t="n">
-        <f aca="false">IF(VLOOKUP(A5,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A5,EML_Tool_WP!A:BB,42,0))</f>
-        <v>0.854545454545455</v>
-      </c>
-      <c r="G5" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A5,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A5,EML_Tool_WP!A:BB,48,0))</f>
-        <v>active</v>
-      </c>
-      <c r="H5" s="249" t="n">
-        <f aca="false">IF(VLOOKUP(A5,EML_Tool_WP!A:BB,54,0)="","",VLOOKUP(A5,EML_Tool_WP!A:BB,54,0))</f>
-        <v>1</v>
-      </c>
-      <c r="J5" s="237"/>
-    </row>
-    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="228" t="s">
-        <v>88</v>
-      </c>
-      <c r="B6" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A6,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A6,EML_Tool_WP!A:BB,2,0))</f>
-        <v>Power Estimator through Christian's Model</v>
-      </c>
-      <c r="C6" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A6,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A6,EML_Tool_WP!A:BB,39,0))</f>
-        <v>44044</v>
-      </c>
-      <c r="D6" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A6,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A6,EML_Tool_WP!A:BB,40,0))</f>
-        <v>44134</v>
-      </c>
-      <c r="E6" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A6,EML_Tool_WP!A:BB,51,0)="","",VLOOKUP(A6,EML_Tool_WP!A:BB,51,0))</f>
-        <v>Repository, Publication</v>
-      </c>
-      <c r="F6" s="248" t="n">
-        <f aca="false">IF(VLOOKUP(A6,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A6,EML_Tool_WP!A:BB,42,0))</f>
-        <v>0</v>
-      </c>
-      <c r="G6" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A6,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A6,EML_Tool_WP!A:BB,48,0))</f>
-        <v>open</v>
-      </c>
-      <c r="H6" s="249" t="str">
-        <f aca="false">IF(VLOOKUP(A6,EML_Tool_WP!A:BB,54,0)="","",VLOOKUP(A6,EML_Tool_WP!A:BB,54,0))</f>
-        <v/>
-      </c>
-      <c r="J6" s="237"/>
-    </row>
-    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="228" t="s">
-        <v>97</v>
-      </c>
-      <c r="B7" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A7,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A7,EML_Tool_WP!A:BB,2,0))</f>
-        <v>Power Estimator through ANNETTE</v>
-      </c>
-      <c r="C7" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A7,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A7,EML_Tool_WP!A:BB,39,0))</f>
-        <v>44146</v>
-      </c>
-      <c r="D7" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A7,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A7,EML_Tool_WP!A:BB,40,0))</f>
-        <v>44439</v>
-      </c>
-      <c r="E7" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A7,EML_Tool_WP!A:BB,51,0)="","",VLOOKUP(A7,EML_Tool_WP!A:BB,51,0))</f>
-        <v>Database, repository</v>
-      </c>
-      <c r="F7" s="248" t="n">
-        <f aca="false">IF(VLOOKUP(A7,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A7,EML_Tool_WP!A:BB,42,0))</f>
-        <v>0.0625</v>
-      </c>
-      <c r="G7" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A7,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A7,EML_Tool_WP!A:BB,48,0))</f>
-        <v>active</v>
-      </c>
-      <c r="H7" s="249" t="n">
-        <f aca="false">IF(VLOOKUP(A7,EML_Tool_WP!A:BB,54,0)="","",VLOOKUP(A7,EML_Tool_WP!A:BB,54,0))</f>
-        <v>2</v>
-      </c>
-      <c r="J7" s="237"/>
-    </row>
-    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="228" t="s">
-        <v>113</v>
-      </c>
-      <c r="B8" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A8,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A8,EML_Tool_WP!A:BB,2,0))</f>
-        <v>Estimation of On-Chip Resources</v>
-      </c>
-      <c r="C8" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A8,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A8,EML_Tool_WP!A:BB,39,0))</f>
-        <v>44470</v>
-      </c>
-      <c r="D8" s="247" t="str">
-        <f aca="false">IF(VLOOKUP(A8,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A8,EML_Tool_WP!A:BB,40,0))</f>
-        <v/>
-      </c>
-      <c r="E8" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A8,EML_Tool_WP!A:BB,51,0)="","",VLOOKUP(A8,EML_Tool_WP!A:BB,51,0))</f>
-        <v/>
-      </c>
-      <c r="F8" s="248" t="n">
-        <f aca="false">IF(VLOOKUP(A8,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A8,EML_Tool_WP!A:BB,42,0))</f>
-        <v>0</v>
-      </c>
-      <c r="G8" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A8,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A8,EML_Tool_WP!A:BB,48,0))</f>
-        <v>open</v>
-      </c>
-      <c r="H8" s="249" t="n">
-        <f aca="false">IF(VLOOKUP(A8,EML_Tool_WP!A:BB,54,0)="","",VLOOKUP(A8,EML_Tool_WP!A:BB,54,0))</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" s="236" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="238" t="s">
-        <v>121</v>
-      </c>
-      <c r="B9" s="239" t="str">
-        <f aca="false">IF(VLOOKUP(A9,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A9,EML_Tool_WP!A:BB,2,0))</f>
-        <v>Optimize HW Dependent Settings</v>
-      </c>
-      <c r="C9" s="256"/>
-      <c r="D9" s="239"/>
-      <c r="E9" s="239"/>
-      <c r="F9" s="254" t="n">
-        <f aca="false">IF(VLOOKUP(A9,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A9,EML_Tool_WP!A:BB,42,0))</f>
-        <v>0.406896551724138</v>
-      </c>
-      <c r="G9" s="239"/>
-      <c r="H9" s="257"/>
-    </row>
-    <row r="10" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="228" t="s">
-        <v>125</v>
-      </c>
-      <c r="B10" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A10,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A10,EML_Tool_WP!A:BB,2,0))</f>
-        <v>NVIDIA Platform Profiling (Jetson, TC2, Xavier)</v>
-      </c>
-      <c r="C10" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A10,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A10,EML_Tool_WP!A:BB,39,0))</f>
-        <v>43891</v>
-      </c>
-      <c r="D10" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A10,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A10,EML_Tool_WP!A:BB,40,0))</f>
-        <v>44286</v>
-      </c>
-      <c r="E10" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A10,EML_Tool_WP!A:BB,51,0)="","",VLOOKUP(A10,EML_Tool_WP!A:BB,51,0))</f>
-        <v>Bachelor thesis, Publication, Documentation</v>
-      </c>
-      <c r="F10" s="248" t="n">
-        <f aca="false">IF(VLOOKUP(A10,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A10,EML_Tool_WP!A:BB,42,0))</f>
-        <v>0.411111111111111</v>
-      </c>
-      <c r="G10" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A10,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A10,EML_Tool_WP!A:BB,48,0))</f>
-        <v>active</v>
-      </c>
-      <c r="H10" s="249" t="n">
-        <f aca="false">IF(VLOOKUP(A10,EML_Tool_WP!A:BB,54,0)="","",VLOOKUP(A10,EML_Tool_WP!A:BB,54,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="228" t="s">
-        <v>144</v>
-      </c>
-      <c r="B11" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A11,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A11,EML_Tool_WP!A:BB,2,0))</f>
-        <v>ARM Platform Profiling (Rasp. Pi 4)</v>
-      </c>
-      <c r="C11" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A11,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A11,EML_Tool_WP!A:BB,39,0))</f>
-        <v>44136</v>
-      </c>
-      <c r="D11" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A11,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A11,EML_Tool_WP!A:BB,40,0))</f>
-        <v>44255</v>
-      </c>
-      <c r="E11" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A11,EML_Tool_WP!A:BB,51,0)="","",VLOOKUP(A11,EML_Tool_WP!A:BB,51,0))</f>
-        <v>Repository, Document</v>
-      </c>
-      <c r="F11" s="248" t="n">
-        <f aca="false">IF(VLOOKUP(A11,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A11,EML_Tool_WP!A:BB,42,0))</f>
-        <v>0.46</v>
-      </c>
-      <c r="G11" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A11,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A11,EML_Tool_WP!A:BB,48,0))</f>
-        <v>active</v>
-      </c>
-      <c r="H11" s="249" t="n">
-        <f aca="false">IF(VLOOKUP(A11,EML_Tool_WP!A:BB,54,0)="","",VLOOKUP(A11,EML_Tool_WP!A:BB,54,0))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="228" t="s">
-        <v>155</v>
-      </c>
-      <c r="B12" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A12,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A12,EML_Tool_WP!A:BB,2,0))</f>
-        <v>Xilinx Rlatform Profiling (ZCU102)</v>
-      </c>
-      <c r="C12" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A12,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A12,EML_Tool_WP!A:BB,39,0))</f>
-        <v>44136</v>
-      </c>
-      <c r="D12" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A12,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A12,EML_Tool_WP!A:BB,40,0))</f>
-        <v>44347</v>
-      </c>
-      <c r="E12" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A12,EML_Tool_WP!A:BB,51,0)="","",VLOOKUP(A12,EML_Tool_WP!A:BB,51,0))</f>
-        <v>Document</v>
-      </c>
-      <c r="F12" s="248" t="n">
-        <f aca="false">IF(VLOOKUP(A12,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A12,EML_Tool_WP!A:BB,42,0))</f>
-        <v>0.0666666666666667</v>
-      </c>
-      <c r="G12" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A12,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A12,EML_Tool_WP!A:BB,48,0))</f>
-        <v>active</v>
-      </c>
-      <c r="H12" s="249" t="n">
-        <f aca="false">IF(VLOOKUP(A12,EML_Tool_WP!A:BB,54,0)="","",VLOOKUP(A12,EML_Tool_WP!A:BB,54,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="228" t="s">
-        <v>167</v>
-      </c>
-      <c r="B13" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A13,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A13,EML_Tool_WP!A:BB,2,0))</f>
-        <v>Intel Platform Profiling (NUC, NCS2)</v>
-      </c>
-      <c r="C13" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A13,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A13,EML_Tool_WP!A:BB,39,0))</f>
-        <v>43739</v>
-      </c>
-      <c r="D13" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A13,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A13,EML_Tool_WP!A:BB,40,0))</f>
-        <v>43921</v>
-      </c>
-      <c r="E13" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A13,EML_Tool_WP!A:BB,51,0)="","",VLOOKUP(A13,EML_Tool_WP!A:BB,51,0))</f>
-        <v>Document, thesis</v>
-      </c>
-      <c r="F13" s="248" t="n">
-        <f aca="false">IF(VLOOKUP(A13,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A13,EML_Tool_WP!A:BB,42,0))</f>
-        <v>0.6</v>
-      </c>
-      <c r="G13" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A13,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A13,EML_Tool_WP!A:BB,48,0))</f>
-        <v>active</v>
-      </c>
-      <c r="H13" s="249" t="n">
-        <f aca="false">IF(VLOOKUP(A13,EML_Tool_WP!A:BB,54,0)="","",VLOOKUP(A13,EML_Tool_WP!A:BB,54,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="228" t="s">
-        <v>185</v>
-      </c>
-      <c r="B14" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A14,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A14,EML_Tool_WP!A:BB,2,0))</f>
-        <v>Google Platform Profiling (Edge TPU)</v>
-      </c>
-      <c r="C14" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A14,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A14,EML_Tool_WP!A:BB,39,0))</f>
-        <v>44273</v>
-      </c>
-      <c r="D14" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A14,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A14,EML_Tool_WP!A:BB,40,0))</f>
-        <v>44346</v>
-      </c>
-      <c r="E14" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A14,EML_Tool_WP!A:BB,51,0)="","",VLOOKUP(A14,EML_Tool_WP!A:BB,51,0))</f>
-        <v>Document, Repo</v>
-      </c>
-      <c r="F14" s="248" t="n">
-        <f aca="false">IF(VLOOKUP(A14,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A14,EML_Tool_WP!A:BB,42,0))</f>
-        <v>0.0375</v>
-      </c>
-      <c r="G14" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A14,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A14,EML_Tool_WP!A:BB,48,0))</f>
-        <v>active</v>
-      </c>
-      <c r="H14" s="249" t="n">
-        <f aca="false">IF(VLOOKUP(A14,EML_Tool_WP!A:BB,54,0)="","",VLOOKUP(A14,EML_Tool_WP!A:BB,54,0))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" s="236" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="238" t="s">
-        <v>196</v>
-      </c>
-      <c r="B15" s="239" t="str">
-        <f aca="false">IF(VLOOKUP(A15,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A15,EML_Tool_WP!A:BB,2,0))</f>
-        <v>Map Models of hardware</v>
-      </c>
-      <c r="C15" s="256"/>
-      <c r="D15" s="239"/>
-      <c r="E15" s="239"/>
-      <c r="F15" s="254" t="n">
-        <f aca="false">IF(VLOOKUP(A15,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A15,EML_Tool_WP!A:BB,42,0))</f>
-        <v>0.557017543859649</v>
-      </c>
-      <c r="G15" s="239"/>
-      <c r="H15" s="257"/>
-    </row>
-    <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="228" t="s">
-        <v>199</v>
-      </c>
-      <c r="B16" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A16,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A16,EML_Tool_WP!A:BB,2,0))</f>
-        <v>Common Interface Inference on all Platforms</v>
-      </c>
-      <c r="C16" s="247" t="str">
-        <f aca="false">IF(VLOOKUP(A16,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A16,EML_Tool_WP!A:BB,39,0))</f>
-        <v/>
-      </c>
-      <c r="D16" s="247" t="str">
-        <f aca="false">IF(VLOOKUP(A16,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A16,EML_Tool_WP!A:BB,40,0))</f>
-        <v/>
-      </c>
-      <c r="E16" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A16,EML_Tool_WP!A:BB,51,0)="","",VLOOKUP(A16,EML_Tool_WP!A:BB,51,0))</f>
-        <v>repository</v>
-      </c>
-      <c r="F16" s="248" t="n">
-        <f aca="false">IF(VLOOKUP(A16,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A16,EML_Tool_WP!A:BB,42,0))</f>
-        <v>0.8</v>
-      </c>
-      <c r="G16" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A16,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A16,EML_Tool_WP!A:BB,48,0))</f>
-        <v>active</v>
-      </c>
-      <c r="H16" s="249" t="n">
-        <f aca="false">IF(VLOOKUP(A16,EML_Tool_WP!A:BB,54,0)="","",VLOOKUP(A16,EML_Tool_WP!A:BB,54,0))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="228" t="s">
-        <v>214</v>
-      </c>
-      <c r="B17" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A17,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A17,EML_Tool_WP!A:BB,2,0))</f>
-        <v>Common Network Inference Possible on NVIDIA</v>
-      </c>
-      <c r="C17" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A17,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A17,EML_Tool_WP!A:BB,39,0))</f>
-        <v>43891</v>
-      </c>
-      <c r="D17" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A17,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A17,EML_Tool_WP!A:BB,40,0))</f>
-        <v>43921</v>
-      </c>
-      <c r="E17" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A17,EML_Tool_WP!A:BB,51,0)="","",VLOOKUP(A17,EML_Tool_WP!A:BB,51,0))</f>
-        <v>Document, repository</v>
-      </c>
-      <c r="F17" s="248" t="n">
-        <f aca="false">IF(VLOOKUP(A17,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A17,EML_Tool_WP!A:BB,42,0))</f>
-        <v>0.8</v>
-      </c>
-      <c r="G17" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A17,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A17,EML_Tool_WP!A:BB,48,0))</f>
-        <v>active</v>
-      </c>
-      <c r="H17" s="249" t="n">
-        <f aca="false">IF(VLOOKUP(A17,EML_Tool_WP!A:BB,54,0)="","",VLOOKUP(A17,EML_Tool_WP!A:BB,54,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="228" t="s">
-        <v>233</v>
-      </c>
-      <c r="B18" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A18,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A18,EML_Tool_WP!A:BB,2,0))</f>
-        <v>Common Network Inference Possible on Intel</v>
-      </c>
-      <c r="C18" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A18,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A18,EML_Tool_WP!A:BB,39,0))</f>
-        <v>43739</v>
-      </c>
-      <c r="D18" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A18,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A18,EML_Tool_WP!A:BB,40,0))</f>
-        <v>44227</v>
-      </c>
-      <c r="E18" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A18,EML_Tool_WP!A:BB,51,0)="","",VLOOKUP(A18,EML_Tool_WP!A:BB,51,0))</f>
-        <v>Document, repository</v>
-      </c>
-      <c r="F18" s="248" t="n">
-        <f aca="false">IF(VLOOKUP(A18,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A18,EML_Tool_WP!A:BB,42,0))</f>
-        <v>0.9125</v>
-      </c>
-      <c r="G18" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A18,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A18,EML_Tool_WP!A:BB,48,0))</f>
-        <v>active</v>
-      </c>
-      <c r="H18" s="249" t="n">
-        <f aca="false">IF(VLOOKUP(A18,EML_Tool_WP!A:BB,54,0)="","",VLOOKUP(A18,EML_Tool_WP!A:BB,54,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="228" t="s">
-        <v>245</v>
-      </c>
-      <c r="B19" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A19,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A19,EML_Tool_WP!A:BB,2,0))</f>
-        <v>Common Network Inference Possible on ARM</v>
-      </c>
-      <c r="C19" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A19,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A19,EML_Tool_WP!A:BB,39,0))</f>
-        <v>44105</v>
-      </c>
-      <c r="D19" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A19,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A19,EML_Tool_WP!A:BB,40,0))</f>
-        <v>44255</v>
-      </c>
-      <c r="E19" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A19,EML_Tool_WP!A:BB,51,0)="","",VLOOKUP(A19,EML_Tool_WP!A:BB,51,0))</f>
-        <v>Document, repository</v>
-      </c>
-      <c r="F19" s="248" t="n">
-        <f aca="false">IF(VLOOKUP(A19,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A19,EML_Tool_WP!A:BB,42,0))</f>
-        <v>0.1</v>
-      </c>
-      <c r="G19" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A19,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A19,EML_Tool_WP!A:BB,48,0))</f>
-        <v>active</v>
-      </c>
-      <c r="H19" s="249" t="n">
-        <f aca="false">IF(VLOOKUP(A19,EML_Tool_WP!A:BB,54,0)="","",VLOOKUP(A19,EML_Tool_WP!A:BB,54,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="228" t="s">
-        <v>259</v>
-      </c>
-      <c r="B20" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A20,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A20,EML_Tool_WP!A:BB,2,0))</f>
-        <v>Common Network Inference Possible on Xilinx</v>
-      </c>
-      <c r="C20" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A20,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A20,EML_Tool_WP!A:BB,39,0))</f>
-        <v>44105</v>
-      </c>
-      <c r="D20" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A20,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A20,EML_Tool_WP!A:BB,40,0))</f>
-        <v>44346</v>
-      </c>
-      <c r="E20" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A20,EML_Tool_WP!A:BB,51,0)="","",VLOOKUP(A20,EML_Tool_WP!A:BB,51,0))</f>
-        <v>Document, repository</v>
-      </c>
-      <c r="F20" s="248" t="n">
-        <f aca="false">IF(VLOOKUP(A20,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A20,EML_Tool_WP!A:BB,42,0))</f>
-        <v>0.15</v>
-      </c>
-      <c r="G20" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A20,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A20,EML_Tool_WP!A:BB,48,0))</f>
-        <v>active</v>
-      </c>
-      <c r="H20" s="249" t="n">
-        <f aca="false">IF(VLOOKUP(A20,EML_Tool_WP!A:BB,54,0)="","",VLOOKUP(A20,EML_Tool_WP!A:BB,54,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="228" t="s">
-        <v>271</v>
-      </c>
-      <c r="B21" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A21,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A21,EML_Tool_WP!A:BB,2,0))</f>
-        <v>Power Measurements possible for NCS2 and NVIDIA</v>
-      </c>
-      <c r="C21" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A21,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A21,EML_Tool_WP!A:BB,39,0))</f>
-        <v>44013</v>
-      </c>
-      <c r="D21" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A21,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A21,EML_Tool_WP!A:BB,40,0))</f>
-        <v>43921</v>
-      </c>
-      <c r="E21" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A21,EML_Tool_WP!A:BB,51,0)="","",VLOOKUP(A21,EML_Tool_WP!A:BB,51,0))</f>
-        <v>Script, guide</v>
-      </c>
-      <c r="F21" s="248" t="n">
-        <f aca="false">IF(VLOOKUP(A21,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A21,EML_Tool_WP!A:BB,42,0))</f>
-        <v>0.552272727272727</v>
-      </c>
-      <c r="G21" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A21,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A21,EML_Tool_WP!A:BB,48,0))</f>
-        <v>active</v>
-      </c>
-      <c r="H21" s="249" t="n">
-        <f aca="false">IF(VLOOKUP(A21,EML_Tool_WP!A:BB,54,0)="","",VLOOKUP(A21,EML_Tool_WP!A:BB,54,0))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="228" t="s">
-        <v>298</v>
-      </c>
-      <c r="B22" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A22,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A22,EML_Tool_WP!A:BB,2,0))</f>
-        <v>Demonstration of Inference on all Platforms with Common Interface</v>
-      </c>
-      <c r="C22" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A22,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A22,EML_Tool_WP!A:BB,39,0))</f>
-        <v>44256</v>
-      </c>
-      <c r="D22" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A22,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A22,EML_Tool_WP!A:BB,40,0))</f>
-        <v>44347</v>
-      </c>
-      <c r="E22" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A22,EML_Tool_WP!A:BB,51,0)="","",VLOOKUP(A22,EML_Tool_WP!A:BB,51,0))</f>
-        <v>Document, validation networks</v>
-      </c>
-      <c r="F22" s="248" t="n">
-        <f aca="false">IF(VLOOKUP(A22,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A22,EML_Tool_WP!A:BB,42,0))</f>
-        <v>0.3</v>
-      </c>
-      <c r="G22" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A22,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A22,EML_Tool_WP!A:BB,48,0))</f>
-        <v>open</v>
-      </c>
-      <c r="H22" s="249" t="n">
-        <f aca="false">IF(VLOOKUP(A22,EML_Tool_WP!A:BB,54,0)="","",VLOOKUP(A22,EML_Tool_WP!A:BB,54,0))</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" s="236" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="238" t="s">
-        <v>309</v>
-      </c>
-      <c r="B23" s="239" t="str">
-        <f aca="false">IF(VLOOKUP(A23,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A23,EML_Tool_WP!A:BB,2,0))</f>
-        <v>Quantization</v>
-      </c>
-      <c r="C23" s="256"/>
-      <c r="D23" s="239"/>
-      <c r="E23" s="239"/>
-      <c r="F23" s="254" t="n">
-        <f aca="false">IF(VLOOKUP(A23,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A23,EML_Tool_WP!A:BB,42,0))</f>
-        <v>0.235294117647059</v>
-      </c>
-      <c r="G23" s="239"/>
-      <c r="H23" s="257"/>
-    </row>
-    <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="228" t="s">
-        <v>312</v>
-      </c>
-      <c r="B24" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A24,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A24,EML_Tool_WP!A:BB,2,0))</f>
-        <v>HW Independent Quantization on Xilinx</v>
-      </c>
-      <c r="C24" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A24,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A24,EML_Tool_WP!A:BB,39,0))</f>
-        <v>43891</v>
-      </c>
-      <c r="D24" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A24,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A24,EML_Tool_WP!A:BB,40,0))</f>
-        <v>44286</v>
-      </c>
-      <c r="E24" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A24,EML_Tool_WP!A:BB,51,0)="","",VLOOKUP(A24,EML_Tool_WP!A:BB,51,0))</f>
-        <v>Document</v>
-      </c>
-      <c r="F24" s="248" t="n">
-        <f aca="false">IF(VLOOKUP(A24,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A24,EML_Tool_WP!A:BB,42,0))</f>
-        <v>0.74</v>
-      </c>
-      <c r="G24" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A24,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A24,EML_Tool_WP!A:BB,48,0))</f>
-        <v>active</v>
-      </c>
-      <c r="H24" s="249" t="n">
-        <f aca="false">IF(VLOOKUP(A24,EML_Tool_WP!A:BB,54,0)="","",VLOOKUP(A24,EML_Tool_WP!A:BB,54,0))</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="240" t="s">
-        <v>326</v>
-      </c>
-      <c r="B25" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A25,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A25,EML_Tool_WP!A:BB,2,0))</f>
-        <v>Analysis of NVIDIA Native Quantization</v>
-      </c>
-      <c r="C25" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A25,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A25,EML_Tool_WP!A:BB,39,0))</f>
-        <v>44136</v>
-      </c>
-      <c r="D25" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A25,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A25,EML_Tool_WP!A:BB,40,0))</f>
-        <v>44255</v>
-      </c>
-      <c r="E25" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A25,EML_Tool_WP!A:BB,51,0)="","",VLOOKUP(A25,EML_Tool_WP!A:BB,51,0))</f>
-        <v>Document</v>
-      </c>
-      <c r="F25" s="248" t="n">
-        <f aca="false">IF(VLOOKUP(A25,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A25,EML_Tool_WP!A:BB,42,0))</f>
-        <v>0</v>
-      </c>
-      <c r="G25" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A25,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A25,EML_Tool_WP!A:BB,48,0))</f>
-        <v>active</v>
-      </c>
-      <c r="H25" s="249" t="n">
-        <f aca="false">IF(VLOOKUP(A25,EML_Tool_WP!A:BB,54,0)="","",VLOOKUP(A25,EML_Tool_WP!A:BB,54,0))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="240" t="s">
-        <v>334</v>
-      </c>
-      <c r="B26" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A26,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A26,EML_Tool_WP!A:BB,2,0))</f>
-        <v>Analysis of Intel Native Quantization</v>
-      </c>
-      <c r="C26" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A26,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A26,EML_Tool_WP!A:BB,39,0))</f>
-        <v>44105</v>
-      </c>
-      <c r="D26" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A26,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A26,EML_Tool_WP!A:BB,40,0))</f>
-        <v>44255</v>
-      </c>
-      <c r="E26" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A26,EML_Tool_WP!A:BB,51,0)="","",VLOOKUP(A26,EML_Tool_WP!A:BB,51,0))</f>
-        <v>Document</v>
-      </c>
-      <c r="F26" s="248" t="n">
-        <f aca="false">IF(VLOOKUP(A26,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A26,EML_Tool_WP!A:BB,42,0))</f>
-        <v>0</v>
-      </c>
-      <c r="G26" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A26,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A26,EML_Tool_WP!A:BB,48,0))</f>
-        <v>active</v>
-      </c>
-      <c r="H26" s="249" t="n">
-        <f aca="false">IF(VLOOKUP(A26,EML_Tool_WP!A:BB,54,0)="","",VLOOKUP(A26,EML_Tool_WP!A:BB,54,0))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="240" t="s">
-        <v>343</v>
-      </c>
-      <c r="B27" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A27,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A27,EML_Tool_WP!A:BB,2,0))</f>
-        <v>One-shot Quantizeable Slimmable Adaptive Networks on Xilinx</v>
-      </c>
-      <c r="C27" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A27,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A27,EML_Tool_WP!A:BB,39,0))</f>
-        <v>44105</v>
-      </c>
-      <c r="D27" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A27,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A27,EML_Tool_WP!A:BB,40,0))</f>
-        <v>44407</v>
-      </c>
-      <c r="E27" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A27,EML_Tool_WP!A:BB,51,0)="","",VLOOKUP(A27,EML_Tool_WP!A:BB,51,0))</f>
-        <v>Repositor, Master Thesis</v>
-      </c>
-      <c r="F27" s="248" t="n">
-        <f aca="false">IF(VLOOKUP(A27,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A27,EML_Tool_WP!A:BB,42,0))</f>
-        <v>0.1</v>
-      </c>
-      <c r="G27" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A27,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A27,EML_Tool_WP!A:BB,48,0))</f>
-        <v>active</v>
-      </c>
-      <c r="H27" s="249" t="n">
-        <f aca="false">IF(VLOOKUP(A27,EML_Tool_WP!A:BB,54,0)="","",VLOOKUP(A27,EML_Tool_WP!A:BB,54,0))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" s="236" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="238" t="s">
-        <v>357</v>
-      </c>
-      <c r="B28" s="239" t="str">
-        <f aca="false">IF(VLOOKUP(A28,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A28,EML_Tool_WP!A:BB,2,0))</f>
-        <v>Pruning</v>
-      </c>
-      <c r="C28" s="256"/>
-      <c r="D28" s="239"/>
-      <c r="E28" s="239"/>
-      <c r="F28" s="254" t="n">
-        <f aca="false">IF(VLOOKUP(A28,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A28,EML_Tool_WP!A:BB,42,0))</f>
-        <v>0.360714285714286</v>
-      </c>
-      <c r="G28" s="239"/>
-      <c r="H28" s="257"/>
-    </row>
-    <row r="29" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="228" t="s">
-        <v>360</v>
-      </c>
-      <c r="B29" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A29,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A29,EML_Tool_WP!A:BB,2,0))</f>
-        <v>HW Independent Pruning with Distiller</v>
-      </c>
-      <c r="C29" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A29,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A29,EML_Tool_WP!A:BB,39,0))</f>
-        <v>43891</v>
-      </c>
-      <c r="D29" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A29,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A29,EML_Tool_WP!A:BB,40,0))</f>
-        <v>44255</v>
-      </c>
-      <c r="E29" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A29,EML_Tool_WP!A:BB,51,0)="","",VLOOKUP(A29,EML_Tool_WP!A:BB,51,0))</f>
-        <v>Thesis, Publication, Repository</v>
-      </c>
-      <c r="F29" s="248" t="n">
-        <f aca="false">IF(VLOOKUP(A29,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A29,EML_Tool_WP!A:BB,42,0))</f>
-        <v>0.791666666666667</v>
-      </c>
-      <c r="G29" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A29,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A29,EML_Tool_WP!A:BB,48,0))</f>
-        <v>active</v>
-      </c>
-      <c r="H29" s="249" t="n">
-        <f aca="false">IF(VLOOKUP(A29,EML_Tool_WP!A:BB,54,0)="","",VLOOKUP(A29,EML_Tool_WP!A:BB,54,0))</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="240" t="s">
-        <v>373</v>
-      </c>
-      <c r="B30" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A30,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A30,EML_Tool_WP!A:BB,2,0))</f>
-        <v>Analysis of Performance of Slimmable Networks</v>
-      </c>
-      <c r="C30" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A30,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A30,EML_Tool_WP!A:BB,39,0))</f>
-        <v>44105</v>
-      </c>
-      <c r="D30" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A30,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A30,EML_Tool_WP!A:BB,40,0))</f>
-        <v>44227</v>
-      </c>
-      <c r="E30" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A30,EML_Tool_WP!A:BB,51,0)="","",VLOOKUP(A30,EML_Tool_WP!A:BB,51,0))</f>
-        <v>Document, repository</v>
-      </c>
-      <c r="F30" s="248" t="n">
-        <f aca="false">IF(VLOOKUP(A30,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A30,EML_Tool_WP!A:BB,42,0))</f>
-        <v>0.0375</v>
-      </c>
-      <c r="G30" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A30,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A30,EML_Tool_WP!A:BB,48,0))</f>
-        <v>active</v>
-      </c>
-      <c r="H30" s="249" t="n">
-        <f aca="false">IF(VLOOKUP(A30,EML_Tool_WP!A:BB,54,0)="","",VLOOKUP(A30,EML_Tool_WP!A:BB,54,0))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" s="236" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="238" t="s">
-        <v>395</v>
-      </c>
-      <c r="B31" s="239" t="str">
-        <f aca="false">IF(VLOOKUP(A31,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A31,EML_Tool_WP!A:BB,2,0))</f>
-        <v>Factorization</v>
-      </c>
-      <c r="C31" s="256"/>
-      <c r="D31" s="239"/>
-      <c r="E31" s="239"/>
-      <c r="F31" s="254" t="n">
-        <f aca="false">IF(VLOOKUP(A31,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A31,EML_Tool_WP!A:BB,42,0))</f>
-        <v>0</v>
-      </c>
-      <c r="G31" s="239"/>
-      <c r="H31" s="257"/>
-    </row>
-    <row r="32" s="236" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="238" t="s">
-        <v>398</v>
-      </c>
-      <c r="B32" s="239" t="str">
-        <f aca="false">IF(VLOOKUP(A32,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A32,EML_Tool_WP!A:BB,2,0))</f>
-        <v>Compact Design</v>
-      </c>
-      <c r="C32" s="256"/>
-      <c r="D32" s="239"/>
-      <c r="E32" s="239"/>
-      <c r="F32" s="254" t="n">
-        <f aca="false">IF(VLOOKUP(A32,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A32,EML_Tool_WP!A:BB,42,0))</f>
-        <v>0.573333333333333</v>
-      </c>
-      <c r="G32" s="239"/>
-      <c r="H32" s="257"/>
-    </row>
-    <row r="33" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="228" t="s">
-        <v>400</v>
-      </c>
-      <c r="B33" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A33,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A33,EML_Tool_WP!A:BB,2,0))</f>
-        <v>Analysis of Shunt Connections for Segmentation</v>
-      </c>
-      <c r="C33" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A33,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A33,EML_Tool_WP!A:BB,39,0))</f>
-        <v>44044</v>
-      </c>
-      <c r="D33" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A33,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A33,EML_Tool_WP!A:BB,40,0))</f>
-        <v>43889</v>
-      </c>
-      <c r="E33" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A33,EML_Tool_WP!A:BB,51,0)="","",VLOOKUP(A33,EML_Tool_WP!A:BB,51,0))</f>
-        <v>Publication, Master Thesis, Repository</v>
-      </c>
-      <c r="F33" s="248" t="n">
-        <f aca="false">IF(VLOOKUP(A33,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A33,EML_Tool_WP!A:BB,42,0))</f>
-        <v>0.983333333333333</v>
-      </c>
-      <c r="G33" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A33,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A33,EML_Tool_WP!A:BB,48,0))</f>
-        <v>active</v>
-      </c>
-      <c r="H33" s="249" t="n">
-        <f aca="false">IF(VLOOKUP(A33,EML_Tool_WP!A:BB,54,0)="","",VLOOKUP(A33,EML_Tool_WP!A:BB,54,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="228" t="s">
-        <v>418</v>
-      </c>
-      <c r="B34" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A34,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A34,EML_Tool_WP!A:BB,2,0))</f>
-        <v>Evaluate Performance of SqueezeNas Models</v>
-      </c>
-      <c r="C34" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A34,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A34,EML_Tool_WP!A:BB,39,0))</f>
-        <v>43922</v>
-      </c>
-      <c r="D34" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A34,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A34,EML_Tool_WP!A:BB,40,0))</f>
-        <v>44227</v>
-      </c>
-      <c r="E34" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A34,EML_Tool_WP!A:BB,51,0)="","",VLOOKUP(A34,EML_Tool_WP!A:BB,51,0))</f>
-        <v>Document, Repository</v>
-      </c>
-      <c r="F34" s="248" t="n">
-        <f aca="false">IF(VLOOKUP(A34,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A34,EML_Tool_WP!A:BB,42,0))</f>
-        <v>1</v>
-      </c>
-      <c r="G34" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A34,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A34,EML_Tool_WP!A:BB,48,0))</f>
-        <v>completed</v>
-      </c>
-      <c r="H34" s="249" t="str">
-        <f aca="false">IF(VLOOKUP(A34,EML_Tool_WP!A:BB,54,0)="","",VLOOKUP(A34,EML_Tool_WP!A:BB,54,0))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="228" t="s">
-        <v>434</v>
-      </c>
-      <c r="B35" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A35,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A35,EML_Tool_WP!A:BB,2,0))</f>
-        <v>Common Backbone for semantic and instance Segmentation</v>
-      </c>
-      <c r="C35" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A35,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A35,EML_Tool_WP!A:BB,39,0))</f>
-        <v>44075</v>
-      </c>
-      <c r="D35" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A35,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A35,EML_Tool_WP!A:BB,40,0))</f>
-        <v>44316</v>
-      </c>
-      <c r="E35" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A35,EML_Tool_WP!A:BB,51,0)="","",VLOOKUP(A35,EML_Tool_WP!A:BB,51,0))</f>
-        <v>Thesis, repository</v>
-      </c>
-      <c r="F35" s="248" t="n">
-        <f aca="false">IF(VLOOKUP(A35,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A35,EML_Tool_WP!A:BB,42,0))</f>
-        <v>0.275</v>
-      </c>
-      <c r="G35" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A35,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A35,EML_Tool_WP!A:BB,48,0))</f>
-        <v>active</v>
-      </c>
-      <c r="H35" s="249" t="n">
-        <f aca="false">IF(VLOOKUP(A35,EML_Tool_WP!A:BB,54,0)="","",VLOOKUP(A35,EML_Tool_WP!A:BB,54,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="240" t="s">
-        <v>462</v>
-      </c>
-      <c r="B36" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A36,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A36,EML_Tool_WP!A:BB,2,0))</f>
-        <v>Comparison of YoloV3 vs. YoloV4 on a Xilinx</v>
-      </c>
-      <c r="C36" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A36,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A36,EML_Tool_WP!A:BB,39,0))</f>
-        <v>44256</v>
-      </c>
-      <c r="D36" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A36,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A36,EML_Tool_WP!A:BB,40,0))</f>
-        <v>44439</v>
-      </c>
-      <c r="E36" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A36,EML_Tool_WP!A:BB,51,0)="","",VLOOKUP(A36,EML_Tool_WP!A:BB,51,0))</f>
-        <v>Thesis</v>
-      </c>
-      <c r="F36" s="248" t="n">
-        <f aca="false">IF(VLOOKUP(A36,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A36,EML_Tool_WP!A:BB,42,0))</f>
-        <v>0</v>
-      </c>
-      <c r="G36" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A36,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A36,EML_Tool_WP!A:BB,48,0))</f>
-        <v>active</v>
-      </c>
-      <c r="H36" s="249" t="n">
-        <f aca="false">IF(VLOOKUP(A36,EML_Tool_WP!A:BB,54,0)="","",VLOOKUP(A36,EML_Tool_WP!A:BB,54,0))</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" s="236" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="238" t="s">
-        <v>469</v>
-      </c>
-      <c r="B37" s="239" t="str">
-        <f aca="false">IF(VLOOKUP(A37,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A37,EML_Tool_WP!A:BB,2,0))</f>
-        <v>Optimization Strategy</v>
-      </c>
-      <c r="C37" s="256"/>
-      <c r="D37" s="239"/>
-      <c r="E37" s="239"/>
-      <c r="F37" s="254" t="n">
-        <f aca="false">IF(VLOOKUP(A37,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A37,EML_Tool_WP!A:BB,42,0))</f>
-        <v>0.571176470588235</v>
-      </c>
-      <c r="G37" s="239"/>
-      <c r="H37" s="257"/>
-    </row>
-    <row r="38" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="228" t="s">
-        <v>472</v>
-      </c>
-      <c r="B38" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A38,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A38,EML_Tool_WP!A:BB,2,0))</f>
-        <v>Setup Training on Server EDA01 and EDA02</v>
-      </c>
-      <c r="C38" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A38,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A38,EML_Tool_WP!A:BB,39,0))</f>
-        <v>43952</v>
-      </c>
-      <c r="D38" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A38,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A38,EML_Tool_WP!A:BB,40,0))</f>
-        <v>44227</v>
-      </c>
-      <c r="E38" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A38,EML_Tool_WP!A:BB,51,0)="","",VLOOKUP(A38,EML_Tool_WP!A:BB,51,0))</f>
-        <v>Document</v>
-      </c>
-      <c r="F38" s="248" t="n">
-        <f aca="false">IF(VLOOKUP(A38,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A38,EML_Tool_WP!A:BB,42,0))</f>
-        <v>1</v>
-      </c>
-      <c r="G38" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A38,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A38,EML_Tool_WP!A:BB,48,0))</f>
-        <v>Completed</v>
-      </c>
-      <c r="H38" s="249" t="str">
-        <f aca="false">IF(VLOOKUP(A38,EML_Tool_WP!A:BB,54,0)="","",VLOOKUP(A38,EML_Tool_WP!A:BB,54,0))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="228" t="s">
-        <v>492</v>
-      </c>
-      <c r="B39" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A39,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A39,EML_Tool_WP!A:BB,2,0))</f>
-        <v>Setup External Training on Cloud and Vienna Scientific Cluster</v>
-      </c>
-      <c r="C39" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A39,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A39,EML_Tool_WP!A:BB,39,0))</f>
-        <v>44105</v>
-      </c>
-      <c r="D39" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A39,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A39,EML_Tool_WP!A:BB,40,0))</f>
-        <v>44316</v>
-      </c>
-      <c r="E39" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A39,EML_Tool_WP!A:BB,51,0)="","",VLOOKUP(A39,EML_Tool_WP!A:BB,51,0))</f>
-        <v>Document</v>
-      </c>
-      <c r="F39" s="248" t="n">
-        <f aca="false">IF(VLOOKUP(A39,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A39,EML_Tool_WP!A:BB,42,0))</f>
-        <v>0.971428571428571</v>
-      </c>
-      <c r="G39" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A39,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A39,EML_Tool_WP!A:BB,48,0))</f>
-        <v>active</v>
-      </c>
-      <c r="H39" s="249" t="n">
-        <f aca="false">IF(VLOOKUP(A39,EML_Tool_WP!A:BB,54,0)="","",VLOOKUP(A39,EML_Tool_WP!A:BB,54,0))</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="228" t="s">
-        <v>513</v>
-      </c>
-      <c r="B40" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A40,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A40,EML_Tool_WP!A:BB,2,0))</f>
-        <v>Common Measurement Database for Hardware Inference</v>
-      </c>
-      <c r="C40" s="247" t="str">
-        <f aca="false">IF(VLOOKUP(A40,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A40,EML_Tool_WP!A:BB,39,0))</f>
-        <v/>
-      </c>
-      <c r="D40" s="247" t="str">
-        <f aca="false">IF(VLOOKUP(A40,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A40,EML_Tool_WP!A:BB,40,0))</f>
-        <v/>
-      </c>
-      <c r="E40" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A40,EML_Tool_WP!A:BB,51,0)="","",VLOOKUP(A40,EML_Tool_WP!A:BB,51,0))</f>
-        <v/>
-      </c>
-      <c r="F40" s="248" t="n">
-        <f aca="false">IF(VLOOKUP(A40,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A40,EML_Tool_WP!A:BB,42,0))</f>
-        <v>0</v>
-      </c>
-      <c r="G40" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A40,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A40,EML_Tool_WP!A:BB,48,0))</f>
-        <v>open</v>
-      </c>
-      <c r="H40" s="249" t="n">
-        <f aca="false">IF(VLOOKUP(A40,EML_Tool_WP!A:BB,54,0)="","",VLOOKUP(A40,EML_Tool_WP!A:BB,54,0))</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="228" t="s">
-        <v>525</v>
-      </c>
-      <c r="B41" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A41,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A41,EML_Tool_WP!A:BB,2,0))</f>
-        <v>Automation and Simplification of the EML Process</v>
-      </c>
-      <c r="C41" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A41,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A41,EML_Tool_WP!A:BB,39,0))</f>
-        <v>44228</v>
-      </c>
-      <c r="D41" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A41,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A41,EML_Tool_WP!A:BB,40,0))</f>
-        <v>44469</v>
-      </c>
-      <c r="E41" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A41,EML_Tool_WP!A:BB,51,0)="","",VLOOKUP(A41,EML_Tool_WP!A:BB,51,0))</f>
-        <v/>
-      </c>
-      <c r="F41" s="248" t="n">
-        <f aca="false">IF(VLOOKUP(A41,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A41,EML_Tool_WP!A:BB,42,0))</f>
-        <v>0.15</v>
-      </c>
-      <c r="G41" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A41,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A41,EML_Tool_WP!A:BB,48,0))</f>
-        <v>open</v>
-      </c>
-      <c r="H41" s="249" t="n">
-        <f aca="false">IF(VLOOKUP(A41,EML_Tool_WP!A:BB,54,0)="","",VLOOKUP(A41,EML_Tool_WP!A:BB,54,0))</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="240" t="s">
-        <v>536</v>
-      </c>
-      <c r="B42" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A42,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A42,EML_Tool_WP!A:BB,2,0))</f>
-        <v>Application: Traffic Light System</v>
-      </c>
-      <c r="C42" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A42,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A42,EML_Tool_WP!A:BB,39,0))</f>
-        <v>43891</v>
-      </c>
-      <c r="D42" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A42,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A42,EML_Tool_WP!A:BB,40,0))</f>
-        <v>44316</v>
-      </c>
-      <c r="E42" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A42,EML_Tool_WP!A:BB,51,0)="","",VLOOKUP(A42,EML_Tool_WP!A:BB,51,0))</f>
-        <v>Document</v>
-      </c>
-      <c r="F42" s="248" t="n">
-        <f aca="false">IF(VLOOKUP(A42,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A42,EML_Tool_WP!A:BB,42,0))</f>
-        <v>0.358333333333333</v>
-      </c>
-      <c r="G42" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A42,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A42,EML_Tool_WP!A:BB,48,0))</f>
-        <v>active</v>
-      </c>
-      <c r="H42" s="249" t="n">
-        <f aca="false">IF(VLOOKUP(A42,EML_Tool_WP!A:BB,54,0)="","",VLOOKUP(A42,EML_Tool_WP!A:BB,54,0))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="228" t="s">
-        <v>557</v>
-      </c>
-      <c r="B43" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A43,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A43,EML_Tool_WP!A:BB,2,0))</f>
-        <v>Application: Ragweed Recognition Through a Drone</v>
-      </c>
-      <c r="C43" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A43,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A43,EML_Tool_WP!A:BB,39,0))</f>
-        <v>44044</v>
-      </c>
-      <c r="D43" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A43,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A43,EML_Tool_WP!A:BB,40,0))</f>
-        <v>44286</v>
-      </c>
-      <c r="E43" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A43,EML_Tool_WP!A:BB,51,0)="","",VLOOKUP(A43,EML_Tool_WP!A:BB,51,0))</f>
-        <v>Document, Pretrained network</v>
-      </c>
-      <c r="F43" s="248" t="n">
-        <f aca="false">IF(VLOOKUP(A43,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A43,EML_Tool_WP!A:BB,42,0))</f>
-        <v>0.441538461538462</v>
-      </c>
-      <c r="G43" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A43,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A43,EML_Tool_WP!A:BB,48,0))</f>
-        <v>active</v>
-      </c>
-      <c r="H43" s="249" t="n">
-        <f aca="false">IF(VLOOKUP(A43,EML_Tool_WP!A:BB,54,0)="","",VLOOKUP(A43,EML_Tool_WP!A:BB,54,0))</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="228" t="s">
-        <v>576</v>
-      </c>
-      <c r="B44" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A44,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A44,EML_Tool_WP!A:BB,2,0))</f>
-        <v>Application: Minicar Demonstrator</v>
-      </c>
-      <c r="C44" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A44,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A44,EML_Tool_WP!A:BB,39,0))</f>
-        <v>43831</v>
-      </c>
-      <c r="D44" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A44,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A44,EML_Tool_WP!A:BB,40,0))</f>
-        <v>44227</v>
-      </c>
-      <c r="E44" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A44,EML_Tool_WP!A:BB,51,0)="","",VLOOKUP(A44,EML_Tool_WP!A:BB,51,0))</f>
-        <v>Repository, Model car, Bachelor Thesis</v>
-      </c>
-      <c r="F44" s="248" t="n">
-        <f aca="false">IF(VLOOKUP(A44,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A44,EML_Tool_WP!A:BB,42,0))</f>
-        <v>0.933333333333333</v>
-      </c>
-      <c r="G44" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A44,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A44,EML_Tool_WP!A:BB,48,0))</f>
-        <v>active</v>
-      </c>
-      <c r="H44" s="249" t="n">
-        <f aca="false">IF(VLOOKUP(A44,EML_Tool_WP!A:BB,54,0)="","",VLOOKUP(A44,EML_Tool_WP!A:BB,54,0))</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="240" t="s">
-        <v>591</v>
-      </c>
-      <c r="B45" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A45,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A45,EML_Tool_WP!A:BB,2,0))</f>
-        <v>Application: Tensorflow Lite Object Detection on an Android Smart Phone</v>
-      </c>
-      <c r="C45" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A45,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A45,EML_Tool_WP!A:BB,39,0))</f>
-        <v>44105</v>
-      </c>
-      <c r="D45" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A45,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A45,EML_Tool_WP!A:BB,40,0))</f>
-        <v>44255</v>
-      </c>
-      <c r="E45" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A45,EML_Tool_WP!A:BB,51,0)="","",VLOOKUP(A45,EML_Tool_WP!A:BB,51,0))</f>
-        <v>Document, SW package</v>
-      </c>
-      <c r="F45" s="248" t="n">
-        <f aca="false">IF(VLOOKUP(A45,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A45,EML_Tool_WP!A:BB,42,0))</f>
-        <v>0.566666666666667</v>
-      </c>
-      <c r="G45" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A45,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A45,EML_Tool_WP!A:BB,48,0))</f>
-        <v>active</v>
-      </c>
-      <c r="H45" s="249" t="n">
-        <f aca="false">IF(VLOOKUP(A45,EML_Tool_WP!A:BB,54,0)="","",VLOOKUP(A45,EML_Tool_WP!A:BB,54,0))</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="240" t="s">
-        <v>607</v>
-      </c>
-      <c r="B46" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A46,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A46,EML_Tool_WP!A:BB,2,0))</f>
-        <v>Hyper Parameterization Optimization through a Two-Phase-Search</v>
-      </c>
-      <c r="C46" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A46,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A46,EML_Tool_WP!A:BB,39,0))</f>
-        <v>43831</v>
-      </c>
-      <c r="D46" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A46,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A46,EML_Tool_WP!A:BB,40,0))</f>
-        <v>44104</v>
-      </c>
-      <c r="E46" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A46,EML_Tool_WP!A:BB,51,0)="","",VLOOKUP(A46,EML_Tool_WP!A:BB,51,0))</f>
-        <v>Thesis, publication</v>
-      </c>
-      <c r="F46" s="248" t="n">
-        <f aca="false">IF(VLOOKUP(A46,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A46,EML_Tool_WP!A:BB,42,0))</f>
-        <v>1</v>
-      </c>
-      <c r="G46" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A46,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A46,EML_Tool_WP!A:BB,48,0))</f>
-        <v>completed</v>
-      </c>
-      <c r="H46" s="249" t="str">
-        <f aca="false">IF(VLOOKUP(A46,EML_Tool_WP!A:BB,54,0)="","",VLOOKUP(A46,EML_Tool_WP!A:BB,54,0))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="241"/>
-      <c r="B47" s="242"/>
-      <c r="C47" s="258"/>
-      <c r="D47" s="258"/>
-      <c r="E47" s="242"/>
-      <c r="F47" s="259"/>
-      <c r="G47" s="242"/>
-      <c r="H47" s="260"/>
-    </row>
-    <row r="48" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="241"/>
-      <c r="B48" s="242"/>
-      <c r="C48" s="258"/>
-      <c r="D48" s="258"/>
-      <c r="E48" s="242"/>
-      <c r="F48" s="259"/>
-      <c r="G48" s="242"/>
-      <c r="H48" s="260"/>
-    </row>
-    <row r="49" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="241"/>
-      <c r="B49" s="242"/>
-      <c r="C49" s="258"/>
-      <c r="D49" s="258"/>
-      <c r="E49" s="242"/>
-      <c r="F49" s="259"/>
-      <c r="G49" s="242"/>
-      <c r="H49" s="260"/>
-    </row>
-    <row r="50" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="241"/>
-      <c r="B50" s="242"/>
-      <c r="C50" s="258"/>
-      <c r="D50" s="258"/>
-      <c r="E50" s="242"/>
-      <c r="F50" s="259"/>
-      <c r="G50" s="242"/>
-      <c r="H50" s="260"/>
-    </row>
-    <row r="51" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="241"/>
-      <c r="B51" s="242"/>
-      <c r="C51" s="258"/>
-      <c r="D51" s="258"/>
-      <c r="E51" s="242"/>
-      <c r="F51" s="259"/>
-      <c r="G51" s="242"/>
-      <c r="H51" s="260"/>
-    </row>
-    <row r="52" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="241"/>
-      <c r="B52" s="242"/>
-      <c r="C52" s="258"/>
-      <c r="D52" s="258"/>
-      <c r="E52" s="242"/>
-      <c r="F52" s="259"/>
-      <c r="G52" s="242"/>
-      <c r="H52" s="260"/>
-    </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="243"/>
-      <c r="B53" s="244"/>
-      <c r="C53" s="261"/>
-      <c r="D53" s="244"/>
-      <c r="E53" s="244"/>
-      <c r="F53" s="262"/>
-      <c r="G53" s="244"/>
-      <c r="H53" s="263"/>
-    </row>
-    <row r="54" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="245"/>
-      <c r="B54" s="246"/>
-      <c r="C54" s="264"/>
-      <c r="D54" s="246"/>
-      <c r="E54" s="246"/>
-      <c r="F54" s="265"/>
-      <c r="G54" s="246"/>
-      <c r="H54" s="266"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:F54"/>
-  <conditionalFormatting sqref="H24:H27 H1:H8 H29:H30 H33:H36 H16:H22 H38:H1048576 H10:H14">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="iconSet" priority="3">
-      <iconSet iconSet="5Quarters">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="1"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-        <cfvo type="percent" val="100"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H9">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H15">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H23">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H28">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H31:H32">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H37">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:J54"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.56640625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="228" width="8.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="229" width="32.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="247" width="10.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="229" width="10.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="248" width="8.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="229" width="5.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="267" width="33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="229" width="45.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="229" width="43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="230" width="12.11"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="11" style="230" width="11.56"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="233" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="231" t="s">
-        <v>656</v>
-      </c>
-      <c r="B1" s="232" t="s">
-        <v>657</v>
-      </c>
-      <c r="C1" s="250" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="232" t="s">
-        <v>659</v>
-      </c>
-      <c r="E1" s="251" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="232" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="268" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="232" t="s">
-        <v>661</v>
-      </c>
-      <c r="I1" s="232" t="s">
-        <v>662</v>
-      </c>
-      <c r="J1" s="232" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="2" s="236" customFormat="true" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="234" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="235" t="str">
-        <f aca="false">IF(VLOOKUP(A2,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A2,EML_Tool_WP!A:BB,2,0))</f>
-        <v>Create estimations for lat, throughput, power, energy, acc, resources</v>
-      </c>
-      <c r="C2" s="253"/>
-      <c r="D2" s="235"/>
-      <c r="E2" s="254" t="n">
-        <f aca="false">IF(VLOOKUP(A2,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A2,EML_Tool_WP!A:BB,42,0))</f>
-        <v>0.518918918918919</v>
-      </c>
-      <c r="F2" s="235"/>
-      <c r="G2" s="269"/>
-      <c r="H2" s="235"/>
-      <c r="I2" s="235"/>
-      <c r="J2" s="269" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="28.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="228" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A3,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A3,EML_Tool_WP!A:BB,2,0))</f>
-        <v>State of the Art Latency und Power Estimation Modelle aufsetzen</v>
-      </c>
-      <c r="C3" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A3,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A3,EML_Tool_WP!A:BB,39,0))</f>
-        <v>44075</v>
-      </c>
-      <c r="D3" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A3,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A3,EML_Tool_WP!A:BB,40,0))</f>
-        <v>44134</v>
-      </c>
-      <c r="E3" s="248" t="n">
-        <f aca="false">IF(VLOOKUP(A3,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A3,EML_Tool_WP!A:BB,42,0))</f>
-        <v>1</v>
-      </c>
-      <c r="F3" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A3,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A3,EML_Tool_WP!A:BB,48,0))</f>
-        <v>completed</v>
-      </c>
-      <c r="G3" s="270" t="str">
-        <f aca="false">IF(VLOOKUP(A3,EML_Tool_WP!A:BB,50,0)="","",VLOOKUP(A3,EML_Tool_WP!A:BB,50,0))</f>
-        <v>State of the art estimations implementation</v>
-      </c>
-      <c r="H3" s="247" t="str">
-        <f aca="false">IF(VLOOKUP(A3,EML_Tool_WP!A:BB,52,0)="","",VLOOKUP(A3,EML_Tool_WP!A:BB,52,0))</f>
-        <v>[x] included in the publication of ANNETTE</v>
-      </c>
-      <c r="I3" s="247" t="str">
-        <f aca="false">IF(VLOOKUP(A3,EML_Tool_WP!A:BB,53,0)="","",VLOOKUP(A3,EML_Tool_WP!A:BB,53,0))</f>
-        <v>* ANNETTE Paper: 20201224_ANETTE_IEEEAccess</v>
-      </c>
-      <c r="J3" s="230" t="str">
-        <f aca="false">IFERROR(IF(FIND("(ME)",H3),"ME"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="72" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="228" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A4,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A4,EML_Tool_WP!A:BB,2,0))</f>
-        <v>Latency Estimator Blackthorn (NVIDIA)</v>
-      </c>
-      <c r="C4" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A4,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A4,EML_Tool_WP!A:BB,39,0))</f>
-        <v>43739</v>
-      </c>
-      <c r="D4" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A4,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A4,EML_Tool_WP!A:BB,40,0))</f>
-        <v>44469</v>
-      </c>
-      <c r="E4" s="248" t="n">
-        <f aca="false">IF(VLOOKUP(A4,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A4,EML_Tool_WP!A:BB,42,0))</f>
-        <v>0.811111111111111</v>
-      </c>
-      <c r="F4" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A4,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A4,EML_Tool_WP!A:BB,48,0))</f>
-        <v>active</v>
-      </c>
-      <c r="G4" s="270" t="str">
-        <f aca="false">IF(VLOOKUP(A4,EML_Tool_WP!A:BB,50,0)="","",VLOOKUP(A4,EML_Tool_WP!A:BB,50,0))</f>
-        <v>Estimation model for Embedded (Nvidia) Platforms through Blackthorn</v>
-      </c>
-      <c r="H4" s="247" t="str">
-        <f aca="false">IF(VLOOKUP(A4,EML_Tool_WP!A:BB,52,0)="","",VLOOKUP(A4,EML_Tool_WP!A:BB,52,0))</f>
-        <v>[] Publication
-[x] Estimation Models NVIDIA Jetson Nano
-[x] Estimation Models NVIDIA TX2
-[] Estimation Models NVIDIA Xavier
-[] (ME) Repository on Github (Open source)</v>
-      </c>
-      <c r="I4" s="247" t="str">
-        <f aca="false">IF(VLOOKUP(A4,EML_Tool_WP!A:BB,53,0)="","",VLOOKUP(A4,EML_Tool_WP!A:BB,53,0))</f>
-        <v>* Model for Nano, TX2
-* Publication acceptance expected until 2021-09-30</v>
-      </c>
-      <c r="J4" s="230" t="str">
-        <f aca="false">IFERROR(IF(FIND("(ME)",H4),"ME"),"")</f>
-        <v>ME</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="86.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="228" t="s">
-        <v>66</v>
-      </c>
-      <c r="B5" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A5,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A5,EML_Tool_WP!A:BB,2,0))</f>
-        <v>Latency Estimator ANETTE (Intel, ARM, Xilinx)</v>
-      </c>
-      <c r="C5" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A5,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A5,EML_Tool_WP!A:BB,39,0))</f>
-        <v>43739</v>
-      </c>
-      <c r="D5" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A5,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A5,EML_Tool_WP!A:BB,40,0))</f>
-        <v>44469</v>
-      </c>
-      <c r="E5" s="248" t="n">
-        <f aca="false">IF(VLOOKUP(A5,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A5,EML_Tool_WP!A:BB,42,0))</f>
-        <v>0.854545454545455</v>
-      </c>
-      <c r="F5" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A5,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A5,EML_Tool_WP!A:BB,48,0))</f>
-        <v>active</v>
-      </c>
-      <c r="G5" s="270" t="str">
-        <f aca="false">IF(VLOOKUP(A5,EML_Tool_WP!A:BB,50,0)="","",VLOOKUP(A5,EML_Tool_WP!A:BB,50,0))</f>
-        <v>Estimator method ANETTE for Latency (Intel, ARM, Xilinx)</v>
-      </c>
-      <c r="H5" s="247" t="str">
-        <f aca="false">IF(VLOOKUP(A5,EML_Tool_WP!A:BB,52,0)="","",VLOOKUP(A5,EML_Tool_WP!A:BB,52,0))</f>
-        <v>[x] Publication of ANNETTE
-[x] Prediction Models of NCS2 Platform
-[x] Prediction Models of Xilinx Platform
-[] Prediction Models of ARMNN Example Platform
-[x] (ME) Open Source Repository for Latency Estimation</v>
-      </c>
-      <c r="I5" s="247" t="str">
-        <f aca="false">IF(VLOOKUP(A5,EML_Tool_WP!A:BB,53,0)="","",VLOOKUP(A5,EML_Tool_WP!A:BB,53,0))</f>
-        <v>* NCS2, Xilinx ZCU102 Models fertig
-* Github: https://github.com/embedded-machine-learning/annette
-* ARMNN erstimated until 2021-09-30</v>
-      </c>
-      <c r="J5" s="230" t="str">
-        <f aca="false">IFERROR(IF(FIND("(ME)",H5),"ME"),"")</f>
-        <v>ME</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="28.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="228" t="s">
-        <v>88</v>
-      </c>
-      <c r="B6" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A6,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A6,EML_Tool_WP!A:BB,2,0))</f>
-        <v>Power Estimator through Christian's Model</v>
-      </c>
-      <c r="C6" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A6,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A6,EML_Tool_WP!A:BB,39,0))</f>
-        <v>44044</v>
-      </c>
-      <c r="D6" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A6,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A6,EML_Tool_WP!A:BB,40,0))</f>
-        <v>44134</v>
-      </c>
-      <c r="E6" s="248" t="n">
-        <f aca="false">IF(VLOOKUP(A6,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A6,EML_Tool_WP!A:BB,42,0))</f>
-        <v>0</v>
-      </c>
-      <c r="F6" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A6,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A6,EML_Tool_WP!A:BB,48,0))</f>
-        <v>open</v>
-      </c>
-      <c r="G6" s="270" t="str">
-        <f aca="false">IF(VLOOKUP(A6,EML_Tool_WP!A:BB,50,0)="","",VLOOKUP(A6,EML_Tool_WP!A:BB,50,0))</f>
-        <v>Accurate power estimation method for power-aware optimization applications</v>
-      </c>
-      <c r="H6" s="247" t="str">
-        <f aca="false">IF(VLOOKUP(A6,EML_Tool_WP!A:BB,52,0)="","",VLOOKUP(A6,EML_Tool_WP!A:BB,52,0))</f>
-        <v>[] Estimation Model Xilinx
-[] Comparison Performance to ANETTE
-[] Publication about this method
-[] Repository with user friendly execution code</v>
-      </c>
-      <c r="I6" s="247" t="str">
-        <f aca="false">IF(VLOOKUP(A6,EML_Tool_WP!A:BB,53,0)="","",VLOOKUP(A6,EML_Tool_WP!A:BB,53,0))</f>
-        <v/>
-      </c>
-      <c r="J6" s="230" t="str">
-        <f aca="false">IFERROR(IF(FIND("(ME)",H6),"ME"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="57.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="228" t="s">
-        <v>97</v>
-      </c>
-      <c r="B7" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A7,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A7,EML_Tool_WP!A:BB,2,0))</f>
-        <v>Power Estimator through ANNETTE</v>
-      </c>
-      <c r="C7" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A7,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A7,EML_Tool_WP!A:BB,39,0))</f>
-        <v>44146</v>
-      </c>
-      <c r="D7" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A7,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A7,EML_Tool_WP!A:BB,40,0))</f>
-        <v>44439</v>
-      </c>
-      <c r="E7" s="248" t="n">
-        <f aca="false">IF(VLOOKUP(A7,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A7,EML_Tool_WP!A:BB,42,0))</f>
-        <v>0.0625</v>
-      </c>
-      <c r="F7" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A7,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A7,EML_Tool_WP!A:BB,48,0))</f>
-        <v>active</v>
-      </c>
-      <c r="G7" s="270" t="str">
-        <f aca="false">IF(VLOOKUP(A7,EML_Tool_WP!A:BB,50,0)="","",VLOOKUP(A7,EML_Tool_WP!A:BB,50,0))</f>
-        <v>Automated characterization of hardware platforms for power based on ANNETTE</v>
-      </c>
-      <c r="H7" s="247" t="str">
-        <f aca="false">IF(VLOOKUP(A7,EML_Tool_WP!A:BB,52,0)="","",VLOOKUP(A7,EML_Tool_WP!A:BB,52,0))</f>
-        <v>[] Completed power measurement environment
-[] Automated platform characterization for a platform</v>
-      </c>
-      <c r="I7" s="247" t="str">
-        <f aca="false">IF(VLOOKUP(A7,EML_Tool_WP!A:BB,53,0)="","",VLOOKUP(A7,EML_Tool_WP!A:BB,53,0))</f>
-        <v>* ANNETTE Estimation of NCS2 and Edge TPU until 2021-09-30</v>
-      </c>
-      <c r="J7" s="230" t="str">
-        <f aca="false">IFERROR(IF(FIND("(ME)",H7),"ME"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="228" t="s">
-        <v>113</v>
-      </c>
-      <c r="B8" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A8,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A8,EML_Tool_WP!A:BB,2,0))</f>
-        <v>Estimation of On-Chip Resources</v>
-      </c>
-      <c r="C8" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A8,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A8,EML_Tool_WP!A:BB,39,0))</f>
-        <v>44470</v>
-      </c>
-      <c r="D8" s="247" t="str">
-        <f aca="false">IF(VLOOKUP(A8,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A8,EML_Tool_WP!A:BB,40,0))</f>
-        <v/>
-      </c>
-      <c r="E8" s="248" t="n">
-        <f aca="false">IF(VLOOKUP(A8,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A8,EML_Tool_WP!A:BB,42,0))</f>
-        <v>0</v>
-      </c>
-      <c r="F8" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A8,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A8,EML_Tool_WP!A:BB,48,0))</f>
-        <v>open</v>
-      </c>
-      <c r="G8" s="270" t="str">
-        <f aca="false">IF(VLOOKUP(A8,EML_Tool_WP!A:BB,50,0)="","",VLOOKUP(A8,EML_Tool_WP!A:BB,50,0))</f>
-        <v/>
-      </c>
-      <c r="H8" s="247" t="str">
-        <f aca="false">IF(VLOOKUP(A8,EML_Tool_WP!A:BB,52,0)="","",VLOOKUP(A8,EML_Tool_WP!A:BB,52,0))</f>
-        <v/>
-      </c>
-      <c r="I8" s="247" t="str">
-        <f aca="false">IF(VLOOKUP(A8,EML_Tool_WP!A:BB,53,0)="","",VLOOKUP(A8,EML_Tool_WP!A:BB,53,0))</f>
-        <v>* Will be considered in year 3</v>
-      </c>
-      <c r="J8" s="230" t="str">
-        <f aca="false">IFERROR(IF(FIND("(ME)",H8),"ME"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" s="236" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="238" t="s">
-        <v>121</v>
-      </c>
-      <c r="B9" s="239" t="str">
-        <f aca="false">IF(VLOOKUP(A9,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A9,EML_Tool_WP!A:BB,2,0))</f>
-        <v>Optimize HW Dependent Settings</v>
-      </c>
-      <c r="C9" s="256"/>
-      <c r="D9" s="239"/>
-      <c r="E9" s="254" t="n">
-        <f aca="false">IF(VLOOKUP(A9,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A9,EML_Tool_WP!A:BB,42,0))</f>
-        <v>0.406896551724138</v>
-      </c>
-      <c r="F9" s="239"/>
-      <c r="G9" s="271"/>
-      <c r="H9" s="239"/>
-      <c r="I9" s="239"/>
-      <c r="J9" s="269" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="144" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="228" t="s">
-        <v>125</v>
-      </c>
-      <c r="B10" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A10,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A10,EML_Tool_WP!A:BB,2,0))</f>
-        <v>NVIDIA Platform Profiling (Jetson, TC2, Xavier)</v>
-      </c>
-      <c r="C10" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A10,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A10,EML_Tool_WP!A:BB,39,0))</f>
-        <v>43891</v>
-      </c>
-      <c r="D10" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A10,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A10,EML_Tool_WP!A:BB,40,0))</f>
-        <v>44286</v>
-      </c>
-      <c r="E10" s="248" t="n">
-        <f aca="false">IF(VLOOKUP(A10,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A10,EML_Tool_WP!A:BB,42,0))</f>
-        <v>0.411111111111111</v>
-      </c>
-      <c r="F10" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A10,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A10,EML_Tool_WP!A:BB,48,0))</f>
-        <v>active</v>
-      </c>
-      <c r="G10" s="270" t="str">
-        <f aca="false">IF(VLOOKUP(A10,EML_Tool_WP!A:BB,50,0)="","",VLOOKUP(A10,EML_Tool_WP!A:BB,50,0))</f>
-        <v>Latency, power and energy profiling of HW options of NVIDIA Jetson Nano, Xavier, TX2</v>
-      </c>
-      <c r="H10" s="247" t="str">
-        <f aca="false">IF(VLOOKUP(A10,EML_Tool_WP!A:BB,52,0)="","",VLOOKUP(A10,EML_Tool_WP!A:BB,52,0))</f>
-        <v>[] (ME) For each device and SSD-MobileNetV2, characterzation Batchsizes 1-4, variation of possible HW options: GPU frequency, definition of settings for min. latency, min power and min energy
-[] Analysis of Jetson, TX2, Xavier
-[] (ME) Analysis of power peaks to prevent overheating
-[] (ME) HW configurator script in EML Github to select mode
-[x] Publikation</v>
-      </c>
-      <c r="I10" s="247" t="str">
-        <f aca="false">IF(VLOOKUP(A10,EML_Tool_WP!A:BB,53,0)="","",VLOOKUP(A10,EML_Tool_WP!A:BB,53,0))</f>
-        <v>* Pub: https://ieeexplore.ieee.org/abstract/document/9290876</v>
-      </c>
-      <c r="J10" s="230" t="str">
-        <f aca="false">IFERROR(IF(FIND("(ME)",H10),"ME"),"")</f>
-        <v>ME</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="129.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="228" t="s">
-        <v>144</v>
-      </c>
-      <c r="B11" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A11,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A11,EML_Tool_WP!A:BB,2,0))</f>
-        <v>ARM Platform Profiling (Rasp. Pi 4)</v>
-      </c>
-      <c r="C11" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A11,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A11,EML_Tool_WP!A:BB,39,0))</f>
-        <v>44136</v>
-      </c>
-      <c r="D11" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A11,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A11,EML_Tool_WP!A:BB,40,0))</f>
-        <v>44255</v>
-      </c>
-      <c r="E11" s="248" t="n">
-        <f aca="false">IF(VLOOKUP(A11,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A11,EML_Tool_WP!A:BB,42,0))</f>
-        <v>0.46</v>
-      </c>
-      <c r="F11" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A11,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A11,EML_Tool_WP!A:BB,48,0))</f>
-        <v>active</v>
-      </c>
-      <c r="G11" s="270" t="str">
-        <f aca="false">IF(VLOOKUP(A11,EML_Tool_WP!A:BB,50,0)="","",VLOOKUP(A11,EML_Tool_WP!A:BB,50,0))</f>
-        <v>Performance and latency characterization of the ARM processor of a Raspberry PI as well as devloping tools for measurement execution</v>
-      </c>
-      <c r="H11" s="247" t="str">
-        <f aca="false">IF(VLOOKUP(A11,EML_Tool_WP!A:BB,52,0)="","",VLOOKUP(A11,EML_Tool_WP!A:BB,52,0))</f>
-        <v>[x] Guide how to setup ArmNN and TFLite for 32 and 64 bit of a Raspberry Pi 4 (32/64 Bit)
-[] Optimal settings for min. latency, min. power and min. energy found and documented
-[] Table with latency comparison of ArmNN and TFLite 32/64 Bit with inference with an ordinary accelerator
-[] (ME) Githubrepo with measurement and configuration scripts for ArmNN</v>
-      </c>
-      <c r="I11" s="247" t="str">
-        <f aca="false">IF(VLOOKUP(A11,EML_Tool_WP!A:BB,53,0)="","",VLOOKUP(A11,EML_Tool_WP!A:BB,53,0))</f>
-        <v/>
-      </c>
-      <c r="J11" s="230" t="str">
-        <f aca="false">IFERROR(IF(FIND("(ME)",H11),"ME"),"")</f>
-        <v>ME</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="86.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="228" t="s">
-        <v>155</v>
-      </c>
-      <c r="B12" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A12,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A12,EML_Tool_WP!A:BB,2,0))</f>
-        <v>Xilinx Rlatform Profiling (ZCU102)</v>
-      </c>
-      <c r="C12" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A12,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A12,EML_Tool_WP!A:BB,39,0))</f>
-        <v>44136</v>
-      </c>
-      <c r="D12" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A12,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A12,EML_Tool_WP!A:BB,40,0))</f>
-        <v>44347</v>
-      </c>
-      <c r="E12" s="248" t="n">
-        <f aca="false">IF(VLOOKUP(A12,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A12,EML_Tool_WP!A:BB,42,0))</f>
-        <v>0.0666666666666667</v>
-      </c>
-      <c r="F12" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A12,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A12,EML_Tool_WP!A:BB,48,0))</f>
-        <v>active</v>
-      </c>
-      <c r="G12" s="270" t="str">
-        <f aca="false">IF(VLOOKUP(A12,EML_Tool_WP!A:BB,50,0)="","",VLOOKUP(A12,EML_Tool_WP!A:BB,50,0))</f>
-        <v>Understanding of how to adapt Xilinx images for certain network architectures</v>
-      </c>
-      <c r="H12" s="247" t="str">
-        <f aca="false">IF(VLOOKUP(A12,EML_Tool_WP!A:BB,52,0)="","",VLOOKUP(A12,EML_Tool_WP!A:BB,52,0))</f>
-        <v>[] Documented analysis how many needed kernels, share of FPGA used, consequences of consumes power, tradeoff between speedup and power
-[] Optimal settings for min. latency, min. power and min. energy found and documented
-[] Execution scripts in repository</v>
-      </c>
-      <c r="I12" s="247" t="str">
-        <f aca="false">IF(VLOOKUP(A12,EML_Tool_WP!A:BB,53,0)="","",VLOOKUP(A12,EML_Tool_WP!A:BB,53,0))</f>
-        <v/>
-      </c>
-      <c r="J12" s="230" t="str">
-        <f aca="false">IFERROR(IF(FIND("(ME)",H12),"ME"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="43.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="228" t="s">
-        <v>167</v>
-      </c>
-      <c r="B13" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A13,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A13,EML_Tool_WP!A:BB,2,0))</f>
-        <v>Intel Platform Profiling (NUC, NCS2)</v>
-      </c>
-      <c r="C13" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A13,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A13,EML_Tool_WP!A:BB,39,0))</f>
-        <v>43739</v>
-      </c>
-      <c r="D13" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A13,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A13,EML_Tool_WP!A:BB,40,0))</f>
-        <v>43921</v>
-      </c>
-      <c r="E13" s="248" t="n">
-        <f aca="false">IF(VLOOKUP(A13,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A13,EML_Tool_WP!A:BB,42,0))</f>
-        <v>0.6</v>
-      </c>
-      <c r="F13" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A13,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A13,EML_Tool_WP!A:BB,48,0))</f>
-        <v>active</v>
-      </c>
-      <c r="G13" s="270" t="str">
-        <f aca="false">IF(VLOOKUP(A13,EML_Tool_WP!A:BB,50,0)="","",VLOOKUP(A13,EML_Tool_WP!A:BB,50,0))</f>
-        <v>Latency, power and energy profiling of HW options of Intel NCS2 and Intel CPU</v>
-      </c>
-      <c r="H13" s="247" t="str">
-        <f aca="false">IF(VLOOKUP(A13,EML_Tool_WP!A:BB,52,0)="","",VLOOKUP(A13,EML_Tool_WP!A:BB,52,0))</f>
-        <v>[] Evaluation of stick sync vs. async mode and other settings of NCS2 as part of thesis MW
-[] Execution and configuration scripts in Scripts-and-Guides repository
-[x] Results included in ANNETTE D1.1.3</v>
-      </c>
-      <c r="I13" s="247" t="str">
-        <f aca="false">IF(VLOOKUP(A13,EML_Tool_WP!A:BB,53,0)="","",VLOOKUP(A13,EML_Tool_WP!A:BB,53,0))</f>
-        <v/>
-      </c>
-      <c r="J13" s="230" t="str">
-        <f aca="false">IFERROR(IF(FIND("(ME)",H13),"ME"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="72" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="228" t="s">
-        <v>185</v>
-      </c>
-      <c r="B14" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A14,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A14,EML_Tool_WP!A:BB,2,0))</f>
-        <v>Google Platform Profiling (Edge TPU)</v>
-      </c>
-      <c r="C14" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A14,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A14,EML_Tool_WP!A:BB,39,0))</f>
-        <v>44273</v>
-      </c>
-      <c r="D14" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A14,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A14,EML_Tool_WP!A:BB,40,0))</f>
-        <v>44346</v>
-      </c>
-      <c r="E14" s="248" t="n">
-        <f aca="false">IF(VLOOKUP(A14,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A14,EML_Tool_WP!A:BB,42,0))</f>
-        <v>0.0375</v>
-      </c>
-      <c r="F14" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A14,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A14,EML_Tool_WP!A:BB,48,0))</f>
-        <v>active</v>
-      </c>
-      <c r="G14" s="270" t="str">
-        <f aca="false">IF(VLOOKUP(A14,EML_Tool_WP!A:BB,50,0)="","",VLOOKUP(A14,EML_Tool_WP!A:BB,50,0))</f>
-        <v>Latency, power and energy profiling of HW options of Edge TPU</v>
-      </c>
-      <c r="H14" s="247" t="str">
-        <f aca="false">IF(VLOOKUP(A14,EML_Tool_WP!A:BB,52,0)="","",VLOOKUP(A14,EML_Tool_WP!A:BB,52,0))</f>
-        <v>[] Table of impact of hardware settings on latency, power and energy consumption
-[] Description of settings for min. latency, min. power or min. energy
-[] Scripts for setting optimizations in the hardware</v>
-      </c>
-      <c r="I14" s="247" t="str">
-        <f aca="false">IF(VLOOKUP(A14,EML_Tool_WP!A:BB,53,0)="","",VLOOKUP(A14,EML_Tool_WP!A:BB,53,0))</f>
-        <v/>
-      </c>
-      <c r="J14" s="230" t="str">
-        <f aca="false">IFERROR(IF(FIND("(ME)",H14),"ME"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" s="236" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="238" t="s">
-        <v>196</v>
-      </c>
-      <c r="B15" s="239" t="str">
-        <f aca="false">IF(VLOOKUP(A15,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A15,EML_Tool_WP!A:BB,2,0))</f>
-        <v>Map Models of hardware</v>
-      </c>
-      <c r="C15" s="256"/>
-      <c r="D15" s="239"/>
-      <c r="E15" s="254" t="n">
-        <f aca="false">IF(VLOOKUP(A15,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A15,EML_Tool_WP!A:BB,42,0))</f>
-        <v>0.557017543859649</v>
-      </c>
-      <c r="F15" s="239"/>
-      <c r="G15" s="271"/>
-      <c r="H15" s="239"/>
-      <c r="I15" s="239"/>
-      <c r="J15" s="269" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="72" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="228" t="s">
-        <v>199</v>
-      </c>
-      <c r="B16" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A16,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A16,EML_Tool_WP!A:BB,2,0))</f>
-        <v>Common Interface Inference on all Platforms</v>
-      </c>
-      <c r="C16" s="247" t="str">
-        <f aca="false">IF(VLOOKUP(A16,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A16,EML_Tool_WP!A:BB,39,0))</f>
-        <v/>
-      </c>
-      <c r="D16" s="247" t="str">
-        <f aca="false">IF(VLOOKUP(A16,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A16,EML_Tool_WP!A:BB,40,0))</f>
-        <v/>
-      </c>
-      <c r="E16" s="248" t="n">
-        <f aca="false">IF(VLOOKUP(A16,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A16,EML_Tool_WP!A:BB,42,0))</f>
-        <v>0.8</v>
-      </c>
-      <c r="F16" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A16,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A16,EML_Tool_WP!A:BB,48,0))</f>
-        <v>active</v>
-      </c>
-      <c r="G16" s="270" t="str">
-        <f aca="false">IF(VLOOKUP(A16,EML_Tool_WP!A:BB,50,0)="","",VLOOKUP(A16,EML_Tool_WP!A:BB,50,0))</f>
-        <v>Common interface to hardware to create independence between platform specific settings and cross-hardware comparions</v>
-      </c>
-      <c r="H16" s="247" t="str">
-        <f aca="false">IF(VLOOKUP(A16,EML_Tool_WP!A:BB,52,0)="","",VLOOKUP(A16,EML_Tool_WP!A:BB,52,0))</f>
-        <v>[] Common exchange format for inference
-[] Common exchange format for estimators
-[x] Common Inference execution scripts for platforms
-[x] Demonstration on OpenVino and NVIDIA</v>
-      </c>
-      <c r="I16" s="247" t="str">
-        <f aca="false">IF(VLOOKUP(A16,EML_Tool_WP!A:BB,53,0)="","",VLOOKUP(A16,EML_Tool_WP!A:BB,53,0))</f>
-        <v>* Scripts for each hardware in https://github.com/embedded-machine-learning/scripts-and-guides/tree/main/scripts/hardwaremodules</v>
-      </c>
-      <c r="J16" s="230" t="str">
-        <f aca="false">IFERROR(IF(FIND("(ME)",H16),"ME"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="100.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="228" t="s">
-        <v>214</v>
-      </c>
-      <c r="B17" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A17,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A17,EML_Tool_WP!A:BB,2,0))</f>
-        <v>Common Network Inference Possible on NVIDIA</v>
-      </c>
-      <c r="C17" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A17,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A17,EML_Tool_WP!A:BB,39,0))</f>
-        <v>43891</v>
-      </c>
-      <c r="D17" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A17,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A17,EML_Tool_WP!A:BB,40,0))</f>
-        <v>43921</v>
-      </c>
-      <c r="E17" s="248" t="n">
-        <f aca="false">IF(VLOOKUP(A17,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A17,EML_Tool_WP!A:BB,42,0))</f>
-        <v>0.8</v>
-      </c>
-      <c r="F17" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A17,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A17,EML_Tool_WP!A:BB,48,0))</f>
-        <v>active</v>
-      </c>
-      <c r="G17" s="270" t="str">
-        <f aca="false">IF(VLOOKUP(A17,EML_Tool_WP!A:BB,50,0)="","",VLOOKUP(A17,EML_Tool_WP!A:BB,50,0))</f>
-        <v>Inference NVIDIA: Out of the box inference with defined networks with or without tensor-rt</v>
-      </c>
-      <c r="H17" s="247" t="str">
-        <f aca="false">IF(VLOOKUP(A17,EML_Tool_WP!A:BB,52,0)="","",VLOOKUP(A17,EML_Tool_WP!A:BB,52,0))</f>
-        <v>[] Guides in Github for setup of system in HW
-[] Scripts for inference and evaluation in Github
-[] Nano, TX2, Xavier environment completed
-[] 1x Obj. Detection Inference with tensor-rt: YoloV4 (Bck YoloV3), 
-[] Inference trt for Object Detection API 2.0
-[] 1x segmentation trt: DeepLabV3</v>
-      </c>
-      <c r="I17" s="247" t="str">
-        <f aca="false">IF(VLOOKUP(A17,EML_Tool_WP!A:BB,53,0)="","",VLOOKUP(A17,EML_Tool_WP!A:BB,53,0))</f>
-        <v/>
-      </c>
-      <c r="J17" s="230" t="str">
-        <f aca="false">IFERROR(IF(FIND("(ME)",H17),"ME"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="86.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="228" t="s">
-        <v>233</v>
-      </c>
-      <c r="B18" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A18,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A18,EML_Tool_WP!A:BB,2,0))</f>
-        <v>Common Network Inference Possible on Intel</v>
-      </c>
-      <c r="C18" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A18,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A18,EML_Tool_WP!A:BB,39,0))</f>
-        <v>43739</v>
-      </c>
-      <c r="D18" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A18,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A18,EML_Tool_WP!A:BB,40,0))</f>
-        <v>44227</v>
-      </c>
-      <c r="E18" s="248" t="n">
-        <f aca="false">IF(VLOOKUP(A18,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A18,EML_Tool_WP!A:BB,42,0))</f>
-        <v>0.9125</v>
-      </c>
-      <c r="F18" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A18,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A18,EML_Tool_WP!A:BB,48,0))</f>
-        <v>active</v>
-      </c>
-      <c r="G18" s="270" t="str">
-        <f aca="false">IF(VLOOKUP(A18,EML_Tool_WP!A:BB,50,0)="","",VLOOKUP(A18,EML_Tool_WP!A:BB,50,0))</f>
-        <v>Inference Intel: Out of the box inference with defined networks with or without OpenVino</v>
-      </c>
-      <c r="H18" s="247" t="str">
-        <f aca="false">IF(VLOOKUP(A18,EML_Tool_WP!A:BB,52,0)="","",VLOOKUP(A18,EML_Tool_WP!A:BB,52,0))</f>
-        <v>[] Guides in Github for setup of system in HW
-[] Scripts for inference and evaluation in Github
-[] NUC, NCS2 environment completed
-[] 1x Obj. Detection, Openvino, YoloV4 (Bck YoloV3)
-[] 1x segmentation, Openvino, DeepLabV3
-[] Object Detection API 2.0 SSD-MobileNetV2</v>
-      </c>
-      <c r="I18" s="247" t="str">
-        <f aca="false">IF(VLOOKUP(A18,EML_Tool_WP!A:BB,53,0)="","",VLOOKUP(A18,EML_Tool_WP!A:BB,53,0))</f>
-        <v/>
-      </c>
-      <c r="J18" s="230" t="str">
-        <f aca="false">IFERROR(IF(FIND("(ME)",H18),"ME"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="100.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="228" t="s">
-        <v>245</v>
-      </c>
-      <c r="B19" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A19,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A19,EML_Tool_WP!A:BB,2,0))</f>
-        <v>Common Network Inference Possible on ARM</v>
-      </c>
-      <c r="C19" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A19,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A19,EML_Tool_WP!A:BB,39,0))</f>
-        <v>44105</v>
-      </c>
-      <c r="D19" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A19,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A19,EML_Tool_WP!A:BB,40,0))</f>
-        <v>44255</v>
-      </c>
-      <c r="E19" s="248" t="n">
-        <f aca="false">IF(VLOOKUP(A19,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A19,EML_Tool_WP!A:BB,42,0))</f>
-        <v>0.1</v>
-      </c>
-      <c r="F19" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A19,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A19,EML_Tool_WP!A:BB,48,0))</f>
-        <v>active</v>
-      </c>
-      <c r="G19" s="270" t="str">
-        <f aca="false">IF(VLOOKUP(A19,EML_Tool_WP!A:BB,50,0)="","",VLOOKUP(A19,EML_Tool_WP!A:BB,50,0))</f>
-        <v>Inference ARM: Out of the box inference with defined networks with or without ARM-NN</v>
-      </c>
-      <c r="H19" s="247" t="str">
-        <f aca="false">IF(VLOOKUP(A19,EML_Tool_WP!A:BB,52,0)="","",VLOOKUP(A19,EML_Tool_WP!A:BB,52,0))</f>
-        <v>[] Guides in Github for setup of system in HW
-[] Scripts for inference and evaluation in Github
-[] Raspberry Pi environment completed
-[] 1x Obj. Detection, Openvino, YoloV4 (Bck YoloV3)
-[] 1x segmentation, Openvino, DeepLabV3
-[] TFLite Object Detection API 2.0 SSD-MobileNetV2 and InceptionResNet</v>
-      </c>
-      <c r="I19" s="247" t="str">
-        <f aca="false">IF(VLOOKUP(A19,EML_Tool_WP!A:BB,53,0)="","",VLOOKUP(A19,EML_Tool_WP!A:BB,53,0))</f>
-        <v/>
-      </c>
-      <c r="J19" s="230" t="str">
-        <f aca="false">IFERROR(IF(FIND("(ME)",H19),"ME"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="72" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="228" t="s">
-        <v>259</v>
-      </c>
-      <c r="B20" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A20,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A20,EML_Tool_WP!A:BB,2,0))</f>
-        <v>Common Network Inference Possible on Xilinx</v>
-      </c>
-      <c r="C20" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A20,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A20,EML_Tool_WP!A:BB,39,0))</f>
-        <v>44105</v>
-      </c>
-      <c r="D20" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A20,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A20,EML_Tool_WP!A:BB,40,0))</f>
-        <v>44346</v>
-      </c>
-      <c r="E20" s="248" t="n">
-        <f aca="false">IF(VLOOKUP(A20,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A20,EML_Tool_WP!A:BB,42,0))</f>
-        <v>0.15</v>
-      </c>
-      <c r="F20" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A20,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A20,EML_Tool_WP!A:BB,48,0))</f>
-        <v>active</v>
-      </c>
-      <c r="G20" s="270" t="str">
-        <f aca="false">IF(VLOOKUP(A20,EML_Tool_WP!A:BB,50,0)="","",VLOOKUP(A20,EML_Tool_WP!A:BB,50,0))</f>
-        <v>Inference Xilinx: Out of the box inference with defined networks with or without Vitis-AI</v>
-      </c>
-      <c r="H20" s="247" t="str">
-        <f aca="false">IF(VLOOKUP(A20,EML_Tool_WP!A:BB,52,0)="","",VLOOKUP(A20,EML_Tool_WP!A:BB,52,0))</f>
-        <v>[] Guides in Github for setup of system in HW
-[] Scripts for inference and evaluation in Github
-[] Vitis AI environment completed
-[] 1x Obj. Detection, Openvino, YoloV4 (Bck YoloV3)
-[] 1x segmentation, Openvino, DeepLabV3</v>
-      </c>
-      <c r="I20" s="247" t="str">
-        <f aca="false">IF(VLOOKUP(A20,EML_Tool_WP!A:BB,53,0)="","",VLOOKUP(A20,EML_Tool_WP!A:BB,53,0))</f>
-        <v/>
-      </c>
-      <c r="J20" s="230" t="str">
-        <f aca="false">IFERROR(IF(FIND("(ME)",H20),"ME"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="129.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="228" t="s">
-        <v>271</v>
-      </c>
-      <c r="B21" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A21,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A21,EML_Tool_WP!A:BB,2,0))</f>
-        <v>Power Measurements possible for NCS2 and NVIDIA</v>
-      </c>
-      <c r="C21" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A21,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A21,EML_Tool_WP!A:BB,39,0))</f>
-        <v>44013</v>
-      </c>
-      <c r="D21" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A21,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A21,EML_Tool_WP!A:BB,40,0))</f>
-        <v>43921</v>
-      </c>
-      <c r="E21" s="248" t="n">
-        <f aca="false">IF(VLOOKUP(A21,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A21,EML_Tool_WP!A:BB,42,0))</f>
-        <v>0.552272727272727</v>
-      </c>
-      <c r="F21" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A21,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A21,EML_Tool_WP!A:BB,48,0))</f>
-        <v>active</v>
-      </c>
-      <c r="G21" s="270" t="str">
-        <f aca="false">IF(VLOOKUP(A21,EML_Tool_WP!A:BB,50,0)="","",VLOOKUP(A21,EML_Tool_WP!A:BB,50,0))</f>
-        <v>Single networks power measurements</v>
-      </c>
-      <c r="H21" s="247" t="str">
-        <f aca="false">IF(VLOOKUP(A21,EML_Tool_WP!A:BB,52,0)="","",VLOOKUP(A21,EML_Tool_WP!A:BB,52,0))</f>
-        <v>[x] Hardware power measurement setup for NCS2, Edge TPU, Xilinx and Jetson Nano
-[] Scripts for power measurements in Github for NCS2 and NVIDIA
-[] Automated measurements possible
-[] Measurements of latency and power at the same time possible
-[] Evaluation script: Varianz, Median, min, max of single layers</v>
-      </c>
-      <c r="I21" s="247" t="str">
-        <f aca="false">IF(VLOOKUP(A21,EML_Tool_WP!A:BB,53,0)="","",VLOOKUP(A21,EML_Tool_WP!A:BB,53,0))</f>
-        <v/>
-      </c>
-      <c r="J21" s="230" t="str">
-        <f aca="false">IFERROR(IF(FIND("(ME)",H21),"ME"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="100.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="228" t="s">
-        <v>298</v>
-      </c>
-      <c r="B22" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A22,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A22,EML_Tool_WP!A:BB,2,0))</f>
-        <v>Demonstration of Inference on all Platforms with Common Interface</v>
-      </c>
-      <c r="C22" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A22,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A22,EML_Tool_WP!A:BB,39,0))</f>
-        <v>44256</v>
-      </c>
-      <c r="D22" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A22,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A22,EML_Tool_WP!A:BB,40,0))</f>
-        <v>44347</v>
-      </c>
-      <c r="E22" s="248" t="n">
-        <f aca="false">IF(VLOOKUP(A22,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A22,EML_Tool_WP!A:BB,42,0))</f>
-        <v>0.3</v>
-      </c>
-      <c r="F22" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A22,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A22,EML_Tool_WP!A:BB,48,0))</f>
-        <v>open</v>
-      </c>
-      <c r="G22" s="270" t="str">
-        <f aca="false">IF(VLOOKUP(A22,EML_Tool_WP!A:BB,50,0)="","",VLOOKUP(A22,EML_Tool_WP!A:BB,50,0))</f>
-        <v>Inference of common neural networks available on all hardware</v>
-      </c>
-      <c r="H22" s="247" t="str">
-        <f aca="false">IF(VLOOKUP(A22,EML_Tool_WP!A:BB,52,0)="","",VLOOKUP(A22,EML_Tool_WP!A:BB,52,0))</f>
-        <v>[] Overview matrix of the possibility to do inference with a certain framework on a certain hardware in the laboratory
-[] Guides how to setup the environments
-[] Guides how to do inference with a pretrained model
-[] Validation networks for each framework</v>
-      </c>
-      <c r="I22" s="247" t="str">
-        <f aca="false">IF(VLOOKUP(A22,EML_Tool_WP!A:BB,53,0)="","",VLOOKUP(A22,EML_Tool_WP!A:BB,53,0))</f>
-        <v/>
-      </c>
-      <c r="J22" s="230" t="str">
-        <f aca="false">IFERROR(IF(FIND("(ME)",H22),"ME"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" s="236" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="238" t="s">
-        <v>309</v>
-      </c>
-      <c r="B23" s="239" t="str">
-        <f aca="false">IF(VLOOKUP(A23,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A23,EML_Tool_WP!A:BB,2,0))</f>
-        <v>Quantization</v>
-      </c>
-      <c r="C23" s="256"/>
-      <c r="D23" s="239"/>
-      <c r="E23" s="254" t="n">
-        <f aca="false">IF(VLOOKUP(A23,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A23,EML_Tool_WP!A:BB,42,0))</f>
-        <v>0.235294117647059</v>
-      </c>
-      <c r="F23" s="239"/>
-      <c r="G23" s="271"/>
-      <c r="H23" s="239"/>
-      <c r="I23" s="239"/>
-      <c r="J23" s="269" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="57.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="228" t="s">
-        <v>312</v>
-      </c>
-      <c r="B24" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A24,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A24,EML_Tool_WP!A:BB,2,0))</f>
-        <v>HW Independent Quantization on Xilinx</v>
-      </c>
-      <c r="C24" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A24,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A24,EML_Tool_WP!A:BB,39,0))</f>
-        <v>43891</v>
-      </c>
-      <c r="D24" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A24,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A24,EML_Tool_WP!A:BB,40,0))</f>
-        <v>44286</v>
-      </c>
-      <c r="E24" s="248" t="n">
-        <f aca="false">IF(VLOOKUP(A24,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A24,EML_Tool_WP!A:BB,42,0))</f>
-        <v>0.74</v>
-      </c>
-      <c r="F24" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A24,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A24,EML_Tool_WP!A:BB,48,0))</f>
-        <v>active</v>
-      </c>
-      <c r="G24" s="270" t="str">
-        <f aca="false">IF(VLOOKUP(A24,EML_Tool_WP!A:BB,50,0)="","",VLOOKUP(A24,EML_Tool_WP!A:BB,50,0))</f>
-        <v>Quantization of fully connected und conv layer prunable, TinyYoloV3, ResNet</v>
-      </c>
-      <c r="H24" s="247" t="str">
-        <f aca="false">IF(VLOOKUP(A24,EML_Tool_WP!A:BB,52,0)="","",VLOOKUP(A24,EML_Tool_WP!A:BB,52,0))</f>
-        <v>[] Repository with Quantization software module
-[] Written comprison with Vitis AI, für TinyYolo, ResNet and supported layer
-[] Thesis</v>
-      </c>
-      <c r="I24" s="247" t="str">
-        <f aca="false">IF(VLOOKUP(A24,EML_Tool_WP!A:BB,53,0)="","",VLOOKUP(A24,EML_Tool_WP!A:BB,53,0))</f>
-        <v/>
-      </c>
-      <c r="J24" s="230" t="str">
-        <f aca="false">IFERROR(IF(FIND("(ME)",H24),"ME"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="43.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="240" t="s">
-        <v>326</v>
-      </c>
-      <c r="B25" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A25,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A25,EML_Tool_WP!A:BB,2,0))</f>
-        <v>Analysis of NVIDIA Native Quantization</v>
-      </c>
-      <c r="C25" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A25,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A25,EML_Tool_WP!A:BB,39,0))</f>
-        <v>44136</v>
-      </c>
-      <c r="D25" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A25,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A25,EML_Tool_WP!A:BB,40,0))</f>
-        <v>44255</v>
-      </c>
-      <c r="E25" s="248" t="n">
-        <f aca="false">IF(VLOOKUP(A25,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A25,EML_Tool_WP!A:BB,42,0))</f>
-        <v>0</v>
-      </c>
-      <c r="F25" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A25,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A25,EML_Tool_WP!A:BB,48,0))</f>
-        <v>active</v>
-      </c>
-      <c r="G25" s="270" t="str">
-        <f aca="false">IF(VLOOKUP(A25,EML_Tool_WP!A:BB,50,0)="","",VLOOKUP(A25,EML_Tool_WP!A:BB,50,0))</f>
-        <v>Effects of quantization through tensor-rt known</v>
-      </c>
-      <c r="H25" s="247" t="str">
-        <f aca="false">IF(VLOOKUP(A25,EML_Tool_WP!A:BB,52,0)="","",VLOOKUP(A25,EML_Tool_WP!A:BB,52,0))</f>
-        <v>[] Measurements of latency and accuracy of MobileNet variants w/o trt quantization all possibilities</v>
-      </c>
-      <c r="I25" s="247" t="str">
-        <f aca="false">IF(VLOOKUP(A25,EML_Tool_WP!A:BB,53,0)="","",VLOOKUP(A25,EML_Tool_WP!A:BB,53,0))</f>
-        <v/>
-      </c>
-      <c r="J25" s="230" t="str">
-        <f aca="false">IFERROR(IF(FIND("(ME)",H25),"ME"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="28.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="240" t="s">
-        <v>334</v>
-      </c>
-      <c r="B26" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A26,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A26,EML_Tool_WP!A:BB,2,0))</f>
-        <v>Analysis of Intel Native Quantization</v>
-      </c>
-      <c r="C26" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A26,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A26,EML_Tool_WP!A:BB,39,0))</f>
-        <v>44105</v>
-      </c>
-      <c r="D26" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A26,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A26,EML_Tool_WP!A:BB,40,0))</f>
-        <v>44255</v>
-      </c>
-      <c r="E26" s="248" t="n">
-        <f aca="false">IF(VLOOKUP(A26,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A26,EML_Tool_WP!A:BB,42,0))</f>
-        <v>0</v>
-      </c>
-      <c r="F26" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A26,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A26,EML_Tool_WP!A:BB,48,0))</f>
-        <v>active</v>
-      </c>
-      <c r="G26" s="270" t="str">
-        <f aca="false">IF(VLOOKUP(A26,EML_Tool_WP!A:BB,50,0)="","",VLOOKUP(A26,EML_Tool_WP!A:BB,50,0))</f>
-        <v>Effect of quantization through OpenVino known</v>
-      </c>
-      <c r="H26" s="247" t="str">
-        <f aca="false">IF(VLOOKUP(A26,EML_Tool_WP!A:BB,52,0)="","",VLOOKUP(A26,EML_Tool_WP!A:BB,52,0))</f>
-        <v>[] Measurements of MobileNet  variants latency and accuracy. w/o openvino quantization</v>
-      </c>
-      <c r="I26" s="247" t="str">
-        <f aca="false">IF(VLOOKUP(A26,EML_Tool_WP!A:BB,53,0)="","",VLOOKUP(A26,EML_Tool_WP!A:BB,53,0))</f>
-        <v/>
-      </c>
-      <c r="J26" s="230" t="str">
-        <f aca="false">IFERROR(IF(FIND("(ME)",H26),"ME"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="57.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="240" t="s">
-        <v>343</v>
-      </c>
-      <c r="B27" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A27,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A27,EML_Tool_WP!A:BB,2,0))</f>
-        <v>One-shot Quantizeable Slimmable Adaptive Networks on Xilinx</v>
-      </c>
-      <c r="C27" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A27,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A27,EML_Tool_WP!A:BB,39,0))</f>
-        <v>44105</v>
-      </c>
-      <c r="D27" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A27,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A27,EML_Tool_WP!A:BB,40,0))</f>
-        <v>44407</v>
-      </c>
-      <c r="E27" s="248" t="n">
-        <f aca="false">IF(VLOOKUP(A27,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A27,EML_Tool_WP!A:BB,42,0))</f>
-        <v>0.1</v>
-      </c>
-      <c r="F27" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A27,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A27,EML_Tool_WP!A:BB,48,0))</f>
-        <v>active</v>
-      </c>
-      <c r="G27" s="270" t="str">
-        <f aca="false">IF(VLOOKUP(A27,EML_Tool_WP!A:BB,50,0)="","",VLOOKUP(A27,EML_Tool_WP!A:BB,50,0))</f>
-        <v>Tradeoff between slimmable networks and quantization regarding performance loss and latency gain on State-of-the-Art Architectures</v>
-      </c>
-      <c r="H27" s="247" t="str">
-        <f aca="false">IF(VLOOKUP(A27,EML_Tool_WP!A:BB,52,0)="","",VLOOKUP(A27,EML_Tool_WP!A:BB,52,0))</f>
-        <v>[] Comparison of Slimmable Networks to Depthmultiplier and pruning
-[] Repository to apply Methodology on other Networks</v>
-      </c>
-      <c r="I27" s="247" t="str">
-        <f aca="false">IF(VLOOKUP(A27,EML_Tool_WP!A:BB,53,0)="","",VLOOKUP(A27,EML_Tool_WP!A:BB,53,0))</f>
-        <v/>
-      </c>
-      <c r="J27" s="230" t="str">
-        <f aca="false">IFERROR(IF(FIND("(ME)",H27),"ME"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="28" s="236" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="238" t="s">
-        <v>357</v>
-      </c>
-      <c r="B28" s="239" t="str">
-        <f aca="false">IF(VLOOKUP(A28,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A28,EML_Tool_WP!A:BB,2,0))</f>
-        <v>Pruning</v>
-      </c>
-      <c r="C28" s="256"/>
-      <c r="D28" s="239"/>
-      <c r="E28" s="254" t="n">
-        <f aca="false">IF(VLOOKUP(A28,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A28,EML_Tool_WP!A:BB,42,0))</f>
-        <v>0.360714285714286</v>
-      </c>
-      <c r="F28" s="239"/>
-      <c r="G28" s="271"/>
-      <c r="H28" s="239"/>
-      <c r="I28" s="239"/>
-      <c r="J28" s="269" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="86.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="228" t="s">
-        <v>360</v>
-      </c>
-      <c r="B29" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A29,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A29,EML_Tool_WP!A:BB,2,0))</f>
-        <v>HW Independent Pruning with Distiller</v>
-      </c>
-      <c r="C29" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A29,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A29,EML_Tool_WP!A:BB,39,0))</f>
-        <v>43891</v>
-      </c>
-      <c r="D29" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A29,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A29,EML_Tool_WP!A:BB,40,0))</f>
-        <v>44255</v>
-      </c>
-      <c r="E29" s="248" t="n">
-        <f aca="false">IF(VLOOKUP(A29,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A29,EML_Tool_WP!A:BB,42,0))</f>
-        <v>0.791666666666667</v>
-      </c>
-      <c r="F29" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A29,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A29,EML_Tool_WP!A:BB,48,0))</f>
-        <v>active</v>
-      </c>
-      <c r="G29" s="270" t="str">
-        <f aca="false">IF(VLOOKUP(A29,EML_Tool_WP!A:BB,50,0)="","",VLOOKUP(A29,EML_Tool_WP!A:BB,50,0))</f>
-        <v>Distiller derived pruning tool for simple networks ResNets for classification tasks as well as MobileNet</v>
-      </c>
-      <c r="H29" s="247" t="str">
-        <f aca="false">IF(VLOOKUP(A29,EML_Tool_WP!A:BB,52,0)="","",VLOOKUP(A29,EML_Tool_WP!A:BB,52,0))</f>
-        <v>[] Enhancement of Distiller pruning tool
-[] Performane comparison to a depth multipler at MobileNet
-[] ResNet classification netzwork
-[] Software Tool for Pytorch inputs in Repo
-[] Thesis</v>
-      </c>
-      <c r="I29" s="247" t="str">
-        <f aca="false">IF(VLOOKUP(A29,EML_Tool_WP!A:BB,53,0)="","",VLOOKUP(A29,EML_Tool_WP!A:BB,53,0))</f>
-        <v/>
-      </c>
-      <c r="J29" s="230" t="str">
-        <f aca="false">IFERROR(IF(FIND("(ME)",H29),"ME"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="72" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="240" t="s">
-        <v>373</v>
-      </c>
-      <c r="B30" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A30,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A30,EML_Tool_WP!A:BB,2,0))</f>
-        <v>Analysis of Performance of Slimmable Networks</v>
-      </c>
-      <c r="C30" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A30,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A30,EML_Tool_WP!A:BB,39,0))</f>
-        <v>44105</v>
-      </c>
-      <c r="D30" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A30,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A30,EML_Tool_WP!A:BB,40,0))</f>
-        <v>44227</v>
-      </c>
-      <c r="E30" s="248" t="n">
-        <f aca="false">IF(VLOOKUP(A30,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A30,EML_Tool_WP!A:BB,42,0))</f>
-        <v>0.0375</v>
-      </c>
-      <c r="F30" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A30,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A30,EML_Tool_WP!A:BB,48,0))</f>
-        <v>active</v>
-      </c>
-      <c r="G30" s="270" t="str">
-        <f aca="false">IF(VLOOKUP(A30,EML_Tool_WP!A:BB,50,0)="","",VLOOKUP(A30,EML_Tool_WP!A:BB,50,0))</f>
-        <v>Knowledge if slimmable networks better than MobileNet Depth multipler</v>
-      </c>
-      <c r="H30" s="247" t="str">
-        <f aca="false">IF(VLOOKUP(A30,EML_Tool_WP!A:BB,52,0)="","",VLOOKUP(A30,EML_Tool_WP!A:BB,52,0))</f>
-        <v>[] Bach. Thesis: Implementation of slimmable networks on MobileNet on NVIDIA. Compare performance with depth multiplier
-[] Comparison of latency and acc. On device
-[] Repository with setup and execution scripts</v>
-      </c>
-      <c r="I30" s="247" t="str">
-        <f aca="false">IF(VLOOKUP(A30,EML_Tool_WP!A:BB,53,0)="","",VLOOKUP(A30,EML_Tool_WP!A:BB,53,0))</f>
-        <v/>
-      </c>
-      <c r="J30" s="230" t="str">
-        <f aca="false">IFERROR(IF(FIND("(ME)",H30),"ME"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="31" s="236" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="238" t="s">
-        <v>395</v>
-      </c>
-      <c r="B31" s="239" t="str">
-        <f aca="false">IF(VLOOKUP(A31,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A31,EML_Tool_WP!A:BB,2,0))</f>
-        <v>Factorization</v>
-      </c>
-      <c r="C31" s="256"/>
-      <c r="D31" s="239"/>
-      <c r="E31" s="254" t="n">
-        <f aca="false">IF(VLOOKUP(A31,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A31,EML_Tool_WP!A:BB,42,0))</f>
-        <v>0</v>
-      </c>
-      <c r="F31" s="239"/>
-      <c r="G31" s="271"/>
-      <c r="H31" s="239"/>
-      <c r="I31" s="239"/>
-      <c r="J31" s="269" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="32" s="236" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="238" t="s">
-        <v>398</v>
-      </c>
-      <c r="B32" s="239" t="str">
-        <f aca="false">IF(VLOOKUP(A32,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A32,EML_Tool_WP!A:BB,2,0))</f>
-        <v>Compact Design</v>
-      </c>
-      <c r="C32" s="256"/>
-      <c r="D32" s="239"/>
-      <c r="E32" s="254" t="n">
-        <f aca="false">IF(VLOOKUP(A32,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A32,EML_Tool_WP!A:BB,42,0))</f>
-        <v>0.573333333333333</v>
-      </c>
-      <c r="F32" s="239"/>
-      <c r="G32" s="271"/>
-      <c r="H32" s="239"/>
-      <c r="I32" s="239"/>
-      <c r="J32" s="269" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="115.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="228" t="s">
-        <v>400</v>
-      </c>
-      <c r="B33" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A33,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A33,EML_Tool_WP!A:BB,2,0))</f>
-        <v>Analysis of Shunt Connections for Segmentation</v>
-      </c>
-      <c r="C33" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A33,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A33,EML_Tool_WP!A:BB,39,0))</f>
-        <v>44044</v>
-      </c>
-      <c r="D33" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A33,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A33,EML_Tool_WP!A:BB,40,0))</f>
-        <v>43889</v>
-      </c>
-      <c r="E33" s="248" t="n">
-        <f aca="false">IF(VLOOKUP(A33,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A33,EML_Tool_WP!A:BB,42,0))</f>
-        <v>0.983333333333333</v>
-      </c>
-      <c r="F33" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A33,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A33,EML_Tool_WP!A:BB,48,0))</f>
-        <v>active</v>
-      </c>
-      <c r="G33" s="270" t="str">
-        <f aca="false">IF(VLOOKUP(A33,EML_Tool_WP!A:BB,50,0)="","",VLOOKUP(A33,EML_Tool_WP!A:BB,50,0))</f>
-        <v>Proof of concept of Knowledge distillation and shunt connections for segmentation networks. Provide an easy-to-use open-source software tool for inserting shunt connections into existing Keras networks</v>
-      </c>
-      <c r="H33" s="247" t="str">
-        <f aca="false">IF(VLOOKUP(A33,EML_Tool_WP!A:BB,52,0)="","",VLOOKUP(A33,EML_Tool_WP!A:BB,52,0))</f>
-        <v>[x] Documented results for training shunt connections using knowledge distillation both for classification and segmentation networks (Paper)
-[x] Inference results on NVIDIA, Xilinx and Raspberry Pi platforms
-[] (ME) Shunt connection algorithm Keras based in a repository
-[] (ME) DeeplabV3+MobileNetV3 in a Repository</v>
-      </c>
-      <c r="I33" s="247" t="str">
-        <f aca="false">IF(VLOOKUP(A33,EML_Tool_WP!A:BB,53,0)="","",VLOOKUP(A33,EML_Tool_WP!A:BB,53,0))</f>
-        <v>* Inference results only on NVIDIA
-* Shunt algorithm for SSD-MobileNetV2 too</v>
-      </c>
-      <c r="J33" s="230" t="str">
-        <f aca="false">IFERROR(IF(FIND("(ME)",H33),"ME"),"")</f>
-        <v>ME</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="100.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="228" t="s">
-        <v>418</v>
-      </c>
-      <c r="B34" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A34,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A34,EML_Tool_WP!A:BB,2,0))</f>
-        <v>Evaluate Performance of SqueezeNas Models</v>
-      </c>
-      <c r="C34" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A34,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A34,EML_Tool_WP!A:BB,39,0))</f>
-        <v>43922</v>
-      </c>
-      <c r="D34" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A34,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A34,EML_Tool_WP!A:BB,40,0))</f>
-        <v>44227</v>
-      </c>
-      <c r="E34" s="248" t="n">
-        <f aca="false">IF(VLOOKUP(A34,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A34,EML_Tool_WP!A:BB,42,0))</f>
-        <v>1</v>
-      </c>
-      <c r="F34" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A34,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A34,EML_Tool_WP!A:BB,48,0))</f>
-        <v>completed</v>
-      </c>
-      <c r="G34" s="270" t="str">
-        <f aca="false">IF(VLOOKUP(A34,EML_Tool_WP!A:BB,50,0)="","",VLOOKUP(A34,EML_Tool_WP!A:BB,50,0))</f>
-        <v>Retraining the SqueezeNAS networks on the RailSem dataset and comparing the inference results on Xavier with the results of CityScape. Compare performance to Shunt connections. Network generation for hardware</v>
-      </c>
-      <c r="H34" s="247" t="str">
-        <f aca="false">IF(VLOOKUP(A34,EML_Tool_WP!A:BB,52,0)="","",VLOOKUP(A34,EML_Tool_WP!A:BB,52,0))</f>
-        <v>[x] (ME) Report: Preprocessing of the data, Latency values on NVIDIA Xavier, IoU scores for the RailSem
-[x] Comparison of RailSem and CityScape on squeezenas
-[x] Performance and latency comparison with DeepLab
-[x] Github repo with experiment</v>
-      </c>
-      <c r="I34" s="247" t="str">
-        <f aca="false">IF(VLOOKUP(A34,EML_Tool_WP!A:BB,53,0)="","",VLOOKUP(A34,EML_Tool_WP!A:BB,53,0))</f>
-        <v>*Retraining of existing Xavier models possible
-*New architectures not possible
-*Report and code: https://github.com/embedded-machine-learning/squeezenas_train; 04_Tasks\20201221_SqueezeNas_Evaluation_Amid_Mozelli</v>
-      </c>
-      <c r="J34" s="230" t="str">
-        <f aca="false">IFERROR(IF(FIND("(ME)",H34),"ME"),"")</f>
-        <v>ME</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="72" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="228" t="s">
-        <v>434</v>
-      </c>
-      <c r="B35" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A35,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A35,EML_Tool_WP!A:BB,2,0))</f>
-        <v>Common Backbone for semantic and instance Segmentation</v>
-      </c>
-      <c r="C35" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A35,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A35,EML_Tool_WP!A:BB,39,0))</f>
-        <v>44075</v>
-      </c>
-      <c r="D35" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A35,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A35,EML_Tool_WP!A:BB,40,0))</f>
-        <v>44316</v>
-      </c>
-      <c r="E35" s="248" t="n">
-        <f aca="false">IF(VLOOKUP(A35,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A35,EML_Tool_WP!A:BB,42,0))</f>
-        <v>0.275</v>
-      </c>
-      <c r="F35" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A35,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A35,EML_Tool_WP!A:BB,48,0))</f>
-        <v>active</v>
-      </c>
-      <c r="G35" s="270" t="str">
-        <f aca="false">IF(VLOOKUP(A35,EML_Tool_WP!A:BB,50,0)="","",VLOOKUP(A35,EML_Tool_WP!A:BB,50,0))</f>
-        <v>Analysis whether a common MobileNet backbone for object detection and segmentation is faster and provides better performance as separated networks</v>
-      </c>
-      <c r="H35" s="247" t="str">
-        <f aca="false">IF(VLOOKUP(A35,EML_Tool_WP!A:BB,52,0)="","",VLOOKUP(A35,EML_Tool_WP!A:BB,52,0))</f>
-        <v>[] (ME) Comparison acc and latency NVIDIA device of common backbone vs. separate networks
-[] (ME) Common backbone implementation in repo</v>
-      </c>
-      <c r="I35" s="247" t="str">
-        <f aca="false">IF(VLOOKUP(A35,EML_Tool_WP!A:BB,53,0)="","",VLOOKUP(A35,EML_Tool_WP!A:BB,53,0))</f>
-        <v/>
-      </c>
-      <c r="J35" s="230" t="str">
-        <f aca="false">IFERROR(IF(FIND("(ME)",H35),"ME"),"")</f>
-        <v>ME</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="28.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="240" t="s">
-        <v>462</v>
-      </c>
-      <c r="B36" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A36,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A36,EML_Tool_WP!A:BB,2,0))</f>
-        <v>Comparison of YoloV3 vs. YoloV4 on a Xilinx</v>
-      </c>
-      <c r="C36" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A36,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A36,EML_Tool_WP!A:BB,39,0))</f>
-        <v>44256</v>
-      </c>
-      <c r="D36" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A36,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A36,EML_Tool_WP!A:BB,40,0))</f>
-        <v>44439</v>
-      </c>
-      <c r="E36" s="248" t="n">
-        <f aca="false">IF(VLOOKUP(A36,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A36,EML_Tool_WP!A:BB,42,0))</f>
-        <v>0</v>
-      </c>
-      <c r="F36" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A36,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A36,EML_Tool_WP!A:BB,48,0))</f>
-        <v>active</v>
-      </c>
-      <c r="G36" s="270" t="str">
-        <f aca="false">IF(VLOOKUP(A36,EML_Tool_WP!A:BB,50,0)="","",VLOOKUP(A36,EML_Tool_WP!A:BB,50,0))</f>
-        <v/>
-      </c>
-      <c r="H36" s="247" t="str">
-        <f aca="false">IF(VLOOKUP(A36,EML_Tool_WP!A:BB,52,0)="","",VLOOKUP(A36,EML_Tool_WP!A:BB,52,0))</f>
-        <v/>
-      </c>
-      <c r="I36" s="247" t="str">
-        <f aca="false">IF(VLOOKUP(A36,EML_Tool_WP!A:BB,53,0)="","",VLOOKUP(A36,EML_Tool_WP!A:BB,53,0))</f>
-        <v/>
-      </c>
-      <c r="J36" s="230" t="str">
-        <f aca="false">IFERROR(IF(FIND("(ME)",H36),"ME"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="37" s="236" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="238" t="s">
-        <v>469</v>
-      </c>
-      <c r="B37" s="239" t="str">
-        <f aca="false">IF(VLOOKUP(A37,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A37,EML_Tool_WP!A:BB,2,0))</f>
-        <v>Optimization Strategy</v>
-      </c>
-      <c r="C37" s="256"/>
-      <c r="D37" s="239"/>
-      <c r="E37" s="254" t="n">
-        <f aca="false">IF(VLOOKUP(A37,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A37,EML_Tool_WP!A:BB,42,0))</f>
-        <v>0.571176470588235</v>
-      </c>
-      <c r="F37" s="239"/>
-      <c r="G37" s="271"/>
-      <c r="H37" s="239"/>
-      <c r="I37" s="239"/>
-      <c r="J37" s="269" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="57.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="228" t="s">
-        <v>472</v>
-      </c>
-      <c r="B38" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A38,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A38,EML_Tool_WP!A:BB,2,0))</f>
-        <v>Setup Training on Server EDA01 and EDA02</v>
-      </c>
-      <c r="C38" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A38,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A38,EML_Tool_WP!A:BB,39,0))</f>
-        <v>43952</v>
-      </c>
-      <c r="D38" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A38,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A38,EML_Tool_WP!A:BB,40,0))</f>
-        <v>44227</v>
-      </c>
-      <c r="E38" s="248" t="n">
-        <f aca="false">IF(VLOOKUP(A38,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A38,EML_Tool_WP!A:BB,42,0))</f>
-        <v>1</v>
-      </c>
-      <c r="F38" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A38,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A38,EML_Tool_WP!A:BB,48,0))</f>
-        <v>Completed</v>
-      </c>
-      <c r="G38" s="270" t="str">
-        <f aca="false">IF(VLOOKUP(A38,EML_Tool_WP!A:BB,50,0)="","",VLOOKUP(A38,EML_Tool_WP!A:BB,50,0))</f>
-        <v>Server ready for training</v>
-      </c>
-      <c r="H38" s="247" t="str">
-        <f aca="false">IF(VLOOKUP(A38,EML_Tool_WP!A:BB,52,0)="","",VLOOKUP(A38,EML_Tool_WP!A:BB,52,0))</f>
-        <v>[x] Guides on how to setup EDA01 for different environments and training
-[x] Environments ready: Tensorflow 2, Pytorch</v>
-      </c>
-      <c r="I38" s="247" t="str">
-        <f aca="false">IF(VLOOKUP(A38,EML_Tool_WP!A:BB,53,0)="","",VLOOKUP(A38,EML_Tool_WP!A:BB,53,0))</f>
-        <v>* https://github.com/embedded-machine-learning/scripts-and-guides/blob/main/guides/task_spooler_manual.md</v>
-      </c>
-      <c r="J38" s="230" t="str">
-        <f aca="false">IFERROR(IF(FIND("(ME)",H38),"ME"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="115.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="228" t="s">
-        <v>492</v>
-      </c>
-      <c r="B39" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A39,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A39,EML_Tool_WP!A:BB,2,0))</f>
-        <v>Setup External Training on Cloud and Vienna Scientific Cluster</v>
-      </c>
-      <c r="C39" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A39,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A39,EML_Tool_WP!A:BB,39,0))</f>
-        <v>44105</v>
-      </c>
-      <c r="D39" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A39,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A39,EML_Tool_WP!A:BB,40,0))</f>
-        <v>44316</v>
-      </c>
-      <c r="E39" s="248" t="n">
-        <f aca="false">IF(VLOOKUP(A39,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A39,EML_Tool_WP!A:BB,42,0))</f>
-        <v>0.971428571428571</v>
-      </c>
-      <c r="F39" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A39,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A39,EML_Tool_WP!A:BB,48,0))</f>
-        <v>active</v>
-      </c>
-      <c r="G39" s="270" t="str">
-        <f aca="false">IF(VLOOKUP(A39,EML_Tool_WP!A:BB,50,0)="","",VLOOKUP(A39,EML_Tool_WP!A:BB,50,0))</f>
-        <v>External services ready for training with our networks</v>
-      </c>
-      <c r="H39" s="247" t="str">
-        <f aca="false">IF(VLOOKUP(A39,EML_Tool_WP!A:BB,52,0)="","",VLOOKUP(A39,EML_Tool_WP!A:BB,52,0))</f>
-        <v>[x] Training possible with TF2 and Pytorch on Vienna Scientific Cluster
-[] Guide how to train on Microsoft Azure</v>
-      </c>
-      <c r="I39" s="247" t="str">
-        <f aca="false">IF(VLOOKUP(A39,EML_Tool_WP!A:BB,53,0)="","",VLOOKUP(A39,EML_Tool_WP!A:BB,53,0))</f>
-        <v>* Demonstration through work of BH
-* Guide Scientific Cluster: \\fileserver\Projects\SoC_EML\02_Documentation\11_Tutorials\Vienna_Scientific_Cluster
-* Guide Azure: \\fileserver\Projects\SoC_EML\02_Documentation\11_Tutorials\Tutorial_Training_on_MS_Azure_LS.mp4</v>
-      </c>
-      <c r="J39" s="230" t="str">
-        <f aca="false">IFERROR(IF(FIND("(ME)",H39),"ME"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="28.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="228" t="s">
-        <v>513</v>
-      </c>
-      <c r="B40" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A40,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A40,EML_Tool_WP!A:BB,2,0))</f>
-        <v>Common Measurement Database for Hardware Inference</v>
-      </c>
-      <c r="C40" s="247" t="str">
-        <f aca="false">IF(VLOOKUP(A40,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A40,EML_Tool_WP!A:BB,39,0))</f>
-        <v/>
-      </c>
-      <c r="D40" s="247" t="str">
-        <f aca="false">IF(VLOOKUP(A40,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A40,EML_Tool_WP!A:BB,40,0))</f>
-        <v/>
-      </c>
-      <c r="E40" s="248" t="n">
-        <f aca="false">IF(VLOOKUP(A40,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A40,EML_Tool_WP!A:BB,42,0))</f>
-        <v>0</v>
-      </c>
-      <c r="F40" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A40,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A40,EML_Tool_WP!A:BB,48,0))</f>
-        <v>open</v>
-      </c>
-      <c r="G40" s="270" t="str">
-        <f aca="false">IF(VLOOKUP(A40,EML_Tool_WP!A:BB,50,0)="","",VLOOKUP(A40,EML_Tool_WP!A:BB,50,0))</f>
-        <v/>
-      </c>
-      <c r="H40" s="247" t="str">
-        <f aca="false">IF(VLOOKUP(A40,EML_Tool_WP!A:BB,52,0)="","",VLOOKUP(A40,EML_Tool_WP!A:BB,52,0))</f>
-        <v/>
-      </c>
-      <c r="I40" s="247" t="str">
-        <f aca="false">IF(VLOOKUP(A40,EML_Tool_WP!A:BB,53,0)="","",VLOOKUP(A40,EML_Tool_WP!A:BB,53,0))</f>
-        <v/>
-      </c>
-      <c r="J40" s="230" t="str">
-        <f aca="false">IFERROR(IF(FIND("(ME)",H40),"ME"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="28.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="228" t="s">
-        <v>525</v>
-      </c>
-      <c r="B41" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A41,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A41,EML_Tool_WP!A:BB,2,0))</f>
-        <v>Automation and Simplification of the EML Process</v>
-      </c>
-      <c r="C41" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A41,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A41,EML_Tool_WP!A:BB,39,0))</f>
-        <v>44228</v>
-      </c>
-      <c r="D41" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A41,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A41,EML_Tool_WP!A:BB,40,0))</f>
-        <v>44469</v>
-      </c>
-      <c r="E41" s="248" t="n">
-        <f aca="false">IF(VLOOKUP(A41,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A41,EML_Tool_WP!A:BB,42,0))</f>
-        <v>0.15</v>
-      </c>
-      <c r="F41" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A41,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A41,EML_Tool_WP!A:BB,48,0))</f>
-        <v>open</v>
-      </c>
-      <c r="G41" s="270" t="str">
-        <f aca="false">IF(VLOOKUP(A41,EML_Tool_WP!A:BB,50,0)="","",VLOOKUP(A41,EML_Tool_WP!A:BB,50,0))</f>
-        <v/>
-      </c>
-      <c r="H41" s="247" t="str">
-        <f aca="false">IF(VLOOKUP(A41,EML_Tool_WP!A:BB,52,0)="","",VLOOKUP(A41,EML_Tool_WP!A:BB,52,0))</f>
-        <v/>
-      </c>
-      <c r="I41" s="247" t="str">
-        <f aca="false">IF(VLOOKUP(A41,EML_Tool_WP!A:BB,53,0)="","",VLOOKUP(A41,EML_Tool_WP!A:BB,53,0))</f>
-        <v/>
-      </c>
-      <c r="J41" s="230" t="str">
-        <f aca="false">IFERROR(IF(FIND("(ME)",H41),"ME"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="57.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="240" t="s">
-        <v>536</v>
-      </c>
-      <c r="B42" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A42,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A42,EML_Tool_WP!A:BB,2,0))</f>
-        <v>Application: Traffic Light System</v>
-      </c>
-      <c r="C42" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A42,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A42,EML_Tool_WP!A:BB,39,0))</f>
-        <v>43891</v>
-      </c>
-      <c r="D42" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A42,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A42,EML_Tool_WP!A:BB,40,0))</f>
-        <v>44316</v>
-      </c>
-      <c r="E42" s="248" t="n">
-        <f aca="false">IF(VLOOKUP(A42,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A42,EML_Tool_WP!A:BB,42,0))</f>
-        <v>0.358333333333333</v>
-      </c>
-      <c r="F42" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A42,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A42,EML_Tool_WP!A:BB,48,0))</f>
-        <v>active</v>
-      </c>
-      <c r="G42" s="270" t="str">
-        <f aca="false">IF(VLOOKUP(A42,EML_Tool_WP!A:BB,50,0)="","",VLOOKUP(A42,EML_Tool_WP!A:BB,50,0))</f>
-        <v>Optimal network, hardware and hardware configuration</v>
-      </c>
-      <c r="H42" s="247" t="str">
-        <f aca="false">IF(VLOOKUP(A42,EML_Tool_WP!A:BB,52,0)="","",VLOOKUP(A42,EML_Tool_WP!A:BB,52,0))</f>
-        <v>[] (TUG) Documented evaluation of EfficientDet, SSD-MobileNet and Yolo on NVIDIA, Edge TPU and NCS2
-[] Optimal Network+Optimizer+Hardware as code
-[] Pedestrian training dataset created from official sources</v>
-      </c>
-      <c r="I42" s="247" t="str">
-        <f aca="false">IF(VLOOKUP(A42,EML_Tool_WP!A:BB,53,0)="","",VLOOKUP(A42,EML_Tool_WP!A:BB,53,0))</f>
-        <v/>
-      </c>
-      <c r="J42" s="230" t="str">
-        <f aca="false">IFERROR(IF(FIND("(ME)",H42),"ME"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="57.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="228" t="s">
-        <v>557</v>
-      </c>
-      <c r="B43" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A43,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A43,EML_Tool_WP!A:BB,2,0))</f>
-        <v>Application: Ragweed Recognition Through a Drone</v>
-      </c>
-      <c r="C43" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A43,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A43,EML_Tool_WP!A:BB,39,0))</f>
-        <v>44044</v>
-      </c>
-      <c r="D43" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A43,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A43,EML_Tool_WP!A:BB,40,0))</f>
-        <v>44286</v>
-      </c>
-      <c r="E43" s="248" t="n">
-        <f aca="false">IF(VLOOKUP(A43,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A43,EML_Tool_WP!A:BB,42,0))</f>
-        <v>0.441538461538462</v>
-      </c>
-      <c r="F43" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A43,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A43,EML_Tool_WP!A:BB,48,0))</f>
-        <v>active</v>
-      </c>
-      <c r="G43" s="270" t="str">
-        <f aca="false">IF(VLOOKUP(A43,EML_Tool_WP!A:BB,50,0)="","",VLOOKUP(A43,EML_Tool_WP!A:BB,50,0))</f>
-        <v>Optimal network, hardware and hardware configuration</v>
-      </c>
-      <c r="H43" s="247" t="str">
-        <f aca="false">IF(VLOOKUP(A43,EML_Tool_WP!A:BB,52,0)="","",VLOOKUP(A43,EML_Tool_WP!A:BB,52,0))</f>
-        <v>[] Documentation of evaluation of performance and latency of segmentation network on NVIDIA 
-[] Trained network and data in repository
-[] Ragweed dataset on fileserver</v>
-      </c>
-      <c r="I43" s="247" t="str">
-        <f aca="false">IF(VLOOKUP(A43,EML_Tool_WP!A:BB,53,0)="","",VLOOKUP(A43,EML_Tool_WP!A:BB,53,0))</f>
-        <v/>
-      </c>
-      <c r="J43" s="230" t="str">
-        <f aca="false">IFERROR(IF(FIND("(ME)",H43),"ME"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="144" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="228" t="s">
-        <v>576</v>
-      </c>
-      <c r="B44" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A44,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A44,EML_Tool_WP!A:BB,2,0))</f>
-        <v>Application: Minicar Demonstrator</v>
-      </c>
-      <c r="C44" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A44,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A44,EML_Tool_WP!A:BB,39,0))</f>
-        <v>43831</v>
-      </c>
-      <c r="D44" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A44,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A44,EML_Tool_WP!A:BB,40,0))</f>
-        <v>44227</v>
-      </c>
-      <c r="E44" s="248" t="n">
-        <f aca="false">IF(VLOOKUP(A44,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A44,EML_Tool_WP!A:BB,42,0))</f>
-        <v>0.933333333333333</v>
-      </c>
-      <c r="F44" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A44,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A44,EML_Tool_WP!A:BB,48,0))</f>
-        <v>active</v>
-      </c>
-      <c r="G44" s="270" t="str">
-        <f aca="false">IF(VLOOKUP(A44,EML_Tool_WP!A:BB,50,0)="","",VLOOKUP(A44,EML_Tool_WP!A:BB,50,0))</f>
-        <v>Running demonstrator for neural networks</v>
-      </c>
-      <c r="H44" s="247" t="str">
-        <f aca="false">IF(VLOOKUP(A44,EML_Tool_WP!A:BB,52,0)="","",VLOOKUP(A44,EML_Tool_WP!A:BB,52,0))</f>
-        <v>[x] Modified model car, which can be controlled by WiFI, video feed with camera image, bounding boxes with classes painted into the image by an object detection network
-[] Software project with scripts necessary to run the demonstrator in repository
-[] Written thesis about the demonstrator
-[x] Video with visible comparsion of networks and modi published on homepage</v>
-      </c>
-      <c r="I44" s="247" t="str">
-        <f aca="false">IF(VLOOKUP(A44,EML_Tool_WP!A:BB,53,0)="","",VLOOKUP(A44,EML_Tool_WP!A:BB,53,0))</f>
-        <v>* Car finished</v>
-      </c>
-      <c r="J44" s="230" t="str">
-        <f aca="false">IFERROR(IF(FIND("(ME)",H44),"ME"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="57.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="240" t="s">
-        <v>591</v>
-      </c>
-      <c r="B45" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A45,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A45,EML_Tool_WP!A:BB,2,0))</f>
-        <v>Application: Tensorflow Lite Object Detection on an Android Smart Phone</v>
-      </c>
-      <c r="C45" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A45,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A45,EML_Tool_WP!A:BB,39,0))</f>
-        <v>44105</v>
-      </c>
-      <c r="D45" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A45,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A45,EML_Tool_WP!A:BB,40,0))</f>
-        <v>44255</v>
-      </c>
-      <c r="E45" s="248" t="n">
-        <f aca="false">IF(VLOOKUP(A45,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A45,EML_Tool_WP!A:BB,42,0))</f>
-        <v>0.566666666666667</v>
-      </c>
-      <c r="F45" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A45,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A45,EML_Tool_WP!A:BB,48,0))</f>
-        <v>active</v>
-      </c>
-      <c r="G45" s="270" t="str">
-        <f aca="false">IF(VLOOKUP(A45,EML_Tool_WP!A:BB,50,0)="","",VLOOKUP(A45,EML_Tool_WP!A:BB,50,0))</f>
-        <v>Android handy with custom object detection in TF</v>
-      </c>
-      <c r="H45" s="247" t="str">
-        <f aca="false">IF(VLOOKUP(A45,EML_Tool_WP!A:BB,52,0)="","",VLOOKUP(A45,EML_Tool_WP!A:BB,52,0))</f>
-        <v>[] Guide how to setup app for TF Obj. Detection API TF2
-[] App installed on mobile phone
-[] Coco Pretrained test network</v>
-      </c>
-      <c r="I45" s="247" t="str">
-        <f aca="false">IF(VLOOKUP(A45,EML_Tool_WP!A:BB,53,0)="","",VLOOKUP(A45,EML_Tool_WP!A:BB,53,0))</f>
-        <v/>
-      </c>
-      <c r="J45" s="230" t="str">
-        <f aca="false">IFERROR(IF(FIND("(ME)",H45),"ME"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="86.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="240" t="s">
-        <v>607</v>
-      </c>
-      <c r="B46" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A46,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A46,EML_Tool_WP!A:BB,2,0))</f>
-        <v>Hyper Parameterization Optimization through a Two-Phase-Search</v>
-      </c>
-      <c r="C46" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A46,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A46,EML_Tool_WP!A:BB,39,0))</f>
-        <v>43831</v>
-      </c>
-      <c r="D46" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A46,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A46,EML_Tool_WP!A:BB,40,0))</f>
-        <v>44104</v>
-      </c>
-      <c r="E46" s="248" t="n">
-        <f aca="false">IF(VLOOKUP(A46,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A46,EML_Tool_WP!A:BB,42,0))</f>
-        <v>1</v>
-      </c>
-      <c r="F46" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A46,EML_Tool_WP!A:BB,48,0)="","",VLOOKUP(A46,EML_Tool_WP!A:BB,48,0))</f>
-        <v>completed</v>
-      </c>
-      <c r="G46" s="270" t="str">
-        <f aca="false">IF(VLOOKUP(A46,EML_Tool_WP!A:BB,50,0)="","",VLOOKUP(A46,EML_Tool_WP!A:BB,50,0))</f>
-        <v>Find out how to speed up common SVM and RF search methods</v>
-      </c>
-      <c r="H46" s="247" t="str">
-        <f aca="false">IF(VLOOKUP(A46,EML_Tool_WP!A:BB,52,0)="","",VLOOKUP(A46,EML_Tool_WP!A:BB,52,0))</f>
-        <v>[x] Thesis with anaylsis of search
-[x] Publication for IECON with results</v>
-      </c>
-      <c r="I46" s="247" t="str">
-        <f aca="false">IF(VLOOKUP(A46,EML_Tool_WP!A:BB,53,0)="","",VLOOKUP(A46,EML_Tool_WP!A:BB,53,0))</f>
-        <v>*Thesis: 20191212_BA_Marco_Wuschning_EML_Hyperopt_closed
-* Publication: 20200617_Hyperparameter_Optimization_IECON
-* Code: see publication</v>
-      </c>
-      <c r="J46" s="230" t="str">
-        <f aca="false">IFERROR(IF(FIND("(ME)",H46),"ME"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="14.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="241"/>
-      <c r="B47" s="242"/>
-      <c r="C47" s="258"/>
-      <c r="D47" s="258"/>
-      <c r="E47" s="259"/>
-      <c r="F47" s="242"/>
-      <c r="G47" s="272"/>
-      <c r="H47" s="258"/>
-      <c r="I47" s="258"/>
-    </row>
-    <row r="48" customFormat="false" ht="14.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="241"/>
-      <c r="B48" s="242"/>
-      <c r="C48" s="258"/>
-      <c r="D48" s="258"/>
-      <c r="E48" s="259"/>
-      <c r="F48" s="242"/>
-      <c r="G48" s="272"/>
-      <c r="H48" s="258"/>
-      <c r="I48" s="258"/>
-    </row>
-    <row r="49" customFormat="false" ht="14.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="241"/>
-      <c r="B49" s="242"/>
-      <c r="C49" s="258"/>
-      <c r="D49" s="258"/>
-      <c r="E49" s="259"/>
-      <c r="F49" s="242"/>
-      <c r="G49" s="272"/>
-      <c r="H49" s="258"/>
-      <c r="I49" s="258"/>
-    </row>
-    <row r="50" customFormat="false" ht="14.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="241"/>
-      <c r="B50" s="242"/>
-      <c r="C50" s="258"/>
-      <c r="D50" s="258"/>
-      <c r="E50" s="259"/>
-      <c r="F50" s="242"/>
-      <c r="G50" s="272"/>
-      <c r="H50" s="258"/>
-      <c r="I50" s="258"/>
-    </row>
-    <row r="51" customFormat="false" ht="14.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="241"/>
-      <c r="B51" s="242"/>
-      <c r="C51" s="258"/>
-      <c r="D51" s="258"/>
-      <c r="E51" s="259"/>
-      <c r="F51" s="242"/>
-      <c r="G51" s="272"/>
-      <c r="H51" s="258"/>
-      <c r="I51" s="258"/>
-    </row>
-    <row r="52" customFormat="false" ht="14.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="241"/>
-      <c r="B52" s="242"/>
-      <c r="C52" s="258"/>
-      <c r="D52" s="258"/>
-      <c r="E52" s="259"/>
-      <c r="F52" s="242"/>
-      <c r="G52" s="272"/>
-      <c r="H52" s="258"/>
-      <c r="I52" s="258"/>
-    </row>
-    <row r="53" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="243"/>
-      <c r="B53" s="244"/>
-      <c r="C53" s="261"/>
-      <c r="D53" s="244"/>
-      <c r="E53" s="262"/>
-      <c r="F53" s="244"/>
-      <c r="G53" s="273"/>
-      <c r="H53" s="244"/>
-      <c r="I53" s="244"/>
-    </row>
-    <row r="54" customFormat="false" ht="14.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="245"/>
-      <c r="B54" s="246"/>
-      <c r="C54" s="264"/>
-      <c r="D54" s="246"/>
-      <c r="E54" s="265"/>
-      <c r="F54" s="246"/>
-      <c r="G54" s="274"/>
-      <c r="H54" s="246"/>
-      <c r="I54" s="246"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:J54"/>
-  <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="iconSet" priority="2">
-      <iconSet iconSet="5Quarters">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="1"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-        <cfvo type="percent" val="100"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:I54"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F29" activeCellId="0" sqref="F29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.56640625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="228" width="8.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="229" width="54.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="247" width="10.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="229" width="10.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="229" width="15.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="229" width="15.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="248" width="8"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="9" style="230" width="11.56"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="233" customFormat="true" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="231" t="s">
-        <v>656</v>
-      </c>
-      <c r="B1" s="232" t="s">
-        <v>657</v>
-      </c>
-      <c r="C1" s="250" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="232" t="s">
-        <v>659</v>
-      </c>
-      <c r="E1" s="232" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="232" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="275" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" s="236" customFormat="true" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="234" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="235" t="str">
-        <f aca="false">IF(VLOOKUP(A2,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A2,EML_Tool_WP!A:BB,2,0))</f>
-        <v>Create estimations for lat, throughput, power, energy, acc, resources</v>
-      </c>
-      <c r="C2" s="253"/>
-      <c r="D2" s="235"/>
-      <c r="E2" s="235"/>
-      <c r="F2" s="235"/>
-      <c r="G2" s="276" t="n">
-        <f aca="false">IF(VLOOKUP(A2,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A2,EML_Tool_WP!A:BB,42,0))</f>
-        <v>0.518918918918919</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="228" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A3,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A3,EML_Tool_WP!A:BB,2,0))</f>
-        <v>State of the Art Latency und Power Estimation Modelle aufsetzen</v>
-      </c>
-      <c r="C3" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A3,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A3,EML_Tool_WP!A:BB,39,0))</f>
-        <v>44075</v>
-      </c>
-      <c r="D3" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A3,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A3,EML_Tool_WP!A:BB,40,0))</f>
-        <v>44134</v>
-      </c>
-      <c r="E3" s="229" t="str">
-        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A3,EML_Tool_WP!A:BB,45,0),Members!A:B,2,0),"ERROR")</f>
-        <v>Marco Wuschnig</v>
-      </c>
-      <c r="F3" s="229" t="str">
-        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A3,EML_Tool_WP!A:BB,46,0),Members!A:B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="G3" s="277" t="n">
-        <f aca="false">IF(VLOOKUP(A3,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A3,EML_Tool_WP!A:BB,42,0))</f>
-        <v>1</v>
-      </c>
-      <c r="I3" s="237"/>
-    </row>
-    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="228" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A4,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A4,EML_Tool_WP!A:BB,2,0))</f>
-        <v>Latency Estimator Blackthorn (NVIDIA)</v>
-      </c>
-      <c r="C4" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A4,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A4,EML_Tool_WP!A:BB,39,0))</f>
-        <v>43739</v>
-      </c>
-      <c r="D4" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A4,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A4,EML_Tool_WP!A:BB,40,0))</f>
-        <v>44469</v>
-      </c>
-      <c r="E4" s="229" t="str">
-        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A4,EML_Tool_WP!A:BB,45,0),Members!A:B,2,0),"ERROR")</f>
-        <v>Martin Lechner</v>
-      </c>
-      <c r="F4" s="229" t="str">
-        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A4,EML_Tool_WP!A:BB,46,0),Members!A:B,2,0),"")</f>
-        <v>Martin Lechner</v>
-      </c>
-      <c r="G4" s="277" t="n">
-        <f aca="false">IF(VLOOKUP(A4,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A4,EML_Tool_WP!A:BB,42,0))</f>
-        <v>0.811111111111111</v>
-      </c>
-      <c r="I4" s="237"/>
-    </row>
-    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="228" t="s">
-        <v>66</v>
-      </c>
-      <c r="B5" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A5,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A5,EML_Tool_WP!A:BB,2,0))</f>
-        <v>Latency Estimator ANETTE (Intel, ARM, Xilinx)</v>
-      </c>
-      <c r="C5" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A5,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A5,EML_Tool_WP!A:BB,39,0))</f>
-        <v>43739</v>
-      </c>
-      <c r="D5" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A5,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A5,EML_Tool_WP!A:BB,40,0))</f>
-        <v>44469</v>
-      </c>
-      <c r="E5" s="229" t="str">
-        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A5,EML_Tool_WP!A:BB,45,0),Members!A:B,2,0),"ERROR")</f>
-        <v>Matthias Wess</v>
-      </c>
-      <c r="F5" s="229" t="str">
-        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A5,EML_Tool_WP!A:BB,46,0),Members!A:B,2,0),"")</f>
-        <v>Matthias Wess</v>
-      </c>
-      <c r="G5" s="277" t="n">
-        <f aca="false">IF(VLOOKUP(A5,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A5,EML_Tool_WP!A:BB,42,0))</f>
-        <v>0.854545454545455</v>
-      </c>
-      <c r="I5" s="237"/>
-    </row>
-    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="228" t="s">
-        <v>88</v>
-      </c>
-      <c r="B6" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A6,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A6,EML_Tool_WP!A:BB,2,0))</f>
-        <v>Power Estimator through Christian's Model</v>
-      </c>
-      <c r="C6" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A6,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A6,EML_Tool_WP!A:BB,39,0))</f>
-        <v>44044</v>
-      </c>
-      <c r="D6" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A6,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A6,EML_Tool_WP!A:BB,40,0))</f>
-        <v>44134</v>
-      </c>
-      <c r="E6" s="229" t="str">
-        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A6,EML_Tool_WP!A:BB,45,0),Members!A:B,2,0),"ERROR")</f>
-        <v>Christian Krieg</v>
-      </c>
-      <c r="F6" s="229" t="str">
-        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A6,EML_Tool_WP!A:BB,46,0),Members!A:B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="G6" s="277" t="n">
-        <f aca="false">IF(VLOOKUP(A6,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A6,EML_Tool_WP!A:BB,42,0))</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="237"/>
-    </row>
-    <row r="7" s="284" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="278" t="s">
-        <v>97</v>
-      </c>
-      <c r="B7" s="279" t="str">
-        <f aca="false">IF(VLOOKUP(A7,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A7,EML_Tool_WP!A:BB,2,0))</f>
-        <v>Power Estimator through ANNETTE</v>
-      </c>
-      <c r="C7" s="280" t="n">
-        <f aca="false">IF(VLOOKUP(A7,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A7,EML_Tool_WP!A:BB,39,0))</f>
-        <v>44146</v>
-      </c>
-      <c r="D7" s="280" t="n">
-        <f aca="false">IF(VLOOKUP(A7,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A7,EML_Tool_WP!A:BB,40,0))</f>
-        <v>44439</v>
-      </c>
-      <c r="E7" s="279" t="str">
-        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A7,EML_Tool_WP!A:BB,45,0),Members!A:B,2,0),"ERROR")</f>
-        <v>Christian Krieg</v>
-      </c>
-      <c r="F7" s="279" t="str">
-        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A7,EML_Tool_WP!A:BB,46,0),Members!A:B,2,0),"")</f>
-        <v>Nikolas Alge</v>
-      </c>
-      <c r="G7" s="281" t="n">
-        <f aca="false">IF(VLOOKUP(A7,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A7,EML_Tool_WP!A:BB,42,0))</f>
-        <v>0.0625</v>
-      </c>
-      <c r="H7" s="282"/>
-      <c r="I7" s="283"/>
-    </row>
-    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="228" t="s">
-        <v>113</v>
-      </c>
-      <c r="B8" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A8,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A8,EML_Tool_WP!A:BB,2,0))</f>
-        <v>Estimation of On-Chip Resources</v>
-      </c>
-      <c r="C8" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A8,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A8,EML_Tool_WP!A:BB,39,0))</f>
-        <v>44470</v>
-      </c>
-      <c r="D8" s="247" t="str">
-        <f aca="false">IF(VLOOKUP(A8,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A8,EML_Tool_WP!A:BB,40,0))</f>
-        <v/>
-      </c>
-      <c r="E8" s="229" t="str">
-        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A8,EML_Tool_WP!A:BB,45,0),Members!A:B,2,0),"ERROR")</f>
-        <v>Martin Lechner</v>
-      </c>
-      <c r="F8" s="229" t="str">
-        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A8,EML_Tool_WP!A:BB,46,0),Members!A:B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="G8" s="277" t="n">
-        <f aca="false">IF(VLOOKUP(A8,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A8,EML_Tool_WP!A:BB,42,0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" s="236" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="238" t="s">
-        <v>121</v>
-      </c>
-      <c r="B9" s="239" t="str">
-        <f aca="false">IF(VLOOKUP(A9,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A9,EML_Tool_WP!A:BB,2,0))</f>
-        <v>Optimize HW Dependent Settings</v>
-      </c>
-      <c r="C9" s="256"/>
-      <c r="D9" s="239"/>
-      <c r="E9" s="239"/>
-      <c r="F9" s="239"/>
-      <c r="G9" s="276" t="n">
-        <f aca="false">IF(VLOOKUP(A9,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A9,EML_Tool_WP!A:BB,42,0))</f>
-        <v>0.406896551724138</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="240" t="s">
-        <v>125</v>
-      </c>
-      <c r="B10" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A10,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A10,EML_Tool_WP!A:BB,2,0))</f>
-        <v>NVIDIA Platform Profiling (Jetson, TC2, Xavier)</v>
-      </c>
-      <c r="C10" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A10,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A10,EML_Tool_WP!A:BB,39,0))</f>
-        <v>43891</v>
-      </c>
-      <c r="D10" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A10,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A10,EML_Tool_WP!A:BB,40,0))</f>
-        <v>44286</v>
-      </c>
-      <c r="E10" s="229" t="str">
-        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A10,EML_Tool_WP!A:BB,45,0),Members!A:B,2,0),"ERROR")</f>
-        <v>Amid Mozelli</v>
-      </c>
-      <c r="F10" s="285" t="str">
-        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A10,EML_Tool_WP!A:BB,46,0),Members!A:B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="G10" s="277" t="n">
-        <f aca="false">IF(VLOOKUP(A10,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A10,EML_Tool_WP!A:BB,42,0))</f>
-        <v>0.411111111111111</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="228" t="s">
-        <v>144</v>
-      </c>
-      <c r="B11" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A11,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A11,EML_Tool_WP!A:BB,2,0))</f>
-        <v>ARM Platform Profiling (Rasp. Pi 4)</v>
-      </c>
-      <c r="C11" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A11,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A11,EML_Tool_WP!A:BB,39,0))</f>
-        <v>44136</v>
-      </c>
-      <c r="D11" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A11,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A11,EML_Tool_WP!A:BB,40,0))</f>
-        <v>44255</v>
-      </c>
-      <c r="E11" s="229" t="str">
-        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A11,EML_Tool_WP!A:BB,45,0),Members!A:B,2,0),"ERROR")</f>
-        <v>Matvey Ivanov</v>
-      </c>
-      <c r="F11" s="229" t="str">
-        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A11,EML_Tool_WP!A:BB,46,0),Members!A:B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="G11" s="277" t="n">
-        <f aca="false">IF(VLOOKUP(A11,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A11,EML_Tool_WP!A:BB,42,0))</f>
-        <v>0.46</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="228" t="s">
-        <v>155</v>
-      </c>
-      <c r="B12" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A12,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A12,EML_Tool_WP!A:BB,2,0))</f>
-        <v>Xilinx Rlatform Profiling (ZCU102)</v>
-      </c>
-      <c r="C12" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A12,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A12,EML_Tool_WP!A:BB,39,0))</f>
-        <v>44136</v>
-      </c>
-      <c r="D12" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A12,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A12,EML_Tool_WP!A:BB,40,0))</f>
-        <v>44347</v>
-      </c>
-      <c r="E12" s="229" t="str">
-        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A12,EML_Tool_WP!A:BB,45,0),Members!A:B,2,0),"ERROR")</f>
-        <v>Marco Wuschnig</v>
-      </c>
-      <c r="F12" s="229" t="str">
-        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A12,EML_Tool_WP!A:BB,46,0),Members!A:B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="G12" s="277" t="n">
-        <f aca="false">IF(VLOOKUP(A12,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A12,EML_Tool_WP!A:BB,42,0))</f>
-        <v>0.0666666666666667</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="228" t="s">
-        <v>167</v>
-      </c>
-      <c r="B13" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A13,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A13,EML_Tool_WP!A:BB,2,0))</f>
-        <v>Intel Platform Profiling (NUC, NCS2)</v>
-      </c>
-      <c r="C13" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A13,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A13,EML_Tool_WP!A:BB,39,0))</f>
-        <v>43739</v>
-      </c>
-      <c r="D13" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A13,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A13,EML_Tool_WP!A:BB,40,0))</f>
-        <v>43921</v>
-      </c>
-      <c r="E13" s="229" t="str">
-        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A13,EML_Tool_WP!A:BB,45,0),Members!A:B,2,0),"ERROR")</f>
-        <v>Matvey Ivanov</v>
-      </c>
-      <c r="F13" s="229" t="str">
-        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A13,EML_Tool_WP!A:BB,46,0),Members!A:B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="G13" s="277" t="n">
-        <f aca="false">IF(VLOOKUP(A13,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A13,EML_Tool_WP!A:BB,42,0))</f>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="14" s="284" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="278" t="s">
-        <v>185</v>
-      </c>
-      <c r="B14" s="279" t="str">
-        <f aca="false">IF(VLOOKUP(A14,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A14,EML_Tool_WP!A:BB,2,0))</f>
-        <v>Google Platform Profiling (Edge TPU)</v>
-      </c>
-      <c r="C14" s="280" t="n">
-        <f aca="false">IF(VLOOKUP(A14,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A14,EML_Tool_WP!A:BB,39,0))</f>
-        <v>44273</v>
-      </c>
-      <c r="D14" s="280" t="n">
-        <f aca="false">IF(VLOOKUP(A14,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A14,EML_Tool_WP!A:BB,40,0))</f>
-        <v>44346</v>
-      </c>
-      <c r="E14" s="279" t="str">
-        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A14,EML_Tool_WP!A:BB,45,0),Members!A:B,2,0),"ERROR")</f>
-        <v>Christian Krieg</v>
-      </c>
-      <c r="F14" s="279" t="str">
-        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A14,EML_Tool_WP!A:BB,46,0),Members!A:B,2,0),"")</f>
-        <v>Nikolas Alge</v>
-      </c>
-      <c r="G14" s="281" t="n">
-        <f aca="false">IF(VLOOKUP(A14,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A14,EML_Tool_WP!A:BB,42,0))</f>
-        <v>0.0375</v>
-      </c>
-      <c r="H14" s="282"/>
-    </row>
-    <row r="15" s="236" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="238" t="s">
-        <v>196</v>
-      </c>
-      <c r="B15" s="239" t="str">
-        <f aca="false">IF(VLOOKUP(A15,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A15,EML_Tool_WP!A:BB,2,0))</f>
-        <v>Map Models of hardware</v>
-      </c>
-      <c r="C15" s="256"/>
-      <c r="D15" s="239"/>
-      <c r="E15" s="239"/>
-      <c r="F15" s="239"/>
-      <c r="G15" s="276" t="n">
-        <f aca="false">IF(VLOOKUP(A15,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A15,EML_Tool_WP!A:BB,42,0))</f>
-        <v>0.557017543859649</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="228" t="s">
-        <v>199</v>
-      </c>
-      <c r="B16" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A16,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A16,EML_Tool_WP!A:BB,2,0))</f>
-        <v>Common Interface Inference on all Platforms</v>
-      </c>
-      <c r="C16" s="247" t="str">
-        <f aca="false">IF(VLOOKUP(A16,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A16,EML_Tool_WP!A:BB,39,0))</f>
-        <v/>
-      </c>
-      <c r="D16" s="247" t="str">
-        <f aca="false">IF(VLOOKUP(A16,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A16,EML_Tool_WP!A:BB,40,0))</f>
-        <v/>
-      </c>
-      <c r="E16" s="229" t="str">
-        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A16,EML_Tool_WP!A:BB,45,0),Members!A:B,2,0),"ERROR")</f>
-        <v>Alexander Wendt</v>
-      </c>
-      <c r="F16" s="229" t="str">
-        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A16,EML_Tool_WP!A:BB,46,0),Members!A:B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="G16" s="277" t="n">
-        <f aca="false">IF(VLOOKUP(A16,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A16,EML_Tool_WP!A:BB,42,0))</f>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="228" t="s">
-        <v>214</v>
-      </c>
-      <c r="B17" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A17,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A17,EML_Tool_WP!A:BB,2,0))</f>
-        <v>Common Network Inference Possible on NVIDIA</v>
-      </c>
-      <c r="C17" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A17,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A17,EML_Tool_WP!A:BB,39,0))</f>
-        <v>43891</v>
-      </c>
-      <c r="D17" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A17,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A17,EML_Tool_WP!A:BB,40,0))</f>
-        <v>43921</v>
-      </c>
-      <c r="E17" s="229" t="str">
-        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A17,EML_Tool_WP!A:BB,45,0),Members!A:B,2,0),"ERROR")</f>
-        <v>Amid Mozelli</v>
-      </c>
-      <c r="F17" s="229" t="str">
-        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A17,EML_Tool_WP!A:BB,46,0),Members!A:B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="G17" s="277" t="n">
-        <f aca="false">IF(VLOOKUP(A17,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A17,EML_Tool_WP!A:BB,42,0))</f>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="228" t="s">
-        <v>233</v>
-      </c>
-      <c r="B18" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A18,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A18,EML_Tool_WP!A:BB,2,0))</f>
-        <v>Common Network Inference Possible on Intel</v>
-      </c>
-      <c r="C18" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A18,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A18,EML_Tool_WP!A:BB,39,0))</f>
-        <v>43739</v>
-      </c>
-      <c r="D18" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A18,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A18,EML_Tool_WP!A:BB,40,0))</f>
-        <v>44227</v>
-      </c>
-      <c r="E18" s="229" t="str">
-        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A18,EML_Tool_WP!A:BB,45,0),Members!A:B,2,0),"ERROR")</f>
-        <v>Matvey Ivanov</v>
-      </c>
-      <c r="F18" s="229" t="str">
-        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A18,EML_Tool_WP!A:BB,46,0),Members!A:B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="G18" s="277" t="n">
-        <f aca="false">IF(VLOOKUP(A18,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A18,EML_Tool_WP!A:BB,42,0))</f>
-        <v>0.9125</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="228" t="s">
-        <v>245</v>
-      </c>
-      <c r="B19" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A19,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A19,EML_Tool_WP!A:BB,2,0))</f>
-        <v>Common Network Inference Possible on ARM</v>
-      </c>
-      <c r="C19" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A19,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A19,EML_Tool_WP!A:BB,39,0))</f>
-        <v>44105</v>
-      </c>
-      <c r="D19" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A19,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A19,EML_Tool_WP!A:BB,40,0))</f>
-        <v>44255</v>
-      </c>
-      <c r="E19" s="229" t="str">
-        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A19,EML_Tool_WP!A:BB,45,0),Members!A:B,2,0),"ERROR")</f>
-        <v>Matvey Ivanov</v>
-      </c>
-      <c r="F19" s="229" t="str">
-        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A19,EML_Tool_WP!A:BB,46,0),Members!A:B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="G19" s="277" t="n">
-        <f aca="false">IF(VLOOKUP(A19,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A19,EML_Tool_WP!A:BB,42,0))</f>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="228" t="s">
-        <v>259</v>
-      </c>
-      <c r="B20" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A20,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A20,EML_Tool_WP!A:BB,2,0))</f>
-        <v>Common Network Inference Possible on Xilinx</v>
-      </c>
-      <c r="C20" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A20,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A20,EML_Tool_WP!A:BB,39,0))</f>
-        <v>44105</v>
-      </c>
-      <c r="D20" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A20,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A20,EML_Tool_WP!A:BB,40,0))</f>
-        <v>44346</v>
-      </c>
-      <c r="E20" s="229" t="str">
-        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A20,EML_Tool_WP!A:BB,45,0),Members!A:B,2,0),"ERROR")</f>
-        <v>Marco Wuschnig</v>
-      </c>
-      <c r="F20" s="229" t="str">
-        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A20,EML_Tool_WP!A:BB,46,0),Members!A:B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="G20" s="277" t="n">
-        <f aca="false">IF(VLOOKUP(A20,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A20,EML_Tool_WP!A:BB,42,0))</f>
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="228" t="s">
-        <v>271</v>
-      </c>
-      <c r="B21" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A21,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A21,EML_Tool_WP!A:BB,2,0))</f>
-        <v>Power Measurements possible for NCS2 and NVIDIA</v>
-      </c>
-      <c r="C21" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A21,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A21,EML_Tool_WP!A:BB,39,0))</f>
-        <v>44013</v>
-      </c>
-      <c r="D21" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A21,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A21,EML_Tool_WP!A:BB,40,0))</f>
-        <v>43921</v>
-      </c>
-      <c r="E21" s="229" t="str">
-        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A21,EML_Tool_WP!A:BB,45,0),Members!A:B,2,0),"ERROR")</f>
-        <v>Matvey Ivanov</v>
-      </c>
-      <c r="F21" s="229" t="str">
-        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A21,EML_Tool_WP!A:BB,46,0),Members!A:B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="G21" s="277" t="n">
-        <f aca="false">IF(VLOOKUP(A21,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A21,EML_Tool_WP!A:BB,42,0))</f>
-        <v>0.552272727272727</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="228" t="s">
-        <v>298</v>
-      </c>
-      <c r="B22" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A22,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A22,EML_Tool_WP!A:BB,2,0))</f>
-        <v>Demonstration of Inference on all Platforms with Common Interface</v>
-      </c>
-      <c r="C22" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A22,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A22,EML_Tool_WP!A:BB,39,0))</f>
-        <v>44256</v>
-      </c>
-      <c r="D22" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A22,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A22,EML_Tool_WP!A:BB,40,0))</f>
-        <v>44347</v>
-      </c>
-      <c r="E22" s="229" t="str">
-        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A22,EML_Tool_WP!A:BB,45,0),Members!A:B,2,0),"ERROR")</f>
-        <v>Alexander Wendt</v>
-      </c>
-      <c r="F22" s="229" t="str">
-        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A22,EML_Tool_WP!A:BB,46,0),Members!A:B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="G22" s="277" t="n">
-        <f aca="false">IF(VLOOKUP(A22,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A22,EML_Tool_WP!A:BB,42,0))</f>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="23" s="236" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="238" t="s">
-        <v>309</v>
-      </c>
-      <c r="B23" s="239" t="str">
-        <f aca="false">IF(VLOOKUP(A23,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A23,EML_Tool_WP!A:BB,2,0))</f>
-        <v>Quantization</v>
-      </c>
-      <c r="C23" s="256"/>
-      <c r="D23" s="239"/>
-      <c r="E23" s="239"/>
-      <c r="F23" s="239"/>
-      <c r="G23" s="276" t="n">
-        <f aca="false">IF(VLOOKUP(A23,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A23,EML_Tool_WP!A:BB,42,0))</f>
-        <v>0.235294117647059</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="228" t="s">
-        <v>312</v>
-      </c>
-      <c r="B24" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A24,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A24,EML_Tool_WP!A:BB,2,0))</f>
-        <v>HW Independent Quantization on Xilinx</v>
-      </c>
-      <c r="C24" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A24,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A24,EML_Tool_WP!A:BB,39,0))</f>
-        <v>43891</v>
-      </c>
-      <c r="D24" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A24,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A24,EML_Tool_WP!A:BB,40,0))</f>
-        <v>44286</v>
-      </c>
-      <c r="E24" s="229" t="str">
-        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A24,EML_Tool_WP!A:BB,45,0),Members!A:B,2,0),"ERROR")</f>
-        <v>Matthias Wess</v>
-      </c>
-      <c r="F24" s="229" t="str">
-        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A24,EML_Tool_WP!A:BB,46,0),Members!A:B,2,0),"")</f>
-        <v>Dominik Dallinger</v>
-      </c>
-      <c r="G24" s="277" t="n">
-        <f aca="false">IF(VLOOKUP(A24,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A24,EML_Tool_WP!A:BB,42,0))</f>
-        <v>0.74</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="240" t="s">
-        <v>326</v>
-      </c>
-      <c r="B25" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A25,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A25,EML_Tool_WP!A:BB,2,0))</f>
-        <v>Analysis of NVIDIA Native Quantization</v>
-      </c>
-      <c r="C25" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A25,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A25,EML_Tool_WP!A:BB,39,0))</f>
-        <v>44136</v>
-      </c>
-      <c r="D25" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A25,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A25,EML_Tool_WP!A:BB,40,0))</f>
-        <v>44255</v>
-      </c>
-      <c r="E25" s="229" t="str">
-        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A25,EML_Tool_WP!A:BB,45,0),Members!A:B,2,0),"ERROR")</f>
-        <v>Alexander Wendt</v>
-      </c>
-      <c r="F25" s="286" t="str">
-        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A25,EML_Tool_WP!A:BB,46,0),Members!A:B,2,0),"")</f>
-        <v>Karoline Knoth</v>
-      </c>
-      <c r="G25" s="277" t="n">
-        <f aca="false">IF(VLOOKUP(A25,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A25,EML_Tool_WP!A:BB,42,0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="240" t="s">
-        <v>334</v>
-      </c>
-      <c r="B26" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A26,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A26,EML_Tool_WP!A:BB,2,0))</f>
-        <v>Analysis of Intel Native Quantization</v>
-      </c>
-      <c r="C26" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A26,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A26,EML_Tool_WP!A:BB,39,0))</f>
-        <v>44105</v>
-      </c>
-      <c r="D26" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A26,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A26,EML_Tool_WP!A:BB,40,0))</f>
-        <v>44255</v>
-      </c>
-      <c r="E26" s="229" t="str">
-        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A26,EML_Tool_WP!A:BB,45,0),Members!A:B,2,0),"ERROR")</f>
-        <v>Alexander Wendt</v>
-      </c>
-      <c r="F26" s="229" t="str">
-        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A26,EML_Tool_WP!A:BB,46,0),Members!A:B,2,0),"")</f>
-        <v>Julian Westra</v>
-      </c>
-      <c r="G26" s="277" t="n">
-        <f aca="false">IF(VLOOKUP(A26,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A26,EML_Tool_WP!A:BB,42,0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="240" t="s">
-        <v>343</v>
-      </c>
-      <c r="B27" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A27,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A27,EML_Tool_WP!A:BB,2,0))</f>
-        <v>One-shot Quantizeable Slimmable Adaptive Networks on Xilinx</v>
-      </c>
-      <c r="C27" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A27,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A27,EML_Tool_WP!A:BB,39,0))</f>
-        <v>44105</v>
-      </c>
-      <c r="D27" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A27,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A27,EML_Tool_WP!A:BB,40,0))</f>
-        <v>44407</v>
-      </c>
-      <c r="E27" s="229" t="str">
-        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A27,EML_Tool_WP!A:BB,45,0),Members!A:B,2,0),"ERROR")</f>
-        <v>Matthias Wess</v>
-      </c>
-      <c r="F27" s="229" t="str">
-        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A27,EML_Tool_WP!A:BB,46,0),Members!A:B,2,0),"")</f>
-        <v>Birgit Schreiber</v>
-      </c>
-      <c r="G27" s="277" t="n">
-        <f aca="false">IF(VLOOKUP(A27,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A27,EML_Tool_WP!A:BB,42,0))</f>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="28" s="236" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="238" t="s">
-        <v>357</v>
-      </c>
-      <c r="B28" s="239" t="str">
-        <f aca="false">IF(VLOOKUP(A28,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A28,EML_Tool_WP!A:BB,2,0))</f>
-        <v>Pruning</v>
-      </c>
-      <c r="C28" s="256"/>
-      <c r="D28" s="239"/>
-      <c r="E28" s="239"/>
-      <c r="F28" s="239"/>
-      <c r="G28" s="276" t="n">
-        <f aca="false">IF(VLOOKUP(A28,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A28,EML_Tool_WP!A:BB,42,0))</f>
-        <v>0.360714285714286</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="228" t="s">
-        <v>360</v>
-      </c>
-      <c r="B29" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A29,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A29,EML_Tool_WP!A:BB,2,0))</f>
-        <v>HW Independent Pruning with Distiller</v>
-      </c>
-      <c r="C29" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A29,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A29,EML_Tool_WP!A:BB,39,0))</f>
-        <v>43891</v>
-      </c>
-      <c r="D29" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A29,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A29,EML_Tool_WP!A:BB,40,0))</f>
-        <v>44255</v>
-      </c>
-      <c r="E29" s="229" t="str">
-        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A29,EML_Tool_WP!A:BB,45,0),Members!A:B,2,0),"ERROR")</f>
-        <v>Martin Lechner</v>
-      </c>
-      <c r="F29" s="229" t="str">
-        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A29,EML_Tool_WP!A:BB,46,0),Members!A:B,2,0),"")</f>
-        <v>Andreas Glinserer</v>
-      </c>
-      <c r="G29" s="277" t="n">
-        <f aca="false">IF(VLOOKUP(A29,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A29,EML_Tool_WP!A:BB,42,0))</f>
-        <v>0.791666666666667</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="240" t="s">
-        <v>373</v>
-      </c>
-      <c r="B30" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A30,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A30,EML_Tool_WP!A:BB,2,0))</f>
-        <v>Analysis of Performance of Slimmable Networks</v>
-      </c>
-      <c r="C30" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A30,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A30,EML_Tool_WP!A:BB,39,0))</f>
-        <v>44105</v>
-      </c>
-      <c r="D30" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A30,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A30,EML_Tool_WP!A:BB,40,0))</f>
-        <v>44227</v>
-      </c>
-      <c r="E30" s="229" t="str">
-        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A30,EML_Tool_WP!A:BB,45,0),Members!A:B,2,0),"ERROR")</f>
-        <v>Matthias Wess</v>
-      </c>
-      <c r="F30" s="286" t="str">
-        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A30,EML_Tool_WP!A:BB,46,0),Members!A:B,2,0),"")</f>
-        <v>Karoline Knoth</v>
-      </c>
-      <c r="G30" s="277" t="n">
-        <f aca="false">IF(VLOOKUP(A30,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A30,EML_Tool_WP!A:BB,42,0))</f>
-        <v>0.0375</v>
-      </c>
-    </row>
-    <row r="31" s="236" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="238" t="s">
-        <v>395</v>
-      </c>
-      <c r="B31" s="239" t="str">
-        <f aca="false">IF(VLOOKUP(A31,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A31,EML_Tool_WP!A:BB,2,0))</f>
-        <v>Factorization</v>
-      </c>
-      <c r="C31" s="256"/>
-      <c r="D31" s="239"/>
-      <c r="E31" s="239"/>
-      <c r="F31" s="239"/>
-      <c r="G31" s="276" t="n">
-        <f aca="false">IF(VLOOKUP(A31,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A31,EML_Tool_WP!A:BB,42,0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" s="236" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="238" t="s">
-        <v>398</v>
-      </c>
-      <c r="B32" s="239" t="str">
-        <f aca="false">IF(VLOOKUP(A32,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A32,EML_Tool_WP!A:BB,2,0))</f>
-        <v>Compact Design</v>
-      </c>
-      <c r="C32" s="256"/>
-      <c r="D32" s="239"/>
-      <c r="E32" s="239"/>
-      <c r="F32" s="239"/>
-      <c r="G32" s="276" t="n">
-        <f aca="false">IF(VLOOKUP(A32,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A32,EML_Tool_WP!A:BB,42,0))</f>
-        <v>0.573333333333333</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="228" t="s">
-        <v>400</v>
-      </c>
-      <c r="B33" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A33,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A33,EML_Tool_WP!A:BB,2,0))</f>
-        <v>Analysis of Shunt Connections for Segmentation</v>
-      </c>
-      <c r="C33" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A33,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A33,EML_Tool_WP!A:BB,39,0))</f>
-        <v>44044</v>
-      </c>
-      <c r="D33" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A33,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A33,EML_Tool_WP!A:BB,40,0))</f>
-        <v>43889</v>
-      </c>
-      <c r="E33" s="229" t="str">
-        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A33,EML_Tool_WP!A:BB,45,0),Members!A:B,2,0),"ERROR")</f>
-        <v>Alexander Wendt</v>
-      </c>
-      <c r="F33" s="285" t="str">
-        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A33,EML_Tool_WP!A:BB,46,0),Members!A:B,2,0),"")</f>
-        <v>Bernhard Haas</v>
-      </c>
-      <c r="G33" s="277" t="n">
-        <f aca="false">IF(VLOOKUP(A33,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A33,EML_Tool_WP!A:BB,42,0))</f>
-        <v>0.983333333333333</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="228" t="s">
-        <v>418</v>
-      </c>
-      <c r="B34" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A34,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A34,EML_Tool_WP!A:BB,2,0))</f>
-        <v>Evaluate Performance of SqueezeNas Models</v>
-      </c>
-      <c r="C34" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A34,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A34,EML_Tool_WP!A:BB,39,0))</f>
-        <v>43922</v>
-      </c>
-      <c r="D34" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A34,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A34,EML_Tool_WP!A:BB,40,0))</f>
-        <v>44227</v>
-      </c>
-      <c r="E34" s="229" t="str">
-        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A34,EML_Tool_WP!A:BB,45,0),Members!A:B,2,0),"ERROR")</f>
-        <v>Amid Mozelli</v>
-      </c>
-      <c r="F34" s="229" t="str">
-        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A34,EML_Tool_WP!A:BB,46,0),Members!A:B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="G34" s="277" t="n">
-        <f aca="false">IF(VLOOKUP(A34,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A34,EML_Tool_WP!A:BB,42,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="228" t="s">
-        <v>434</v>
-      </c>
-      <c r="B35" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A35,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A35,EML_Tool_WP!A:BB,2,0))</f>
-        <v>Common Backbone for semantic and instance Segmentation</v>
-      </c>
-      <c r="C35" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A35,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A35,EML_Tool_WP!A:BB,39,0))</f>
-        <v>44075</v>
-      </c>
-      <c r="D35" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A35,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A35,EML_Tool_WP!A:BB,40,0))</f>
-        <v>44316</v>
-      </c>
-      <c r="E35" s="229" t="str">
-        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A35,EML_Tool_WP!A:BB,45,0),Members!A:B,2,0),"ERROR")</f>
-        <v>Alexander Wendt</v>
-      </c>
-      <c r="F35" s="229" t="str">
-        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A35,EML_Tool_WP!A:BB,46,0),Members!A:B,2,0),"")</f>
-        <v>Helmuth Breitenfellner</v>
-      </c>
-      <c r="G35" s="277" t="n">
-        <f aca="false">IF(VLOOKUP(A35,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A35,EML_Tool_WP!A:BB,42,0))</f>
-        <v>0.275</v>
-      </c>
-    </row>
-    <row r="36" s="284" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="278" t="s">
-        <v>462</v>
-      </c>
-      <c r="B36" s="279" t="str">
-        <f aca="false">IF(VLOOKUP(A36,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A36,EML_Tool_WP!A:BB,2,0))</f>
-        <v>Comparison of YoloV3 vs. YoloV4 on a Xilinx</v>
-      </c>
-      <c r="C36" s="280" t="n">
-        <f aca="false">IF(VLOOKUP(A36,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A36,EML_Tool_WP!A:BB,39,0))</f>
-        <v>44256</v>
-      </c>
-      <c r="D36" s="280" t="n">
-        <f aca="false">IF(VLOOKUP(A36,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A36,EML_Tool_WP!A:BB,40,0))</f>
-        <v>44439</v>
-      </c>
-      <c r="E36" s="279" t="str">
-        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A36,EML_Tool_WP!A:BB,45,0),Members!A:B,2,0),"ERROR")</f>
-        <v>Martin Lechner</v>
-      </c>
-      <c r="F36" s="279" t="str">
-        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A36,EML_Tool_WP!A:BB,46,0),Members!A:B,2,0),"")</f>
-        <v>Fabian Scherer</v>
-      </c>
-      <c r="G36" s="281" t="n">
-        <f aca="false">IF(VLOOKUP(A36,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A36,EML_Tool_WP!A:BB,42,0))</f>
-        <v>0</v>
-      </c>
-      <c r="H36" s="282"/>
-    </row>
-    <row r="37" s="236" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="238" t="s">
-        <v>469</v>
-      </c>
-      <c r="B37" s="239" t="str">
-        <f aca="false">IF(VLOOKUP(A37,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A37,EML_Tool_WP!A:BB,2,0))</f>
-        <v>Optimization Strategy</v>
-      </c>
-      <c r="C37" s="256"/>
-      <c r="D37" s="239"/>
-      <c r="E37" s="239"/>
-      <c r="F37" s="239"/>
-      <c r="G37" s="276" t="n">
-        <f aca="false">IF(VLOOKUP(A37,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A37,EML_Tool_WP!A:BB,42,0))</f>
-        <v>0.571176470588235</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="228" t="s">
-        <v>472</v>
-      </c>
-      <c r="B38" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A38,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A38,EML_Tool_WP!A:BB,2,0))</f>
-        <v>Setup Training on Server EDA01 and EDA02</v>
-      </c>
-      <c r="C38" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A38,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A38,EML_Tool_WP!A:BB,39,0))</f>
-        <v>43952</v>
-      </c>
-      <c r="D38" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A38,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A38,EML_Tool_WP!A:BB,40,0))</f>
-        <v>44227</v>
-      </c>
-      <c r="E38" s="229" t="str">
-        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A38,EML_Tool_WP!A:BB,45,0),Members!A:B,2,0),"ERROR")</f>
-        <v>Amid Mozelli</v>
-      </c>
-      <c r="F38" s="229" t="str">
-        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A38,EML_Tool_WP!A:BB,46,0),Members!A:B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="G38" s="277" t="n">
-        <f aca="false">IF(VLOOKUP(A38,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A38,EML_Tool_WP!A:BB,42,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="228" t="s">
-        <v>492</v>
-      </c>
-      <c r="B39" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A39,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A39,EML_Tool_WP!A:BB,2,0))</f>
-        <v>Setup External Training on Cloud and Vienna Scientific Cluster</v>
-      </c>
-      <c r="C39" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A39,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A39,EML_Tool_WP!A:BB,39,0))</f>
-        <v>44105</v>
-      </c>
-      <c r="D39" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A39,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A39,EML_Tool_WP!A:BB,40,0))</f>
-        <v>44316</v>
-      </c>
-      <c r="E39" s="229" t="str">
-        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A39,EML_Tool_WP!A:BB,45,0),Members!A:B,2,0),"ERROR")</f>
-        <v>Amid Mozelli</v>
-      </c>
-      <c r="F39" s="229" t="str">
-        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A39,EML_Tool_WP!A:BB,46,0),Members!A:B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="G39" s="277" t="n">
-        <f aca="false">IF(VLOOKUP(A39,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A39,EML_Tool_WP!A:BB,42,0))</f>
-        <v>0.971428571428571</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="228" t="s">
-        <v>513</v>
-      </c>
-      <c r="B40" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A40,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A40,EML_Tool_WP!A:BB,2,0))</f>
-        <v>Common Measurement Database for Hardware Inference</v>
-      </c>
-      <c r="C40" s="247" t="str">
-        <f aca="false">IF(VLOOKUP(A40,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A40,EML_Tool_WP!A:BB,39,0))</f>
-        <v/>
-      </c>
-      <c r="D40" s="247" t="str">
-        <f aca="false">IF(VLOOKUP(A40,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A40,EML_Tool_WP!A:BB,40,0))</f>
-        <v/>
-      </c>
-      <c r="E40" s="229" t="str">
-        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A40,EML_Tool_WP!A:BB,45,0),Members!A:B,2,0),"ERROR")</f>
-        <v>Alexander Wendt</v>
-      </c>
-      <c r="F40" s="229" t="str">
-        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A40,EML_Tool_WP!A:BB,46,0),Members!A:B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="G40" s="277" t="n">
-        <f aca="false">IF(VLOOKUP(A40,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A40,EML_Tool_WP!A:BB,42,0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="228" t="s">
-        <v>525</v>
-      </c>
-      <c r="B41" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A41,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A41,EML_Tool_WP!A:BB,2,0))</f>
-        <v>Automation and Simplification of the EML Process</v>
-      </c>
-      <c r="C41" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A41,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A41,EML_Tool_WP!A:BB,39,0))</f>
-        <v>44228</v>
-      </c>
-      <c r="D41" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A41,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A41,EML_Tool_WP!A:BB,40,0))</f>
-        <v>44469</v>
-      </c>
-      <c r="E41" s="229" t="str">
-        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A41,EML_Tool_WP!A:BB,45,0),Members!A:B,2,0),"ERROR")</f>
-        <v>Alexander Wendt</v>
-      </c>
-      <c r="F41" s="229" t="str">
-        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A41,EML_Tool_WP!A:BB,46,0),Members!A:B,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="G41" s="277" t="n">
-        <f aca="false">IF(VLOOKUP(A41,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A41,EML_Tool_WP!A:BB,42,0))</f>
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="240" t="s">
-        <v>536</v>
-      </c>
-      <c r="B42" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A42,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A42,EML_Tool_WP!A:BB,2,0))</f>
-        <v>Application: Traffic Light System</v>
-      </c>
-      <c r="C42" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A42,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A42,EML_Tool_WP!A:BB,39,0))</f>
-        <v>43891</v>
-      </c>
-      <c r="D42" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A42,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A42,EML_Tool_WP!A:BB,40,0))</f>
-        <v>44316</v>
-      </c>
-      <c r="E42" s="229" t="str">
-        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A42,EML_Tool_WP!A:BB,45,0),Members!A:B,2,0),"ERROR")</f>
-        <v>Alexander Wendt</v>
-      </c>
-      <c r="F42" s="229" t="str">
-        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A42,EML_Tool_WP!A:BB,46,0),Members!A:B,2,0),"")</f>
-        <v>Julian Westra</v>
-      </c>
-      <c r="G42" s="277" t="n">
-        <f aca="false">IF(VLOOKUP(A42,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A42,EML_Tool_WP!A:BB,42,0))</f>
-        <v>0.358333333333333</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="240" t="s">
-        <v>557</v>
-      </c>
-      <c r="B43" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A43,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A43,EML_Tool_WP!A:BB,2,0))</f>
-        <v>Application: Ragweed Recognition Through a Drone</v>
-      </c>
-      <c r="C43" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A43,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A43,EML_Tool_WP!A:BB,39,0))</f>
-        <v>44044</v>
-      </c>
-      <c r="D43" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A43,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A43,EML_Tool_WP!A:BB,40,0))</f>
-        <v>44286</v>
-      </c>
-      <c r="E43" s="229" t="str">
-        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A43,EML_Tool_WP!A:BB,45,0),Members!A:B,2,0),"ERROR")</f>
-        <v>Alexander Wendt</v>
-      </c>
-      <c r="F43" s="229" t="str">
-        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A43,EML_Tool_WP!A:BB,46,0),Members!A:B,2,0),"")</f>
-        <v>Lukas Steindl</v>
-      </c>
-      <c r="G43" s="277" t="n">
-        <f aca="false">IF(VLOOKUP(A43,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A43,EML_Tool_WP!A:BB,42,0))</f>
-        <v>0.441538461538462</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="240" t="s">
-        <v>576</v>
-      </c>
-      <c r="B44" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A44,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A44,EML_Tool_WP!A:BB,2,0))</f>
-        <v>Application: Minicar Demonstrator</v>
-      </c>
-      <c r="C44" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A44,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A44,EML_Tool_WP!A:BB,39,0))</f>
-        <v>43831</v>
-      </c>
-      <c r="D44" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A44,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A44,EML_Tool_WP!A:BB,40,0))</f>
-        <v>44227</v>
-      </c>
-      <c r="E44" s="229" t="str">
-        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A44,EML_Tool_WP!A:BB,45,0),Members!A:B,2,0),"ERROR")</f>
-        <v>Matvey Ivanov</v>
-      </c>
-      <c r="F44" s="229" t="str">
-        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A44,EML_Tool_WP!A:BB,46,0),Members!A:B,2,0),"")</f>
-        <v>Matvey Ivanov</v>
-      </c>
-      <c r="G44" s="277" t="n">
-        <f aca="false">IF(VLOOKUP(A44,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A44,EML_Tool_WP!A:BB,42,0))</f>
-        <v>0.933333333333333</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="240" t="s">
-        <v>591</v>
-      </c>
-      <c r="B45" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A45,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A45,EML_Tool_WP!A:BB,2,0))</f>
-        <v>Application: Tensorflow Lite Object Detection on an Android Smart Phone</v>
-      </c>
-      <c r="C45" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A45,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A45,EML_Tool_WP!A:BB,39,0))</f>
-        <v>44105</v>
-      </c>
-      <c r="D45" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A45,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A45,EML_Tool_WP!A:BB,40,0))</f>
-        <v>44255</v>
-      </c>
-      <c r="E45" s="229" t="str">
-        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A45,EML_Tool_WP!A:BB,45,0),Members!A:B,2,0),"ERROR")</f>
-        <v>Alexander Wendt</v>
-      </c>
-      <c r="F45" s="229" t="str">
-        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A45,EML_Tool_WP!A:BB,46,0),Members!A:B,2,0),"")</f>
-        <v>Thomas Kotrba</v>
-      </c>
-      <c r="G45" s="277" t="n">
-        <f aca="false">IF(VLOOKUP(A45,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A45,EML_Tool_WP!A:BB,42,0))</f>
-        <v>0.566666666666667</v>
-      </c>
-    </row>
-    <row r="46" s="292" customFormat="true" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="287" t="s">
-        <v>607</v>
-      </c>
-      <c r="B46" s="288" t="str">
-        <f aca="false">IF(VLOOKUP(A46,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A46,EML_Tool_WP!A:BB,2,0))</f>
-        <v>Hyper Parameterization Optimization through a Two-Phase-Search</v>
-      </c>
-      <c r="C46" s="289" t="n">
-        <f aca="false">IF(VLOOKUP(A46,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A46,EML_Tool_WP!A:BB,39,0))</f>
-        <v>43831</v>
-      </c>
-      <c r="D46" s="289" t="n">
-        <f aca="false">IF(VLOOKUP(A46,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A46,EML_Tool_WP!A:BB,40,0))</f>
-        <v>44104</v>
-      </c>
-      <c r="E46" s="288" t="str">
-        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A46,EML_Tool_WP!A:BB,45,0),Members!A:B,2,0),"ERROR")</f>
-        <v>Alexander Wendt</v>
-      </c>
-      <c r="F46" s="288" t="str">
-        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A46,EML_Tool_WP!A:BB,46,0),Members!A:B,2,0),"")</f>
-        <v>Marco Wuschnig</v>
-      </c>
-      <c r="G46" s="290" t="n">
-        <f aca="false">IF(VLOOKUP(A46,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A46,EML_Tool_WP!A:BB,42,0))</f>
-        <v>1</v>
-      </c>
-      <c r="H46" s="291"/>
-    </row>
-    <row r="47" s="236" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="238" t="s">
-        <v>615</v>
-      </c>
-      <c r="B47" s="239" t="str">
-        <f aca="false">IF(VLOOKUP(A47,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A47,EML_Tool_WP!A:BB,2,0))</f>
-        <v>Continuous learning</v>
-      </c>
-      <c r="C47" s="256"/>
-      <c r="D47" s="239"/>
-      <c r="E47" s="239"/>
-      <c r="F47" s="239"/>
-      <c r="G47" s="276"/>
-    </row>
-    <row r="48" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="241" t="s">
-        <v>617</v>
-      </c>
-      <c r="B48" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A48,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A48,EML_Tool_WP!A:BB,2,0))</f>
-        <v>On-line Object Detection</v>
-      </c>
-      <c r="C48" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A48,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A48,EML_Tool_WP!A:BB,39,0))</f>
-        <v>43891</v>
-      </c>
-      <c r="D48" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A48,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A48,EML_Tool_WP!A:BB,40,0))</f>
-        <v>44256</v>
-      </c>
-      <c r="E48" s="229" t="str">
-        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A48,EML_Tool_WP!A:BB,45,0),Members!A:B,2,0),"ERROR")</f>
-        <v>Michael Opitz</v>
-      </c>
-      <c r="F48" s="285" t="str">
-        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A48,EML_Tool_WP!A:BB,46,0),Members!A:B,2,0),"")</f>
-        <v>Rudolf Wörndle</v>
-      </c>
-      <c r="G48" s="277" t="n">
-        <f aca="false">IF(VLOOKUP(A48,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A48,EML_Tool_WP!A:BB,42,0))</f>
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="49" s="292" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="293" t="s">
-        <v>622</v>
-      </c>
-      <c r="B49" s="288" t="str">
-        <f aca="false">IF(VLOOKUP(A49,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A49,EML_Tool_WP!A:BB,2,0))</f>
-        <v>Pointcloud Registration</v>
-      </c>
-      <c r="C49" s="289" t="n">
-        <f aca="false">IF(VLOOKUP(A49,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A49,EML_Tool_WP!A:BB,39,0))</f>
-        <v>43862</v>
-      </c>
-      <c r="D49" s="289" t="n">
-        <f aca="false">IF(VLOOKUP(A49,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A49,EML_Tool_WP!A:BB,40,0))</f>
-        <v>44043</v>
-      </c>
-      <c r="E49" s="288" t="str">
-        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A49,EML_Tool_WP!A:BB,45,0),Members!A:B,2,0),"ERROR")</f>
-        <v>Georg Krispel</v>
-      </c>
-      <c r="F49" s="285" t="str">
-        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A49,EML_Tool_WP!A:BB,46,0),Members!A:B,2,0),"")</f>
-        <v>Zahra Anam</v>
-      </c>
-      <c r="G49" s="290" t="n">
-        <f aca="false">IF(VLOOKUP(A49,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A49,EML_Tool_WP!A:BB,42,0))</f>
-        <v>1</v>
-      </c>
-      <c r="H49" s="291"/>
-    </row>
-    <row r="50" s="292" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="293" t="s">
-        <v>627</v>
-      </c>
-      <c r="B50" s="288" t="str">
-        <f aca="false">IF(VLOOKUP(A50,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A50,EML_Tool_WP!A:BB,2,0))</f>
-        <v>Self Supervised Stereo</v>
-      </c>
-      <c r="C50" s="289" t="n">
-        <f aca="false">IF(VLOOKUP(A50,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A50,EML_Tool_WP!A:BB,39,0))</f>
-        <v>43862</v>
-      </c>
-      <c r="D50" s="289" t="n">
-        <f aca="false">IF(VLOOKUP(A50,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A50,EML_Tool_WP!A:BB,40,0))</f>
-        <v>44043</v>
-      </c>
-      <c r="E50" s="288" t="str">
-        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A50,EML_Tool_WP!A:BB,45,0),Members!A:B,2,0),"ERROR")</f>
-        <v>Horst Possegger</v>
-      </c>
-      <c r="F50" s="285" t="str">
-        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A50,EML_Tool_WP!A:BB,46,0),Members!A:B,2,0),"")</f>
-        <v>Kaleb Alemayehu</v>
-      </c>
-      <c r="G50" s="290" t="n">
-        <f aca="false">IF(VLOOKUP(A50,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A50,EML_Tool_WP!A:BB,42,0))</f>
-        <v>1</v>
-      </c>
-      <c r="H50" s="291"/>
-    </row>
-    <row r="51" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="241" t="s">
-        <v>631</v>
-      </c>
-      <c r="B51" s="229" t="str">
-        <f aca="false">IF(VLOOKUP(A51,EML_Tool_WP!A:BB,2,0)="","",VLOOKUP(A51,EML_Tool_WP!A:BB,2,0))</f>
-        <v>3D Tracking Metrics</v>
-      </c>
-      <c r="C51" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A51,EML_Tool_WP!A:BB,39,0)="","",VLOOKUP(A51,EML_Tool_WP!A:BB,39,0))</f>
-        <v>43839</v>
-      </c>
-      <c r="D51" s="247" t="n">
-        <f aca="false">IF(VLOOKUP(A51,EML_Tool_WP!A:BB,40,0)="","",VLOOKUP(A51,EML_Tool_WP!A:BB,40,0))</f>
-        <v>44199</v>
-      </c>
-      <c r="E51" s="229" t="str">
-        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A51,EML_Tool_WP!A:BB,45,0),Members!A:B,2,0),"ERROR")</f>
-        <v>Georg Krispel</v>
-      </c>
-      <c r="F51" s="229" t="str">
-        <f aca="false">IFERROR(VLOOKUP(VLOOKUP(A51,EML_Tool_WP!A:BB,46,0),Members!A:B,2,0),"")</f>
-        <v>Srdan Letina</v>
-      </c>
-      <c r="G51" s="277" t="n">
-        <f aca="false">IF(VLOOKUP(A51,EML_Tool_WP!A:BB,42,0)="","",VLOOKUP(A51,EML_Tool_WP!A:BB,42,0))</f>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="241"/>
-      <c r="B52" s="242"/>
-      <c r="C52" s="258"/>
-      <c r="D52" s="258"/>
-      <c r="E52" s="242"/>
-      <c r="F52" s="242"/>
-      <c r="G52" s="294"/>
-    </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="243"/>
-      <c r="B53" s="244"/>
-      <c r="C53" s="261"/>
-      <c r="D53" s="244"/>
-      <c r="E53" s="244"/>
-      <c r="F53" s="244"/>
-      <c r="G53" s="295"/>
-    </row>
-    <row r="54" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="245"/>
-      <c r="B54" s="246"/>
-      <c r="C54" s="264"/>
-      <c r="D54" s="246"/>
-      <c r="E54" s="246"/>
-      <c r="F54" s="246"/>
-      <c r="G54" s="265"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:G54"/>
-  <conditionalFormatting sqref="G52:G1048576 G1:G46">
-    <cfRule type="iconSet" priority="2">
-      <iconSet iconSet="5Quarters">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="1"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-        <cfvo type="percent" val="100"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G47">
-    <cfRule type="iconSet" priority="3">
-      <iconSet iconSet="5Quarters">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="1"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-        <cfvo type="percent" val="100"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G48:G51">
-    <cfRule type="iconSet" priority="4">
-      <iconSet iconSet="5Quarters">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="1"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-        <cfvo type="percent" val="100"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:E32"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="228" width="22.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="229" width="65.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="229" width="8.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="229" width="15.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="249" width="37.88"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="296" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="297" t="s">
-        <v>657</v>
-      </c>
-      <c r="C1" s="297" t="s">
-        <v>665</v>
-      </c>
-      <c r="D1" s="297" t="s">
-        <v>666</v>
-      </c>
-      <c r="E1" s="298" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="245" t="s">
-        <v>668</v>
-      </c>
-      <c r="B2" s="246"/>
-      <c r="C2" s="246" t="s">
-        <v>669</v>
-      </c>
-      <c r="D2" s="246" t="s">
-        <v>670</v>
-      </c>
-      <c r="E2" s="299" t="str">
-        <f aca="false">VLOOKUP(A2,AG_Students!F:F,1,0)</f>
-        <v>Martin Lechner</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="228" t="s">
-        <v>671</v>
-      </c>
-      <c r="C3" s="229" t="s">
-        <v>669</v>
-      </c>
-      <c r="D3" s="229" t="s">
-        <v>670</v>
-      </c>
-      <c r="E3" s="299" t="str">
-        <f aca="false">VLOOKUP(A3,AG_Students!F:F,1,0)</f>
-        <v>Matthias Wess</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="228" t="s">
-        <v>672</v>
-      </c>
-      <c r="B4" s="229" t="s">
-        <v>673</v>
-      </c>
-      <c r="C4" s="229" t="s">
-        <v>674</v>
-      </c>
-      <c r="D4" s="229" t="s">
-        <v>670</v>
-      </c>
-      <c r="E4" s="299" t="str">
-        <f aca="false">VLOOKUP(A4,AG_Students!F:F,1,0)</f>
-        <v>Nikolas Alge</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="228" t="s">
-        <v>675</v>
-      </c>
-      <c r="B5" s="229" t="s">
-        <v>676</v>
-      </c>
-      <c r="C5" s="229" t="s">
-        <v>674</v>
-      </c>
-      <c r="D5" s="229" t="s">
-        <v>670</v>
-      </c>
-      <c r="E5" s="299" t="str">
-        <f aca="false">VLOOKUP(A5,AG_Students!F:F,1,0)</f>
-        <v>Dominik Dallinger</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="228" t="s">
-        <v>677</v>
-      </c>
-      <c r="B6" s="229" t="s">
-        <v>678</v>
-      </c>
-      <c r="C6" s="229" t="s">
-        <v>679</v>
-      </c>
-      <c r="D6" s="229" t="s">
-        <v>670</v>
-      </c>
-      <c r="E6" s="299" t="str">
-        <f aca="false">VLOOKUP(A6,AG_Students!F:F,1,0)</f>
-        <v>Andreas Glinserer</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="228" t="s">
-        <v>680</v>
-      </c>
-      <c r="B7" s="229" t="s">
-        <v>681</v>
-      </c>
-      <c r="C7" s="229" t="s">
-        <v>674</v>
-      </c>
-      <c r="D7" s="229" t="s">
-        <v>670</v>
-      </c>
-      <c r="E7" s="299" t="str">
-        <f aca="false">VLOOKUP(A7,AG_Students!F:F,1,0)</f>
-        <v>Julian Westra</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="228" t="s">
-        <v>682</v>
-      </c>
-      <c r="B8" s="229" t="s">
-        <v>683</v>
-      </c>
-      <c r="C8" s="229" t="s">
-        <v>679</v>
-      </c>
-      <c r="D8" s="229" t="s">
-        <v>670</v>
-      </c>
-      <c r="E8" s="299" t="str">
-        <f aca="false">VLOOKUP(A8,AG_Students!F:F,1,0)</f>
-        <v>Birgit Schreiber</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="228" t="s">
-        <v>684</v>
-      </c>
-      <c r="B9" s="229" t="s">
-        <v>685</v>
-      </c>
-      <c r="C9" s="229" t="s">
-        <v>679</v>
-      </c>
-      <c r="D9" s="229" t="s">
-        <v>670</v>
-      </c>
-      <c r="E9" s="299" t="str">
-        <f aca="false">VLOOKUP(A9,AG_Students!F:F,1,0)</f>
-        <v>Helmuth Breitenfellner</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="228" t="s">
-        <v>686</v>
-      </c>
-      <c r="C10" s="229" t="s">
-        <v>674</v>
-      </c>
-      <c r="D10" s="229" t="s">
-        <v>670</v>
-      </c>
-      <c r="E10" s="299" t="str">
-        <f aca="false">VLOOKUP(A10,AG_Students!F:F,1,0)</f>
-        <v>Fabian Scherer</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="228" t="s">
-        <v>687</v>
-      </c>
-      <c r="B11" s="229" t="s">
-        <v>688</v>
-      </c>
-      <c r="C11" s="229" t="s">
-        <v>679</v>
-      </c>
-      <c r="D11" s="229" t="s">
-        <v>670</v>
-      </c>
-      <c r="E11" s="299" t="str">
-        <f aca="false">VLOOKUP(A11,AG_Students!F:F,1,0)</f>
-        <v>Lukas Steindl</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="228" t="s">
-        <v>689</v>
-      </c>
-      <c r="B12" s="229" t="s">
-        <v>690</v>
-      </c>
-      <c r="C12" s="229" t="s">
-        <v>691</v>
-      </c>
-      <c r="D12" s="229" t="s">
-        <v>670</v>
-      </c>
-      <c r="E12" s="299" t="str">
-        <f aca="false">VLOOKUP(A12,AG_Students!F:F,1,0)</f>
-        <v>Thomas Kotrba</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E13" s="299"/>
-    </row>
-    <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="300"/>
-    </row>
-    <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="245"/>
-      <c r="B25" s="246"/>
-      <c r="C25" s="246"/>
-      <c r="D25" s="246"/>
-      <c r="E25" s="299"/>
-    </row>
-    <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="228" t="s">
-        <v>692</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -43728,63 +37340,63 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="229" width="8.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="229" width="15.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="229" width="5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="249" width="37.88"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="267" width="11.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="247" width="37.88"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="248" width="11.56"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="8" style="229" width="11.56"/>
   </cols>
   <sheetData>
-    <row r="1" s="297" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="296" t="s">
+    <row r="1" s="250" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="249" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="297" t="s">
+      <c r="B1" s="250" t="s">
         <v>657</v>
       </c>
-      <c r="C1" s="297" t="s">
-        <v>665</v>
-      </c>
-      <c r="D1" s="297" t="s">
-        <v>666</v>
-      </c>
-      <c r="E1" s="297" t="s">
-        <v>693</v>
-      </c>
-      <c r="F1" s="298" t="s">
-        <v>694</v>
-      </c>
-      <c r="G1" s="301"/>
+      <c r="C1" s="250" t="s">
+        <v>659</v>
+      </c>
+      <c r="D1" s="250" t="s">
+        <v>660</v>
+      </c>
+      <c r="E1" s="250" t="s">
+        <v>661</v>
+      </c>
+      <c r="F1" s="251" t="s">
+        <v>662</v>
+      </c>
+      <c r="G1" s="252"/>
     </row>
     <row r="2" s="246" customFormat="true" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="245" t="s">
-        <v>695</v>
+        <v>663</v>
       </c>
       <c r="B2" s="246" t="s">
-        <v>696</v>
+        <v>664</v>
       </c>
       <c r="C2" s="246" t="s">
-        <v>679</v>
+        <v>665</v>
       </c>
       <c r="D2" s="246" t="s">
-        <v>697</v>
+        <v>666</v>
       </c>
       <c r="E2" s="246" t="n">
         <v>2020</v>
       </c>
-      <c r="F2" s="299"/>
-      <c r="G2" s="274"/>
+      <c r="F2" s="253"/>
+      <c r="G2" s="254"/>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="228" t="s">
-        <v>698</v>
+        <v>667</v>
       </c>
       <c r="B3" s="229" t="s">
-        <v>699</v>
+        <v>668</v>
       </c>
       <c r="C3" s="229" t="s">
-        <v>679</v>
+        <v>665</v>
       </c>
       <c r="D3" s="229" t="s">
-        <v>697</v>
+        <v>666</v>
       </c>
       <c r="E3" s="229" t="n">
         <v>2020</v>
@@ -43792,96 +37404,96 @@
     </row>
     <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="228" t="s">
-        <v>677</v>
+        <v>669</v>
       </c>
       <c r="B4" s="229" t="s">
-        <v>700</v>
+        <v>670</v>
       </c>
       <c r="C4" s="229" t="s">
-        <v>679</v>
+        <v>665</v>
       </c>
       <c r="D4" s="229" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="E4" s="229" t="n">
         <v>2021</v>
       </c>
-      <c r="F4" s="249" t="s">
-        <v>701</v>
+      <c r="F4" s="247" t="s">
+        <v>672</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="228" t="s">
-        <v>702</v>
+        <v>673</v>
       </c>
       <c r="B5" s="229" t="s">
-        <v>703</v>
+        <v>674</v>
       </c>
       <c r="C5" s="229" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="D5" s="229" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="E5" s="229" t="n">
         <v>2020</v>
       </c>
-      <c r="F5" s="302" t="s">
-        <v>704</v>
+      <c r="F5" s="255" t="s">
+        <v>676</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="228" t="s">
-        <v>705</v>
+        <v>677</v>
       </c>
       <c r="B6" s="229" t="s">
-        <v>706</v>
+        <v>678</v>
       </c>
       <c r="C6" s="229" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="D6" s="229" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="E6" s="229" t="n">
         <v>2020</v>
       </c>
-      <c r="F6" s="302" t="s">
-        <v>707</v>
+      <c r="F6" s="255" t="s">
+        <v>679</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="228" t="s">
-        <v>708</v>
+        <v>680</v>
       </c>
       <c r="B7" s="229" t="s">
-        <v>709</v>
+        <v>681</v>
       </c>
       <c r="C7" s="229" t="s">
-        <v>679</v>
+        <v>665</v>
       </c>
       <c r="D7" s="229" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="E7" s="229" t="n">
         <v>2021</v>
       </c>
-      <c r="F7" s="302" t="s">
-        <v>710</v>
+      <c r="F7" s="255" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="228" t="s">
-        <v>711</v>
+        <v>683</v>
       </c>
       <c r="B8" s="229" t="s">
-        <v>712</v>
+        <v>684</v>
       </c>
       <c r="C8" s="229" t="s">
-        <v>669</v>
+        <v>685</v>
       </c>
       <c r="D8" s="229" t="s">
-        <v>697</v>
+        <v>666</v>
       </c>
       <c r="E8" s="229" t="n">
         <v>2021</v>
@@ -43889,56 +37501,56 @@
     </row>
     <row r="9" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="228" t="s">
-        <v>713</v>
+        <v>686</v>
       </c>
       <c r="B9" s="229" t="s">
-        <v>714</v>
+        <v>687</v>
       </c>
       <c r="C9" s="229" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="D9" s="229" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="E9" s="229" t="n">
         <v>2021</v>
       </c>
-      <c r="F9" s="302" t="s">
-        <v>715</v>
+      <c r="F9" s="255" t="s">
+        <v>688</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="228" t="s">
+        <v>689</v>
+      </c>
+      <c r="B10" s="256" t="s">
+        <v>690</v>
+      </c>
+      <c r="C10" s="229" t="s">
         <v>675</v>
       </c>
-      <c r="B10" s="303" t="s">
-        <v>716</v>
-      </c>
-      <c r="C10" s="229" t="s">
-        <v>674</v>
-      </c>
       <c r="D10" s="229" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="E10" s="229" t="n">
         <v>2021</v>
       </c>
-      <c r="F10" s="249" t="s">
-        <v>717</v>
+      <c r="F10" s="247" t="s">
+        <v>691</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="228" t="s">
-        <v>718</v>
-      </c>
-      <c r="B11" s="303" t="s">
-        <v>719</v>
+        <v>692</v>
+      </c>
+      <c r="B11" s="256" t="s">
+        <v>693</v>
       </c>
       <c r="C11" s="229" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="D11" s="229" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="E11" s="229" t="n">
         <v>2021</v>
@@ -43946,16 +37558,16 @@
     </row>
     <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="228" t="s">
-        <v>720</v>
+        <v>694</v>
       </c>
       <c r="B12" s="229" t="s">
-        <v>721</v>
+        <v>695</v>
       </c>
       <c r="C12" s="229" t="s">
-        <v>679</v>
+        <v>665</v>
       </c>
       <c r="D12" s="229" t="s">
-        <v>697</v>
+        <v>666</v>
       </c>
       <c r="E12" s="229" t="n">
         <v>2020</v>
@@ -43963,31 +37575,31 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="228" t="s">
-        <v>722</v>
+        <v>696</v>
       </c>
       <c r="B13" s="229" t="s">
-        <v>723</v>
+        <v>697</v>
       </c>
       <c r="C13" s="229" t="s">
-        <v>679</v>
+        <v>665</v>
       </c>
       <c r="D13" s="229" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="E13" s="229" t="n">
         <v>2021</v>
       </c>
-      <c r="F13" s="249" t="s">
-        <v>724</v>
+      <c r="F13" s="247" t="s">
+        <v>698</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="300"/>
+      <c r="A18" s="257"/>
     </row>
     <row r="25" s="246" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="245"/>
-      <c r="F25" s="299"/>
-      <c r="G25" s="274"/>
+      <c r="F25" s="253"/>
+      <c r="G25" s="254"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -44006,7 +37618,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -44025,122 +37637,122 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="230" width="11.56"/>
   </cols>
   <sheetData>
-    <row r="1" s="307" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="304" t="s">
+    <row r="1" s="261" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="258" t="s">
         <v>657</v>
       </c>
-      <c r="B1" s="305" t="s">
+      <c r="B1" s="259" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="306" t="s">
-        <v>694</v>
+      <c r="C1" s="260" t="s">
+        <v>662</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="75.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="245" t="s">
-        <v>725</v>
+        <v>699</v>
       </c>
       <c r="B2" s="246" t="s">
-        <v>726</v>
-      </c>
-      <c r="C2" s="308" t="s">
-        <v>727</v>
+        <v>700</v>
+      </c>
+      <c r="C2" s="262" t="s">
+        <v>701</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="228" t="s">
-        <v>728</v>
+        <v>702</v>
       </c>
       <c r="B3" s="229" t="s">
-        <v>729</v>
-      </c>
-      <c r="C3" s="302" t="s">
-        <v>730</v>
+        <v>703</v>
+      </c>
+      <c r="C3" s="255" t="s">
+        <v>704</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="228" t="s">
-        <v>731</v>
+        <v>705</v>
       </c>
       <c r="B4" s="229" t="s">
-        <v>732</v>
-      </c>
-      <c r="C4" s="302" t="s">
-        <v>733</v>
+        <v>706</v>
+      </c>
+      <c r="C4" s="255" t="s">
+        <v>707</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="228" t="s">
-        <v>734</v>
+        <v>708</v>
       </c>
       <c r="B5" s="229" t="s">
-        <v>735</v>
-      </c>
-      <c r="C5" s="302" t="s">
-        <v>736</v>
+        <v>709</v>
+      </c>
+      <c r="C5" s="255" t="s">
+        <v>710</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="228" t="s">
-        <v>737</v>
+        <v>711</v>
       </c>
       <c r="B6" s="229" t="s">
-        <v>738</v>
-      </c>
-      <c r="C6" s="302" t="s">
-        <v>739</v>
+        <v>712</v>
+      </c>
+      <c r="C6" s="255" t="s">
+        <v>713</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="72" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="228" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="B7" s="229" t="s">
-        <v>741</v>
-      </c>
-      <c r="C7" s="302" t="s">
-        <v>742</v>
+        <v>715</v>
+      </c>
+      <c r="C7" s="255" t="s">
+        <v>716</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="228"/>
-      <c r="C8" s="249"/>
+      <c r="C8" s="247"/>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="228"/>
-      <c r="C9" s="249"/>
+      <c r="C9" s="247"/>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="228"/>
-      <c r="C10" s="249"/>
+      <c r="C10" s="247"/>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="228"/>
-      <c r="C11" s="249"/>
+      <c r="C11" s="247"/>
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="228"/>
-      <c r="C12" s="249"/>
+      <c r="C12" s="247"/>
     </row>
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="228"/>
-      <c r="C13" s="249"/>
+      <c r="C13" s="247"/>
     </row>
     <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="228"/>
-      <c r="C14" s="249"/>
+      <c r="C14" s="247"/>
     </row>
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="228"/>
-      <c r="C15" s="249"/>
+      <c r="C15" s="247"/>
     </row>
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="228"/>
-      <c r="C16" s="249"/>
+      <c r="C16" s="247"/>
     </row>
     <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="228"/>
-      <c r="C17" s="249"/>
+      <c r="C17" s="247"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="243"/>
@@ -44171,244 +37783,230 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.4453125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="309" width="11.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="247" width="11.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="229" width="9.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="229" width="46.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="229" width="15.87"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="6" min="6" style="229" width="14.66"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="7" min="7" style="229" width="40"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="8" min="8" style="229" width="13.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="249" width="19"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="10" style="230" width="11.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="50.6"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="310" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="264" t="s">
+        <v>659</v>
+      </c>
+      <c r="B1" s="264" t="s">
+        <v>717</v>
+      </c>
+      <c r="C1" s="264" t="s">
+        <v>718</v>
+      </c>
+      <c r="D1" s="264" t="s">
+        <v>719</v>
+      </c>
+      <c r="E1" s="264" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="264" t="s">
+        <v>720</v>
+      </c>
+      <c r="B2" s="264" t="s">
+        <v>721</v>
+      </c>
+      <c r="C2" s="264" t="s">
+        <v>722</v>
+      </c>
+      <c r="D2" s="265" t="s">
+        <v>723</v>
+      </c>
+      <c r="E2" s="264" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="264" t="s">
+        <v>720</v>
+      </c>
+      <c r="B3" s="264" t="s">
+        <v>721</v>
+      </c>
+      <c r="C3" s="264" t="s">
+        <v>722</v>
+      </c>
+      <c r="D3" s="265" t="s">
+        <v>725</v>
+      </c>
+      <c r="E3" s="264" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="264" t="s">
+        <v>727</v>
+      </c>
+      <c r="B4" s="264" t="s">
+        <v>721</v>
+      </c>
+      <c r="C4" s="264" t="s">
+        <v>722</v>
+      </c>
+      <c r="D4" s="265" t="s">
+        <v>728</v>
+      </c>
+      <c r="E4" s="264" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>727</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>721</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>730</v>
+      </c>
+      <c r="D5" s="266" t="s">
+        <v>731</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>727</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>721</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>730</v>
+      </c>
+      <c r="D6" s="266" t="s">
+        <v>733</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>727</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>721</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>730</v>
+      </c>
+      <c r="D7" s="266" t="s">
+        <v>735</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>720</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>721</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>730</v>
+      </c>
+      <c r="D8" s="266" t="s">
+        <v>737</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>727</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>721</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>739</v>
+      </c>
+      <c r="D9" s="266" t="s">
+        <v>740</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>727</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>721</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>742</v>
+      </c>
+      <c r="D10" s="266" t="s">
         <v>743</v>
       </c>
-      <c r="B1" s="311" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="297" t="s">
-        <v>665</v>
-      </c>
-      <c r="D1" s="297" t="s">
+      <c r="E10" s="0" t="s">
         <v>744</v>
       </c>
-      <c r="E1" s="297" t="s">
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>727</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>721</v>
+      </c>
+      <c r="D11" s="266" t="s">
         <v>745</v>
       </c>
-      <c r="F1" s="297" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="297" t="s">
+      <c r="E11" s="0" t="s">
         <v>746</v>
       </c>
-      <c r="H1" s="297" t="s">
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>727</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>721</v>
+      </c>
+      <c r="D12" s="266" t="s">
         <v>747</v>
       </c>
-      <c r="I1" s="298" t="s">
-        <v>10</v>
+      <c r="E12" s="0" t="s">
+        <v>748</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="229" t="s">
-        <v>748</v>
-      </c>
-      <c r="D2" s="229" t="s">
-        <v>749</v>
-      </c>
-      <c r="E2" s="229" t="s">
-        <v>668</v>
-      </c>
-      <c r="G2" s="229" t="s">
-        <v>750</v>
-      </c>
-      <c r="I2" s="249" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="309" t="n">
-        <v>44153</v>
-      </c>
-      <c r="C3" s="229" t="s">
-        <v>752</v>
-      </c>
-      <c r="D3" s="229" t="s">
-        <v>753</v>
-      </c>
-      <c r="E3" s="229" t="s">
-        <v>754</v>
-      </c>
-      <c r="G3" s="229" t="s">
-        <v>755</v>
-      </c>
-      <c r="I3" s="249" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="309" t="n">
-        <v>44153</v>
-      </c>
-      <c r="C4" s="229" t="s">
-        <v>748</v>
-      </c>
-      <c r="D4" s="229" t="s">
-        <v>757</v>
-      </c>
-      <c r="E4" s="229" t="s">
-        <v>754</v>
-      </c>
-      <c r="G4" s="229" t="s">
-        <v>758</v>
-      </c>
-      <c r="I4" s="249" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="309" t="n">
-        <v>44294</v>
-      </c>
-      <c r="C5" s="229" t="s">
-        <v>748</v>
-      </c>
-      <c r="D5" s="229" t="s">
-        <v>759</v>
-      </c>
-      <c r="E5" s="229" t="s">
-        <v>754</v>
-      </c>
-      <c r="I5" s="249" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="229" t="s">
-        <v>748</v>
-      </c>
-      <c r="D6" s="229" t="s">
-        <v>761</v>
-      </c>
-      <c r="E6" s="229" t="s">
-        <v>754</v>
-      </c>
-      <c r="I6" s="249" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="229" t="s">
-        <v>752</v>
-      </c>
-      <c r="D7" s="229" t="s">
-        <v>762</v>
-      </c>
-      <c r="E7" s="229" t="s">
-        <v>754</v>
-      </c>
-      <c r="I7" s="249" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="229" t="s">
-        <v>752</v>
-      </c>
-      <c r="D8" s="229" t="s">
-        <v>763</v>
-      </c>
-      <c r="E8" s="229" t="s">
-        <v>754</v>
-      </c>
-      <c r="I8" s="249" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="229" t="s">
-        <v>752</v>
-      </c>
-      <c r="D9" s="229" t="s">
-        <v>764</v>
-      </c>
-      <c r="E9" s="229" t="s">
-        <v>754</v>
-      </c>
-      <c r="I9" s="249" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="229" t="s">
-        <v>752</v>
-      </c>
-      <c r="D10" s="229" t="s">
-        <v>765</v>
-      </c>
-      <c r="E10" s="229" t="s">
-        <v>754</v>
-      </c>
-      <c r="I10" s="249" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="229" t="s">
-        <v>748</v>
-      </c>
-      <c r="D11" s="229" t="s">
-        <v>766</v>
-      </c>
-      <c r="E11" s="229" t="s">
-        <v>754</v>
-      </c>
-      <c r="I11" s="249" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="309" t="n">
-        <v>44294</v>
-      </c>
-      <c r="C12" s="229" t="s">
-        <v>752</v>
-      </c>
-      <c r="D12" s="229" t="s">
-        <v>767</v>
-      </c>
-      <c r="E12" s="229" t="s">
-        <v>754</v>
-      </c>
-      <c r="I12" s="249" t="s">
-        <v>756</v>
-      </c>
-    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:I4"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
+    <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/_data/CDLEML_WP_Progress_EML-Process.xlsx
+++ b/_data/CDLEML_WP_Progress_EML-Process.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="EML_Tool_WP" sheetId="1" state="visible" r:id="rId2"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1566" uniqueCount="749">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1567" uniqueCount="750">
   <si>
     <t xml:space="preserve">Compliance zu WPs CDLEML</t>
   </si>
@@ -2668,6 +2668,9 @@
     <t xml:space="preserve">Betreuer 2</t>
   </si>
   <si>
+    <t xml:space="preserve">Date</t>
+  </si>
+  <si>
     <t xml:space="preserve">Titel</t>
   </si>
   <si>
@@ -2762,7 +2765,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="8">
+  <numFmts count="9">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0\ %"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
@@ -2771,6 +2774,7 @@
     <numFmt numFmtId="169" formatCode="dd/mmm"/>
     <numFmt numFmtId="170" formatCode="0.0000"/>
     <numFmt numFmtId="171" formatCode="General"/>
+    <numFmt numFmtId="172" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="36">
     <font>
@@ -3789,7 +3793,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="267">
+  <cellXfs count="269">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4850,12 +4854,20 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="35" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -14276,7 +14288,7 @@
   </sheetPr>
   <dimension ref="A1:BE259"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="AY112" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="AY1" activeCellId="0" sqref="AY1"/>
@@ -36319,7 +36331,7 @@
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AV3:AV219" type="list">
-      <formula1>#REF!</formula1>
+      <formula1>#ref!</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -37788,17 +37800,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="50.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="50.6"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37815,191 +37827,250 @@
         <v>719</v>
       </c>
       <c r="E1" s="264" t="s">
+        <v>720</v>
+      </c>
+      <c r="F1" s="264" t="s">
         <v>662</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="264" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B2" s="264" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="C2" s="264" t="s">
-        <v>722</v>
-      </c>
-      <c r="D2" s="265" t="s">
         <v>723</v>
       </c>
-      <c r="E2" s="264" t="s">
+      <c r="D2" s="265" t="n">
+        <v>44562</v>
+      </c>
+      <c r="E2" s="266" t="s">
         <v>724</v>
+      </c>
+      <c r="F2" s="264" t="s">
+        <v>725</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="264" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B3" s="264" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="C3" s="264" t="s">
-        <v>722</v>
-      </c>
-      <c r="D3" s="265" t="s">
-        <v>725</v>
-      </c>
-      <c r="E3" s="264" t="s">
+        <v>723</v>
+      </c>
+      <c r="D3" s="265" t="n">
+        <v>43621</v>
+      </c>
+      <c r="E3" s="266" t="s">
         <v>726</v>
+      </c>
+      <c r="F3" s="264" t="s">
+        <v>727</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="264" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B4" s="264" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="C4" s="264" t="s">
-        <v>722</v>
-      </c>
-      <c r="D4" s="265" t="s">
-        <v>728</v>
-      </c>
-      <c r="E4" s="264" t="s">
+        <v>723</v>
+      </c>
+      <c r="D4" s="265" t="n">
+        <v>44562</v>
+      </c>
+      <c r="E4" s="266" t="s">
         <v>729</v>
+      </c>
+      <c r="F4" s="264" t="s">
+        <v>730</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>730</v>
-      </c>
-      <c r="D5" s="266" t="s">
         <v>731</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="D5" s="265" t="n">
+        <v>44562</v>
+      </c>
+      <c r="E5" s="267" t="s">
         <v>732</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>733</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>730</v>
-      </c>
-      <c r="D6" s="266" t="s">
-        <v>733</v>
-      </c>
-      <c r="E6" s="0" t="s">
+        <v>731</v>
+      </c>
+      <c r="D6" s="265" t="n">
+        <v>43621</v>
+      </c>
+      <c r="E6" s="267" t="s">
         <v>734</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>735</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>730</v>
-      </c>
-      <c r="D7" s="266" t="s">
-        <v>735</v>
-      </c>
-      <c r="E7" s="0" t="s">
+        <v>731</v>
+      </c>
+      <c r="D7" s="265" t="n">
+        <v>44562</v>
+      </c>
+      <c r="E7" s="267" t="s">
         <v>736</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>737</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>730</v>
-      </c>
-      <c r="D8" s="266" t="s">
-        <v>737</v>
-      </c>
-      <c r="E8" s="0" t="s">
+        <v>731</v>
+      </c>
+      <c r="D8" s="265" t="n">
+        <v>43621</v>
+      </c>
+      <c r="E8" s="267" t="s">
         <v>738</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>739</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>739</v>
-      </c>
-      <c r="D9" s="266" t="s">
         <v>740</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="D9" s="265" t="n">
+        <v>44562</v>
+      </c>
+      <c r="E9" s="267" t="s">
         <v>741</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>742</v>
-      </c>
-      <c r="D10" s="266" t="s">
         <v>743</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="D10" s="265" t="n">
+        <v>44562</v>
+      </c>
+      <c r="E10" s="267" t="s">
         <v>744</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>721</v>
-      </c>
-      <c r="D11" s="266" t="s">
-        <v>745</v>
-      </c>
-      <c r="E11" s="0" t="s">
+        <v>722</v>
+      </c>
+      <c r="D11" s="265" t="n">
+        <v>44562</v>
+      </c>
+      <c r="E11" s="267" t="s">
         <v>746</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>747</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>721</v>
-      </c>
-      <c r="D12" s="266" t="s">
-        <v>747</v>
-      </c>
-      <c r="E12" s="0" t="s">
+        <v>722</v>
+      </c>
+      <c r="D12" s="265" t="n">
+        <v>43621</v>
+      </c>
+      <c r="E12" s="267" t="s">
         <v>748</v>
       </c>
+      <c r="F12" s="0" t="s">
+        <v>749</v>
+      </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D13" s="268"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D14" s="268"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D15" s="268"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D16" s="268"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D17" s="268"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D18" s="268"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D19" s="268"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D20" s="268"/>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/_data/CDLEML_WP_Progress_EML-Process.xlsx
+++ b/_data/CDLEML_WP_Progress_EML-Process.xlsx
@@ -2662,10 +2662,10 @@
     <t xml:space="preserve">https://github.com/embedded-machine-learning/MobileNetV3-Segmentation-Keras</t>
   </si>
   <si>
-    <t xml:space="preserve">Betreuer 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Betreuer 2</t>
+    <t xml:space="preserve">Supervisor 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supervisor 2</t>
   </si>
   <si>
     <t xml:space="preserve">Date</t>
@@ -2683,13 +2683,13 @@
     <t xml:space="preserve">Wess</t>
   </si>
   <si>
-    <t xml:space="preserve">Anpassung eines Latenz- und Leistungsschätzungsmodell für ARM Prozessoren</t>
+    <t xml:space="preserve">Adaptation of a Latency and Power Estimation Model for ARM Processors</t>
   </si>
   <si>
     <t xml:space="preserve">https://tiss.tuwien.ac.at/thesis/thesisDetails.xhtml?dswid=9078&amp;dsrid=628&amp;thesisId=83155</t>
   </si>
   <si>
-    <t xml:space="preserve">Pruning von Slimmable Deep Neural Networks an einer Intel Neural Processing Unit</t>
+    <t xml:space="preserve">Energy Efficient Adaptive Neural Networks for Embedded Hardware</t>
   </si>
   <si>
     <t xml:space="preserve">https://tiss.tuwien.ac.at/thesis/thesisDetails.xhtml?dswid=8615&amp;dsrid=533&amp;thesisId=89084</t>
@@ -2698,7 +2698,7 @@
     <t xml:space="preserve">DA</t>
   </si>
   <si>
-    <t xml:space="preserve">Power-Aware Pruning on Embedded Platforms with Reinforcement Learning</t>
+    <t xml:space="preserve">Adaptive Neural Network low bit-width Quantization for image classification, object detection and segmentation targeting FPGA</t>
   </si>
   <si>
     <t xml:space="preserve">https://tiss.tuwien.ac.at/thesis/thesisDetails.xhtml?dswid=8461&amp;dsrid=505&amp;thesisId=89961</t>
@@ -2765,7 +2765,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="9">
+  <numFmts count="8">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0\ %"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
@@ -2774,7 +2774,6 @@
     <numFmt numFmtId="169" formatCode="dd/mmm"/>
     <numFmt numFmtId="170" formatCode="0.0000"/>
     <numFmt numFmtId="171" formatCode="General"/>
-    <numFmt numFmtId="172" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="36">
     <font>
@@ -4854,7 +4853,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4866,7 +4865,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -37802,8 +37801,8 @@
   </sheetPr>
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F22" activeCellId="0" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -37853,7 +37852,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="264" t="s">
         <v>721</v>
       </c>
@@ -37864,16 +37863,16 @@
         <v>723</v>
       </c>
       <c r="D3" s="265" t="n">
-        <v>43621</v>
-      </c>
-      <c r="E3" s="266" t="s">
+        <v>44266</v>
+      </c>
+      <c r="E3" s="256" t="s">
         <v>726</v>
       </c>
       <c r="F3" s="264" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="264" t="s">
         <v>728</v>
       </c>
@@ -37884,9 +37883,9 @@
         <v>723</v>
       </c>
       <c r="D4" s="265" t="n">
-        <v>44562</v>
-      </c>
-      <c r="E4" s="266" t="s">
+        <v>44294</v>
+      </c>
+      <c r="E4" s="256" t="s">
         <v>729</v>
       </c>
       <c r="F4" s="264" t="s">
@@ -37904,7 +37903,7 @@
         <v>731</v>
       </c>
       <c r="D5" s="265" t="n">
-        <v>44562</v>
+        <v>44299</v>
       </c>
       <c r="E5" s="267" t="s">
         <v>732</v>
@@ -37924,7 +37923,7 @@
         <v>731</v>
       </c>
       <c r="D6" s="265" t="n">
-        <v>43621</v>
+        <v>44102</v>
       </c>
       <c r="E6" s="267" t="s">
         <v>734</v>
@@ -37964,7 +37963,7 @@
         <v>731</v>
       </c>
       <c r="D8" s="265" t="n">
-        <v>43621</v>
+        <v>44504</v>
       </c>
       <c r="E8" s="267" t="s">
         <v>738</v>
@@ -37984,7 +37983,7 @@
         <v>740</v>
       </c>
       <c r="D9" s="265" t="n">
-        <v>44562</v>
+        <v>44564</v>
       </c>
       <c r="E9" s="267" t="s">
         <v>741</v>
@@ -38004,7 +38003,7 @@
         <v>743</v>
       </c>
       <c r="D10" s="265" t="n">
-        <v>44562</v>
+        <v>42509</v>
       </c>
       <c r="E10" s="267" t="s">
         <v>744</v>
@@ -38021,7 +38020,7 @@
         <v>722</v>
       </c>
       <c r="D11" s="265" t="n">
-        <v>44562</v>
+        <v>43279</v>
       </c>
       <c r="E11" s="267" t="s">
         <v>746</v>
@@ -38038,7 +38037,7 @@
         <v>722</v>
       </c>
       <c r="D12" s="265" t="n">
-        <v>43621</v>
+        <v>43279</v>
       </c>
       <c r="E12" s="267" t="s">
         <v>748</v>

--- a/_data/CDLEML_WP_Progress_EML-Process.xlsx
+++ b/_data/CDLEML_WP_Progress_EML-Process.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="EML_Tool_WP" sheetId="1" state="visible" r:id="rId2"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1567" uniqueCount="750">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1572" uniqueCount="753">
   <si>
     <t xml:space="preserve">Compliance zu WPs CDLEML</t>
   </si>
@@ -2606,6 +2606,15 @@
   </si>
   <si>
     <t xml:space="preserve">https://doi.org/10.34726/hss.2021.69314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lukas Steindl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optimizing deep neural networks for efficient dronebased ragweed detection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.34726/hss.2022.79705</t>
   </si>
   <si>
     <t xml:space="preserve">Embedded Machine Learning Scripts and Guides</t>
@@ -37340,8 +37349,8 @@
   </sheetPr>
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F18" activeCellId="0" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.56640625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -37603,6 +37612,32 @@
       <c r="F13" s="247" t="s">
         <v>698</v>
       </c>
+    </row>
+    <row r="14" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="256" t="s">
+        <v>699</v>
+      </c>
+      <c r="B14" s="256" t="s">
+        <v>700</v>
+      </c>
+      <c r="C14" s="229" t="s">
+        <v>665</v>
+      </c>
+      <c r="D14" s="229" t="s">
+        <v>671</v>
+      </c>
+      <c r="E14" s="229" t="n">
+        <v>2022</v>
+      </c>
+      <c r="F14" s="256" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="256"/>
     </row>
     <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="257"/>
@@ -37661,68 +37696,68 @@
     </row>
     <row r="2" customFormat="false" ht="75.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="245" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="B2" s="246" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="C2" s="262" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="228" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="B3" s="229" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="C3" s="255" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="228" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="B4" s="229" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="C4" s="255" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="228" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="B5" s="229" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="C5" s="255" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="228" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="B6" s="229" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="C6" s="255" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="72" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="228" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="B7" s="229" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="C7" s="255" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37801,7 +37836,7 @@
   </sheetPr>
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F22" activeCellId="0" sqref="F22"/>
     </sheetView>
   </sheetViews>
@@ -37817,16 +37852,16 @@
         <v>659</v>
       </c>
       <c r="B1" s="264" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="C1" s="264" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="D1" s="264" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="E1" s="264" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="F1" s="264" t="s">
         <v>662</v>
@@ -37834,216 +37869,216 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="264" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="B2" s="264" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="C2" s="264" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="D2" s="265" t="n">
         <v>44562</v>
       </c>
       <c r="E2" s="266" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="F2" s="264" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="264" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="B3" s="264" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="C3" s="264" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="D3" s="265" t="n">
         <v>44266</v>
       </c>
       <c r="E3" s="256" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="F3" s="264" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="264" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="B4" s="264" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="C4" s="264" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="D4" s="265" t="n">
         <v>44294</v>
       </c>
       <c r="E4" s="256" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="F4" s="264" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="D5" s="265" t="n">
         <v>44299</v>
       </c>
       <c r="E5" s="267" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="D6" s="265" t="n">
         <v>44102</v>
       </c>
       <c r="E6" s="267" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="D7" s="265" t="n">
         <v>44562</v>
       </c>
       <c r="E7" s="267" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="D8" s="265" t="n">
         <v>44504</v>
       </c>
       <c r="E8" s="267" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>739</v>
+        <v>742</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="D9" s="265" t="n">
         <v>44564</v>
       </c>
       <c r="E9" s="267" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="D10" s="265" t="n">
         <v>42509</v>
       </c>
       <c r="E10" s="267" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="D11" s="265" t="n">
         <v>43279</v>
       </c>
       <c r="E11" s="267" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="D12" s="265" t="n">
         <v>43279</v>
       </c>
       <c r="E12" s="267" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/_data/CDLEML_WP_Progress_EML-Process.xlsx
+++ b/_data/CDLEML_WP_Progress_EML-Process.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1572" uniqueCount="753">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1576" uniqueCount="755">
   <si>
     <t xml:space="preserve">Compliance zu WPs CDLEML</t>
   </si>
@@ -2617,6 +2617,12 @@
     <t xml:space="preserve">https://doi.org/10.34726/hss.2022.79705</t>
   </si>
   <si>
+    <t xml:space="preserve">Nikolas Alge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Power Profiling of Machine Learning Accelerators using MLPerf</t>
+  </si>
+  <si>
     <t xml:space="preserve">Embedded Machine Learning Scripts and Guides</t>
   </si>
   <si>
@@ -2774,15 +2780,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="8">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0\ %"/>
-    <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="166" formatCode="DD/MM/YYYY"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
     <numFmt numFmtId="168" formatCode="0"/>
-    <numFmt numFmtId="169" formatCode="dd/mmm"/>
+    <numFmt numFmtId="169" formatCode="DD/MMM"/>
     <numFmt numFmtId="170" formatCode="0.0000"/>
-    <numFmt numFmtId="171" formatCode="General"/>
   </numFmts>
   <fonts count="36">
     <font>
@@ -4742,7 +4747,7 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="5" fillId="12" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="12" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4758,7 +4763,7 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="5" fillId="12" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="12" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4830,6 +4835,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="34" fillId="0" borderId="60" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4874,19 +4883,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="*unknown*" xfId="20" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="*unknown*" xfId="20" builtinId="8" customBuiltin="false"/>
   </cellStyles>
   <dxfs count="1222">
     <dxf>
@@ -14290,7 +14295,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -14304,7 +14309,7 @@
       <selection pane="bottomRight" activeCell="B134" activeCellId="0" sqref="B134"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.4453125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="2" outlineLevelCol="1"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="64.11"/>
@@ -14324,7 +14329,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="4" width="3.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="38" min="32" style="2" width="3.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="39" min="39" style="5" width="11.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="40" min="40" style="5" width="10.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="40" min="40" style="5" width="10.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="41" min="41" style="6" width="7.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="6" width="8.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="7" width="38.66"/>
@@ -14333,13 +14338,13 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="8" width="6.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="7" width="35.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="7" width="10.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="7" width="10.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="7" width="10.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="7" width="47.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="51" min="51" style="7" width="11.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="52" style="7" width="52.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="7" width="72.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="1" width="8.33"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="55" style="1" width="11.44"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="55" style="1" width="11.44"/>
   </cols>
   <sheetData>
     <row r="1" s="7" customFormat="true" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36358,7 +36363,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -36368,14 +36373,15 @@
       <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.56640625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="228" width="8.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="229" width="54.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="229" width="15.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="229" width="24.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="229" width="10"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="230" width="11.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="230" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" s="233" customFormat="true" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -37343,26 +37349,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F18" activeCellId="0" sqref="F18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.56640625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="228" width="22.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="229" width="60.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="229" width="8.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="229" width="15.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="229" width="5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="229" width="5.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="247" width="37.88"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="248" width="11.56"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="8" style="229" width="11.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="248" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="229" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" s="250" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37634,13 +37640,27 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="0"/>
+      <c r="A15" s="228" t="s">
+        <v>702</v>
+      </c>
+      <c r="B15" s="257" t="s">
+        <v>703</v>
+      </c>
+      <c r="C15" s="229" t="s">
+        <v>675</v>
+      </c>
+      <c r="D15" s="229" t="s">
+        <v>671</v>
+      </c>
+      <c r="E15" s="229" t="n">
+        <v>2022</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="256"/>
     </row>
     <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="257"/>
+      <c r="A18" s="258"/>
     </row>
     <row r="25" s="246" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="245"/>
@@ -37665,7 +37685,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -37675,89 +37695,89 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.56640625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="229" width="40"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="229" width="39.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="229" width="56.66"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="230" width="11.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="230" width="11.57"/>
   </cols>
   <sheetData>
-    <row r="1" s="261" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="258" t="s">
+    <row r="1" s="262" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="259" t="s">
         <v>657</v>
       </c>
-      <c r="B1" s="259" t="s">
+      <c r="B1" s="260" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="260" t="s">
+      <c r="C1" s="261" t="s">
         <v>662</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="75.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="245" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="B2" s="246" t="s">
-        <v>703</v>
-      </c>
-      <c r="C2" s="262" t="s">
-        <v>704</v>
+        <v>705</v>
+      </c>
+      <c r="C2" s="263" t="s">
+        <v>706</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="228" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B3" s="229" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="C3" s="255" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="228" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="B4" s="229" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="C4" s="255" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="228" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="B5" s="229" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="C5" s="255" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="228" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="B6" s="229" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="C6" s="255" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="72" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="228" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="B7" s="229" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="C7" s="255" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37803,7 +37823,7 @@
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="243"/>
       <c r="B18" s="244"/>
-      <c r="C18" s="263"/>
+      <c r="C18" s="264"/>
     </row>
     <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="246"/>
@@ -37830,288 +37850,266 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F22" activeCellId="0" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="50.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="257" width="5.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="257" width="10.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="257" width="50.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="9.17"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="264" t="s">
+      <c r="A1" s="265" t="s">
         <v>659</v>
       </c>
-      <c r="B1" s="264" t="s">
-        <v>720</v>
-      </c>
-      <c r="C1" s="264" t="s">
-        <v>721</v>
-      </c>
-      <c r="D1" s="264" t="s">
+      <c r="B1" s="265" t="s">
         <v>722</v>
       </c>
-      <c r="E1" s="264" t="s">
+      <c r="C1" s="265" t="s">
         <v>723</v>
       </c>
-      <c r="F1" s="264" t="s">
+      <c r="D1" s="265" t="s">
+        <v>724</v>
+      </c>
+      <c r="E1" s="265" t="s">
+        <v>725</v>
+      </c>
+      <c r="F1" s="265" t="s">
         <v>662</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="264" t="s">
-        <v>724</v>
-      </c>
-      <c r="B2" s="264" t="s">
-        <v>725</v>
-      </c>
-      <c r="C2" s="264" t="s">
+      <c r="A2" s="265" t="s">
         <v>726</v>
       </c>
-      <c r="D2" s="265" t="n">
+      <c r="B2" s="265" t="s">
+        <v>727</v>
+      </c>
+      <c r="C2" s="265" t="s">
+        <v>728</v>
+      </c>
+      <c r="D2" s="266" t="n">
         <v>44562</v>
       </c>
-      <c r="E2" s="266" t="s">
-        <v>727</v>
-      </c>
-      <c r="F2" s="264" t="s">
-        <v>728</v>
+      <c r="E2" s="267" t="s">
+        <v>729</v>
+      </c>
+      <c r="F2" s="265" t="s">
+        <v>730</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="264" t="s">
-        <v>724</v>
-      </c>
-      <c r="B3" s="264" t="s">
-        <v>725</v>
-      </c>
-      <c r="C3" s="264" t="s">
+      <c r="A3" s="265" t="s">
         <v>726</v>
       </c>
-      <c r="D3" s="265" t="n">
+      <c r="B3" s="265" t="s">
+        <v>727</v>
+      </c>
+      <c r="C3" s="265" t="s">
+        <v>728</v>
+      </c>
+      <c r="D3" s="266" t="n">
         <v>44266</v>
       </c>
       <c r="E3" s="256" t="s">
-        <v>729</v>
-      </c>
-      <c r="F3" s="264" t="s">
-        <v>730</v>
+        <v>731</v>
+      </c>
+      <c r="F3" s="265" t="s">
+        <v>732</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="264" t="s">
-        <v>731</v>
-      </c>
-      <c r="B4" s="264" t="s">
-        <v>725</v>
-      </c>
-      <c r="C4" s="264" t="s">
-        <v>726</v>
-      </c>
-      <c r="D4" s="265" t="n">
+      <c r="A4" s="265" t="s">
+        <v>733</v>
+      </c>
+      <c r="B4" s="265" t="s">
+        <v>727</v>
+      </c>
+      <c r="C4" s="265" t="s">
+        <v>728</v>
+      </c>
+      <c r="D4" s="266" t="n">
         <v>44294</v>
       </c>
       <c r="E4" s="256" t="s">
-        <v>732</v>
-      </c>
-      <c r="F4" s="264" t="s">
-        <v>733</v>
+        <v>734</v>
+      </c>
+      <c r="F4" s="265" t="s">
+        <v>735</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>731</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>725</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>734</v>
-      </c>
-      <c r="D5" s="265" t="n">
+      <c r="A5" s="257" t="s">
+        <v>733</v>
+      </c>
+      <c r="B5" s="257" t="s">
+        <v>727</v>
+      </c>
+      <c r="C5" s="257" t="s">
+        <v>736</v>
+      </c>
+      <c r="D5" s="266" t="n">
         <v>44299</v>
       </c>
-      <c r="E5" s="267" t="s">
-        <v>735</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>736</v>
+      <c r="E5" s="268" t="s">
+        <v>737</v>
+      </c>
+      <c r="F5" s="257" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>731</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>725</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>734</v>
-      </c>
-      <c r="D6" s="265" t="n">
+      <c r="A6" s="257" t="s">
+        <v>733</v>
+      </c>
+      <c r="B6" s="257" t="s">
+        <v>727</v>
+      </c>
+      <c r="C6" s="257" t="s">
+        <v>736</v>
+      </c>
+      <c r="D6" s="266" t="n">
         <v>44102</v>
       </c>
-      <c r="E6" s="267" t="s">
-        <v>737</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>738</v>
+      <c r="E6" s="268" t="s">
+        <v>739</v>
+      </c>
+      <c r="F6" s="257" t="s">
+        <v>740</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>731</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>725</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>734</v>
-      </c>
-      <c r="D7" s="265" t="n">
+      <c r="A7" s="257" t="s">
+        <v>733</v>
+      </c>
+      <c r="B7" s="257" t="s">
+        <v>727</v>
+      </c>
+      <c r="C7" s="257" t="s">
+        <v>736</v>
+      </c>
+      <c r="D7" s="266" t="n">
         <v>44562</v>
       </c>
-      <c r="E7" s="267" t="s">
-        <v>739</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>740</v>
+      <c r="E7" s="268" t="s">
+        <v>741</v>
+      </c>
+      <c r="F7" s="257" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>724</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>725</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>734</v>
-      </c>
-      <c r="D8" s="265" t="n">
+      <c r="A8" s="257" t="s">
+        <v>726</v>
+      </c>
+      <c r="B8" s="257" t="s">
+        <v>727</v>
+      </c>
+      <c r="C8" s="257" t="s">
+        <v>736</v>
+      </c>
+      <c r="D8" s="266" t="n">
         <v>44504</v>
       </c>
-      <c r="E8" s="267" t="s">
-        <v>741</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>742</v>
+      <c r="E8" s="268" t="s">
+        <v>743</v>
+      </c>
+      <c r="F8" s="257" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>731</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>725</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>743</v>
-      </c>
-      <c r="D9" s="265" t="n">
+      <c r="A9" s="257" t="s">
+        <v>733</v>
+      </c>
+      <c r="B9" s="257" t="s">
+        <v>727</v>
+      </c>
+      <c r="C9" s="257" t="s">
+        <v>745</v>
+      </c>
+      <c r="D9" s="266" t="n">
         <v>44564</v>
       </c>
-      <c r="E9" s="267" t="s">
-        <v>744</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>745</v>
+      <c r="E9" s="268" t="s">
+        <v>746</v>
+      </c>
+      <c r="F9" s="257" t="s">
+        <v>747</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>731</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>725</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>746</v>
-      </c>
-      <c r="D10" s="265" t="n">
+      <c r="A10" s="257" t="s">
+        <v>733</v>
+      </c>
+      <c r="B10" s="257" t="s">
+        <v>727</v>
+      </c>
+      <c r="C10" s="257" t="s">
+        <v>748</v>
+      </c>
+      <c r="D10" s="266" t="n">
         <v>42509</v>
       </c>
-      <c r="E10" s="267" t="s">
-        <v>747</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>748</v>
+      <c r="E10" s="268" t="s">
+        <v>749</v>
+      </c>
+      <c r="F10" s="257" t="s">
+        <v>750</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>731</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>725</v>
-      </c>
-      <c r="D11" s="265" t="n">
+      <c r="A11" s="257" t="s">
+        <v>733</v>
+      </c>
+      <c r="B11" s="257" t="s">
+        <v>727</v>
+      </c>
+      <c r="D11" s="266" t="n">
         <v>43279</v>
       </c>
-      <c r="E11" s="267" t="s">
-        <v>749</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>750</v>
+      <c r="E11" s="268" t="s">
+        <v>751</v>
+      </c>
+      <c r="F11" s="257" t="s">
+        <v>752</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>731</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>725</v>
-      </c>
-      <c r="D12" s="265" t="n">
+      <c r="A12" s="257" t="s">
+        <v>733</v>
+      </c>
+      <c r="B12" s="257" t="s">
+        <v>727</v>
+      </c>
+      <c r="D12" s="266" t="n">
         <v>43279</v>
       </c>
-      <c r="E12" s="267" t="s">
-        <v>751</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D13" s="268"/>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D14" s="268"/>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D15" s="268"/>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D16" s="268"/>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D17" s="268"/>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D18" s="268"/>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D19" s="268"/>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D20" s="268"/>
+      <c r="E12" s="268" t="s">
+        <v>753</v>
+      </c>
+      <c r="F12" s="257" t="s">
+        <v>754</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Seite &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/_data/CDLEML_WP_Progress_EML-Process.xlsx
+++ b/_data/CDLEML_WP_Progress_EML-Process.xlsx
@@ -14353,7 +14353,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="2" outlineLevelCol="1"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="64.14"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="4" min="3" style="1" width="3.28"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="6" min="5" style="2" width="3.86"/>
@@ -14372,13 +14372,13 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="38" min="32" style="2" width="3.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="39" min="39" style="5" width="11.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="40" min="40" style="5" width="10.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="41" min="41" style="6" width="7.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="41" min="41" style="6" width="7.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="6" width="8.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="7" width="38.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="7" width="38.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="8" width="41.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="8" width="5.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="8" width="6.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="7" width="35.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="7" width="35.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="7" width="11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="7" width="10.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="7" width="47.43"/>
@@ -37909,11 +37909,11 @@
   </sheetPr>
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="257" width="5.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="257" width="10"/>
@@ -37940,7 +37940,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="269" t="s">
         <v>729</v>
       </c>
@@ -37951,7 +37951,7 @@
         <v>731</v>
       </c>
       <c r="D2" s="270" t="n">
-        <v>44562</v>
+        <v>44880</v>
       </c>
       <c r="E2" s="271" t="s">
         <v>732</v>
@@ -37960,7 +37960,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="269" t="s">
         <v>729</v>
       </c>
@@ -37971,7 +37971,7 @@
         <v>731</v>
       </c>
       <c r="D3" s="270" t="n">
-        <v>44266</v>
+        <v>44880</v>
       </c>
       <c r="E3" s="256" t="s">
         <v>734</v>
@@ -37980,7 +37980,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="269" t="s">
         <v>736</v>
       </c>
@@ -37991,7 +37991,7 @@
         <v>731</v>
       </c>
       <c r="D4" s="270" t="n">
-        <v>44294</v>
+        <v>44880</v>
       </c>
       <c r="E4" s="256" t="s">
         <v>737</v>
@@ -38000,7 +38000,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="257" t="s">
         <v>736</v>
       </c>
@@ -38011,7 +38011,7 @@
         <v>739</v>
       </c>
       <c r="D5" s="270" t="n">
-        <v>44299</v>
+        <v>44880</v>
       </c>
       <c r="E5" s="272" t="s">
         <v>740</v>
@@ -38040,7 +38040,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="257" t="s">
         <v>736</v>
       </c>
@@ -38051,7 +38051,7 @@
         <v>739</v>
       </c>
       <c r="D7" s="270" t="n">
-        <v>44562</v>
+        <v>44880</v>
       </c>
       <c r="E7" s="272" t="s">
         <v>744</v>
@@ -38060,7 +38060,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="257" t="s">
         <v>729</v>
       </c>
@@ -38071,7 +38071,7 @@
         <v>739</v>
       </c>
       <c r="D8" s="270" t="n">
-        <v>44504</v>
+        <v>44880</v>
       </c>
       <c r="E8" s="272" t="s">
         <v>746</v>
@@ -38080,7 +38080,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="257" t="s">
         <v>736</v>
       </c>
@@ -38091,7 +38091,7 @@
         <v>748</v>
       </c>
       <c r="D9" s="270" t="n">
-        <v>44564</v>
+        <v>44880</v>
       </c>
       <c r="E9" s="272" t="s">
         <v>749</v>
@@ -38161,7 +38161,7 @@
       <c r="B13" s="257" t="s">
         <v>730</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" s="257" t="s">
         <v>758</v>
       </c>
       <c r="D13" s="270" t="n">
@@ -38170,13 +38170,13 @@
       <c r="E13" s="257" t="s">
         <v>759</v>
       </c>
-      <c r="F13" s="0" t="s">
+      <c r="F13" s="257" t="s">
         <v>760</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F13" r:id="rId1" display="https://eml.ict.tuwien.ac.at/PublFiles/Theses/"/>
+    <hyperlink ref="F13" r:id="rId1" display="https://eml.ict.tuwien.ac.at/PublFiles/Theses/analytical_approximation_of_statistical_rounding.pdf"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/_data/CDLEML_WP_Progress_EML-Process.xlsx
+++ b/_data/CDLEML_WP_Progress_EML-Process.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="EML_Tool_WP" sheetId="1" state="visible" r:id="rId2"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1584" uniqueCount="761">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1585" uniqueCount="762">
   <si>
     <t xml:space="preserve">Compliance zu WPs CDLEML</t>
   </si>
@@ -2621,6 +2621,9 @@
   </si>
   <si>
     <t xml:space="preserve">Power Profiling of Machine Learning Accelerators using MLPerf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.5281/zenodo.7323206</t>
   </si>
   <si>
     <t xml:space="preserve">Blackthorn</t>
@@ -14351,11 +14354,11 @@
       <selection pane="bottomRight" activeCell="B134" activeCellId="0" sqref="B134"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.4296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="11.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="2" outlineLevelCol="1"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="64.14"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="4" min="3" style="1" width="3.28"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="4" min="3" style="1" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="6" min="5" style="2" width="3.86"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="7" min="7" style="3" width="3.86"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="13" min="8" style="2" width="3.86"/>
@@ -14372,19 +14375,19 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="38" min="32" style="2" width="3.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="39" min="39" style="5" width="11.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="40" min="40" style="5" width="10.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="41" min="41" style="6" width="7.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="41" min="41" style="6" width="7.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="6" width="8.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="7" width="38.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="8" width="41.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="8" width="41.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="8" width="5.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="8" width="6.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="7" width="35.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="7" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="7" width="10.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="7" width="10.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="7" width="47.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="51" min="51" style="7" width="11.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="52" style="7" width="52.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="7" width="72.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="7" width="72.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="1" width="8.28"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="55" style="1" width="11.43"/>
   </cols>
@@ -36415,11 +36418,11 @@
       <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="228" width="8.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="229" width="54.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="229" width="15.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="229" width="15.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="229" width="24.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="229" width="10"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="230" width="11.57"/>
@@ -37396,17 +37399,17 @@
   </sheetPr>
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F16" activeCellId="0" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="228" width="22.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="229" width="60.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="229" width="60.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="229" width="8.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="229" width="15.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="229" width="5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="229" width="15.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="229" width="5.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="247" width="37.85"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="248" width="11.57"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="8" style="229" width="11.57"/>
@@ -37680,7 +37683,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="228" t="s">
         <v>702</v>
       </c>
@@ -37695,6 +37698,9 @@
       </c>
       <c r="E15" s="229" t="n">
         <v>2022</v>
+      </c>
+      <c r="F15" s="247" t="s">
+        <v>704</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37714,6 +37720,7 @@
     <hyperlink ref="F6" r:id="rId2" display="https://publik.tuwien.ac.at/files/publik_295897.pdf"/>
     <hyperlink ref="F7" r:id="rId3" display="https://publik.tuwien.ac.at/files/publik_295948.pdf"/>
     <hyperlink ref="F9" r:id="rId4" display="https://publik.tuwien.ac.at/files/publik_296007.pdf"/>
+    <hyperlink ref="F15" r:id="rId5" display="https://doi.org/10.5281/zenodo.7323206"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
@@ -37736,7 +37743,7 @@
       <selection pane="topLeft" activeCell="H8" activeCellId="0" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="229" width="40"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="229" width="39.43"/>
@@ -37757,79 +37764,79 @@
     </row>
     <row r="2" s="266" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="263" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B2" s="264" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="C2" s="265" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="75.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="245" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B3" s="246" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C3" s="267" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="228" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B4" s="229" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="C4" s="255" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="228" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="B5" s="229" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="C5" s="255" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="228" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B6" s="229" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="C6" s="255" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="228" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B7" s="229" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C7" s="255" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="228" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B8" s="229" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="C8" s="255" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37909,11 +37916,11 @@
   </sheetPr>
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="257" width="5.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="257" width="10"/>
@@ -37925,16 +37932,16 @@
         <v>659</v>
       </c>
       <c r="B1" s="269" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="C1" s="269" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="D1" s="269" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="E1" s="269" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="F1" s="269" t="s">
         <v>662</v>
@@ -37942,236 +37949,236 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="269" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="B2" s="269" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="C2" s="269" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="D2" s="270" t="n">
         <v>44880</v>
       </c>
       <c r="E2" s="271" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F2" s="269" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="269" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="B3" s="269" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="C3" s="269" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="D3" s="270" t="n">
         <v>44880</v>
       </c>
       <c r="E3" s="256" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="F3" s="269" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="269" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B4" s="269" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="C4" s="269" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="D4" s="270" t="n">
         <v>44880</v>
       </c>
       <c r="E4" s="256" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="F4" s="269" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="257" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B5" s="257" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="C5" s="257" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="D5" s="270" t="n">
         <v>44880</v>
       </c>
       <c r="E5" s="272" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="F5" s="257" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="257" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B6" s="257" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="C6" s="257" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="D6" s="270" t="n">
         <v>44102</v>
       </c>
       <c r="E6" s="272" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="F6" s="257" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="257" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B7" s="257" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="C7" s="257" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="D7" s="270" t="n">
         <v>44880</v>
       </c>
       <c r="E7" s="272" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="F7" s="257" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="257" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="B8" s="257" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="C8" s="257" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="D8" s="270" t="n">
         <v>44880</v>
       </c>
       <c r="E8" s="272" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="F8" s="257" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="257" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B9" s="257" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="C9" s="257" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="D9" s="270" t="n">
         <v>44880</v>
       </c>
       <c r="E9" s="272" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="F9" s="257" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="257" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B10" s="257" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="C10" s="257" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="D10" s="270" t="n">
         <v>42509</v>
       </c>
       <c r="E10" s="272" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="F10" s="257" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="257" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B11" s="257" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="D11" s="270" t="n">
         <v>43279</v>
       </c>
       <c r="E11" s="272" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="F11" s="257" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="257" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B12" s="257" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="D12" s="270" t="n">
         <v>43279</v>
       </c>
       <c r="E12" s="272" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="F12" s="257" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="257" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B13" s="257" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="C13" s="257" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="D13" s="270" t="n">
         <v>44880</v>
       </c>
       <c r="E13" s="257" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="F13" s="257" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
     </row>
   </sheetData>
@@ -38182,8 +38189,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Seite &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/_data/CDLEML_WP_Progress_EML-Process.xlsx
+++ b/_data/CDLEML_WP_Progress_EML-Process.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1595" uniqueCount="767">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1599" uniqueCount="769">
   <si>
     <t xml:space="preserve">Compliance zu WPs CDLEML</t>
   </si>
@@ -2810,6 +2810,12 @@
   </si>
   <si>
     <t xml:space="preserve">https://eml.ict.tuwien.ac.at/PublFiles/Theses/EML_Master_Thesis_Rail_Track_Switch_Filter_V01.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adapting a Railroad Anomaly Detector for Embedded Hardware</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://eml.ict.tuwien.ac.at/PublFiles/Theses/Adapting_a_Railroad_Anomaly_Detector_for_Embedded_Hardware.pdf</t>
   </si>
 </sst>
 </file>
@@ -14369,25 +14375,25 @@
       <selection pane="bottomRight" activeCell="B134" activeCellId="0" sqref="B134"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.45703125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="11.4609375" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="2" outlineLevelCol="1"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="64.09"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="4" min="3" style="1" width="3.27"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="6" min="5" style="2" width="3.82"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="7" min="7" style="3" width="3.82"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="13" min="8" style="2" width="3.82"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="14" min="14" style="3" width="3.82"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="17" min="15" style="2" width="3.82"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="18" min="18" style="3" width="3.82"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="19" min="19" style="2" width="3.82"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="21" min="20" style="3" width="3.82"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="24" min="22" style="2" width="3.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="2" width="3.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="3" width="3.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="27" style="2" width="3.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="4" width="3.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="38" min="32" style="2" width="3.82"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="6" min="5" style="2" width="3.83"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="7" min="7" style="3" width="3.83"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="13" min="8" style="2" width="3.83"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="14" min="14" style="3" width="3.83"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="17" min="15" style="2" width="3.83"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="18" min="18" style="3" width="3.83"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="19" min="19" style="2" width="3.83"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="21" min="20" style="3" width="3.83"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="24" min="22" style="2" width="3.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="2" width="3.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="3" width="3.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="27" style="2" width="3.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="4" width="3.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="38" min="32" style="2" width="3.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="39" min="39" style="5" width="11.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="40" min="40" style="5" width="10.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="41" min="41" style="6" width="7.73"/>
@@ -14397,12 +14403,12 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="8" width="5.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="8" width="6.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="7" width="35.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="7" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="7" width="10.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="7" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="7" width="47.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="51" min="51" style="7" width="11.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="7" width="47.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="51" min="51" style="7" width="11.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="52" style="7" width="52.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="7" width="72.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="7" width="72.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="1" width="8.27"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="55" style="1" width="11.45"/>
   </cols>
@@ -36433,7 +36439,7 @@
       <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="228" width="8.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="229" width="54.45"/>
@@ -37418,14 +37424,14 @@
       <selection pane="topLeft" activeCell="F16" activeCellId="0" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="228" width="22.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="228" width="22.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="229" width="60.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="229" width="8.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="229" width="15.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="229" width="5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="247" width="37.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="229" width="5.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="247" width="37.83"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="248" width="11.54"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="8" style="229" width="11.54"/>
   </cols>
@@ -37758,10 +37764,10 @@
       <selection pane="topLeft" activeCell="H8" activeCellId="0" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="229" width="40"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="229" width="39.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="229" width="39.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="229" width="56.72"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="230" width="11.54"/>
   </cols>
@@ -37929,19 +37935,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E26" activeCellId="0" sqref="E26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.19140625" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="257" width="5.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="257" width="10"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="257" width="50.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="257" width="55.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="97.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="97.1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38218,7 +38224,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="257" t="s">
         <v>737</v>
       </c>
@@ -38238,11 +38244,31 @@
         <v>766</v>
       </c>
     </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="257" t="s">
+        <v>730</v>
+      </c>
+      <c r="B16" s="257" t="s">
+        <v>762</v>
+      </c>
+      <c r="C16" s="257"/>
+      <c r="D16" s="270" t="n">
+        <v>44904</v>
+      </c>
+      <c r="E16" s="257" t="s">
+        <v>767</v>
+      </c>
+      <c r="F16" s="265" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F13" r:id="rId1" display="https://eml.ict.tuwien.ac.at/PublFiles/Theses/analytical_approximation_of_statistical_rounding.pdf"/>
     <hyperlink ref="F14" r:id="rId2" display="https://eml.ict.tuwien.ac.at/PublFiles/Theses/EML_Master_Thesis_Monocular_Depth_Estimation_V01.pdf"/>
     <hyperlink ref="F15" r:id="rId3" display="https://eml.ict.tuwien.ac.at/PublFiles/Theses/EML_Master_Thesis_Rail_Track_Switch_Filter_V01.pdf"/>
+    <hyperlink ref="F16" r:id="rId4" display="https://eml.ict.tuwien.ac.at/PublFiles/Theses/Adapting_a_Railroad_Anomaly_Detector_for_Embedded_Hardware.pdf"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/_data/CDLEML_WP_Progress_EML-Process.xlsx
+++ b/_data/CDLEML_WP_Progress_EML-Process.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1599" uniqueCount="769">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1599" uniqueCount="768">
   <si>
     <t xml:space="preserve">Compliance zu WPs CDLEML</t>
   </si>
@@ -2696,9 +2696,6 @@
   </si>
   <si>
     <t xml:space="preserve">Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Titel</t>
   </si>
   <si>
     <t xml:space="preserve">BA</t>
@@ -14405,10 +14402,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="7" width="35.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="7" width="10.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="7" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="7" width="47.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="51" min="51" style="7" width="11.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="7" width="47.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="51" min="51" style="7" width="11.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="52" style="7" width="52.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="7" width="72.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="7" width="72.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="1" width="8.27"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="55" style="1" width="11.45"/>
   </cols>
@@ -37426,7 +37423,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="228" width="22.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="228" width="22.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="229" width="60.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="229" width="8.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="229" width="15.45"/>
@@ -37767,7 +37764,7 @@
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="229" width="40"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="229" width="39.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="229" width="39.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="229" width="56.72"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="230" width="11.54"/>
   </cols>
@@ -37938,10 +37935,10 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
+      <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.19140625" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.2109375" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="257" width="5.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="257" width="10"/>
@@ -37964,7 +37961,7 @@
         <v>728</v>
       </c>
       <c r="E1" s="269" t="s">
-        <v>729</v>
+        <v>657</v>
       </c>
       <c r="F1" s="269" t="s">
         <v>662</v>
@@ -37972,294 +37969,294 @@
     </row>
     <row r="2" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="269" t="s">
+        <v>729</v>
+      </c>
+      <c r="B2" s="269" t="s">
         <v>730</v>
       </c>
-      <c r="B2" s="269" t="s">
+      <c r="C2" s="269" t="s">
         <v>731</v>
-      </c>
-      <c r="C2" s="269" t="s">
-        <v>732</v>
       </c>
       <c r="D2" s="270" t="n">
         <v>44880</v>
       </c>
       <c r="E2" s="271" t="s">
+        <v>732</v>
+      </c>
+      <c r="F2" s="269" t="s">
         <v>733</v>
-      </c>
-      <c r="F2" s="269" t="s">
-        <v>734</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="269" t="s">
+        <v>729</v>
+      </c>
+      <c r="B3" s="269" t="s">
         <v>730</v>
       </c>
-      <c r="B3" s="269" t="s">
+      <c r="C3" s="269" t="s">
         <v>731</v>
-      </c>
-      <c r="C3" s="269" t="s">
-        <v>732</v>
       </c>
       <c r="D3" s="270" t="n">
         <v>44880</v>
       </c>
       <c r="E3" s="256" t="s">
+        <v>734</v>
+      </c>
+      <c r="F3" s="269" t="s">
         <v>735</v>
-      </c>
-      <c r="F3" s="269" t="s">
-        <v>736</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="269" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B4" s="269" t="s">
+        <v>730</v>
+      </c>
+      <c r="C4" s="269" t="s">
         <v>731</v>
-      </c>
-      <c r="C4" s="269" t="s">
-        <v>732</v>
       </c>
       <c r="D4" s="270" t="n">
         <v>44880</v>
       </c>
       <c r="E4" s="256" t="s">
+        <v>737</v>
+      </c>
+      <c r="F4" s="269" t="s">
         <v>738</v>
-      </c>
-      <c r="F4" s="269" t="s">
-        <v>739</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="257" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B5" s="257" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C5" s="257" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D5" s="270" t="n">
         <v>44880</v>
       </c>
       <c r="E5" s="272" t="s">
+        <v>740</v>
+      </c>
+      <c r="F5" s="257" t="s">
         <v>741</v>
-      </c>
-      <c r="F5" s="257" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="257" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B6" s="257" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C6" s="257" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D6" s="270" t="n">
         <v>44102</v>
       </c>
       <c r="E6" s="272" t="s">
+        <v>742</v>
+      </c>
+      <c r="F6" s="257" t="s">
         <v>743</v>
-      </c>
-      <c r="F6" s="257" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="257" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B7" s="257" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C7" s="257" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D7" s="270" t="n">
         <v>44880</v>
       </c>
       <c r="E7" s="272" t="s">
+        <v>744</v>
+      </c>
+      <c r="F7" s="257" t="s">
         <v>745</v>
-      </c>
-      <c r="F7" s="257" t="s">
-        <v>746</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="257" t="s">
+        <v>729</v>
+      </c>
+      <c r="B8" s="257" t="s">
         <v>730</v>
       </c>
-      <c r="B8" s="257" t="s">
-        <v>731</v>
-      </c>
       <c r="C8" s="257" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D8" s="270" t="n">
         <v>44880</v>
       </c>
       <c r="E8" s="272" t="s">
+        <v>746</v>
+      </c>
+      <c r="F8" s="257" t="s">
         <v>747</v>
-      </c>
-      <c r="F8" s="257" t="s">
-        <v>748</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="257" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B9" s="257" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C9" s="257" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D9" s="270" t="n">
         <v>44880</v>
       </c>
       <c r="E9" s="272" t="s">
+        <v>749</v>
+      </c>
+      <c r="F9" s="257" t="s">
         <v>750</v>
-      </c>
-      <c r="F9" s="257" t="s">
-        <v>751</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="257" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B10" s="257" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C10" s="257" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="D10" s="270" t="n">
         <v>42509</v>
       </c>
       <c r="E10" s="272" t="s">
+        <v>752</v>
+      </c>
+      <c r="F10" s="257" t="s">
         <v>753</v>
-      </c>
-      <c r="F10" s="257" t="s">
-        <v>754</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="257" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B11" s="257" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D11" s="270" t="n">
         <v>43279</v>
       </c>
       <c r="E11" s="272" t="s">
+        <v>754</v>
+      </c>
+      <c r="F11" s="257" t="s">
         <v>755</v>
-      </c>
-      <c r="F11" s="257" t="s">
-        <v>756</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="257" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B12" s="257" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D12" s="270" t="n">
         <v>43279</v>
       </c>
       <c r="E12" s="272" t="s">
+        <v>756</v>
+      </c>
+      <c r="F12" s="257" t="s">
         <v>757</v>
-      </c>
-      <c r="F12" s="257" t="s">
-        <v>758</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="257" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B13" s="257" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C13" s="257" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D13" s="270" t="n">
         <v>44880</v>
       </c>
       <c r="E13" s="257" t="s">
+        <v>759</v>
+      </c>
+      <c r="F13" s="265" t="s">
         <v>760</v>
-      </c>
-      <c r="F13" s="265" t="s">
-        <v>761</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="257" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B14" s="257" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C14" s="257" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D14" s="270" t="n">
         <v>44895</v>
       </c>
       <c r="E14" s="257" t="s">
+        <v>762</v>
+      </c>
+      <c r="F14" s="265" t="s">
         <v>763</v>
-      </c>
-      <c r="F14" s="265" t="s">
-        <v>764</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="257" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B15" s="257" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C15" s="257" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D15" s="270" t="n">
         <v>44895</v>
       </c>
       <c r="E15" s="257" t="s">
+        <v>764</v>
+      </c>
+      <c r="F15" s="265" t="s">
         <v>765</v>
-      </c>
-      <c r="F15" s="265" t="s">
-        <v>766</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="257" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B16" s="257" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C16" s="257"/>
       <c r="D16" s="270" t="n">
         <v>44904</v>
       </c>
       <c r="E16" s="257" t="s">
+        <v>766</v>
+      </c>
+      <c r="F16" s="265" t="s">
         <v>767</v>
-      </c>
-      <c r="F16" s="265" t="s">
-        <v>768</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/_data/CDLEML_WP_Progress_EML-Process.xlsx
+++ b/_data/CDLEML_WP_Progress_EML-Process.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1599" uniqueCount="768">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1628" uniqueCount="777">
   <si>
     <t xml:space="preserve">Compliance zu WPs CDLEML</t>
   </si>
@@ -2689,6 +2689,12 @@
     <t xml:space="preserve">https://github.com/embedded-machine-learning/MobileNetV3-Segmentation-Keras</t>
   </si>
   <si>
+    <t xml:space="preserve">Email1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Email2</t>
+  </si>
+  <si>
     <t xml:space="preserve">Supervisor 1</t>
   </si>
   <si>
@@ -2701,6 +2707,15 @@
     <t xml:space="preserve">BA</t>
   </si>
   <si>
+    <t xml:space="preserve">axel.jantsch@tuwien.ac.at</t>
+  </si>
+  <si>
+    <t xml:space="preserve">matthias.wess@tuwien.ac.at</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://tiss.tuwien.ac.at/thesis/thesisDetails.xhtml?dswid=9078&amp;dsrid=628&amp;thesisId=83155</t>
+  </si>
+  <si>
     <t xml:space="preserve">Jantsch</t>
   </si>
   <si>
@@ -2710,22 +2725,25 @@
     <t xml:space="preserve">Adaptation of a Latency and Power Estimation Model for ARM Processors</t>
   </si>
   <si>
-    <t xml:space="preserve">https://tiss.tuwien.ac.at/thesis/thesisDetails.xhtml?dswid=9078&amp;dsrid=628&amp;thesisId=83155</t>
+    <t xml:space="preserve">https://tiss.tuwien.ac.at/thesis/thesisDetails.xhtml?dswid=8615&amp;dsrid=533&amp;thesisId=89084</t>
   </si>
   <si>
     <t xml:space="preserve">Energy Efficient Adaptive Neural Networks for Embedded Hardware</t>
   </si>
   <si>
-    <t xml:space="preserve">https://tiss.tuwien.ac.at/thesis/thesisDetails.xhtml?dswid=8615&amp;dsrid=533&amp;thesisId=89084</t>
-  </si>
-  <si>
     <t xml:space="preserve">DA</t>
   </si>
   <si>
+    <t xml:space="preserve">https://tiss.tuwien.ac.at/thesis/thesisDetails.xhtml?dswid=8461&amp;dsrid=505&amp;thesisId=89961</t>
+  </si>
+  <si>
     <t xml:space="preserve">Adaptive Neural Network low bit-width Quantization for image classification, object detection and segmentation targeting FPGA</t>
   </si>
   <si>
-    <t xml:space="preserve">https://tiss.tuwien.ac.at/thesis/thesisDetails.xhtml?dswid=8461&amp;dsrid=505&amp;thesisId=89961</t>
+    <t xml:space="preserve">martin.lechner@tuwien.ac.at</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://tiss.tuwien.ac.at/thesis/thesisDetails.xhtml?dswid=9579&amp;dsrid=362&amp;thesisId=90183</t>
   </si>
   <si>
     <t xml:space="preserve">Lechner</t>
@@ -2734,25 +2752,28 @@
     <t xml:space="preserve">Consistent Semantic Segmentation of Video Objects</t>
   </si>
   <si>
-    <t xml:space="preserve">https://tiss.tuwien.ac.at/thesis/thesisDetails.xhtml?dswid=9579&amp;dsrid=362&amp;thesisId=90183</t>
+    <t xml:space="preserve">https://tiss.tuwien.ac.at/thesis/thesisDetails.xhtml?dswid=7234&amp;dsrid=684&amp;thesisId=83157</t>
   </si>
   <si>
     <t xml:space="preserve">Hardware-Aware Pruning of Neural Networks with Intel Distiller</t>
   </si>
   <si>
-    <t xml:space="preserve">https://tiss.tuwien.ac.at/thesis/thesisDetails.xhtml?dswid=7234&amp;dsrid=684&amp;thesisId=83157</t>
+    <t xml:space="preserve">https://tiss.tuwien.ac.at/thesis/thesisDetails.xhtml?dswid=2782&amp;dsrid=203&amp;thesisId=85720</t>
   </si>
   <si>
     <t xml:space="preserve">Optimierung von 3D Convolutions auf Embedded Hardware für autonomes Fahren</t>
   </si>
   <si>
-    <t xml:space="preserve">https://tiss.tuwien.ac.at/thesis/thesisDetails.xhtml?dswid=2782&amp;dsrid=203&amp;thesisId=85720</t>
+    <t xml:space="preserve">https://tiss.tuwien.ac.at/thesis/thesisDetails.xhtml?dswid=8201&amp;dsrid=413&amp;thesisId=96423</t>
   </si>
   <si>
     <t xml:space="preserve">Real-time Simultaneous Face Detection and Pose Estimation</t>
   </si>
   <si>
-    <t xml:space="preserve">https://tiss.tuwien.ac.at/thesis/thesisDetails.xhtml?dswid=8201&amp;dsrid=413&amp;thesisId=96423</t>
+    <t xml:space="preserve">matthias.bittner@tuwien.ac.at</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://tiss.tuwien.ac.at/thesis/thesisDetails.xhtml?dswid=8384&amp;dsrid=99&amp;thesisId=98360</t>
   </si>
   <si>
     <t xml:space="preserve">Bittner</t>
@@ -2761,7 +2782,10 @@
     <t xml:space="preserve">Vision based workplace safety monitor in an automotive test bench</t>
   </si>
   <si>
-    <t xml:space="preserve">https://tiss.tuwien.ac.at/thesis/thesisDetails.xhtml?dswid=8384&amp;dsrid=99&amp;thesisId=98360</t>
+    <t xml:space="preserve">nima.taherinejad@tuwien.ac.at</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://tiss.tuwien.ac.at/thesis/thesisDetails.xhtml?dswid=6371&amp;dsrid=717&amp;thesisId=37487</t>
   </si>
   <si>
     <t xml:space="preserve">Nima</t>
@@ -2770,19 +2794,22 @@
     <t xml:space="preserve">Designing an all-digital DLL for an open-source DDR3 controller</t>
   </si>
   <si>
-    <t xml:space="preserve">https://tiss.tuwien.ac.at/thesis/thesisDetails.xhtml?dswid=6371&amp;dsrid=717&amp;thesisId=37487</t>
+    <t xml:space="preserve">https://tiss.tuwien.ac.at/thesis/thesisDetails.xhtml?dswid=2720&amp;dsrid=822&amp;thesisId=57335</t>
   </si>
   <si>
     <t xml:space="preserve">Deep Learning with Reduced Precision Weights</t>
   </si>
   <si>
-    <t xml:space="preserve">https://tiss.tuwien.ac.at/thesis/thesisDetails.xhtml?dswid=2720&amp;dsrid=822&amp;thesisId=57335</t>
+    <t xml:space="preserve">https://tiss.tuwien.ac.at/thesis/thesisDetails.xhtml?dswid=1203&amp;dsrid=744&amp;thesisId=57337</t>
   </si>
   <si>
     <t xml:space="preserve">Embedded Deep Learning Inference with Shift-CNN</t>
   </si>
   <si>
-    <t xml:space="preserve">https://tiss.tuwien.ac.at/thesis/thesisDetails.xhtml?dswid=1203&amp;dsrid=744&amp;thesisId=57337</t>
+    <t xml:space="preserve">daniel.schnoell@tuwien.ac.at</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://eml.ict.tuwien.ac.at/PublFiles/Theses/analytical_approximation_of_statistical_rounding.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Schnöll</t>
@@ -2791,7 +2818,10 @@
     <t xml:space="preserve">Analytical Approximation of Statistical Rounding</t>
   </si>
   <si>
-    <t xml:space="preserve">https://eml.ict.tuwien.ac.at/PublFiles/Theses/analytical_approximation_of_statistical_rounding.pdf</t>
+    <t xml:space="preserve">maximilian.goetzinger@tuwien.ac.at</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://eml.ict.tuwien.ac.at/PublFiles/Theses/EML_Master_Thesis_Monocular_Depth_Estimation_V01.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Götzinger</t>
@@ -2800,19 +2830,16 @@
     <t xml:space="preserve">Monocular Depth Estimation using Self/Semi-Supervised Learning</t>
   </si>
   <si>
-    <t xml:space="preserve">https://eml.ict.tuwien.ac.at/PublFiles/Theses/EML_Master_Thesis_Monocular_Depth_Estimation_V01.pdf</t>
+    <t xml:space="preserve">https://eml.ict.tuwien.ac.at/PublFiles/Theses/EML_Master_Thesis_Rail_Track_Switch_Filter_V01.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Filtering of Rail-track Switches using Ensemble Learning</t>
   </si>
   <si>
-    <t xml:space="preserve">https://eml.ict.tuwien.ac.at/PublFiles/Theses/EML_Master_Thesis_Rail_Track_Switch_Filter_V01.pdf</t>
+    <t xml:space="preserve">https://eml.ict.tuwien.ac.at/PublFiles/Theses/Adapting_a_Railroad_Anomaly_Detector_for_Embedded_Hardware.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Adapting a Railroad Anomaly Detector for Embedded Hardware</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://eml.ict.tuwien.ac.at/PublFiles/Theses/Adapting_a_Railroad_Anomaly_Detector_for_Embedded_Hardware.pdf</t>
   </si>
 </sst>
 </file>
@@ -37932,22 +37959,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G23" activeCellId="0" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.2109375" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="257" width="5.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="257" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="257" width="50.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="257" width="55.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="97.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="257" width="32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="97.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="257" width="11.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="257" width="50.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="257" width="55.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="97.1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="269" t="s">
         <v>659</v>
       </c>
@@ -37958,314 +37988,401 @@
         <v>727</v>
       </c>
       <c r="D1" s="269" t="s">
+        <v>662</v>
+      </c>
+      <c r="E1" s="269" t="s">
         <v>728</v>
       </c>
-      <c r="E1" s="269" t="s">
+      <c r="F1" s="269" t="s">
+        <v>729</v>
+      </c>
+      <c r="G1" s="269" t="s">
+        <v>730</v>
+      </c>
+      <c r="H1" s="269" t="s">
         <v>657</v>
       </c>
-      <c r="F1" s="269" t="s">
-        <v>662</v>
-      </c>
     </row>
-    <row r="2" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="269" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="B2" s="269" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="C2" s="269" t="s">
+        <v>733</v>
+      </c>
+      <c r="D2" s="269" t="s">
+        <v>734</v>
+      </c>
+      <c r="E2" s="269" t="s">
+        <v>735</v>
+      </c>
+      <c r="F2" s="269" t="s">
+        <v>736</v>
+      </c>
+      <c r="G2" s="270" t="n">
+        <v>44880</v>
+      </c>
+      <c r="H2" s="271" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="269" t="s">
         <v>731</v>
       </c>
-      <c r="D2" s="270" t="n">
+      <c r="B3" s="269" t="s">
+        <v>732</v>
+      </c>
+      <c r="C3" s="269" t="s">
+        <v>733</v>
+      </c>
+      <c r="D3" s="269" t="s">
+        <v>738</v>
+      </c>
+      <c r="E3" s="269" t="s">
+        <v>735</v>
+      </c>
+      <c r="F3" s="269" t="s">
+        <v>736</v>
+      </c>
+      <c r="G3" s="270" t="n">
         <v>44880</v>
       </c>
-      <c r="E2" s="271" t="s">
+      <c r="H3" s="256" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="269" t="s">
+        <v>740</v>
+      </c>
+      <c r="B4" s="269" t="s">
         <v>732</v>
       </c>
-      <c r="F2" s="269" t="s">
+      <c r="C4" s="269" t="s">
         <v>733</v>
       </c>
+      <c r="D4" s="269" t="s">
+        <v>741</v>
+      </c>
+      <c r="E4" s="269" t="s">
+        <v>735</v>
+      </c>
+      <c r="F4" s="269" t="s">
+        <v>736</v>
+      </c>
+      <c r="G4" s="270" t="n">
+        <v>44880</v>
+      </c>
+      <c r="H4" s="256" t="s">
+        <v>742</v>
+      </c>
     </row>
-    <row r="3" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="269" t="s">
-        <v>729</v>
-      </c>
-      <c r="B3" s="269" t="s">
-        <v>730</v>
-      </c>
-      <c r="C3" s="269" t="s">
-        <v>731</v>
-      </c>
-      <c r="D3" s="270" t="n">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="257" t="s">
+        <v>740</v>
+      </c>
+      <c r="B5" s="257" t="s">
+        <v>732</v>
+      </c>
+      <c r="C5" s="257" t="s">
+        <v>743</v>
+      </c>
+      <c r="D5" s="257" t="s">
+        <v>744</v>
+      </c>
+      <c r="E5" s="257" t="s">
+        <v>735</v>
+      </c>
+      <c r="F5" s="257" t="s">
+        <v>745</v>
+      </c>
+      <c r="G5" s="270" t="n">
         <v>44880</v>
       </c>
-      <c r="E3" s="256" t="s">
-        <v>734</v>
-      </c>
-      <c r="F3" s="269" t="s">
+      <c r="H5" s="272" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="257" t="s">
+        <v>740</v>
+      </c>
+      <c r="B6" s="257" t="s">
+        <v>732</v>
+      </c>
+      <c r="C6" s="257" t="s">
+        <v>743</v>
+      </c>
+      <c r="D6" s="257" t="s">
+        <v>747</v>
+      </c>
+      <c r="E6" s="257" t="s">
         <v>735</v>
       </c>
+      <c r="F6" s="257" t="s">
+        <v>745</v>
+      </c>
+      <c r="G6" s="270" t="n">
+        <v>44102</v>
+      </c>
+      <c r="H6" s="272" t="s">
+        <v>748</v>
+      </c>
     </row>
-    <row r="4" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="269" t="s">
-        <v>736</v>
-      </c>
-      <c r="B4" s="269" t="s">
-        <v>730</v>
-      </c>
-      <c r="C4" s="269" t="s">
-        <v>731</v>
-      </c>
-      <c r="D4" s="270" t="n">
-        <v>44880</v>
-      </c>
-      <c r="E4" s="256" t="s">
-        <v>737</v>
-      </c>
-      <c r="F4" s="269" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="257" t="s">
-        <v>736</v>
-      </c>
-      <c r="B5" s="257" t="s">
-        <v>730</v>
-      </c>
-      <c r="C5" s="257" t="s">
-        <v>739</v>
-      </c>
-      <c r="D5" s="270" t="n">
-        <v>44880</v>
-      </c>
-      <c r="E5" s="272" t="s">
+    <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="257" t="s">
         <v>740</v>
       </c>
-      <c r="F5" s="257" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="257" t="s">
-        <v>736</v>
-      </c>
-      <c r="B6" s="257" t="s">
-        <v>730</v>
-      </c>
-      <c r="C6" s="257" t="s">
-        <v>739</v>
-      </c>
-      <c r="D6" s="270" t="n">
-        <v>44102</v>
-      </c>
-      <c r="E6" s="272" t="s">
-        <v>742</v>
-      </c>
-      <c r="F6" s="257" t="s">
+      <c r="B7" s="257" t="s">
+        <v>732</v>
+      </c>
+      <c r="C7" s="257" t="s">
         <v>743</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="257" t="s">
-        <v>736</v>
-      </c>
-      <c r="B7" s="257" t="s">
-        <v>730</v>
-      </c>
-      <c r="C7" s="257" t="s">
-        <v>739</v>
-      </c>
-      <c r="D7" s="270" t="n">
-        <v>44880</v>
-      </c>
-      <c r="E7" s="272" t="s">
-        <v>744</v>
+      <c r="D7" s="257" t="s">
+        <v>749</v>
+      </c>
+      <c r="E7" s="257" t="s">
+        <v>735</v>
       </c>
       <c r="F7" s="257" t="s">
         <v>745</v>
       </c>
+      <c r="G7" s="270" t="n">
+        <v>44880</v>
+      </c>
+      <c r="H7" s="272" t="s">
+        <v>750</v>
+      </c>
     </row>
-    <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="257" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="B8" s="257" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="C8" s="257" t="s">
-        <v>739</v>
-      </c>
-      <c r="D8" s="270" t="n">
+        <v>743</v>
+      </c>
+      <c r="D8" s="257" t="s">
+        <v>751</v>
+      </c>
+      <c r="E8" s="257" t="s">
+        <v>735</v>
+      </c>
+      <c r="F8" s="257" t="s">
+        <v>745</v>
+      </c>
+      <c r="G8" s="270" t="n">
         <v>44880</v>
       </c>
-      <c r="E8" s="272" t="s">
-        <v>746</v>
-      </c>
-      <c r="F8" s="257" t="s">
-        <v>747</v>
+      <c r="H8" s="272" t="s">
+        <v>752</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="257" t="s">
-        <v>736</v>
+        <v>740</v>
       </c>
       <c r="B9" s="257" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="C9" s="257" t="s">
-        <v>748</v>
-      </c>
-      <c r="D9" s="270" t="n">
+        <v>753</v>
+      </c>
+      <c r="D9" s="257" t="s">
+        <v>754</v>
+      </c>
+      <c r="E9" s="257" t="s">
+        <v>735</v>
+      </c>
+      <c r="F9" s="257" t="s">
+        <v>755</v>
+      </c>
+      <c r="G9" s="270" t="n">
         <v>44880</v>
       </c>
-      <c r="E9" s="272" t="s">
-        <v>749</v>
-      </c>
-      <c r="F9" s="257" t="s">
-        <v>750</v>
+      <c r="H9" s="272" t="s">
+        <v>756</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="257" t="s">
-        <v>736</v>
+        <v>740</v>
       </c>
       <c r="B10" s="257" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="C10" s="257" t="s">
-        <v>751</v>
-      </c>
-      <c r="D10" s="270" t="n">
+        <v>757</v>
+      </c>
+      <c r="D10" s="257" t="s">
+        <v>758</v>
+      </c>
+      <c r="E10" s="257" t="s">
+        <v>735</v>
+      </c>
+      <c r="F10" s="257" t="s">
+        <v>759</v>
+      </c>
+      <c r="G10" s="270" t="n">
         <v>42509</v>
       </c>
-      <c r="E10" s="272" t="s">
-        <v>752</v>
-      </c>
-      <c r="F10" s="257" t="s">
-        <v>753</v>
+      <c r="H10" s="272" t="s">
+        <v>760</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="257" t="s">
-        <v>736</v>
+        <v>740</v>
       </c>
       <c r="B11" s="257" t="s">
-        <v>730</v>
-      </c>
-      <c r="D11" s="270" t="n">
+        <v>732</v>
+      </c>
+      <c r="D11" s="257" t="s">
+        <v>761</v>
+      </c>
+      <c r="E11" s="257" t="s">
+        <v>735</v>
+      </c>
+      <c r="G11" s="270" t="n">
         <v>43279</v>
       </c>
-      <c r="E11" s="272" t="s">
-        <v>754</v>
-      </c>
-      <c r="F11" s="257" t="s">
-        <v>755</v>
+      <c r="H11" s="272" t="s">
+        <v>762</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="257" t="s">
-        <v>736</v>
+        <v>740</v>
       </c>
       <c r="B12" s="257" t="s">
-        <v>730</v>
-      </c>
-      <c r="D12" s="270" t="n">
+        <v>732</v>
+      </c>
+      <c r="D12" s="257" t="s">
+        <v>763</v>
+      </c>
+      <c r="E12" s="257" t="s">
+        <v>735</v>
+      </c>
+      <c r="G12" s="270" t="n">
         <v>43279</v>
       </c>
-      <c r="E12" s="272" t="s">
-        <v>756</v>
-      </c>
-      <c r="F12" s="257" t="s">
-        <v>757</v>
+      <c r="H12" s="272" t="s">
+        <v>764</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="257" t="s">
-        <v>736</v>
+        <v>740</v>
       </c>
       <c r="B13" s="257" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="C13" s="257" t="s">
-        <v>758</v>
-      </c>
-      <c r="D13" s="270" t="n">
+        <v>765</v>
+      </c>
+      <c r="D13" s="265" t="s">
+        <v>766</v>
+      </c>
+      <c r="E13" s="257" t="s">
+        <v>735</v>
+      </c>
+      <c r="F13" s="257" t="s">
+        <v>767</v>
+      </c>
+      <c r="G13" s="270" t="n">
         <v>44880</v>
       </c>
-      <c r="E13" s="257" t="s">
-        <v>759</v>
-      </c>
-      <c r="F13" s="265" t="s">
-        <v>760</v>
+      <c r="H13" s="257" t="s">
+        <v>768</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="257" t="s">
-        <v>736</v>
+        <v>740</v>
       </c>
       <c r="B14" s="257" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="C14" s="257" t="s">
-        <v>761</v>
-      </c>
-      <c r="D14" s="270" t="n">
+        <v>769</v>
+      </c>
+      <c r="D14" s="265" t="s">
+        <v>770</v>
+      </c>
+      <c r="E14" s="257" t="s">
+        <v>735</v>
+      </c>
+      <c r="F14" s="257" t="s">
+        <v>771</v>
+      </c>
+      <c r="G14" s="270" t="n">
         <v>44895</v>
       </c>
-      <c r="E14" s="257" t="s">
-        <v>762</v>
-      </c>
-      <c r="F14" s="265" t="s">
-        <v>763</v>
+      <c r="H14" s="257" t="s">
+        <v>772</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="257" t="s">
-        <v>736</v>
+        <v>740</v>
       </c>
       <c r="B15" s="257" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="C15" s="257" t="s">
-        <v>761</v>
-      </c>
-      <c r="D15" s="270" t="n">
+        <v>769</v>
+      </c>
+      <c r="D15" s="265" t="s">
+        <v>773</v>
+      </c>
+      <c r="E15" s="257" t="s">
+        <v>735</v>
+      </c>
+      <c r="F15" s="257" t="s">
+        <v>771</v>
+      </c>
+      <c r="G15" s="270" t="n">
         <v>44895</v>
       </c>
-      <c r="E15" s="257" t="s">
-        <v>764</v>
-      </c>
-      <c r="F15" s="265" t="s">
-        <v>765</v>
+      <c r="H15" s="257" t="s">
+        <v>774</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="257" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="B16" s="257" t="s">
-        <v>761</v>
-      </c>
-      <c r="C16" s="257"/>
-      <c r="D16" s="270" t="n">
+        <v>769</v>
+      </c>
+      <c r="D16" s="265" t="s">
+        <v>775</v>
+      </c>
+      <c r="E16" s="257" t="s">
+        <v>771</v>
+      </c>
+      <c r="F16" s="257"/>
+      <c r="G16" s="270" t="n">
         <v>44904</v>
       </c>
-      <c r="E16" s="257" t="s">
-        <v>766</v>
-      </c>
-      <c r="F16" s="265" t="s">
-        <v>767</v>
+      <c r="H16" s="257" t="s">
+        <v>776</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F13" r:id="rId1" display="https://eml.ict.tuwien.ac.at/PublFiles/Theses/analytical_approximation_of_statistical_rounding.pdf"/>
-    <hyperlink ref="F14" r:id="rId2" display="https://eml.ict.tuwien.ac.at/PublFiles/Theses/EML_Master_Thesis_Monocular_Depth_Estimation_V01.pdf"/>
-    <hyperlink ref="F15" r:id="rId3" display="https://eml.ict.tuwien.ac.at/PublFiles/Theses/EML_Master_Thesis_Rail_Track_Switch_Filter_V01.pdf"/>
-    <hyperlink ref="F16" r:id="rId4" display="https://eml.ict.tuwien.ac.at/PublFiles/Theses/Adapting_a_Railroad_Anomaly_Detector_for_Embedded_Hardware.pdf"/>
+    <hyperlink ref="B2" r:id="rId1" display="axel.jantsch@tuwien.ac.at"/>
+    <hyperlink ref="D13" r:id="rId2" display="https://eml.ict.tuwien.ac.at/PublFiles/Theses/analytical_approximation_of_statistical_rounding.pdf"/>
+    <hyperlink ref="D14" r:id="rId3" display="https://eml.ict.tuwien.ac.at/PublFiles/Theses/EML_Master_Thesis_Monocular_Depth_Estimation_V01.pdf"/>
+    <hyperlink ref="D15" r:id="rId4" display="https://eml.ict.tuwien.ac.at/PublFiles/Theses/EML_Master_Thesis_Rail_Track_Switch_Filter_V01.pdf"/>
+    <hyperlink ref="D16" r:id="rId5" display="https://eml.ict.tuwien.ac.at/PublFiles/Theses/Adapting_a_Railroad_Anomaly_Detector_for_Embedded_Hardware.pdf"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/_data/CDLEML_WP_Progress_EML-Process.xlsx
+++ b/_data/CDLEML_WP_Progress_EML-Process.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1628" uniqueCount="777">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1635" uniqueCount="779">
   <si>
     <t xml:space="preserve">Compliance zu WPs CDLEML</t>
   </si>
@@ -2841,12 +2841,18 @@
   <si>
     <t xml:space="preserve">Adapting a Railroad Anomaly Detector for Embedded Hardware</t>
   </si>
+  <si>
+    <t xml:space="preserve">https://eml.ict.tuwien.ac.at/PublFiles/Theses/MSC_Segmentation_Disaster.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exploring FPGA and eGPU for Disaster-Scene Analysis</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="8">
+  <numFmts count="9">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0\ %"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
@@ -2855,8 +2861,9 @@
     <numFmt numFmtId="169" formatCode="dd/mmm"/>
     <numFmt numFmtId="170" formatCode="0.0000"/>
     <numFmt numFmtId="171" formatCode="General"/>
+    <numFmt numFmtId="172" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="37">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -3112,6 +3119,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="13">
@@ -3880,7 +3893,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="273">
+  <cellXfs count="275">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4973,6 +4986,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -37959,13 +37980,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G23" activeCellId="0" sqref="G23"/>
+      <selection pane="topLeft" activeCell="H18" activeCellId="0" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.2265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="257" width="5.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="257" width="32"/>
@@ -38374,6 +38395,32 @@
       </c>
       <c r="H16" s="257" t="s">
         <v>776</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="257" t="s">
+        <v>740</v>
+      </c>
+      <c r="B17" s="257" t="s">
+        <v>732</v>
+      </c>
+      <c r="C17" s="273" t="s">
+        <v>733</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>777</v>
+      </c>
+      <c r="E17" s="269" t="s">
+        <v>735</v>
+      </c>
+      <c r="F17" s="269" t="s">
+        <v>736</v>
+      </c>
+      <c r="G17" s="274" t="n">
+        <v>44566</v>
+      </c>
+      <c r="H17" s="257" t="s">
+        <v>778</v>
       </c>
     </row>
   </sheetData>

--- a/_data/CDLEML_WP_Progress_EML-Process.xlsx
+++ b/_data/CDLEML_WP_Progress_EML-Process.xlsx
@@ -2852,7 +2852,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="9">
+  <numFmts count="8">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0\ %"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
@@ -2861,9 +2861,8 @@
     <numFmt numFmtId="169" formatCode="dd/mmm"/>
     <numFmt numFmtId="170" formatCode="0.0000"/>
     <numFmt numFmtId="171" formatCode="General"/>
-    <numFmt numFmtId="172" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="37">
+  <fonts count="36">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -3119,12 +3118,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="13">
@@ -3893,7 +3886,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="275">
+  <cellXfs count="273">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4986,14 +4979,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -37983,10 +37968,10 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H18" activeCellId="0" sqref="H18"/>
+      <selection pane="topLeft" activeCell="G20" activeCellId="0" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.2265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.23828125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="257" width="5.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="257" width="32"/>
@@ -38404,7 +38389,7 @@
       <c r="B17" s="257" t="s">
         <v>732</v>
       </c>
-      <c r="C17" s="273" t="s">
+      <c r="C17" s="257" t="s">
         <v>733</v>
       </c>
       <c r="D17" s="0" t="s">
@@ -38416,7 +38401,7 @@
       <c r="F17" s="269" t="s">
         <v>736</v>
       </c>
-      <c r="G17" s="274" t="n">
+      <c r="G17" s="270" t="n">
         <v>44566</v>
       </c>
       <c r="H17" s="257" t="s">

--- a/_data/CDLEML_WP_Progress_EML-Process.xlsx
+++ b/_data/CDLEML_WP_Progress_EML-Process.xlsx
@@ -37968,14 +37968,15 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G20" activeCellId="0" sqref="G20"/>
+      <selection pane="topLeft" activeCell="G18" activeCellId="0" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23828125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="257" width="5.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="257" width="32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="97.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="257" width="36.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="257" width="32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="125.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="257" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="257" width="50.55"/>
@@ -38392,17 +38393,17 @@
       <c r="C17" s="257" t="s">
         <v>733</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" s="265" t="s">
         <v>777</v>
       </c>
-      <c r="E17" s="269" t="s">
+      <c r="E17" s="257" t="s">
         <v>735</v>
       </c>
-      <c r="F17" s="269" t="s">
+      <c r="F17" s="257" t="s">
         <v>736</v>
       </c>
       <c r="G17" s="270" t="n">
-        <v>44566</v>
+        <v>44931</v>
       </c>
       <c r="H17" s="257" t="s">
         <v>778</v>

--- a/_data/CDLEML_WP_Progress_EML-Process.xlsx
+++ b/_data/CDLEML_WP_Progress_EML-Process.xlsx
@@ -37967,11 +37967,11 @@
   </sheetPr>
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G18" activeCellId="0" sqref="G18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.28125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="257" width="5.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="257" width="36.68"/>
@@ -38212,7 +38212,7 @@
         <v>755</v>
       </c>
       <c r="G9" s="270" t="n">
-        <v>44880</v>
+        <v>44515</v>
       </c>
       <c r="H9" s="272" t="s">
         <v>756</v>

--- a/_data/CDLEML_WP_Progress_EML-Process.xlsx
+++ b/_data/CDLEML_WP_Progress_EML-Process.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1635" uniqueCount="779">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1636" uniqueCount="780">
   <si>
     <t xml:space="preserve">Compliance zu WPs CDLEML</t>
   </si>
@@ -2689,6 +2689,9 @@
     <t xml:space="preserve">https://github.com/embedded-machine-learning/MobileNetV3-Segmentation-Keras</t>
   </si>
   <si>
+    <t xml:space="preserve">Available</t>
+  </si>
+  <si>
     <t xml:space="preserve">Email1</t>
   </si>
   <si>
@@ -2788,7 +2791,7 @@
     <t xml:space="preserve">https://tiss.tuwien.ac.at/thesis/thesisDetails.xhtml?dswid=6371&amp;dsrid=717&amp;thesisId=37487</t>
   </si>
   <si>
-    <t xml:space="preserve">Nima</t>
+    <t xml:space="preserve">Taherinejad</t>
   </si>
   <si>
     <t xml:space="preserve">Designing an all-digital DLL for an open-source DDR3 controller</t>
@@ -2862,7 +2865,7 @@
     <numFmt numFmtId="170" formatCode="0.0000"/>
     <numFmt numFmtId="171" formatCode="General"/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="37">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -3118,6 +3121,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="13">
@@ -3886,7 +3895,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="273">
+  <cellXfs count="274">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4979,6 +4988,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -37965,40 +37978,41 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.2890625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="257" width="5.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="257" width="36.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="257" width="32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="125.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="257" width="11.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="257" width="50.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="257" width="55.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="97.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="257" width="5.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="257" width="36.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="257" width="32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="125.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="257" width="11.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="257" width="50.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="257" width="55.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="97.1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="269" t="s">
+      <c r="A1" s="0" t="s">
+        <v>726</v>
+      </c>
+      <c r="B1" s="269" t="s">
         <v>659</v>
-      </c>
-      <c r="B1" s="269" t="s">
-        <v>726</v>
       </c>
       <c r="C1" s="269" t="s">
         <v>727</v>
       </c>
       <c r="D1" s="269" t="s">
+        <v>728</v>
+      </c>
+      <c r="E1" s="269" t="s">
         <v>662</v>
-      </c>
-      <c r="E1" s="269" t="s">
-        <v>728</v>
       </c>
       <c r="F1" s="269" t="s">
         <v>729</v>
@@ -38007,12 +38021,15 @@
         <v>730</v>
       </c>
       <c r="H1" s="269" t="s">
+        <v>731</v>
+      </c>
+      <c r="I1" s="269" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="269" t="s">
-        <v>731</v>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="B2" s="269" t="s">
         <v>732</v>
@@ -38029,16 +38046,19 @@
       <c r="F2" s="269" t="s">
         <v>736</v>
       </c>
-      <c r="G2" s="270" t="n">
+      <c r="G2" s="269" t="s">
+        <v>737</v>
+      </c>
+      <c r="H2" s="270" t="n">
         <v>44880</v>
       </c>
-      <c r="H2" s="271" t="s">
-        <v>737</v>
+      <c r="I2" s="271" t="s">
+        <v>738</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="269" t="s">
-        <v>731</v>
+    <row r="3" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="B3" s="269" t="s">
         <v>732</v>
@@ -38047,375 +38067,420 @@
         <v>733</v>
       </c>
       <c r="D3" s="269" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="E3" s="269" t="s">
-        <v>735</v>
+        <v>739</v>
       </c>
       <c r="F3" s="269" t="s">
         <v>736</v>
       </c>
-      <c r="G3" s="270" t="n">
+      <c r="G3" s="269" t="s">
+        <v>737</v>
+      </c>
+      <c r="H3" s="270" t="n">
         <v>44880</v>
       </c>
-      <c r="H3" s="256" t="s">
-        <v>739</v>
+      <c r="I3" s="256" t="s">
+        <v>740</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="269" t="s">
-        <v>740</v>
+    <row r="4" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="B4" s="269" t="s">
-        <v>732</v>
+        <v>741</v>
       </c>
       <c r="C4" s="269" t="s">
         <v>733</v>
       </c>
       <c r="D4" s="269" t="s">
-        <v>741</v>
+        <v>734</v>
       </c>
       <c r="E4" s="269" t="s">
-        <v>735</v>
+        <v>742</v>
       </c>
       <c r="F4" s="269" t="s">
         <v>736</v>
       </c>
-      <c r="G4" s="270" t="n">
+      <c r="G4" s="269" t="s">
+        <v>737</v>
+      </c>
+      <c r="H4" s="270" t="n">
         <v>44880</v>
       </c>
-      <c r="H4" s="256" t="s">
-        <v>742</v>
+      <c r="I4" s="256" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="257" t="s">
-        <v>740</v>
+      <c r="A5" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="B5" s="257" t="s">
-        <v>732</v>
+        <v>741</v>
       </c>
       <c r="C5" s="257" t="s">
-        <v>743</v>
+        <v>733</v>
       </c>
       <c r="D5" s="257" t="s">
         <v>744</v>
       </c>
       <c r="E5" s="257" t="s">
-        <v>735</v>
+        <v>745</v>
       </c>
       <c r="F5" s="257" t="s">
-        <v>745</v>
-      </c>
-      <c r="G5" s="270" t="n">
+        <v>736</v>
+      </c>
+      <c r="G5" s="257" t="s">
+        <v>746</v>
+      </c>
+      <c r="H5" s="270" t="n">
         <v>44880</v>
       </c>
-      <c r="H5" s="272" t="s">
-        <v>746</v>
+      <c r="I5" s="272" t="s">
+        <v>747</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="257" t="s">
-        <v>740</v>
+      <c r="A6" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="B6" s="257" t="s">
-        <v>732</v>
+        <v>741</v>
       </c>
       <c r="C6" s="257" t="s">
-        <v>743</v>
+        <v>733</v>
       </c>
       <c r="D6" s="257" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="E6" s="257" t="s">
-        <v>735</v>
+        <v>748</v>
       </c>
       <c r="F6" s="257" t="s">
-        <v>745</v>
-      </c>
-      <c r="G6" s="270" t="n">
+        <v>736</v>
+      </c>
+      <c r="G6" s="257" t="s">
+        <v>746</v>
+      </c>
+      <c r="H6" s="270" t="n">
         <v>44102</v>
       </c>
-      <c r="H6" s="272" t="s">
-        <v>748</v>
+      <c r="I6" s="272" t="s">
+        <v>749</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="257" t="s">
-        <v>740</v>
+    <row r="7" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="B7" s="257" t="s">
-        <v>732</v>
+        <v>741</v>
       </c>
       <c r="C7" s="257" t="s">
-        <v>743</v>
+        <v>733</v>
       </c>
       <c r="D7" s="257" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="E7" s="257" t="s">
-        <v>735</v>
+        <v>750</v>
       </c>
       <c r="F7" s="257" t="s">
-        <v>745</v>
-      </c>
-      <c r="G7" s="270" t="n">
+        <v>736</v>
+      </c>
+      <c r="G7" s="257" t="s">
+        <v>746</v>
+      </c>
+      <c r="H7" s="270" t="n">
         <v>44880</v>
       </c>
-      <c r="H7" s="272" t="s">
-        <v>750</v>
+      <c r="I7" s="272" t="s">
+        <v>751</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="257" t="s">
-        <v>731</v>
+      <c r="A8" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="B8" s="257" t="s">
         <v>732</v>
       </c>
       <c r="C8" s="257" t="s">
-        <v>743</v>
+        <v>733</v>
       </c>
       <c r="D8" s="257" t="s">
-        <v>751</v>
+        <v>744</v>
       </c>
       <c r="E8" s="257" t="s">
-        <v>735</v>
+        <v>752</v>
       </c>
       <c r="F8" s="257" t="s">
-        <v>745</v>
-      </c>
-      <c r="G8" s="270" t="n">
+        <v>736</v>
+      </c>
+      <c r="G8" s="257" t="s">
+        <v>746</v>
+      </c>
+      <c r="H8" s="270" t="n">
         <v>44880</v>
       </c>
-      <c r="H8" s="272" t="s">
-        <v>752</v>
+      <c r="I8" s="272" t="s">
+        <v>753</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="257" t="s">
-        <v>740</v>
+      <c r="A9" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="B9" s="257" t="s">
-        <v>732</v>
+        <v>741</v>
       </c>
       <c r="C9" s="257" t="s">
-        <v>753</v>
+        <v>733</v>
       </c>
       <c r="D9" s="257" t="s">
         <v>754</v>
       </c>
       <c r="E9" s="257" t="s">
-        <v>735</v>
+        <v>755</v>
       </c>
       <c r="F9" s="257" t="s">
-        <v>755</v>
-      </c>
-      <c r="G9" s="270" t="n">
-        <v>44515</v>
-      </c>
-      <c r="H9" s="272" t="s">
+        <v>736</v>
+      </c>
+      <c r="G9" s="257" t="s">
         <v>756</v>
+      </c>
+      <c r="H9" s="270" t="n">
+        <v>44880</v>
+      </c>
+      <c r="I9" s="272" t="s">
+        <v>757</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="257" t="s">
-        <v>740</v>
+      <c r="A10" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="B10" s="257" t="s">
-        <v>732</v>
+        <v>741</v>
       </c>
       <c r="C10" s="257" t="s">
-        <v>757</v>
+        <v>733</v>
       </c>
       <c r="D10" s="257" t="s">
         <v>758</v>
       </c>
       <c r="E10" s="257" t="s">
-        <v>735</v>
+        <v>759</v>
       </c>
       <c r="F10" s="257" t="s">
-        <v>759</v>
-      </c>
-      <c r="G10" s="270" t="n">
+        <v>736</v>
+      </c>
+      <c r="G10" s="273" t="s">
+        <v>760</v>
+      </c>
+      <c r="H10" s="270" t="n">
         <v>42509</v>
       </c>
-      <c r="H10" s="272" t="s">
-        <v>760</v>
+      <c r="I10" s="272" t="s">
+        <v>761</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="257" t="s">
-        <v>740</v>
+      <c r="A11" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="B11" s="257" t="s">
-        <v>732</v>
-      </c>
-      <c r="D11" s="257" t="s">
-        <v>761</v>
+        <v>741</v>
+      </c>
+      <c r="C11" s="257" t="s">
+        <v>733</v>
       </c>
       <c r="E11" s="257" t="s">
-        <v>735</v>
-      </c>
-      <c r="G11" s="270" t="n">
+        <v>762</v>
+      </c>
+      <c r="F11" s="257" t="s">
+        <v>736</v>
+      </c>
+      <c r="H11" s="270" t="n">
         <v>43279</v>
       </c>
-      <c r="H11" s="272" t="s">
-        <v>762</v>
+      <c r="I11" s="272" t="s">
+        <v>763</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="257" t="s">
-        <v>740</v>
+      <c r="A12" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="B12" s="257" t="s">
-        <v>732</v>
-      </c>
-      <c r="D12" s="257" t="s">
-        <v>763</v>
+        <v>741</v>
+      </c>
+      <c r="C12" s="257" t="s">
+        <v>733</v>
       </c>
       <c r="E12" s="257" t="s">
-        <v>735</v>
-      </c>
-      <c r="G12" s="270" t="n">
+        <v>764</v>
+      </c>
+      <c r="F12" s="257" t="s">
+        <v>736</v>
+      </c>
+      <c r="H12" s="270" t="n">
         <v>43279</v>
       </c>
-      <c r="H12" s="272" t="s">
-        <v>764</v>
+      <c r="I12" s="272" t="s">
+        <v>765</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="257" t="s">
-        <v>740</v>
+      <c r="A13" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="B13" s="257" t="s">
-        <v>732</v>
+        <v>741</v>
       </c>
       <c r="C13" s="257" t="s">
-        <v>765</v>
-      </c>
-      <c r="D13" s="265" t="s">
+        <v>733</v>
+      </c>
+      <c r="D13" s="257" t="s">
         <v>766</v>
       </c>
-      <c r="E13" s="257" t="s">
-        <v>735</v>
+      <c r="E13" s="265" t="s">
+        <v>767</v>
       </c>
       <c r="F13" s="257" t="s">
-        <v>767</v>
-      </c>
-      <c r="G13" s="270" t="n">
+        <v>736</v>
+      </c>
+      <c r="G13" s="257" t="s">
+        <v>768</v>
+      </c>
+      <c r="H13" s="270" t="n">
         <v>44880</v>
       </c>
-      <c r="H13" s="257" t="s">
-        <v>768</v>
+      <c r="I13" s="257" t="s">
+        <v>769</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="257" t="s">
-        <v>740</v>
+      <c r="A14" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="B14" s="257" t="s">
-        <v>732</v>
+        <v>741</v>
       </c>
       <c r="C14" s="257" t="s">
-        <v>769</v>
-      </c>
-      <c r="D14" s="265" t="s">
+        <v>733</v>
+      </c>
+      <c r="D14" s="257" t="s">
         <v>770</v>
       </c>
-      <c r="E14" s="257" t="s">
-        <v>735</v>
+      <c r="E14" s="265" t="s">
+        <v>771</v>
       </c>
       <c r="F14" s="257" t="s">
-        <v>771</v>
-      </c>
-      <c r="G14" s="270" t="n">
+        <v>736</v>
+      </c>
+      <c r="G14" s="257" t="s">
+        <v>772</v>
+      </c>
+      <c r="H14" s="270" t="n">
         <v>44895</v>
       </c>
-      <c r="H14" s="257" t="s">
-        <v>772</v>
+      <c r="I14" s="257" t="s">
+        <v>773</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="257" t="s">
-        <v>740</v>
+      <c r="A15" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="B15" s="257" t="s">
-        <v>732</v>
+        <v>741</v>
       </c>
       <c r="C15" s="257" t="s">
-        <v>769</v>
-      </c>
-      <c r="D15" s="265" t="s">
-        <v>773</v>
-      </c>
-      <c r="E15" s="257" t="s">
-        <v>735</v>
+        <v>733</v>
+      </c>
+      <c r="D15" s="257" t="s">
+        <v>770</v>
+      </c>
+      <c r="E15" s="265" t="s">
+        <v>774</v>
       </c>
       <c r="F15" s="257" t="s">
-        <v>771</v>
-      </c>
-      <c r="G15" s="270" t="n">
+        <v>736</v>
+      </c>
+      <c r="G15" s="257" t="s">
+        <v>772</v>
+      </c>
+      <c r="H15" s="270" t="n">
         <v>44895</v>
       </c>
-      <c r="H15" s="257" t="s">
-        <v>774</v>
+      <c r="I15" s="257" t="s">
+        <v>775</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="257" t="s">
-        <v>731</v>
+      <c r="A16" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="B16" s="257" t="s">
-        <v>769</v>
-      </c>
-      <c r="D16" s="265" t="s">
-        <v>775</v>
-      </c>
-      <c r="E16" s="257" t="s">
-        <v>771</v>
-      </c>
-      <c r="F16" s="257"/>
-      <c r="G16" s="270" t="n">
+        <v>732</v>
+      </c>
+      <c r="C16" s="257" t="s">
+        <v>770</v>
+      </c>
+      <c r="E16" s="265" t="s">
+        <v>776</v>
+      </c>
+      <c r="F16" s="257" t="s">
+        <v>772</v>
+      </c>
+      <c r="G16" s="257"/>
+      <c r="H16" s="270" t="n">
         <v>44904</v>
       </c>
-      <c r="H16" s="257" t="s">
-        <v>776</v>
+      <c r="I16" s="257" t="s">
+        <v>777</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="257" t="s">
-        <v>740</v>
+      <c r="A17" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="B17" s="257" t="s">
-        <v>732</v>
+        <v>741</v>
       </c>
       <c r="C17" s="257" t="s">
         <v>733</v>
       </c>
-      <c r="D17" s="265" t="s">
-        <v>777</v>
-      </c>
-      <c r="E17" s="257" t="s">
-        <v>735</v>
+      <c r="D17" s="257" t="s">
+        <v>734</v>
+      </c>
+      <c r="E17" s="265" t="s">
+        <v>778</v>
       </c>
       <c r="F17" s="257" t="s">
         <v>736</v>
       </c>
-      <c r="G17" s="270" t="n">
+      <c r="G17" s="257" t="s">
+        <v>737</v>
+      </c>
+      <c r="H17" s="270" t="n">
         <v>44931</v>
       </c>
-      <c r="H17" s="257" t="s">
-        <v>778</v>
+      <c r="I17" s="257" t="s">
+        <v>779</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="axel.jantsch@tuwien.ac.at"/>
-    <hyperlink ref="D13" r:id="rId2" display="https://eml.ict.tuwien.ac.at/PublFiles/Theses/analytical_approximation_of_statistical_rounding.pdf"/>
-    <hyperlink ref="D14" r:id="rId3" display="https://eml.ict.tuwien.ac.at/PublFiles/Theses/EML_Master_Thesis_Monocular_Depth_Estimation_V01.pdf"/>
-    <hyperlink ref="D15" r:id="rId4" display="https://eml.ict.tuwien.ac.at/PublFiles/Theses/EML_Master_Thesis_Rail_Track_Switch_Filter_V01.pdf"/>
-    <hyperlink ref="D16" r:id="rId5" display="https://eml.ict.tuwien.ac.at/PublFiles/Theses/Adapting_a_Railroad_Anomaly_Detector_for_Embedded_Hardware.pdf"/>
+    <hyperlink ref="C2" r:id="rId1" display="axel.jantsch@tuwien.ac.at"/>
+    <hyperlink ref="E13" r:id="rId2" display="https://eml.ict.tuwien.ac.at/PublFiles/Theses/analytical_approximation_of_statistical_rounding.pdf"/>
+    <hyperlink ref="E14" r:id="rId3" display="https://eml.ict.tuwien.ac.at/PublFiles/Theses/EML_Master_Thesis_Monocular_Depth_Estimation_V01.pdf"/>
+    <hyperlink ref="E15" r:id="rId4" display="https://eml.ict.tuwien.ac.at/PublFiles/Theses/EML_Master_Thesis_Rail_Track_Switch_Filter_V01.pdf"/>
+    <hyperlink ref="E16" r:id="rId5" display="https://eml.ict.tuwien.ac.at/PublFiles/Theses/Adapting_a_Railroad_Anomaly_Detector_for_Embedded_Hardware.pdf"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/_data/CDLEML_WP_Progress_EML-Process.xlsx
+++ b/_data/CDLEML_WP_Progress_EML-Process.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1636" uniqueCount="780">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1664" uniqueCount="788">
   <si>
     <t xml:space="preserve">Compliance zu WPs CDLEML</t>
   </si>
@@ -2850,6 +2850,30 @@
   <si>
     <t xml:space="preserve">Exploring FPGA and eGPU for Disaster-Scene Analysis</t>
   </si>
+  <si>
+    <t xml:space="preserve">https://eml.ict.tuwien.ac.at/PublFiles/Theses/EMLCDL_Master_Depth-wiseConcatenationOfTwoPrunedNetworks_V01.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Depth-wise Concatenation of Two Pruned Networks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://eml.ict.tuwien.ac.at/PublFiles/Theses/EMLCDL_Master_EvaluationOfLaneDetectionCNNsForRailTracks.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evaluation of Lane Detection CNNs for Rail Tracks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://eml.ict.tuwien.ac.at/PublFiles/Theses/EMLCDL_Master_ReinforcementLearningForTrainRoutePrediction.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reinforcement Learning for Train Route Prediction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://eml.ict.tuwien.ac.at/PublFiles/Theses/EMLCDL_Master_SimultaneousDetectionAndSegmentationOfDifferentObjects.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simultaneous Detection and Segmentation of Different Objects</t>
+  </si>
 </sst>
 </file>
 
@@ -2865,7 +2889,7 @@
     <numFmt numFmtId="170" formatCode="0.0000"/>
     <numFmt numFmtId="171" formatCode="General"/>
   </numFmts>
-  <fonts count="37">
+  <fonts count="36">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -3121,12 +3145,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="13">
@@ -3895,7 +3913,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="274">
+  <cellXfs count="273">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4988,10 +5006,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -37978,13 +37992,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I20" activeCellId="0" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.2890625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.30078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="257" width="5.09"/>
@@ -38278,7 +38292,7 @@
       <c r="F10" s="257" t="s">
         <v>736</v>
       </c>
-      <c r="G10" s="273" t="s">
+      <c r="G10" s="257" t="s">
         <v>760</v>
       </c>
       <c r="H10" s="270" t="n">
@@ -38472,6 +38486,122 @@
       </c>
       <c r="I17" s="257" t="s">
         <v>779</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" s="257" t="s">
+        <v>741</v>
+      </c>
+      <c r="C18" s="257" t="s">
+        <v>733</v>
+      </c>
+      <c r="D18" s="257" t="s">
+        <v>770</v>
+      </c>
+      <c r="E18" s="265" t="s">
+        <v>780</v>
+      </c>
+      <c r="F18" s="257" t="s">
+        <v>736</v>
+      </c>
+      <c r="G18" s="257" t="s">
+        <v>772</v>
+      </c>
+      <c r="H18" s="270" t="n">
+        <v>45113</v>
+      </c>
+      <c r="I18" s="257" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" s="257" t="s">
+        <v>741</v>
+      </c>
+      <c r="C19" s="257" t="s">
+        <v>733</v>
+      </c>
+      <c r="D19" s="257" t="s">
+        <v>770</v>
+      </c>
+      <c r="E19" s="265" t="s">
+        <v>782</v>
+      </c>
+      <c r="F19" s="257" t="s">
+        <v>736</v>
+      </c>
+      <c r="G19" s="257" t="s">
+        <v>772</v>
+      </c>
+      <c r="H19" s="270" t="n">
+        <v>45113</v>
+      </c>
+      <c r="I19" s="257" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" s="257" t="s">
+        <v>741</v>
+      </c>
+      <c r="C20" s="257" t="s">
+        <v>733</v>
+      </c>
+      <c r="D20" s="257" t="s">
+        <v>770</v>
+      </c>
+      <c r="E20" s="265" t="s">
+        <v>784</v>
+      </c>
+      <c r="F20" s="257" t="s">
+        <v>736</v>
+      </c>
+      <c r="G20" s="257" t="s">
+        <v>772</v>
+      </c>
+      <c r="H20" s="270" t="n">
+        <v>45113</v>
+      </c>
+      <c r="I20" s="257" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B21" s="257" t="s">
+        <v>741</v>
+      </c>
+      <c r="C21" s="257" t="s">
+        <v>733</v>
+      </c>
+      <c r="D21" s="257" t="s">
+        <v>770</v>
+      </c>
+      <c r="E21" s="265" t="s">
+        <v>786</v>
+      </c>
+      <c r="F21" s="257" t="s">
+        <v>736</v>
+      </c>
+      <c r="G21" s="257" t="s">
+        <v>772</v>
+      </c>
+      <c r="H21" s="270" t="n">
+        <v>45113</v>
+      </c>
+      <c r="I21" s="257" t="s">
+        <v>787</v>
       </c>
     </row>
   </sheetData>
@@ -38481,6 +38611,7 @@
     <hyperlink ref="E14" r:id="rId3" display="https://eml.ict.tuwien.ac.at/PublFiles/Theses/EML_Master_Thesis_Monocular_Depth_Estimation_V01.pdf"/>
     <hyperlink ref="E15" r:id="rId4" display="https://eml.ict.tuwien.ac.at/PublFiles/Theses/EML_Master_Thesis_Rail_Track_Switch_Filter_V01.pdf"/>
     <hyperlink ref="E16" r:id="rId5" display="https://eml.ict.tuwien.ac.at/PublFiles/Theses/Adapting_a_Railroad_Anomaly_Detector_for_Embedded_Hardware.pdf"/>
+    <hyperlink ref="E18" r:id="rId6" display="https://eml.ict.tuwien.ac.at/PublFiles/Theses/EMLCDL_Master_Depth-wiseConcatenationOfTwoPrunedNetworks_V01.pdf"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/_data/CDLEML_WP_Progress_EML-Process.xlsx
+++ b/_data/CDLEML_WP_Progress_EML-Process.xlsx
@@ -37994,11 +37994,11 @@
   </sheetPr>
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I20" activeCellId="0" sqref="I20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H26" activeCellId="0" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.30078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.31640625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="257" width="5.09"/>
@@ -38511,7 +38511,7 @@
         <v>772</v>
       </c>
       <c r="H18" s="270" t="n">
-        <v>45113</v>
+        <v>45108</v>
       </c>
       <c r="I18" s="257" t="s">
         <v>781</v>
@@ -38540,7 +38540,7 @@
         <v>772</v>
       </c>
       <c r="H19" s="270" t="n">
-        <v>45113</v>
+        <v>45108</v>
       </c>
       <c r="I19" s="257" t="s">
         <v>783</v>
@@ -38569,7 +38569,7 @@
         <v>772</v>
       </c>
       <c r="H20" s="270" t="n">
-        <v>45113</v>
+        <v>45108</v>
       </c>
       <c r="I20" s="257" t="s">
         <v>785</v>
@@ -38598,7 +38598,7 @@
         <v>772</v>
       </c>
       <c r="H21" s="270" t="n">
-        <v>45113</v>
+        <v>45108</v>
       </c>
       <c r="I21" s="257" t="s">
         <v>787</v>

--- a/_data/CDLEML_WP_Progress_EML-Process.xlsx
+++ b/_data/CDLEML_WP_Progress_EML-Process.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1636" uniqueCount="780">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1664" uniqueCount="788">
   <si>
     <t xml:space="preserve">Compliance zu WPs CDLEML</t>
   </si>
@@ -2850,6 +2850,30 @@
   <si>
     <t xml:space="preserve">Exploring FPGA and eGPU for Disaster-Scene Analysis</t>
   </si>
+  <si>
+    <t xml:space="preserve">https://eml.ict.tuwien.ac.at/PublFiles/Theses/EMLCDL_Master_Depth-wiseConcatenationOfTwoPrunedNetworks_V01.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Depth-wise Concatenation of Two Pruned Networks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://eml.ict.tuwien.ac.at/PublFiles/Theses/EMLCDL_Master_EvaluationOfLaneDetectionCNNsForRailTracks.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evaluation of Lane Detection CNNs for Rail Tracks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://eml.ict.tuwien.ac.at/PublFiles/Theses/EMLCDL_Master_ReinforcementLearningForTrainRoutePrediction.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reinforcement Learning for Train Route Prediction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://eml.ict.tuwien.ac.at/PublFiles/Theses/EMLCDL_Master_SimultaneousDetectionAndSegmentationOfDifferentObjects.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simultaneous Detection and Segmentation of Different Objects</t>
+  </si>
 </sst>
 </file>
 
@@ -2865,7 +2889,7 @@
     <numFmt numFmtId="170" formatCode="0.0000"/>
     <numFmt numFmtId="171" formatCode="General"/>
   </numFmts>
-  <fonts count="37">
+  <fonts count="36">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -3121,12 +3145,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="13">
@@ -3895,7 +3913,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="274">
+  <cellXfs count="273">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4988,10 +5006,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -37978,13 +37992,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H26" activeCellId="0" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.2890625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.31640625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="257" width="5.09"/>
@@ -38278,7 +38292,7 @@
       <c r="F10" s="257" t="s">
         <v>736</v>
       </c>
-      <c r="G10" s="273" t="s">
+      <c r="G10" s="257" t="s">
         <v>760</v>
       </c>
       <c r="H10" s="270" t="n">
@@ -38472,6 +38486,122 @@
       </c>
       <c r="I17" s="257" t="s">
         <v>779</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" s="257" t="s">
+        <v>741</v>
+      </c>
+      <c r="C18" s="257" t="s">
+        <v>733</v>
+      </c>
+      <c r="D18" s="257" t="s">
+        <v>770</v>
+      </c>
+      <c r="E18" s="265" t="s">
+        <v>780</v>
+      </c>
+      <c r="F18" s="257" t="s">
+        <v>736</v>
+      </c>
+      <c r="G18" s="257" t="s">
+        <v>772</v>
+      </c>
+      <c r="H18" s="270" t="n">
+        <v>45108</v>
+      </c>
+      <c r="I18" s="257" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" s="257" t="s">
+        <v>741</v>
+      </c>
+      <c r="C19" s="257" t="s">
+        <v>733</v>
+      </c>
+      <c r="D19" s="257" t="s">
+        <v>770</v>
+      </c>
+      <c r="E19" s="265" t="s">
+        <v>782</v>
+      </c>
+      <c r="F19" s="257" t="s">
+        <v>736</v>
+      </c>
+      <c r="G19" s="257" t="s">
+        <v>772</v>
+      </c>
+      <c r="H19" s="270" t="n">
+        <v>45108</v>
+      </c>
+      <c r="I19" s="257" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" s="257" t="s">
+        <v>741</v>
+      </c>
+      <c r="C20" s="257" t="s">
+        <v>733</v>
+      </c>
+      <c r="D20" s="257" t="s">
+        <v>770</v>
+      </c>
+      <c r="E20" s="265" t="s">
+        <v>784</v>
+      </c>
+      <c r="F20" s="257" t="s">
+        <v>736</v>
+      </c>
+      <c r="G20" s="257" t="s">
+        <v>772</v>
+      </c>
+      <c r="H20" s="270" t="n">
+        <v>45108</v>
+      </c>
+      <c r="I20" s="257" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B21" s="257" t="s">
+        <v>741</v>
+      </c>
+      <c r="C21" s="257" t="s">
+        <v>733</v>
+      </c>
+      <c r="D21" s="257" t="s">
+        <v>770</v>
+      </c>
+      <c r="E21" s="265" t="s">
+        <v>786</v>
+      </c>
+      <c r="F21" s="257" t="s">
+        <v>736</v>
+      </c>
+      <c r="G21" s="257" t="s">
+        <v>772</v>
+      </c>
+      <c r="H21" s="270" t="n">
+        <v>45108</v>
+      </c>
+      <c r="I21" s="257" t="s">
+        <v>787</v>
       </c>
     </row>
   </sheetData>
@@ -38481,6 +38611,7 @@
     <hyperlink ref="E14" r:id="rId3" display="https://eml.ict.tuwien.ac.at/PublFiles/Theses/EML_Master_Thesis_Monocular_Depth_Estimation_V01.pdf"/>
     <hyperlink ref="E15" r:id="rId4" display="https://eml.ict.tuwien.ac.at/PublFiles/Theses/EML_Master_Thesis_Rail_Track_Switch_Filter_V01.pdf"/>
     <hyperlink ref="E16" r:id="rId5" display="https://eml.ict.tuwien.ac.at/PublFiles/Theses/Adapting_a_Railroad_Anomaly_Detector_for_Embedded_Hardware.pdf"/>
+    <hyperlink ref="E18" r:id="rId6" display="https://eml.ict.tuwien.ac.at/PublFiles/Theses/EMLCDL_Master_Depth-wiseConcatenationOfTwoPrunedNetworks_V01.pdf"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
